--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000" tabRatio="641" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000" tabRatio="641" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -8932,7 +8932,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.1236792152</c:v>
+                  <c:v>0.11005502239999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.4971746999999995E-3</c:v>
@@ -9078,7 +9078,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.10436318845000001</c:v>
+                  <c:v>9.3222245150000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.1480569999999994E-3</c:v>
@@ -41972,7 +41972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
@@ -51551,8 +51551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX127"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="O72" sqref="O72"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53173,21 +53173,21 @@
       </c>
       <c r="C94" s="65">
         <f>E114</f>
-        <v>0.1236792152</v>
+        <v>0.11005502239999999</v>
       </c>
       <c r="D94" s="65">
         <f>E118</f>
-        <v>0.10436318845000001</v>
+        <v>9.3222245150000008E-2</v>
       </c>
       <c r="E94" s="65"/>
       <c r="F94" s="65"/>
       <c r="G94" s="65">
         <f>I114</f>
-        <v>5.8558384829999997E-2</v>
+        <v>5.1002878209999998E-2</v>
       </c>
       <c r="H94" s="65">
         <f>I118</f>
-        <v>4.8810733145000007E-2</v>
+        <v>4.2630286615000006E-2</v>
       </c>
       <c r="I94" s="65"/>
       <c r="J94" s="65"/>
@@ -54852,11 +54852,11 @@
         <v>0.17136388999999999</v>
       </c>
       <c r="D114">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E114">
         <f>(C114*D114)+(C115*D115)</f>
-        <v>0.1236792152</v>
+        <v>0.11005502239999999</v>
       </c>
       <c r="G114" s="37" t="s">
         <v>1078</v>
@@ -54866,7 +54866,7 @@
       </c>
       <c r="I114">
         <f>(H114*D114)+(H115*D115)</f>
-        <v>5.8558384829999997E-2</v>
+        <v>5.1002878209999998E-2</v>
       </c>
       <c r="K114" s="37" t="s">
         <v>1078</v>
@@ -54876,7 +54876,7 @@
       </c>
       <c r="M114">
         <f>(L114*D114)+(L115*D115)</f>
-        <v>4.9009276020000006E-2</v>
+        <v>4.2908423740000007E-2</v>
       </c>
       <c r="O114" s="37" t="s">
         <v>1078</v>
@@ -54886,7 +54886,7 @@
       </c>
       <c r="Q114">
         <f>(P114*D114)+(P115*D115)</f>
-        <v>2.4278899824999998E-2</v>
+        <v>2.0946311775E-2</v>
       </c>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
@@ -54898,7 +54898,7 @@
       </c>
       <c r="D115">
         <f>1-D114</f>
-        <v>0.35</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G115" s="37" t="s">
         <v>1079</v>
@@ -54960,11 +54960,11 @@
         <v>0.14335649</v>
       </c>
       <c r="D118" s="37">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E118">
         <f>(C118*D118)+(C119*D119)</f>
-        <v>0.10436318845000001</v>
+        <v>9.3222245150000008E-2</v>
       </c>
       <c r="G118" s="37" t="s">
         <v>1078</v>
@@ -54974,7 +54974,7 @@
       </c>
       <c r="I118">
         <f>(H118*D118)+(H119*D119)</f>
-        <v>4.8810733145000007E-2</v>
+        <v>4.2630286615000006E-2</v>
       </c>
       <c r="K118" s="37" t="s">
         <v>1078</v>
@@ -54984,7 +54984,7 @@
       </c>
       <c r="M118">
         <f>(L118*D118)+(L119*D119)</f>
-        <v>4.2685887905000004E-2</v>
+        <v>3.7321990735000005E-2</v>
       </c>
       <c r="O118" s="37" t="s">
         <v>1078</v>
@@ -54994,7 +54994,7 @@
       </c>
       <c r="Q118">
         <f>(P118*D118)+(P119*D119)</f>
-        <v>1.8266084910000004E-2</v>
+        <v>1.5803535170000001E-2</v>
       </c>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.25">
@@ -55006,7 +55006,7 @@
       </c>
       <c r="D119" s="37">
         <f>1-D118</f>
-        <v>0.35</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G119" s="37" t="s">
         <v>1079</v>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="1250">
   <si>
     <t>Metric</t>
   </si>
@@ -8932,7 +8932,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.11005502239999999</c:v>
+                  <c:v>0.103242926</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.4971746999999995E-3</c:v>
@@ -9078,7 +9078,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>9.3222245150000008E-2</c:v>
+                  <c:v>8.7651773500000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.1480569999999994E-3</c:v>
@@ -51551,8 +51551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="M129" sqref="M129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53173,21 +53173,21 @@
       </c>
       <c r="C94" s="65">
         <f>E114</f>
-        <v>0.11005502239999999</v>
+        <v>0.103242926</v>
       </c>
       <c r="D94" s="65">
         <f>E118</f>
-        <v>9.3222245150000008E-2</v>
+        <v>8.7651773500000002E-2</v>
       </c>
       <c r="E94" s="65"/>
       <c r="F94" s="65"/>
       <c r="G94" s="65">
         <f>I114</f>
-        <v>5.1002878209999998E-2</v>
+        <v>4.7225124899999998E-2</v>
       </c>
       <c r="H94" s="65">
         <f>I118</f>
-        <v>4.2630286615000006E-2</v>
+        <v>3.9540063350000001E-2</v>
       </c>
       <c r="I94" s="65"/>
       <c r="J94" s="65"/>
@@ -54802,11 +54802,11 @@
       <c r="K112" s="37" t="s">
         <v>1053</v>
       </c>
-      <c r="O112" t="s">
+      <c r="P112" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>217</v>
       </c>
@@ -54834,17 +54834,20 @@
       <c r="L113" t="s">
         <v>1080</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M113" s="37" t="s">
+        <v>1083</v>
+      </c>
+      <c r="N113" t="s">
         <v>1125</v>
       </c>
-      <c r="O113" s="37" t="s">
+      <c r="P113" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="Q113" t="s">
+      <c r="R113" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>1078</v>
       </c>
@@ -54852,11 +54855,11 @@
         <v>0.17136388999999999</v>
       </c>
       <c r="D114">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="E114">
         <f>(C114*D114)+(C115*D115)</f>
-        <v>0.11005502239999999</v>
+        <v>0.103242926</v>
       </c>
       <c r="G114" s="37" t="s">
         <v>1078</v>
@@ -54866,7 +54869,7 @@
       </c>
       <c r="I114">
         <f>(H114*D114)+(H115*D115)</f>
-        <v>5.1002878209999998E-2</v>
+        <v>4.7225124899999998E-2</v>
       </c>
       <c r="K114" s="37" t="s">
         <v>1078</v>
@@ -54874,22 +54877,25 @@
       <c r="L114" s="37">
         <v>7.0362258999999996E-2</v>
       </c>
-      <c r="M114">
-        <f>(L114*D114)+(L115*D115)</f>
-        <v>4.2908423740000007E-2</v>
-      </c>
-      <c r="O114" s="37" t="s">
+      <c r="M114" s="37">
+        <v>0.53</v>
+      </c>
+      <c r="N114">
+        <f>(L114*M114)+(L115*M115)</f>
+        <v>4.1688253283999999E-2</v>
+      </c>
+      <c r="P114" s="37" t="s">
         <v>1078</v>
       </c>
-      <c r="P114" s="37">
+      <c r="Q114" s="37">
         <v>3.5942957999999997E-2</v>
       </c>
-      <c r="Q114">
-        <f>(P114*D114)+(P115*D115)</f>
-        <v>2.0946311775E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R114">
+        <f>(Q114*M114)+(Q115*M115)</f>
+        <v>2.0279794165E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>1079</v>
       </c>
@@ -54898,7 +54904,7 @@
       </c>
       <c r="D115">
         <f>1-D114</f>
-        <v>0.44999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G115" s="37" t="s">
         <v>1079</v>
@@ -54912,18 +54918,23 @@
       <c r="L115" s="37">
         <v>9.3537362000000006E-3</v>
       </c>
-      <c r="O115" s="37" t="s">
+      <c r="M115" s="37">
+        <f>1-M114</f>
+        <v>0.47</v>
+      </c>
+      <c r="P115" s="37" t="s">
         <v>1079</v>
       </c>
-      <c r="P115" s="37">
+      <c r="Q115" s="37">
         <v>2.6170774999999999E-3</v>
       </c>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K116" s="37"/>
-      <c r="O116" s="37"/>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M116" s="37"/>
+      <c r="P116" s="37"/>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B117" s="37" t="s">
         <v>1081</v>
       </c>
@@ -54948,11 +54959,14 @@
       <c r="K117" s="37" t="s">
         <v>1081</v>
       </c>
-      <c r="O117" s="37" t="s">
+      <c r="M117" s="37" t="s">
+        <v>1083</v>
+      </c>
+      <c r="P117" s="37" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B118" s="37" t="s">
         <v>1078</v>
       </c>
@@ -54960,11 +54974,11 @@
         <v>0.14335649</v>
       </c>
       <c r="D118" s="37">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="E118">
         <f>(C118*D118)+(C119*D119)</f>
-        <v>9.3222245150000008E-2</v>
+        <v>8.7651773500000002E-2</v>
       </c>
       <c r="G118" s="37" t="s">
         <v>1078</v>
@@ -54974,7 +54988,7 @@
       </c>
       <c r="I118">
         <f>(H118*D118)+(H119*D119)</f>
-        <v>4.2630286615000006E-2</v>
+        <v>3.9540063350000001E-2</v>
       </c>
       <c r="K118" s="37" t="s">
         <v>1078</v>
@@ -54982,22 +54996,25 @@
       <c r="L118" s="37">
         <v>6.1459527999999999E-2</v>
       </c>
-      <c r="M118">
-        <f>(L118*D118)+(L119*D119)</f>
-        <v>3.7321990735000005E-2</v>
-      </c>
-      <c r="O118" s="37" t="s">
+      <c r="M118" s="37">
+        <v>0.53</v>
+      </c>
+      <c r="N118">
+        <f>(L118*M118)+(L119*M119)</f>
+        <v>3.6249211300999999E-2</v>
+      </c>
+      <c r="P118" s="37" t="s">
         <v>1078</v>
       </c>
-      <c r="P118" s="37">
+      <c r="Q118" s="37">
         <v>2.6885009000000001E-2</v>
       </c>
-      <c r="Q118">
-        <f>(P118*D118)+(P119*D119)</f>
-        <v>1.5803535170000001E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R118">
+        <f>(Q118*M118)+(Q119*M119)</f>
+        <v>1.5311025222000002E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B119" s="37" t="s">
         <v>1079</v>
       </c>
@@ -55006,7 +55023,7 @@
       </c>
       <c r="D119" s="37">
         <f>1-D118</f>
-        <v>0.44999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G119" s="37" t="s">
         <v>1079</v>
@@ -55020,20 +55037,18 @@
       <c r="L119" s="37">
         <v>7.8205562999999999E-3</v>
       </c>
-      <c r="O119" s="37" t="s">
+      <c r="M119" s="37">
+        <f>1-M118</f>
+        <v>0.47</v>
+      </c>
+      <c r="P119" s="37" t="s">
         <v>1079</v>
       </c>
-      <c r="P119" s="37">
+      <c r="Q119" s="37">
         <v>2.2595115999999998E-3</v>
       </c>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D120">
-        <f>100-17</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C121">
         <v>0</v>
       </c>
@@ -55050,7 +55065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>1</v>
       </c>
@@ -55082,7 +55097,7 @@
         <v>0.24131406624814078</v>
       </c>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>2</v>
       </c>
@@ -55102,7 +55117,7 @@
         <v>77.145162397419966</v>
       </c>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>2</v>
       </c>
@@ -55116,7 +55131,7 @@
         <v>79.95327840327522</v>
       </c>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>3</v>
       </c>
@@ -55127,7 +55142,7 @@
         <v>82.863611000000006</v>
       </c>
     </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>4</v>
       </c>
@@ -55135,7 +55150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H127">
         <f>SUM(C122:G126)</f>
         <v>1300.0402769398795</v>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -41972,8 +41972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51551,8 +51551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="M129" sqref="M129"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53192,18 +53192,22 @@
       <c r="I94" s="65"/>
       <c r="J94" s="65"/>
       <c r="K94" s="65">
-        <v>3.98579976E-2</v>
+        <f>N114</f>
+        <v>4.1688253283999999E-2</v>
       </c>
       <c r="L94" s="65">
-        <v>3.4640042150000001E-2</v>
+        <f>N118</f>
+        <v>3.6249211300999999E-2</v>
       </c>
       <c r="M94" s="65"/>
       <c r="N94" s="65"/>
       <c r="O94" s="65">
-        <v>1.928001775E-2</v>
+        <f>R114</f>
+        <v>2.0279794165E-2</v>
       </c>
       <c r="P94" s="65">
-        <v>1.4572260300000001E-2</v>
+        <f>R118</f>
+        <v>1.5311025222000002E-2</v>
       </c>
       <c r="R94" s="37" t="s">
         <v>1228</v>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000" tabRatio="641" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000" tabRatio="641" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="1250">
   <si>
     <t>Metric</t>
   </si>
@@ -3789,19 +3789,19 @@
     <t>Popuation validataion</t>
   </si>
   <si>
-    <t>9-14</t>
-  </si>
-  <si>
-    <t>35-49</t>
-  </si>
-  <si>
-    <t>50-74</t>
-  </si>
-  <si>
     <t xml:space="preserve">new risk distribution for 10-19 age groups </t>
   </si>
   <si>
     <t>Med</t>
+  </si>
+  <si>
+    <t>0-9</t>
+  </si>
+  <si>
+    <t>10-19</t>
+  </si>
+  <si>
+    <t>60-79</t>
   </si>
 </sst>
 </file>
@@ -27254,8 +27254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="O169" sqref="O169"/>
+    <sheetView topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="I152" sqref="I152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33689,34 +33689,30 @@
       <c r="H168" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="I168" s="77" t="s">
-        <v>1245</v>
+      <c r="I168" t="s">
+        <v>1247</v>
       </c>
       <c r="J168" s="77" t="s">
-        <v>155</v>
+        <v>1248</v>
       </c>
       <c r="K168" s="77" t="s">
-        <v>551</v>
+        <v>1014</v>
       </c>
       <c r="L168" s="77" t="s">
-        <v>1246</v>
+        <v>156</v>
       </c>
       <c r="M168" s="77" t="s">
-        <v>1247</v>
-      </c>
-      <c r="N168" s="49"/>
+        <v>157</v>
+      </c>
+      <c r="N168" s="77" t="s">
+        <v>1155</v>
+      </c>
       <c r="O168" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="P168" s="37">
-        <v>2010</v>
-      </c>
-      <c r="Q168" s="16">
-        <v>2015</v>
-      </c>
-      <c r="R168" s="37">
-        <v>2020</v>
-      </c>
+        <v>1249</v>
+      </c>
+      <c r="P168" s="37"/>
+      <c r="Q168" s="16"/>
+      <c r="R168" s="37"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B169">
@@ -33728,39 +33724,37 @@
       <c r="H169">
         <v>2010</v>
       </c>
-      <c r="I169" s="7">
-        <f>SUM(K150:L150)/SUM(K150:L162)</f>
-        <v>0.18455088794778221</v>
-      </c>
-      <c r="J169" s="7">
-        <f>SUM(K151:L152)/SUM(K150:L162)</f>
-        <v>0.29972679302883304</v>
-      </c>
-      <c r="K169" s="7">
-        <f>SUM(K153:L154)/SUM(K150:L162)</f>
-        <v>0.22658361740335997</v>
-      </c>
-      <c r="L169" s="7">
-        <f>SUM(K155:L157)/SUM(K150:L162)</f>
-        <v>0.18761638709504364</v>
-      </c>
-      <c r="M169" s="7">
-        <f>SUM(K158:L162)/SUM(K150:L162)</f>
-        <v>0.10152231452498124</v>
-      </c>
-      <c r="N169" s="7"/>
-      <c r="O169" s="77" t="s">
-        <v>1245</v>
-      </c>
-      <c r="P169" s="50">
-        <v>5325.1570000000002</v>
-      </c>
-      <c r="Q169" s="50">
-        <v>6042.1419999999998</v>
-      </c>
-      <c r="R169" s="50">
-        <v>6736.223</v>
-      </c>
+      <c r="I169">
+        <f>SUM(K148:L149)/SUM(K148:L163)</f>
+        <v>0.30836194815624002</v>
+      </c>
+      <c r="J169" s="37">
+        <f>SUM(K150:L151)/SUM(K148:L163)</f>
+        <v>0.23369136293850706</v>
+      </c>
+      <c r="K169" s="37">
+        <f>SUM(K152:L153)/SUM(K148:L163)</f>
+        <v>0.18557385199250581</v>
+      </c>
+      <c r="L169" s="37">
+        <f>SUM(K154:L155)/SUM(K148:L163)</f>
+        <v>0.12474426428389926</v>
+      </c>
+      <c r="M169" s="37">
+        <f>SUM(K156:L157)/SUM(K148:L163)</f>
+        <v>7.4102333959600239E-2</v>
+      </c>
+      <c r="N169" s="37">
+        <f>SUM(K158:L159)/SUM(K148:L163)</f>
+        <v>4.3525843368171176E-2</v>
+      </c>
+      <c r="O169" s="37">
+        <f>SUM(K160:L163)/SUM(K148:L163)</f>
+        <v>3.0000395301076618E-2</v>
+      </c>
+      <c r="P169" s="50"/>
+      <c r="Q169" s="50"/>
+      <c r="R169" s="50"/>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B170">
@@ -33776,39 +33770,37 @@
       <c r="H170" s="16">
         <v>2015</v>
       </c>
-      <c r="I170" s="7">
-        <f>SUM(M150:N150)/SUM(M150:N162)</f>
-        <v>0.17877997811905216</v>
-      </c>
-      <c r="J170" s="7">
-        <f>SUM(M151:N152)/SUM(M150:N162)</f>
-        <v>0.28722618671594191</v>
-      </c>
-      <c r="K170" s="7">
-        <f>SUM(M153:N154)/SUM(M150:N162)</f>
-        <v>0.22556369330870554</v>
-      </c>
-      <c r="L170" s="7">
-        <f>SUM(M155:N157)/SUM(M150:N162)</f>
-        <v>0.19951110358239496</v>
-      </c>
-      <c r="M170" s="7">
-        <f>SUM(M158:N162)/SUM(M150:N162)</f>
-        <v>0.10891903827390538</v>
-      </c>
-      <c r="N170" s="7"/>
-      <c r="O170" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="P170" s="50">
-        <v>8648.5210000000006</v>
-      </c>
-      <c r="Q170" s="50">
-        <v>9707.2469999999994</v>
-      </c>
-      <c r="R170" s="50">
-        <v>11247.249</v>
-      </c>
+      <c r="I170">
+        <f>SUM(M148:N149)/SUM($M$148:$N$163)</f>
+        <v>0.28891821483642321</v>
+      </c>
+      <c r="J170" s="37">
+        <f>SUM(M150:N151)/SUM($M$148:$N$163)</f>
+        <v>0.23718746949260416</v>
+      </c>
+      <c r="K170" s="37">
+        <f>SUM(M152:N153)/SUM($M$148:$N$163)</f>
+        <v>0.17828937166347358</v>
+      </c>
+      <c r="L170" s="37">
+        <f>SUM(M154:N155)/SUM($M$148:$N$163)</f>
+        <v>0.13331999164158853</v>
+      </c>
+      <c r="M170" s="37">
+        <f>SUM(M156:N157)/SUM($M$148:$N$163)</f>
+        <v>8.1694197496718149E-2</v>
+      </c>
+      <c r="N170" s="37">
+        <f>SUM(M158:N159)/SUM($M$148:$N$163)</f>
+        <v>4.6954659763098365E-2</v>
+      </c>
+      <c r="O170" s="37">
+        <f>SUM(M160:N163)/SUM($M$148:$N$163)</f>
+        <v>3.3636095106093979E-2</v>
+      </c>
+      <c r="P170" s="50"/>
+      <c r="Q170" s="50"/>
+      <c r="R170" s="50"/>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B171">
@@ -33820,39 +33812,37 @@
       <c r="H171">
         <v>2020</v>
       </c>
-      <c r="I171" s="7">
-        <f>SUM(O150:P150)/SUM(O150:P162)</f>
-        <v>0.17088407766241573</v>
-      </c>
-      <c r="J171" s="7">
-        <f>SUM(O151:P152)/SUM(O150:P162)</f>
-        <v>0.28531949901369469</v>
-      </c>
-      <c r="K171" s="7">
-        <f>SUM(O153:P154)/SUM(O150:P162)</f>
-        <v>0.21259277054396983</v>
-      </c>
-      <c r="L171" s="7">
-        <f>SUM(O155:P157)/SUM(O150:P162)</f>
-        <v>0.21183492880742291</v>
-      </c>
-      <c r="M171" s="7">
-        <f>SUM(O158:P162)/SUM(O150:P162)</f>
-        <v>0.11936872397249713</v>
-      </c>
-      <c r="N171" s="7"/>
-      <c r="O171" s="77" t="s">
-        <v>551</v>
-      </c>
-      <c r="P171" s="50">
-        <v>6537.9979999999996</v>
-      </c>
-      <c r="Q171" s="50">
-        <v>7623.2690000000002</v>
-      </c>
-      <c r="R171" s="50">
-        <v>8380.3730000000014</v>
-      </c>
+      <c r="I171">
+        <f>SUM(O148:P149)/SUM($O$148:$P$163)</f>
+        <v>0.26132180153505447</v>
+      </c>
+      <c r="J171" s="37">
+        <f>SUM(O150:P151)/SUM($O$148:$P$163)</f>
+        <v>0.23769507469573828</v>
+      </c>
+      <c r="K171" s="37">
+        <f>SUM(O152:P153)/SUM($O$148:$P$163)</f>
+        <v>0.17890745452917378</v>
+      </c>
+      <c r="L171" s="37">
+        <f>SUM(O154:P155)/SUM($O$148:$P$163)</f>
+        <v>0.13929816949373025</v>
+      </c>
+      <c r="M171" s="37">
+        <f>SUM(O156:P157)/SUM($O$148:$P$163)</f>
+        <v>9.1428627157405837E-2</v>
+      </c>
+      <c r="N171" s="37">
+        <f>SUM(O158:P159)/SUM($O$148:$P$163)</f>
+        <v>5.231696438411218E-2</v>
+      </c>
+      <c r="O171" s="37">
+        <f>SUM(O160:P163)/SUM($O$148:$P$163)</f>
+        <v>3.9031908204785269E-2</v>
+      </c>
+      <c r="P171" s="50"/>
+      <c r="Q171" s="50"/>
+      <c r="R171" s="50"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B172">
@@ -33861,18 +33851,10 @@
       <c r="C172">
         <v>97.33925564881072</v>
       </c>
-      <c r="O172" s="77" t="s">
-        <v>1246</v>
-      </c>
-      <c r="P172" s="50">
-        <v>5413.6109999999999</v>
-      </c>
-      <c r="Q172" s="50">
-        <v>6742.7820000000011</v>
-      </c>
-      <c r="R172" s="50">
-        <v>8350.4989999999998</v>
-      </c>
+      <c r="O172" s="77"/>
+      <c r="P172" s="50"/>
+      <c r="Q172" s="50"/>
+      <c r="R172" s="50"/>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B173">
@@ -33881,18 +33863,10 @@
       <c r="C173">
         <v>86.235432425086415</v>
       </c>
-      <c r="O173" s="77" t="s">
-        <v>1247</v>
-      </c>
-      <c r="P173" s="50">
-        <v>2929.3939999999998</v>
-      </c>
-      <c r="Q173" s="50">
-        <v>3681.085</v>
-      </c>
-      <c r="R173" s="50">
-        <v>4705.4960000000001</v>
-      </c>
+      <c r="O173" s="77"/>
+      <c r="P173" s="50"/>
+      <c r="Q173" s="50"/>
+      <c r="R173" s="50"/>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B174">
@@ -41972,8 +41946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44669,7 +44643,7 @@
         <v>16.8</v>
       </c>
       <c r="K95" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
@@ -44689,7 +44663,7 @@
         <v>490</v>
       </c>
       <c r="M96" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="N96" t="s">
         <v>492</v>
@@ -44770,6 +44744,18 @@
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>402</v>
+      </c>
+      <c r="L100" s="37">
+        <f>1-(M100+N100)</f>
+        <v>0.88735600000000003</v>
+      </c>
+      <c r="M100" s="37">
+        <f>G76*3</f>
+        <v>0.105615</v>
+      </c>
+      <c r="N100" s="37">
+        <f>H76*3</f>
+        <v>7.0290000000000005E-3</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -51551,8 +51537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="M119" sqref="M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53183,31 +53169,31 @@
       <c r="F94" s="65"/>
       <c r="G94" s="65">
         <f>I114</f>
-        <v>4.7225124899999998E-2</v>
+        <v>5.1002878209999998E-2</v>
       </c>
       <c r="H94" s="65">
         <f>I118</f>
-        <v>3.9540063350000001E-2</v>
+        <v>4.2630286615000006E-2</v>
       </c>
       <c r="I94" s="65"/>
       <c r="J94" s="65"/>
       <c r="K94" s="65">
         <f>N114</f>
-        <v>4.1688253283999999E-2</v>
+        <v>4.2908423740000007E-2</v>
       </c>
       <c r="L94" s="65">
         <f>N118</f>
-        <v>3.6249211300999999E-2</v>
+        <v>3.7321990735000005E-2</v>
       </c>
       <c r="M94" s="65"/>
       <c r="N94" s="65"/>
       <c r="O94" s="65">
         <f>R114</f>
-        <v>2.0279794165E-2</v>
+        <v>2.0946311775E-2</v>
       </c>
       <c r="P94" s="65">
         <f>R118</f>
-        <v>1.5311025222000002E-2</v>
+        <v>1.5803535170000001E-2</v>
       </c>
       <c r="R94" s="37" t="s">
         <v>1228</v>
@@ -54872,8 +54858,8 @@
         <v>8.5002657999999995E-2</v>
       </c>
       <c r="I114">
-        <f>(H114*D114)+(H115*D115)</f>
-        <v>4.7225124899999998E-2</v>
+        <f>(H114*M114)+(H115*M115)</f>
+        <v>5.1002878209999998E-2</v>
       </c>
       <c r="K114" s="37" t="s">
         <v>1078</v>
@@ -54882,11 +54868,11 @@
         <v>7.0362258999999996E-2</v>
       </c>
       <c r="M114" s="37">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N114">
         <f>(L114*M114)+(L115*M115)</f>
-        <v>4.1688253283999999E-2</v>
+        <v>4.2908423740000007E-2</v>
       </c>
       <c r="P114" s="37" t="s">
         <v>1078</v>
@@ -54896,7 +54882,7 @@
       </c>
       <c r="R114">
         <f>(Q114*M114)+(Q115*M115)</f>
-        <v>2.0279794165E-2</v>
+        <v>2.0946311775E-2</v>
       </c>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.25">
@@ -54924,7 +54910,7 @@
       </c>
       <c r="M115" s="37">
         <f>1-M114</f>
-        <v>0.47</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="P115" s="37" t="s">
         <v>1079</v>
@@ -54991,8 +54977,8 @@
         <v>7.0442296000000001E-2</v>
       </c>
       <c r="I118">
-        <f>(H118*D118)+(H119*D119)</f>
-        <v>3.9540063350000001E-2</v>
+        <f>(H118*M118)+(H119*M119)</f>
+        <v>4.2630286615000006E-2</v>
       </c>
       <c r="K118" s="37" t="s">
         <v>1078</v>
@@ -55001,11 +54987,11 @@
         <v>6.1459527999999999E-2</v>
       </c>
       <c r="M118" s="37">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N118">
         <f>(L118*M118)+(L119*M119)</f>
-        <v>3.6249211300999999E-2</v>
+        <v>3.7321990735000005E-2</v>
       </c>
       <c r="P118" s="37" t="s">
         <v>1078</v>
@@ -55015,7 +55001,7 @@
       </c>
       <c r="R118">
         <f>(Q118*M118)+(Q119*M119)</f>
-        <v>1.5311025222000002E-2</v>
+        <v>1.5803535170000001E-2</v>
       </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.25">
@@ -55043,7 +55029,7 @@
       </c>
       <c r="M119" s="37">
         <f>1-M118</f>
-        <v>0.47</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="P119" s="37" t="s">
         <v>1079</v>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -41946,7 +41946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000" tabRatio="641" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000" tabRatio="641"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -3821,7 +3821,7 @@
     <numFmt numFmtId="173" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
     <numFmt numFmtId="174" formatCode="##0.0000;\-##0.0000;0.000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4040,6 +4040,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -4501,7 +4521,7 @@
     <xf numFmtId="0" fontId="1" fillId="35" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4607,6 +4627,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="173" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="173" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -27254,8 +27281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="I152" sqref="I152"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33570,49 +33597,49 @@
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B164" s="46" t="s">
+      <c r="B164" s="79" t="s">
         <v>328</v>
       </c>
-      <c r="C164" s="37">
+      <c r="C164" s="80">
         <v>29.832999999999998</v>
       </c>
-      <c r="D164" s="49">
+      <c r="D164" s="81">
         <v>36.995000000000005</v>
       </c>
-      <c r="E164" s="37">
+      <c r="E164" s="80">
         <v>30.677999999999997</v>
       </c>
-      <c r="F164" s="49">
+      <c r="F164" s="81">
         <v>40.189</v>
       </c>
-      <c r="G164" s="37">
+      <c r="G164" s="80">
         <v>28.76</v>
       </c>
-      <c r="H164" s="49">
+      <c r="H164" s="81">
         <v>45.019999999999989</v>
       </c>
-      <c r="I164" s="37">
+      <c r="I164" s="80">
         <v>27.613</v>
       </c>
-      <c r="J164" s="49">
+      <c r="J164" s="81">
         <v>49.994</v>
       </c>
-      <c r="K164" s="37">
+      <c r="K164" s="80">
         <v>30.65</v>
       </c>
-      <c r="L164" s="49">
+      <c r="L164" s="81">
         <v>57.32</v>
       </c>
-      <c r="M164" s="37">
+      <c r="M164" s="80">
         <v>39.680999999999997</v>
       </c>
-      <c r="N164" s="49">
+      <c r="N164" s="81">
         <v>73.600999999999999</v>
       </c>
-      <c r="O164" s="37">
+      <c r="O164" s="80">
         <v>50.151000000000003</v>
       </c>
-      <c r="P164" s="49">
+      <c r="P164" s="81">
         <v>94.126999999999995</v>
       </c>
     </row>
@@ -33722,35 +33749,35 @@
         <v>240.16582243333008</v>
       </c>
       <c r="H169">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="I169">
-        <f>SUM(K148:L149)/SUM(K148:L163)</f>
-        <v>0.30836194815624002</v>
+        <f>SUM(C$148:D$149)/SUM($C$148:$D$163)</f>
+        <v>0.35549337624979127</v>
       </c>
       <c r="J169" s="37">
-        <f>SUM(K150:L151)/SUM(K148:L163)</f>
-        <v>0.23369136293850706</v>
+        <f>SUM(C$150:D$151)/SUM($C$148:$D$163)</f>
+        <v>0.2487095769816785</v>
       </c>
       <c r="K169" s="37">
-        <f>SUM(K152:L153)/SUM(K148:L163)</f>
-        <v>0.18557385199250581</v>
+        <f>SUM(C$152:D$153)/SUM($C$148:$D$163)</f>
+        <v>0.16036853215010419</v>
       </c>
       <c r="L169" s="37">
-        <f>SUM(K154:L155)/SUM(K148:L163)</f>
-        <v>0.12474426428389926</v>
+        <f>SUM(C$154:D$155)/SUM($C$148:$D$163)</f>
+        <v>0.10367995328041812</v>
       </c>
       <c r="M169" s="37">
-        <f>SUM(K156:L157)/SUM(K148:L163)</f>
-        <v>7.4102333959600239E-2</v>
+        <f>SUM(C$156:D$157)/SUM($C$148:$D$163)</f>
+        <v>5.6436483847615897E-2</v>
       </c>
       <c r="N169" s="37">
-        <f>SUM(K158:L159)/SUM(K148:L163)</f>
-        <v>4.3525843368171176E-2</v>
+        <f>SUM(C$158:D$159)/SUM($C$148:$D$163)</f>
+        <v>3.896677223603634E-2</v>
       </c>
       <c r="O169" s="37">
-        <f>SUM(K160:L163)/SUM(K148:L163)</f>
-        <v>3.0000395301076618E-2</v>
+        <f>SUM(C$160:D$163)/SUM($C$148:$D$163)</f>
+        <v>3.6345305254355149E-2</v>
       </c>
       <c r="P169" s="50"/>
       <c r="Q169" s="50"/>
@@ -33767,36 +33794,36 @@
       <c r="E170" s="50"/>
       <c r="F170" s="50"/>
       <c r="G170" s="50"/>
-      <c r="H170" s="16">
-        <v>2015</v>
+      <c r="H170">
+        <v>1995</v>
       </c>
       <c r="I170">
-        <f>SUM(M148:N149)/SUM($M$148:$N$163)</f>
-        <v>0.28891821483642321</v>
+        <f>SUM(E148:F149)/SUM($E$148:$F$163)</f>
+        <v>0.329724598997091</v>
       </c>
       <c r="J170" s="37">
-        <f>SUM(M150:N151)/SUM($M$148:$N$163)</f>
-        <v>0.23718746949260416</v>
+        <f>SUM(E150:F151)/SUM($E$148:$F$163)</f>
+        <v>0.25572087374171532</v>
       </c>
       <c r="K170" s="37">
-        <f>SUM(M152:N153)/SUM($M$148:$N$163)</f>
-        <v>0.17828937166347358</v>
+        <f>SUM(E152:F153)/SUM($E$148:$F$163)</f>
+        <v>0.17060427628122893</v>
       </c>
       <c r="L170" s="37">
-        <f>SUM(M154:N155)/SUM($M$148:$N$163)</f>
-        <v>0.13331999164158853</v>
+        <f>SUM(E154:F155)/SUM($E$148:$F$163)</f>
+        <v>0.10858198757068795</v>
       </c>
       <c r="M170" s="37">
-        <f>SUM(M156:N157)/SUM($M$148:$N$163)</f>
-        <v>8.1694197496718149E-2</v>
+        <f>SUM(E156:F157)/SUM($E$148:$F$163)</f>
+        <v>6.5205652654415941E-2</v>
       </c>
       <c r="N170" s="37">
-        <f>SUM(M158:N159)/SUM($M$148:$N$163)</f>
-        <v>4.6954659763098365E-2</v>
+        <f>SUM(E158:F159)/SUM($E$148:$F$163)</f>
+        <v>3.4783877060073805E-2</v>
       </c>
       <c r="O170" s="37">
-        <f>SUM(M160:N163)/SUM($M$148:$N$163)</f>
-        <v>3.3636095106093979E-2</v>
+        <f>SUM(E160:F163)/SUM($E$148:$F$163)</f>
+        <v>3.5378733694786835E-2</v>
       </c>
       <c r="P170" s="50"/>
       <c r="Q170" s="50"/>
@@ -33810,35 +33837,35 @@
         <v>110.9988196360878</v>
       </c>
       <c r="H171">
-        <v>2020</v>
+        <v>2000</v>
       </c>
       <c r="I171">
-        <f>SUM(O148:P149)/SUM($O$148:$P$163)</f>
-        <v>0.26132180153505447</v>
+        <f>SUM(G148:H149)/SUM($G$148:$H$163)</f>
+        <v>0.31791370276114633</v>
       </c>
       <c r="J171" s="37">
-        <f>SUM(O150:P151)/SUM($O$148:$P$163)</f>
-        <v>0.23769507469573828</v>
+        <f>SUM(G150:H151)/SUM($G$148:$H$163)</f>
+        <v>0.2550967008423784</v>
       </c>
       <c r="K171" s="37">
-        <f>SUM(O152:P153)/SUM($O$148:$P$163)</f>
-        <v>0.17890745452917378</v>
+        <f>SUM(G152:H153)/SUM($G$148:$H$163)</f>
+        <v>0.17860301741785722</v>
       </c>
       <c r="L171" s="37">
-        <f>SUM(O154:P155)/SUM($O$148:$P$163)</f>
-        <v>0.13929816949373025</v>
+        <f>SUM(G154:H155)/SUM($G$148:$H$163)</f>
+        <v>0.11147734029810565</v>
       </c>
       <c r="M171" s="37">
-        <f>SUM(O156:P157)/SUM($O$148:$P$163)</f>
-        <v>9.1428627157405837E-2</v>
+        <f>SUM(G156:H157)/SUM($G$148:$H$163)</f>
+        <v>6.8597356533520656E-2</v>
       </c>
       <c r="N171" s="37">
-        <f>SUM(O158:P159)/SUM($O$148:$P$163)</f>
-        <v>5.231696438411218E-2</v>
+        <f>SUM(G158:H159)/SUM($G$148:$H$163)</f>
+        <v>3.5690977363141703E-2</v>
       </c>
       <c r="O171" s="37">
-        <f>SUM(O160:P163)/SUM($O$148:$P$163)</f>
-        <v>3.9031908204785269E-2</v>
+        <f>SUM(G160:H163)/SUM($G$148:$H$163)</f>
+        <v>3.2620904783850206E-2</v>
       </c>
       <c r="P171" s="50"/>
       <c r="Q171" s="50"/>
@@ -33851,7 +33878,37 @@
       <c r="C172">
         <v>97.33925564881072</v>
       </c>
-      <c r="O172" s="77"/>
+      <c r="H172">
+        <v>2005</v>
+      </c>
+      <c r="I172">
+        <f>SUM(I148:J149)/SUM($I$148:$J$163)</f>
+        <v>0.31717005556362726</v>
+      </c>
+      <c r="J172" s="37">
+        <f>SUM(I150:J151)/SUM($I$148:$J$163)</f>
+        <v>0.24080056277770526</v>
+      </c>
+      <c r="K172" s="37">
+        <f>SUM(I152:J153)/SUM($I$148:$J$163)</f>
+        <v>0.185498404943294</v>
+      </c>
+      <c r="L172" s="37">
+        <f>SUM(I154:J155)/SUM($I$148:$J$163)</f>
+        <v>0.11701056357393393</v>
+      </c>
+      <c r="M172" s="37">
+        <f>SUM(I156:J157)/SUM($I$148:$J$163)</f>
+        <v>6.9963874202437451E-2</v>
+      </c>
+      <c r="N172" s="37">
+        <f>SUM(I158:J159)/SUM($I$148:$J$163)</f>
+        <v>4.0111619767156471E-2</v>
+      </c>
+      <c r="O172" s="37">
+        <f>SUM(I160:J163)/SUM($I$148:$J$163)</f>
+        <v>2.9444919171845576E-2</v>
+      </c>
       <c r="P172" s="50"/>
       <c r="Q172" s="50"/>
       <c r="R172" s="50"/>
@@ -33863,7 +33920,37 @@
       <c r="C173">
         <v>86.235432425086415</v>
       </c>
-      <c r="O173" s="77"/>
+      <c r="H173">
+        <v>2010</v>
+      </c>
+      <c r="I173">
+        <f>SUM(K148:L149)/SUM(K148:L163)</f>
+        <v>0.30836194815624002</v>
+      </c>
+      <c r="J173" s="37">
+        <f>SUM(K150:L151)/SUM(K148:L163)</f>
+        <v>0.23369136293850706</v>
+      </c>
+      <c r="K173" s="37">
+        <f>SUM(K152:L153)/SUM(K148:L163)</f>
+        <v>0.18557385199250581</v>
+      </c>
+      <c r="L173" s="37">
+        <f>SUM(K154:L155)/SUM(K148:L163)</f>
+        <v>0.12474426428389926</v>
+      </c>
+      <c r="M173" s="37">
+        <f>SUM(K156:L157)/SUM(K148:L163)</f>
+        <v>7.4102333959600239E-2</v>
+      </c>
+      <c r="N173" s="37">
+        <f>SUM(K158:L159)/SUM(K148:L163)</f>
+        <v>4.3525843368171176E-2</v>
+      </c>
+      <c r="O173" s="37">
+        <f>SUM(K160:L163)/SUM(K148:L163)</f>
+        <v>3.0000395301076618E-2</v>
+      </c>
       <c r="P173" s="50"/>
       <c r="Q173" s="50"/>
       <c r="R173" s="50"/>
@@ -33875,6 +33962,37 @@
       <c r="C174">
         <v>75.946598869604159</v>
       </c>
+      <c r="H174" s="16">
+        <v>2015</v>
+      </c>
+      <c r="I174">
+        <f>SUM(M148:N149)/SUM($M$148:$N$163)</f>
+        <v>0.28891821483642321</v>
+      </c>
+      <c r="J174" s="37">
+        <f>SUM(M150:N151)/SUM($M$148:$N$163)</f>
+        <v>0.23718746949260416</v>
+      </c>
+      <c r="K174" s="37">
+        <f>SUM(M152:N153)/SUM($M$148:$N$163)</f>
+        <v>0.17828937166347358</v>
+      </c>
+      <c r="L174" s="37">
+        <f>SUM(M154:N155)/SUM($M$148:$N$163)</f>
+        <v>0.13331999164158853</v>
+      </c>
+      <c r="M174" s="37">
+        <f>SUM(M156:N157)/SUM($M$148:$N$163)</f>
+        <v>8.1694197496718149E-2</v>
+      </c>
+      <c r="N174" s="37">
+        <f>SUM(M158:N159)/SUM($M$148:$N$163)</f>
+        <v>4.6954659763098365E-2</v>
+      </c>
+      <c r="O174" s="37">
+        <f>SUM(M160:N163)/SUM($M$148:$N$163)</f>
+        <v>3.3636095106093979E-2</v>
+      </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B175">
@@ -33883,9 +34001,37 @@
       <c r="C175">
         <v>68.470328142000795</v>
       </c>
-      <c r="J175" s="37"/>
-      <c r="K175" s="37"/>
-      <c r="L175" s="37"/>
+      <c r="H175">
+        <v>2020</v>
+      </c>
+      <c r="I175">
+        <f>SUM(O148:P149)/SUM($O$148:$P$163)</f>
+        <v>0.26132180153505447</v>
+      </c>
+      <c r="J175" s="37">
+        <f>SUM(O150:P151)/SUM($O$148:$P$163)</f>
+        <v>0.23769507469573828</v>
+      </c>
+      <c r="K175" s="37">
+        <f>SUM(O152:P153)/SUM($O$148:$P$163)</f>
+        <v>0.17890745452917378</v>
+      </c>
+      <c r="L175" s="37">
+        <f>SUM(O154:P155)/SUM($O$148:$P$163)</f>
+        <v>0.13929816949373025</v>
+      </c>
+      <c r="M175" s="37">
+        <f>SUM(O156:P157)/SUM($O$148:$P$163)</f>
+        <v>9.1428627157405837E-2</v>
+      </c>
+      <c r="N175" s="37">
+        <f>SUM(O158:P159)/SUM($O$148:$P$163)</f>
+        <v>5.231696438411218E-2</v>
+      </c>
+      <c r="O175" s="37">
+        <f>SUM(O160:P163)/SUM($O$148:$P$163)</f>
+        <v>3.9031908204785269E-2</v>
+      </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B176">
@@ -41946,7 +42092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000" tabRatio="641"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000" tabRatio="641" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <sheet name="DALY" sheetId="1" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4603,9 +4602,6 @@
     <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -4635,6 +4631,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="173" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -4754,7 +4753,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5562,7 +5560,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5674,7 +5671,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6272,7 +6268,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7815,199 +7810,125 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4338253260737155E-2"/>
+                  <c:y val="0.1003282045650573"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Fertility!$C$93:$AF$93</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Fertility!$C$93:$AF$93</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Fertility!$K$93:$N$93</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1950-1955</c:v>
+                  <c:v>1990-1995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1955-1960</c:v>
+                  <c:v>1995-2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1960-1965</c:v>
+                  <c:v>2000-2005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1965-1970</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1970-1975</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1975-1980</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1980-1985</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1985-1990</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1990-1995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1995-2000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000-2005</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>2005-2010</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2010-2015</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2015-2020</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2020-2025</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2025-2030</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2030-2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2035-2040</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2040-2045</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2045-2050</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2050-2055</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2055-2060</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2060-2065</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2065-2070</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2070-2075</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2075-2080</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2080-2085</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2085-2090</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2090-2095</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2095-2100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fertility!$C$101:$AF$101</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Fertility!$C$101:$AF$101</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Fertility!$K$101:$N$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.4809999999999999</c:v>
+                  <c:v>5.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7850000000000001</c:v>
+                  <c:v>5.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0650000000000013</c:v>
+                  <c:v>4.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1100000000000012</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.99</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.2160000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.5380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.65</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.9999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>4.6500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.0599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.52</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2588000000000008</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.0358999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.8525</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.6886999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.5554999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.4356</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.3313999999999995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.2336999999999994</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.1492999999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.0713000000000004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.0036</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.9453999999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.8951000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.8574000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.8286000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.8050999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8230,7 +8151,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8722,7 +8642,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9373,7 +9292,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9709,7 +9627,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9816,7 +9733,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10284,7 +10200,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10399,7 +10314,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11506,7 +11420,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11621,7 +11534,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12669,7 +12581,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12776,7 +12687,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13728,7 +13638,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13835,7 +13744,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14456,7 +14364,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15978,7 +15885,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16576,7 +16482,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -27281,7 +27186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+    <sheetView topLeftCell="A158" workbookViewId="0">
       <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
@@ -33597,49 +33502,49 @@
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B164" s="79" t="s">
+      <c r="B164" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="C164" s="80">
+      <c r="C164" s="79">
         <v>29.832999999999998</v>
       </c>
-      <c r="D164" s="81">
+      <c r="D164" s="80">
         <v>36.995000000000005</v>
       </c>
-      <c r="E164" s="80">
+      <c r="E164" s="79">
         <v>30.677999999999997</v>
       </c>
-      <c r="F164" s="81">
+      <c r="F164" s="80">
         <v>40.189</v>
       </c>
-      <c r="G164" s="80">
+      <c r="G164" s="79">
         <v>28.76</v>
       </c>
-      <c r="H164" s="81">
+      <c r="H164" s="80">
         <v>45.019999999999989</v>
       </c>
-      <c r="I164" s="80">
+      <c r="I164" s="79">
         <v>27.613</v>
       </c>
-      <c r="J164" s="81">
+      <c r="J164" s="80">
         <v>49.994</v>
       </c>
-      <c r="K164" s="80">
+      <c r="K164" s="79">
         <v>30.65</v>
       </c>
-      <c r="L164" s="81">
+      <c r="L164" s="80">
         <v>57.32</v>
       </c>
-      <c r="M164" s="80">
+      <c r="M164" s="79">
         <v>39.680999999999997</v>
       </c>
-      <c r="N164" s="81">
+      <c r="N164" s="80">
         <v>73.600999999999999</v>
       </c>
-      <c r="O164" s="80">
+      <c r="O164" s="79">
         <v>50.151000000000003</v>
       </c>
-      <c r="P164" s="81">
+      <c r="P164" s="80">
         <v>94.126999999999995</v>
       </c>
     </row>
@@ -33686,8 +33591,8 @@
       <c r="D167" s="49"/>
       <c r="E167" s="49"/>
       <c r="F167" s="49"/>
-      <c r="G167" s="78"/>
-      <c r="H167" s="78" t="s">
+      <c r="G167" s="77"/>
+      <c r="H167" s="77" t="s">
         <v>1244</v>
       </c>
       <c r="I167" s="49"/>
@@ -33719,19 +33624,19 @@
       <c r="I168" t="s">
         <v>1247</v>
       </c>
-      <c r="J168" s="77" t="s">
+      <c r="J168" s="76" t="s">
         <v>1248</v>
       </c>
-      <c r="K168" s="77" t="s">
+      <c r="K168" s="76" t="s">
         <v>1014</v>
       </c>
-      <c r="L168" s="77" t="s">
+      <c r="L168" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="M168" s="77" t="s">
+      <c r="M168" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="N168" s="77" t="s">
+      <c r="N168" s="76" t="s">
         <v>1155</v>
       </c>
       <c r="O168" s="49" t="s">
@@ -36668,88 +36573,88 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>781</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65" t="s">
         <v>782</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="37"/>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="64" t="s">
         <v>783</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="66" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="65" t="s">
         <v>784</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="37"/>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="64" t="s">
         <v>785</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="64" t="s">
         <v>786</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="64" t="s">
         <v>787</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="64" t="s">
         <v>788</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="64" t="s">
         <v>789</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="64" t="s">
         <v>790</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="64" t="s">
         <v>673</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="65" t="s">
         <v>785</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="65" t="s">
         <v>786</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="65" t="s">
         <v>787</v>
       </c>
-      <c r="M5" s="66" t="s">
+      <c r="M5" s="65" t="s">
         <v>788</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="N5" s="65" t="s">
         <v>789</v>
       </c>
-      <c r="O5" s="66" t="s">
+      <c r="O5" s="65" t="s">
         <v>790</v>
       </c>
-      <c r="P5" s="66" t="s">
+      <c r="P5" s="65" t="s">
         <v>673</v>
       </c>
       <c r="R5" t="s">
@@ -36760,110 +36665,110 @@
       <c r="B6" s="37" t="s">
         <v>791</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="37" t="s">
         <v>792</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="64">
         <v>33.36</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="64">
         <v>17.63</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="64">
         <v>10.51</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="64">
         <v>6.66</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="64">
         <v>4.4800000000000004</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="64">
         <v>6.1</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="64">
         <v>6.06</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="65">
         <v>24.04</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="65">
         <v>12.7</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="65">
         <v>7.57</v>
       </c>
-      <c r="M7" s="66">
+      <c r="M7" s="65">
         <v>4.8</v>
       </c>
-      <c r="N7" s="66">
+      <c r="N7" s="65">
         <v>3.23</v>
       </c>
-      <c r="O7" s="66">
+      <c r="O7" s="65">
         <v>4.3899999999999997</v>
       </c>
-      <c r="P7" s="66">
+      <c r="P7" s="65">
         <v>4.37</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="37"/>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>793</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="64" t="s">
         <v>794</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="64" t="s">
         <v>795</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="64" t="s">
         <v>796</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="64" t="s">
         <v>797</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="64" t="s">
         <v>798</v>
       </c>
-      <c r="I8" s="65" t="s">
+      <c r="I8" s="64" t="s">
         <v>799</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="65" t="s">
         <v>800</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="K8" s="65" t="s">
         <v>801</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="L8" s="65" t="s">
         <v>802</v>
       </c>
-      <c r="M8" s="66" t="s">
+      <c r="M8" s="65" t="s">
         <v>803</v>
       </c>
-      <c r="N8" s="66" t="s">
+      <c r="N8" s="65" t="s">
         <v>804</v>
       </c>
-      <c r="O8" s="66" t="s">
+      <c r="O8" s="65" t="s">
         <v>805</v>
       </c>
-      <c r="P8" s="66" t="s">
+      <c r="P8" s="65" t="s">
         <v>806</v>
       </c>
       <c r="R8">
@@ -36875,91 +36780,91 @@
       <c r="B9" s="37" t="s">
         <v>807</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="64">
         <v>35.56</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="64">
         <v>18.79</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="64">
         <v>11.2</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="64">
         <v>7.1</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="64">
         <v>4.78</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="64">
         <v>6.5</v>
       </c>
-      <c r="I9" s="65">
+      <c r="I9" s="64">
         <v>6.46</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="65">
         <v>25.62</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="65">
         <v>13.54</v>
       </c>
-      <c r="L9" s="66">
+      <c r="L9" s="65">
         <v>8.07</v>
       </c>
-      <c r="M9" s="66">
+      <c r="M9" s="65">
         <v>5.12</v>
       </c>
-      <c r="N9" s="66">
+      <c r="N9" s="65">
         <v>3.44</v>
       </c>
-      <c r="O9" s="66">
+      <c r="O9" s="65">
         <v>4.68</v>
       </c>
-      <c r="P9" s="66">
+      <c r="P9" s="65">
         <v>4.66</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="64" t="s">
         <v>808</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="64" t="s">
         <v>809</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="64" t="s">
         <v>810</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="64" t="s">
         <v>811</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="64" t="s">
         <v>812</v>
       </c>
-      <c r="H10" s="65" t="s">
+      <c r="H10" s="64" t="s">
         <v>813</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="64" t="s">
         <v>814</v>
       </c>
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="65" t="s">
         <v>815</v>
       </c>
-      <c r="K10" s="66" t="s">
+      <c r="K10" s="65" t="s">
         <v>816</v>
       </c>
-      <c r="L10" s="66" t="s">
+      <c r="L10" s="65" t="s">
         <v>817</v>
       </c>
-      <c r="M10" s="66" t="s">
+      <c r="M10" s="65" t="s">
         <v>818</v>
       </c>
-      <c r="N10" s="66" t="s">
+      <c r="N10" s="65" t="s">
         <v>819</v>
       </c>
-      <c r="O10" s="66" t="s">
+      <c r="O10" s="65" t="s">
         <v>820</v>
       </c>
-      <c r="P10" s="66" t="s">
+      <c r="P10" s="65" t="s">
         <v>821</v>
       </c>
     </row>
@@ -36967,91 +36872,91 @@
       <c r="B11" s="37" t="s">
         <v>822</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="64">
         <v>39.86</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="64">
         <v>21.06</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E11" s="64">
         <v>12.55</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="64">
         <v>7.96</v>
       </c>
-      <c r="G11" s="65">
+      <c r="G11" s="64">
         <v>5.35</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="64">
         <v>7.28</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="64">
         <v>7.24</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="65">
         <v>28.72</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="65">
         <v>15.17</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="65">
         <v>9.0399999999999991</v>
       </c>
-      <c r="M11" s="66">
+      <c r="M11" s="65">
         <v>5.74</v>
       </c>
-      <c r="N11" s="66">
+      <c r="N11" s="65">
         <v>3.86</v>
       </c>
-      <c r="O11" s="66">
+      <c r="O11" s="65">
         <v>5.25</v>
       </c>
-      <c r="P11" s="66">
+      <c r="P11" s="65">
         <v>5.22</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>823</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="64" t="s">
         <v>824</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="64" t="s">
         <v>825</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="64" t="s">
         <v>826</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="64" t="s">
         <v>827</v>
       </c>
-      <c r="H12" s="65" t="s">
+      <c r="H12" s="64" t="s">
         <v>828</v>
       </c>
-      <c r="I12" s="65" t="s">
+      <c r="I12" s="64" t="s">
         <v>829</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="65" t="s">
         <v>830</v>
       </c>
-      <c r="K12" s="66" t="s">
+      <c r="K12" s="65" t="s">
         <v>831</v>
       </c>
-      <c r="L12" s="66" t="s">
+      <c r="L12" s="65" t="s">
         <v>832</v>
       </c>
-      <c r="M12" s="66" t="s">
+      <c r="M12" s="65" t="s">
         <v>833</v>
       </c>
-      <c r="N12" s="66" t="s">
+      <c r="N12" s="65" t="s">
         <v>834</v>
       </c>
-      <c r="O12" s="66" t="s">
+      <c r="O12" s="65" t="s">
         <v>835</v>
       </c>
-      <c r="P12" s="66" t="s">
+      <c r="P12" s="65" t="s">
         <v>836</v>
       </c>
     </row>
@@ -37059,91 +36964,91 @@
       <c r="B13" s="37" t="s">
         <v>837</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="64">
         <v>53.56</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="64">
         <v>28.3</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="64">
         <v>16.87</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="64">
         <v>10.7</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="64">
         <v>7.19</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="64">
         <v>9.7899999999999991</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="64">
         <v>9.73</v>
       </c>
-      <c r="J13" s="66">
+      <c r="J13" s="65">
         <v>38.590000000000003</v>
       </c>
-      <c r="K13" s="66">
+      <c r="K13" s="65">
         <v>20.39</v>
       </c>
-      <c r="L13" s="66">
+      <c r="L13" s="65">
         <v>12.15</v>
       </c>
-      <c r="M13" s="66">
+      <c r="M13" s="65">
         <v>7.71</v>
       </c>
-      <c r="N13" s="66">
+      <c r="N13" s="65">
         <v>5.18</v>
       </c>
-      <c r="O13" s="66">
+      <c r="O13" s="65">
         <v>7.05</v>
       </c>
-      <c r="P13" s="66">
+      <c r="P13" s="65">
         <v>7.01</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="64" t="s">
         <v>838</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="64" t="s">
         <v>839</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="64" t="s">
         <v>840</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="64" t="s">
         <v>841</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="64" t="s">
         <v>842</v>
       </c>
-      <c r="H14" s="65" t="s">
+      <c r="H14" s="64" t="s">
         <v>843</v>
       </c>
-      <c r="I14" s="65" t="s">
+      <c r="I14" s="64" t="s">
         <v>844</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="65" t="s">
         <v>845</v>
       </c>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="65" t="s">
         <v>846</v>
       </c>
-      <c r="L14" s="66" t="s">
+      <c r="L14" s="65" t="s">
         <v>847</v>
       </c>
-      <c r="M14" s="66" t="s">
+      <c r="M14" s="65" t="s">
         <v>848</v>
       </c>
-      <c r="N14" s="66" t="s">
+      <c r="N14" s="65" t="s">
         <v>849</v>
       </c>
-      <c r="O14" s="66" t="s">
+      <c r="O14" s="65" t="s">
         <v>850</v>
       </c>
-      <c r="P14" s="66" t="s">
+      <c r="P14" s="65" t="s">
         <v>851</v>
       </c>
     </row>
@@ -37151,110 +37056,110 @@
       <c r="B15" s="37" t="s">
         <v>852</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
         <v>792</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="64">
         <v>10.86</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="64">
         <v>7.11</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="64">
         <v>4.4800000000000004</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="64">
         <v>3.51</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="64">
         <v>3.57</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="64">
         <v>5.64</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="64">
         <v>2.52</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="65">
         <v>7.8</v>
       </c>
-      <c r="K16" s="66">
+      <c r="K16" s="65">
         <v>5.1100000000000003</v>
       </c>
-      <c r="L16" s="66">
+      <c r="L16" s="65">
         <v>3.22</v>
       </c>
-      <c r="M16" s="66">
+      <c r="M16" s="65">
         <v>2.52</v>
       </c>
-      <c r="N16" s="66">
+      <c r="N16" s="65">
         <v>2.56</v>
       </c>
-      <c r="O16" s="66">
+      <c r="O16" s="65">
         <v>4.05</v>
       </c>
-      <c r="P16" s="66">
+      <c r="P16" s="65">
         <v>1.81</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="64" t="s">
         <v>853</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="64" t="s">
         <v>854</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="64" t="s">
         <v>855</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="64" t="s">
         <v>856</v>
       </c>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="64" t="s">
         <v>857</v>
       </c>
-      <c r="H17" s="65" t="s">
+      <c r="H17" s="64" t="s">
         <v>858</v>
       </c>
-      <c r="I17" s="65" t="s">
+      <c r="I17" s="64" t="s">
         <v>859</v>
       </c>
-      <c r="J17" s="66" t="s">
+      <c r="J17" s="65" t="s">
         <v>860</v>
       </c>
-      <c r="K17" s="66" t="s">
+      <c r="K17" s="65" t="s">
         <v>861</v>
       </c>
-      <c r="L17" s="66" t="s">
+      <c r="L17" s="65" t="s">
         <v>862</v>
       </c>
-      <c r="M17" s="66" t="s">
+      <c r="M17" s="65" t="s">
         <v>863</v>
       </c>
-      <c r="N17" s="66" t="s">
+      <c r="N17" s="65" t="s">
         <v>864</v>
       </c>
-      <c r="O17" s="66" t="s">
+      <c r="O17" s="65" t="s">
         <v>865</v>
       </c>
-      <c r="P17" s="66" t="s">
+      <c r="P17" s="65" t="s">
         <v>866</v>
       </c>
     </row>
@@ -37262,91 +37167,91 @@
       <c r="B18" s="37" t="s">
         <v>807</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="64">
         <v>7.88</v>
       </c>
-      <c r="D18" s="65">
+      <c r="D18" s="64">
         <v>5.15</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="64">
         <v>3.25</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="64">
         <v>2.5499999999999998</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="64">
         <v>2.59</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="64">
         <v>4.09</v>
       </c>
-      <c r="I18" s="65">
+      <c r="I18" s="64">
         <v>1.83</v>
       </c>
-      <c r="J18" s="66">
+      <c r="J18" s="65">
         <v>5.66</v>
       </c>
-      <c r="K18" s="66">
+      <c r="K18" s="65">
         <v>3.7</v>
       </c>
-      <c r="L18" s="66">
+      <c r="L18" s="65">
         <v>2.33</v>
       </c>
-      <c r="M18" s="66">
+      <c r="M18" s="65">
         <v>1.83</v>
       </c>
-      <c r="N18" s="66">
+      <c r="N18" s="65">
         <v>1.86</v>
       </c>
-      <c r="O18" s="66">
+      <c r="O18" s="65">
         <v>2.94</v>
       </c>
-      <c r="P18" s="66">
+      <c r="P18" s="65">
         <v>1.31</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="64" t="s">
         <v>867</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="64" t="s">
         <v>868</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="64" t="s">
         <v>869</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="64" t="s">
         <v>870</v>
       </c>
-      <c r="G19" s="65" t="s">
+      <c r="G19" s="64" t="s">
         <v>871</v>
       </c>
-      <c r="H19" s="65" t="s">
+      <c r="H19" s="64" t="s">
         <v>872</v>
       </c>
-      <c r="I19" s="65" t="s">
+      <c r="I19" s="64" t="s">
         <v>873</v>
       </c>
-      <c r="J19" s="66" t="s">
+      <c r="J19" s="65" t="s">
         <v>874</v>
       </c>
-      <c r="K19" s="66" t="s">
+      <c r="K19" s="65" t="s">
         <v>875</v>
       </c>
-      <c r="L19" s="66" t="s">
+      <c r="L19" s="65" t="s">
         <v>876</v>
       </c>
-      <c r="M19" s="66" t="s">
+      <c r="M19" s="65" t="s">
         <v>877</v>
       </c>
-      <c r="N19" s="66" t="s">
+      <c r="N19" s="65" t="s">
         <v>878</v>
       </c>
-      <c r="O19" s="66" t="s">
+      <c r="O19" s="65" t="s">
         <v>879</v>
       </c>
-      <c r="P19" s="66" t="s">
+      <c r="P19" s="65" t="s">
         <v>880</v>
       </c>
     </row>
@@ -37354,91 +37259,91 @@
       <c r="B20" s="37" t="s">
         <v>822</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="64">
         <v>7.57</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="64">
         <v>4.96</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="64">
         <v>3.12</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="64">
         <v>2.4500000000000002</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="64">
         <v>2.4900000000000002</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="64">
         <v>3.93</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="64">
         <v>1.76</v>
       </c>
-      <c r="J20" s="66">
+      <c r="J20" s="65">
         <v>5.44</v>
       </c>
-      <c r="K20" s="66">
+      <c r="K20" s="65">
         <v>3.56</v>
       </c>
-      <c r="L20" s="66">
+      <c r="L20" s="65">
         <v>2.2400000000000002</v>
       </c>
-      <c r="M20" s="66">
+      <c r="M20" s="65">
         <v>1.76</v>
       </c>
-      <c r="N20" s="66">
+      <c r="N20" s="65">
         <v>1.79</v>
       </c>
-      <c r="O20" s="66">
+      <c r="O20" s="65">
         <v>2.82</v>
       </c>
-      <c r="P20" s="66">
+      <c r="P20" s="65">
         <v>1.26</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="64" t="s">
         <v>881</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="64" t="s">
         <v>882</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="64" t="s">
         <v>883</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="64" t="s">
         <v>884</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="64" t="s">
         <v>885</v>
       </c>
-      <c r="H21" s="65" t="s">
+      <c r="H21" s="64" t="s">
         <v>886</v>
       </c>
-      <c r="I21" s="65" t="s">
+      <c r="I21" s="64" t="s">
         <v>887</v>
       </c>
-      <c r="J21" s="66" t="s">
+      <c r="J21" s="65" t="s">
         <v>888</v>
       </c>
-      <c r="K21" s="66" t="s">
+      <c r="K21" s="65" t="s">
         <v>889</v>
       </c>
-      <c r="L21" s="66" t="s">
+      <c r="L21" s="65" t="s">
         <v>890</v>
       </c>
-      <c r="M21" s="66" t="s">
+      <c r="M21" s="65" t="s">
         <v>891</v>
       </c>
-      <c r="N21" s="66" t="s">
+      <c r="N21" s="65" t="s">
         <v>892</v>
       </c>
-      <c r="O21" s="66" t="s">
+      <c r="O21" s="65" t="s">
         <v>893</v>
       </c>
-      <c r="P21" s="66" t="s">
+      <c r="P21" s="65" t="s">
         <v>894</v>
       </c>
     </row>
@@ -37446,91 +37351,91 @@
       <c r="B22" s="37" t="s">
         <v>837</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="64">
         <v>8.9600000000000009</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="64">
         <v>5.86</v>
       </c>
-      <c r="E22" s="65">
+      <c r="E22" s="64">
         <v>3.69</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="64">
         <v>2.9</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="64">
         <v>2.94</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H22" s="64">
         <v>4.6500000000000004</v>
       </c>
-      <c r="I22" s="65">
+      <c r="I22" s="64">
         <v>2.08</v>
       </c>
-      <c r="J22" s="66">
+      <c r="J22" s="65">
         <v>6.43</v>
       </c>
-      <c r="K22" s="66">
+      <c r="K22" s="65">
         <v>4.21</v>
       </c>
-      <c r="L22" s="66">
+      <c r="L22" s="65">
         <v>2.65</v>
       </c>
-      <c r="M22" s="66">
+      <c r="M22" s="65">
         <v>2.08</v>
       </c>
-      <c r="N22" s="66">
+      <c r="N22" s="65">
         <v>2.11</v>
       </c>
-      <c r="O22" s="66">
+      <c r="O22" s="65">
         <v>3.34</v>
       </c>
-      <c r="P22" s="66">
+      <c r="P22" s="65">
         <v>1.49</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="64" t="s">
         <v>895</v>
       </c>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="64" t="s">
         <v>896</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="64" t="s">
         <v>897</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="64" t="s">
         <v>898</v>
       </c>
-      <c r="G23" s="65" t="s">
+      <c r="G23" s="64" t="s">
         <v>899</v>
       </c>
-      <c r="H23" s="65" t="s">
+      <c r="H23" s="64" t="s">
         <v>900</v>
       </c>
-      <c r="I23" s="65" t="s">
+      <c r="I23" s="64" t="s">
         <v>901</v>
       </c>
-      <c r="J23" s="66" t="s">
+      <c r="J23" s="65" t="s">
         <v>902</v>
       </c>
-      <c r="K23" s="66" t="s">
+      <c r="K23" s="65" t="s">
         <v>903</v>
       </c>
-      <c r="L23" s="66" t="s">
+      <c r="L23" s="65" t="s">
         <v>904</v>
       </c>
-      <c r="M23" s="66" t="s">
+      <c r="M23" s="65" t="s">
         <v>905</v>
       </c>
-      <c r="N23" s="66" t="s">
+      <c r="N23" s="65" t="s">
         <v>906</v>
       </c>
-      <c r="O23" s="66" t="s">
+      <c r="O23" s="65" t="s">
         <v>907</v>
       </c>
-      <c r="P23" s="66" t="s">
+      <c r="P23" s="65" t="s">
         <v>908</v>
       </c>
     </row>
@@ -37538,108 +37443,108 @@
       <c r="B24" s="37" t="s">
         <v>909</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
         <v>792</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="64">
         <v>5.83</v>
       </c>
-      <c r="D25" s="65">
+      <c r="D25" s="64">
         <v>3.82</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="64" t="s">
         <v>912</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="64">
         <v>1.89</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="64">
         <v>1.91</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="64">
         <v>3.03</v>
       </c>
-      <c r="I25" s="65">
+      <c r="I25" s="64">
         <v>1.35</v>
       </c>
-      <c r="J25" s="66">
+      <c r="J25" s="65">
         <v>4.1900000000000004</v>
       </c>
-      <c r="K25" s="66">
+      <c r="K25" s="65">
         <v>2.74</v>
       </c>
-      <c r="L25" s="66">
+      <c r="L25" s="65">
         <v>1.73</v>
       </c>
-      <c r="M25" s="66">
+      <c r="M25" s="65">
         <v>1.35</v>
       </c>
-      <c r="N25" s="66">
+      <c r="N25" s="65">
         <v>1.38</v>
       </c>
-      <c r="O25" s="66">
+      <c r="O25" s="65">
         <v>2.17</v>
       </c>
-      <c r="P25" s="66">
+      <c r="P25" s="65">
         <v>0.97</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="64" t="s">
         <v>910</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="64" t="s">
         <v>911</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65" t="s">
+      <c r="E26" s="64"/>
+      <c r="F26" s="64" t="s">
         <v>913</v>
       </c>
-      <c r="G26" s="65" t="s">
+      <c r="G26" s="64" t="s">
         <v>914</v>
       </c>
-      <c r="H26" s="65" t="s">
+      <c r="H26" s="64" t="s">
         <v>915</v>
       </c>
-      <c r="I26" s="65" t="s">
+      <c r="I26" s="64" t="s">
         <v>916</v>
       </c>
-      <c r="J26" s="66" t="s">
+      <c r="J26" s="65" t="s">
         <v>917</v>
       </c>
-      <c r="K26" s="66" t="s">
+      <c r="K26" s="65" t="s">
         <v>918</v>
       </c>
-      <c r="L26" s="66" t="s">
+      <c r="L26" s="65" t="s">
         <v>919</v>
       </c>
-      <c r="M26" s="66" t="s">
+      <c r="M26" s="65" t="s">
         <v>920</v>
       </c>
-      <c r="N26" s="66" t="s">
+      <c r="N26" s="65" t="s">
         <v>921</v>
       </c>
-      <c r="O26" s="66" t="s">
+      <c r="O26" s="65" t="s">
         <v>922</v>
       </c>
-      <c r="P26" s="66" t="s">
+      <c r="P26" s="65" t="s">
         <v>923</v>
       </c>
     </row>
@@ -37647,91 +37552,91 @@
       <c r="B27" s="37" t="s">
         <v>807</v>
       </c>
-      <c r="C27" s="65">
+      <c r="C27" s="64">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D27" s="65">
+      <c r="D27" s="64">
         <v>2.77</v>
       </c>
-      <c r="E27" s="65">
+      <c r="E27" s="64">
         <v>1.74</v>
       </c>
-      <c r="F27" s="65">
+      <c r="F27" s="64">
         <v>1.37</v>
       </c>
-      <c r="G27" s="65">
+      <c r="G27" s="64">
         <v>1.39</v>
       </c>
-      <c r="H27" s="65">
+      <c r="H27" s="64">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I27" s="65">
+      <c r="I27" s="64">
         <v>0.98</v>
       </c>
-      <c r="J27" s="66">
+      <c r="J27" s="65">
         <v>3.04</v>
       </c>
-      <c r="K27" s="66">
+      <c r="K27" s="65">
         <v>1.99</v>
       </c>
-      <c r="L27" s="66">
+      <c r="L27" s="65">
         <v>1.25</v>
       </c>
-      <c r="M27" s="66">
+      <c r="M27" s="65">
         <v>0.98</v>
       </c>
-      <c r="N27" s="66">
+      <c r="N27" s="65">
         <v>1</v>
       </c>
-      <c r="O27" s="66">
+      <c r="O27" s="65">
         <v>1.58</v>
       </c>
-      <c r="P27" s="66">
+      <c r="P27" s="65">
         <v>0.7</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="64" t="s">
         <v>924</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="64" t="s">
         <v>925</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" s="64" t="s">
         <v>926</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="64" t="s">
         <v>927</v>
       </c>
-      <c r="G28" s="65" t="s">
+      <c r="G28" s="64" t="s">
         <v>928</v>
       </c>
-      <c r="H28" s="65" t="s">
+      <c r="H28" s="64" t="s">
         <v>929</v>
       </c>
-      <c r="I28" s="65" t="s">
+      <c r="I28" s="64" t="s">
         <v>930</v>
       </c>
-      <c r="J28" s="66" t="s">
+      <c r="J28" s="65" t="s">
         <v>931</v>
       </c>
-      <c r="K28" s="66" t="s">
+      <c r="K28" s="65" t="s">
         <v>932</v>
       </c>
-      <c r="L28" s="66" t="s">
+      <c r="L28" s="65" t="s">
         <v>933</v>
       </c>
-      <c r="M28" s="66" t="s">
+      <c r="M28" s="65" t="s">
         <v>934</v>
       </c>
-      <c r="N28" s="66" t="s">
+      <c r="N28" s="65" t="s">
         <v>935</v>
       </c>
-      <c r="O28" s="66" t="s">
+      <c r="O28" s="65" t="s">
         <v>936</v>
       </c>
-      <c r="P28" s="66" t="s">
+      <c r="P28" s="65" t="s">
         <v>937</v>
       </c>
     </row>
@@ -37739,91 +37644,91 @@
       <c r="B29" s="37" t="s">
         <v>822</v>
       </c>
-      <c r="C29" s="65">
+      <c r="C29" s="64">
         <v>4.07</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="64">
         <v>2.66</v>
       </c>
-      <c r="E29" s="65">
+      <c r="E29" s="64">
         <v>1.68</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="64">
         <v>1.31</v>
       </c>
-      <c r="G29" s="65">
+      <c r="G29" s="64">
         <v>1.33</v>
       </c>
-      <c r="H29" s="65">
+      <c r="H29" s="64">
         <v>2.11</v>
       </c>
-      <c r="I29" s="65">
+      <c r="I29" s="64">
         <v>0.94</v>
       </c>
-      <c r="J29" s="66">
+      <c r="J29" s="65">
         <v>2.92</v>
       </c>
-      <c r="K29" s="66">
+      <c r="K29" s="65">
         <v>1.91</v>
       </c>
-      <c r="L29" s="66">
+      <c r="L29" s="65">
         <v>1.2</v>
       </c>
-      <c r="M29" s="66">
+      <c r="M29" s="65">
         <v>0.94</v>
       </c>
-      <c r="N29" s="66">
+      <c r="N29" s="65">
         <v>0.96</v>
       </c>
-      <c r="O29" s="66">
+      <c r="O29" s="65">
         <v>1.52</v>
       </c>
-      <c r="P29" s="66">
+      <c r="P29" s="65">
         <v>0.68</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="64" t="s">
         <v>938</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="64" t="s">
         <v>939</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="E30" s="64" t="s">
         <v>940</v>
       </c>
-      <c r="F30" s="65" t="s">
+      <c r="F30" s="64" t="s">
         <v>941</v>
       </c>
-      <c r="G30" s="65" t="s">
+      <c r="G30" s="64" t="s">
         <v>942</v>
       </c>
-      <c r="H30" s="65" t="s">
+      <c r="H30" s="64" t="s">
         <v>943</v>
       </c>
-      <c r="I30" s="65" t="s">
+      <c r="I30" s="64" t="s">
         <v>944</v>
       </c>
-      <c r="J30" s="66" t="s">
+      <c r="J30" s="65" t="s">
         <v>945</v>
       </c>
-      <c r="K30" s="66" t="s">
+      <c r="K30" s="65" t="s">
         <v>946</v>
       </c>
-      <c r="L30" s="66" t="s">
+      <c r="L30" s="65" t="s">
         <v>947</v>
       </c>
-      <c r="M30" s="66" t="s">
+      <c r="M30" s="65" t="s">
         <v>948</v>
       </c>
-      <c r="N30" s="66" t="s">
+      <c r="N30" s="65" t="s">
         <v>949</v>
       </c>
-      <c r="O30" s="66" t="s">
+      <c r="O30" s="65" t="s">
         <v>950</v>
       </c>
-      <c r="P30" s="66" t="s">
+      <c r="P30" s="65" t="s">
         <v>951</v>
       </c>
     </row>
@@ -37831,91 +37736,91 @@
       <c r="B31" s="37" t="s">
         <v>837</v>
       </c>
-      <c r="C31" s="65">
+      <c r="C31" s="64">
         <v>4.8099999999999996</v>
       </c>
-      <c r="D31" s="65">
+      <c r="D31" s="64">
         <v>3.15</v>
       </c>
-      <c r="E31" s="65">
+      <c r="E31" s="64">
         <v>1.98</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="64">
         <v>1.55</v>
       </c>
-      <c r="G31" s="65">
+      <c r="G31" s="64">
         <v>1.58</v>
       </c>
-      <c r="H31" s="65">
+      <c r="H31" s="64">
         <v>2.5</v>
       </c>
-      <c r="I31" s="65">
+      <c r="I31" s="64">
         <v>1.1100000000000001</v>
       </c>
-      <c r="J31" s="66">
+      <c r="J31" s="65">
         <v>3.45</v>
       </c>
-      <c r="K31" s="66">
+      <c r="K31" s="65">
         <v>2.2599999999999998</v>
       </c>
-      <c r="L31" s="66">
+      <c r="L31" s="65">
         <v>1.42</v>
       </c>
-      <c r="M31" s="66">
+      <c r="M31" s="65">
         <v>1.1200000000000001</v>
       </c>
-      <c r="N31" s="66">
+      <c r="N31" s="65">
         <v>1.1299999999999999</v>
       </c>
-      <c r="O31" s="66">
+      <c r="O31" s="65">
         <v>1.79</v>
       </c>
-      <c r="P31" s="66">
+      <c r="P31" s="65">
         <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="64" t="s">
         <v>952</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="64" t="s">
         <v>953</v>
       </c>
-      <c r="E32" s="65" t="s">
+      <c r="E32" s="64" t="s">
         <v>932</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" s="64" t="s">
         <v>954</v>
       </c>
-      <c r="G32" s="65" t="s">
+      <c r="G32" s="64" t="s">
         <v>955</v>
       </c>
-      <c r="H32" s="65" t="s">
+      <c r="H32" s="64" t="s">
         <v>956</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="64" t="s">
         <v>957</v>
       </c>
-      <c r="J32" s="66" t="s">
+      <c r="J32" s="65" t="s">
         <v>958</v>
       </c>
-      <c r="K32" s="66" t="s">
+      <c r="K32" s="65" t="s">
         <v>959</v>
       </c>
-      <c r="L32" s="66" t="s">
+      <c r="L32" s="65" t="s">
         <v>960</v>
       </c>
-      <c r="M32" s="66" t="s">
+      <c r="M32" s="65" t="s">
         <v>961</v>
       </c>
-      <c r="N32" s="66" t="s">
+      <c r="N32" s="65" t="s">
         <v>962</v>
       </c>
-      <c r="O32" s="66" t="s">
+      <c r="O32" s="65" t="s">
         <v>963</v>
       </c>
-      <c r="P32" s="66" t="s">
+      <c r="P32" s="65" t="s">
         <v>964</v>
       </c>
     </row>
@@ -39083,11 +38988,11 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C34" s="59">
+      <c r="C34" s="81">
         <v>2015</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
       <c r="F34" s="23">
         <v>2015</v>
       </c>
@@ -39156,7 +39061,7 @@
         <v>135039</v>
       </c>
       <c r="G36" s="7">
-        <f>C36/F36</f>
+        <f t="shared" ref="G36:G42" si="3">C36/F36</f>
         <v>0.635423840520146</v>
       </c>
       <c r="J36" s="4">
@@ -39192,7 +39097,7 @@
         <v>123273</v>
       </c>
       <c r="G37" s="7">
-        <f>C37/F37</f>
+        <f t="shared" si="3"/>
         <v>0.6801732739529337</v>
       </c>
       <c r="J37" s="4">
@@ -39202,7 +39107,7 @@
         <v>69161</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" ref="L37:L42" si="3">K37/J37</f>
+        <f t="shared" ref="L37:L42" si="4">K37/J37</f>
         <v>0.95337937499138437</v>
       </c>
       <c r="V37" s="37"/>
@@ -39228,7 +39133,7 @@
         <v>107988</v>
       </c>
       <c r="G38" s="7">
-        <f>C38/F38</f>
+        <f t="shared" si="3"/>
         <v>0.63621883913027377</v>
       </c>
       <c r="J38" s="4">
@@ -39238,7 +39143,7 @@
         <v>51698</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.74734011795998612</v>
       </c>
       <c r="V38" s="37"/>
@@ -39264,7 +39169,7 @@
         <v>71419</v>
       </c>
       <c r="G39" s="7">
-        <f>C39/F39</f>
+        <f t="shared" si="3"/>
         <v>0.76908105686161943</v>
       </c>
       <c r="J39" s="4">
@@ -39274,7 +39179,7 @@
         <v>38063</v>
       </c>
       <c r="L39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.80021443888491783</v>
       </c>
       <c r="V39" s="37"/>
@@ -39300,7 +39205,7 @@
         <v>29057</v>
       </c>
       <c r="G40" s="7">
-        <f>C40/F40</f>
+        <f t="shared" si="3"/>
         <v>0.79805210448428954</v>
       </c>
       <c r="J40" s="4">
@@ -39310,7 +39215,7 @@
         <v>14798</v>
       </c>
       <c r="L40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.43165509596872992</v>
       </c>
       <c r="V40" s="37"/>
@@ -39336,7 +39241,7 @@
         <v>20807</v>
       </c>
       <c r="G41" s="7">
-        <f>C41/F41</f>
+        <f t="shared" si="3"/>
         <v>0.55563031672033447</v>
       </c>
       <c r="J41" s="4">
@@ -39346,7 +39251,7 @@
         <v>7858</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.54622549701098289</v>
       </c>
       <c r="V41" s="37"/>
@@ -39362,11 +39267,11 @@
         <f>SUM(C36:C41)</f>
         <v>328035</v>
       </c>
-      <c r="D42" s="62">
+      <c r="D42" s="61">
         <f>SUM(D36:D41)</f>
         <v>570765</v>
       </c>
-      <c r="E42" s="63">
+      <c r="E42" s="62">
         <f t="shared" si="2"/>
         <v>0.57472865364905001</v>
       </c>
@@ -39374,8 +39279,8 @@
         <f>SUM(F36:F41)</f>
         <v>487583</v>
       </c>
-      <c r="G42" s="64">
-        <f>C42/F42</f>
+      <c r="G42" s="63">
+        <f t="shared" si="3"/>
         <v>0.67277776296548486</v>
       </c>
       <c r="I42" s="4">
@@ -39391,17 +39296,17 @@
         <v>237647</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73342180387315792</v>
       </c>
-      <c r="M42" s="63">
+      <c r="M42" s="62">
         <f>K42/I42</f>
         <v>0.65512458482178615</v>
       </c>
       <c r="V42" s="37"/>
       <c r="W42" s="37"/>
       <c r="X42" s="37"/>
-      <c r="Y42" s="61"/>
+      <c r="Y42" s="60"/>
     </row>
     <row r="43" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="4"/>
@@ -39433,7 +39338,7 @@
         <f>C20*M42</f>
         <v>0.49396393695562674</v>
       </c>
-      <c r="G44" s="61"/>
+      <c r="G44" s="60"/>
       <c r="H44" s="4"/>
       <c r="I44" s="7"/>
       <c r="K44" s="4"/>
@@ -39490,7 +39395,7 @@
         <v>100677</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" ref="E50:E56" si="4">D50/C50</f>
+        <f t="shared" ref="E50:E56" si="5">D50/C50</f>
         <v>0.78531813820700624</v>
       </c>
     </row>
@@ -39505,7 +39410,7 @@
         <v>101527</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8995676135457461</v>
       </c>
     </row>
@@ -39520,7 +39425,7 @@
         <v>80123</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.7052770564675851</v>
       </c>
     </row>
@@ -39535,7 +39440,7 @@
         <v>65820</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.83162762489576225</v>
       </c>
     </row>
@@ -39550,7 +39455,7 @@
         <v>27571</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78886981402002865</v>
       </c>
     </row>
@@ -39565,7 +39470,7 @@
         <v>13439</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.76632263214917029</v>
       </c>
     </row>
@@ -39582,7 +39487,7 @@
         <v>389157</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.80024223780020109</v>
       </c>
       <c r="G56" s="37">
@@ -40462,7 +40367,7 @@
         <v>0</v>
       </c>
       <c r="E190" s="37">
-        <f t="shared" ref="E190:E194" si="5">D190/C190*100</f>
+        <f t="shared" ref="E190:E194" si="6">D190/C190*100</f>
         <v>0</v>
       </c>
       <c r="H190" s="37"/>
@@ -40484,7 +40389,7 @@
         <v>10</v>
       </c>
       <c r="E191" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.11943150603129105</v>
       </c>
       <c r="J191" s="37"/>
@@ -40502,7 +40407,7 @@
         <v>93</v>
       </c>
       <c r="E192" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0854341736694677</v>
       </c>
       <c r="J192" s="37"/>
@@ -40522,7 +40427,7 @@
         <v>412</v>
       </c>
       <c r="E193" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.7345437830383821</v>
       </c>
       <c r="H193" s="37"/>
@@ -40544,7 +40449,7 @@
         <v>735</v>
       </c>
       <c r="E194" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0786986150802385</v>
       </c>
       <c r="J194" s="37"/>
@@ -42093,7 +41998,7 @@
   <dimension ref="A1:Y256"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+      <selection activeCell="R75" sqref="R75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43809,7 +43714,7 @@
       <c r="K75" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="L75" s="72">
+      <c r="L75" s="71">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="M75" s="37">
@@ -43818,7 +43723,7 @@
       <c r="N75" s="37">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="O75" s="72">
+      <c r="O75" s="71">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="P75" s="37">
@@ -44743,7 +44648,7 @@
         <v>235</v>
       </c>
       <c r="H92" s="41"/>
-      <c r="K92" s="72" t="s">
+      <c r="K92" s="71" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -45619,16 +45524,16 @@
       <c r="O165" s="37"/>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A166" s="75" t="s">
+      <c r="A166" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="B166" s="75"/>
-      <c r="C166" s="75"/>
-      <c r="D166" s="75" t="s">
+      <c r="B166" s="74"/>
+      <c r="C166" s="74"/>
+      <c r="D166" s="74" t="s">
         <v>599</v>
       </c>
-      <c r="E166" s="75"/>
-      <c r="F166" s="75"/>
+      <c r="E166" s="74"/>
+      <c r="F166" s="74"/>
       <c r="J166" s="37" t="s">
         <v>150</v>
       </c>
@@ -45641,18 +45546,18 @@
       <c r="O166" s="37"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A167" s="75"/>
-      <c r="B167" s="75"/>
-      <c r="C167" s="75" t="s">
+      <c r="A167" s="74"/>
+      <c r="B167" s="74"/>
+      <c r="C167" s="74" t="s">
         <v>600</v>
       </c>
-      <c r="D167" s="75" t="s">
+      <c r="D167" s="74" t="s">
         <v>601</v>
       </c>
-      <c r="E167" s="75" t="s">
+      <c r="E167" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="F167" s="75" t="s">
+      <c r="F167" s="74" t="s">
         <v>492</v>
       </c>
       <c r="J167" s="37"/>
@@ -45671,18 +45576,18 @@
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A168" s="75" t="s">
+      <c r="A168" s="74" t="s">
         <v>602</v>
       </c>
-      <c r="B168" s="75"/>
-      <c r="C168" s="75"/>
-      <c r="D168" s="75">
+      <c r="B168" s="74"/>
+      <c r="C168" s="74"/>
+      <c r="D168" s="74">
         <v>0</v>
       </c>
-      <c r="E168" s="75">
+      <c r="E168" s="74">
         <v>0</v>
       </c>
-      <c r="F168" s="75">
+      <c r="F168" s="74">
         <v>0</v>
       </c>
       <c r="J168" s="37" t="s">
@@ -45701,18 +45606,18 @@
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A169" s="75" t="s">
+      <c r="A169" s="74" t="s">
         <v>459</v>
       </c>
-      <c r="B169" s="75"/>
-      <c r="C169" s="75"/>
-      <c r="D169" s="75">
+      <c r="B169" s="74"/>
+      <c r="C169" s="74"/>
+      <c r="D169" s="74">
         <v>0</v>
       </c>
-      <c r="E169" s="75">
+      <c r="E169" s="74">
         <v>0</v>
       </c>
-      <c r="F169" s="75">
+      <c r="F169" s="74">
         <v>0</v>
       </c>
       <c r="J169" s="35" t="s">
@@ -45731,20 +45636,20 @@
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A170" s="75" t="s">
+      <c r="A170" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="B170" s="75"/>
-      <c r="C170" s="75"/>
-      <c r="D170" s="75">
+      <c r="B170" s="74"/>
+      <c r="C170" s="74"/>
+      <c r="D170" s="74">
         <f>0.8*M170</f>
         <v>2.4960000000000004</v>
       </c>
-      <c r="E170" s="75">
+      <c r="E170" s="74">
         <f>0.8*N170</f>
         <v>1.4976000000000003</v>
       </c>
-      <c r="F170" s="75">
+      <c r="F170" s="74">
         <f>0.8*O170</f>
         <v>0.89856000000000003</v>
       </c>
@@ -45766,20 +45671,20 @@
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A171" s="75" t="s">
+      <c r="A171" s="74" t="s">
         <v>311</v>
       </c>
-      <c r="B171" s="75"/>
-      <c r="C171" s="75"/>
-      <c r="D171" s="75">
+      <c r="B171" s="74"/>
+      <c r="C171" s="74"/>
+      <c r="D171" s="74">
         <f t="shared" ref="D171:D183" si="0">0.8*M171</f>
         <v>12.48</v>
       </c>
-      <c r="E171" s="75">
+      <c r="E171" s="74">
         <f t="shared" ref="E171:E183" si="1">0.8*N171</f>
         <v>7.4879999999999995</v>
       </c>
-      <c r="F171" s="75">
+      <c r="F171" s="74">
         <f t="shared" ref="F171:F183" si="2">0.8*O171</f>
         <v>4.4927999999999999</v>
       </c>
@@ -45801,20 +45706,20 @@
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A172" s="75" t="s">
+      <c r="A172" s="74" t="s">
         <v>603</v>
       </c>
-      <c r="B172" s="75"/>
-      <c r="C172" s="75"/>
-      <c r="D172" s="75">
+      <c r="B172" s="74"/>
+      <c r="C172" s="74"/>
+      <c r="D172" s="74">
         <f t="shared" si="0"/>
         <v>49.92</v>
       </c>
-      <c r="E172" s="75">
+      <c r="E172" s="74">
         <f t="shared" si="1"/>
         <v>29.951999999999998</v>
       </c>
-      <c r="F172" s="75">
+      <c r="F172" s="74">
         <f t="shared" si="2"/>
         <v>17.9712</v>
       </c>
@@ -45838,20 +45743,20 @@
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A173" s="75" t="s">
+      <c r="A173" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="B173" s="75"/>
-      <c r="C173" s="75"/>
-      <c r="D173" s="75">
+      <c r="B173" s="74"/>
+      <c r="C173" s="74"/>
+      <c r="D173" s="74">
         <f t="shared" si="0"/>
         <v>124.80000000000001</v>
       </c>
-      <c r="E173" s="75">
+      <c r="E173" s="74">
         <f t="shared" si="1"/>
         <v>74.88</v>
       </c>
-      <c r="F173" s="75">
+      <c r="F173" s="74">
         <f t="shared" si="2"/>
         <v>44.927999999999997</v>
       </c>
@@ -45873,20 +45778,20 @@
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A174" s="75" t="s">
+      <c r="A174" s="74" t="s">
         <v>314</v>
       </c>
-      <c r="B174" s="75"/>
-      <c r="C174" s="75"/>
-      <c r="D174" s="75">
+      <c r="B174" s="74"/>
+      <c r="C174" s="74"/>
+      <c r="D174" s="74">
         <f t="shared" si="0"/>
         <v>88.24692632</v>
       </c>
-      <c r="E174" s="75">
+      <c r="E174" s="74">
         <f t="shared" si="1"/>
         <v>52.948155776</v>
       </c>
-      <c r="F174" s="75">
+      <c r="F174" s="74">
         <f t="shared" si="2"/>
         <v>31.768893464000001</v>
       </c>
@@ -45910,20 +45815,20 @@
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A175" s="75" t="s">
+      <c r="A175" s="74" t="s">
         <v>315</v>
       </c>
-      <c r="B175" s="75"/>
-      <c r="C175" s="75"/>
-      <c r="D175" s="75">
+      <c r="B175" s="74"/>
+      <c r="C175" s="74"/>
+      <c r="D175" s="74">
         <f t="shared" si="0"/>
         <v>62.400000000000006</v>
       </c>
-      <c r="E175" s="75">
+      <c r="E175" s="74">
         <f t="shared" si="1"/>
         <v>37.44</v>
       </c>
-      <c r="F175" s="75">
+      <c r="F175" s="74">
         <f t="shared" si="2"/>
         <v>22.463999999999999</v>
       </c>
@@ -45947,20 +45852,20 @@
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A176" s="75" t="s">
+      <c r="A176" s="74" t="s">
         <v>316</v>
       </c>
-      <c r="B176" s="75"/>
-      <c r="C176" s="75"/>
-      <c r="D176" s="75">
+      <c r="B176" s="74"/>
+      <c r="C176" s="74"/>
+      <c r="D176" s="74">
         <f t="shared" si="0"/>
         <v>44.123463143999999</v>
       </c>
-      <c r="E176" s="75">
+      <c r="E176" s="74">
         <f t="shared" si="1"/>
         <v>26.474077888</v>
       </c>
-      <c r="F176" s="75">
+      <c r="F176" s="74">
         <f t="shared" si="2"/>
         <v>15.884446736000001</v>
       </c>
@@ -45984,20 +45889,20 @@
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A177" s="75" t="s">
+      <c r="A177" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="B177" s="75"/>
-      <c r="C177" s="75"/>
-      <c r="D177" s="75">
+      <c r="B177" s="74"/>
+      <c r="C177" s="74"/>
+      <c r="D177" s="74">
         <f t="shared" si="0"/>
         <v>31.200000000000003</v>
       </c>
-      <c r="E177" s="75">
+      <c r="E177" s="74">
         <f t="shared" si="1"/>
         <v>18.72</v>
       </c>
-      <c r="F177" s="75">
+      <c r="F177" s="74">
         <f t="shared" si="2"/>
         <v>11.231999999999999</v>
       </c>
@@ -46021,20 +45926,20 @@
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A178" s="75" t="s">
+      <c r="A178" s="74" t="s">
         <v>604</v>
       </c>
-      <c r="B178" s="75"/>
-      <c r="C178" s="75"/>
-      <c r="D178" s="75">
+      <c r="B178" s="74"/>
+      <c r="C178" s="74"/>
+      <c r="D178" s="74">
         <f t="shared" si="0"/>
         <v>22.061731576</v>
       </c>
-      <c r="E178" s="75">
+      <c r="E178" s="74">
         <f t="shared" si="1"/>
         <v>13.237038944</v>
       </c>
-      <c r="F178" s="75">
+      <c r="F178" s="74">
         <f t="shared" si="2"/>
         <v>7.9422233664000004</v>
       </c>
@@ -46058,20 +45963,20 @@
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A179" s="75" t="s">
+      <c r="A179" s="74" t="s">
         <v>319</v>
       </c>
-      <c r="B179" s="75"/>
-      <c r="C179" s="75"/>
-      <c r="D179" s="75">
+      <c r="B179" s="74"/>
+      <c r="C179" s="74"/>
+      <c r="D179" s="74">
         <f t="shared" si="0"/>
         <v>15.600000000000001</v>
       </c>
-      <c r="E179" s="75">
+      <c r="E179" s="74">
         <f t="shared" si="1"/>
         <v>9.36</v>
       </c>
-      <c r="F179" s="75">
+      <c r="F179" s="74">
         <f t="shared" si="2"/>
         <v>5.6159999999999997</v>
       </c>
@@ -46095,20 +46000,20 @@
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A180" s="75" t="s">
+      <c r="A180" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="B180" s="75"/>
-      <c r="C180" s="75"/>
-      <c r="D180" s="75">
+      <c r="B180" s="74"/>
+      <c r="C180" s="74"/>
+      <c r="D180" s="74">
         <f t="shared" si="0"/>
         <v>11.030865784</v>
       </c>
-      <c r="E180" s="75">
+      <c r="E180" s="74">
         <f t="shared" si="1"/>
         <v>6.618519472</v>
       </c>
-      <c r="F180" s="75">
+      <c r="F180" s="74">
         <f t="shared" si="2"/>
         <v>3.9711116832000002</v>
       </c>
@@ -46132,20 +46037,20 @@
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A181" s="75" t="s">
+      <c r="A181" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="B181" s="75"/>
-      <c r="C181" s="75"/>
-      <c r="D181" s="75">
+      <c r="B181" s="74"/>
+      <c r="C181" s="74"/>
+      <c r="D181" s="74">
         <f t="shared" si="0"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="E181" s="75">
+      <c r="E181" s="74">
         <f t="shared" si="1"/>
         <v>4.68</v>
       </c>
-      <c r="F181" s="75">
+      <c r="F181" s="74">
         <f t="shared" si="2"/>
         <v>2.8079999999999998</v>
       </c>
@@ -46169,20 +46074,20 @@
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A182" s="75" t="s">
+      <c r="A182" s="74" t="s">
         <v>463</v>
       </c>
-      <c r="B182" s="75"/>
-      <c r="C182" s="75"/>
-      <c r="D182" s="75">
+      <c r="B182" s="74"/>
+      <c r="C182" s="74"/>
+      <c r="D182" s="74">
         <f t="shared" si="0"/>
         <v>5.5154328935999999</v>
       </c>
-      <c r="E182" s="75">
+      <c r="E182" s="74">
         <f t="shared" si="1"/>
         <v>3.309259736</v>
       </c>
-      <c r="F182" s="75">
+      <c r="F182" s="74">
         <f t="shared" si="2"/>
         <v>1.9855558416000001</v>
       </c>
@@ -46206,20 +46111,20 @@
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A183" s="75" t="s">
+      <c r="A183" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="B183" s="75"/>
-      <c r="C183" s="75"/>
-      <c r="D183" s="75">
+      <c r="B183" s="74"/>
+      <c r="C183" s="74"/>
+      <c r="D183" s="74">
         <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="E183" s="75">
+      <c r="E183" s="74">
         <f t="shared" si="1"/>
         <v>2.34</v>
       </c>
-      <c r="F183" s="75">
+      <c r="F183" s="74">
         <f t="shared" si="2"/>
         <v>1.4039999999999999</v>
       </c>
@@ -46243,12 +46148,12 @@
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A184" s="75"/>
-      <c r="B184" s="75"/>
-      <c r="C184" s="75"/>
-      <c r="D184" s="75"/>
-      <c r="E184" s="75"/>
-      <c r="F184" s="75"/>
+      <c r="A184" s="74"/>
+      <c r="B184" s="74"/>
+      <c r="C184" s="74"/>
+      <c r="D184" s="74"/>
+      <c r="E184" s="74"/>
+      <c r="F184" s="74"/>
       <c r="J184" s="37"/>
       <c r="K184" s="37"/>
       <c r="L184" s="37"/>
@@ -46257,751 +46162,751 @@
       <c r="O184" s="37"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A185" s="75" t="s">
+      <c r="A185" s="74" t="s">
         <v>605</v>
       </c>
-      <c r="B185" s="75"/>
-      <c r="C185" s="75"/>
-      <c r="D185" s="75"/>
-      <c r="E185" s="75"/>
-      <c r="F185" s="75"/>
-      <c r="G185" s="73"/>
-      <c r="H185" s="73"/>
-      <c r="I185" s="73"/>
-      <c r="J185" s="73" t="s">
+      <c r="B185" s="74"/>
+      <c r="C185" s="74"/>
+      <c r="D185" s="74"/>
+      <c r="E185" s="74"/>
+      <c r="F185" s="74"/>
+      <c r="G185" s="72"/>
+      <c r="H185" s="72"/>
+      <c r="I185" s="72"/>
+      <c r="J185" s="72" t="s">
         <v>605</v>
       </c>
-      <c r="K185" s="73"/>
-      <c r="L185" s="73"/>
-      <c r="M185" s="73"/>
-      <c r="N185" s="73"/>
-      <c r="O185" s="73"/>
+      <c r="K185" s="72"/>
+      <c r="L185" s="72"/>
+      <c r="M185" s="72"/>
+      <c r="N185" s="72"/>
+      <c r="O185" s="72"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A186" s="75" t="s">
+      <c r="A186" s="74" t="s">
         <v>606</v>
       </c>
-      <c r="B186" s="75"/>
-      <c r="C186" s="75"/>
-      <c r="D186" s="75" t="s">
+      <c r="B186" s="74"/>
+      <c r="C186" s="74"/>
+      <c r="D186" s="74" t="s">
         <v>599</v>
       </c>
-      <c r="E186" s="75"/>
-      <c r="F186" s="75"/>
-      <c r="G186" s="73"/>
-      <c r="H186" s="73"/>
-      <c r="I186" s="73"/>
-      <c r="J186" s="73" t="s">
+      <c r="E186" s="74"/>
+      <c r="F186" s="74"/>
+      <c r="G186" s="72"/>
+      <c r="H186" s="72"/>
+      <c r="I186" s="72"/>
+      <c r="J186" s="72" t="s">
         <v>606</v>
       </c>
-      <c r="K186" s="73"/>
-      <c r="L186" s="73"/>
-      <c r="M186" s="73" t="s">
+      <c r="K186" s="72"/>
+      <c r="L186" s="72"/>
+      <c r="M186" s="72" t="s">
         <v>599</v>
       </c>
-      <c r="N186" s="73"/>
-      <c r="O186" s="73"/>
+      <c r="N186" s="72"/>
+      <c r="O186" s="72"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A187" s="75"/>
-      <c r="B187" s="75"/>
-      <c r="C187" s="75" t="s">
+      <c r="A187" s="74"/>
+      <c r="B187" s="74"/>
+      <c r="C187" s="74" t="s">
         <v>600</v>
       </c>
-      <c r="D187" s="75" t="s">
+      <c r="D187" s="74" t="s">
         <v>601</v>
       </c>
-      <c r="E187" s="75" t="s">
+      <c r="E187" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="F187" s="75" t="s">
+      <c r="F187" s="74" t="s">
         <v>492</v>
       </c>
-      <c r="G187" s="73"/>
-      <c r="H187" s="73"/>
-      <c r="I187" s="73"/>
-      <c r="J187" s="73"/>
-      <c r="K187" s="73"/>
-      <c r="L187" s="73" t="s">
+      <c r="G187" s="72"/>
+      <c r="H187" s="72"/>
+      <c r="I187" s="72"/>
+      <c r="J187" s="72"/>
+      <c r="K187" s="72"/>
+      <c r="L187" s="72" t="s">
         <v>600</v>
       </c>
-      <c r="M187" s="73" t="s">
+      <c r="M187" s="72" t="s">
         <v>601</v>
       </c>
-      <c r="N187" s="73" t="s">
+      <c r="N187" s="72" t="s">
         <v>491</v>
       </c>
-      <c r="O187" s="73" t="s">
+      <c r="O187" s="72" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A188" s="75" t="s">
+      <c r="A188" s="74" t="s">
         <v>602</v>
       </c>
-      <c r="B188" s="75"/>
-      <c r="C188" s="75"/>
-      <c r="D188" s="76">
+      <c r="B188" s="74"/>
+      <c r="C188" s="74"/>
+      <c r="D188" s="75">
         <v>0</v>
       </c>
-      <c r="E188" s="76">
+      <c r="E188" s="75">
         <v>0</v>
       </c>
-      <c r="F188" s="76">
+      <c r="F188" s="75">
         <v>0</v>
       </c>
-      <c r="G188" s="73"/>
-      <c r="H188" s="73"/>
-      <c r="I188" s="73"/>
-      <c r="J188" s="73" t="s">
+      <c r="G188" s="72"/>
+      <c r="H188" s="72"/>
+      <c r="I188" s="72"/>
+      <c r="J188" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="K188" s="73"/>
-      <c r="L188" s="73"/>
-      <c r="M188" s="73">
+      <c r="K188" s="72"/>
+      <c r="L188" s="72"/>
+      <c r="M188" s="72">
         <v>0</v>
       </c>
-      <c r="N188" s="73">
+      <c r="N188" s="72">
         <v>0</v>
       </c>
-      <c r="O188" s="73">
+      <c r="O188" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A189" s="75" t="s">
+      <c r="A189" s="74" t="s">
         <v>459</v>
       </c>
-      <c r="B189" s="75"/>
-      <c r="C189" s="75"/>
-      <c r="D189" s="76">
+      <c r="B189" s="74"/>
+      <c r="C189" s="74"/>
+      <c r="D189" s="75">
         <v>0</v>
       </c>
-      <c r="E189" s="76">
+      <c r="E189" s="75">
         <v>0</v>
       </c>
-      <c r="F189" s="76">
+      <c r="F189" s="75">
         <v>0</v>
       </c>
-      <c r="G189" s="73"/>
-      <c r="H189" s="73"/>
-      <c r="I189" s="73"/>
-      <c r="J189" s="74" t="s">
+      <c r="G189" s="72"/>
+      <c r="H189" s="72"/>
+      <c r="I189" s="72"/>
+      <c r="J189" s="73" t="s">
         <v>459</v>
       </c>
-      <c r="K189" s="73"/>
-      <c r="L189" s="73"/>
-      <c r="M189" s="73">
+      <c r="K189" s="72"/>
+      <c r="L189" s="72"/>
+      <c r="M189" s="72">
         <v>0</v>
       </c>
-      <c r="N189" s="73">
+      <c r="N189" s="72">
         <v>0</v>
       </c>
-      <c r="O189" s="73">
+      <c r="O189" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A190" s="75" t="s">
+      <c r="A190" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="B190" s="75"/>
-      <c r="C190" s="75">
+      <c r="B190" s="74"/>
+      <c r="C190" s="74">
         <v>0.05</v>
       </c>
-      <c r="D190" s="76">
+      <c r="D190" s="75">
         <f>0.8*M190</f>
         <v>6.24</v>
       </c>
-      <c r="E190" s="76">
+      <c r="E190" s="75">
         <f>0.8*N190</f>
         <v>3.7439999999999998</v>
       </c>
-      <c r="F190" s="76">
+      <c r="F190" s="75">
         <f>0.8*O190</f>
         <v>2.2464</v>
       </c>
-      <c r="G190" s="73"/>
-      <c r="H190" s="73"/>
-      <c r="I190" s="73"/>
-      <c r="J190" s="74" t="s">
+      <c r="G190" s="72"/>
+      <c r="H190" s="72"/>
+      <c r="I190" s="72"/>
+      <c r="J190" s="73" t="s">
         <v>338</v>
       </c>
-      <c r="K190" s="73"/>
-      <c r="L190" s="73">
+      <c r="K190" s="72"/>
+      <c r="L190" s="72">
         <v>0.05</v>
       </c>
-      <c r="M190" s="73">
+      <c r="M190" s="72">
         <v>7.8</v>
       </c>
-      <c r="N190" s="73">
+      <c r="N190" s="72">
         <v>4.68</v>
       </c>
-      <c r="O190" s="73">
+      <c r="O190" s="72">
         <v>2.8079999999999998</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A191" s="75" t="s">
+      <c r="A191" s="74" t="s">
         <v>311</v>
       </c>
-      <c r="B191" s="75"/>
-      <c r="C191" s="75">
+      <c r="B191" s="74"/>
+      <c r="C191" s="74">
         <v>0.1</v>
       </c>
-      <c r="D191" s="76">
+      <c r="D191" s="75">
         <f t="shared" ref="D191:D203" si="3">0.8*M191</f>
         <v>12.48</v>
       </c>
-      <c r="E191" s="76">
+      <c r="E191" s="75">
         <f t="shared" ref="E191:E203" si="4">0.8*N191</f>
         <v>7.4879999999999995</v>
       </c>
-      <c r="F191" s="76">
+      <c r="F191" s="75">
         <f t="shared" ref="F191:F203" si="5">0.8*O191</f>
         <v>4.4927999999999999</v>
       </c>
-      <c r="G191" s="73"/>
-      <c r="H191" s="73"/>
-      <c r="I191" s="73"/>
-      <c r="J191" s="73" t="s">
+      <c r="G191" s="72"/>
+      <c r="H191" s="72"/>
+      <c r="I191" s="72"/>
+      <c r="J191" s="72" t="s">
         <v>311</v>
       </c>
-      <c r="K191" s="73"/>
-      <c r="L191" s="73">
+      <c r="K191" s="72"/>
+      <c r="L191" s="72">
         <v>0.1</v>
       </c>
-      <c r="M191" s="73">
+      <c r="M191" s="72">
         <v>15.6</v>
       </c>
-      <c r="N191" s="73">
+      <c r="N191" s="72">
         <v>9.36</v>
       </c>
-      <c r="O191" s="73">
+      <c r="O191" s="72">
         <v>5.6159999999999997</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A192" s="75" t="s">
+      <c r="A192" s="74" t="s">
         <v>603</v>
       </c>
-      <c r="B192" s="75">
+      <c r="B192" s="74">
         <v>1</v>
       </c>
-      <c r="C192" s="75">
+      <c r="C192" s="74">
         <v>0.4</v>
       </c>
-      <c r="D192" s="76">
+      <c r="D192" s="75">
         <f t="shared" si="3"/>
         <v>49.92</v>
       </c>
-      <c r="E192" s="76">
+      <c r="E192" s="75">
         <f t="shared" si="4"/>
         <v>29.951999999999998</v>
       </c>
-      <c r="F192" s="76">
+      <c r="F192" s="75">
         <f t="shared" si="5"/>
         <v>17.9712</v>
       </c>
-      <c r="G192" s="73"/>
-      <c r="H192" s="73"/>
-      <c r="I192" s="73"/>
-      <c r="J192" s="73" t="s">
+      <c r="G192" s="72"/>
+      <c r="H192" s="72"/>
+      <c r="I192" s="72"/>
+      <c r="J192" s="72" t="s">
         <v>603</v>
       </c>
-      <c r="K192" s="73">
+      <c r="K192" s="72">
         <v>1</v>
       </c>
-      <c r="L192" s="73">
+      <c r="L192" s="72">
         <v>0.4</v>
       </c>
-      <c r="M192" s="73">
+      <c r="M192" s="72">
         <v>62.4</v>
       </c>
-      <c r="N192" s="73">
+      <c r="N192" s="72">
         <v>37.44</v>
       </c>
-      <c r="O192" s="73">
+      <c r="O192" s="72">
         <v>22.463999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A193" s="75" t="s">
+      <c r="A193" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="B193" s="75">
+      <c r="B193" s="74">
         <v>5</v>
       </c>
-      <c r="C193" s="75"/>
-      <c r="D193" s="76">
+      <c r="C193" s="74"/>
+      <c r="D193" s="75">
         <f t="shared" si="3"/>
         <v>124.80000000000001</v>
       </c>
-      <c r="E193" s="76">
+      <c r="E193" s="75">
         <f t="shared" si="4"/>
         <v>74.88</v>
       </c>
-      <c r="F193" s="76">
+      <c r="F193" s="75">
         <f t="shared" si="5"/>
         <v>44.927999999999997</v>
       </c>
-      <c r="G193" s="73"/>
-      <c r="H193" s="73"/>
-      <c r="I193" s="73"/>
-      <c r="J193" s="73" t="s">
+      <c r="G193" s="72"/>
+      <c r="H193" s="72"/>
+      <c r="I193" s="72"/>
+      <c r="J193" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="K193" s="73">
+      <c r="K193" s="72">
         <v>5</v>
       </c>
-      <c r="L193" s="73"/>
-      <c r="M193" s="73">
+      <c r="L193" s="72"/>
+      <c r="M193" s="72">
         <v>156</v>
       </c>
-      <c r="N193" s="73">
+      <c r="N193" s="72">
         <v>93.6</v>
       </c>
-      <c r="O193" s="73">
+      <c r="O193" s="72">
         <v>56.16</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A194" s="75" t="s">
+      <c r="A194" s="74" t="s">
         <v>314</v>
       </c>
-      <c r="B194" s="75">
+      <c r="B194" s="74">
         <v>10</v>
       </c>
-      <c r="C194" s="75">
+      <c r="C194" s="74">
         <v>0.70710678100000002</v>
       </c>
-      <c r="D194" s="76">
+      <c r="D194" s="75">
         <f t="shared" si="3"/>
         <v>88.24692632</v>
       </c>
-      <c r="E194" s="76">
+      <c r="E194" s="75">
         <f t="shared" si="4"/>
         <v>52.948155776</v>
       </c>
-      <c r="F194" s="76">
+      <c r="F194" s="75">
         <f t="shared" si="5"/>
         <v>31.768893464000001</v>
       </c>
-      <c r="G194" s="73"/>
-      <c r="H194" s="73"/>
-      <c r="I194" s="73"/>
-      <c r="J194" s="73" t="s">
+      <c r="G194" s="72"/>
+      <c r="H194" s="72"/>
+      <c r="I194" s="72"/>
+      <c r="J194" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="K194" s="73">
+      <c r="K194" s="72">
         <v>10</v>
       </c>
-      <c r="L194" s="73">
+      <c r="L194" s="72">
         <v>0.70710678100000002</v>
       </c>
-      <c r="M194" s="73">
+      <c r="M194" s="72">
         <v>110.3086579</v>
       </c>
-      <c r="N194" s="73">
+      <c r="N194" s="72">
         <v>66.185194719999998</v>
       </c>
-      <c r="O194" s="73">
+      <c r="O194" s="72">
         <v>39.711116830000002</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A195" s="75" t="s">
+      <c r="A195" s="74" t="s">
         <v>315</v>
       </c>
-      <c r="B195" s="75">
+      <c r="B195" s="74">
         <v>15</v>
       </c>
-      <c r="C195" s="75">
+      <c r="C195" s="74">
         <v>0.5</v>
       </c>
-      <c r="D195" s="76">
+      <c r="D195" s="75">
         <f t="shared" si="3"/>
         <v>62.400000000000006</v>
       </c>
-      <c r="E195" s="76">
+      <c r="E195" s="75">
         <f t="shared" si="4"/>
         <v>37.44</v>
       </c>
-      <c r="F195" s="76">
+      <c r="F195" s="75">
         <f t="shared" si="5"/>
         <v>22.463999999999999</v>
       </c>
-      <c r="G195" s="73"/>
-      <c r="H195" s="73"/>
-      <c r="I195" s="73"/>
-      <c r="J195" s="73" t="s">
+      <c r="G195" s="72"/>
+      <c r="H195" s="72"/>
+      <c r="I195" s="72"/>
+      <c r="J195" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="K195" s="73">
+      <c r="K195" s="72">
         <v>15</v>
       </c>
-      <c r="L195" s="73">
+      <c r="L195" s="72">
         <v>0.5</v>
       </c>
-      <c r="M195" s="73">
+      <c r="M195" s="72">
         <v>78</v>
       </c>
-      <c r="N195" s="73">
+      <c r="N195" s="72">
         <v>46.8</v>
       </c>
-      <c r="O195" s="73">
+      <c r="O195" s="72">
         <v>28.08</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A196" s="75" t="s">
+      <c r="A196" s="74" t="s">
         <v>316</v>
       </c>
-      <c r="B196" s="75">
+      <c r="B196" s="74">
         <v>20</v>
       </c>
-      <c r="C196" s="75">
+      <c r="C196" s="74">
         <v>0.35355339099999999</v>
       </c>
-      <c r="D196" s="76">
+      <c r="D196" s="75">
         <f t="shared" si="3"/>
         <v>44.123463143999999</v>
       </c>
-      <c r="E196" s="76">
+      <c r="E196" s="75">
         <f t="shared" si="4"/>
         <v>26.474077888</v>
       </c>
-      <c r="F196" s="76">
+      <c r="F196" s="75">
         <f t="shared" si="5"/>
         <v>15.884446736000001</v>
       </c>
-      <c r="G196" s="73"/>
-      <c r="H196" s="73"/>
-      <c r="I196" s="73"/>
-      <c r="J196" s="73" t="s">
+      <c r="G196" s="72"/>
+      <c r="H196" s="72"/>
+      <c r="I196" s="72"/>
+      <c r="J196" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="K196" s="73">
+      <c r="K196" s="72">
         <v>20</v>
       </c>
-      <c r="L196" s="73">
+      <c r="L196" s="72">
         <v>0.35355339099999999</v>
       </c>
-      <c r="M196" s="73">
+      <c r="M196" s="72">
         <v>55.154328929999998</v>
       </c>
-      <c r="N196" s="73">
+      <c r="N196" s="72">
         <v>33.092597359999999</v>
       </c>
-      <c r="O196" s="73">
+      <c r="O196" s="72">
         <v>19.855558420000001</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A197" s="75" t="s">
+      <c r="A197" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="B197" s="75">
+      <c r="B197" s="74">
         <v>25</v>
       </c>
-      <c r="C197" s="75">
+      <c r="C197" s="74">
         <v>0.25</v>
       </c>
-      <c r="D197" s="76">
+      <c r="D197" s="75">
         <f t="shared" si="3"/>
         <v>31.200000000000003</v>
       </c>
-      <c r="E197" s="76">
+      <c r="E197" s="75">
         <f t="shared" si="4"/>
         <v>18.72</v>
       </c>
-      <c r="F197" s="76">
+      <c r="F197" s="75">
         <f t="shared" si="5"/>
         <v>11.231999999999999</v>
       </c>
-      <c r="G197" s="73"/>
-      <c r="H197" s="73"/>
-      <c r="I197" s="73"/>
-      <c r="J197" s="73" t="s">
+      <c r="G197" s="72"/>
+      <c r="H197" s="72"/>
+      <c r="I197" s="72"/>
+      <c r="J197" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="K197" s="73">
+      <c r="K197" s="72">
         <v>25</v>
       </c>
-      <c r="L197" s="73">
+      <c r="L197" s="72">
         <v>0.25</v>
       </c>
-      <c r="M197" s="73">
+      <c r="M197" s="72">
         <v>39</v>
       </c>
-      <c r="N197" s="73">
+      <c r="N197" s="72">
         <v>23.4</v>
       </c>
-      <c r="O197" s="73">
+      <c r="O197" s="72">
         <v>14.04</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A198" s="75" t="s">
+      <c r="A198" s="74" t="s">
         <v>604</v>
       </c>
-      <c r="B198" s="75">
+      <c r="B198" s="74">
         <v>30</v>
       </c>
-      <c r="C198" s="75">
+      <c r="C198" s="74">
         <v>0.17677669500000001</v>
       </c>
-      <c r="D198" s="76">
+      <c r="D198" s="75">
         <f t="shared" si="3"/>
         <v>22.061731576</v>
       </c>
-      <c r="E198" s="76">
+      <c r="E198" s="75">
         <f t="shared" si="4"/>
         <v>13.237038944</v>
       </c>
-      <c r="F198" s="76">
+      <c r="F198" s="75">
         <f t="shared" si="5"/>
         <v>7.9422233664000004</v>
       </c>
-      <c r="G198" s="73"/>
-      <c r="H198" s="73"/>
-      <c r="I198" s="73"/>
-      <c r="J198" s="73" t="s">
+      <c r="G198" s="72"/>
+      <c r="H198" s="72"/>
+      <c r="I198" s="72"/>
+      <c r="J198" s="72" t="s">
         <v>604</v>
       </c>
-      <c r="K198" s="73">
+      <c r="K198" s="72">
         <v>30</v>
       </c>
-      <c r="L198" s="73">
+      <c r="L198" s="72">
         <v>0.17677669500000001</v>
       </c>
-      <c r="M198" s="73">
+      <c r="M198" s="72">
         <v>27.57716447</v>
       </c>
-      <c r="N198" s="73">
+      <c r="N198" s="72">
         <v>16.54629868</v>
       </c>
-      <c r="O198" s="73">
+      <c r="O198" s="72">
         <v>9.9277792080000005</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A199" s="75" t="s">
+      <c r="A199" s="74" t="s">
         <v>319</v>
       </c>
-      <c r="B199" s="75">
+      <c r="B199" s="74">
         <v>35</v>
       </c>
-      <c r="C199" s="75">
+      <c r="C199" s="74">
         <v>0.125</v>
       </c>
-      <c r="D199" s="76">
+      <c r="D199" s="75">
         <f t="shared" si="3"/>
         <v>15.600000000000001</v>
       </c>
-      <c r="E199" s="76">
+      <c r="E199" s="75">
         <f t="shared" si="4"/>
         <v>9.36</v>
       </c>
-      <c r="F199" s="76">
+      <c r="F199" s="75">
         <f t="shared" si="5"/>
         <v>5.6159999999999997</v>
       </c>
-      <c r="G199" s="73"/>
-      <c r="H199" s="73"/>
-      <c r="I199" s="73"/>
-      <c r="J199" s="73" t="s">
+      <c r="G199" s="72"/>
+      <c r="H199" s="72"/>
+      <c r="I199" s="72"/>
+      <c r="J199" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="K199" s="73">
+      <c r="K199" s="72">
         <v>35</v>
       </c>
-      <c r="L199" s="73">
+      <c r="L199" s="72">
         <v>0.125</v>
       </c>
-      <c r="M199" s="73">
+      <c r="M199" s="72">
         <v>19.5</v>
       </c>
-      <c r="N199" s="73">
+      <c r="N199" s="72">
         <v>11.7</v>
       </c>
-      <c r="O199" s="73">
+      <c r="O199" s="72">
         <v>7.02</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A200" s="75" t="s">
+      <c r="A200" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="B200" s="75">
+      <c r="B200" s="74">
         <v>40</v>
       </c>
-      <c r="C200" s="75">
+      <c r="C200" s="74">
         <v>8.8388348000000005E-2</v>
       </c>
-      <c r="D200" s="76">
+      <c r="D200" s="75">
         <f t="shared" si="3"/>
         <v>11.030865784</v>
       </c>
-      <c r="E200" s="76">
+      <c r="E200" s="75">
         <f t="shared" si="4"/>
         <v>6.618519472</v>
       </c>
-      <c r="F200" s="76">
+      <c r="F200" s="75">
         <f t="shared" si="5"/>
         <v>3.9711116832000002</v>
       </c>
-      <c r="G200" s="73"/>
-      <c r="H200" s="73"/>
-      <c r="I200" s="73"/>
-      <c r="J200" s="73" t="s">
+      <c r="G200" s="72"/>
+      <c r="H200" s="72"/>
+      <c r="I200" s="72"/>
+      <c r="J200" s="72" t="s">
         <v>324</v>
       </c>
-      <c r="K200" s="73">
+      <c r="K200" s="72">
         <v>40</v>
       </c>
-      <c r="L200" s="73">
+      <c r="L200" s="72">
         <v>8.8388348000000005E-2</v>
       </c>
-      <c r="M200" s="73">
+      <c r="M200" s="72">
         <v>13.788582229999999</v>
       </c>
-      <c r="N200" s="73">
+      <c r="N200" s="72">
         <v>8.2731493399999998</v>
       </c>
-      <c r="O200" s="73">
+      <c r="O200" s="72">
         <v>4.9638896040000002</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A201" s="75" t="s">
+      <c r="A201" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="B201" s="75">
+      <c r="B201" s="74">
         <v>45</v>
       </c>
-      <c r="C201" s="75">
+      <c r="C201" s="74">
         <v>6.25E-2</v>
       </c>
-      <c r="D201" s="76">
+      <c r="D201" s="75">
         <f t="shared" si="3"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="E201" s="76">
+      <c r="E201" s="75">
         <f t="shared" si="4"/>
         <v>4.68</v>
       </c>
-      <c r="F201" s="76">
+      <c r="F201" s="75">
         <f t="shared" si="5"/>
         <v>2.8079999999999998</v>
       </c>
-      <c r="G201" s="73"/>
-      <c r="H201" s="73"/>
-      <c r="I201" s="73"/>
-      <c r="J201" s="73" t="s">
+      <c r="G201" s="72"/>
+      <c r="H201" s="72"/>
+      <c r="I201" s="72"/>
+      <c r="J201" s="72" t="s">
         <v>462</v>
       </c>
-      <c r="K201" s="73">
+      <c r="K201" s="72">
         <v>45</v>
       </c>
-      <c r="L201" s="73">
+      <c r="L201" s="72">
         <v>6.25E-2</v>
       </c>
-      <c r="M201" s="73">
+      <c r="M201" s="72">
         <v>9.75</v>
       </c>
-      <c r="N201" s="73">
+      <c r="N201" s="72">
         <v>5.85</v>
       </c>
-      <c r="O201" s="73">
+      <c r="O201" s="72">
         <v>3.51</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A202" s="75" t="s">
+      <c r="A202" s="74" t="s">
         <v>463</v>
       </c>
-      <c r="B202" s="75">
+      <c r="B202" s="74">
         <v>50</v>
       </c>
-      <c r="C202" s="75">
+      <c r="C202" s="74">
         <v>4.4194174000000003E-2</v>
       </c>
-      <c r="D202" s="76">
+      <c r="D202" s="75">
         <f t="shared" si="3"/>
         <v>5.5154328935999999</v>
       </c>
-      <c r="E202" s="76">
+      <c r="E202" s="75">
         <f t="shared" si="4"/>
         <v>3.309259736</v>
       </c>
-      <c r="F202" s="76">
+      <c r="F202" s="75">
         <f t="shared" si="5"/>
         <v>1.9855558416000001</v>
       </c>
-      <c r="G202" s="73"/>
-      <c r="H202" s="73"/>
-      <c r="I202" s="73"/>
-      <c r="J202" s="73" t="s">
+      <c r="G202" s="72"/>
+      <c r="H202" s="72"/>
+      <c r="I202" s="72"/>
+      <c r="J202" s="72" t="s">
         <v>463</v>
       </c>
-      <c r="K202" s="73">
+      <c r="K202" s="72">
         <v>50</v>
       </c>
-      <c r="L202" s="73">
+      <c r="L202" s="72">
         <v>4.4194174000000003E-2</v>
       </c>
-      <c r="M202" s="73">
+      <c r="M202" s="72">
         <v>6.8942911169999999</v>
       </c>
-      <c r="N202" s="73">
+      <c r="N202" s="72">
         <v>4.1365746699999999</v>
       </c>
-      <c r="O202" s="73">
+      <c r="O202" s="72">
         <v>2.4819448020000001</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A203" s="75" t="s">
+      <c r="A203" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="B203" s="75">
+      <c r="B203" s="74">
         <v>55</v>
       </c>
-      <c r="C203" s="75">
+      <c r="C203" s="74">
         <v>3.125E-2</v>
       </c>
-      <c r="D203" s="76">
+      <c r="D203" s="75">
         <f t="shared" si="3"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="E203" s="76">
+      <c r="E203" s="75">
         <f t="shared" si="4"/>
         <v>2.34</v>
       </c>
-      <c r="F203" s="76">
+      <c r="F203" s="75">
         <f t="shared" si="5"/>
         <v>1.4039999999999999</v>
       </c>
-      <c r="G203" s="73"/>
-      <c r="H203" s="73"/>
-      <c r="I203" s="73"/>
-      <c r="J203" s="73" t="s">
+      <c r="G203" s="72"/>
+      <c r="H203" s="72"/>
+      <c r="I203" s="72"/>
+      <c r="J203" s="72" t="s">
         <v>464</v>
       </c>
-      <c r="K203" s="73">
+      <c r="K203" s="72">
         <v>55</v>
       </c>
-      <c r="L203" s="73">
+      <c r="L203" s="72">
         <v>3.125E-2</v>
       </c>
-      <c r="M203" s="73">
+      <c r="M203" s="72">
         <v>4.875</v>
       </c>
-      <c r="N203" s="73">
+      <c r="N203" s="72">
         <v>2.9249999999999998</v>
       </c>
-      <c r="O203" s="73">
+      <c r="O203" s="72">
         <v>1.7549999999999999</v>
       </c>
     </row>
@@ -47678,8 +47583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG144"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="Q101" sqref="Q101"/>
+    <sheetView topLeftCell="Q92" workbookViewId="0">
+      <selection activeCell="AE111" sqref="AE111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51151,6 +51056,10 @@
       <c r="I110" s="20">
         <f t="shared" si="22"/>
         <v>0.12565270000000001</v>
+      </c>
+      <c r="AE110">
+        <f>1-0.335</f>
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="111" spans="2:32" x14ac:dyDescent="0.25">
@@ -51683,8 +51592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX127"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="M119" sqref="M119"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="N114" sqref="N114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53184,43 +53093,43 @@
       <c r="AX92" s="37"/>
     </row>
     <row r="93" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B93" s="65" t="s">
+      <c r="B93" s="64" t="s">
         <v>1043</v>
       </c>
-      <c r="C93" s="65" t="s">
+      <c r="C93" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="D93" s="65" t="s">
+      <c r="D93" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="E93" s="65"/>
-      <c r="F93" s="65" t="s">
+      <c r="E93" s="64"/>
+      <c r="F93" s="64" t="s">
         <v>1077</v>
       </c>
-      <c r="G93" s="65" t="s">
+      <c r="G93" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="H93" s="65" t="s">
+      <c r="H93" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="I93" s="65"/>
-      <c r="J93" s="65">
+      <c r="I93" s="64"/>
+      <c r="J93" s="64">
         <v>2000</v>
       </c>
-      <c r="K93" s="65" t="s">
+      <c r="K93" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="L93" s="65" t="s">
+      <c r="L93" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="M93" s="65"/>
-      <c r="N93" s="65">
+      <c r="M93" s="64"/>
+      <c r="N93" s="64">
         <v>2020</v>
       </c>
-      <c r="O93" s="65" t="s">
+      <c r="O93" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="P93" s="65" t="s">
+      <c r="P93" s="64" t="s">
         <v>222</v>
       </c>
       <c r="R93" s="37" t="s">
@@ -53300,46 +53209,46 @@
       <c r="AX93" s="37"/>
     </row>
     <row r="94" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B94" s="65" t="s">
+      <c r="B94" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="C94" s="65">
+      <c r="C94" s="64">
         <f>E114</f>
         <v>0.103242926</v>
       </c>
-      <c r="D94" s="65">
+      <c r="D94" s="64">
         <f>E118</f>
         <v>8.7651773500000002E-2</v>
       </c>
-      <c r="E94" s="65"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="65">
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="64">
         <f>I114</f>
-        <v>5.1002878209999998E-2</v>
-      </c>
-      <c r="H94" s="65">
+        <v>5.4780631519999998E-2</v>
+      </c>
+      <c r="H94" s="64">
         <f>I118</f>
-        <v>4.2630286615000006E-2</v>
-      </c>
-      <c r="I94" s="65"/>
-      <c r="J94" s="65"/>
-      <c r="K94" s="65">
+        <v>4.5720509880000003E-2</v>
+      </c>
+      <c r="I94" s="64"/>
+      <c r="J94" s="64"/>
+      <c r="K94" s="64">
         <f>N114</f>
-        <v>4.2908423740000007E-2</v>
-      </c>
-      <c r="L94" s="65">
+        <v>4.5958849879999999E-2</v>
+      </c>
+      <c r="L94" s="64">
         <f>N118</f>
-        <v>3.7321990735000005E-2</v>
-      </c>
-      <c r="M94" s="65"/>
-      <c r="N94" s="65"/>
-      <c r="O94" s="65">
+        <v>4.0003939320000001E-2</v>
+      </c>
+      <c r="M94" s="64"/>
+      <c r="N94" s="64"/>
+      <c r="O94" s="64">
         <f>R114</f>
-        <v>2.0946311775E-2</v>
-      </c>
-      <c r="P94" s="65">
+        <v>2.2612605799999998E-2</v>
+      </c>
+      <c r="P94" s="64">
         <f>R118</f>
-        <v>1.5803535170000001E-2</v>
+        <v>1.7034810039999997E-2</v>
       </c>
       <c r="R94" s="37" t="s">
         <v>1228</v>
@@ -53371,10 +53280,10 @@
       <c r="AB94" s="41">
         <v>5.1960063225000002E-3</v>
       </c>
-      <c r="AC94" s="60">
+      <c r="AC94" s="59">
         <v>2.8920026625E-3</v>
       </c>
-      <c r="AD94" s="60">
+      <c r="AD94" s="59">
         <v>2.185839045E-3</v>
       </c>
       <c r="AF94" s="6">
@@ -53411,37 +53320,37 @@
       <c r="AT94" s="37"/>
     </row>
     <row r="95" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B95" s="65" t="s">
+      <c r="B95" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="C95" s="65">
+      <c r="C95" s="64">
         <v>9.4971746999999995E-3</v>
       </c>
-      <c r="D95" s="65">
+      <c r="D95" s="64">
         <v>9.1480569999999994E-3</v>
       </c>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="65">
+      <c r="E95" s="64"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="64">
         <v>2.8187477000000002E-3</v>
       </c>
-      <c r="H95" s="65">
+      <c r="H95" s="64">
         <v>2.3962810000000001E-3</v>
       </c>
-      <c r="I95" s="65"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="65">
+      <c r="I95" s="64"/>
+      <c r="J95" s="64"/>
+      <c r="K95" s="64">
         <v>4.3729016000000004E-3</v>
       </c>
-      <c r="L95" s="65">
+      <c r="L95" s="64">
         <v>2.5943702E-3</v>
       </c>
-      <c r="M95" s="65"/>
-      <c r="N95" s="65"/>
-      <c r="O95" s="65">
+      <c r="M95" s="64"/>
+      <c r="N95" s="64"/>
+      <c r="O95" s="64">
         <v>8.6272303999999998E-4</v>
       </c>
-      <c r="P95" s="65">
+      <c r="P95" s="64">
         <v>6.4785845000000001E-4</v>
       </c>
       <c r="R95" s="37">
@@ -53474,10 +53383,10 @@
       <c r="AB95" s="41">
         <v>3.8915552999999997E-4</v>
       </c>
-      <c r="AC95" s="60">
+      <c r="AC95" s="59">
         <v>1.2940845599999999E-4</v>
       </c>
-      <c r="AD95" s="60">
+      <c r="AD95" s="59">
         <v>9.7178767499999993E-5</v>
       </c>
       <c r="AF95" s="6">
@@ -53517,37 +53426,37 @@
       <c r="AT95" s="37"/>
     </row>
     <row r="96" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B96" s="65" t="s">
+      <c r="B96" s="64" t="s">
         <v>344</v>
       </c>
-      <c r="C96" s="65">
+      <c r="C96" s="64">
         <v>5.1269298E-3</v>
       </c>
-      <c r="D96" s="65">
+      <c r="D96" s="64">
         <v>5.3875301999999998E-3</v>
       </c>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65">
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="64">
         <v>1.7575132999999999E-3</v>
       </c>
-      <c r="H96" s="65">
+      <c r="H96" s="64">
         <v>1.5374322000000001E-3</v>
       </c>
-      <c r="I96" s="65"/>
-      <c r="J96" s="65"/>
-      <c r="K96" s="65">
+      <c r="I96" s="64"/>
+      <c r="J96" s="64"/>
+      <c r="K96" s="64">
         <v>2.9552506000000002E-3</v>
       </c>
-      <c r="L96" s="65">
+      <c r="L96" s="64">
         <v>1.8094548999999999E-3</v>
       </c>
-      <c r="M96" s="65"/>
-      <c r="N96" s="65"/>
-      <c r="O96" s="65">
+      <c r="M96" s="64"/>
+      <c r="N96" s="64"/>
+      <c r="O96" s="64">
         <v>7.1556590999999998E-4</v>
       </c>
-      <c r="P96" s="65">
+      <c r="P96" s="64">
         <v>5.2077410999999999E-4</v>
       </c>
       <c r="R96" s="37" t="s">
@@ -53580,10 +53489,10 @@
       <c r="AB96" s="41">
         <v>2.7141823499999998E-4</v>
       </c>
-      <c r="AC96" s="60">
+      <c r="AC96" s="59">
         <v>1.0733488649999999E-4</v>
       </c>
-      <c r="AD96" s="60">
+      <c r="AD96" s="59">
         <v>7.8116116499999991E-5</v>
       </c>
       <c r="AF96" s="6">
@@ -53623,37 +53532,37 @@
       <c r="AT96" s="37"/>
     </row>
     <row r="97" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B97" s="65" t="s">
+      <c r="B97" s="64" t="s">
         <v>345</v>
       </c>
-      <c r="C97" s="65">
+      <c r="C97" s="64">
         <v>6.2805239000000004E-3</v>
       </c>
-      <c r="D97" s="65">
+      <c r="D97" s="64">
         <v>5.8872257000000001E-3</v>
       </c>
-      <c r="E97" s="65"/>
-      <c r="F97" s="65"/>
-      <c r="G97" s="65">
+      <c r="E97" s="64"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="64">
         <v>2.6398433999999999E-3</v>
       </c>
-      <c r="H97" s="65">
+      <c r="H97" s="64">
         <v>2.0338168000000002E-3</v>
       </c>
-      <c r="I97" s="65"/>
-      <c r="J97" s="65"/>
-      <c r="K97" s="65">
+      <c r="I97" s="64"/>
+      <c r="J97" s="64"/>
+      <c r="K97" s="64">
         <v>4.0336047999999999E-3</v>
       </c>
-      <c r="L97" s="65">
+      <c r="L97" s="64">
         <v>2.6553596000000001E-3</v>
       </c>
-      <c r="M97" s="65"/>
-      <c r="N97" s="65"/>
-      <c r="O97" s="65">
+      <c r="M97" s="64"/>
+      <c r="N97" s="64"/>
+      <c r="O97" s="64">
         <v>1.3094539E-3</v>
       </c>
-      <c r="P97" s="65">
+      <c r="P97" s="64">
         <v>8.5921136E-4</v>
       </c>
       <c r="R97" s="37" t="s">
@@ -53686,10 +53595,10 @@
       <c r="AB97" s="41">
         <v>3.9830394000000001E-4</v>
       </c>
-      <c r="AC97" s="60">
+      <c r="AC97" s="59">
         <v>1.96418085E-4</v>
       </c>
-      <c r="AD97" s="60">
+      <c r="AD97" s="59">
         <v>1.2888170399999999E-4</v>
       </c>
       <c r="AF97" s="6">
@@ -53729,37 +53638,37 @@
       <c r="AT97" s="37"/>
     </row>
     <row r="98" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B98" s="65" t="s">
+      <c r="B98" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="C98" s="65">
+      <c r="C98" s="64">
         <v>8.8556143E-3</v>
       </c>
-      <c r="D98" s="65">
+      <c r="D98" s="64">
         <v>6.8645399000000001E-3</v>
       </c>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65">
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="64">
         <v>3.9857E-3</v>
       </c>
-      <c r="H98" s="65">
+      <c r="H98" s="64">
         <v>2.8455848999999998E-3</v>
       </c>
-      <c r="I98" s="65"/>
-      <c r="J98" s="65"/>
-      <c r="K98" s="65">
+      <c r="I98" s="64"/>
+      <c r="J98" s="64"/>
+      <c r="K98" s="64">
         <v>6.2389378000000002E-3</v>
       </c>
-      <c r="L98" s="65">
+      <c r="L98" s="64">
         <v>4.9026162999999999E-3</v>
       </c>
-      <c r="M98" s="65"/>
-      <c r="N98" s="65"/>
-      <c r="O98" s="65">
+      <c r="M98" s="64"/>
+      <c r="N98" s="64"/>
+      <c r="O98" s="64">
         <v>2.0399495999999999E-3</v>
       </c>
-      <c r="P98" s="65">
+      <c r="P98" s="64">
         <v>1.4798375999999999E-3</v>
       </c>
       <c r="U98" s="41">
@@ -53786,10 +53695,10 @@
       <c r="AB98" s="41">
         <v>7.3539244499999993E-4</v>
       </c>
-      <c r="AC98" s="60">
+      <c r="AC98" s="59">
         <v>3.0599243999999997E-4</v>
       </c>
-      <c r="AD98" s="60">
+      <c r="AD98" s="59">
         <v>2.2197563999999998E-4</v>
       </c>
       <c r="AF98" s="6">
@@ -53829,37 +53738,37 @@
       <c r="AT98" s="37"/>
     </row>
     <row r="99" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B99" s="65" t="s">
+      <c r="B99" s="64" t="s">
         <v>347</v>
       </c>
-      <c r="C99" s="65">
+      <c r="C99" s="64">
         <v>9.6151164000000001E-3</v>
       </c>
-      <c r="D99" s="65">
+      <c r="D99" s="64">
         <v>8.0548313000000007E-3</v>
       </c>
-      <c r="E99" s="65"/>
-      <c r="F99" s="65"/>
-      <c r="G99" s="65">
+      <c r="E99" s="64"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="64">
         <v>4.6958737000000004E-3</v>
       </c>
-      <c r="H99" s="65">
+      <c r="H99" s="64">
         <v>3.7437826E-3</v>
       </c>
-      <c r="I99" s="65"/>
-      <c r="J99" s="65"/>
-      <c r="K99" s="65">
+      <c r="I99" s="64"/>
+      <c r="J99" s="64"/>
+      <c r="K99" s="64">
         <v>8.6371413999999994E-3</v>
       </c>
-      <c r="L99" s="65">
+      <c r="L99" s="64">
         <v>8.8966859999999991E-3</v>
       </c>
-      <c r="M99" s="65"/>
-      <c r="N99" s="65"/>
-      <c r="O99" s="65">
+      <c r="M99" s="64"/>
+      <c r="N99" s="64"/>
+      <c r="O99" s="64">
         <v>2.6755803E-3</v>
       </c>
-      <c r="P99" s="65">
+      <c r="P99" s="64">
         <v>2.2203368000000001E-3</v>
       </c>
       <c r="U99" s="41">
@@ -53886,10 +53795,10 @@
       <c r="AB99" s="41">
         <v>1.3345028999999999E-3</v>
       </c>
-      <c r="AC99" s="60">
+      <c r="AC99" s="59">
         <v>4.0133704499999997E-4</v>
       </c>
-      <c r="AD99" s="60">
+      <c r="AD99" s="59">
         <v>3.3305052000000003E-4</v>
       </c>
       <c r="AF99" s="6">
@@ -53929,37 +53838,37 @@
       <c r="AT99" s="37"/>
     </row>
     <row r="100" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B100" s="65" t="s">
+      <c r="B100" s="64" t="s">
         <v>348</v>
       </c>
-      <c r="C100" s="65">
+      <c r="C100" s="64">
         <v>1.0607349E-2</v>
       </c>
-      <c r="D100" s="65">
+      <c r="D100" s="64">
         <v>9.1846958999999995E-3</v>
       </c>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="65">
+      <c r="E100" s="64"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="64">
         <v>5.6646924E-3</v>
       </c>
-      <c r="H100" s="65">
+      <c r="H100" s="64">
         <v>4.5377007000000002E-3</v>
       </c>
-      <c r="I100" s="65"/>
-      <c r="J100" s="65"/>
-      <c r="K100" s="65">
+      <c r="I100" s="64"/>
+      <c r="J100" s="64"/>
+      <c r="K100" s="64">
         <v>1.1624832E-2</v>
       </c>
-      <c r="L100" s="65">
+      <c r="L100" s="64">
         <v>1.2320871000000001E-2</v>
       </c>
-      <c r="M100" s="65"/>
-      <c r="N100" s="65"/>
-      <c r="O100" s="65">
+      <c r="M100" s="64"/>
+      <c r="N100" s="64"/>
+      <c r="O100" s="64">
         <v>3.6027530999999998E-3</v>
       </c>
-      <c r="P100" s="65">
+      <c r="P100" s="64">
         <v>2.8750952999999999E-3</v>
       </c>
       <c r="U100" s="41">
@@ -53986,10 +53895,10 @@
       <c r="AB100" s="41">
         <v>1.8481306499999999E-3</v>
       </c>
-      <c r="AC100" s="60">
+      <c r="AC100" s="59">
         <v>5.4041296499999993E-4</v>
       </c>
-      <c r="AD100" s="60">
+      <c r="AD100" s="59">
         <v>4.3126429499999996E-4</v>
       </c>
       <c r="AF100" s="6">
@@ -54029,37 +53938,37 @@
       <c r="AT100" s="37"/>
     </row>
     <row r="101" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B101" s="65" t="s">
+      <c r="B101" s="64" t="s">
         <v>349</v>
       </c>
-      <c r="C101" s="65">
+      <c r="C101" s="64">
         <v>1.2175375E-2</v>
       </c>
-      <c r="D101" s="65">
+      <c r="D101" s="64">
         <v>1.0401812999999999E-2</v>
       </c>
-      <c r="E101" s="65"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="65">
+      <c r="E101" s="64"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="64">
         <v>7.1162444E-3</v>
       </c>
-      <c r="H101" s="65">
+      <c r="H101" s="64">
         <v>5.5269626000000001E-3</v>
       </c>
-      <c r="I101" s="65"/>
-      <c r="J101" s="65"/>
-      <c r="K101" s="65">
+      <c r="I101" s="64"/>
+      <c r="J101" s="64"/>
+      <c r="K101" s="64">
         <v>1.5964167000000001E-2</v>
       </c>
-      <c r="L101" s="65">
+      <c r="L101" s="64">
         <v>1.6142928000000001E-2</v>
       </c>
-      <c r="M101" s="65"/>
-      <c r="N101" s="65"/>
-      <c r="O101" s="65">
+      <c r="M101" s="64"/>
+      <c r="N101" s="64"/>
+      <c r="O101" s="64">
         <v>5.0245721999999998E-3</v>
       </c>
-      <c r="P101" s="65">
+      <c r="P101" s="64">
         <v>3.7959793999999998E-3</v>
       </c>
       <c r="U101" s="41">
@@ -54086,10 +53995,10 @@
       <c r="AB101" s="41">
         <v>2.4214392000000001E-3</v>
       </c>
-      <c r="AC101" s="60">
+      <c r="AC101" s="59">
         <v>7.5368582999999997E-4</v>
       </c>
-      <c r="AD101" s="60">
+      <c r="AD101" s="59">
         <v>5.6939690999999995E-4</v>
       </c>
       <c r="AF101" s="6">
@@ -54129,37 +54038,37 @@
       <c r="AT101" s="37"/>
     </row>
     <row r="102" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B102" s="65" t="s">
+      <c r="B102" s="64" t="s">
         <v>350</v>
       </c>
-      <c r="C102" s="65">
+      <c r="C102" s="64">
         <v>1.4291844999999999E-2</v>
       </c>
-      <c r="D102" s="65">
+      <c r="D102" s="64">
         <v>1.1626762000000001E-2</v>
       </c>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65">
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="64">
         <v>8.7997258999999994E-3</v>
       </c>
-      <c r="H102" s="65">
+      <c r="H102" s="64">
         <v>6.5853329E-3</v>
       </c>
-      <c r="I102" s="65"/>
-      <c r="J102" s="65"/>
-      <c r="K102" s="65">
+      <c r="I102" s="64"/>
+      <c r="J102" s="64"/>
+      <c r="K102" s="64">
         <v>1.9293680000000001E-2</v>
       </c>
-      <c r="L102" s="65">
+      <c r="L102" s="64">
         <v>1.6677626000000001E-2</v>
       </c>
-      <c r="M102" s="65"/>
-      <c r="N102" s="65"/>
-      <c r="O102" s="65">
+      <c r="M102" s="64"/>
+      <c r="N102" s="64"/>
+      <c r="O102" s="64">
         <v>6.5006415000000003E-3</v>
       </c>
-      <c r="P102" s="65">
+      <c r="P102" s="64">
         <v>4.8081104999999997E-3</v>
       </c>
       <c r="U102" s="41">
@@ -54186,10 +54095,10 @@
       <c r="AB102" s="41">
         <v>2.5016438999999999E-3</v>
       </c>
-      <c r="AC102" s="60">
+      <c r="AC102" s="59">
         <v>9.7509622500000003E-4</v>
       </c>
-      <c r="AD102" s="60">
+      <c r="AD102" s="59">
         <v>7.2121657499999998E-4</v>
       </c>
       <c r="AF102" s="6">
@@ -54229,37 +54138,37 @@
       <c r="AT102" s="37"/>
     </row>
     <row r="103" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B103" s="65" t="s">
+      <c r="B103" s="64" t="s">
         <v>351</v>
       </c>
-      <c r="C103" s="65">
+      <c r="C103" s="64">
         <v>1.6435460999999998E-2</v>
       </c>
-      <c r="D103" s="65">
+      <c r="D103" s="64">
         <v>1.2549101999999999E-2</v>
       </c>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65">
+      <c r="E103" s="64"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="64">
         <v>1.0865725E-2</v>
       </c>
-      <c r="H103" s="65">
+      <c r="H103" s="64">
         <v>7.5736190000000002E-3</v>
       </c>
-      <c r="I103" s="65"/>
-      <c r="J103" s="65"/>
-      <c r="K103" s="65">
+      <c r="I103" s="64"/>
+      <c r="J103" s="64"/>
+      <c r="K103" s="64">
         <v>2.2586253000000001E-2</v>
       </c>
-      <c r="L103" s="65">
+      <c r="L103" s="64">
         <v>1.7601650999999999E-2</v>
       </c>
-      <c r="M103" s="65"/>
-      <c r="N103" s="65"/>
-      <c r="O103" s="65">
+      <c r="M103" s="64"/>
+      <c r="N103" s="64"/>
+      <c r="O103" s="64">
         <v>8.5831359999999999E-3</v>
       </c>
-      <c r="P103" s="65">
+      <c r="P103" s="64">
         <v>5.9388258000000003E-3</v>
       </c>
       <c r="U103" s="41">
@@ -54286,10 +54195,10 @@
       <c r="AB103" s="41">
         <v>2.6402476499999997E-3</v>
       </c>
-      <c r="AC103" s="60">
+      <c r="AC103" s="59">
         <v>1.2874703999999999E-3</v>
       </c>
-      <c r="AD103" s="60">
+      <c r="AD103" s="59">
         <v>8.9082387E-4</v>
       </c>
       <c r="AF103" s="6">
@@ -54329,37 +54238,37 @@
       <c r="AT103" s="37"/>
     </row>
     <row r="104" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B104" s="65" t="s">
+      <c r="B104" s="64" t="s">
         <v>352</v>
       </c>
-      <c r="C104" s="65">
+      <c r="C104" s="64">
         <v>2.0325749000000001E-2</v>
       </c>
-      <c r="D104" s="65">
+      <c r="D104" s="64">
         <v>1.5731574000000002E-2</v>
       </c>
-      <c r="E104" s="65"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="65">
+      <c r="E104" s="64"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="64">
         <v>1.4523025E-2</v>
       </c>
-      <c r="H104" s="65">
+      <c r="H104" s="64">
         <v>9.9609430999999995E-3</v>
       </c>
-      <c r="I104" s="65"/>
-      <c r="J104" s="65"/>
-      <c r="K104" s="65">
+      <c r="I104" s="64"/>
+      <c r="J104" s="64"/>
+      <c r="K104" s="64">
         <v>2.6900196000000001E-2</v>
       </c>
-      <c r="L104" s="65">
+      <c r="L104" s="64">
         <v>1.9200292000000001E-2</v>
       </c>
-      <c r="M104" s="65"/>
-      <c r="N104" s="65"/>
-      <c r="O104" s="65">
+      <c r="M104" s="64"/>
+      <c r="N104" s="64"/>
+      <c r="O104" s="64">
         <v>1.2106344999999999E-2</v>
       </c>
-      <c r="P104" s="65">
+      <c r="P104" s="64">
         <v>7.9175652000000006E-3</v>
       </c>
       <c r="U104" s="41">
@@ -54386,10 +54295,10 @@
       <c r="AB104" s="41">
         <v>2.8800437999999999E-3</v>
       </c>
-      <c r="AC104" s="60">
+      <c r="AC104" s="59">
         <v>1.8159517499999997E-3</v>
       </c>
-      <c r="AD104" s="60">
+      <c r="AD104" s="59">
         <v>1.18763478E-3</v>
       </c>
       <c r="AF104" s="6">
@@ -54429,37 +54338,37 @@
       <c r="AT104" s="37"/>
     </row>
     <row r="105" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B105" s="65" t="s">
+      <c r="B105" s="64" t="s">
         <v>353</v>
       </c>
-      <c r="C105" s="65">
+      <c r="C105" s="64">
         <v>2.5028631999999999E-2</v>
       </c>
-      <c r="D105" s="65">
+      <c r="D105" s="64">
         <v>2.0328145999999998E-2</v>
       </c>
-      <c r="E105" s="65"/>
-      <c r="F105" s="65"/>
-      <c r="G105" s="65">
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="64">
         <v>1.8907543999999998E-2</v>
       </c>
-      <c r="H105" s="65">
+      <c r="H105" s="64">
         <v>1.3199353E-2</v>
       </c>
-      <c r="I105" s="65"/>
-      <c r="J105" s="65"/>
-      <c r="K105" s="65">
+      <c r="I105" s="64"/>
+      <c r="J105" s="64"/>
+      <c r="K105" s="64">
         <v>3.2764234000000003E-2</v>
       </c>
-      <c r="L105" s="65">
+      <c r="L105" s="64">
         <v>2.2089925999999999E-2</v>
       </c>
-      <c r="M105" s="65"/>
-      <c r="N105" s="65"/>
-      <c r="O105" s="65">
+      <c r="M105" s="64"/>
+      <c r="N105" s="64"/>
+      <c r="O105" s="64">
         <v>1.6280447E-2</v>
       </c>
-      <c r="P105" s="65">
+      <c r="P105" s="64">
         <v>1.0287619E-2</v>
       </c>
       <c r="U105" s="41">
@@ -54486,10 +54395,10 @@
       <c r="AB105" s="41">
         <v>3.3134888999999997E-3</v>
       </c>
-      <c r="AC105" s="60">
+      <c r="AC105" s="59">
         <v>2.4420670499999998E-3</v>
       </c>
-      <c r="AD105" s="60">
+      <c r="AD105" s="59">
         <v>1.5431428499999998E-3</v>
       </c>
       <c r="AF105" s="6">
@@ -54529,37 +54438,37 @@
       <c r="AT105" s="37"/>
     </row>
     <row r="106" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B106" s="65" t="s">
+      <c r="B106" s="64" t="s">
         <v>354</v>
       </c>
-      <c r="C106" s="65">
+      <c r="C106" s="64">
         <v>3.4517134999999997E-2</v>
       </c>
-      <c r="D106" s="65">
+      <c r="D106" s="64">
         <v>2.9738164000000001E-2</v>
       </c>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="65">
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="64">
         <v>2.7645844999999999E-2</v>
       </c>
-      <c r="H106" s="65">
+      <c r="H106" s="64">
         <v>2.0014533000000001E-2</v>
       </c>
-      <c r="I106" s="65"/>
-      <c r="J106" s="65"/>
-      <c r="K106" s="65">
+      <c r="I106" s="64"/>
+      <c r="J106" s="64"/>
+      <c r="K106" s="64">
         <v>4.3664857000000001E-2</v>
       </c>
-      <c r="L106" s="65">
+      <c r="L106" s="64">
         <v>2.8411806000000001E-2</v>
       </c>
-      <c r="M106" s="65"/>
-      <c r="N106" s="65"/>
-      <c r="O106" s="65">
+      <c r="M106" s="64"/>
+      <c r="N106" s="64"/>
+      <c r="O106" s="64">
         <v>2.4070646000000001E-2</v>
       </c>
-      <c r="P106" s="65">
+      <c r="P106" s="64">
         <v>1.5019296999999999E-2</v>
       </c>
       <c r="U106" s="41">
@@ -54586,10 +54495,10 @@
       <c r="AB106" s="41">
         <v>4.2617708999999997E-3</v>
       </c>
-      <c r="AC106" s="60">
+      <c r="AC106" s="59">
         <v>3.6105969000000001E-3</v>
       </c>
-      <c r="AD106" s="60">
+      <c r="AD106" s="59">
         <v>2.2528945499999996E-3</v>
       </c>
       <c r="AF106" s="6">
@@ -54629,37 +54538,37 @@
       <c r="AT106" s="37"/>
     </row>
     <row r="107" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B107" s="65" t="s">
+      <c r="B107" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="C107" s="65">
+      <c r="C107" s="64">
         <v>4.9521377999999998E-2</v>
       </c>
-      <c r="D107" s="65">
+      <c r="D107" s="64">
         <v>4.4950836000000001E-2</v>
       </c>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="65">
+      <c r="E107" s="64"/>
+      <c r="F107" s="64"/>
+      <c r="G107" s="64">
         <v>4.1897086E-2</v>
       </c>
-      <c r="H107" s="65">
+      <c r="H107" s="64">
         <v>3.2225779000000003E-2</v>
       </c>
-      <c r="I107" s="65"/>
-      <c r="J107" s="65"/>
-      <c r="K107" s="65">
+      <c r="I107" s="64"/>
+      <c r="J107" s="64"/>
+      <c r="K107" s="64">
         <v>6.1229464999999997E-2</v>
       </c>
-      <c r="L107" s="65">
+      <c r="L107" s="64">
         <v>4.0120202000000001E-2</v>
       </c>
-      <c r="M107" s="65"/>
-      <c r="N107" s="65"/>
-      <c r="O107" s="65">
+      <c r="M107" s="64"/>
+      <c r="N107" s="64"/>
+      <c r="O107" s="64">
         <v>3.6466032000000002E-2</v>
       </c>
-      <c r="P107" s="65">
+      <c r="P107" s="64">
         <v>2.3855056999999999E-2</v>
       </c>
       <c r="U107" s="41">
@@ -54686,10 +54595,10 @@
       <c r="AB107" s="41">
         <v>6.0180303000000003E-3</v>
       </c>
-      <c r="AC107" s="60">
+      <c r="AC107" s="59">
         <v>5.4699048000000005E-3</v>
       </c>
-      <c r="AD107" s="60">
+      <c r="AD107" s="59">
         <v>3.5782585499999995E-3</v>
       </c>
       <c r="AF107" s="6">
@@ -54729,37 +54638,37 @@
       <c r="AT107" s="37"/>
     </row>
     <row r="108" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B108" s="65" t="s">
+      <c r="B108" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="C108" s="65">
+      <c r="C108" s="64">
         <v>7.5421848E-2</v>
       </c>
-      <c r="D108" s="65">
+      <c r="D108" s="64">
         <v>7.0557852000000004E-2</v>
       </c>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="G108" s="65">
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="64">
         <v>6.6436233999999997E-2</v>
       </c>
-      <c r="H108" s="65">
+      <c r="H108" s="64">
         <v>5.4043418000000003E-2</v>
       </c>
-      <c r="I108" s="65"/>
-      <c r="J108" s="65"/>
-      <c r="K108" s="65">
+      <c r="I108" s="64"/>
+      <c r="J108" s="64"/>
+      <c r="K108" s="64">
         <v>9.1149208999999995E-2</v>
       </c>
-      <c r="L108" s="65">
+      <c r="L108" s="64">
         <v>6.1236934999999999E-2</v>
       </c>
-      <c r="M108" s="65"/>
-      <c r="N108" s="65"/>
-      <c r="O108" s="65">
+      <c r="M108" s="64"/>
+      <c r="N108" s="64"/>
+      <c r="O108" s="64">
         <v>5.6283541999999999E-2</v>
       </c>
-      <c r="P108" s="65">
+      <c r="P108" s="64">
         <v>3.9298120999999998E-2</v>
       </c>
       <c r="U108" s="41">
@@ -54786,10 +54695,10 @@
       <c r="AB108" s="41">
         <v>9.1855402499999989E-3</v>
       </c>
-      <c r="AC108" s="60">
+      <c r="AC108" s="59">
         <v>8.4425313000000002E-3</v>
       </c>
-      <c r="AD108" s="60">
+      <c r="AD108" s="59">
         <v>5.8947181499999996E-3</v>
       </c>
       <c r="AF108" s="6">
@@ -54829,37 +54738,37 @@
       <c r="AT108" s="37"/>
     </row>
     <row r="109" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B109" s="65" t="s">
+      <c r="B109" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="C109" s="65">
+      <c r="C109" s="64">
         <v>0.11632903</v>
       </c>
-      <c r="D109" s="65">
+      <c r="D109" s="64">
         <v>0.10963367</v>
       </c>
-      <c r="E109" s="65"/>
-      <c r="F109" s="65"/>
-      <c r="G109" s="65">
+      <c r="E109" s="64"/>
+      <c r="F109" s="64"/>
+      <c r="G109" s="64">
         <v>0.10754548999999999</v>
       </c>
-      <c r="H109" s="65">
+      <c r="H109" s="64">
         <v>9.0690460000000001E-2</v>
       </c>
-      <c r="I109" s="65"/>
-      <c r="J109" s="65"/>
-      <c r="K109" s="65">
+      <c r="I109" s="64"/>
+      <c r="J109" s="64"/>
+      <c r="K109" s="64">
         <v>0.13845341999999999</v>
       </c>
-      <c r="L109" s="65">
+      <c r="L109" s="64">
         <v>9.5988402E-2</v>
       </c>
-      <c r="M109" s="65"/>
-      <c r="N109" s="65"/>
-      <c r="O109" s="65">
+      <c r="M109" s="64"/>
+      <c r="N109" s="64"/>
+      <c r="O109" s="64">
         <v>8.9232522999999994E-2</v>
       </c>
-      <c r="P109" s="65">
+      <c r="P109" s="64">
         <v>6.5775560999999996E-2</v>
       </c>
       <c r="U109" s="41">
@@ -54886,10 +54795,10 @@
       <c r="AB109" s="41">
         <v>1.43982603E-2</v>
       </c>
-      <c r="AC109" s="60">
+      <c r="AC109" s="59">
         <v>1.3384878449999998E-2</v>
       </c>
-      <c r="AD109" s="60">
+      <c r="AD109" s="59">
         <v>9.8663341499999994E-3</v>
       </c>
       <c r="AF109" s="6">
@@ -55005,7 +54914,7 @@
       </c>
       <c r="I114">
         <f>(H114*M114)+(H115*M115)</f>
-        <v>5.1002878209999998E-2</v>
+        <v>5.4780631519999998E-2</v>
       </c>
       <c r="K114" s="37" t="s">
         <v>1078</v>
@@ -55014,11 +54923,11 @@
         <v>7.0362258999999996E-2</v>
       </c>
       <c r="M114" s="37">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="N114">
         <f>(L114*M114)+(L115*M115)</f>
-        <v>4.2908423740000007E-2</v>
+        <v>4.5958849879999999E-2</v>
       </c>
       <c r="P114" s="37" t="s">
         <v>1078</v>
@@ -55028,7 +54937,7 @@
       </c>
       <c r="R114">
         <f>(Q114*M114)+(Q115*M115)</f>
-        <v>2.0946311775E-2</v>
+        <v>2.2612605799999998E-2</v>
       </c>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.25">
@@ -55056,7 +54965,7 @@
       </c>
       <c r="M115" s="37">
         <f>1-M114</f>
-        <v>0.44999999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="P115" s="37" t="s">
         <v>1079</v>
@@ -55124,7 +55033,7 @@
       </c>
       <c r="I118">
         <f>(H118*M118)+(H119*M119)</f>
-        <v>4.2630286615000006E-2</v>
+        <v>4.5720509880000003E-2</v>
       </c>
       <c r="K118" s="37" t="s">
         <v>1078</v>
@@ -55133,11 +55042,11 @@
         <v>6.1459527999999999E-2</v>
       </c>
       <c r="M118" s="37">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="N118">
         <f>(L118*M118)+(L119*M119)</f>
-        <v>3.7321990735000005E-2</v>
+        <v>4.0003939320000001E-2</v>
       </c>
       <c r="P118" s="37" t="s">
         <v>1078</v>
@@ -55147,7 +55056,7 @@
       </c>
       <c r="R118">
         <f>(Q118*M118)+(Q119*M119)</f>
-        <v>1.5803535170000001E-2</v>
+        <v>1.7034810039999997E-2</v>
       </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.25">
@@ -55175,7 +55084,7 @@
       </c>
       <c r="M119" s="37">
         <f>1-M118</f>
-        <v>0.44999999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="P119" s="37" t="s">
         <v>1079</v>
@@ -57870,46 +57779,46 @@
       <c r="B222" t="s">
         <v>1184</v>
       </c>
-      <c r="C222" s="67" t="s">
+      <c r="C222" s="66" t="s">
         <v>1188</v>
       </c>
-      <c r="D222" s="67" t="s">
+      <c r="D222" s="66" t="s">
         <v>1182</v>
       </c>
-      <c r="E222" s="67" t="s">
+      <c r="E222" s="66" t="s">
         <v>1185</v>
       </c>
-      <c r="F222" s="67" t="s">
+      <c r="F222" s="66" t="s">
         <v>577</v>
       </c>
-      <c r="G222" s="68" t="s">
+      <c r="G222" s="67" t="s">
         <v>1188</v>
       </c>
-      <c r="H222" s="68" t="s">
+      <c r="H222" s="67" t="s">
         <v>1183</v>
       </c>
-      <c r="I222" s="68" t="s">
+      <c r="I222" s="67" t="s">
         <v>576</v>
       </c>
-      <c r="J222" s="68" t="s">
+      <c r="J222" s="67" t="s">
         <v>577</v>
       </c>
-      <c r="K222" s="69" t="s">
+      <c r="K222" s="68" t="s">
         <v>646</v>
       </c>
-      <c r="L222" s="69" t="s">
+      <c r="L222" s="68" t="s">
         <v>576</v>
       </c>
-      <c r="M222" s="69" t="s">
+      <c r="M222" s="68" t="s">
         <v>577</v>
       </c>
-      <c r="N222" s="70" t="s">
+      <c r="N222" s="69" t="s">
         <v>1212</v>
       </c>
-      <c r="O222" s="70" t="s">
+      <c r="O222" s="69" t="s">
         <v>1186</v>
       </c>
-      <c r="P222" s="70" t="s">
+      <c r="P222" s="69" t="s">
         <v>1204</v>
       </c>
     </row>
@@ -57920,46 +57829,46 @@
       <c r="B223" t="s">
         <v>1187</v>
       </c>
-      <c r="C223" s="67" t="s">
+      <c r="C223" s="66" t="s">
         <v>1189</v>
       </c>
-      <c r="D223" s="67">
+      <c r="D223" s="66">
         <v>22.2</v>
       </c>
-      <c r="E223" s="67">
+      <c r="E223" s="66">
         <v>16.100000000000001</v>
       </c>
-      <c r="F223" s="67">
+      <c r="F223" s="66">
         <v>29.8</v>
       </c>
-      <c r="G223" s="68" t="s">
+      <c r="G223" s="67" t="s">
         <v>1190</v>
       </c>
-      <c r="H223" s="68">
+      <c r="H223" s="67">
         <v>76.900000000000006</v>
       </c>
-      <c r="I223" s="68">
+      <c r="I223" s="67">
         <v>46</v>
       </c>
-      <c r="J223" s="68">
+      <c r="J223" s="67">
         <v>93.8</v>
       </c>
-      <c r="K223" s="69">
+      <c r="K223" s="68">
         <v>26.5</v>
       </c>
-      <c r="L223" s="69">
+      <c r="L223" s="68">
         <v>19.7</v>
       </c>
-      <c r="M223" s="69">
+      <c r="M223" s="68">
         <v>33.299999999999997</v>
       </c>
-      <c r="N223" s="70">
+      <c r="N223" s="69">
         <v>7.8</v>
       </c>
-      <c r="O223" s="70" t="s">
+      <c r="O223" s="69" t="s">
         <v>1210</v>
       </c>
-      <c r="P223" s="70" t="s">
+      <c r="P223" s="69" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -57970,47 +57879,47 @@
       <c r="B224" t="s">
         <v>1191</v>
       </c>
-      <c r="C224" s="67" t="s">
+      <c r="C224" s="66" t="s">
         <v>1193</v>
       </c>
-      <c r="D224" s="67">
+      <c r="D224" s="66">
         <v>15.8</v>
       </c>
-      <c r="E224" s="67">
+      <c r="E224" s="66">
         <v>13.8</v>
       </c>
-      <c r="F224" s="67">
+      <c r="F224" s="66">
         <v>17.7</v>
       </c>
-      <c r="G224" s="68" t="s">
+      <c r="G224" s="67" t="s">
         <v>1194</v>
       </c>
-      <c r="H224" s="68">
+      <c r="H224" s="67">
         <v>25.7</v>
       </c>
-      <c r="I224" s="68">
+      <c r="I224" s="67">
         <v>18.5</v>
       </c>
-      <c r="J224" s="68">
+      <c r="J224" s="67">
         <v>33</v>
       </c>
-      <c r="K224" s="69">
+      <c r="K224" s="68">
         <v>16.2</v>
       </c>
-      <c r="L224" s="69">
+      <c r="L224" s="68">
         <v>14.5</v>
       </c>
-      <c r="M224" s="69">
+      <c r="M224" s="68">
         <v>17.899999999999999</v>
       </c>
-      <c r="N224" s="71">
+      <c r="N224" s="70">
         <f>140/(1813)*100</f>
         <v>7.7220077220077217</v>
       </c>
-      <c r="O224" s="70" t="s">
+      <c r="O224" s="69" t="s">
         <v>1205</v>
       </c>
-      <c r="P224" s="70">
+      <c r="P224" s="69">
         <v>2009</v>
       </c>
       <c r="Q224" t="s">
@@ -58024,46 +57933,46 @@
       <c r="B225" t="s">
         <v>1195</v>
       </c>
-      <c r="C225" s="67" t="s">
+      <c r="C225" s="66" t="s">
         <v>1196</v>
       </c>
-      <c r="D225" s="67">
+      <c r="D225" s="66">
         <v>38.700000000000003</v>
       </c>
-      <c r="E225" s="67">
+      <c r="E225" s="66">
         <v>35.6</v>
       </c>
-      <c r="F225" s="67">
+      <c r="F225" s="66">
         <v>41.8</v>
       </c>
-      <c r="G225" s="68" t="s">
+      <c r="G225" s="67" t="s">
         <v>1197</v>
       </c>
-      <c r="H225" s="68">
+      <c r="H225" s="67">
         <v>74.099999999999994</v>
       </c>
-      <c r="I225" s="68">
+      <c r="I225" s="67">
         <v>69.599999999999994</v>
       </c>
-      <c r="J225" s="68">
+      <c r="J225" s="67">
         <v>78.2</v>
       </c>
-      <c r="K225" s="69">
+      <c r="K225" s="68">
         <v>49.3</v>
       </c>
-      <c r="L225" s="69" t="s">
+      <c r="L225" s="68" t="s">
         <v>531</v>
       </c>
-      <c r="M225" s="69" t="s">
+      <c r="M225" s="68" t="s">
         <v>531</v>
       </c>
-      <c r="N225" s="70">
+      <c r="N225" s="69">
         <v>30</v>
       </c>
-      <c r="O225" s="70" t="s">
+      <c r="O225" s="69" t="s">
         <v>1213</v>
       </c>
-      <c r="P225" s="70">
+      <c r="P225" s="69">
         <v>2006</v>
       </c>
     </row>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -51593,7 +51593,7 @@
   <dimension ref="A1:AX127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="N114" sqref="N114"/>
+      <selection activeCell="M119" sqref="M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53224,31 +53224,31 @@
       <c r="F94" s="64"/>
       <c r="G94" s="64">
         <f>I114</f>
-        <v>5.4780631519999998E-2</v>
+        <v>6.233613813999999E-2</v>
       </c>
       <c r="H94" s="64">
         <f>I118</f>
-        <v>4.5720509880000003E-2</v>
+        <v>5.1900956410000004E-2</v>
       </c>
       <c r="I94" s="64"/>
       <c r="J94" s="64"/>
       <c r="K94" s="64">
         <f>N114</f>
-        <v>4.5958849879999999E-2</v>
+        <v>5.2059702159999999E-2</v>
       </c>
       <c r="L94" s="64">
         <f>N118</f>
-        <v>4.0003939320000001E-2</v>
+        <v>4.5367836490000001E-2</v>
       </c>
       <c r="M94" s="64"/>
       <c r="N94" s="64"/>
       <c r="O94" s="64">
         <f>R114</f>
-        <v>2.2612605799999998E-2</v>
+        <v>2.5945193849999996E-2</v>
       </c>
       <c r="P94" s="64">
         <f>R118</f>
-        <v>1.7034810039999997E-2</v>
+        <v>1.9497359780000001E-2</v>
       </c>
       <c r="R94" s="37" t="s">
         <v>1228</v>
@@ -54914,7 +54914,7 @@
       </c>
       <c r="I114">
         <f>(H114*M114)+(H115*M115)</f>
-        <v>5.4780631519999998E-2</v>
+        <v>6.233613813999999E-2</v>
       </c>
       <c r="K114" s="37" t="s">
         <v>1078</v>
@@ -54923,11 +54923,11 @@
         <v>7.0362258999999996E-2</v>
       </c>
       <c r="M114" s="37">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="N114">
         <f>(L114*M114)+(L115*M115)</f>
-        <v>4.5958849879999999E-2</v>
+        <v>5.2059702159999999E-2</v>
       </c>
       <c r="P114" s="37" t="s">
         <v>1078</v>
@@ -54937,7 +54937,7 @@
       </c>
       <c r="R114">
         <f>(Q114*M114)+(Q115*M115)</f>
-        <v>2.2612605799999998E-2</v>
+        <v>2.5945193849999996E-2</v>
       </c>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.25">
@@ -54965,7 +54965,7 @@
       </c>
       <c r="M115" s="37">
         <f>1-M114</f>
-        <v>0.4</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="P115" s="37" t="s">
         <v>1079</v>
@@ -55033,7 +55033,7 @@
       </c>
       <c r="I118">
         <f>(H118*M118)+(H119*M119)</f>
-        <v>4.5720509880000003E-2</v>
+        <v>5.1900956410000004E-2</v>
       </c>
       <c r="K118" s="37" t="s">
         <v>1078</v>
@@ -55042,11 +55042,11 @@
         <v>6.1459527999999999E-2</v>
       </c>
       <c r="M118" s="37">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="N118">
         <f>(L118*M118)+(L119*M119)</f>
-        <v>4.0003939320000001E-2</v>
+        <v>4.5367836490000001E-2</v>
       </c>
       <c r="P118" s="37" t="s">
         <v>1078</v>
@@ -55056,7 +55056,7 @@
       </c>
       <c r="R118">
         <f>(Q118*M118)+(Q119*M119)</f>
-        <v>1.7034810039999997E-2</v>
+        <v>1.9497359780000001E-2</v>
       </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.25">
@@ -55084,7 +55084,7 @@
       </c>
       <c r="M119" s="37">
         <f>1-M118</f>
-        <v>0.4</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="P119" s="37" t="s">
         <v>1079</v>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -7822,30 +7822,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.4338253260737155E-2"/>
-                  <c:y val="0.1003282045650573"/>
+                  <c:x val="-1.477046789770513E-2"/>
+                  <c:y val="0.10925842180033735"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -7861,7 +7845,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -7887,9 +7871,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Fertility!$K$93:$N$93</c:f>
+              <c:f>Fertility!$K$93:$P$93</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1990-1995</c:v>
                 </c:pt>
@@ -7901,6 +7885,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2005-2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010-2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015-2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7914,10 +7904,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Fertility!$K$101:$N$101</c:f>
+              <c:f>Fertility!$K$101:$P$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>5.65</c:v>
                 </c:pt>
@@ -7929,6 +7919,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41998,7 +41994,7 @@
   <dimension ref="A1:Y256"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="R75" sqref="R75"/>
+      <selection activeCell="R77" sqref="R77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47584,7 +47580,7 @@
   <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView topLeftCell="Q92" workbookViewId="0">
-      <selection activeCell="AE111" sqref="AE111"/>
+      <selection activeCell="AE113" sqref="AE113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51124,6 +51120,10 @@
       <c r="I112" s="20">
         <f t="shared" si="22"/>
         <v>4.8938419999999996E-2</v>
+      </c>
+      <c r="AE112">
+        <f>1-0.4249</f>
+        <v>0.57509999999999994</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
@@ -53224,31 +53224,31 @@
       <c r="F94" s="64"/>
       <c r="G94" s="64">
         <f>I114</f>
-        <v>6.233613813999999E-2</v>
+        <v>6.9891644759999996E-2</v>
       </c>
       <c r="H94" s="64">
         <f>I118</f>
-        <v>5.1900956410000004E-2</v>
+        <v>5.8081402939999999E-2</v>
       </c>
       <c r="I94" s="64"/>
       <c r="J94" s="64"/>
       <c r="K94" s="64">
         <f>N114</f>
-        <v>5.2059702159999999E-2</v>
+        <v>5.8160554439999998E-2</v>
       </c>
       <c r="L94" s="64">
         <f>N118</f>
-        <v>4.5367836490000001E-2</v>
+        <v>5.073173366E-2</v>
       </c>
       <c r="M94" s="64"/>
       <c r="N94" s="64"/>
       <c r="O94" s="64">
         <f>R114</f>
-        <v>2.5945193849999996E-2</v>
+        <v>2.9277781899999997E-2</v>
       </c>
       <c r="P94" s="64">
         <f>R118</f>
-        <v>1.9497359780000001E-2</v>
+        <v>2.1959909520000001E-2</v>
       </c>
       <c r="R94" s="37" t="s">
         <v>1228</v>
@@ -54914,7 +54914,7 @@
       </c>
       <c r="I114">
         <f>(H114*M114)+(H115*M115)</f>
-        <v>6.233613813999999E-2</v>
+        <v>6.9891644759999996E-2</v>
       </c>
       <c r="K114" s="37" t="s">
         <v>1078</v>
@@ -54923,11 +54923,11 @@
         <v>7.0362258999999996E-2</v>
       </c>
       <c r="M114" s="37">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N114">
         <f>(L114*M114)+(L115*M115)</f>
-        <v>5.2059702159999999E-2</v>
+        <v>5.8160554439999998E-2</v>
       </c>
       <c r="P114" s="37" t="s">
         <v>1078</v>
@@ -54937,7 +54937,7 @@
       </c>
       <c r="R114">
         <f>(Q114*M114)+(Q115*M115)</f>
-        <v>2.5945193849999996E-2</v>
+        <v>2.9277781899999997E-2</v>
       </c>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.25">
@@ -54965,7 +54965,7 @@
       </c>
       <c r="M115" s="37">
         <f>1-M114</f>
-        <v>0.30000000000000004</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="P115" s="37" t="s">
         <v>1079</v>
@@ -55033,7 +55033,7 @@
       </c>
       <c r="I118">
         <f>(H118*M118)+(H119*M119)</f>
-        <v>5.1900956410000004E-2</v>
+        <v>5.8081402939999999E-2</v>
       </c>
       <c r="K118" s="37" t="s">
         <v>1078</v>
@@ -55042,11 +55042,11 @@
         <v>6.1459527999999999E-2</v>
       </c>
       <c r="M118" s="37">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N118">
         <f>(L118*M118)+(L119*M119)</f>
-        <v>4.5367836490000001E-2</v>
+        <v>5.073173366E-2</v>
       </c>
       <c r="P118" s="37" t="s">
         <v>1078</v>
@@ -55056,7 +55056,7 @@
       </c>
       <c r="R118">
         <f>(Q118*M118)+(Q119*M119)</f>
-        <v>1.9497359780000001E-2</v>
+        <v>2.1959909520000001E-2</v>
       </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.25">
@@ -55084,7 +55084,7 @@
       </c>
       <c r="M119" s="37">
         <f>1-M118</f>
-        <v>0.30000000000000004</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="P119" s="37" t="s">
         <v>1079</v>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -51592,8 +51592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="M119" sqref="M119"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53223,31 +53223,31 @@
       <c r="E94" s="64"/>
       <c r="F94" s="64"/>
       <c r="G94" s="64">
-        <f>I114</f>
-        <v>6.9891644759999996E-2</v>
+        <f>J114</f>
+        <v>7.5936050056000001E-2</v>
       </c>
       <c r="H94" s="64">
-        <f>I118</f>
-        <v>5.8081402939999999E-2</v>
+        <f>J118</f>
+        <v>6.3025760164000008E-2</v>
       </c>
       <c r="I94" s="64"/>
       <c r="J94" s="64"/>
       <c r="K94" s="64">
-        <f>N114</f>
+        <f>O114</f>
         <v>5.8160554439999998E-2</v>
       </c>
       <c r="L94" s="64">
-        <f>N118</f>
+        <f>O118</f>
         <v>5.073173366E-2</v>
       </c>
       <c r="M94" s="64"/>
       <c r="N94" s="64"/>
       <c r="O94" s="64">
-        <f>R114</f>
+        <f>S114</f>
         <v>2.9277781899999997E-2</v>
       </c>
       <c r="P94" s="64">
-        <f>R118</f>
+        <f>S118</f>
         <v>2.1959909520000001E-2</v>
       </c>
       <c r="R94" s="37" t="s">
@@ -54837,6 +54837,9 @@
       <c r="AS109" s="37"/>
       <c r="AT109" s="37"/>
     </row>
+    <row r="111" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="J111" s="37"/>
+    </row>
     <row r="112" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>1043</v>
@@ -54844,14 +54847,15 @@
       <c r="G112" t="s">
         <v>1050</v>
       </c>
-      <c r="K112" s="37" t="s">
+      <c r="J112" s="37"/>
+      <c r="L112" s="37" t="s">
         <v>1053</v>
       </c>
-      <c r="P112" t="s">
+      <c r="Q112" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>217</v>
       </c>
@@ -54870,29 +54874,29 @@
       <c r="H113" s="37" t="s">
         <v>1080</v>
       </c>
-      <c r="I113" s="37" t="s">
+      <c r="J113" s="37" t="s">
         <v>1082</v>
       </c>
-      <c r="K113" s="37" t="s">
+      <c r="L113" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="L113" t="s">
+      <c r="M113" t="s">
         <v>1080</v>
       </c>
-      <c r="M113" s="37" t="s">
+      <c r="N113" s="37" t="s">
         <v>1083</v>
       </c>
-      <c r="N113" t="s">
+      <c r="O113" t="s">
         <v>1125</v>
       </c>
-      <c r="P113" s="37" t="s">
+      <c r="Q113" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="R113" t="s">
+      <c r="S113" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>1078</v>
       </c>
@@ -54913,34 +54917,37 @@
         <v>8.5002657999999995E-2</v>
       </c>
       <c r="I114">
-        <f>(H114*M114)+(H115*M115)</f>
-        <v>6.9891644759999996E-2</v>
-      </c>
-      <c r="K114" s="37" t="s">
+        <v>0.88</v>
+      </c>
+      <c r="J114">
+        <f>(H114*I114)+(H115*I115)</f>
+        <v>7.5936050056000001E-2</v>
+      </c>
+      <c r="L114" s="37" t="s">
         <v>1078</v>
       </c>
-      <c r="L114" s="37">
+      <c r="M114" s="37">
         <v>7.0362258999999996E-2</v>
       </c>
-      <c r="M114" s="37">
+      <c r="N114" s="37">
         <v>0.8</v>
       </c>
-      <c r="N114">
-        <f>(L114*M114)+(L115*M115)</f>
+      <c r="O114">
+        <f>(M114*N114)+(M115*N115)</f>
         <v>5.8160554439999998E-2</v>
       </c>
-      <c r="P114" s="37" t="s">
+      <c r="Q114" s="37" t="s">
         <v>1078</v>
       </c>
-      <c r="Q114" s="37">
+      <c r="R114" s="37">
         <v>3.5942957999999997E-2</v>
       </c>
-      <c r="R114">
-        <f>(Q114*M114)+(Q115*M115)</f>
+      <c r="S114">
+        <f>(R114*N114)+(R115*N115)</f>
         <v>2.9277781899999997E-2</v>
       </c>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>1079</v>
       </c>
@@ -54957,29 +54964,33 @@
       <c r="H115">
         <v>9.4475918000000002E-3</v>
       </c>
-      <c r="K115" s="37" t="s">
+      <c r="I115">
+        <f>1-I114</f>
+        <v>0.12</v>
+      </c>
+      <c r="L115" s="37" t="s">
         <v>1079</v>
       </c>
-      <c r="L115" s="37">
+      <c r="M115" s="37">
         <v>9.3537362000000006E-3</v>
       </c>
-      <c r="M115" s="37">
-        <f>1-M114</f>
+      <c r="N115" s="37">
+        <f>1-N114</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="P115" s="37" t="s">
+      <c r="Q115" s="37" t="s">
         <v>1079</v>
       </c>
-      <c r="Q115" s="37">
+      <c r="R115" s="37">
         <v>2.6170774999999999E-3</v>
       </c>
     </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K116" s="37"/>
-      <c r="M116" s="37"/>
-      <c r="P116" s="37"/>
-    </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L116" s="37"/>
+      <c r="N116" s="37"/>
+      <c r="Q116" s="37"/>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B117" s="37" t="s">
         <v>1081</v>
       </c>
@@ -54998,20 +55009,20 @@
       <c r="H117" s="37" t="s">
         <v>1080</v>
       </c>
-      <c r="I117" s="37" t="s">
+      <c r="J117" s="37" t="s">
         <v>1082</v>
       </c>
-      <c r="K117" s="37" t="s">
+      <c r="L117" s="37" t="s">
         <v>1081</v>
       </c>
-      <c r="M117" s="37" t="s">
+      <c r="N117" s="37" t="s">
         <v>1083</v>
       </c>
-      <c r="P117" s="37" t="s">
+      <c r="Q117" s="37" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B118" s="37" t="s">
         <v>1078</v>
       </c>
@@ -55032,34 +55043,38 @@
         <v>7.0442296000000001E-2</v>
       </c>
       <c r="I118">
-        <f>(H118*M118)+(H119*M119)</f>
-        <v>5.8081402939999999E-2</v>
-      </c>
-      <c r="K118" s="37" t="s">
+        <f>I114</f>
+        <v>0.88</v>
+      </c>
+      <c r="J118">
+        <f>(H118*I118)+(H119*I119)</f>
+        <v>6.3025760164000008E-2</v>
+      </c>
+      <c r="L118" s="37" t="s">
         <v>1078</v>
       </c>
-      <c r="L118" s="37">
+      <c r="M118" s="37">
         <v>6.1459527999999999E-2</v>
       </c>
-      <c r="M118" s="37">
+      <c r="N118" s="37">
         <v>0.8</v>
       </c>
-      <c r="N118">
-        <f>(L118*M118)+(L119*M119)</f>
+      <c r="O118">
+        <f>(M118*N118)+(M119*N119)</f>
         <v>5.073173366E-2</v>
       </c>
-      <c r="P118" s="37" t="s">
+      <c r="Q118" s="37" t="s">
         <v>1078</v>
       </c>
-      <c r="Q118" s="37">
+      <c r="R118" s="37">
         <v>2.6885009000000001E-2</v>
       </c>
-      <c r="R118">
-        <f>(Q118*M118)+(Q119*M119)</f>
+      <c r="S118">
+        <f>(R118*N118)+(R119*N119)</f>
         <v>2.1959909520000001E-2</v>
       </c>
     </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B119" s="37" t="s">
         <v>1079</v>
       </c>
@@ -55076,24 +55091,31 @@
       <c r="H119">
         <v>8.6378306999999998E-3</v>
       </c>
-      <c r="K119" s="37" t="s">
+      <c r="I119">
+        <f>1-I118</f>
+        <v>0.12</v>
+      </c>
+      <c r="L119" s="37" t="s">
         <v>1079</v>
       </c>
-      <c r="L119" s="37">
+      <c r="M119" s="37">
         <v>7.8205562999999999E-3</v>
       </c>
-      <c r="M119" s="37">
-        <f>1-M118</f>
+      <c r="N119" s="37">
+        <f>1-N118</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="P119" s="37" t="s">
+      <c r="Q119" s="37" t="s">
         <v>1079</v>
       </c>
-      <c r="Q119" s="37">
+      <c r="R119" s="37">
         <v>2.2595115999999998E-3</v>
       </c>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J120" s="37"/>
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C121">
         <v>0</v>
       </c>
@@ -55110,7 +55132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>1</v>
       </c>
@@ -55142,7 +55164,7 @@
         <v>0.24131406624814078</v>
       </c>
     </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>2</v>
       </c>
@@ -55162,7 +55184,7 @@
         <v>77.145162397419966</v>
       </c>
     </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>2</v>
       </c>
@@ -55176,7 +55198,7 @@
         <v>79.95327840327522</v>
       </c>
     </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>3</v>
       </c>
@@ -55187,7 +55209,7 @@
         <v>82.863611000000006</v>
       </c>
     </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>4</v>
       </c>
@@ -55195,7 +55217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H127">
         <f>SUM(C122:G126)</f>
         <v>1300.0402769398795</v>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000" tabRatio="641" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000" tabRatio="641" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="DALY" sheetId="1" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="1252">
   <si>
     <t>Metric</t>
   </si>
@@ -1643,9 +1644,6 @@
     <t>Weighted HIV positivity among those who consented to testing  (Nyanza)</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -3801,6 +3799,15 @@
   </si>
   <si>
     <t>60-79</t>
+  </si>
+  <si>
+    <t>LCI</t>
+  </si>
+  <si>
+    <t>UCI</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -6349,7 +6356,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7664,7 +7670,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7746,7 +7751,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8065,7 +8069,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9288,6 +9291,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9623,6 +9627,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -31535,7 +31540,7 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B113" t="s">
         <v>153</v>
@@ -31544,16 +31549,16 @@
         <v>144</v>
       </c>
       <c r="D113" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E113" t="s">
+        <v>694</v>
+      </c>
+      <c r="F113" t="s">
         <v>695</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>696</v>
-      </c>
-      <c r="G113" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="114" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -31658,7 +31663,7 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="126" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -31690,52 +31695,52 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C127" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D127" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E127" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F127" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G127" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H127" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I127" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J127" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K127" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L127" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M127" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N127" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O127" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="P127" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Q127" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="R127" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="S127" s="47"/>
       <c r="T127" s="47"/>
@@ -32330,7 +32335,7 @@
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B139" s="46" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C139" s="49">
         <v>87.3</v>
@@ -32383,7 +32388,7 @@
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B140" s="46" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C140" s="49">
         <v>67.802000000000007</v>
@@ -32436,7 +32441,7 @@
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B141" s="46" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C141" s="49">
         <v>47.723999999999997</v>
@@ -32489,7 +32494,7 @@
     </row>
     <row r="142" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B142" s="46" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C142" s="49">
         <v>28.616</v>
@@ -32542,7 +32547,7 @@
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B143" s="46" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C143" s="49">
         <v>14.840999999999999</v>
@@ -32698,49 +32703,49 @@
     </row>
     <row r="147" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B147" s="37" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C147" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D147" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E147" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F147" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G147" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H147" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I147" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J147" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K147" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L147" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M147" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N147" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O147" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="P147" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Q147" s="47"/>
       <c r="R147" s="47"/>
@@ -33264,7 +33269,7 @@
     </row>
     <row r="159" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B159" s="46" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C159" s="49">
         <v>211.23500000000001</v>
@@ -33311,7 +33316,7 @@
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B160" s="46" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C160" s="49">
         <v>164.596</v>
@@ -33358,7 +33363,7 @@
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B161" s="46" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C161" s="49">
         <v>120.69799999999999</v>
@@ -33405,7 +33410,7 @@
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B162" s="46" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C162" s="49">
         <v>82.307000000000002</v>
@@ -33452,7 +33457,7 @@
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B163" s="46" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C163" s="49">
         <v>49.774999999999999</v>
@@ -33580,7 +33585,7 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B167" s="49"/>
       <c r="C167" s="49"/>
@@ -33589,7 +33594,7 @@
       <c r="F167" s="49"/>
       <c r="G167" s="77"/>
       <c r="H167" s="77" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I167" s="49"/>
       <c r="J167" s="49"/>
@@ -33618,13 +33623,13 @@
         <v>196</v>
       </c>
       <c r="I168" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J168" s="76" t="s">
         <v>1247</v>
       </c>
-      <c r="J168" s="76" t="s">
-        <v>1248</v>
-      </c>
       <c r="K168" s="76" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="L168" s="76" t="s">
         <v>156</v>
@@ -33633,10 +33638,10 @@
         <v>157</v>
       </c>
       <c r="N168" s="76" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="O168" s="49" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="P168" s="37"/>
       <c r="Q168" s="16"/>
@@ -34023,8 +34028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z192"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34071,19 +34076,30 @@
       <c r="K3" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="N3" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="O3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="Q3" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
+      <c r="R3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1250</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -34101,14 +34117,32 @@
       <c r="J4" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="8">
         <v>4.3395999999999999</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="8">
+        <v>0.63719999999999999</v>
+      </c>
+      <c r="M4" s="8">
+        <v>8.0419999999999998</v>
+      </c>
+      <c r="N4" s="8">
         <v>0.1419</v>
       </c>
-      <c r="M4" s="21">
+      <c r="O4" s="37">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0.43490000000000001</v>
+      </c>
+      <c r="Q4" s="8">
         <v>4.0270000000000001</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0.75009999999999999</v>
+      </c>
+      <c r="S4" s="7">
+        <v>7.3038999999999996</v>
       </c>
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
@@ -34134,14 +34168,32 @@
       <c r="J5" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="8">
         <v>29.970300000000002</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="8">
+        <v>19.9102</v>
+      </c>
+      <c r="M5" s="8">
+        <v>40.0304</v>
+      </c>
+      <c r="N5" s="8">
         <v>5.6208</v>
       </c>
-      <c r="M5" s="21">
+      <c r="O5" s="37">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>11.2532</v>
+      </c>
+      <c r="Q5" s="8">
         <v>21.856100000000001</v>
+      </c>
+      <c r="R5" s="7">
+        <v>14.6593</v>
+      </c>
+      <c r="S5" s="7">
+        <v>29.052900000000001</v>
       </c>
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
@@ -34167,14 +34219,32 @@
       <c r="J6" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="8">
         <v>21.8535</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="8">
+        <v>9.8117999999999999</v>
+      </c>
+      <c r="M6" s="8">
+        <v>33.895200000000003</v>
+      </c>
+      <c r="N6" s="8">
         <v>23.183499999999999</v>
       </c>
-      <c r="M6" s="21">
+      <c r="O6" s="8">
+        <v>10.3553</v>
+      </c>
+      <c r="P6" s="8">
+        <v>36.011600000000001</v>
+      </c>
+      <c r="Q6" s="8">
         <v>18.897300000000001</v>
+      </c>
+      <c r="R6" s="7">
+        <v>12.1366</v>
+      </c>
+      <c r="S6" s="7">
+        <v>25.658000000000001</v>
       </c>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
@@ -34200,14 +34270,32 @@
       <c r="J7" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="8">
         <v>16.320799999999998</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="8">
+        <v>4.9405000000000001</v>
+      </c>
+      <c r="M7" s="8">
+        <v>27.701000000000001</v>
+      </c>
+      <c r="N7" s="8">
         <v>17.728400000000001</v>
       </c>
-      <c r="M7" s="21">
+      <c r="O7" s="8">
+        <v>1.7278</v>
+      </c>
+      <c r="P7" s="8">
+        <v>33.729100000000003</v>
+      </c>
+      <c r="Q7" s="8">
         <v>11.5449</v>
+      </c>
+      <c r="R7" s="7">
+        <v>6.8776999999999999</v>
+      </c>
+      <c r="S7" s="7">
+        <v>16.2121</v>
       </c>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
@@ -34233,14 +34321,32 @@
       <c r="J8" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="8">
         <v>17.982800000000001</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="8">
+        <v>6.2957000000000001</v>
+      </c>
+      <c r="M8" s="8">
+        <v>29.67</v>
+      </c>
+      <c r="N8" s="8">
         <v>19.689599999999999</v>
       </c>
-      <c r="M8" s="21">
+      <c r="O8" s="8">
+        <v>2.7372000000000001</v>
+      </c>
+      <c r="P8" s="8">
+        <v>36.642099999999999</v>
+      </c>
+      <c r="Q8" s="8">
         <v>13.7293</v>
+      </c>
+      <c r="R8" s="7">
+        <v>6.1853999999999996</v>
+      </c>
+      <c r="S8" s="7">
+        <v>21.273299999999999</v>
       </c>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
@@ -34266,14 +34372,32 @@
       <c r="J9" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="8">
         <v>33.171199999999999</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="8">
+        <v>15.0959</v>
+      </c>
+      <c r="M9" s="8">
+        <v>51.246499999999997</v>
+      </c>
+      <c r="N9" s="8">
         <v>24.622299999999999</v>
       </c>
-      <c r="M9" s="21">
+      <c r="O9" s="8">
+        <v>7.0796999999999999</v>
+      </c>
+      <c r="P9" s="8">
+        <v>42.164999999999999</v>
+      </c>
+      <c r="Q9" s="8">
         <v>17.517399999999999</v>
+      </c>
+      <c r="R9" s="7">
+        <v>9.5665999999999993</v>
+      </c>
+      <c r="S9" s="7">
+        <v>25.4681</v>
       </c>
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
@@ -34299,16 +34423,33 @@
       <c r="J10" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="8">
         <v>15.8049</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="8">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>33.246600000000001</v>
+      </c>
+      <c r="N10" s="8">
         <v>18.665800000000001</v>
       </c>
-      <c r="M10" s="21">
+      <c r="O10" s="8">
+        <v>3.1282999999999999</v>
+      </c>
+      <c r="P10" s="8">
+        <v>34.203200000000002</v>
+      </c>
+      <c r="Q10" s="8">
         <v>7.2714999999999996</v>
       </c>
-      <c r="S10" s="21"/>
+      <c r="R10" s="7">
+        <v>2.6181000000000001</v>
+      </c>
+      <c r="S10" s="7">
+        <v>11.924899999999999</v>
+      </c>
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
       <c r="V10" s="21"/>
@@ -34328,15 +34469,32 @@
         <v>392</v>
       </c>
       <c r="K11" t="s">
-        <v>531</v>
-      </c>
-      <c r="L11" s="21">
+        <v>1251</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N11" s="8">
         <v>20.7746</v>
       </c>
-      <c r="M11" s="21">
+      <c r="O11" s="8">
+        <v>4.2534999999999998</v>
+      </c>
+      <c r="P11" s="8">
+        <v>37.295699999999997</v>
+      </c>
+      <c r="Q11" s="8">
         <v>5.1565000000000003</v>
       </c>
-      <c r="S11" s="21"/>
+      <c r="R11" s="7">
+        <v>0.3695</v>
+      </c>
+      <c r="S11" s="7">
+        <v>9.9436</v>
+      </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
@@ -34361,16 +34519,33 @@
       <c r="J12" t="s">
         <v>144</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="8">
         <v>18.2517</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="8">
+        <v>13.379</v>
+      </c>
+      <c r="M12" s="8">
+        <v>23.124400000000001</v>
+      </c>
+      <c r="N12" s="8">
         <v>12.285500000000001</v>
       </c>
-      <c r="M12">
+      <c r="O12" s="8">
+        <v>7.8247999999999998</v>
+      </c>
+      <c r="P12" s="8">
+        <v>16.746300000000002</v>
+      </c>
+      <c r="Q12" s="8">
         <v>15.355399999999999</v>
       </c>
-      <c r="S12" s="21"/>
+      <c r="R12" s="7">
+        <v>11.407500000000001</v>
+      </c>
+      <c r="S12" s="7">
+        <v>19.3032</v>
+      </c>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -34393,7 +34568,7 @@
         <v>15.1</v>
       </c>
       <c r="K13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
@@ -34416,7 +34591,7 @@
     </row>
     <row r="15" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -34555,7 +34730,7 @@
     </row>
     <row r="26" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C26" s="19">
         <v>4.7E-2</v>
@@ -34569,7 +34744,7 @@
     </row>
     <row r="27" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C27" s="19">
         <v>1.7000000000000001E-2</v>
@@ -34616,7 +34791,7 @@
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -34819,7 +34994,7 @@
     <row r="42" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="54"/>
       <c r="B42" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C42" s="55">
         <v>0.06</v>
@@ -34832,7 +35007,7 @@
     <row r="43" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="54"/>
       <c r="B43" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C43" s="55">
         <v>0.04</v>
@@ -35102,11 +35277,29 @@
       <c r="C61" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F61" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="G61" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I61" s="21" t="s">
         <v>144</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K61" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
@@ -35116,11 +35309,29 @@
       <c r="C62" s="7">
         <v>10.7523</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="8">
+        <v>5.0769000000000002</v>
+      </c>
+      <c r="E62" s="8">
+        <v>16.427600000000002</v>
+      </c>
+      <c r="F62" s="7">
         <v>1.8250999999999999</v>
       </c>
-      <c r="E62" s="21">
+      <c r="G62" s="8">
+        <v>0</v>
+      </c>
+      <c r="H62" s="8">
+        <v>4.2412999999999998</v>
+      </c>
+      <c r="I62" s="8">
         <v>5.7888999999999999</v>
+      </c>
+      <c r="J62" s="8">
+        <v>2.8542000000000001</v>
+      </c>
+      <c r="K62" s="8">
+        <v>8.7236999999999991</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
@@ -35130,11 +35341,29 @@
       <c r="C63" s="7">
         <v>11.913600000000001</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="8">
+        <v>6.6604000000000001</v>
+      </c>
+      <c r="E63" s="8">
+        <v>17.166899999999998</v>
+      </c>
+      <c r="F63" s="7">
         <v>5.7523</v>
       </c>
-      <c r="E63" s="21">
+      <c r="G63" s="8">
+        <v>0</v>
+      </c>
+      <c r="H63" s="8">
+        <v>11.6975</v>
+      </c>
+      <c r="I63" s="8">
         <v>9.6933000000000007</v>
+      </c>
+      <c r="J63" s="8">
+        <v>5.5187999999999997</v>
+      </c>
+      <c r="K63" s="8">
+        <v>13.867800000000001</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
@@ -35144,11 +35373,29 @@
       <c r="C64" s="7">
         <v>22.196400000000001</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="8">
+        <v>11.307399999999999</v>
+      </c>
+      <c r="E64" s="8">
+        <v>33.0854</v>
+      </c>
+      <c r="F64" s="7">
         <v>24.328299999999999</v>
       </c>
-      <c r="E64" s="21">
+      <c r="G64" s="8">
+        <v>13.982799999999999</v>
+      </c>
+      <c r="H64" s="8">
+        <v>34.673900000000003</v>
+      </c>
+      <c r="I64" s="8">
         <v>22.979299999999999</v>
+      </c>
+      <c r="J64" s="8">
+        <v>14.177099999999999</v>
+      </c>
+      <c r="K64" s="8">
+        <v>31.781400000000001</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -35158,11 +35405,29 @@
       <c r="C65" s="7">
         <v>25.5763</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="8">
+        <v>12.0007</v>
+      </c>
+      <c r="E65" s="8">
+        <v>39.151899999999998</v>
+      </c>
+      <c r="F65" s="7">
         <v>15.297700000000001</v>
       </c>
-      <c r="E65" s="21">
+      <c r="G65" s="8">
+        <v>5.0233999999999996</v>
+      </c>
+      <c r="H65" s="8">
+        <v>25.571999999999999</v>
+      </c>
+      <c r="I65" s="8">
         <v>20.091699999999999</v>
+      </c>
+      <c r="J65" s="8">
+        <v>10.3096</v>
+      </c>
+      <c r="K65" s="8">
+        <v>29.873699999999999</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -35172,11 +35437,29 @@
       <c r="C66" s="7">
         <v>22.250399999999999</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="8">
+        <v>11.3614</v>
+      </c>
+      <c r="E66" s="8">
+        <v>33.139499999999998</v>
+      </c>
+      <c r="F66" s="7">
         <v>22.5062</v>
       </c>
-      <c r="E66" s="21">
+      <c r="G66" s="8">
+        <v>8.2401</v>
+      </c>
+      <c r="H66" s="8">
+        <v>36.772300000000001</v>
+      </c>
+      <c r="I66" s="8">
         <v>22.363299999999999</v>
+      </c>
+      <c r="J66" s="8">
+        <v>12.921799999999999</v>
+      </c>
+      <c r="K66" s="8">
+        <v>31.8049</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -35186,11 +35469,29 @@
       <c r="C67" s="7">
         <v>9.2730999999999995</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="8">
+        <v>1.0613999999999999</v>
+      </c>
+      <c r="E67" s="8">
+        <v>17.4847</v>
+      </c>
+      <c r="F67" s="7">
         <v>24.727399999999999</v>
       </c>
-      <c r="E67" s="21">
+      <c r="G67" s="8">
+        <v>7.4908000000000001</v>
+      </c>
+      <c r="H67" s="8">
+        <v>41.963999999999999</v>
+      </c>
+      <c r="I67" s="8">
         <v>16.4572</v>
+      </c>
+      <c r="J67" s="8">
+        <v>6.8125999999999998</v>
+      </c>
+      <c r="K67" s="8">
+        <v>26.101800000000001</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -35200,42 +35501,98 @@
       <c r="C68" s="7">
         <v>17.155999999999999</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="8">
+        <v>5.2008999999999999</v>
+      </c>
+      <c r="E68" s="8">
+        <v>29.1111</v>
+      </c>
+      <c r="F68" s="7">
         <v>12.907299999999999</v>
       </c>
-      <c r="E68" s="21">
+      <c r="G68" s="8">
+        <v>0</v>
+      </c>
+      <c r="H68" s="8">
+        <v>27.030100000000001</v>
+      </c>
+      <c r="I68" s="8">
         <v>15.566700000000001</v>
+      </c>
+      <c r="J68" s="8">
+        <v>6.8287000000000004</v>
+      </c>
+      <c r="K68" s="8">
+        <v>24.3047</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21">
+      <c r="C69" s="21" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F69" s="8">
         <v>15.9094</v>
       </c>
-      <c r="E69" s="31" t="s">
-        <v>530</v>
+      <c r="G69" s="8">
+        <v>3.0767000000000002</v>
+      </c>
+      <c r="H69" s="8">
+        <v>28.742100000000001</v>
+      </c>
+      <c r="I69" s="31" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J69" s="8">
+        <v>3.0767000000000002</v>
+      </c>
+      <c r="K69" s="8">
+        <v>28.742100000000001</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="21">
+      <c r="C70" s="8">
         <v>15.968400000000001</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="8">
+        <v>11.85</v>
+      </c>
+      <c r="E70" s="8">
+        <v>20.0869</v>
+      </c>
+      <c r="F70" s="8">
         <v>11.6173</v>
       </c>
-      <c r="E70" s="21">
+      <c r="G70" s="8">
+        <v>8.1296999999999997</v>
+      </c>
+      <c r="H70" s="8">
+        <v>15.104900000000001</v>
+      </c>
+      <c r="I70" s="8">
         <v>13.941800000000001</v>
+      </c>
+      <c r="J70" s="8">
+        <v>10.484500000000001</v>
+      </c>
+      <c r="K70" s="8">
+        <v>17.399100000000001</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -35243,7 +35600,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -35346,13 +35703,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I83" s="21"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I84" s="21"/>
     </row>
@@ -35468,7 +35825,7 @@
         <v>0.14560000000000001</v>
       </c>
       <c r="D94" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E94">
         <v>0.14560000000000001</v>
@@ -35487,12 +35844,12 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -35500,7 +35857,7 @@
         <v>196</v>
       </c>
       <c r="C99" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -35641,12 +35998,12 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -35654,19 +36011,19 @@
         <v>196</v>
       </c>
       <c r="C121" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D121" t="s">
         <v>480</v>
       </c>
       <c r="E121" t="s">
+        <v>987</v>
+      </c>
+      <c r="F121" t="s">
         <v>988</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>989</v>
-      </c>
-      <c r="G121" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -35990,13 +36347,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B143" s="37"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -36113,7 +36470,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C153">
         <v>8</v>
@@ -36127,22 +36484,22 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="158" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C158"/>
       <c r="D158"/>
@@ -36153,7 +36510,7 @@
     </row>
     <row r="159" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C159">
         <v>29.2</v>
@@ -36176,7 +36533,7 @@
     </row>
     <row r="160" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C160"/>
       <c r="D160"/>
@@ -36193,7 +36550,7 @@
     </row>
     <row r="161" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C161"/>
       <c r="D161"/>
@@ -36220,22 +36577,22 @@
     <row r="163" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D164" t="s">
+        <v>575</v>
+      </c>
+      <c r="E164" t="s">
+        <v>576</v>
+      </c>
+      <c r="F164" t="s">
         <v>1004</v>
       </c>
-      <c r="D164" t="s">
-        <v>576</v>
-      </c>
-      <c r="E164" t="s">
-        <v>577</v>
-      </c>
-      <c r="F164" t="s">
+      <c r="G164" t="s">
+        <v>575</v>
+      </c>
+      <c r="H164" t="s">
         <v>1005</v>
-      </c>
-      <c r="G164" t="s">
-        <v>576</v>
-      </c>
-      <c r="H164" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
@@ -36249,7 +36606,7 @@
         <v>23.1666666666666</v>
       </c>
       <c r="I165" s="44" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="166" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -36298,7 +36655,7 @@
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C170">
         <v>30.6</v>
@@ -36321,7 +36678,7 @@
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="37" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C171" s="37">
         <v>23.2</v>
@@ -36344,7 +36701,7 @@
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F172">
         <v>25.9</v>
@@ -36358,27 +36715,27 @@
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D175" t="s">
+        <v>575</v>
+      </c>
+      <c r="E175" t="s">
         <v>576</v>
-      </c>
-      <c r="E175" t="s">
-        <v>577</v>
       </c>
       <c r="F175" t="s">
         <v>220</v>
       </c>
       <c r="G175" t="s">
+        <v>575</v>
+      </c>
+      <c r="H175" t="s">
         <v>576</v>
-      </c>
-      <c r="H175" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="176" spans="2:9" x14ac:dyDescent="0.25">
@@ -36406,7 +36763,7 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C177">
         <v>29.1</v>
@@ -36475,7 +36832,7 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C180">
         <v>23.2</v>
@@ -36559,18 +36916,18 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
       <c r="C3" s="64" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D3" s="64"/>
       <c r="E3" s="64"/>
@@ -36579,7 +36936,7 @@
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="65" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
@@ -36591,7 +36948,7 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="37"/>
       <c r="C4" s="64" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D4" s="64"/>
       <c r="E4" s="64"/>
@@ -36600,7 +36957,7 @@
       <c r="H4" s="64"/>
       <c r="I4" s="64"/>
       <c r="J4" s="65" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K4" s="65"/>
       <c r="L4" s="65"/>
@@ -36612,46 +36969,46 @@
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="37"/>
       <c r="C5" s="64" t="s">
+        <v>784</v>
+      </c>
+      <c r="D5" s="64" t="s">
         <v>785</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="E5" s="64" t="s">
         <v>786</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="F5" s="64" t="s">
         <v>787</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="G5" s="64" t="s">
         <v>788</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="H5" s="64" t="s">
         <v>789</v>
       </c>
-      <c r="H5" s="64" t="s">
-        <v>790</v>
-      </c>
       <c r="I5" s="64" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J5" s="65" t="s">
+        <v>784</v>
+      </c>
+      <c r="K5" s="65" t="s">
         <v>785</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="L5" s="65" t="s">
         <v>786</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="M5" s="65" t="s">
         <v>787</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="N5" s="65" t="s">
         <v>788</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="O5" s="65" t="s">
         <v>789</v>
       </c>
-      <c r="O5" s="65" t="s">
-        <v>790</v>
-      </c>
       <c r="P5" s="65" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="R5" t="s">
         <v>225</v>
@@ -36659,7 +37016,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
@@ -36678,7 +37035,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="37" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C7" s="64">
         <v>33.36</v>
@@ -36726,46 +37083,46 @@
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="37"/>
       <c r="C8" s="64" t="s">
+        <v>792</v>
+      </c>
+      <c r="D8" s="64" t="s">
         <v>793</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="E8" s="64" t="s">
         <v>794</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="F8" s="64" t="s">
         <v>795</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="G8" s="64" t="s">
         <v>796</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="H8" s="64" t="s">
         <v>797</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="I8" s="64" t="s">
         <v>798</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="J8" s="65" t="s">
         <v>799</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="K8" s="65" t="s">
         <v>800</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="L8" s="65" t="s">
         <v>801</v>
       </c>
-      <c r="L8" s="65" t="s">
+      <c r="M8" s="65" t="s">
         <v>802</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="N8" s="65" t="s">
         <v>803</v>
       </c>
-      <c r="N8" s="65" t="s">
+      <c r="O8" s="65" t="s">
         <v>804</v>
       </c>
-      <c r="O8" s="65" t="s">
+      <c r="P8" s="65" t="s">
         <v>805</v>
-      </c>
-      <c r="P8" s="65" t="s">
-        <v>806</v>
       </c>
       <c r="R8">
         <f xml:space="preserve"> (9.94/1.96)-33.6</f>
@@ -36774,7 +37131,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C9" s="64">
         <v>35.56</v>
@@ -36822,51 +37179,51 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
       <c r="C10" s="64" t="s">
+        <v>807</v>
+      </c>
+      <c r="D10" s="64" t="s">
         <v>808</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="E10" s="64" t="s">
         <v>809</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="F10" s="64" t="s">
         <v>810</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="G10" s="64" t="s">
         <v>811</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="H10" s="64" t="s">
         <v>812</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="I10" s="64" t="s">
         <v>813</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="J10" s="65" t="s">
         <v>814</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="K10" s="65" t="s">
         <v>815</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="L10" s="65" t="s">
         <v>816</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="M10" s="65" t="s">
         <v>817</v>
       </c>
-      <c r="M10" s="65" t="s">
+      <c r="N10" s="65" t="s">
         <v>818</v>
       </c>
-      <c r="N10" s="65" t="s">
+      <c r="O10" s="65" t="s">
         <v>819</v>
       </c>
-      <c r="O10" s="65" t="s">
+      <c r="P10" s="65" t="s">
         <v>820</v>
-      </c>
-      <c r="P10" s="65" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C11" s="64">
         <v>39.86</v>
@@ -36914,51 +37271,51 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="64" t="s">
+        <v>822</v>
+      </c>
+      <c r="D12" s="64" t="s">
         <v>823</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="E12" s="64" t="s">
         <v>824</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="F12" s="64" t="s">
         <v>825</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="G12" s="64" t="s">
         <v>826</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="H12" s="64" t="s">
         <v>827</v>
       </c>
-      <c r="H12" s="64" t="s">
+      <c r="I12" s="64" t="s">
         <v>828</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="J12" s="65" t="s">
         <v>829</v>
       </c>
-      <c r="J12" s="65" t="s">
+      <c r="K12" s="65" t="s">
         <v>830</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="L12" s="65" t="s">
         <v>831</v>
       </c>
-      <c r="L12" s="65" t="s">
+      <c r="M12" s="65" t="s">
         <v>832</v>
       </c>
-      <c r="M12" s="65" t="s">
+      <c r="N12" s="65" t="s">
         <v>833</v>
       </c>
-      <c r="N12" s="65" t="s">
+      <c r="O12" s="65" t="s">
         <v>834</v>
       </c>
-      <c r="O12" s="65" t="s">
+      <c r="P12" s="65" t="s">
         <v>835</v>
-      </c>
-      <c r="P12" s="65" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C13" s="64">
         <v>53.56</v>
@@ -37006,51 +37363,51 @@
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="64" t="s">
+        <v>837</v>
+      </c>
+      <c r="D14" s="64" t="s">
         <v>838</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="E14" s="64" t="s">
         <v>839</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="F14" s="64" t="s">
         <v>840</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="G14" s="64" t="s">
         <v>841</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="H14" s="64" t="s">
         <v>842</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="I14" s="64" t="s">
         <v>843</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="J14" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="K14" s="65" t="s">
         <v>845</v>
       </c>
-      <c r="K14" s="65" t="s">
+      <c r="L14" s="65" t="s">
         <v>846</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="M14" s="65" t="s">
         <v>847</v>
       </c>
-      <c r="M14" s="65" t="s">
+      <c r="N14" s="65" t="s">
         <v>848</v>
       </c>
-      <c r="N14" s="65" t="s">
+      <c r="O14" s="65" t="s">
         <v>849</v>
       </c>
-      <c r="O14" s="65" t="s">
+      <c r="P14" s="65" t="s">
         <v>850</v>
-      </c>
-      <c r="P14" s="65" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
@@ -37069,7 +37426,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C16" s="64">
         <v>10.86</v>
@@ -37117,51 +37474,51 @@
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="64" t="s">
+        <v>852</v>
+      </c>
+      <c r="D17" s="64" t="s">
         <v>853</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="E17" s="64" t="s">
         <v>854</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="F17" s="64" t="s">
         <v>855</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="G17" s="64" t="s">
         <v>856</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="H17" s="64" t="s">
         <v>857</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="I17" s="64" t="s">
         <v>858</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="J17" s="65" t="s">
         <v>859</v>
       </c>
-      <c r="J17" s="65" t="s">
+      <c r="K17" s="65" t="s">
         <v>860</v>
       </c>
-      <c r="K17" s="65" t="s">
+      <c r="L17" s="65" t="s">
         <v>861</v>
       </c>
-      <c r="L17" s="65" t="s">
+      <c r="M17" s="65" t="s">
         <v>862</v>
       </c>
-      <c r="M17" s="65" t="s">
+      <c r="N17" s="65" t="s">
         <v>863</v>
       </c>
-      <c r="N17" s="65" t="s">
+      <c r="O17" s="65" t="s">
         <v>864</v>
       </c>
-      <c r="O17" s="65" t="s">
+      <c r="P17" s="65" t="s">
         <v>865</v>
-      </c>
-      <c r="P17" s="65" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C18" s="64">
         <v>7.88</v>
@@ -37209,51 +37566,51 @@
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="64" t="s">
+        <v>866</v>
+      </c>
+      <c r="D19" s="64" t="s">
         <v>867</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="E19" s="64" t="s">
         <v>868</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="F19" s="64" t="s">
         <v>869</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="G19" s="64" t="s">
         <v>870</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="H19" s="64" t="s">
         <v>871</v>
       </c>
-      <c r="H19" s="64" t="s">
+      <c r="I19" s="64" t="s">
         <v>872</v>
       </c>
-      <c r="I19" s="64" t="s">
+      <c r="J19" s="65" t="s">
         <v>873</v>
       </c>
-      <c r="J19" s="65" t="s">
+      <c r="K19" s="65" t="s">
         <v>874</v>
       </c>
-      <c r="K19" s="65" t="s">
+      <c r="L19" s="65" t="s">
         <v>875</v>
       </c>
-      <c r="L19" s="65" t="s">
+      <c r="M19" s="65" t="s">
         <v>876</v>
       </c>
-      <c r="M19" s="65" t="s">
+      <c r="N19" s="65" t="s">
         <v>877</v>
       </c>
-      <c r="N19" s="65" t="s">
+      <c r="O19" s="65" t="s">
         <v>878</v>
       </c>
-      <c r="O19" s="65" t="s">
+      <c r="P19" s="65" t="s">
         <v>879</v>
-      </c>
-      <c r="P19" s="65" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C20" s="64">
         <v>7.57</v>
@@ -37301,51 +37658,51 @@
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="64" t="s">
+        <v>880</v>
+      </c>
+      <c r="D21" s="64" t="s">
         <v>881</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="E21" s="64" t="s">
         <v>882</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="F21" s="64" t="s">
         <v>883</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="G21" s="64" t="s">
         <v>884</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="H21" s="64" t="s">
         <v>885</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="I21" s="64" t="s">
         <v>886</v>
       </c>
-      <c r="I21" s="64" t="s">
+      <c r="J21" s="65" t="s">
         <v>887</v>
       </c>
-      <c r="J21" s="65" t="s">
+      <c r="K21" s="65" t="s">
         <v>888</v>
       </c>
-      <c r="K21" s="65" t="s">
+      <c r="L21" s="65" t="s">
         <v>889</v>
       </c>
-      <c r="L21" s="65" t="s">
+      <c r="M21" s="65" t="s">
         <v>890</v>
       </c>
-      <c r="M21" s="65" t="s">
+      <c r="N21" s="65" t="s">
         <v>891</v>
       </c>
-      <c r="N21" s="65" t="s">
+      <c r="O21" s="65" t="s">
         <v>892</v>
       </c>
-      <c r="O21" s="65" t="s">
+      <c r="P21" s="65" t="s">
         <v>893</v>
-      </c>
-      <c r="P21" s="65" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C22" s="64">
         <v>8.9600000000000009</v>
@@ -37393,51 +37750,51 @@
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="64" t="s">
+        <v>894</v>
+      </c>
+      <c r="D23" s="64" t="s">
         <v>895</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="E23" s="64" t="s">
         <v>896</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="F23" s="64" t="s">
         <v>897</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="G23" s="64" t="s">
         <v>898</v>
       </c>
-      <c r="G23" s="64" t="s">
+      <c r="H23" s="64" t="s">
         <v>899</v>
       </c>
-      <c r="H23" s="64" t="s">
+      <c r="I23" s="64" t="s">
         <v>900</v>
       </c>
-      <c r="I23" s="64" t="s">
+      <c r="J23" s="65" t="s">
         <v>901</v>
       </c>
-      <c r="J23" s="65" t="s">
+      <c r="K23" s="65" t="s">
         <v>902</v>
       </c>
-      <c r="K23" s="65" t="s">
+      <c r="L23" s="65" t="s">
         <v>903</v>
       </c>
-      <c r="L23" s="65" t="s">
+      <c r="M23" s="65" t="s">
         <v>904</v>
       </c>
-      <c r="M23" s="65" t="s">
+      <c r="N23" s="65" t="s">
         <v>905</v>
       </c>
-      <c r="N23" s="65" t="s">
+      <c r="O23" s="65" t="s">
         <v>906</v>
       </c>
-      <c r="O23" s="65" t="s">
+      <c r="P23" s="65" t="s">
         <v>907</v>
-      </c>
-      <c r="P23" s="65" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
@@ -37456,7 +37813,7 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C25" s="64">
         <v>5.83</v>
@@ -37465,7 +37822,7 @@
         <v>3.82</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F25" s="64">
         <v>1.89</v>
@@ -37504,49 +37861,49 @@
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="64" t="s">
+        <v>909</v>
+      </c>
+      <c r="D26" s="64" t="s">
         <v>910</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>911</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="64" t="s">
+        <v>912</v>
+      </c>
+      <c r="G26" s="64" t="s">
         <v>913</v>
       </c>
-      <c r="G26" s="64" t="s">
+      <c r="H26" s="64" t="s">
         <v>914</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="I26" s="64" t="s">
         <v>915</v>
       </c>
-      <c r="I26" s="64" t="s">
+      <c r="J26" s="65" t="s">
         <v>916</v>
       </c>
-      <c r="J26" s="65" t="s">
+      <c r="K26" s="65" t="s">
         <v>917</v>
       </c>
-      <c r="K26" s="65" t="s">
+      <c r="L26" s="65" t="s">
         <v>918</v>
       </c>
-      <c r="L26" s="65" t="s">
+      <c r="M26" s="65" t="s">
         <v>919</v>
       </c>
-      <c r="M26" s="65" t="s">
+      <c r="N26" s="65" t="s">
         <v>920</v>
       </c>
-      <c r="N26" s="65" t="s">
+      <c r="O26" s="65" t="s">
         <v>921</v>
       </c>
-      <c r="O26" s="65" t="s">
+      <c r="P26" s="65" t="s">
         <v>922</v>
-      </c>
-      <c r="P26" s="65" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="37" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C27" s="64">
         <v>4.2300000000000004</v>
@@ -37594,51 +37951,51 @@
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="64" t="s">
+        <v>923</v>
+      </c>
+      <c r="D28" s="64" t="s">
         <v>924</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="E28" s="64" t="s">
         <v>925</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="F28" s="64" t="s">
         <v>926</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="G28" s="64" t="s">
         <v>927</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="H28" s="64" t="s">
         <v>928</v>
       </c>
-      <c r="H28" s="64" t="s">
+      <c r="I28" s="64" t="s">
         <v>929</v>
       </c>
-      <c r="I28" s="64" t="s">
+      <c r="J28" s="65" t="s">
         <v>930</v>
       </c>
-      <c r="J28" s="65" t="s">
+      <c r="K28" s="65" t="s">
         <v>931</v>
       </c>
-      <c r="K28" s="65" t="s">
+      <c r="L28" s="65" t="s">
         <v>932</v>
       </c>
-      <c r="L28" s="65" t="s">
+      <c r="M28" s="65" t="s">
         <v>933</v>
       </c>
-      <c r="M28" s="65" t="s">
+      <c r="N28" s="65" t="s">
         <v>934</v>
       </c>
-      <c r="N28" s="65" t="s">
+      <c r="O28" s="65" t="s">
         <v>935</v>
       </c>
-      <c r="O28" s="65" t="s">
+      <c r="P28" s="65" t="s">
         <v>936</v>
-      </c>
-      <c r="P28" s="65" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C29" s="64">
         <v>4.07</v>
@@ -37686,51 +38043,51 @@
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="64" t="s">
+        <v>937</v>
+      </c>
+      <c r="D30" s="64" t="s">
         <v>938</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="E30" s="64" t="s">
         <v>939</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="F30" s="64" t="s">
         <v>940</v>
       </c>
-      <c r="F30" s="64" t="s">
+      <c r="G30" s="64" t="s">
         <v>941</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="H30" s="64" t="s">
         <v>942</v>
       </c>
-      <c r="H30" s="64" t="s">
+      <c r="I30" s="64" t="s">
         <v>943</v>
       </c>
-      <c r="I30" s="64" t="s">
+      <c r="J30" s="65" t="s">
         <v>944</v>
       </c>
-      <c r="J30" s="65" t="s">
+      <c r="K30" s="65" t="s">
         <v>945</v>
       </c>
-      <c r="K30" s="65" t="s">
+      <c r="L30" s="65" t="s">
         <v>946</v>
       </c>
-      <c r="L30" s="65" t="s">
+      <c r="M30" s="65" t="s">
         <v>947</v>
       </c>
-      <c r="M30" s="65" t="s">
+      <c r="N30" s="65" t="s">
         <v>948</v>
       </c>
-      <c r="N30" s="65" t="s">
+      <c r="O30" s="65" t="s">
         <v>949</v>
       </c>
-      <c r="O30" s="65" t="s">
+      <c r="P30" s="65" t="s">
         <v>950</v>
-      </c>
-      <c r="P30" s="65" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="37" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C31" s="64">
         <v>4.8099999999999996</v>
@@ -37778,51 +38135,51 @@
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="64" t="s">
+        <v>951</v>
+      </c>
+      <c r="D32" s="64" t="s">
         <v>952</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="E32" s="64" t="s">
+        <v>931</v>
+      </c>
+      <c r="F32" s="64" t="s">
         <v>953</v>
       </c>
-      <c r="E32" s="64" t="s">
-        <v>932</v>
-      </c>
-      <c r="F32" s="64" t="s">
+      <c r="G32" s="64" t="s">
         <v>954</v>
       </c>
-      <c r="G32" s="64" t="s">
+      <c r="H32" s="64" t="s">
         <v>955</v>
       </c>
-      <c r="H32" s="64" t="s">
+      <c r="I32" s="64" t="s">
         <v>956</v>
       </c>
-      <c r="I32" s="64" t="s">
+      <c r="J32" s="65" t="s">
         <v>957</v>
       </c>
-      <c r="J32" s="65" t="s">
+      <c r="K32" s="65" t="s">
         <v>958</v>
       </c>
-      <c r="K32" s="65" t="s">
+      <c r="L32" s="65" t="s">
         <v>959</v>
       </c>
-      <c r="L32" s="65" t="s">
+      <c r="M32" s="65" t="s">
         <v>960</v>
       </c>
-      <c r="M32" s="65" t="s">
+      <c r="N32" s="65" t="s">
         <v>961</v>
       </c>
-      <c r="N32" s="65" t="s">
+      <c r="O32" s="65" t="s">
         <v>962</v>
       </c>
-      <c r="O32" s="65" t="s">
+      <c r="P32" s="65" t="s">
         <v>963</v>
-      </c>
-      <c r="P32" s="65" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -37833,10 +38190,10 @@
         <v>455</v>
       </c>
       <c r="E35" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F35" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -37862,7 +38219,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C37">
         <f>AVERAGE(E9,L9)/100</f>
@@ -37883,7 +38240,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C38">
         <f>AVERAGE(E11,L11)/100</f>
@@ -37904,7 +38261,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C39">
         <f>AVERAGE(E13,L13)/100</f>
@@ -37925,43 +38282,43 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
+        <v>975</v>
+      </c>
+      <c r="D47" t="s">
         <v>976</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>977</v>
-      </c>
-      <c r="E47" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C48">
         <f>18.8/1000</f>
@@ -37977,7 +38334,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C49">
         <f>32.68/1000</f>
@@ -37993,7 +38350,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C50">
         <f>44.06/1000</f>
@@ -38009,7 +38366,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C51">
         <f>50.18/1000</f>
@@ -38034,12 +38391,12 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -38047,15 +38404,15 @@
         <v>472</v>
       </c>
       <c r="C63" t="s">
+        <v>996</v>
+      </c>
+      <c r="D63" t="s">
         <v>997</v>
-      </c>
-      <c r="D63" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B64">
         <v>7.47</v>
@@ -38067,11 +38424,11 @@
         <v>1.8</v>
       </c>
       <c r="F64">
-        <f>B64/1000</f>
+        <f t="shared" ref="F64:H69" si="0">B64/1000</f>
         <v>7.4700000000000001E-3</v>
       </c>
       <c r="G64" s="37">
-        <f t="shared" ref="G64:H64" si="0">C64/1000</f>
+        <f t="shared" si="0"/>
         <v>4.6699999999999997E-3</v>
       </c>
       <c r="H64" s="37">
@@ -38081,7 +38438,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B65">
         <v>5.4</v>
@@ -38093,21 +38450,21 @@
         <v>0.48</v>
       </c>
       <c r="F65" s="37">
-        <f t="shared" ref="F65:F69" si="1">B65/1000</f>
+        <f t="shared" si="0"/>
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="G65" s="37">
-        <f t="shared" ref="G65:G69" si="2">C65/1000</f>
+        <f t="shared" si="0"/>
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="H65" s="37">
-        <f t="shared" ref="H65:H69" si="3">D65/1000</f>
+        <f t="shared" si="0"/>
         <v>4.7999999999999996E-4</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B66">
         <v>0.4</v>
@@ -38119,21 +38476,21 @@
         <v>0.2</v>
       </c>
       <c r="F66" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="G66" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="H66" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B67">
         <v>3.65</v>
@@ -38145,21 +38502,21 @@
         <v>0.65</v>
       </c>
       <c r="F67" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.65E-3</v>
       </c>
       <c r="G67" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9.3000000000000005E-4</v>
       </c>
       <c r="H67" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6.4999999999999997E-4</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B68">
         <v>4.5599999999999996</v>
@@ -38171,21 +38528,21 @@
         <v>1.52</v>
       </c>
       <c r="F68" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.5599999999999998E-3</v>
       </c>
       <c r="G68" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.7900000000000001E-3</v>
       </c>
       <c r="H68" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.5200000000000001E-3</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B69">
         <v>1.98</v>
@@ -38197,31 +38554,31 @@
         <v>1.54</v>
       </c>
       <c r="F69" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.98E-3</v>
       </c>
       <c r="G69" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7.7000000000000007E-4</v>
       </c>
       <c r="H69" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1.5400000000000001E-3</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -38229,22 +38586,22 @@
         <v>196</v>
       </c>
       <c r="C74" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D74" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E74" t="s">
         <v>1237</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>1238</v>
       </c>
-      <c r="F74" t="s">
+      <c r="I74" t="s">
         <v>1239</v>
       </c>
-      <c r="I74" t="s">
-        <v>1240</v>
-      </c>
       <c r="J74" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -38289,11 +38646,11 @@
         <v>33.799999999999997</v>
       </c>
       <c r="I76" s="8">
-        <f t="shared" ref="I76:I81" si="4">D76/C76</f>
+        <f t="shared" ref="I76:I81" si="1">D76/C76</f>
         <v>2.3529411764705883</v>
       </c>
       <c r="J76" s="37">
-        <f t="shared" ref="J76:J81" si="5">(D76-C76)/1000</f>
+        <f t="shared" ref="J76:J81" si="2">(D76-C76)/1000</f>
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="K76" s="37"/>
@@ -38315,11 +38672,11 @@
         <v>28.6</v>
       </c>
       <c r="I77" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.6981132075471699</v>
       </c>
       <c r="J77" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="K77" s="37"/>
@@ -38341,11 +38698,11 @@
         <v>27.2</v>
       </c>
       <c r="I78" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.46875</v>
       </c>
       <c r="J78" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="K78" s="37"/>
@@ -38367,11 +38724,11 @@
         <v>33.299999999999997</v>
       </c>
       <c r="I79" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.9230769230769229</v>
       </c>
       <c r="J79" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="K79" s="37"/>
@@ -38393,18 +38750,18 @@
         <v>15.7</v>
       </c>
       <c r="I80" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.9814814814814814</v>
       </c>
       <c r="J80" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1.0700000000000001E-2</v>
       </c>
       <c r="K80" s="37"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C81">
         <v>5.7</v>
@@ -38419,11 +38776,11 @@
         <v>30.1</v>
       </c>
       <c r="I81" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.8596491228070176</v>
       </c>
       <c r="J81" s="37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1.0600000000000002E-2</v>
       </c>
       <c r="K81" s="37"/>
@@ -38564,7 +38921,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="4"/>
@@ -38574,7 +38931,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="4"/>
@@ -38609,7 +38966,7 @@
     </row>
     <row r="5" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="37" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C5" s="12"/>
       <c r="G5" s="4"/>
@@ -38678,7 +39035,7 @@
         <v>433</v>
       </c>
       <c r="H14" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -38695,7 +39052,7 @@
         <v>437</v>
       </c>
       <c r="H15" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -38712,7 +39069,7 @@
         <v>0.111</v>
       </c>
       <c r="H16" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I16">
         <v>329000</v>
@@ -38733,7 +39090,7 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="H17" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="I17">
         <v>157000</v>
@@ -38741,7 +39098,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I18">
         <f>I17/I16</f>
@@ -38750,10 +39107,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H19" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I19">
         <v>122000</v>
@@ -38767,7 +39124,7 @@
         <v>0.754</v>
       </c>
       <c r="H20" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I20">
         <f>I19/I17</f>
@@ -38787,34 +39144,34 @@
     </row>
     <row r="24" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F25" s="37" t="s">
         <v>1176</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D25" s="37" t="s">
+      <c r="G25" s="18" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I25" s="37" t="s">
         <v>1129</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>1178</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -38870,7 +39227,7 @@
         <v>1493165</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" ref="E28:E31" si="0">C28/D28*100</f>
+        <f>C28/D28*100</f>
         <v>31.39083758325436</v>
       </c>
       <c r="F28" s="37">
@@ -38883,7 +39240,7 @@
         <v>1262116</v>
       </c>
       <c r="I28" s="7">
-        <f t="shared" ref="I28:I31" si="1">G28/H28*100</f>
+        <f>G28/H28*100</f>
         <v>31.417476682016549</v>
       </c>
     </row>
@@ -38898,7 +39255,7 @@
         <v>1525851</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="0"/>
+        <f>C29/D29*100</f>
         <v>35.323435905602842</v>
       </c>
       <c r="F29" s="37">
@@ -38911,7 +39268,7 @@
         <v>1310147</v>
       </c>
       <c r="I29" s="7">
-        <f t="shared" si="1"/>
+        <f>G29/H29*100</f>
         <v>37.433738351497965</v>
       </c>
     </row>
@@ -38926,7 +39283,7 @@
         <v>1560446</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" si="0"/>
+        <f>C30/D30*100</f>
         <v>38.706882519484815</v>
       </c>
       <c r="F30" s="37">
@@ -38939,7 +39296,7 @@
         <v>1356540</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="1"/>
+        <f>G30/H30*100</f>
         <v>40.438247305645241</v>
       </c>
     </row>
@@ -38954,7 +39311,7 @@
         <v>1592342</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="0"/>
+        <f>C31/D31*100</f>
         <v>41.219725410747188</v>
       </c>
       <c r="F31" s="37">
@@ -38967,7 +39324,7 @@
         <v>1402212</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="1"/>
+        <f>G31/H31*100</f>
         <v>42.520531845398558</v>
       </c>
     </row>
@@ -39017,10 +39374,10 @@
         <v>478</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I35" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J35" t="s">
         <v>478</v>
@@ -39029,10 +39386,10 @@
         <v>479</v>
       </c>
       <c r="L35" t="s">
+        <v>1136</v>
+      </c>
+      <c r="M35" t="s">
         <v>1137</v>
-      </c>
-      <c r="M35" t="s">
-        <v>1138</v>
       </c>
       <c r="V35" s="37"/>
       <c r="W35" s="37"/>
@@ -39050,14 +39407,14 @@
         <v>158077</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" ref="E36:E42" si="2">C36/D36</f>
+        <f t="shared" ref="E36:E42" si="0">C36/D36</f>
         <v>0.54281774072129407</v>
       </c>
       <c r="F36" s="4">
         <v>135039</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" ref="G36:G42" si="3">C36/F36</f>
+        <f t="shared" ref="G36:G42" si="1">C36/F36</f>
         <v>0.635423840520146</v>
       </c>
       <c r="J36" s="4">
@@ -39086,14 +39443,14 @@
         <v>144303</v>
       </c>
       <c r="E37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.58104821105590321</v>
       </c>
       <c r="F37" s="4">
         <v>123273</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.6801732739529337</v>
       </c>
       <c r="J37" s="4">
@@ -39103,7 +39460,7 @@
         <v>69161</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" ref="L37:L42" si="4">K37/J37</f>
+        <f t="shared" ref="L37:L42" si="2">K37/J37</f>
         <v>0.95337937499138437</v>
       </c>
       <c r="V37" s="37"/>
@@ -39122,14 +39479,14 @@
         <v>126411</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.54349700579854598</v>
       </c>
       <c r="F38" s="4">
         <v>107988</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.63621883913027377</v>
       </c>
       <c r="J38" s="4">
@@ -39139,7 +39496,7 @@
         <v>51698</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.74734011795998612</v>
       </c>
       <c r="V38" s="37"/>
@@ -39158,14 +39515,14 @@
         <v>83603</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.65699795461885335</v>
       </c>
       <c r="F39" s="4">
         <v>71419</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.76908105686161943</v>
       </c>
       <c r="J39" s="4">
@@ -39175,7 +39532,7 @@
         <v>38063</v>
       </c>
       <c r="L39" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.80021443888491783</v>
       </c>
       <c r="V39" s="37"/>
@@ -39194,14 +39551,14 @@
         <v>34014</v>
       </c>
       <c r="E40" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.68174869171517616</v>
       </c>
       <c r="F40" s="4">
         <v>29057</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.79805210448428954</v>
       </c>
       <c r="J40" s="4">
@@ -39211,7 +39568,7 @@
         <v>14798</v>
       </c>
       <c r="L40" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.43165509596872992</v>
       </c>
       <c r="V40" s="37"/>
@@ -39230,14 +39587,14 @@
         <v>24357</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.47464794514923841</v>
       </c>
       <c r="F41" s="4">
         <v>20807</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.55563031672033447</v>
       </c>
       <c r="J41" s="4">
@@ -39247,7 +39604,7 @@
         <v>7858</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.54622549701098289</v>
       </c>
       <c r="V41" s="37"/>
@@ -39268,7 +39625,7 @@
         <v>570765</v>
       </c>
       <c r="E42" s="62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.57472865364905001</v>
       </c>
       <c r="F42" s="4">
@@ -39276,7 +39633,7 @@
         <v>487583</v>
       </c>
       <c r="G42" s="63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.67277776296548486</v>
       </c>
       <c r="I42" s="4">
@@ -39292,7 +39649,7 @@
         <v>237647</v>
       </c>
       <c r="L42" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.73342180387315792</v>
       </c>
       <c r="M42" s="62">
@@ -39311,7 +39668,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="37" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -39319,7 +39676,7 @@
     </row>
     <row r="44" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="37" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C44" s="40">
         <v>2013</v>
@@ -39328,7 +39685,7 @@
         <v>43.1</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F44" s="37">
         <f>C20*M42</f>
@@ -39357,7 +39714,7 @@
     </row>
     <row r="47" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C47" s="40"/>
       <c r="D47" s="4"/>
@@ -39371,13 +39728,13 @@
     </row>
     <row r="49" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="40" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>1094</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="37" t="s">
         <v>1095</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -39391,7 +39748,7 @@
         <v>100677</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" ref="E50:E56" si="5">D50/C50</f>
+        <f t="shared" ref="E50:E56" si="3">D50/C50</f>
         <v>0.78531813820700624</v>
       </c>
     </row>
@@ -39406,7 +39763,7 @@
         <v>101527</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.8995676135457461</v>
       </c>
     </row>
@@ -39421,7 +39778,7 @@
         <v>80123</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.7052770564675851</v>
       </c>
     </row>
@@ -39436,7 +39793,7 @@
         <v>65820</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.83162762489576225</v>
       </c>
     </row>
@@ -39451,7 +39808,7 @@
         <v>27571</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.78886981402002865</v>
       </c>
     </row>
@@ -39466,7 +39823,7 @@
         <v>13439</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.76632263214917029</v>
       </c>
     </row>
@@ -39483,7 +39840,7 @@
         <v>389157</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.80024223780020109</v>
       </c>
       <c r="G56" s="37">
@@ -39497,7 +39854,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F58" s="21"/>
       <c r="G58" s="4"/>
@@ -39510,22 +39867,22 @@
         <v>500</v>
       </c>
       <c r="C59" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="E59" s="21" t="s">
         <v>585</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="F59" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="F59" s="21" t="s">
-        <v>587</v>
-      </c>
       <c r="G59" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -39751,7 +40108,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -39759,12 +40116,12 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -39775,22 +40132,22 @@
         <v>215</v>
       </c>
       <c r="D99" t="s">
+        <v>575</v>
+      </c>
+      <c r="E99" t="s">
         <v>576</v>
-      </c>
-      <c r="E99" t="s">
-        <v>577</v>
       </c>
       <c r="F99" s="37" t="s">
         <v>217</v>
       </c>
       <c r="G99" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="H99" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="H99" s="37" t="s">
-        <v>577</v>
-      </c>
       <c r="J99" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -39919,32 +40276,32 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C107" t="s">
         <v>106</v>
       </c>
       <c r="D107" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E107" t="s">
+        <v>575</v>
+      </c>
+      <c r="F107" t="s">
         <v>576</v>
       </c>
-      <c r="F107" t="s">
-        <v>577</v>
-      </c>
       <c r="G107" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -40089,7 +40446,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
@@ -40102,7 +40459,7 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C119">
         <v>53.5</v>
@@ -40119,12 +40476,12 @@
         <v>59</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C121">
         <v>70.8</v>
@@ -40135,7 +40492,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C122">
         <v>77</v>
@@ -40146,7 +40503,7 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C123">
         <v>83</v>
@@ -40157,7 +40514,7 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C124">
         <v>85.1</v>
@@ -40168,23 +40525,23 @@
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D127" t="s">
         <v>1117</v>
       </c>
-      <c r="D127" t="s">
-        <v>1118</v>
-      </c>
       <c r="E127" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C128">
         <v>78.900000000000006</v>
@@ -40198,7 +40555,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C129">
         <v>82.7</v>
@@ -40212,7 +40569,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C130">
         <v>72.599999999999994</v>
@@ -40226,24 +40583,24 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B133" s="37"/>
       <c r="C133" s="37" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D133" s="37" t="s">
         <v>1117</v>
       </c>
-      <c r="D133" s="37" t="s">
-        <v>1118</v>
-      </c>
       <c r="E133" s="37" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B134" s="37" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C134" s="37">
         <v>78.900000000000006</v>
@@ -40259,7 +40616,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B135" s="37" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C135" s="37">
         <v>82.7</v>
@@ -40275,7 +40632,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B136" s="37" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C136" s="37">
         <v>72.599999999999994</v>
@@ -40291,22 +40648,22 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="32" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="188" spans="2:14" x14ac:dyDescent="0.25">
@@ -40314,13 +40671,13 @@
         <v>196</v>
       </c>
       <c r="C188" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D188" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E188" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H188" s="37"/>
       <c r="I188" s="37"/>
@@ -40341,7 +40698,7 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <f>D189/C189*100</f>
+        <f t="shared" ref="E189:E194" si="4">D189/C189*100</f>
         <v>0</v>
       </c>
       <c r="H189" s="37"/>
@@ -40363,7 +40720,7 @@
         <v>0</v>
       </c>
       <c r="E190" s="37">
-        <f t="shared" ref="E190:E194" si="6">D190/C190*100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H190" s="37"/>
@@ -40385,7 +40742,7 @@
         <v>10</v>
       </c>
       <c r="E191" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.11943150603129105</v>
       </c>
       <c r="J191" s="37"/>
@@ -40403,7 +40760,7 @@
         <v>93</v>
       </c>
       <c r="E192" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.0854341736694677</v>
       </c>
       <c r="J192" s="37"/>
@@ -40423,7 +40780,7 @@
         <v>412</v>
       </c>
       <c r="E193" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.7345437830383821</v>
       </c>
       <c r="H193" s="37"/>
@@ -40445,7 +40802,7 @@
         <v>735</v>
       </c>
       <c r="E194" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>8.0786986150802385</v>
       </c>
       <c r="J194" s="37"/>
@@ -40920,27 +41277,27 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C48" s="12">
         <v>0.95399999999999996</v>
@@ -40948,7 +41305,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C49" s="12">
         <v>0.93100000000000005</v>
@@ -40960,7 +41317,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C50" s="12">
         <v>0.97799999999999998</v>
@@ -40972,7 +41329,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C51" s="12">
         <v>2.9000000000000001E-2</v>
@@ -40984,15 +41341,15 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
+        <v>575</v>
+      </c>
+      <c r="E52" t="s">
         <v>576</v>
-      </c>
-      <c r="E52" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C53" s="12">
         <v>0.82499999999999996</v>
@@ -41000,7 +41357,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C54" s="12">
         <v>0.151</v>
@@ -41014,17 +41371,17 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C58" s="12">
         <v>5.8999999999999997E-2</v>
@@ -41032,7 +41389,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C59" s="12">
         <v>4.2999999999999997E-2</v>
@@ -41072,17 +41429,17 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C67">
         <v>9.3000000000000007</v>
@@ -41090,31 +41447,31 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C71" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D71" t="s">
+        <v>575</v>
+      </c>
+      <c r="E71" t="s">
         <v>576</v>
-      </c>
-      <c r="E71" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C72" s="13">
         <v>0.05</v>
@@ -41170,24 +41527,24 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B77" s="37" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
+        <v>746</v>
+      </c>
+      <c r="D78" t="s">
         <v>747</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>748</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>749</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>750</v>
-      </c>
-      <c r="G78" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -41195,219 +41552,219 @@
         <v>426</v>
       </c>
       <c r="C79" t="s">
+        <v>726</v>
+      </c>
+      <c r="D79" t="s">
         <v>727</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>728</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>729</v>
       </c>
-      <c r="F79" t="s">
-        <v>730</v>
-      </c>
       <c r="G79" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>730</v>
+      </c>
+      <c r="C80" t="s">
         <v>731</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>732</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>733</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>734</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>735</v>
-      </c>
-      <c r="G80" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
+        <v>736</v>
+      </c>
+      <c r="C81" t="s">
         <v>737</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>738</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
+        <v>738</v>
+      </c>
+      <c r="F81" t="s">
         <v>739</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>739</v>
-      </c>
-      <c r="F81" t="s">
-        <v>740</v>
-      </c>
-      <c r="G81" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
+        <v>740</v>
+      </c>
+      <c r="C82" t="s">
         <v>741</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>742</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>743</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>744</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>745</v>
-      </c>
-      <c r="G82" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
+        <v>736</v>
+      </c>
+      <c r="C83" t="s">
         <v>737</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>738</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
+        <v>738</v>
+      </c>
+      <c r="F83" t="s">
         <v>739</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
         <v>739</v>
-      </c>
-      <c r="F83" t="s">
-        <v>740</v>
-      </c>
-      <c r="G83" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
+        <v>752</v>
+      </c>
+      <c r="C85" t="s">
         <v>753</v>
       </c>
-      <c r="C85" t="s">
-        <v>754</v>
-      </c>
       <c r="D85" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E85" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F85" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G85" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
+        <v>754</v>
+      </c>
+      <c r="C86" t="s">
         <v>755</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>756</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>757</v>
       </c>
-      <c r="E86" t="s">
-        <v>758</v>
-      </c>
       <c r="F86" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G86" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
+        <v>758</v>
+      </c>
+      <c r="C87" t="s">
         <v>759</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>760</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>761</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>762</v>
       </c>
-      <c r="F87" t="s">
-        <v>763</v>
-      </c>
       <c r="G87" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
+        <v>763</v>
+      </c>
+      <c r="C88" t="s">
         <v>764</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>765</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>766</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>767</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>768</v>
-      </c>
-      <c r="G88" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
+        <v>769</v>
+      </c>
+      <c r="C89" t="s">
         <v>770</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>771</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>772</v>
       </c>
-      <c r="E89" t="s">
-        <v>773</v>
-      </c>
       <c r="F89" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G89" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
+        <v>773</v>
+      </c>
+      <c r="C90" t="s">
         <v>774</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>775</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>776</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>777</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>778</v>
-      </c>
-      <c r="G90" t="s">
-        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -42664,7 +43021,7 @@
     </row>
     <row r="51" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>497</v>
@@ -43464,7 +43821,7 @@
         <v>223</v>
       </c>
       <c r="K71" s="43" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="L71" s="37" t="s">
         <v>222</v>
@@ -43477,7 +43834,7 @@
       <c r="P71" s="37"/>
       <c r="Q71" s="37"/>
       <c r="S71" s="43" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="T71" s="37" t="s">
         <v>222</v>
@@ -44619,7 +44976,7 @@
     <row r="89" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I89" s="41"/>
       <c r="K89" s="44" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
@@ -44628,12 +44985,12 @@
       </c>
       <c r="F90" s="41"/>
       <c r="K90" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K91" s="20" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
@@ -44645,7 +45002,7 @@
       </c>
       <c r="H92" s="41"/>
       <c r="K92" s="71" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
@@ -44690,7 +45047,7 @@
         <v>16.8</v>
       </c>
       <c r="K95" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
@@ -44710,7 +45067,7 @@
         <v>490</v>
       </c>
       <c r="M96" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="N96" t="s">
         <v>492</v>
@@ -45462,12 +45819,12 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="36" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B163" s="36"/>
       <c r="C163" s="36"/>
@@ -45475,7 +45832,7 @@
       <c r="E163" s="36"/>
       <c r="F163" s="36"/>
       <c r="J163" s="37" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K163" s="37"/>
       <c r="L163" s="37"/>
@@ -45485,7 +45842,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="36" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B164" s="36"/>
       <c r="C164" s="36"/>
@@ -45493,7 +45850,7 @@
       <c r="E164" s="36"/>
       <c r="F164" s="36"/>
       <c r="J164" s="37" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K164" s="37"/>
       <c r="L164" s="37"/>
@@ -45503,7 +45860,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="36" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B165" s="36"/>
       <c r="C165" s="36"/>
@@ -45511,7 +45868,7 @@
       <c r="E165" s="36"/>
       <c r="F165" s="36"/>
       <c r="J165" s="37" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K165" s="37"/>
       <c r="L165" s="37"/>
@@ -45526,7 +45883,7 @@
       <c r="B166" s="74"/>
       <c r="C166" s="74"/>
       <c r="D166" s="74" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E166" s="74"/>
       <c r="F166" s="74"/>
@@ -45536,7 +45893,7 @@
       <c r="K166" s="37"/>
       <c r="L166" s="37"/>
       <c r="M166" s="37" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N166" s="37"/>
       <c r="O166" s="37"/>
@@ -45545,10 +45902,10 @@
       <c r="A167" s="74"/>
       <c r="B167" s="74"/>
       <c r="C167" s="74" t="s">
+        <v>599</v>
+      </c>
+      <c r="D167" s="74" t="s">
         <v>600</v>
-      </c>
-      <c r="D167" s="74" t="s">
-        <v>601</v>
       </c>
       <c r="E167" s="74" t="s">
         <v>491</v>
@@ -45559,10 +45916,10 @@
       <c r="J167" s="37"/>
       <c r="K167" s="37"/>
       <c r="L167" s="37" t="s">
+        <v>599</v>
+      </c>
+      <c r="M167" s="37" t="s">
         <v>600</v>
-      </c>
-      <c r="M167" s="37" t="s">
-        <v>601</v>
       </c>
       <c r="N167" s="37" t="s">
         <v>491</v>
@@ -45573,7 +45930,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="74" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B168" s="74"/>
       <c r="C168" s="74"/>
@@ -45587,7 +45944,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K168" s="37"/>
       <c r="L168" s="37"/>
@@ -45703,7 +46060,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="74" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B172" s="74"/>
       <c r="C172" s="74"/>
@@ -45720,7 +46077,7 @@
         <v>17.9712</v>
       </c>
       <c r="J172" s="37" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K172" s="37">
         <v>1</v>
@@ -45923,7 +46280,7 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="74" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B178" s="74"/>
       <c r="C178" s="74"/>
@@ -45940,7 +46297,7 @@
         <v>7.9422233664000004</v>
       </c>
       <c r="J178" s="37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K178" s="37">
         <v>30</v>
@@ -46159,7 +46516,7 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="74" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B185" s="74"/>
       <c r="C185" s="74"/>
@@ -46170,7 +46527,7 @@
       <c r="H185" s="72"/>
       <c r="I185" s="72"/>
       <c r="J185" s="72" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K185" s="72"/>
       <c r="L185" s="72"/>
@@ -46180,12 +46537,12 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="74" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B186" s="74"/>
       <c r="C186" s="74"/>
       <c r="D186" s="74" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E186" s="74"/>
       <c r="F186" s="74"/>
@@ -46193,12 +46550,12 @@
       <c r="H186" s="72"/>
       <c r="I186" s="72"/>
       <c r="J186" s="72" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K186" s="72"/>
       <c r="L186" s="72"/>
       <c r="M186" s="72" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="N186" s="72"/>
       <c r="O186" s="72"/>
@@ -46207,10 +46564,10 @@
       <c r="A187" s="74"/>
       <c r="B187" s="74"/>
       <c r="C187" s="74" t="s">
+        <v>599</v>
+      </c>
+      <c r="D187" s="74" t="s">
         <v>600</v>
-      </c>
-      <c r="D187" s="74" t="s">
-        <v>601</v>
       </c>
       <c r="E187" s="74" t="s">
         <v>491</v>
@@ -46224,10 +46581,10 @@
       <c r="J187" s="72"/>
       <c r="K187" s="72"/>
       <c r="L187" s="72" t="s">
+        <v>599</v>
+      </c>
+      <c r="M187" s="72" t="s">
         <v>600</v>
-      </c>
-      <c r="M187" s="72" t="s">
-        <v>601</v>
       </c>
       <c r="N187" s="72" t="s">
         <v>491</v>
@@ -46238,7 +46595,7 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="74" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B188" s="74"/>
       <c r="C188" s="74"/>
@@ -46255,7 +46612,7 @@
       <c r="H188" s="72"/>
       <c r="I188" s="72"/>
       <c r="J188" s="72" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K188" s="72"/>
       <c r="L188" s="72"/>
@@ -46384,7 +46741,7 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="74" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B192" s="74">
         <v>1</v>
@@ -46408,7 +46765,7 @@
       <c r="H192" s="72"/>
       <c r="I192" s="72"/>
       <c r="J192" s="72" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K192" s="72">
         <v>1</v>
@@ -46644,7 +47001,7 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="74" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B198" s="74">
         <v>30</v>
@@ -46668,7 +47025,7 @@
       <c r="H198" s="72"/>
       <c r="I198" s="72"/>
       <c r="J198" s="72" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K198" s="72">
         <v>30</v>
@@ -46928,7 +47285,7 @@
       <c r="E205" s="36"/>
       <c r="F205" s="36"/>
       <c r="J205" s="37" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K205" s="37"/>
       <c r="L205" s="37"/>
@@ -46944,16 +47301,16 @@
       <c r="E206" s="36"/>
       <c r="F206" s="36"/>
       <c r="J206" s="37" t="s">
+        <v>606</v>
+      </c>
+      <c r="K206" s="37" t="s">
         <v>607</v>
       </c>
-      <c r="K206" s="37" t="s">
+      <c r="L206" s="37" t="s">
         <v>608</v>
       </c>
-      <c r="L206" s="37" t="s">
+      <c r="M206" s="37" t="s">
         <v>609</v>
-      </c>
-      <c r="M206" s="37" t="s">
-        <v>610</v>
       </c>
       <c r="N206" s="37"/>
       <c r="O206" s="37"/>
@@ -47006,7 +47363,7 @@
     <row r="210" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="211" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="42" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
@@ -47025,32 +47382,32 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
@@ -47058,47 +47415,47 @@
         <v>472</v>
       </c>
       <c r="B220" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -47369,48 +47726,48 @@
     <row r="35" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D43" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="E43" s="37" t="s">
         <v>576</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C44">
         <v>0.52</v>
@@ -47424,7 +47781,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C45">
         <v>0.42</v>
@@ -47438,7 +47795,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C46">
         <v>0.28999999999999998</v>
@@ -47452,7 +47809,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C47">
         <v>0.56000000000000005</v>
@@ -47466,27 +47823,27 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C50" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D50" t="s">
         <v>1119</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>1120</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1121</v>
       </c>
       <c r="F50" t="s">
         <v>420</v>
       </c>
       <c r="G50" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -47579,7 +47936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG144"/>
   <sheetViews>
-    <sheetView topLeftCell="Q92" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="AE113" sqref="AE113"/>
     </sheetView>
   </sheetViews>
@@ -48209,7 +48566,7 @@
         <v>80</v>
       </c>
       <c r="R41" s="21" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="S41" s="21" t="s">
         <v>452</v>
@@ -49858,142 +50215,142 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B93" s="45" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C93" s="47" t="s">
         <v>1042</v>
       </c>
-      <c r="C93" s="47" t="s">
+      <c r="D93" s="47" t="s">
         <v>1043</v>
       </c>
-      <c r="D93" s="47" t="s">
+      <c r="E93" s="47" t="s">
         <v>1044</v>
       </c>
-      <c r="E93" s="47" t="s">
+      <c r="F93" s="47" t="s">
         <v>1045</v>
       </c>
-      <c r="F93" s="47" t="s">
+      <c r="G93" s="47" t="s">
         <v>1046</v>
       </c>
-      <c r="G93" s="47" t="s">
+      <c r="H93" s="47" t="s">
         <v>1047</v>
       </c>
-      <c r="H93" s="47" t="s">
+      <c r="I93" s="47" t="s">
         <v>1048</v>
       </c>
-      <c r="I93" s="47" t="s">
+      <c r="J93" s="47" t="s">
         <v>1049</v>
       </c>
-      <c r="J93" s="47" t="s">
+      <c r="K93" s="47" t="s">
         <v>1050</v>
       </c>
-      <c r="K93" s="47" t="s">
+      <c r="L93" s="47" t="s">
         <v>1051</v>
       </c>
-      <c r="L93" s="47" t="s">
+      <c r="M93" s="47" t="s">
         <v>1052</v>
       </c>
-      <c r="M93" s="47" t="s">
+      <c r="N93" s="47" t="s">
         <v>1053</v>
       </c>
-      <c r="N93" s="47" t="s">
+      <c r="O93" s="47" t="s">
         <v>1054</v>
       </c>
-      <c r="O93" s="47" t="s">
+      <c r="P93" s="47" t="s">
         <v>1055</v>
       </c>
-      <c r="P93" s="47" t="s">
+      <c r="Q93" s="47" t="s">
         <v>1056</v>
       </c>
-      <c r="Q93" s="47" t="s">
+      <c r="R93" s="47" t="s">
         <v>1057</v>
       </c>
-      <c r="R93" s="47" t="s">
+      <c r="S93" s="47" t="s">
         <v>1058</v>
       </c>
-      <c r="S93" s="47" t="s">
+      <c r="T93" s="47" t="s">
         <v>1059</v>
       </c>
-      <c r="T93" s="47" t="s">
+      <c r="U93" s="47" t="s">
         <v>1060</v>
       </c>
-      <c r="U93" s="47" t="s">
+      <c r="V93" s="47" t="s">
         <v>1061</v>
       </c>
-      <c r="V93" s="47" t="s">
+      <c r="W93" s="47" t="s">
         <v>1062</v>
       </c>
-      <c r="W93" s="47" t="s">
+      <c r="X93" s="47" t="s">
         <v>1063</v>
       </c>
-      <c r="X93" s="47" t="s">
+      <c r="Y93" s="47" t="s">
         <v>1064</v>
       </c>
-      <c r="Y93" s="47" t="s">
+      <c r="Z93" s="47" t="s">
         <v>1065</v>
       </c>
-      <c r="Z93" s="47" t="s">
+      <c r="AA93" s="47" t="s">
         <v>1066</v>
       </c>
-      <c r="AA93" s="47" t="s">
+      <c r="AB93" s="47" t="s">
         <v>1067</v>
       </c>
-      <c r="AB93" s="47" t="s">
+      <c r="AC93" s="47" t="s">
         <v>1068</v>
       </c>
-      <c r="AC93" s="47" t="s">
+      <c r="AD93" s="47" t="s">
         <v>1069</v>
       </c>
-      <c r="AD93" s="47" t="s">
+      <c r="AE93" s="47" t="s">
         <v>1070</v>
       </c>
-      <c r="AE93" s="47" t="s">
+      <c r="AF93" s="47" t="s">
         <v>1071</v>
-      </c>
-      <c r="AF93" s="47" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
@@ -50788,7 +51145,7 @@
     </row>
     <row r="102" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B102" s="37" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
@@ -50806,7 +51163,7 @@
         <v>339</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>452</v>
@@ -51365,15 +51722,15 @@
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H124" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
@@ -51592,8 +51949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="I115" sqref="I115"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52454,10 +52811,10 @@
         <v>158</v>
       </c>
       <c r="F70" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J70" s="37" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="K70" s="37"/>
       <c r="L70" s="37"/>
@@ -53019,27 +53376,27 @@
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.25">
       <c r="U91" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AF91" t="s">
         <v>1232</v>
-      </c>
-      <c r="AF91" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="92" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="R92" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="U92" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="V92">
         <v>0.5</v>
       </c>
       <c r="W92" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="X92">
         <v>0.4</v>
@@ -53051,23 +53408,23 @@
         <v>0.25</v>
       </c>
       <c r="AA92" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AB92">
         <v>0.15</v>
       </c>
       <c r="AC92" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AD92">
         <v>0.15</v>
       </c>
       <c r="AF92" s="37" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AG92" s="37"/>
       <c r="AH92" s="37" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AI92" s="37"/>
       <c r="AJ92" s="37">
@@ -53075,11 +53432,11 @@
       </c>
       <c r="AK92" s="37"/>
       <c r="AL92" s="37" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AM92" s="37"/>
       <c r="AN92" s="37" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AO92" s="37"/>
       <c r="AP92" s="37"/>
@@ -53094,7 +53451,7 @@
     </row>
     <row r="93" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B93" s="64" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C93" s="64" t="s">
         <v>217</v>
@@ -53104,7 +53461,7 @@
       </c>
       <c r="E93" s="64"/>
       <c r="F93" s="64" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G93" s="64" t="s">
         <v>217</v>
@@ -53133,7 +53490,7 @@
         <v>222</v>
       </c>
       <c r="R93" s="37" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="S93" s="37">
         <v>1.5</v>
@@ -53251,7 +53608,7 @@
         <v>2.1959909520000001E-2</v>
       </c>
       <c r="R94" s="37" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="S94" s="37">
         <v>1.4</v>
@@ -53460,7 +53817,7 @@
         <v>5.2077410999999999E-4</v>
       </c>
       <c r="R96" s="37" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="S96" s="37">
         <v>1.1499999999999999</v>
@@ -53566,7 +53923,7 @@
         <v>8.5921136E-4</v>
       </c>
       <c r="R97" s="37" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="S97" s="37">
         <v>1.1499999999999999</v>
@@ -54842,17 +55199,17 @@
     </row>
     <row r="112" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G112" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="J112" s="37"/>
       <c r="L112" s="37" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="Q112" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.25">
@@ -54860,45 +55217,45 @@
         <v>217</v>
       </c>
       <c r="C113" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D113" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E113" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G113" s="37" t="s">
         <v>217</v>
       </c>
       <c r="H113" s="37" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="J113" s="37" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="L113" s="37" t="s">
         <v>217</v>
       </c>
       <c r="M113" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="N113" s="37" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O113" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="Q113" s="37" t="s">
         <v>217</v>
       </c>
       <c r="S113" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="114" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C114">
         <v>0.17136388999999999</v>
@@ -54911,7 +55268,7 @@
         <v>0.103242926</v>
       </c>
       <c r="G114" s="37" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H114">
         <v>8.5002657999999995E-2</v>
@@ -54924,7 +55281,7 @@
         <v>7.5936050056000001E-2</v>
       </c>
       <c r="L114" s="37" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="M114" s="37">
         <v>7.0362258999999996E-2</v>
@@ -54937,7 +55294,7 @@
         <v>5.8160554439999998E-2</v>
       </c>
       <c r="Q114" s="37" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="R114" s="37">
         <v>3.5942957999999997E-2</v>
@@ -54949,7 +55306,7 @@
     </row>
     <row r="115" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C115">
         <v>3.5121962E-2</v>
@@ -54959,7 +55316,7 @@
         <v>0.5</v>
       </c>
       <c r="G115" s="37" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H115">
         <v>9.4475918000000002E-3</v>
@@ -54969,7 +55326,7 @@
         <v>0.12</v>
       </c>
       <c r="L115" s="37" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="M115" s="37">
         <v>9.3537362000000006E-3</v>
@@ -54979,7 +55336,7 @@
         <v>0.19999999999999996</v>
       </c>
       <c r="Q115" s="37" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="R115" s="37">
         <v>2.6170774999999999E-3</v>
@@ -54992,39 +55349,39 @@
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B117" s="37" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D117" s="37" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E117" t="s">
         <v>1081</v>
       </c>
-      <c r="C117" s="37" t="s">
+      <c r="G117" s="37" t="s">
         <v>1080</v>
       </c>
-      <c r="D117" s="37" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="H117" s="37" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J117" s="37" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L117" s="37" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N117" s="37" t="s">
         <v>1082</v>
       </c>
-      <c r="G117" s="37" t="s">
-        <v>1081</v>
-      </c>
-      <c r="H117" s="37" t="s">
+      <c r="Q117" s="37" t="s">
         <v>1080</v>
-      </c>
-      <c r="J117" s="37" t="s">
-        <v>1082</v>
-      </c>
-      <c r="L117" s="37" t="s">
-        <v>1081</v>
-      </c>
-      <c r="N117" s="37" t="s">
-        <v>1083</v>
-      </c>
-      <c r="Q117" s="37" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="118" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B118" s="37" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C118" s="37">
         <v>0.14335649</v>
@@ -55037,7 +55394,7 @@
         <v>8.7651773500000002E-2</v>
       </c>
       <c r="G118" s="37" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H118">
         <v>7.0442296000000001E-2</v>
@@ -55051,7 +55408,7 @@
         <v>6.3025760164000008E-2</v>
       </c>
       <c r="L118" s="37" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="M118" s="37">
         <v>6.1459527999999999E-2</v>
@@ -55064,7 +55421,7 @@
         <v>5.073173366E-2</v>
       </c>
       <c r="Q118" s="37" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="R118" s="37">
         <v>2.6885009000000001E-2</v>
@@ -55076,7 +55433,7 @@
     </row>
     <row r="119" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B119" s="37" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C119" s="37">
         <v>3.1947057000000001E-2</v>
@@ -55086,7 +55443,7 @@
         <v>0.5</v>
       </c>
       <c r="G119" s="37" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H119">
         <v>8.6378306999999998E-3</v>
@@ -55096,7 +55453,7 @@
         <v>0.12</v>
       </c>
       <c r="L119" s="37" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="M119" s="37">
         <v>7.8205562999999999E-3</v>
@@ -55106,7 +55463,7 @@
         <v>0.19999999999999996</v>
       </c>
       <c r="Q119" s="37" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="R119" s="37">
         <v>2.2595115999999998E-3</v>
@@ -55250,12 +55607,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B2" t="s">
         <v>284</v>
@@ -55275,7 +55632,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B3" t="s">
         <v>285</v>
@@ -55293,12 +55650,12 @@
         <v>0.113</v>
       </c>
       <c r="H3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>250</v>
@@ -55309,7 +55666,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>250</v>
@@ -55320,7 +55677,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>250</v>
@@ -55342,7 +55699,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" s="21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>251</v>
@@ -55353,7 +55710,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>251</v>
@@ -55364,7 +55721,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>251</v>
@@ -55386,7 +55743,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="21" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>252</v>
@@ -55397,7 +55754,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>252</v>
@@ -55408,7 +55765,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>252</v>
@@ -55540,12 +55897,12 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B28" t="s">
         <v>286</v>
@@ -55565,7 +55922,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B29" t="s">
         <v>287</v>
@@ -55583,7 +55940,7 @@
         <v>268</v>
       </c>
       <c r="H29" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -55685,7 +56042,7 @@
         <v>276</v>
       </c>
       <c r="L38" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.25">
@@ -55904,7 +56261,7 @@
         <v>139</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F54" s="12">
         <v>0.14499999999999999</v>
@@ -55915,7 +56272,7 @@
         <v>140</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F55" s="12">
         <v>9.7000000000000003E-2</v>
@@ -55926,7 +56283,7 @@
         <v>141</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F56" s="12">
         <v>5.9299999999999999E-2</v>
@@ -55937,7 +56294,7 @@
         <v>142</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F57" s="12">
         <v>1.4200000000000001E-2</v>
@@ -55948,7 +56305,7 @@
         <v>143</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F58" s="12">
         <v>4.3499999999999997E-2</v>
@@ -55959,7 +56316,7 @@
         <v>392</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F59" s="12">
         <v>8.4099999999999994E-2</v>
@@ -56036,7 +56393,7 @@
         <v>288</v>
       </c>
       <c r="D66" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>255</v>
@@ -56051,15 +56408,15 @@
         <v>84.88</v>
       </c>
       <c r="I66" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>255</v>
@@ -56076,10 +56433,10 @@
     </row>
     <row r="68" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="37" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>255</v>
@@ -56094,12 +56451,12 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B71" t="s">
         <v>286</v>
@@ -56178,7 +56535,7 @@
     </row>
     <row r="76" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E76" s="21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F76" s="12">
         <v>0.82299999999999995</v>
@@ -56187,7 +56544,7 @@
     </row>
     <row r="77" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E77" s="21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F77" s="12">
         <v>0.90300000000000002</v>
@@ -56297,7 +56654,7 @@
     </row>
     <row r="89" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D89" s="21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>255</v>
@@ -56327,7 +56684,7 @@
     </row>
     <row r="92" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D92" s="21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>255</v>
@@ -56357,7 +56714,7 @@
     </row>
     <row r="95" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D95" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>255</v>
@@ -56387,7 +56744,7 @@
     </row>
     <row r="98" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D98" s="21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>255</v>
@@ -56436,12 +56793,12 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B105" t="s">
         <v>286</v>
@@ -56461,7 +56818,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B106" t="s">
         <v>296</v>
@@ -56567,12 +56924,12 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B119" s="21" t="s">
         <v>286</v>
@@ -56595,16 +56952,16 @@
         <v>2008</v>
       </c>
       <c r="B120" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C120" t="s">
         <v>266</v>
       </c>
       <c r="D120" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E120" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F120" s="12">
         <v>0.60199999999999998</v>
@@ -56612,16 +56969,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C121" t="s">
         <v>266</v>
       </c>
       <c r="D121" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E121" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F121" s="12">
         <v>0.33600000000000002</v>
@@ -56629,12 +56986,12 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B124" s="21" t="s">
         <v>286</v>
@@ -56654,16 +57011,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B125" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C125" t="s">
         <v>266</v>
       </c>
       <c r="D125" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E125" t="s">
         <v>255</v>
@@ -56674,10 +57031,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D126" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E126" t="s">
         <v>255</v>
@@ -56688,12 +57045,12 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B129" s="21" t="s">
         <v>286</v>
@@ -56713,16 +57070,16 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B130" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C130" t="s">
         <v>266</v>
       </c>
       <c r="D130" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E130" t="s">
         <v>254</v>
@@ -56782,7 +57139,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B135" s="21"/>
       <c r="D135" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E135" s="21" t="s">
         <v>254</v>
@@ -56793,13 +57150,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C136" t="s">
         <v>266</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E136" s="21" t="s">
         <v>254</v>
@@ -56859,7 +57216,7 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141" s="21"/>
       <c r="D141" s="21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E141" s="21" t="s">
         <v>254</v>
@@ -56870,12 +57227,12 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B144" s="21" t="s">
         <v>286</v>
@@ -56893,21 +57250,21 @@
         <v>248</v>
       </c>
       <c r="G144" t="s">
+        <v>575</v>
+      </c>
+      <c r="H144" t="s">
         <v>576</v>
-      </c>
-      <c r="H144" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B145" t="s">
         <v>285</v>
       </c>
       <c r="C145" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D145" t="s">
         <v>155</v>
@@ -56925,12 +57282,12 @@
         <v>81.599999999999994</v>
       </c>
       <c r="I145" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E146" s="21" t="s">
         <v>254</v>
@@ -56947,7 +57304,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E147" s="21" t="s">
         <v>254</v>
@@ -56964,7 +57321,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E148" s="21" t="s">
         <v>254</v>
@@ -56981,14 +57338,14 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G150" s="37"/>
       <c r="H150" s="37"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B151" s="37" t="s">
         <v>286</v>
@@ -57013,13 +57370,13 @@
         <v>2003</v>
       </c>
       <c r="B152" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C152" t="s">
         <v>266</v>
       </c>
       <c r="D152" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E152" t="s">
         <v>255</v>
@@ -57028,12 +57385,12 @@
         <v>54</v>
       </c>
       <c r="H152" s="37" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E153" t="s">
         <v>255</v>
@@ -57045,7 +57402,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E154" t="s">
         <v>255</v>
@@ -57062,7 +57419,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -57070,7 +57427,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B157" s="37" t="s">
         <v>286</v>
@@ -57088,24 +57445,24 @@
         <v>248</v>
       </c>
       <c r="G157" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H157" s="37" t="s">
         <v>1022</v>
-      </c>
-      <c r="H157" s="37" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B158" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C158" t="s">
         <v>245</v>
       </c>
       <c r="D158" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E158" t="s">
         <v>255</v>
@@ -57156,7 +57513,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E161" t="s">
         <v>255</v>
@@ -57173,13 +57530,13 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C162" t="s">
         <v>245</v>
       </c>
       <c r="D162" s="37" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E162" s="37" t="s">
         <v>255</v>
@@ -57230,7 +57587,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D165" s="37" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E165" s="37" t="s">
         <v>255</v>
@@ -57247,17 +57604,17 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B169" s="37" t="s">
         <v>286</v>
@@ -57275,10 +57632,10 @@
         <v>248</v>
       </c>
       <c r="G169" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H169" t="s">
         <v>1029</v>
-      </c>
-      <c r="H169" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -57286,13 +57643,13 @@
         <v>2015</v>
       </c>
       <c r="B170" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C170" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D170" t="s">
         <v>1027</v>
-      </c>
-      <c r="D170" t="s">
-        <v>1028</v>
       </c>
       <c r="E170" s="37" t="s">
         <v>254</v>
@@ -57309,7 +57666,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E171" s="37" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F171" s="40">
         <v>47</v>
@@ -57323,7 +57680,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E172" s="37" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F172" s="40">
         <v>39.1</v>
@@ -57337,7 +57694,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E173" s="37" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F173" s="40">
         <v>23.5</v>
@@ -57365,7 +57722,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E175" s="37" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F175" s="40">
         <v>17.399999999999999</v>
@@ -57379,7 +57736,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E176" s="37" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F176" s="40">
         <v>20</v>
@@ -57407,7 +57764,7 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E178" s="37" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F178" s="40">
         <v>17.399999999999999</v>
@@ -57421,7 +57778,7 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E179" s="37" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F179" s="40">
         <v>32.200000000000003</v>
@@ -57435,7 +57792,7 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E180" s="37" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F180" s="40">
         <v>33</v>
@@ -57449,7 +57806,7 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E181" s="37" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F181" s="40">
         <v>20</v>
@@ -57463,13 +57820,13 @@
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C182" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D182" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E182" s="37" t="s">
         <v>254</v>
@@ -57486,7 +57843,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E183" s="37" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F183" s="40">
         <v>27.6</v>
@@ -57500,7 +57857,7 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E184" s="37" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F184" s="40">
         <v>23.8</v>
@@ -57514,7 +57871,7 @@
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E185" s="37" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F185" s="40">
         <v>15.2</v>
@@ -57542,7 +57899,7 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E187" s="37" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F187" s="40">
         <v>12.4</v>
@@ -57556,7 +57913,7 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E188" s="37" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F188" s="40">
         <v>8.6</v>
@@ -57584,7 +57941,7 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E190" s="37" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F190" s="40">
         <v>7.6</v>
@@ -57598,7 +57955,7 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E191" s="37" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F191" s="40">
         <v>17.100000000000001</v>
@@ -57612,7 +57969,7 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E192" s="37" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F192" s="40">
         <v>10.5</v>
@@ -57626,7 +57983,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E193" s="37" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F193" s="40">
         <v>6.7</v>
@@ -57640,24 +57997,24 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="198" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="37" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D199" t="s">
+        <v>575</v>
+      </c>
+      <c r="E199" t="s">
         <v>576</v>
-      </c>
-      <c r="E199" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -57676,12 +58033,12 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
@@ -57689,15 +58046,15 @@
         <v>74</v>
       </c>
       <c r="D210" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E210" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C211">
         <v>36</v>
@@ -57708,7 +58065,7 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C212">
         <v>67</v>
@@ -57719,7 +58076,7 @@
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C213">
         <v>51</v>
@@ -57730,7 +58087,7 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C214">
         <v>43</v>
@@ -57741,7 +58098,7 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C215">
         <v>52</v>
@@ -57752,7 +58109,7 @@
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C216">
         <f>SUM(C211:C215)</f>
@@ -57767,7 +58124,7 @@
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C217">
         <v>64</v>
@@ -57778,7 +58135,7 @@
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C218">
         <v>186</v>
@@ -57789,70 +58146,70 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C222" s="66" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D222" s="66" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E222" s="66" t="s">
         <v>1184</v>
       </c>
-      <c r="C222" s="66" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D222" s="66" t="s">
+      <c r="F222" s="66" t="s">
+        <v>576</v>
+      </c>
+      <c r="G222" s="67" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H222" s="67" t="s">
         <v>1182</v>
       </c>
-      <c r="E222" s="66" t="s">
+      <c r="I222" s="67" t="s">
+        <v>575</v>
+      </c>
+      <c r="J222" s="67" t="s">
+        <v>576</v>
+      </c>
+      <c r="K222" s="68" t="s">
+        <v>645</v>
+      </c>
+      <c r="L222" s="68" t="s">
+        <v>575</v>
+      </c>
+      <c r="M222" s="68" t="s">
+        <v>576</v>
+      </c>
+      <c r="N222" s="69" t="s">
+        <v>1211</v>
+      </c>
+      <c r="O222" s="69" t="s">
         <v>1185</v>
       </c>
-      <c r="F222" s="66" t="s">
-        <v>577</v>
-      </c>
-      <c r="G222" s="67" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H222" s="67" t="s">
-        <v>1183</v>
-      </c>
-      <c r="I222" s="67" t="s">
-        <v>576</v>
-      </c>
-      <c r="J222" s="67" t="s">
-        <v>577</v>
-      </c>
-      <c r="K222" s="68" t="s">
-        <v>646</v>
-      </c>
-      <c r="L222" s="68" t="s">
-        <v>576</v>
-      </c>
-      <c r="M222" s="68" t="s">
-        <v>577</v>
-      </c>
-      <c r="N222" s="69" t="s">
-        <v>1212</v>
-      </c>
-      <c r="O222" s="69" t="s">
-        <v>1186</v>
-      </c>
       <c r="P222" s="69" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B223" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C223" s="66" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D223" s="66">
         <v>22.2</v>
@@ -57864,7 +58221,7 @@
         <v>29.8</v>
       </c>
       <c r="G223" s="67" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H223" s="67">
         <v>76.900000000000006</v>
@@ -57888,21 +58245,21 @@
         <v>7.8</v>
       </c>
       <c r="O223" s="69" t="s">
+        <v>1209</v>
+      </c>
+      <c r="P223" s="69" t="s">
         <v>1210</v>
-      </c>
-      <c r="P223" s="69" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B224" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C224" s="66" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D224" s="66">
         <v>15.8</v>
@@ -57914,7 +58271,7 @@
         <v>17.7</v>
       </c>
       <c r="G224" s="67" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H224" s="67">
         <v>25.7</v>
@@ -57939,24 +58296,24 @@
         <v>7.7220077220077217</v>
       </c>
       <c r="O224" s="69" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="P224" s="69">
         <v>2009</v>
       </c>
       <c r="Q224" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B225" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C225" s="66" t="s">
         <v>1195</v>
-      </c>
-      <c r="C225" s="66" t="s">
-        <v>1196</v>
       </c>
       <c r="D225" s="66">
         <v>38.700000000000003</v>
@@ -57968,7 +58325,7 @@
         <v>41.8</v>
       </c>
       <c r="G225" s="67" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H225" s="67">
         <v>74.099999999999994</v>
@@ -57983,16 +58340,16 @@
         <v>49.3</v>
       </c>
       <c r="L225" s="68" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M225" s="68" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N225" s="69">
         <v>30</v>
       </c>
       <c r="O225" s="69" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="P225" s="69">
         <v>2006</v>
@@ -58000,21 +58357,21 @@
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="M227" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="M228" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P228" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
@@ -58028,13 +58385,13 @@
         <v>106</v>
       </c>
       <c r="E229" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F229" t="s">
+        <v>575</v>
+      </c>
+      <c r="G229" t="s">
         <v>576</v>
-      </c>
-      <c r="G229" t="s">
-        <v>577</v>
       </c>
       <c r="I229" s="37" t="s">
         <v>74</v>
@@ -58043,30 +58400,30 @@
         <v>106</v>
       </c>
       <c r="K229" s="37" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M229" t="s">
         <v>1207</v>
       </c>
-      <c r="M229" t="s">
-        <v>1208</v>
-      </c>
       <c r="N229" t="s">
+        <v>575</v>
+      </c>
+      <c r="O229" t="s">
         <v>576</v>
       </c>
-      <c r="O229" t="s">
-        <v>577</v>
-      </c>
       <c r="P229" s="37" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Q229" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="R229" s="37" t="s">
         <v>576</v>
-      </c>
-      <c r="R229" s="37" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C230">
         <v>9</v>
@@ -58348,7 +58705,7 @@
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C236">
         <v>54</v>
@@ -58395,15 +58752,15 @@
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="I238" s="37" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J238" s="37"/>
       <c r="K238" s="37"/>
       <c r="M238" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
@@ -58420,10 +58777,10 @@
         <v>248</v>
       </c>
       <c r="F239" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="G239" s="37" t="s">
         <v>576</v>
-      </c>
-      <c r="G239" s="37" t="s">
-        <v>577</v>
       </c>
       <c r="I239" s="37" t="s">
         <v>74</v>
@@ -58432,7 +58789,7 @@
         <v>106</v>
       </c>
       <c r="K239" s="37" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M239" t="s">
         <v>74</v>
@@ -58441,7 +58798,7 @@
         <v>106</v>
       </c>
       <c r="O239" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
@@ -58598,7 +58955,7 @@
     </row>
     <row r="244" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C244">
         <v>189</v>
@@ -58660,57 +59017,57 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C3">
         <v>4.9000000000000004</v>
       </c>
       <c r="D3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C4">
         <v>1.9</v>
       </c>
       <c r="D4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C9" s="13">
         <v>0.37</v>
@@ -58721,7 +59078,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C10">
         <v>26</v>
@@ -58732,12 +59089,12 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -58745,7 +59102,7 @@
         <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D14" t="s">
         <v>106</v>
@@ -58753,7 +59110,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C15">
         <f>137/D15</f>
@@ -58770,7 +59127,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C16">
         <f>119/D16</f>
@@ -58787,7 +59144,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C17">
         <f>31/D17</f>
@@ -58804,20 +59161,20 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -58838,7 +59195,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C23">
         <f>73/D23</f>
@@ -58864,7 +59221,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C25">
         <f>57/D25</f>
@@ -58877,25 +59234,25 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C29" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C30">
         <v>5.8</v>
@@ -58903,7 +59260,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C31">
         <v>3.5</v>
@@ -58911,7 +59268,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C32">
         <v>1.2</v>
@@ -58927,30 +59284,30 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D38" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C39">
         <f>15/84</f>
@@ -58977,43 +59334,43 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C43" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C44" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -59026,7 +59383,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C51">
         <v>10.5</v>
@@ -59034,7 +59391,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C52">
         <v>12.8</v>
@@ -59042,30 +59399,30 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D57" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C58" s="18">
         <v>0.191</v>
@@ -59076,7 +59433,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C59" s="18">
         <v>0.13100000000000001</v>
@@ -59098,7 +59455,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C61" s="18">
         <v>0.27400000000000002</v>
@@ -59110,17 +59467,17 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -59133,7 +59490,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C67">
         <v>112</v>
@@ -59529,7 +59886,7 @@
     </row>
     <row r="33" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -59892,30 +60249,30 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="37" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E66" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F66" t="s">
         <v>188</v>
       </c>
       <c r="G66" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -59926,7 +60283,7 @@
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F67">
         <v>17.900000000000006</v>
@@ -59943,7 +60300,7 @@
         <v>5.9</v>
       </c>
       <c r="E68" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F68">
         <v>18.400000000000006</v>
@@ -59960,7 +60317,7 @@
         <v>5.5</v>
       </c>
       <c r="E69" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F69">
         <v>15.900000000000006</v>
@@ -59971,13 +60328,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C70">
         <v>1.2</v>
       </c>
       <c r="E70" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F70">
         <v>11.099999999999994</v>
@@ -59994,7 +60351,7 @@
         <v>0.1</v>
       </c>
       <c r="E71" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F71">
         <v>16.900000000000006</v>
@@ -60005,7 +60362,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -60069,12 +60426,12 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -60082,7 +60439,7 @@
         <v>246</v>
       </c>
       <c r="C11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -60175,7 +60532,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C23">
         <v>134.78</v>
@@ -60191,12 +60548,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -60204,7 +60561,7 @@
         <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -60305,7 +60662,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C41">
         <v>15</v>
@@ -60313,12 +60670,12 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="37" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="44" spans="2:6" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -60326,13 +60683,13 @@
         <v>150</v>
       </c>
       <c r="C45" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E45" t="s">
         <v>1168</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>1169</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -60505,7 +60862,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" s="37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C58" s="37">
         <v>48</v>
@@ -60519,12 +60876,12 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C61" s="37"/>
     </row>
@@ -60533,7 +60890,7 @@
         <v>150</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -60634,7 +60991,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C75" s="37">
         <v>10</v>
@@ -60642,7 +60999,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C76">
         <v>17.7</v>
@@ -60650,12 +61007,12 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C79">
         <v>20.5</v>
@@ -60663,44 +61020,44 @@
     </row>
     <row r="80" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="37" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C80" s="37">
         <v>32.5</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C84">
         <v>34.5</v>
       </c>
       <c r="D84" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -60713,7 +61070,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C89">
         <v>42.7</v>
@@ -60721,13 +61078,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="37" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -60735,13 +61092,13 @@
         <v>196</v>
       </c>
       <c r="C93" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D93" t="s">
+        <v>575</v>
+      </c>
+      <c r="E93" t="s">
         <v>576</v>
-      </c>
-      <c r="E93" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000" tabRatio="641" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000" tabRatio="641" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="1298">
   <si>
     <t>Metric</t>
   </si>
@@ -2151,12 +2151,6 @@
     <t>Source: Bailey, 2007; Lancet. 2007 Feb 24;369(9562):643-56.</t>
   </si>
   <si>
-    <t xml:space="preserve">Relative risk of HIV among circumcised men compared to uncircumcised men is 0.47 (0.28-0.78) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCT among 2784 18-24 year old men in Kisumu, with 24 months of follow up </t>
-  </si>
-  <si>
     <t xml:space="preserve">Protection from circumcision </t>
   </si>
   <si>
@@ -3808,6 +3802,150 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per protocol relative risk of incident HIV among circumcised men compared to uncircumcised men is 0.47 (0.28-0.78) </t>
+  </si>
+  <si>
+    <t>As treated RR was 0·40 (0·23–0·68)</t>
+  </si>
+  <si>
+    <t>RCT among 2784 18-24 year old men in Kisumu, with 24 months of follow up. Sexual behavior post-circumcision showed no behavioral compensation among circumcised men. The slightly higher prevalence of post-cicumcision risky behaviors in circumcised men were mainly attributable to safer sexual practices among uncircumcised men.</t>
+  </si>
+  <si>
+    <t>Male circumcision in Nyanza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% circumcised </t>
+  </si>
+  <si>
+    <t>Source: DHS 2008; Akulian (2017) https://pubmed.ncbi.nlm.nih.gov/28079830/?from_term=kenya+circumcision+prevalence&amp;from_pos=2</t>
+  </si>
+  <si>
+    <t>Source: DHS 2014; Akulian (2017) https://pubmed.ncbi.nlm.nih.gov/28079830/?from_term=kenya+circumcision+prevalence&amp;from_pos=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: KAIS 2007 and 2012; Galbriath, </t>
+  </si>
+  <si>
+    <t> 25–34</t>
+  </si>
+  <si>
+    <t> 35–44</t>
+  </si>
+  <si>
+    <t> 45–54</t>
+  </si>
+  <si>
+    <t> 55–64</t>
+  </si>
+  <si>
+    <t>46.5</t>
+  </si>
+  <si>
+    <t>47.5</t>
+  </si>
+  <si>
+    <t>47.4</t>
+  </si>
+  <si>
+    <t>53.5</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>38.4</t>
+  </si>
+  <si>
+    <t>40.2</t>
+  </si>
+  <si>
+    <t>45.8</t>
+  </si>
+  <si>
+    <t>36.1</t>
+  </si>
+  <si>
+    <t>54.6</t>
+  </si>
+  <si>
+    <t>54.8</t>
+  </si>
+  <si>
+    <t>56.3</t>
+  </si>
+  <si>
+    <t>61.2</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>71.7</t>
+  </si>
+  <si>
+    <t>69.3</t>
+  </si>
+  <si>
+    <t>57.6</t>
+  </si>
+  <si>
+    <t>59.1</t>
+  </si>
+  <si>
+    <t>64.5</t>
+  </si>
+  <si>
+    <t>62.1</t>
+  </si>
+  <si>
+    <t>60.1</t>
+  </si>
+  <si>
+    <t>42.7</t>
+  </si>
+  <si>
+    <t>44.7</t>
+  </si>
+  <si>
+    <t>49.5</t>
+  </si>
+  <si>
+    <t>81.3</t>
+  </si>
+  <si>
+    <t>78.5</t>
+  </si>
+  <si>
+    <t>72.6</t>
+  </si>
+  <si>
+    <t>73.4</t>
+  </si>
+  <si>
+    <t>79.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15-19), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20-24), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25-29), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(30-39), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(40-49), </t>
+  </si>
+  <si>
+    <t>(50+)</t>
+  </si>
+  <si>
+    <t>*add 3% non-medical with increase age</t>
   </si>
 </sst>
 </file>
@@ -4068,7 +4206,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4269,6 +4407,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4527,7 +4671,7 @@
     <xf numFmtId="0" fontId="1" fillId="35" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4642,6 +4786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -24894,6 +25039,504 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>144930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="8524875"/>
+          <a:ext cx="5486400" cy="4574055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9124950" y="6105526"/>
+          <a:ext cx="3971925" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>WHO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ART eligibility: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Pre-2013: CD4 &lt;350</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2013-2015: CD4 &lt;500</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Post 2015: any CD4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Kenya</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ART eligibility (national guideline first published in 2005): </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2005-2007: CD4 &lt;200</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2007-2011: CD4 &lt;250 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2011-2014: CD4 &lt;350</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2014-2016: CD4 &lt;500</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Post 2016: any CD4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Baseline estimates of coverage of 90-90-90 targets in Nyanza region, Kenya AIDS Indicator Survey, 2012–2013*."/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6353175" y="2724151"/>
+          <a:ext cx="5076825" cy="2980395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>101029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743450" y="19354800"/>
+          <a:ext cx="3819525" cy="2272729"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1584</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95207</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="https://www.dovepress.com/cr_data/article_fulltext/s153000/153185/img/hiv-153185_T003.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="611184" y="26489026"/>
+          <a:ext cx="9875798" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9219" name="AutoShape 3" descr="https://images.journals.lww.com/aidsonline/Original.00002030-201207310-00012.F3-12.jpeg"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="30099000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>146916</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="30099000"/>
+          <a:ext cx="5052291" cy="5210175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="30327600"/>
+          <a:ext cx="3524250" cy="3305175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Population cause-specific mortality rates and 95% confidence intervals (lines, y-axis on left), and estimated proportion of HIV-positive patients in care and receiving ART (stacked bars,y-axis on right), by year.Estimates are based on the mid-year adult (age 18–64) population of Health and Demographic Surveillance System (HDSS), Nyanza Province, Kenya and HIV clinic patients active at mid-year within the HDSS areas (details of calculations in text and Supplemental Digital Content 1,   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>http://links.lww.com/QAD/A216</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -25639,6 +26282,144 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="7553325"/>
+          <a:ext cx="4857750" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Akulian:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> In 2014, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9.5% of circumcised 15-24 year olds reported that they were circumcised</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> before age 10. Also, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9.5% of circumcision in this age group was done at home or at a ritual site.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Among 25-50 year old men, 15.5% reported being circumcised between age 0-9 and 18.3% circumcised between 10-14. 20% reported being circumcised at a ritual site or at home and 6.7% at other non-medical settings. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -25807,7 +26588,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -25842,7 +26623,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -25902,7 +26683,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -25962,7 +26743,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -26331,7 +27112,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -26419,504 +27200,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>144930</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="590550" y="8524875"/>
-          <a:ext cx="5486400" cy="4574055"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9124950" y="6105526"/>
-          <a:ext cx="3971925" cy="2057400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="28575" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="accent4"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>WHO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> ART eligibility: </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Pre-2013: CD4 &lt;350</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>2013-2015: CD4 &lt;500</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Post 2015: any CD4</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Kenya</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> ART eligibility (national guideline first published in 2005): </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>2005-2007: CD4 &lt;200</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>2007-2011: CD4 &lt;250 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>2011-2014: CD4 &lt;350</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>2014-2016: CD4 &lt;500</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Post 2016: any CD4</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180046</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Baseline estimates of coverage of 90-90-90 targets in Nyanza region, Kenya AIDS Indicator Survey, 2012–2013*."/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6353175" y="2724151"/>
-          <a:ext cx="5076825" cy="2980395"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>101029</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4743450" y="19354800"/>
-          <a:ext cx="3819525" cy="2272729"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1584</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95207</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="https://www.dovepress.com/cr_data/article_fulltext/s153000/153185/img/hiv-153185_T003.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="611184" y="26489026"/>
-          <a:ext cx="9875798" cy="2133600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9219" name="AutoShape 3" descr="https://images.journals.lww.com/aidsonline/Original.00002030-201207310-00012.F3-12.jpeg"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="609600" y="30099000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>146916</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="30099000"/>
-          <a:ext cx="5052291" cy="5210175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6172200" y="30327600"/>
-          <a:ext cx="3524250" cy="3305175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Population cause-specific mortality rates and 95% confidence intervals (lines, y-axis on left), and estimated proportion of HIV-positive patients in care and receiving ART (stacked bars,y-axis on right), by year.Estimates are based on the mid-year adult (age 18–64) population of Health and Demographic Surveillance System (HDSS), Nyanza Province, Kenya and HIV clinic patients active at mid-year within the HDSS areas (details of calculations in text and Supplemental Digital Content 1,   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
-            </a:rPr>
-            <a:t>http://links.lww.com/QAD/A216</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>).</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -31663,7 +31946,7 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="126" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -32441,7 +32724,7 @@
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B141" s="46" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C141" s="49">
         <v>47.723999999999997</v>
@@ -32494,7 +32777,7 @@
     </row>
     <row r="142" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B142" s="46" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C142" s="49">
         <v>28.616</v>
@@ -32547,7 +32830,7 @@
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B143" s="46" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C143" s="49">
         <v>14.840999999999999</v>
@@ -32703,7 +32986,7 @@
     </row>
     <row r="147" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B147" s="37" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C147" s="47" t="s">
         <v>597</v>
@@ -33363,7 +33646,7 @@
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B161" s="46" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C161" s="49">
         <v>120.69799999999999</v>
@@ -33410,7 +33693,7 @@
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B162" s="46" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C162" s="49">
         <v>82.307000000000002</v>
@@ -33457,7 +33740,7 @@
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B163" s="46" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C163" s="49">
         <v>49.774999999999999</v>
@@ -33585,7 +33868,7 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B167" s="49"/>
       <c r="C167" s="49"/>
@@ -33594,7 +33877,7 @@
       <c r="F167" s="49"/>
       <c r="G167" s="77"/>
       <c r="H167" s="77" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I167" s="49"/>
       <c r="J167" s="49"/>
@@ -33623,13 +33906,13 @@
         <v>196</v>
       </c>
       <c r="I168" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="J168" s="76" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="K168" s="76" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="L168" s="76" t="s">
         <v>156</v>
@@ -33638,10 +33921,10 @@
         <v>157</v>
       </c>
       <c r="N168" s="76" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="O168" s="49" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="P168" s="37"/>
       <c r="Q168" s="16"/>
@@ -34028,8 +34311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34077,28 +34360,28 @@
         <v>222</v>
       </c>
       <c r="L3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="M3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="N3" s="21" t="s">
         <v>217</v>
       </c>
       <c r="O3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="P3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="Q3" s="21" t="s">
         <v>144</v>
       </c>
       <c r="R3" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="S3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -34469,13 +34752,13 @@
         <v>392</v>
       </c>
       <c r="K11" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="L11" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="M11" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="N11" s="8">
         <v>20.7746</v>
@@ -34791,7 +35074,7 @@
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -35278,28 +35561,28 @@
         <v>222</v>
       </c>
       <c r="D61" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E61" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="F61" s="21" t="s">
         <v>217</v>
       </c>
       <c r="G61" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="H61" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I61" s="21" t="s">
         <v>144</v>
       </c>
       <c r="J61" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="K61" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
@@ -35531,13 +35814,13 @@
         <v>392</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D69" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="E69" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="F69" s="8">
         <v>15.9094</v>
@@ -35549,7 +35832,7 @@
         <v>28.742100000000001</v>
       </c>
       <c r="I69" s="31" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J69" s="8">
         <v>3.0767000000000002</v>
@@ -35998,12 +36281,12 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -36011,19 +36294,19 @@
         <v>196</v>
       </c>
       <c r="C121" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D121" t="s">
         <v>480</v>
       </c>
       <c r="E121" t="s">
+        <v>985</v>
+      </c>
+      <c r="F121" t="s">
+        <v>986</v>
+      </c>
+      <c r="G121" t="s">
         <v>987</v>
-      </c>
-      <c r="F121" t="s">
-        <v>988</v>
-      </c>
-      <c r="G121" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -36347,13 +36630,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B143" s="37"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -36484,22 +36767,22 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="158" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C158"/>
       <c r="D158"/>
@@ -36510,7 +36793,7 @@
     </row>
     <row r="159" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C159">
         <v>29.2</v>
@@ -36533,7 +36816,7 @@
     </row>
     <row r="160" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C160"/>
       <c r="D160"/>
@@ -36550,7 +36833,7 @@
     </row>
     <row r="161" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C161"/>
       <c r="D161"/>
@@ -36577,7 +36860,7 @@
     <row r="163" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D164" t="s">
         <v>575</v>
@@ -36586,13 +36869,13 @@
         <v>576</v>
       </c>
       <c r="F164" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G164" t="s">
         <v>575</v>
       </c>
       <c r="H164" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
@@ -36606,7 +36889,7 @@
         <v>23.1666666666666</v>
       </c>
       <c r="I165" s="44" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="166" spans="2:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -36655,7 +36938,7 @@
     </row>
     <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C170">
         <v>30.6</v>
@@ -36678,7 +36961,7 @@
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="37" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C171" s="37">
         <v>23.2</v>
@@ -36701,7 +36984,7 @@
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F172">
         <v>25.9</v>
@@ -36715,12 +36998,12 @@
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D175" t="s">
         <v>575</v>
@@ -36763,7 +37046,7 @@
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C177">
         <v>29.1</v>
@@ -36832,7 +37115,7 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C180">
         <v>23.2</v>
@@ -36916,18 +37199,18 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
       <c r="C3" s="64" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D3" s="64"/>
       <c r="E3" s="64"/>
@@ -36936,7 +37219,7 @@
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="65" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
@@ -36948,7 +37231,7 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="37"/>
       <c r="C4" s="64" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D4" s="64"/>
       <c r="E4" s="64"/>
@@ -36957,7 +37240,7 @@
       <c r="H4" s="64"/>
       <c r="I4" s="64"/>
       <c r="J4" s="65" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="K4" s="65"/>
       <c r="L4" s="65"/>
@@ -36969,43 +37252,43 @@
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="37"/>
       <c r="C5" s="64" t="s">
+        <v>782</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>783</v>
+      </c>
+      <c r="E5" s="64" t="s">
         <v>784</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="F5" s="64" t="s">
         <v>785</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="G5" s="64" t="s">
         <v>786</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="H5" s="64" t="s">
         <v>787</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>788</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>789</v>
       </c>
       <c r="I5" s="64" t="s">
         <v>672</v>
       </c>
       <c r="J5" s="65" t="s">
+        <v>782</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>783</v>
+      </c>
+      <c r="L5" s="65" t="s">
         <v>784</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="M5" s="65" t="s">
         <v>785</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="N5" s="65" t="s">
         <v>786</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="O5" s="65" t="s">
         <v>787</v>
-      </c>
-      <c r="N5" s="65" t="s">
-        <v>788</v>
-      </c>
-      <c r="O5" s="65" t="s">
-        <v>789</v>
       </c>
       <c r="P5" s="65" t="s">
         <v>672</v>
@@ -37016,7 +37299,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="37" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
@@ -37035,7 +37318,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="37" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C7" s="64">
         <v>33.36</v>
@@ -37083,46 +37366,46 @@
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="37"/>
       <c r="C8" s="64" t="s">
+        <v>790</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>791</v>
+      </c>
+      <c r="E8" s="64" t="s">
         <v>792</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="F8" s="64" t="s">
         <v>793</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="G8" s="64" t="s">
         <v>794</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="H8" s="64" t="s">
         <v>795</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="I8" s="64" t="s">
         <v>796</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="J8" s="65" t="s">
         <v>797</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="K8" s="65" t="s">
         <v>798</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="L8" s="65" t="s">
         <v>799</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="M8" s="65" t="s">
         <v>800</v>
       </c>
-      <c r="L8" s="65" t="s">
+      <c r="N8" s="65" t="s">
         <v>801</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="O8" s="65" t="s">
         <v>802</v>
       </c>
-      <c r="N8" s="65" t="s">
+      <c r="P8" s="65" t="s">
         <v>803</v>
-      </c>
-      <c r="O8" s="65" t="s">
-        <v>804</v>
-      </c>
-      <c r="P8" s="65" t="s">
-        <v>805</v>
       </c>
       <c r="R8">
         <f xml:space="preserve"> (9.94/1.96)-33.6</f>
@@ -37131,7 +37414,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C9" s="64">
         <v>35.56</v>
@@ -37179,51 +37462,51 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
       <c r="C10" s="64" t="s">
+        <v>805</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>806</v>
+      </c>
+      <c r="E10" s="64" t="s">
         <v>807</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="F10" s="64" t="s">
         <v>808</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="G10" s="64" t="s">
         <v>809</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="H10" s="64" t="s">
         <v>810</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="I10" s="64" t="s">
         <v>811</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="J10" s="65" t="s">
         <v>812</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="K10" s="65" t="s">
         <v>813</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="L10" s="65" t="s">
         <v>814</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="M10" s="65" t="s">
         <v>815</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="N10" s="65" t="s">
         <v>816</v>
       </c>
-      <c r="M10" s="65" t="s">
+      <c r="O10" s="65" t="s">
         <v>817</v>
       </c>
-      <c r="N10" s="65" t="s">
+      <c r="P10" s="65" t="s">
         <v>818</v>
-      </c>
-      <c r="O10" s="65" t="s">
-        <v>819</v>
-      </c>
-      <c r="P10" s="65" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C11" s="64">
         <v>39.86</v>
@@ -37271,51 +37554,51 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="64" t="s">
+        <v>820</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>821</v>
+      </c>
+      <c r="E12" s="64" t="s">
         <v>822</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="F12" s="64" t="s">
         <v>823</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="G12" s="64" t="s">
         <v>824</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="H12" s="64" t="s">
         <v>825</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="I12" s="64" t="s">
         <v>826</v>
       </c>
-      <c r="H12" s="64" t="s">
+      <c r="J12" s="65" t="s">
         <v>827</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="K12" s="65" t="s">
         <v>828</v>
       </c>
-      <c r="J12" s="65" t="s">
+      <c r="L12" s="65" t="s">
         <v>829</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="M12" s="65" t="s">
         <v>830</v>
       </c>
-      <c r="L12" s="65" t="s">
+      <c r="N12" s="65" t="s">
         <v>831</v>
       </c>
-      <c r="M12" s="65" t="s">
+      <c r="O12" s="65" t="s">
         <v>832</v>
       </c>
-      <c r="N12" s="65" t="s">
+      <c r="P12" s="65" t="s">
         <v>833</v>
-      </c>
-      <c r="O12" s="65" t="s">
-        <v>834</v>
-      </c>
-      <c r="P12" s="65" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C13" s="64">
         <v>53.56</v>
@@ -37363,51 +37646,51 @@
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="64" t="s">
+        <v>835</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>836</v>
+      </c>
+      <c r="E14" s="64" t="s">
         <v>837</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="F14" s="64" t="s">
         <v>838</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="G14" s="64" t="s">
         <v>839</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="H14" s="64" t="s">
         <v>840</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="I14" s="64" t="s">
         <v>841</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="J14" s="65" t="s">
         <v>842</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="K14" s="65" t="s">
         <v>843</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="L14" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="K14" s="65" t="s">
+      <c r="M14" s="65" t="s">
         <v>845</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="N14" s="65" t="s">
         <v>846</v>
       </c>
-      <c r="M14" s="65" t="s">
+      <c r="O14" s="65" t="s">
         <v>847</v>
       </c>
-      <c r="N14" s="65" t="s">
+      <c r="P14" s="65" t="s">
         <v>848</v>
-      </c>
-      <c r="O14" s="65" t="s">
-        <v>849</v>
-      </c>
-      <c r="P14" s="65" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
@@ -37426,7 +37709,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C16" s="64">
         <v>10.86</v>
@@ -37474,51 +37757,51 @@
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="64" t="s">
+        <v>850</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>851</v>
+      </c>
+      <c r="E17" s="64" t="s">
         <v>852</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="F17" s="64" t="s">
         <v>853</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="G17" s="64" t="s">
         <v>854</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="H17" s="64" t="s">
         <v>855</v>
       </c>
-      <c r="G17" s="64" t="s">
+      <c r="I17" s="64" t="s">
         <v>856</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="J17" s="65" t="s">
         <v>857</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="K17" s="65" t="s">
         <v>858</v>
       </c>
-      <c r="J17" s="65" t="s">
+      <c r="L17" s="65" t="s">
         <v>859</v>
       </c>
-      <c r="K17" s="65" t="s">
+      <c r="M17" s="65" t="s">
         <v>860</v>
       </c>
-      <c r="L17" s="65" t="s">
+      <c r="N17" s="65" t="s">
         <v>861</v>
       </c>
-      <c r="M17" s="65" t="s">
+      <c r="O17" s="65" t="s">
         <v>862</v>
       </c>
-      <c r="N17" s="65" t="s">
+      <c r="P17" s="65" t="s">
         <v>863</v>
-      </c>
-      <c r="O17" s="65" t="s">
-        <v>864</v>
-      </c>
-      <c r="P17" s="65" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C18" s="64">
         <v>7.88</v>
@@ -37566,51 +37849,51 @@
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="64" t="s">
+        <v>864</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>865</v>
+      </c>
+      <c r="E19" s="64" t="s">
         <v>866</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="F19" s="64" t="s">
         <v>867</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="G19" s="64" t="s">
         <v>868</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="H19" s="64" t="s">
         <v>869</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="I19" s="64" t="s">
         <v>870</v>
       </c>
-      <c r="H19" s="64" t="s">
+      <c r="J19" s="65" t="s">
         <v>871</v>
       </c>
-      <c r="I19" s="64" t="s">
+      <c r="K19" s="65" t="s">
         <v>872</v>
       </c>
-      <c r="J19" s="65" t="s">
+      <c r="L19" s="65" t="s">
         <v>873</v>
       </c>
-      <c r="K19" s="65" t="s">
+      <c r="M19" s="65" t="s">
         <v>874</v>
       </c>
-      <c r="L19" s="65" t="s">
+      <c r="N19" s="65" t="s">
         <v>875</v>
       </c>
-      <c r="M19" s="65" t="s">
+      <c r="O19" s="65" t="s">
         <v>876</v>
       </c>
-      <c r="N19" s="65" t="s">
+      <c r="P19" s="65" t="s">
         <v>877</v>
-      </c>
-      <c r="O19" s="65" t="s">
-        <v>878</v>
-      </c>
-      <c r="P19" s="65" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C20" s="64">
         <v>7.57</v>
@@ -37658,51 +37941,51 @@
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="64" t="s">
+        <v>878</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>879</v>
+      </c>
+      <c r="E21" s="64" t="s">
         <v>880</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="F21" s="64" t="s">
         <v>881</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="G21" s="64" t="s">
         <v>882</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="H21" s="64" t="s">
         <v>883</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="I21" s="64" t="s">
         <v>884</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="J21" s="65" t="s">
         <v>885</v>
       </c>
-      <c r="I21" s="64" t="s">
+      <c r="K21" s="65" t="s">
         <v>886</v>
       </c>
-      <c r="J21" s="65" t="s">
+      <c r="L21" s="65" t="s">
         <v>887</v>
       </c>
-      <c r="K21" s="65" t="s">
+      <c r="M21" s="65" t="s">
         <v>888</v>
       </c>
-      <c r="L21" s="65" t="s">
+      <c r="N21" s="65" t="s">
         <v>889</v>
       </c>
-      <c r="M21" s="65" t="s">
+      <c r="O21" s="65" t="s">
         <v>890</v>
       </c>
-      <c r="N21" s="65" t="s">
+      <c r="P21" s="65" t="s">
         <v>891</v>
-      </c>
-      <c r="O21" s="65" t="s">
-        <v>892</v>
-      </c>
-      <c r="P21" s="65" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C22" s="64">
         <v>8.9600000000000009</v>
@@ -37750,51 +38033,51 @@
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="64" t="s">
+        <v>892</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>893</v>
+      </c>
+      <c r="E23" s="64" t="s">
         <v>894</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="F23" s="64" t="s">
         <v>895</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="G23" s="64" t="s">
         <v>896</v>
       </c>
-      <c r="F23" s="64" t="s">
+      <c r="H23" s="64" t="s">
         <v>897</v>
       </c>
-      <c r="G23" s="64" t="s">
+      <c r="I23" s="64" t="s">
         <v>898</v>
       </c>
-      <c r="H23" s="64" t="s">
+      <c r="J23" s="65" t="s">
         <v>899</v>
       </c>
-      <c r="I23" s="64" t="s">
+      <c r="K23" s="65" t="s">
         <v>900</v>
       </c>
-      <c r="J23" s="65" t="s">
+      <c r="L23" s="65" t="s">
         <v>901</v>
       </c>
-      <c r="K23" s="65" t="s">
+      <c r="M23" s="65" t="s">
         <v>902</v>
       </c>
-      <c r="L23" s="65" t="s">
+      <c r="N23" s="65" t="s">
         <v>903</v>
       </c>
-      <c r="M23" s="65" t="s">
+      <c r="O23" s="65" t="s">
         <v>904</v>
       </c>
-      <c r="N23" s="65" t="s">
+      <c r="P23" s="65" t="s">
         <v>905</v>
-      </c>
-      <c r="O23" s="65" t="s">
-        <v>906</v>
-      </c>
-      <c r="P23" s="65" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C24" s="64"/>
       <c r="D24" s="64"/>
@@ -37813,7 +38096,7 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C25" s="64">
         <v>5.83</v>
@@ -37822,7 +38105,7 @@
         <v>3.82</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F25" s="64">
         <v>1.89</v>
@@ -37861,49 +38144,49 @@
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="64" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="64" t="s">
+        <v>910</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>911</v>
+      </c>
+      <c r="H26" s="64" t="s">
         <v>912</v>
       </c>
-      <c r="G26" s="64" t="s">
+      <c r="I26" s="64" t="s">
         <v>913</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="J26" s="65" t="s">
         <v>914</v>
       </c>
-      <c r="I26" s="64" t="s">
+      <c r="K26" s="65" t="s">
         <v>915</v>
       </c>
-      <c r="J26" s="65" t="s">
+      <c r="L26" s="65" t="s">
         <v>916</v>
       </c>
-      <c r="K26" s="65" t="s">
+      <c r="M26" s="65" t="s">
         <v>917</v>
       </c>
-      <c r="L26" s="65" t="s">
+      <c r="N26" s="65" t="s">
         <v>918</v>
       </c>
-      <c r="M26" s="65" t="s">
+      <c r="O26" s="65" t="s">
         <v>919</v>
       </c>
-      <c r="N26" s="65" t="s">
+      <c r="P26" s="65" t="s">
         <v>920</v>
-      </c>
-      <c r="O26" s="65" t="s">
-        <v>921</v>
-      </c>
-      <c r="P26" s="65" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="37" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C27" s="64">
         <v>4.2300000000000004</v>
@@ -37951,51 +38234,51 @@
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="64" t="s">
+        <v>921</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>922</v>
+      </c>
+      <c r="E28" s="64" t="s">
         <v>923</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="F28" s="64" t="s">
         <v>924</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="G28" s="64" t="s">
         <v>925</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="H28" s="64" t="s">
         <v>926</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="I28" s="64" t="s">
         <v>927</v>
       </c>
-      <c r="H28" s="64" t="s">
+      <c r="J28" s="65" t="s">
         <v>928</v>
       </c>
-      <c r="I28" s="64" t="s">
+      <c r="K28" s="65" t="s">
         <v>929</v>
       </c>
-      <c r="J28" s="65" t="s">
+      <c r="L28" s="65" t="s">
         <v>930</v>
       </c>
-      <c r="K28" s="65" t="s">
+      <c r="M28" s="65" t="s">
         <v>931</v>
       </c>
-      <c r="L28" s="65" t="s">
+      <c r="N28" s="65" t="s">
         <v>932</v>
       </c>
-      <c r="M28" s="65" t="s">
+      <c r="O28" s="65" t="s">
         <v>933</v>
       </c>
-      <c r="N28" s="65" t="s">
+      <c r="P28" s="65" t="s">
         <v>934</v>
-      </c>
-      <c r="O28" s="65" t="s">
-        <v>935</v>
-      </c>
-      <c r="P28" s="65" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C29" s="64">
         <v>4.07</v>
@@ -38043,51 +38326,51 @@
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="64" t="s">
+        <v>935</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>936</v>
+      </c>
+      <c r="E30" s="64" t="s">
         <v>937</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="F30" s="64" t="s">
         <v>938</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="G30" s="64" t="s">
         <v>939</v>
       </c>
-      <c r="F30" s="64" t="s">
+      <c r="H30" s="64" t="s">
         <v>940</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="I30" s="64" t="s">
         <v>941</v>
       </c>
-      <c r="H30" s="64" t="s">
+      <c r="J30" s="65" t="s">
         <v>942</v>
       </c>
-      <c r="I30" s="64" t="s">
+      <c r="K30" s="65" t="s">
         <v>943</v>
       </c>
-      <c r="J30" s="65" t="s">
+      <c r="L30" s="65" t="s">
         <v>944</v>
       </c>
-      <c r="K30" s="65" t="s">
+      <c r="M30" s="65" t="s">
         <v>945</v>
       </c>
-      <c r="L30" s="65" t="s">
+      <c r="N30" s="65" t="s">
         <v>946</v>
       </c>
-      <c r="M30" s="65" t="s">
+      <c r="O30" s="65" t="s">
         <v>947</v>
       </c>
-      <c r="N30" s="65" t="s">
+      <c r="P30" s="65" t="s">
         <v>948</v>
-      </c>
-      <c r="O30" s="65" t="s">
-        <v>949</v>
-      </c>
-      <c r="P30" s="65" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="37" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C31" s="64">
         <v>4.8099999999999996</v>
@@ -38135,51 +38418,51 @@
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>950</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>929</v>
+      </c>
+      <c r="F32" s="64" t="s">
         <v>951</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="G32" s="64" t="s">
         <v>952</v>
       </c>
-      <c r="E32" s="64" t="s">
-        <v>931</v>
-      </c>
-      <c r="F32" s="64" t="s">
+      <c r="H32" s="64" t="s">
         <v>953</v>
       </c>
-      <c r="G32" s="64" t="s">
+      <c r="I32" s="64" t="s">
         <v>954</v>
       </c>
-      <c r="H32" s="64" t="s">
+      <c r="J32" s="65" t="s">
         <v>955</v>
       </c>
-      <c r="I32" s="64" t="s">
+      <c r="K32" s="65" t="s">
         <v>956</v>
       </c>
-      <c r="J32" s="65" t="s">
+      <c r="L32" s="65" t="s">
         <v>957</v>
       </c>
-      <c r="K32" s="65" t="s">
+      <c r="M32" s="65" t="s">
         <v>958</v>
       </c>
-      <c r="L32" s="65" t="s">
+      <c r="N32" s="65" t="s">
         <v>959</v>
       </c>
-      <c r="M32" s="65" t="s">
+      <c r="O32" s="65" t="s">
         <v>960</v>
       </c>
-      <c r="N32" s="65" t="s">
+      <c r="P32" s="65" t="s">
         <v>961</v>
-      </c>
-      <c r="O32" s="65" t="s">
-        <v>962</v>
-      </c>
-      <c r="P32" s="65" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -38190,7 +38473,7 @@
         <v>455</v>
       </c>
       <c r="E35" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F35" t="s">
         <v>672</v>
@@ -38261,7 +38544,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C39">
         <f>AVERAGE(E13,L13)/100</f>
@@ -38282,38 +38565,38 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
+        <v>973</v>
+      </c>
+      <c r="D47" t="s">
+        <v>974</v>
+      </c>
+      <c r="E47" t="s">
         <v>975</v>
-      </c>
-      <c r="D47" t="s">
-        <v>976</v>
-      </c>
-      <c r="E47" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -38334,7 +38617,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C49">
         <f>32.68/1000</f>
@@ -38350,7 +38633,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C50">
         <f>44.06/1000</f>
@@ -38366,7 +38649,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C51">
         <f>50.18/1000</f>
@@ -38391,12 +38674,12 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -38404,15 +38687,15 @@
         <v>472</v>
       </c>
       <c r="C63" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D63" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B64">
         <v>7.47</v>
@@ -38438,7 +38721,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B65">
         <v>5.4</v>
@@ -38464,7 +38747,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B66">
         <v>0.4</v>
@@ -38490,7 +38773,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B67">
         <v>3.65</v>
@@ -38516,7 +38799,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B68">
         <v>4.5599999999999996</v>
@@ -38542,7 +38825,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B69">
         <v>1.98</v>
@@ -38568,17 +38851,17 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -38589,19 +38872,19 @@
         <v>561</v>
       </c>
       <c r="D74" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F74" t="s">
         <v>1236</v>
       </c>
-      <c r="E74" t="s">
+      <c r="I74" t="s">
         <v>1237</v>
       </c>
-      <c r="F74" t="s">
-        <v>1238</v>
-      </c>
-      <c r="I74" t="s">
-        <v>1239</v>
-      </c>
       <c r="J74" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -38966,7 +39249,7 @@
     </row>
     <row r="5" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="37" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C5" s="12"/>
       <c r="G5" s="4"/>
@@ -39035,7 +39318,7 @@
         <v>433</v>
       </c>
       <c r="H14" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -39052,7 +39335,7 @@
         <v>437</v>
       </c>
       <c r="H15" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -39069,7 +39352,7 @@
         <v>0.111</v>
       </c>
       <c r="H16" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="I16">
         <v>329000</v>
@@ -39090,7 +39373,7 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="H17" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="I17">
         <v>157000</v>
@@ -39098,7 +39381,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="I18">
         <f>I17/I16</f>
@@ -39107,10 +39390,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H19" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="I19">
         <v>122000</v>
@@ -39124,7 +39407,7 @@
         <v>0.754</v>
       </c>
       <c r="H20" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="I20">
         <f>I19/I17</f>
@@ -39144,34 +39427,34 @@
     </row>
     <row r="24" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H25" s="37" t="s">
         <v>1175</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="I25" s="37" t="s">
         <v>1127</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>1127</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>1177</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -39374,10 +39657,10 @@
         <v>478</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="I35" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="J35" t="s">
         <v>478</v>
@@ -39386,10 +39669,10 @@
         <v>479</v>
       </c>
       <c r="L35" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="M35" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="V35" s="37"/>
       <c r="W35" s="37"/>
@@ -39668,7 +39951,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="37" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -39676,7 +39959,7 @@
     </row>
     <row r="44" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="37" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C44" s="40">
         <v>2013</v>
@@ -39685,7 +39968,7 @@
         <v>43.1</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F44" s="37">
         <f>C20*M42</f>
@@ -39714,7 +39997,7 @@
     </row>
     <row r="47" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C47" s="40"/>
       <c r="D47" s="4"/>
@@ -39728,13 +40011,13 @@
     </row>
     <row r="49" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="40" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E49" s="37" t="s">
         <v>1093</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -40116,7 +40399,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -40147,7 +40430,7 @@
         <v>576</v>
       </c>
       <c r="J99" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -40276,17 +40559,17 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C107" t="s">
         <v>106</v>
@@ -40301,7 +40584,7 @@
         <v>576</v>
       </c>
       <c r="G107" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -40446,7 +40729,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
@@ -40459,7 +40742,7 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C119">
         <v>53.5</v>
@@ -40492,7 +40775,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C122">
         <v>77</v>
@@ -40514,7 +40797,7 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C124">
         <v>85.1</v>
@@ -40525,23 +40808,23 @@
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D127" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E127" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C128">
         <v>78.900000000000006</v>
@@ -40555,7 +40838,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C129">
         <v>82.7</v>
@@ -40569,7 +40852,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C130">
         <v>72.599999999999994</v>
@@ -40583,24 +40866,24 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B133" s="37"/>
       <c r="C133" s="37" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D133" s="37" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E133" s="37" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B134" s="37" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C134" s="37">
         <v>78.900000000000006</v>
@@ -40616,7 +40899,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B135" s="37" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C135" s="37">
         <v>82.7</v>
@@ -40632,7 +40915,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B136" s="37" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C136" s="37">
         <v>72.599999999999994</v>
@@ -40648,22 +40931,22 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="32" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="188" spans="2:14" x14ac:dyDescent="0.25">
@@ -40671,13 +40954,13 @@
         <v>196</v>
       </c>
       <c r="C188" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D188" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E188" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="H188" s="37"/>
       <c r="I188" s="37"/>
@@ -41287,17 +41570,17 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C48" s="12">
         <v>0.95399999999999996</v>
@@ -41305,7 +41588,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C49" s="12">
         <v>0.93100000000000005</v>
@@ -41317,7 +41600,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C50" s="12">
         <v>0.97799999999999998</v>
@@ -41329,7 +41612,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C51" s="12">
         <v>2.9000000000000001E-2</v>
@@ -41349,7 +41632,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C53" s="12">
         <v>0.82499999999999996</v>
@@ -41357,7 +41640,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C54" s="12">
         <v>0.151</v>
@@ -41371,17 +41654,17 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C58" s="12">
         <v>5.8999999999999997E-2</v>
@@ -41389,7 +41672,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C59" s="12">
         <v>4.2999999999999997E-2</v>
@@ -41429,17 +41712,17 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C67">
         <v>9.3000000000000007</v>
@@ -41447,20 +41730,20 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C71" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D71" t="s">
         <v>575</v>
@@ -41471,7 +41754,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C72" s="13">
         <v>0.05</v>
@@ -41527,24 +41810,24 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B77" s="37" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
+        <v>744</v>
+      </c>
+      <c r="D78" t="s">
+        <v>745</v>
+      </c>
+      <c r="E78" t="s">
         <v>746</v>
       </c>
-      <c r="D78" t="s">
+      <c r="F78" t="s">
         <v>747</v>
       </c>
-      <c r="E78" t="s">
+      <c r="G78" t="s">
         <v>748</v>
-      </c>
-      <c r="F78" t="s">
-        <v>749</v>
-      </c>
-      <c r="G78" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -41552,219 +41835,219 @@
         <v>426</v>
       </c>
       <c r="C79" t="s">
+        <v>724</v>
+      </c>
+      <c r="D79" t="s">
+        <v>725</v>
+      </c>
+      <c r="E79" t="s">
         <v>726</v>
       </c>
-      <c r="D79" t="s">
+      <c r="F79" t="s">
         <v>727</v>
       </c>
-      <c r="E79" t="s">
-        <v>728</v>
-      </c>
-      <c r="F79" t="s">
-        <v>729</v>
-      </c>
       <c r="G79" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>728</v>
+      </c>
+      <c r="C80" t="s">
+        <v>729</v>
+      </c>
+      <c r="D80" t="s">
         <v>730</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E80" t="s">
         <v>731</v>
       </c>
-      <c r="D80" t="s">
+      <c r="F80" t="s">
         <v>732</v>
       </c>
-      <c r="E80" t="s">
+      <c r="G80" t="s">
         <v>733</v>
-      </c>
-      <c r="F80" t="s">
-        <v>734</v>
-      </c>
-      <c r="G80" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
+        <v>734</v>
+      </c>
+      <c r="C81" t="s">
+        <v>735</v>
+      </c>
+      <c r="D81" t="s">
         <v>736</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E81" t="s">
+        <v>736</v>
+      </c>
+      <c r="F81" t="s">
         <v>737</v>
       </c>
-      <c r="D81" t="s">
-        <v>738</v>
-      </c>
-      <c r="E81" t="s">
-        <v>738</v>
-      </c>
-      <c r="F81" t="s">
-        <v>739</v>
-      </c>
       <c r="G81" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
+        <v>738</v>
+      </c>
+      <c r="C82" t="s">
+        <v>739</v>
+      </c>
+      <c r="D82" t="s">
         <v>740</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
         <v>741</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
         <v>742</v>
       </c>
-      <c r="E82" t="s">
+      <c r="G82" t="s">
         <v>743</v>
-      </c>
-      <c r="F82" t="s">
-        <v>744</v>
-      </c>
-      <c r="G82" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
+        <v>734</v>
+      </c>
+      <c r="C83" t="s">
+        <v>735</v>
+      </c>
+      <c r="D83" t="s">
         <v>736</v>
       </c>
-      <c r="C83" t="s">
+      <c r="E83" t="s">
+        <v>736</v>
+      </c>
+      <c r="F83" t="s">
         <v>737</v>
       </c>
-      <c r="D83" t="s">
-        <v>738</v>
-      </c>
-      <c r="E83" t="s">
-        <v>738</v>
-      </c>
-      <c r="F83" t="s">
-        <v>739</v>
-      </c>
       <c r="G83" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C85" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D85" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E85" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F85" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G85" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
+        <v>752</v>
+      </c>
+      <c r="C86" t="s">
+        <v>753</v>
+      </c>
+      <c r="D86" t="s">
         <v>754</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E86" t="s">
         <v>755</v>
       </c>
-      <c r="D86" t="s">
-        <v>756</v>
-      </c>
-      <c r="E86" t="s">
-        <v>757</v>
-      </c>
       <c r="F86" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G86" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
+        <v>756</v>
+      </c>
+      <c r="C87" t="s">
+        <v>757</v>
+      </c>
+      <c r="D87" t="s">
         <v>758</v>
       </c>
-      <c r="C87" t="s">
+      <c r="E87" t="s">
         <v>759</v>
       </c>
-      <c r="D87" t="s">
+      <c r="F87" t="s">
         <v>760</v>
       </c>
-      <c r="E87" t="s">
-        <v>761</v>
-      </c>
-      <c r="F87" t="s">
-        <v>762</v>
-      </c>
       <c r="G87" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
+        <v>761</v>
+      </c>
+      <c r="C88" t="s">
+        <v>762</v>
+      </c>
+      <c r="D88" t="s">
         <v>763</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E88" t="s">
         <v>764</v>
       </c>
-      <c r="D88" t="s">
+      <c r="F88" t="s">
         <v>765</v>
       </c>
-      <c r="E88" t="s">
+      <c r="G88" t="s">
         <v>766</v>
-      </c>
-      <c r="F88" t="s">
-        <v>767</v>
-      </c>
-      <c r="G88" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
+        <v>767</v>
+      </c>
+      <c r="C89" t="s">
+        <v>768</v>
+      </c>
+      <c r="D89" t="s">
         <v>769</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E89" t="s">
         <v>770</v>
       </c>
-      <c r="D89" t="s">
-        <v>771</v>
-      </c>
-      <c r="E89" t="s">
-        <v>772</v>
-      </c>
       <c r="F89" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G89" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
+        <v>771</v>
+      </c>
+      <c r="C90" t="s">
+        <v>772</v>
+      </c>
+      <c r="D90" t="s">
         <v>773</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>774</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>775</v>
       </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
         <v>776</v>
-      </c>
-      <c r="F90" t="s">
-        <v>777</v>
-      </c>
-      <c r="G90" t="s">
-        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -42351,7 +42634,7 @@
   <dimension ref="A1:Y256"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="R77" sqref="R77"/>
+      <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43821,7 +44104,7 @@
         <v>223</v>
       </c>
       <c r="K71" s="43" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="L71" s="37" t="s">
         <v>222</v>
@@ -43834,7 +44117,7 @@
       <c r="P71" s="37"/>
       <c r="Q71" s="37"/>
       <c r="S71" s="43" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="T71" s="37" t="s">
         <v>222</v>
@@ -44976,7 +45259,7 @@
     <row r="89" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I89" s="41"/>
       <c r="K89" s="44" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
@@ -44985,12 +45268,12 @@
       </c>
       <c r="F90" s="41"/>
       <c r="K90" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K91" s="20" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
@@ -45002,7 +45285,7 @@
       </c>
       <c r="H92" s="41"/>
       <c r="K92" s="71" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
@@ -45047,7 +45330,7 @@
         <v>16.8</v>
       </c>
       <c r="K95" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
@@ -45067,7 +45350,7 @@
         <v>490</v>
       </c>
       <c r="M96" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="N96" t="s">
         <v>492</v>
@@ -47445,17 +47728,17 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
   </sheetData>
@@ -47467,468 +47750,1049 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H3" t="s">
+        <v>575</v>
+      </c>
+      <c r="I3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>137</v>
       </c>
       <c r="C4">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="7">
+        <v>39.475000000000001</v>
+      </c>
+      <c r="H4" s="7">
+        <v>26.379000000000001</v>
+      </c>
+      <c r="I4" s="7">
+        <v>52.570900000000002</v>
+      </c>
+      <c r="L4" s="7">
+        <v>39.475000000000001</v>
+      </c>
+      <c r="M4" s="7">
+        <v>59.9711</v>
+      </c>
+      <c r="N4" s="7">
+        <v>55.5411</v>
+      </c>
+      <c r="O4" s="7">
+        <v>48.6997</v>
+      </c>
+      <c r="P4" s="7">
+        <v>53.265300000000003</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>42.709699999999998</v>
+      </c>
+      <c r="R4" s="7">
+        <v>42.107599999999998</v>
+      </c>
+      <c r="S4" s="37">
+        <v>39.2258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>138</v>
       </c>
       <c r="C5">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="7">
+        <v>59.9711</v>
+      </c>
+      <c r="H5" s="7">
+        <v>44.379399999999997</v>
+      </c>
+      <c r="I5" s="7">
+        <v>75.562799999999996</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>1262</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>1263</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>1264</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>1265</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>1266</v>
+      </c>
+      <c r="Q5" s="37">
+        <v>58</v>
+      </c>
+      <c r="R5" s="37">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>139</v>
       </c>
       <c r="C6">
         <v>88.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="7">
+        <v>55.5411</v>
+      </c>
+      <c r="H6" s="7">
+        <v>35.654000000000003</v>
+      </c>
+      <c r="I6" s="7">
+        <v>75.428100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>156</v>
       </c>
       <c r="C7">
         <v>89.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="7">
+        <v>48.6997</v>
+      </c>
+      <c r="H7" s="7">
+        <v>25.883700000000001</v>
+      </c>
+      <c r="I7" s="7">
+        <v>71.515799999999999</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>157</v>
       </c>
       <c r="C8">
         <v>83.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="7">
+        <v>53.265300000000003</v>
+      </c>
+      <c r="H8" s="7">
+        <v>34.495600000000003</v>
+      </c>
+      <c r="I8" s="7">
+        <v>72.034899999999993</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2007</v>
+      </c>
+      <c r="L8">
+        <f>L5-12.5</f>
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <f>L5-9.5</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>144</v>
       </c>
       <c r="C9">
         <v>83.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="7">
+        <v>42.709699999999998</v>
+      </c>
+      <c r="H9" s="7">
+        <v>26.007300000000001</v>
+      </c>
+      <c r="I9" s="7">
+        <v>59.412199999999999</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2003</v>
+      </c>
+      <c r="L9" s="7">
+        <f>L4-9.5</f>
+        <v>29.975000000000001</v>
+      </c>
+      <c r="M9" s="7">
+        <f>M4-12.5</f>
+        <v>47.4711</v>
+      </c>
+      <c r="N9" s="7">
+        <f>N4-15.5</f>
+        <v>40.0411</v>
+      </c>
+      <c r="O9">
+        <f>((O4+P4)/2)-18.5</f>
+        <v>32.482500000000002</v>
+      </c>
+      <c r="P9">
+        <f>((Q4+R4)/2)-21.5</f>
+        <v>20.908649999999994</v>
+      </c>
+      <c r="Q9" s="37">
+        <f>S4-24.5</f>
+        <v>14.7258</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>158</v>
       </c>
       <c r="C10">
         <v>46.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="F10" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="7">
+        <v>42.107599999999998</v>
+      </c>
+      <c r="H10" s="7">
+        <v>21.632400000000001</v>
+      </c>
+      <c r="I10" s="7">
+        <v>62.582799999999999</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1291</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1292</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1294</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1295</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" s="37">
+        <v>39.2258</v>
+      </c>
+      <c r="H11" s="7">
+        <v>20.566700000000001</v>
+      </c>
+      <c r="I11" s="7">
+        <v>57.884900000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="37" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="37">
+        <v>37</v>
+      </c>
+      <c r="D16" s="37">
+        <v>22.2</v>
+      </c>
+      <c r="E16" s="37">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="37">
+        <v>46.5</v>
+      </c>
+      <c r="D17" s="37">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E17" s="37">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="37">
+        <v>39</v>
+      </c>
+      <c r="D18" s="37">
+        <v>25.8</v>
+      </c>
+      <c r="E18" s="37">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="37">
+        <v>55.4</v>
+      </c>
+      <c r="D19" s="37">
+        <v>32.6</v>
+      </c>
+      <c r="E19" s="37">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="37">
+        <v>55.9</v>
+      </c>
+      <c r="D20" s="37">
+        <v>37.6</v>
+      </c>
+      <c r="E20" s="37">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="37">
+        <v>58</v>
+      </c>
+      <c r="D21" s="37">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E21" s="37">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="37">
+        <v>60.1</v>
+      </c>
+      <c r="D22" s="37">
+        <v>35.5</v>
+      </c>
+      <c r="E22" s="37">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14">
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26">
         <v>2007</v>
       </c>
-      <c r="D14">
+      <c r="J26">
         <v>2012</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>2007</v>
+      </c>
+      <c r="D27">
+        <v>2012</v>
+      </c>
+      <c r="F27" t="s">
+        <v>246</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H27" t="s">
+        <v>575</v>
+      </c>
+      <c r="I27" t="s">
+        <v>576</v>
+      </c>
+      <c r="J27" t="s">
+        <v>232</v>
+      </c>
+      <c r="K27" t="s">
+        <v>575</v>
+      </c>
+      <c r="L27" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="C15">
+      <c r="C28" s="82">
         <v>48.2</v>
       </c>
-      <c r="D15">
+      <c r="D28" s="82">
         <v>66.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="F28" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1281</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C16">
+      <c r="C29">
         <v>85</v>
       </c>
-      <c r="D16">
+      <c r="D29">
         <v>91.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="F29" s="37" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J29" s="37" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K29" s="37" t="s">
+        <v>1282</v>
+      </c>
+      <c r="L29" s="37" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F30" s="37" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J30" s="37" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K30" s="37" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L30" s="37" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19">
+      <c r="F31" s="37" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>1274</v>
+      </c>
+      <c r="J31" s="37" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K31" s="37" t="s">
+        <v>1284</v>
+      </c>
+      <c r="L31" s="37" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C32">
         <v>2007</v>
       </c>
-      <c r="D19">
+      <c r="D32">
         <v>2012</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="F32" s="37" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>1285</v>
+      </c>
+      <c r="L32" s="37" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>419</v>
       </c>
-      <c r="C20">
+      <c r="C33">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D20">
+      <c r="D33">
         <v>3.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>420</v>
       </c>
-      <c r="C21">
+      <c r="C34">
         <v>14.8</v>
       </c>
-      <c r="D21">
+      <c r="D34">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>144</v>
       </c>
-      <c r="C22">
+      <c r="C35">
         <v>5.9</v>
       </c>
-      <c r="D22">
+      <c r="D35">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>230</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B38" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C39" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="F39" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" t="s">
+        <v>575</v>
+      </c>
+      <c r="I39" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>155</v>
       </c>
-      <c r="C27">
+      <c r="C40">
         <v>91.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="F40" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C28">
+      <c r="G40" s="37">
+        <v>81.3</v>
+      </c>
+      <c r="H40">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="I40">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41">
         <v>87.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="F41" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C29">
+      <c r="G41" s="37">
+        <v>82.2</v>
+      </c>
+      <c r="H41">
+        <v>76.3</v>
+      </c>
+      <c r="I41">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42">
         <v>96.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="F42" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C30">
+      <c r="G42" s="37">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="H42">
+        <v>63</v>
+      </c>
+      <c r="I42">
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43">
         <v>94.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="F43" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="37">
+        <v>66.8</v>
+      </c>
+      <c r="H43">
+        <v>58.4</v>
+      </c>
+      <c r="I43">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>156</v>
       </c>
-      <c r="C31">
+      <c r="C44">
         <v>93.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="F44" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="37">
+        <v>60.8</v>
+      </c>
+      <c r="H44">
+        <v>53</v>
+      </c>
+      <c r="I44">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>157</v>
       </c>
-      <c r="C32">
+      <c r="C45">
         <v>91.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="F45" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" s="37">
+        <v>57.5</v>
+      </c>
+      <c r="H45">
+        <v>46.7</v>
+      </c>
+      <c r="I45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>144</v>
       </c>
-      <c r="C33">
+      <c r="C46">
         <v>92.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="F46" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="37">
+        <v>66</v>
+      </c>
+      <c r="H46">
+        <v>55.6</v>
+      </c>
+      <c r="I46">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>158</v>
       </c>
-      <c r="C34">
+      <c r="C47">
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="48" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>698</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="37" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>575</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>703</v>
-      </c>
-      <c r="C44">
-        <v>0.52</v>
-      </c>
-      <c r="D44">
-        <v>0.4</v>
-      </c>
-      <c r="E44">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>704</v>
-      </c>
-      <c r="C45">
-        <v>0.42</v>
-      </c>
-      <c r="D45">
-        <v>0.34</v>
-      </c>
-      <c r="E45">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>705</v>
-      </c>
-      <c r="C46">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D46">
-        <v>0.2</v>
-      </c>
-      <c r="E46">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>706</v>
-      </c>
-      <c r="C47">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D47">
-        <v>0.44</v>
-      </c>
-      <c r="E47">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F50" t="s">
-        <v>420</v>
-      </c>
-      <c r="G50" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>472</v>
-      </c>
-      <c r="C51">
-        <v>46.7</v>
-      </c>
-      <c r="D51">
-        <v>6.6</v>
-      </c>
-      <c r="E51">
-        <v>53.3</v>
-      </c>
-      <c r="F51">
-        <v>44.6</v>
-      </c>
-      <c r="G51">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>473</v>
-      </c>
-      <c r="C52">
-        <v>55.5</v>
-      </c>
-      <c r="D52">
-        <v>5.7</v>
-      </c>
-      <c r="E52">
-        <v>61.2</v>
-      </c>
-      <c r="F52">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="G52">
-        <v>0.1</v>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="37" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="37" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>701</v>
+      </c>
+      <c r="C58">
+        <v>0.52</v>
+      </c>
+      <c r="D58">
+        <v>0.4</v>
+      </c>
+      <c r="E58">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>702</v>
+      </c>
+      <c r="C59">
+        <v>0.42</v>
+      </c>
+      <c r="D59">
+        <v>0.34</v>
+      </c>
+      <c r="E59">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>703</v>
+      </c>
+      <c r="C60">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D60">
+        <v>0.2</v>
+      </c>
+      <c r="E60">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>704</v>
+      </c>
+      <c r="C61">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D61">
+        <v>0.44</v>
+      </c>
+      <c r="E61">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F64" t="s">
+        <v>420</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>472</v>
+      </c>
+      <c r="C65">
+        <v>46.7</v>
+      </c>
+      <c r="D65">
+        <v>6.6</v>
+      </c>
+      <c r="E65">
+        <v>53.3</v>
+      </c>
+      <c r="F65">
+        <v>44.6</v>
+      </c>
+      <c r="G65">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>473</v>
+      </c>
+      <c r="C66">
+        <v>55.5</v>
+      </c>
+      <c r="D66">
+        <v>5.7</v>
+      </c>
+      <c r="E66">
+        <v>61.2</v>
+      </c>
+      <c r="F66">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="G66">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>471</v>
       </c>
-      <c r="C53">
+      <c r="C67">
         <v>56.4</v>
       </c>
-      <c r="D53">
+      <c r="D67">
         <v>2.7</v>
       </c>
-      <c r="E53">
+      <c r="E67">
         <v>59.1</v>
       </c>
-      <c r="F53">
+      <c r="F67">
         <v>40</v>
       </c>
-      <c r="G53">
+      <c r="G67">
         <v>0.9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>474</v>
       </c>
-      <c r="C54">
+      <c r="C68">
         <v>42.3</v>
       </c>
-      <c r="D54">
+      <c r="D68">
         <v>24.4</v>
       </c>
-      <c r="E54">
+      <c r="E68">
         <v>66.7</v>
       </c>
-      <c r="F54">
+      <c r="F68">
         <v>32.6</v>
       </c>
-      <c r="G54">
+      <c r="G68">
         <v>0.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -48566,7 +49430,7 @@
         <v>80</v>
       </c>
       <c r="R41" s="21" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="S41" s="21" t="s">
         <v>452</v>
@@ -50250,107 +51114,107 @@
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B93" s="45" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C93" s="47" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D93" s="47" t="s">
         <v>1041</v>
       </c>
-      <c r="C93" s="47" t="s">
+      <c r="E93" s="47" t="s">
         <v>1042</v>
       </c>
-      <c r="D93" s="47" t="s">
+      <c r="F93" s="47" t="s">
         <v>1043</v>
       </c>
-      <c r="E93" s="47" t="s">
+      <c r="G93" s="47" t="s">
         <v>1044</v>
       </c>
-      <c r="F93" s="47" t="s">
+      <c r="H93" s="47" t="s">
         <v>1045</v>
       </c>
-      <c r="G93" s="47" t="s">
+      <c r="I93" s="47" t="s">
         <v>1046</v>
       </c>
-      <c r="H93" s="47" t="s">
+      <c r="J93" s="47" t="s">
         <v>1047</v>
       </c>
-      <c r="I93" s="47" t="s">
+      <c r="K93" s="47" t="s">
         <v>1048</v>
       </c>
-      <c r="J93" s="47" t="s">
+      <c r="L93" s="47" t="s">
         <v>1049</v>
       </c>
-      <c r="K93" s="47" t="s">
+      <c r="M93" s="47" t="s">
         <v>1050</v>
       </c>
-      <c r="L93" s="47" t="s">
+      <c r="N93" s="47" t="s">
         <v>1051</v>
       </c>
-      <c r="M93" s="47" t="s">
+      <c r="O93" s="47" t="s">
         <v>1052</v>
       </c>
-      <c r="N93" s="47" t="s">
+      <c r="P93" s="47" t="s">
         <v>1053</v>
       </c>
-      <c r="O93" s="47" t="s">
+      <c r="Q93" s="47" t="s">
         <v>1054</v>
       </c>
-      <c r="P93" s="47" t="s">
+      <c r="R93" s="47" t="s">
         <v>1055</v>
       </c>
-      <c r="Q93" s="47" t="s">
+      <c r="S93" s="47" t="s">
         <v>1056</v>
       </c>
-      <c r="R93" s="47" t="s">
+      <c r="T93" s="47" t="s">
         <v>1057</v>
       </c>
-      <c r="S93" s="47" t="s">
+      <c r="U93" s="47" t="s">
         <v>1058</v>
       </c>
-      <c r="T93" s="47" t="s">
+      <c r="V93" s="47" t="s">
         <v>1059</v>
       </c>
-      <c r="U93" s="47" t="s">
+      <c r="W93" s="47" t="s">
         <v>1060</v>
       </c>
-      <c r="V93" s="47" t="s">
+      <c r="X93" s="47" t="s">
         <v>1061</v>
       </c>
-      <c r="W93" s="47" t="s">
+      <c r="Y93" s="47" t="s">
         <v>1062</v>
       </c>
-      <c r="X93" s="47" t="s">
+      <c r="Z93" s="47" t="s">
         <v>1063</v>
       </c>
-      <c r="Y93" s="47" t="s">
+      <c r="AA93" s="47" t="s">
         <v>1064</v>
       </c>
-      <c r="Z93" s="47" t="s">
+      <c r="AB93" s="47" t="s">
         <v>1065</v>
       </c>
-      <c r="AA93" s="47" t="s">
+      <c r="AC93" s="47" t="s">
         <v>1066</v>
       </c>
-      <c r="AB93" s="47" t="s">
+      <c r="AD93" s="47" t="s">
         <v>1067</v>
       </c>
-      <c r="AC93" s="47" t="s">
+      <c r="AE93" s="47" t="s">
         <v>1068</v>
       </c>
-      <c r="AD93" s="47" t="s">
+      <c r="AF93" s="47" t="s">
         <v>1069</v>
-      </c>
-      <c r="AE93" s="47" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AF93" s="47" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
@@ -51145,7 +52009,7 @@
     </row>
     <row r="102" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B102" s="37" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
@@ -51163,7 +52027,7 @@
         <v>339</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>452</v>
@@ -51722,15 +52586,15 @@
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H124" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
@@ -52811,10 +53675,10 @@
         <v>158</v>
       </c>
       <c r="F70" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="J70" s="37" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="K70" s="37"/>
       <c r="L70" s="37"/>
@@ -53376,27 +54240,27 @@
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.25">
       <c r="U91" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="AF91" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="92" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="R92" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="U92" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="V92">
         <v>0.5</v>
       </c>
       <c r="W92" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="X92">
         <v>0.4</v>
@@ -53408,23 +54272,23 @@
         <v>0.25</v>
       </c>
       <c r="AA92" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="AB92">
         <v>0.15</v>
       </c>
       <c r="AC92" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="AD92">
         <v>0.15</v>
       </c>
       <c r="AF92" s="37" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="AG92" s="37"/>
       <c r="AH92" s="37" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="AI92" s="37"/>
       <c r="AJ92" s="37">
@@ -53432,11 +54296,11 @@
       </c>
       <c r="AK92" s="37"/>
       <c r="AL92" s="37" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="AM92" s="37"/>
       <c r="AN92" s="37" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="AO92" s="37"/>
       <c r="AP92" s="37"/>
@@ -53451,7 +54315,7 @@
     </row>
     <row r="93" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B93" s="64" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C93" s="64" t="s">
         <v>217</v>
@@ -53461,7 +54325,7 @@
       </c>
       <c r="E93" s="64"/>
       <c r="F93" s="64" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G93" s="64" t="s">
         <v>217</v>
@@ -53490,7 +54354,7 @@
         <v>222</v>
       </c>
       <c r="R93" s="37" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="S93" s="37">
         <v>1.5</v>
@@ -53608,7 +54472,7 @@
         <v>2.1959909520000001E-2</v>
       </c>
       <c r="R94" s="37" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="S94" s="37">
         <v>1.4</v>
@@ -53817,7 +54681,7 @@
         <v>5.2077410999999999E-4</v>
       </c>
       <c r="R96" s="37" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="S96" s="37">
         <v>1.1499999999999999</v>
@@ -53923,7 +54787,7 @@
         <v>8.5921136E-4</v>
       </c>
       <c r="R97" s="37" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="S97" s="37">
         <v>1.1499999999999999</v>
@@ -55199,17 +56063,17 @@
     </row>
     <row r="112" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G112" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="J112" s="37"/>
       <c r="L112" s="37" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="Q112" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="113" spans="2:19" x14ac:dyDescent="0.25">
@@ -55217,45 +56081,45 @@
         <v>217</v>
       </c>
       <c r="C113" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E113" t="s">
         <v>1079</v>
-      </c>
-      <c r="D113" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1081</v>
       </c>
       <c r="G113" s="37" t="s">
         <v>217</v>
       </c>
       <c r="H113" s="37" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J113" s="37" t="s">
         <v>1079</v>
-      </c>
-      <c r="J113" s="37" t="s">
-        <v>1081</v>
       </c>
       <c r="L113" s="37" t="s">
         <v>217</v>
       </c>
       <c r="M113" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="N113" s="37" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="O113" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="Q113" s="37" t="s">
         <v>217</v>
       </c>
       <c r="S113" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="114" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C114">
         <v>0.17136388999999999</v>
@@ -55268,7 +56132,7 @@
         <v>0.103242926</v>
       </c>
       <c r="G114" s="37" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="H114">
         <v>8.5002657999999995E-2</v>
@@ -55281,7 +56145,7 @@
         <v>7.5936050056000001E-2</v>
       </c>
       <c r="L114" s="37" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="M114" s="37">
         <v>7.0362258999999996E-2</v>
@@ -55294,7 +56158,7 @@
         <v>5.8160554439999998E-2</v>
       </c>
       <c r="Q114" s="37" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="R114" s="37">
         <v>3.5942957999999997E-2</v>
@@ -55306,7 +56170,7 @@
     </row>
     <row r="115" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C115">
         <v>3.5121962E-2</v>
@@ -55316,7 +56180,7 @@
         <v>0.5</v>
       </c>
       <c r="G115" s="37" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H115">
         <v>9.4475918000000002E-3</v>
@@ -55326,7 +56190,7 @@
         <v>0.12</v>
       </c>
       <c r="L115" s="37" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="M115" s="37">
         <v>9.3537362000000006E-3</v>
@@ -55336,7 +56200,7 @@
         <v>0.19999999999999996</v>
       </c>
       <c r="Q115" s="37" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="R115" s="37">
         <v>2.6170774999999999E-3</v>
@@ -55349,39 +56213,39 @@
     </row>
     <row r="117" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B117" s="37" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C117" s="37" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D117" s="37" t="s">
         <v>1080</v>
       </c>
-      <c r="C117" s="37" t="s">
+      <c r="E117" t="s">
         <v>1079</v>
       </c>
-      <c r="D117" s="37" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1081</v>
-      </c>
       <c r="G117" s="37" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H117" s="37" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J117" s="37" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L117" s="37" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N117" s="37" t="s">
         <v>1080</v>
       </c>
-      <c r="H117" s="37" t="s">
-        <v>1079</v>
-      </c>
-      <c r="J117" s="37" t="s">
-        <v>1081</v>
-      </c>
-      <c r="L117" s="37" t="s">
-        <v>1080</v>
-      </c>
-      <c r="N117" s="37" t="s">
-        <v>1082</v>
-      </c>
       <c r="Q117" s="37" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="118" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B118" s="37" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C118" s="37">
         <v>0.14335649</v>
@@ -55394,7 +56258,7 @@
         <v>8.7651773500000002E-2</v>
       </c>
       <c r="G118" s="37" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="H118">
         <v>7.0442296000000001E-2</v>
@@ -55408,7 +56272,7 @@
         <v>6.3025760164000008E-2</v>
       </c>
       <c r="L118" s="37" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="M118" s="37">
         <v>6.1459527999999999E-2</v>
@@ -55421,7 +56285,7 @@
         <v>5.073173366E-2</v>
       </c>
       <c r="Q118" s="37" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="R118" s="37">
         <v>2.6885009000000001E-2</v>
@@ -55433,7 +56297,7 @@
     </row>
     <row r="119" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B119" s="37" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C119" s="37">
         <v>3.1947057000000001E-2</v>
@@ -55443,7 +56307,7 @@
         <v>0.5</v>
       </c>
       <c r="G119" s="37" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H119">
         <v>8.6378306999999998E-3</v>
@@ -55453,7 +56317,7 @@
         <v>0.12</v>
       </c>
       <c r="L119" s="37" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="M119" s="37">
         <v>7.8205562999999999E-3</v>
@@ -55463,7 +56327,7 @@
         <v>0.19999999999999996</v>
       </c>
       <c r="Q119" s="37" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="R119" s="37">
         <v>2.2595115999999998E-3</v>
@@ -57419,7 +58283,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -57445,10 +58309,10 @@
         <v>248</v>
       </c>
       <c r="G157" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="H157" s="37" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -57604,12 +58468,12 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -57632,10 +58496,10 @@
         <v>248</v>
       </c>
       <c r="G169" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H169" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -57646,10 +58510,10 @@
         <v>559</v>
       </c>
       <c r="C170" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D170" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E170" s="37" t="s">
         <v>254</v>
@@ -57666,7 +58530,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E171" s="37" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F171" s="40">
         <v>47</v>
@@ -57680,7 +58544,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E172" s="37" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F172" s="40">
         <v>39.1</v>
@@ -57694,7 +58558,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E173" s="37" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F173" s="40">
         <v>23.5</v>
@@ -57722,7 +58586,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E175" s="37" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F175" s="40">
         <v>17.399999999999999</v>
@@ -57736,7 +58600,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E176" s="37" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F176" s="40">
         <v>20</v>
@@ -57764,7 +58628,7 @@
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E178" s="37" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F178" s="40">
         <v>17.399999999999999</v>
@@ -57778,7 +58642,7 @@
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E179" s="37" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F179" s="40">
         <v>32.200000000000003</v>
@@ -57792,7 +58656,7 @@
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E180" s="37" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F180" s="40">
         <v>33</v>
@@ -57806,7 +58670,7 @@
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E181" s="37" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F181" s="40">
         <v>20</v>
@@ -57823,10 +58687,10 @@
         <v>561</v>
       </c>
       <c r="C182" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D182" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E182" s="37" t="s">
         <v>254</v>
@@ -57843,7 +58707,7 @@
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E183" s="37" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F183" s="40">
         <v>27.6</v>
@@ -57857,7 +58721,7 @@
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E184" s="37" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F184" s="40">
         <v>23.8</v>
@@ -57871,7 +58735,7 @@
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E185" s="37" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F185" s="40">
         <v>15.2</v>
@@ -57899,7 +58763,7 @@
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E187" s="37" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F187" s="40">
         <v>12.4</v>
@@ -57913,7 +58777,7 @@
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E188" s="37" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F188" s="40">
         <v>8.6</v>
@@ -57941,7 +58805,7 @@
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E190" s="37" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F190" s="40">
         <v>7.6</v>
@@ -57955,7 +58819,7 @@
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E191" s="37" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F191" s="40">
         <v>17.100000000000001</v>
@@ -57969,7 +58833,7 @@
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E192" s="37" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F192" s="40">
         <v>10.5</v>
@@ -57983,7 +58847,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E193" s="37" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F193" s="40">
         <v>6.7</v>
@@ -57997,13 +58861,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="198" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="37" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -58033,12 +58897,12 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
@@ -58046,15 +58910,15 @@
         <v>74</v>
       </c>
       <c r="D210" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E210" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C211">
         <v>36</v>
@@ -58065,7 +58929,7 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C212">
         <v>67</v>
@@ -58076,7 +58940,7 @@
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C213">
         <v>51</v>
@@ -58087,7 +58951,7 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C214">
         <v>43</v>
@@ -58098,7 +58962,7 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C215">
         <v>52</v>
@@ -58146,35 +59010,35 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C222" s="66" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D222" s="66" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E222" s="66" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="F222" s="66" t="s">
         <v>576</v>
       </c>
       <c r="G222" s="67" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="H222" s="67" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="I222" s="67" t="s">
         <v>575</v>
@@ -58192,24 +59056,24 @@
         <v>576</v>
       </c>
       <c r="N222" s="69" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="O222" s="69" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="P222" s="69" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B223" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C223" s="66" t="s">
         <v>1186</v>
-      </c>
-      <c r="C223" s="66" t="s">
-        <v>1188</v>
       </c>
       <c r="D223" s="66">
         <v>22.2</v>
@@ -58221,7 +59085,7 @@
         <v>29.8</v>
       </c>
       <c r="G223" s="67" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="H223" s="67">
         <v>76.900000000000006</v>
@@ -58245,21 +59109,21 @@
         <v>7.8</v>
       </c>
       <c r="O223" s="69" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="P223" s="69" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B224" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C224" s="66" t="s">
         <v>1190</v>
-      </c>
-      <c r="C224" s="66" t="s">
-        <v>1192</v>
       </c>
       <c r="D224" s="66">
         <v>15.8</v>
@@ -58271,7 +59135,7 @@
         <v>17.7</v>
       </c>
       <c r="G224" s="67" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="H224" s="67">
         <v>25.7</v>
@@ -58296,24 +59160,24 @@
         <v>7.7220077220077217</v>
       </c>
       <c r="O224" s="69" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="P224" s="69">
         <v>2009</v>
       </c>
       <c r="Q224" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B225" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C225" s="66" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D225" s="66">
         <v>38.700000000000003</v>
@@ -58325,7 +59189,7 @@
         <v>41.8</v>
       </c>
       <c r="G225" s="67" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H225" s="67">
         <v>74.099999999999994</v>
@@ -58349,7 +59213,7 @@
         <v>30</v>
       </c>
       <c r="O225" s="69" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="P225" s="69">
         <v>2006</v>
@@ -58357,15 +59221,15 @@
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="M227" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="M228" t="s">
         <v>559</v>
@@ -58385,7 +59249,7 @@
         <v>106</v>
       </c>
       <c r="E229" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F229" t="s">
         <v>575</v>
@@ -58400,10 +59264,10 @@
         <v>106</v>
       </c>
       <c r="K229" s="37" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="M229" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="N229" t="s">
         <v>575</v>
@@ -58412,7 +59276,7 @@
         <v>576</v>
       </c>
       <c r="P229" s="37" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="Q229" s="37" t="s">
         <v>575</v>
@@ -58423,7 +59287,7 @@
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C230">
         <v>9</v>
@@ -58705,7 +59569,7 @@
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C236">
         <v>54</v>
@@ -58752,7 +59616,7 @@
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="I238" s="37" t="s">
         <v>559</v>
@@ -58955,7 +59819,7 @@
     </row>
     <row r="244" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C244">
         <v>189</v>
@@ -59009,7 +59873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
@@ -59404,12 +60268,12 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -59433,7 +60297,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C59" s="18">
         <v>0.13100000000000001</v>
@@ -59455,7 +60319,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C61" s="18">
         <v>0.27400000000000002</v>
@@ -59467,17 +60331,17 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -59490,7 +60354,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C67">
         <v>112</v>
@@ -59886,7 +60750,7 @@
     </row>
     <row r="33" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -60249,30 +61113,30 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="37" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E66" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F66" t="s">
         <v>188</v>
       </c>
       <c r="G66" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -60328,13 +61192,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C70">
         <v>1.2</v>
       </c>
       <c r="E70" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F70">
         <v>11.099999999999994</v>
@@ -60362,7 +61226,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -60548,7 +61412,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -60683,13 +61547,13 @@
         <v>150</v>
       </c>
       <c r="C45" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F45" t="s">
         <v>1167</v>
-      </c>
-      <c r="E45" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -60876,12 +61740,12 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C61" s="37"/>
     </row>
@@ -60999,7 +61863,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C76">
         <v>17.7</v>
@@ -61007,12 +61871,12 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C79">
         <v>20.5</v>
@@ -61020,44 +61884,44 @@
     </row>
     <row r="80" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="37" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C80" s="37">
         <v>32.5</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C84">
         <v>34.5</v>
       </c>
       <c r="D84" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -61070,7 +61934,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C89">
         <v>42.7</v>
@@ -61078,13 +61942,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="37" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -61092,7 +61956,7 @@
         <v>196</v>
       </c>
       <c r="C93" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D93" t="s">
         <v>575</v>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000" tabRatio="641" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8100" tabRatio="835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <sheet name="DALY" sheetId="1" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="1295">
   <si>
     <t>Metric</t>
   </si>
@@ -3777,9 +3776,6 @@
     <t>Excess mortality rates ART+ vs HIV-</t>
   </si>
   <si>
-    <t>Popuation validataion</t>
-  </si>
-  <si>
     <t xml:space="preserve">new risk distribution for 10-19 age groups </t>
   </si>
   <si>
@@ -3927,25 +3923,19 @@
     <t>79.4</t>
   </si>
   <si>
-    <t xml:space="preserve">(15-19), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20-24), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25-29), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(30-39), </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(40-49), </t>
-  </si>
-  <si>
-    <t>(50+)</t>
-  </si>
-  <si>
-    <t>*add 3% non-medical with increase age</t>
+    <t>Popuation validataion, %</t>
+  </si>
+  <si>
+    <t>Popuation validataion, number</t>
+  </si>
+  <si>
+    <t>Popuation validataion (females), number</t>
+  </si>
+  <si>
+    <t>Nyanza with recoded age</t>
+  </si>
+  <si>
+    <t>50+</t>
   </si>
 </sst>
 </file>
@@ -4783,10 +4773,10 @@
     <xf numFmtId="173" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4905,6 +4895,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5712,6 +5703,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6501,6 +6493,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7815,6 +7808,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7896,6 +7890,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8214,6 +8209,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8295,6 +8291,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8786,6 +8783,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9436,7 +9434,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9772,7 +9769,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9879,6 +9875,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10346,6 +10343,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14616,7 +14614,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15214,7 +15211,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15321,7 +15317,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15919,7 +15914,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24852,14 +24846,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26284,16 +26278,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26302,7 +26296,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772275" y="7553325"/>
+          <a:off x="8267700" y="7248525"/>
           <a:ext cx="4857750" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27468,10 +27462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y184"/>
+  <dimension ref="A1:Y194"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="O194" sqref="O194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33877,7 +33871,7 @@
       <c r="F167" s="49"/>
       <c r="G167" s="77"/>
       <c r="H167" s="77" t="s">
-        <v>1241</v>
+        <v>1290</v>
       </c>
       <c r="I167" s="49"/>
       <c r="J167" s="49"/>
@@ -33906,10 +33900,10 @@
         <v>196</v>
       </c>
       <c r="I168" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J168" s="76" t="s">
         <v>1244</v>
-      </c>
-      <c r="J168" s="76" t="s">
-        <v>1245</v>
       </c>
       <c r="K168" s="76" t="s">
         <v>1011</v>
@@ -33924,7 +33918,7 @@
         <v>1152</v>
       </c>
       <c r="O168" s="49" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="P168" s="37"/>
       <c r="Q168" s="16"/>
@@ -34053,7 +34047,7 @@
         <v>3.5690977363141703E-2</v>
       </c>
       <c r="O171" s="37">
-        <f>SUM(G160:H163)/SUM($G$148:$H$163)</f>
+        <f>SUM(G$160:H$163)/SUM($G$148:$H$163)</f>
         <v>3.2620904783850206E-2</v>
       </c>
       <c r="P171" s="50"/>
@@ -34229,75 +34223,588 @@
       <c r="C176">
         <v>63.501959516313946</v>
       </c>
+      <c r="H176" s="77" t="s">
+        <v>1291</v>
+      </c>
       <c r="J176" s="37"/>
       <c r="K176" s="37"/>
       <c r="L176" s="37"/>
     </row>
-    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>79.281505233843589</v>
       </c>
       <c r="C177">
         <v>61.808893525808607</v>
       </c>
-      <c r="J177" s="37"/>
-      <c r="K177" s="37"/>
-      <c r="L177" s="37"/>
-    </row>
-    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H177" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="I177" s="37" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J177" s="76" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K177" s="76" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L177" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="M177" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="N177" s="76" t="s">
+        <v>1152</v>
+      </c>
+      <c r="O177" s="49" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="178" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>76.761204690685659</v>
       </c>
       <c r="C178">
         <v>63.34770383640879</v>
       </c>
-    </row>
-    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H178" s="37">
+        <v>1990</v>
+      </c>
+      <c r="I178" s="40">
+        <f>SUM(C$148:D$149)*1000</f>
+        <v>8410171.9999999981</v>
+      </c>
+      <c r="J178" s="37">
+        <f>SUM(C$150:D$151)*1000</f>
+        <v>5883907.9999999991</v>
+      </c>
+      <c r="K178" s="37">
+        <f>SUM(C$152:D$153)*1000</f>
+        <v>3793958</v>
+      </c>
+      <c r="L178" s="37">
+        <f>SUM(C$154:D$155)*1000</f>
+        <v>2452834</v>
+      </c>
+      <c r="M178" s="37">
+        <f>SUM(C$156:D$157)*1000</f>
+        <v>1335160</v>
+      </c>
+      <c r="N178" s="37">
+        <f>SUM(C$158:D$159)*1000</f>
+        <v>921866.00000000012</v>
+      </c>
+      <c r="O178" s="37">
+        <f>SUM(C$160:D$163)*1000</f>
+        <v>859848</v>
+      </c>
+    </row>
+    <row r="179" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>68.455356551320349</v>
       </c>
       <c r="C179">
         <v>62.295140446760811</v>
       </c>
-    </row>
-    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H179" s="37">
+        <v>1995</v>
+      </c>
+      <c r="I179" s="40">
+        <f>SUM(E148:F149)*1000</f>
+        <v>9132524</v>
+      </c>
+      <c r="J179" s="37">
+        <f>SUM(E150:F151)*1000</f>
+        <v>7082811</v>
+      </c>
+      <c r="K179" s="37">
+        <f>SUM(E152:F153)*1000</f>
+        <v>4725299.9999999991</v>
+      </c>
+      <c r="L179" s="37">
+        <f>SUM(E154:F155)*1000</f>
+        <v>3007442</v>
+      </c>
+      <c r="M179" s="37">
+        <f>SUM(E156:F157)*1000</f>
+        <v>1806029</v>
+      </c>
+      <c r="N179" s="37">
+        <f>SUM(E158:F159)*1000</f>
+        <v>963424.00000000012</v>
+      </c>
+      <c r="O179" s="37">
+        <f>SUM(E160:F163)*1000</f>
+        <v>979899.99999999988</v>
+      </c>
+    </row>
+    <row r="180" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>52.79761793175328</v>
       </c>
       <c r="C180">
         <v>53.896253314179141</v>
       </c>
-    </row>
-    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H180" s="37">
+        <v>2000</v>
+      </c>
+      <c r="I180" s="40">
+        <f>SUM(G148:H149)*1000</f>
+        <v>10138515</v>
+      </c>
+      <c r="J180" s="37">
+        <f>SUM(G150:H151)*1000</f>
+        <v>8135232</v>
+      </c>
+      <c r="K180" s="37">
+        <f>SUM(G152:H153)*1000</f>
+        <v>5695789</v>
+      </c>
+      <c r="L180" s="37">
+        <f>SUM(G154:H155)*1000</f>
+        <v>3555099</v>
+      </c>
+      <c r="M180" s="37">
+        <f>SUM(G156:H157)*1000</f>
+        <v>2187623</v>
+      </c>
+      <c r="N180" s="37">
+        <f>SUM(G158:H159)*1000</f>
+        <v>1138213</v>
+      </c>
+      <c r="O180" s="37">
+        <f>SUM(G160:H163)*1000</f>
+        <v>1040306</v>
+      </c>
+    </row>
+    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>39.426762855575767</v>
       </c>
       <c r="C181">
         <v>45.40045622230565</v>
       </c>
-    </row>
-    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H181" s="37">
+        <v>2005</v>
+      </c>
+      <c r="I181" s="37">
+        <f>SUM(I148:J149)*1000</f>
+        <v>11591705.999999998</v>
+      </c>
+      <c r="J181" s="37">
+        <f>SUM(I150:J151)*1000</f>
+        <v>8800608</v>
+      </c>
+      <c r="K181" s="37">
+        <f>SUM(I152:J153)*1000</f>
+        <v>6779464</v>
+      </c>
+      <c r="L181" s="37">
+        <f>SUM(I154:J155)*1000</f>
+        <v>4276419</v>
+      </c>
+      <c r="M181" s="37">
+        <f>SUM(I156:J157)*1000</f>
+        <v>2556990.0000000005</v>
+      </c>
+      <c r="N181" s="37">
+        <f>SUM(I158:J159)*1000</f>
+        <v>1465971</v>
+      </c>
+      <c r="O181" s="37">
+        <f>SUM(I160:J163)*1000</f>
+        <v>1076132</v>
+      </c>
+    </row>
+    <row r="182" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>27.874793548603069</v>
       </c>
       <c r="C182">
         <v>36.6473892522082</v>
       </c>
-    </row>
-    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H182" s="37">
+        <v>2010</v>
+      </c>
+      <c r="I182" s="37">
+        <f>SUM(K148:L149)*1000</f>
+        <v>12933537</v>
+      </c>
+      <c r="J182" s="37">
+        <f>SUM(K150:L151)*1000</f>
+        <v>9801650</v>
+      </c>
+      <c r="K182" s="37">
+        <f>SUM(K152:L153)*1000</f>
+        <v>7783471</v>
+      </c>
+      <c r="L182" s="37">
+        <f>SUM(K154:L155)*1000</f>
+        <v>5232113</v>
+      </c>
+      <c r="M182" s="37">
+        <f>SUM(K156:L157)*1000</f>
+        <v>3108053</v>
+      </c>
+      <c r="N182" s="37">
+        <f>SUM(K158:L159)*1000</f>
+        <v>1825591.9999999998</v>
+      </c>
+      <c r="O182" s="37">
+        <f>SUM(K160:L163)*1000</f>
+        <v>1258298.0000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>16.552556838385421</v>
       </c>
       <c r="C183">
         <v>25.00566497705227</v>
       </c>
-    </row>
-    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H183" s="16">
+        <v>2015</v>
+      </c>
+      <c r="I183" s="37">
+        <f>SUM(M148:N149)*1000</f>
+        <v>13800195</v>
+      </c>
+      <c r="J183" s="37">
+        <f>SUM(M150:N151)*1000</f>
+        <v>11329273</v>
+      </c>
+      <c r="K183" s="37">
+        <f>SUM(M152:N153)*1000</f>
+        <v>8516002</v>
+      </c>
+      <c r="L183" s="37">
+        <f>SUM(M154:N155)*1000</f>
+        <v>6368037</v>
+      </c>
+      <c r="M183" s="37">
+        <f>SUM(M156:N157)*1000</f>
+        <v>3902127.9999999995</v>
+      </c>
+      <c r="N183" s="37">
+        <f>SUM(M158:N159)*1000</f>
+        <v>2242792</v>
+      </c>
+      <c r="O183" s="37">
+        <f>SUM(M160:N163)*1000</f>
+        <v>1606630</v>
+      </c>
+    </row>
+    <row r="184" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>7.9053693325667238</v>
       </c>
       <c r="C184">
         <v>14.68347255314491</v>
+      </c>
+      <c r="H184">
+        <v>2020</v>
+      </c>
+      <c r="I184" s="40">
+        <f>SUM(O148:P149)*1000</f>
+        <v>14013910</v>
+      </c>
+      <c r="J184" s="37">
+        <f>SUM(O150:P151)*1000</f>
+        <v>12746878.999999998</v>
+      </c>
+      <c r="K184" s="37">
+        <f>SUM(O152:P153)*1000</f>
+        <v>9594274.0000000019</v>
+      </c>
+      <c r="L184" s="37">
+        <f>SUM(O154:P155)*1000</f>
+        <v>7470146.0000000009</v>
+      </c>
+      <c r="M184" s="37">
+        <f>SUM(O156:P157)*1000</f>
+        <v>4903045</v>
+      </c>
+      <c r="N184" s="37">
+        <f>SUM(O158:P159)*1000</f>
+        <v>2805603</v>
+      </c>
+      <c r="O184" s="37">
+        <f>SUM(O160:P163)*1000</f>
+        <v>2093165</v>
+      </c>
+    </row>
+    <row r="185" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H185" s="37"/>
+    </row>
+    <row r="186" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H186" s="77" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I186" s="37"/>
+      <c r="J186" s="37"/>
+      <c r="K186" s="37"/>
+      <c r="L186" s="37"/>
+      <c r="M186" s="37"/>
+      <c r="N186" s="37"/>
+      <c r="O186" s="37"/>
+    </row>
+    <row r="187" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H187" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="I187" s="37" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J187" s="76" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K187" s="76" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L187" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="M187" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="N187" s="76" t="s">
+        <v>1152</v>
+      </c>
+      <c r="O187" s="49" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="188" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H188" s="37">
+        <v>1990</v>
+      </c>
+      <c r="I188" s="40">
+        <f>SUM(D$148:D$149)*1000</f>
+        <v>4178290</v>
+      </c>
+      <c r="J188" s="37">
+        <f>SUM(D$150:D$151)*1000</f>
+        <v>2936779.9999999995</v>
+      </c>
+      <c r="K188" s="37">
+        <f>SUM(D$152:D$153)*1000</f>
+        <v>1909405</v>
+      </c>
+      <c r="L188" s="37">
+        <f>SUM(D$154:D$155)*1000</f>
+        <v>1243790</v>
+      </c>
+      <c r="M188" s="37">
+        <f>SUM(D$156:D$157)*1000</f>
+        <v>681020</v>
+      </c>
+      <c r="N188" s="37">
+        <f>SUM(D$158:D$159)*1000</f>
+        <v>475771</v>
+      </c>
+      <c r="O188" s="37">
+        <f>SUM(D$160:D$163)*1000</f>
+        <v>442472.00000000006</v>
+      </c>
+    </row>
+    <row r="189" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H189" s="37">
+        <v>1995</v>
+      </c>
+      <c r="I189" s="40">
+        <f>SUM(F148:F149)*1000</f>
+        <v>4536942</v>
+      </c>
+      <c r="J189" s="37">
+        <f>SUM(F150:F151)*1000</f>
+        <v>3533253</v>
+      </c>
+      <c r="K189" s="37">
+        <f>SUM(F$152:F$153)*1000</f>
+        <v>2374837</v>
+      </c>
+      <c r="L189" s="37">
+        <f>SUM(F$154:F$155)*1000</f>
+        <v>1524245</v>
+      </c>
+      <c r="M189" s="37">
+        <f>SUM(F$156:F$157)*1000</f>
+        <v>925846</v>
+      </c>
+      <c r="N189" s="37">
+        <f>SUM(F$158:F$159)*1000</f>
+        <v>502592.99999999994</v>
+      </c>
+      <c r="O189" s="37">
+        <f>SUM(F$160:F$163)*1000</f>
+        <v>519803</v>
+      </c>
+    </row>
+    <row r="190" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H190" s="37">
+        <v>2000</v>
+      </c>
+      <c r="I190" s="40">
+        <f>SUM(H148:H149)*1000</f>
+        <v>5035041.9999999991</v>
+      </c>
+      <c r="J190" s="37">
+        <f>SUM(H150:H151)*1000</f>
+        <v>4064173</v>
+      </c>
+      <c r="K190" s="37">
+        <f>SUM(H$152:H$153)*1000</f>
+        <v>2858747</v>
+      </c>
+      <c r="L190" s="37">
+        <f>SUM(H$154:H$155)*1000</f>
+        <v>1796989</v>
+      </c>
+      <c r="M190" s="37">
+        <f>SUM(H$156:H$157)*1000</f>
+        <v>1125431</v>
+      </c>
+      <c r="N190" s="37">
+        <f>SUM(H$158:H$159)*1000</f>
+        <v>599079.99999999988</v>
+      </c>
+      <c r="O190" s="37">
+        <f>SUM(H$160:H$163)*1000</f>
+        <v>573269</v>
+      </c>
+    </row>
+    <row r="191" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H191" s="37">
+        <v>2005</v>
+      </c>
+      <c r="I191" s="37">
+        <f>SUM(J148:J149)*1000</f>
+        <v>5753918</v>
+      </c>
+      <c r="J191" s="37">
+        <f>SUM(J150:J151)*1000</f>
+        <v>4403277</v>
+      </c>
+      <c r="K191" s="37">
+        <f>SUM(J$152:J$153)*1000</f>
+        <v>3401765.9999999995</v>
+      </c>
+      <c r="L191" s="37">
+        <f>SUM(J$154:J$155)*1000</f>
+        <v>2149702</v>
+      </c>
+      <c r="M191" s="37">
+        <f>SUM(J$156:J$157)*1000</f>
+        <v>1308661</v>
+      </c>
+      <c r="N191" s="37">
+        <f>SUM(J$158:J$159)*1000</f>
+        <v>776498</v>
+      </c>
+      <c r="O191" s="37">
+        <f>SUM(J$160:J$163)*1000</f>
+        <v>609055</v>
+      </c>
+    </row>
+    <row r="192" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H192" s="37">
+        <v>2010</v>
+      </c>
+      <c r="I192" s="37">
+        <f>SUM(L148:L149)*1000</f>
+        <v>6409230</v>
+      </c>
+      <c r="J192" s="37">
+        <f>SUM(L150:L151)*1000</f>
+        <v>4896419</v>
+      </c>
+      <c r="K192" s="37">
+        <f>SUM(L$152:L$153)*1000</f>
+        <v>3915921.0000000005</v>
+      </c>
+      <c r="L192" s="37">
+        <f>SUM(L$154:L$155)*1000</f>
+        <v>2632198.9999999995</v>
+      </c>
+      <c r="M192" s="37">
+        <f>SUM(L$156:L$157)*1000</f>
+        <v>1578369.0000000002</v>
+      </c>
+      <c r="N192" s="37">
+        <f>SUM(L$158:L$159)*1000</f>
+        <v>961175.99999999988</v>
+      </c>
+      <c r="O192" s="37">
+        <f>SUM(L$160:L$163)*1000</f>
+        <v>711208</v>
+      </c>
+    </row>
+    <row r="193" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H193" s="16">
+        <v>2015</v>
+      </c>
+      <c r="I193" s="37">
+        <f>SUM(N148:N149)*1000</f>
+        <v>6844365</v>
+      </c>
+      <c r="J193" s="37">
+        <f>SUM(N150:N151)*1000</f>
+        <v>5640273.9999999991</v>
+      </c>
+      <c r="K193" s="37">
+        <f>SUM(N$152:N$153)*1000</f>
+        <v>4281624</v>
+      </c>
+      <c r="L193" s="37">
+        <f>SUM(N$154:N$155)*1000</f>
+        <v>3211029.9999999995</v>
+      </c>
+      <c r="M193" s="37">
+        <f>SUM(N$156:N$157)*1000</f>
+        <v>1975335</v>
+      </c>
+      <c r="N193" s="37">
+        <f>SUM(N$158:N$159)*1000</f>
+        <v>1168672</v>
+      </c>
+      <c r="O193" s="37">
+        <f>SUM(N$160:N$163)*1000</f>
+        <v>900829.00000000012</v>
+      </c>
+    </row>
+    <row r="194" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H194" s="37">
+        <v>2020</v>
+      </c>
+      <c r="I194" s="40">
+        <f>SUM(P148:P149)*1000</f>
+        <v>6947300</v>
+      </c>
+      <c r="J194" s="37">
+        <f>SUM(P150:P151)*1000</f>
+        <v>6329708.0000000009</v>
+      </c>
+      <c r="K194" s="37">
+        <f>SUM(P$152:P$153)*1000</f>
+        <v>4807891</v>
+      </c>
+      <c r="L194" s="37">
+        <f>SUM(P$154:P$155)*1000</f>
+        <v>3773073.0000000005</v>
+      </c>
+      <c r="M194" s="37">
+        <f>SUM(P$156:P$157)*1000</f>
+        <v>2485478</v>
+      </c>
+      <c r="N194" s="37">
+        <f>SUM(P$158:P$159)*1000</f>
+        <v>1449814</v>
+      </c>
+      <c r="O194" s="37">
+        <f>SUM(P$160:P$163)*1000</f>
+        <v>1165381.9999999998</v>
       </c>
     </row>
   </sheetData>
@@ -34360,28 +34867,28 @@
         <v>222</v>
       </c>
       <c r="L3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="M3" t="s">
         <v>1247</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1248</v>
       </c>
       <c r="N3" s="21" t="s">
         <v>217</v>
       </c>
       <c r="O3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="P3" t="s">
         <v>1247</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1248</v>
       </c>
       <c r="Q3" s="21" t="s">
         <v>144</v>
       </c>
       <c r="R3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S3" t="s">
         <v>1247</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -34752,13 +35259,13 @@
         <v>392</v>
       </c>
       <c r="K11" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="L11" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="M11" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="N11" s="8">
         <v>20.7746</v>
@@ -35561,28 +36068,28 @@
         <v>222</v>
       </c>
       <c r="D61" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E61" t="s">
         <v>1247</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1248</v>
       </c>
       <c r="F61" s="21" t="s">
         <v>217</v>
       </c>
       <c r="G61" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H61" t="s">
         <v>1247</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1248</v>
       </c>
       <c r="I61" s="21" t="s">
         <v>144</v>
       </c>
       <c r="J61" t="s">
+        <v>1246</v>
+      </c>
+      <c r="K61" t="s">
         <v>1247</v>
-      </c>
-      <c r="K61" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
@@ -35814,13 +36321,13 @@
         <v>392</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D69" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E69" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F69" s="8">
         <v>15.9094</v>
@@ -35832,7 +36339,7 @@
         <v>28.742100000000001</v>
       </c>
       <c r="I69" s="31" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="J69" s="8">
         <v>3.0767000000000002</v>
@@ -39624,11 +40131,11 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C34" s="81">
+      <c r="C34" s="82">
         <v>2015</v>
       </c>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
       <c r="F34" s="23">
         <v>2015</v>
       </c>
@@ -45330,7 +45837,7 @@
         <v>16.8</v>
       </c>
       <c r="K95" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
@@ -45350,7 +45857,7 @@
         <v>490</v>
       </c>
       <c r="M96" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="N96" t="s">
         <v>492</v>
@@ -47753,7 +48260,7 @@
   <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47771,6 +48278,12 @@
       <c r="B2" t="s">
         <v>231</v>
       </c>
+      <c r="E2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>1293</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -47779,16 +48292,28 @@
       <c r="C3" t="s">
         <v>232</v>
       </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
       <c r="F3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G3" t="s">
+        <v>575</v>
+      </c>
+      <c r="H3" t="s">
+        <v>576</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="G3" t="s">
-        <v>1254</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" t="s">
         <v>575</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>576</v>
       </c>
     </row>
@@ -47799,42 +48324,36 @@
       <c r="C4">
         <v>71.5</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="E4" s="37" t="s">
         <v>137</v>
       </c>
+      <c r="F4" s="7">
+        <v>39.475000000000001</v>
+      </c>
       <c r="G4" s="7">
+        <v>26.379000000000001</v>
+      </c>
+      <c r="H4" s="7">
+        <v>52.570900000000002</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="7">
         <v>39.475000000000001</v>
       </c>
-      <c r="H4" s="7">
+      <c r="L4" s="7">
         <v>26.379000000000001</v>
       </c>
-      <c r="I4" s="7">
+      <c r="M4" s="7">
         <v>52.570900000000002</v>
       </c>
-      <c r="L4" s="7">
-        <v>39.475000000000001</v>
-      </c>
-      <c r="M4" s="7">
-        <v>59.9711</v>
-      </c>
-      <c r="N4" s="7">
-        <v>55.5411</v>
-      </c>
-      <c r="O4" s="7">
-        <v>48.6997</v>
-      </c>
-      <c r="P4" s="7">
-        <v>53.265300000000003</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>42.709699999999998</v>
-      </c>
-      <c r="R4" s="7">
-        <v>42.107599999999998</v>
-      </c>
-      <c r="S4" s="37">
-        <v>39.2258</v>
-      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="37"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -47843,39 +48362,35 @@
       <c r="C5">
         <v>89</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="E5" s="37" t="s">
         <v>138</v>
       </c>
+      <c r="F5" s="7">
+        <v>59.9711</v>
+      </c>
       <c r="G5" s="7">
+        <v>44.379399999999997</v>
+      </c>
+      <c r="H5" s="7">
+        <v>75.562799999999996</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="7">
         <v>59.9711</v>
       </c>
-      <c r="H5" s="7">
+      <c r="L5" s="7">
         <v>44.379399999999997</v>
       </c>
-      <c r="I5" s="7">
+      <c r="M5" s="7">
         <v>75.562799999999996</v>
       </c>
-      <c r="L5" s="37" t="s">
-        <v>1262</v>
-      </c>
-      <c r="M5" s="37" t="s">
-        <v>1263</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>1264</v>
-      </c>
-      <c r="O5" s="37" t="s">
-        <v>1265</v>
-      </c>
-      <c r="P5" s="37" t="s">
-        <v>1266</v>
-      </c>
-      <c r="Q5" s="37">
-        <v>58</v>
-      </c>
-      <c r="R5" s="37">
-        <v>60.1</v>
-      </c>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -47884,16 +48399,28 @@
       <c r="C6">
         <v>88.3</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="E6" s="37" t="s">
         <v>139</v>
       </c>
+      <c r="F6" s="7">
+        <v>55.5411</v>
+      </c>
       <c r="G6" s="7">
+        <v>35.654000000000003</v>
+      </c>
+      <c r="H6" s="7">
+        <v>75.428100000000001</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="7">
         <v>55.5411</v>
       </c>
-      <c r="H6" s="7">
+      <c r="L6" s="7">
         <v>35.654000000000003</v>
       </c>
-      <c r="I6" s="7">
+      <c r="M6" s="7">
         <v>75.428100000000001</v>
       </c>
     </row>
@@ -47904,20 +48431,29 @@
       <c r="C7">
         <v>89.3</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="E7" s="37" t="s">
         <v>140</v>
       </c>
+      <c r="F7" s="7">
+        <v>48.6997</v>
+      </c>
       <c r="G7" s="7">
-        <v>48.6997</v>
+        <v>25.883700000000001</v>
       </c>
       <c r="H7" s="7">
-        <v>25.883700000000001</v>
-      </c>
-      <c r="I7" s="7">
         <v>71.515799999999999</v>
       </c>
+      <c r="J7" s="37" t="s">
+        <v>156</v>
+      </c>
       <c r="K7" s="7">
-        <v>2008</v>
+        <v>51.552999999999997</v>
+      </c>
+      <c r="L7" s="7">
+        <v>35.945500000000003</v>
+      </c>
+      <c r="M7" s="7">
+        <v>67.160600000000002</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -47927,28 +48463,29 @@
       <c r="C8">
         <v>83.7</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="E8" s="37" t="s">
         <v>141</v>
       </c>
+      <c r="F8" s="7">
+        <v>53.265300000000003</v>
+      </c>
       <c r="G8" s="7">
-        <v>53.265300000000003</v>
+        <v>34.495600000000003</v>
       </c>
       <c r="H8" s="7">
-        <v>34.495600000000003</v>
-      </c>
-      <c r="I8" s="7">
         <v>72.034899999999993</v>
       </c>
+      <c r="J8" s="37" t="s">
+        <v>157</v>
+      </c>
       <c r="K8" s="7">
-        <v>2007</v>
-      </c>
-      <c r="L8">
-        <f>L5-12.5</f>
-        <v>34</v>
-      </c>
-      <c r="M8">
-        <f>L5-9.5</f>
-        <v>37</v>
+        <v>42.454099999999997</v>
+      </c>
+      <c r="L8" s="7">
+        <v>27.832100000000001</v>
+      </c>
+      <c r="M8" s="7">
+        <v>57.076099999999997</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -47958,48 +48495,32 @@
       <c r="C9">
         <v>83.7</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="E9" s="37" t="s">
         <v>142</v>
       </c>
+      <c r="F9" s="7">
+        <v>42.709699999999998</v>
+      </c>
       <c r="G9" s="7">
-        <v>42.709699999999998</v>
+        <v>26.007300000000001</v>
       </c>
       <c r="H9" s="7">
-        <v>26.007300000000001</v>
-      </c>
-      <c r="I9" s="7">
         <v>59.412199999999999</v>
       </c>
+      <c r="J9" s="37" t="s">
+        <v>1294</v>
+      </c>
       <c r="K9" s="7">
-        <v>2003</v>
+        <v>39.2258</v>
       </c>
       <c r="L9" s="7">
-        <f>L4-9.5</f>
-        <v>29.975000000000001</v>
+        <v>20.566700000000001</v>
       </c>
       <c r="M9" s="7">
-        <f>M4-12.5</f>
-        <v>47.4711</v>
-      </c>
-      <c r="N9" s="7">
-        <f>N4-15.5</f>
-        <v>40.0411</v>
-      </c>
-      <c r="O9">
-        <f>((O4+P4)/2)-18.5</f>
-        <v>32.482500000000002</v>
-      </c>
-      <c r="P9">
-        <f>((Q4+R4)/2)-21.5</f>
-        <v>20.908649999999994</v>
-      </c>
-      <c r="Q9" s="37">
-        <f>S4-24.5</f>
-        <v>14.7258</v>
-      </c>
-      <c r="S9" t="s">
-        <v>1297</v>
-      </c>
+        <v>57.884900000000002</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -48008,60 +48529,45 @@
       <c r="C10">
         <v>46.4</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="E10" s="37" t="s">
         <v>143</v>
       </c>
+      <c r="F10" s="7">
+        <v>42.107599999999998</v>
+      </c>
       <c r="G10" s="7">
-        <v>42.107599999999998</v>
+        <v>21.632400000000001</v>
       </c>
       <c r="H10" s="7">
-        <v>21.632400000000001</v>
-      </c>
-      <c r="I10" s="7">
         <v>62.582799999999999</v>
       </c>
-      <c r="L10" t="s">
-        <v>1291</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1292</v>
-      </c>
-      <c r="N10" t="s">
-        <v>1293</v>
-      </c>
-      <c r="O10" t="s">
-        <v>1294</v>
-      </c>
-      <c r="P10" t="s">
-        <v>1295</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>1296</v>
-      </c>
     </row>
     <row r="11" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="37" t="s">
+      <c r="E11" s="37" t="s">
         <v>392</v>
       </c>
-      <c r="G11" s="37">
+      <c r="F11" s="37">
         <v>39.2258</v>
       </c>
+      <c r="G11" s="7">
+        <v>20.566700000000001</v>
+      </c>
       <c r="H11" s="7">
-        <v>20.566700000000001</v>
-      </c>
-      <c r="I11" s="7">
         <v>57.884900000000002</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
-        <v>1253</v>
+        <v>1252</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -48077,6 +48583,18 @@
       <c r="E15" s="37" t="s">
         <v>576</v>
       </c>
+      <c r="G15" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="16" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
@@ -48091,6 +48609,18 @@
       <c r="E16" s="37">
         <v>54.8</v>
       </c>
+      <c r="G16" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="7">
+        <v>37.1738</v>
+      </c>
+      <c r="I16" s="7">
+        <v>20.588000000000001</v>
+      </c>
+      <c r="J16" s="7">
+        <v>53.759500000000003</v>
+      </c>
     </row>
     <row r="17" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
@@ -48105,6 +48635,18 @@
       <c r="E17" s="37">
         <v>61.3</v>
       </c>
+      <c r="G17" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="7">
+        <v>46.828499999999998</v>
+      </c>
+      <c r="I17" s="7">
+        <v>32.288699999999999</v>
+      </c>
+      <c r="J17" s="7">
+        <v>61.368200000000002</v>
+      </c>
     </row>
     <row r="18" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
@@ -48119,6 +48661,18 @@
       <c r="E18" s="37">
         <v>54</v>
       </c>
+      <c r="G18" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="7">
+        <v>39.555999999999997</v>
+      </c>
+      <c r="I18" s="7">
+        <v>25.258800000000001</v>
+      </c>
+      <c r="J18" s="7">
+        <v>53.853200000000001</v>
+      </c>
     </row>
     <row r="19" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
@@ -48133,6 +48687,18 @@
       <c r="E19" s="37">
         <v>76.2</v>
       </c>
+      <c r="G19" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="7">
+        <v>55.9163</v>
+      </c>
+      <c r="I19" s="7">
+        <v>37.942700000000002</v>
+      </c>
+      <c r="J19" s="7">
+        <v>73.889899999999997</v>
+      </c>
     </row>
     <row r="20" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
@@ -48147,6 +48713,18 @@
       <c r="E20" s="37">
         <v>72.7</v>
       </c>
+      <c r="G20" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="7">
+        <v>60.321199999999997</v>
+      </c>
+      <c r="I20" s="7">
+        <v>40.520200000000003</v>
+      </c>
+      <c r="J20" s="7">
+        <v>80.122200000000007</v>
+      </c>
     </row>
     <row r="21" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="s">
@@ -48161,6 +48739,18 @@
       <c r="E21" s="37">
         <v>80.099999999999994</v>
       </c>
+      <c r="G21" s="37" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H21" s="7">
+        <v>39.386299999999999</v>
+      </c>
+      <c r="I21" s="7">
+        <v>20.154800000000002</v>
+      </c>
+      <c r="J21" s="7">
+        <v>58.617699999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="s">
@@ -48179,7 +48769,7 @@
     <row r="23" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -48207,7 +48797,7 @@
         <v>246</v>
       </c>
       <c r="G27" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="H27" t="s">
         <v>575</v>
@@ -48226,35 +48816,35 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="82">
+      <c r="C28" s="81">
         <v>48.2</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="81">
         <v>66.3</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
       </c>
       <c r="G28" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H28" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I28" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="J28" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K28" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L28" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -48268,48 +48858,48 @@
         <v>91.2</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F30" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -48317,25 +48907,25 @@
         <v>418</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -48346,28 +48936,28 @@
         <v>2012</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K32" s="37" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>419</v>
       </c>
@@ -48378,7 +48968,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>420</v>
       </c>
@@ -48389,7 +48979,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>144</v>
       </c>
@@ -48400,20 +48990,26 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>230</v>
       </c>
       <c r="B38" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>179</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>80</v>
       </c>
@@ -48432,8 +49028,20 @@
       <c r="I39" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>80</v>
+      </c>
+      <c r="K39" t="s">
+        <v>232</v>
+      </c>
+      <c r="L39" t="s">
+        <v>575</v>
+      </c>
+      <c r="M39" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>155</v>
       </c>
@@ -48452,8 +49060,20 @@
       <c r="I40">
         <v>85.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>137</v>
+      </c>
+      <c r="K40" s="7">
+        <v>81.041499999999999</v>
+      </c>
+      <c r="L40" s="7">
+        <v>76.115799999999993</v>
+      </c>
+      <c r="M40" s="7">
+        <v>85.967299999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>137</v>
       </c>
@@ -48472,8 +49092,20 @@
       <c r="I41">
         <v>86.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="K41" s="7">
+        <v>82.239800000000002</v>
+      </c>
+      <c r="L41" s="7">
+        <v>76.9679</v>
+      </c>
+      <c r="M41" s="7">
+        <v>87.511799999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>138</v>
       </c>
@@ -48492,8 +49124,20 @@
       <c r="I42">
         <v>77.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="K42" s="7">
+        <v>70.877099999999999</v>
+      </c>
+      <c r="L42" s="7">
+        <v>63.5105</v>
+      </c>
+      <c r="M42" s="7">
+        <v>78.243700000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>139</v>
       </c>
@@ -48512,8 +49156,20 @@
       <c r="I43">
         <v>74.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>156</v>
+      </c>
+      <c r="K43" s="7">
+        <v>63.777799999999999</v>
+      </c>
+      <c r="L43" s="7">
+        <v>58.135199999999998</v>
+      </c>
+      <c r="M43" s="7">
+        <v>69.420400000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>156</v>
       </c>
@@ -48532,8 +49188,20 @@
       <c r="I44">
         <v>68.099999999999994</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>157</v>
+      </c>
+      <c r="K44" s="7">
+        <v>61.665799999999997</v>
+      </c>
+      <c r="L44" s="7">
+        <v>53.512</v>
+      </c>
+      <c r="M44" s="7">
+        <v>69.819500000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>157</v>
       </c>
@@ -48552,8 +49220,20 @@
       <c r="I45">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K45" s="7">
+        <v>60.636200000000002</v>
+      </c>
+      <c r="L45" s="7">
+        <v>48.070700000000002</v>
+      </c>
+      <c r="M45" s="7">
+        <v>73.201800000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>144</v>
       </c>
@@ -48573,7 +49253,7 @@
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>158</v>
       </c>
@@ -48581,7 +49261,7 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
         <v>699</v>
@@ -48594,17 +49274,17 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="37" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -48800,8 +49480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG144"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="AE113" sqref="AE113"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52151,7 +52831,7 @@
         <v>182.26900000000001</v>
       </c>
       <c r="D107" s="51">
-        <f t="shared" si="23"/>
+        <f>C107/1000</f>
         <v>0.18226900000000001</v>
       </c>
       <c r="E107" s="20">
@@ -52813,8 +53493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX127"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="8100" tabRatio="835" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="8100" tabRatio="835"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="1333">
   <si>
     <t>Metric</t>
   </si>
@@ -4034,12 +4034,31 @@
   <si>
     <t xml:space="preserve">CI </t>
   </si>
+  <si>
+    <t>40-49, Kenya KNBS</t>
+  </si>
+  <si>
+    <t>40-49, UN Kenya</t>
+  </si>
+  <si>
+    <t>40-49, Nyanza KNBS</t>
+  </si>
+  <si>
+    <t>50+, Kenya KNBS</t>
+  </si>
+  <si>
+    <t>50+, Nyanza KNBS</t>
+  </si>
+  <si>
+    <t>50+, UN Kenya</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="11">
+  <numFmts count="12">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
@@ -4696,7 +4715,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -4757,8 +4776,9 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4874,8 +4894,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="55">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -4903,6 +4924,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="54" builtinId="3"/>
     <cellStyle name="Data" xfId="46"/>
     <cellStyle name="Data 2" xfId="48"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -18946,7 +18968,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$198:$B$201</c:f>
+              <c:f>Population!$B$222:$B$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -19029,7 +19051,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$198:$B$201</c:f>
+              <c:f>Population!$B$222:$B$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -19114,7 +19136,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$198:$B$201</c:f>
+              <c:f>Population!$B$222:$B$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -19197,7 +19219,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$198:$B$201</c:f>
+              <c:f>Population!$B$222:$B$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -19245,8 +19267,91 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Population!$E$221</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40-49, UN Kenya</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Population!$B$222:$B$225</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Population!$E$222:$E$225</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.2283021048104255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6277512085148489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8439021382339202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3947238165336548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-E7F8-4AF0-95D0-AAB85B337E39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Population!$D$197</c:f>
@@ -19276,7 +19381,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$198:$B$201</c:f>
+              <c:f>Population!$B$222:$B$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -19322,7 +19427,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Population!$D$203</c:f>
@@ -19349,7 +19454,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$198:$B$201</c:f>
+              <c:f>Population!$B$222:$B$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -19395,7 +19500,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Population!$D$209</c:f>
@@ -19422,7 +19527,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$198:$B$201</c:f>
+              <c:f>Population!$B$222:$B$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -19468,7 +19573,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
-          <c:order val="7"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>Population!$D$215</c:f>
@@ -19497,7 +19602,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$198:$B$201</c:f>
+              <c:f>Population!$B$222:$B$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -19542,8 +19647,81 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="5"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Population!$D$221</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40-49, Nyanza KNBS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Population!$B$222:$B$225</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Population!$D$222:$D$225</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>5.8398499983747545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4470028204570111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2541443041895848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-E7F8-4AF0-95D0-AAB85B337E39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="8"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
               <c:f>Population!$C$197</c:f>
@@ -19573,7 +19751,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$198:$B$201</c:f>
+              <c:f>Population!$B$222:$B$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -19622,7 +19800,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="9"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
               <c:f>Population!$C$203</c:f>
@@ -19649,7 +19827,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$198:$B$201</c:f>
+              <c:f>Population!$B$222:$B$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -19698,7 +19876,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="10"/>
+          <c:order val="12"/>
           <c:tx>
             <c:strRef>
               <c:f>Population!$C$209</c:f>
@@ -19725,7 +19903,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$198:$B$201</c:f>
+              <c:f>Population!$B$222:$B$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -19774,7 +19952,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="11"/>
+          <c:order val="13"/>
           <c:tx>
             <c:strRef>
               <c:f>Population!$C$215</c:f>
@@ -19802,7 +19980,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Population!$B$198:$B$201</c:f>
+              <c:f>Population!$B$222:$B$225</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -19846,6 +20024,81 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-E7F8-4AF0-95D0-AAB85B337E39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Population!$C$221</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40-49, Kenya KNBS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Population!$B$222:$B$225</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Population!$C$222:$C$225</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.3804945306367493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.093696050427269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5252004462106949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1196764929132392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-E7F8-4AF0-95D0-AAB85B337E39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -32072,16 +32325,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>528636</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>290511</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>173830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34626,15 +34879,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y219"/>
+  <dimension ref="A1:Y231"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="I178" sqref="I178"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -36864,6 +37117,10 @@
       <c r="D53" s="4">
         <v>10942705</v>
       </c>
+      <c r="E53">
+        <f>C53/D53</f>
+        <v>0.19392325754920745</v>
+      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B54">
@@ -36890,6 +37147,10 @@
       <c r="D55" s="4">
         <v>21448774</v>
       </c>
+      <c r="E55" s="37">
+        <f t="shared" ref="E55:E57" si="17">C55/D55</f>
+        <v>0.1635133084995907</v>
+      </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B56">
@@ -36901,6 +37162,25 @@
       <c r="D56" s="4">
         <v>28686607</v>
       </c>
+      <c r="E56" s="37">
+        <f t="shared" si="17"/>
+        <v>0.15310963753921822</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>2009</v>
+      </c>
+      <c r="C57" s="83">
+        <v>5442711</v>
+      </c>
+      <c r="D57">
+        <v>38610097</v>
+      </c>
+      <c r="E57" s="37">
+        <f t="shared" si="17"/>
+        <v>0.1409660017171156</v>
+      </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -37031,7 +37311,7 @@
         <v>355120</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:E85" si="17">SUM(C67:D67)</f>
+        <f t="shared" ref="E67:E85" si="18">SUM(C67:D67)</f>
         <v>707582</v>
       </c>
       <c r="G67" t="s">
@@ -37047,7 +37327,7 @@
         <v>4534902</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L83" si="18">C67/E$85*100</f>
+        <f t="shared" ref="L67:L83" si="19">C67/E$85*100</f>
         <v>8.0247329581831046</v>
       </c>
       <c r="M67">
@@ -37082,7 +37362,7 @@
         <v>310927</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>619950</v>
       </c>
       <c r="G68" s="15" t="s">
@@ -37099,27 +37379,27 @@
       </c>
       <c r="K68" s="4"/>
       <c r="L68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.0357288244877951</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68:M83" si="19">D68/E$85*100</f>
+        <f t="shared" ref="M68:M83" si="20">D68/E$85*100</f>
         <v>7.0790784382117735</v>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68:O83" si="20">H68/J$85*100</f>
+        <f t="shared" ref="O68:O83" si="21">H68/J$85*100</f>
         <v>6.8415115387296943</v>
       </c>
       <c r="P68">
-        <f t="shared" ref="P68:P83" si="21">I68/J$85*100</f>
+        <f t="shared" ref="P68:P83" si="22">I68/J$85*100</f>
         <v>6.9740640033465802</v>
       </c>
       <c r="R68" s="7">
-        <f t="shared" ref="R68:R83" si="22">C68/H68*100</f>
+        <f t="shared" ref="R68:R83" si="23">C68/H68*100</f>
         <v>15.745945593399627</v>
       </c>
       <c r="S68" s="7">
-        <f t="shared" ref="S68:S83" si="23">D68/I68*100</f>
+        <f t="shared" ref="S68:S83" si="24">D68/I68*100</f>
         <v>15.541842865568986</v>
       </c>
     </row>
@@ -37134,7 +37414,7 @@
         <v>344306</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>681321</v>
       </c>
       <c r="G69" s="15" t="s">
@@ -37151,27 +37431,27 @@
         <v>4038635</v>
       </c>
       <c r="L69">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.673041002723922</v>
       </c>
       <c r="M69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.8390399699831246</v>
       </c>
       <c r="O69">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.9847835180924491</v>
       </c>
       <c r="P69">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.0939831276580909</v>
       </c>
       <c r="R69" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>16.820011429113297</v>
       </c>
       <c r="S69" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16.919380043047106</v>
       </c>
     </row>
@@ -37186,7 +37466,7 @@
         <v>275864</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>556971</v>
       </c>
       <c r="G70" t="s">
@@ -37199,31 +37479,31 @@
         <v>1681984</v>
       </c>
       <c r="J70" s="4">
-        <f t="shared" ref="J70:J85" si="24">SUM(H70:I70)</f>
+        <f t="shared" ref="J70:J85" si="25">SUM(H70:I70)</f>
         <v>3403178</v>
       </c>
       <c r="L70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.4001469879759467</v>
       </c>
       <c r="M70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.2807761766551398</v>
       </c>
       <c r="O70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.0001185247158899</v>
       </c>
       <c r="P70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.8634316391271</v>
       </c>
       <c r="R70" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>16.332092721680418</v>
       </c>
       <c r="S70" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16.401107263802746</v>
       </c>
     </row>
@@ -37238,7 +37518,7 @@
         <v>176491</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>401114</v>
       </c>
       <c r="G71" t="s">
@@ -37251,31 +37531,31 @@
         <v>1328529</v>
       </c>
       <c r="J71" s="4">
+        <f t="shared" si="25"/>
+        <v>2832918</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="19"/>
+        <v>5.1141388043702971</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="20"/>
+        <v>4.0182860692009195</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="21"/>
+        <v>5.2443317297636485</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="22"/>
+        <v>4.6312800669316045</v>
+      </c>
+      <c r="R71" s="7">
+        <f t="shared" si="23"/>
+        <v>14.93117803972244</v>
+      </c>
+      <c r="S71" s="7">
         <f t="shared" si="24"/>
-        <v>2832918</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="18"/>
-        <v>5.1141388043702971</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="19"/>
-        <v>4.0182860692009195</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="20"/>
-        <v>5.2443317297636485</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="21"/>
-        <v>4.6312800669316045</v>
-      </c>
-      <c r="R71" s="7">
-        <f t="shared" si="22"/>
-        <v>14.93117803972244</v>
-      </c>
-      <c r="S71" s="7">
-        <f t="shared" si="23"/>
         <v>13.284693070305579</v>
       </c>
     </row>
@@ -37290,7 +37570,7 @@
         <v>127695</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>290493</v>
       </c>
       <c r="G72" t="s">
@@ -37303,31 +37583,31 @@
         <v>1094909</v>
       </c>
       <c r="J72" s="4">
+        <f t="shared" si="25"/>
+        <v>2259503</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="19"/>
+        <v>3.706528579325695</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="20"/>
+        <v>2.9073156115983894</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="21"/>
+        <v>4.0597992051871996</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="22"/>
+        <v>3.8168758279300006</v>
+      </c>
+      <c r="R72" s="7">
+        <f t="shared" si="23"/>
+        <v>13.978948886908228</v>
+      </c>
+      <c r="S72" s="7">
         <f t="shared" si="24"/>
-        <v>2259503</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="18"/>
-        <v>3.706528579325695</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="19"/>
-        <v>2.9073156115983894</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="20"/>
-        <v>4.0597992051871996</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="21"/>
-        <v>3.8168758279300006</v>
-      </c>
-      <c r="R72" s="7">
-        <f t="shared" si="22"/>
-        <v>13.978948886908228</v>
-      </c>
-      <c r="S72" s="7">
-        <f t="shared" si="23"/>
         <v>11.662613057340838</v>
       </c>
     </row>
@@ -37342,7 +37622,7 @@
         <v>100423</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>223560</v>
       </c>
       <c r="G73" t="s">
@@ -37355,31 +37635,31 @@
         <v>840692</v>
       </c>
       <c r="J73" s="4">
+        <f t="shared" si="25"/>
+        <v>1685922</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="19"/>
+        <v>2.8035406434503378</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="20"/>
+        <v>2.2863961444343559</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="21"/>
+        <v>2.946489576797044</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="22"/>
+        <v>2.9306700132468801</v>
+      </c>
+      <c r="R73" s="7">
+        <f t="shared" si="23"/>
+        <v>14.56846065567952</v>
+      </c>
+      <c r="S73" s="7">
         <f t="shared" si="24"/>
-        <v>1685922</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="18"/>
-        <v>2.8035406434503378</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="19"/>
-        <v>2.2863961444343559</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="20"/>
-        <v>2.946489576797044</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="21"/>
-        <v>2.9306700132468801</v>
-      </c>
-      <c r="R73" s="7">
-        <f t="shared" si="22"/>
-        <v>14.56846065567952</v>
-      </c>
-      <c r="S73" s="7">
-        <f t="shared" si="23"/>
         <v>11.945278413497453</v>
       </c>
     </row>
@@ -37394,7 +37674,7 @@
         <v>90340</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>203842</v>
       </c>
       <c r="G74" t="s">
@@ -37407,31 +37687,31 @@
         <v>695263</v>
       </c>
       <c r="J74" s="4">
+        <f t="shared" si="25"/>
+        <v>1419012</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="19"/>
+        <v>2.5841742945897677</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="20"/>
+        <v>2.0568298864622614</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="21"/>
+        <v>2.5230042529456878</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="22"/>
+        <v>2.4237014571568012</v>
+      </c>
+      <c r="R74" s="7">
+        <f t="shared" si="23"/>
+        <v>15.682508715037949</v>
+      </c>
+      <c r="S74" s="7">
         <f t="shared" si="24"/>
-        <v>1419012</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="18"/>
-        <v>2.5841742945897677</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="19"/>
-        <v>2.0568298864622614</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="20"/>
-        <v>2.5230042529456878</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="21"/>
-        <v>2.4237014571568012</v>
-      </c>
-      <c r="R74" s="7">
-        <f t="shared" si="22"/>
-        <v>15.682508715037949</v>
-      </c>
-      <c r="S74" s="7">
-        <f t="shared" si="23"/>
         <v>12.993644131788978</v>
       </c>
     </row>
@@ -37446,7 +37726,7 @@
         <v>70808</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>155000</v>
       </c>
       <c r="G75" t="s">
@@ -37459,31 +37739,31 @@
         <v>516502</v>
       </c>
       <c r="J75" s="4">
+        <f t="shared" si="25"/>
+        <v>1033491</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="19"/>
+        <v>1.916854348030006</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="20"/>
+        <v>1.6121320633232215</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="21"/>
+        <v>1.8022345394966186</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="22"/>
+        <v>1.8005368472425576</v>
+      </c>
+      <c r="R75" s="7">
+        <f t="shared" si="23"/>
+        <v>16.285066026549888</v>
+      </c>
+      <c r="S75" s="7">
         <f t="shared" si="24"/>
-        <v>1033491</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="18"/>
-        <v>1.916854348030006</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="19"/>
-        <v>1.6121320633232215</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="20"/>
-        <v>1.8022345394966186</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="21"/>
-        <v>1.8005368472425576</v>
-      </c>
-      <c r="R75" s="7">
-        <f t="shared" si="22"/>
-        <v>16.285066026549888</v>
-      </c>
-      <c r="S75" s="7">
-        <f t="shared" si="23"/>
         <v>13.709143430228732</v>
       </c>
     </row>
@@ -37498,7 +37778,7 @@
         <v>58367</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>128165</v>
       </c>
       <c r="G76" t="s">
@@ -37511,31 +37791,31 @@
         <v>419341</v>
       </c>
       <c r="J76" s="4">
+        <f t="shared" si="25"/>
+        <v>838328</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="19"/>
+        <v>1.5891367325137584</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="20"/>
+        <v>1.3288796765900246</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="21"/>
+        <v>1.4605975040089243</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="22"/>
+        <v>1.4618315554625949</v>
+      </c>
+      <c r="R76" s="7">
+        <f t="shared" si="23"/>
+        <v>16.658750748829913</v>
+      </c>
+      <c r="S76" s="7">
         <f t="shared" si="24"/>
-        <v>838328</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="18"/>
-        <v>1.5891367325137584</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="19"/>
-        <v>1.3288796765900246</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="20"/>
-        <v>1.4605975040089243</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="21"/>
-        <v>1.4618315554625949</v>
-      </c>
-      <c r="R76" s="7">
-        <f t="shared" si="22"/>
-        <v>16.658750748829913</v>
-      </c>
-      <c r="S76" s="7">
-        <f t="shared" si="23"/>
         <v>13.918743933934435</v>
       </c>
     </row>
@@ -37550,7 +37830,7 @@
         <v>48982</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>103822</v>
       </c>
       <c r="G77" t="s">
@@ -37563,31 +37843,31 @@
         <v>344639</v>
       </c>
       <c r="J77" s="4">
+        <f t="shared" si="25"/>
+        <v>684806</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="19"/>
+        <v>1.2485781599910386</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="20"/>
+        <v>1.1152052412961533</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="21"/>
+        <v>1.1858293244091194</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="22"/>
+        <v>1.201418810569616</v>
+      </c>
+      <c r="R77" s="7">
+        <f t="shared" si="23"/>
+        <v>16.121493266542611</v>
+      </c>
+      <c r="S77" s="7">
         <f t="shared" si="24"/>
-        <v>684806</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="18"/>
-        <v>1.2485781599910386</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="19"/>
-        <v>1.1152052412961533</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="20"/>
-        <v>1.1858293244091194</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="21"/>
-        <v>1.201418810569616</v>
-      </c>
-      <c r="R77" s="7">
-        <f t="shared" si="22"/>
-        <v>16.121493266542611</v>
-      </c>
-      <c r="S77" s="7">
-        <f t="shared" si="23"/>
         <v>14.212552845151013</v>
       </c>
     </row>
@@ -37602,7 +37882,7 @@
         <v>33143</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>73250</v>
       </c>
       <c r="G78" t="s">
@@ -37615,31 +37895,31 @@
         <v>223591</v>
       </c>
       <c r="J78" s="4">
+        <f t="shared" si="25"/>
+        <v>459916</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="19"/>
+        <v>0.91314230967834764</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="20"/>
+        <v>0.75458836536438723</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="21"/>
+        <v>0.82383392595691274</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="22"/>
+        <v>0.77944293383532037</v>
+      </c>
+      <c r="R78" s="7">
+        <f t="shared" si="23"/>
+        <v>16.97112027927642</v>
+      </c>
+      <c r="S78" s="7">
         <f t="shared" si="24"/>
-        <v>459916</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="18"/>
-        <v>0.91314230967834764</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="19"/>
-        <v>0.75458836536438723</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="20"/>
-        <v>0.82383392595691274</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="21"/>
-        <v>0.77944293383532037</v>
-      </c>
-      <c r="R78" s="7">
-        <f t="shared" si="22"/>
-        <v>16.97112027927642</v>
-      </c>
-      <c r="S78" s="7">
-        <f t="shared" si="23"/>
         <v>14.823047439297646</v>
       </c>
     </row>
@@ -37654,7 +37934,7 @@
         <v>30966</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>70173</v>
       </c>
       <c r="G79" t="s">
@@ -37667,31 +37947,31 @@
         <v>194513</v>
       </c>
       <c r="J79" s="4">
+        <f t="shared" si="25"/>
+        <v>409228</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="19"/>
+        <v>0.89265142083823212</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="20"/>
+        <v>0.70502318202557446</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="21"/>
+        <v>0.7485010109461061</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="22"/>
+        <v>0.67807641358153803</v>
+      </c>
+      <c r="R79" s="7">
+        <f t="shared" si="23"/>
+        <v>18.260019095079524</v>
+      </c>
+      <c r="S79" s="7">
         <f t="shared" si="24"/>
-        <v>409228</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="18"/>
-        <v>0.89265142083823212</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="19"/>
-        <v>0.70502318202557446</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="20"/>
-        <v>0.7485010109461061</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="21"/>
-        <v>0.67807641358153803</v>
-      </c>
-      <c r="R79" s="7">
-        <f t="shared" si="22"/>
-        <v>18.260019095079524</v>
-      </c>
-      <c r="S79" s="7">
-        <f t="shared" si="23"/>
         <v>15.919758576547583</v>
       </c>
     </row>
@@ -37706,7 +37986,7 @@
         <v>25395</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>58795</v>
       </c>
       <c r="G80" t="s">
@@ -37719,31 +37999,31 @@
         <v>140969</v>
       </c>
       <c r="J80" s="4">
+        <f t="shared" si="25"/>
+        <v>301333</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="19"/>
+        <v>0.76043965251095347</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="20"/>
+        <v>0.57818458010525942</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="21"/>
+        <v>0.55903228055497456</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="22"/>
+        <v>0.49142090218224921</v>
+      </c>
+      <c r="R80" s="7">
+        <f t="shared" si="23"/>
+        <v>20.827617170936119</v>
+      </c>
+      <c r="S80" s="7">
         <f t="shared" si="24"/>
-        <v>301333</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="18"/>
-        <v>0.76043965251095347</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="19"/>
-        <v>0.57818458010525942</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="20"/>
-        <v>0.55903228055497456</v>
-      </c>
-      <c r="P80">
-        <f t="shared" si="21"/>
-        <v>0.49142090218224921</v>
-      </c>
-      <c r="R80" s="7">
-        <f t="shared" si="22"/>
-        <v>20.827617170936119</v>
-      </c>
-      <c r="S80" s="7">
-        <f t="shared" si="23"/>
         <v>18.014598954380041</v>
       </c>
     </row>
@@ -37758,7 +38038,7 @@
         <v>18984</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>41667</v>
       </c>
       <c r="G81" t="s">
@@ -37771,31 +38051,31 @@
         <v>118601</v>
       </c>
       <c r="J81" s="4">
+        <f t="shared" si="25"/>
+        <v>254125</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="19"/>
+        <v>0.51643870173371131</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="20"/>
+        <v>0.4322211486008366</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="21"/>
+        <v>0.47243951753468588</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="22"/>
+        <v>0.41344558321132258</v>
+      </c>
+      <c r="R81" s="7">
+        <f t="shared" si="23"/>
+        <v>16.737256869631949</v>
+      </c>
+      <c r="S81" s="7">
         <f t="shared" si="24"/>
-        <v>254125</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="18"/>
-        <v>0.51643870173371131</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="19"/>
-        <v>0.4322211486008366</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="20"/>
-        <v>0.47243951753468588</v>
-      </c>
-      <c r="P81">
-        <f t="shared" si="21"/>
-        <v>0.41344558321132258</v>
-      </c>
-      <c r="R81" s="7">
-        <f t="shared" si="22"/>
-        <v>16.737256869631949</v>
-      </c>
-      <c r="S81" s="7">
-        <f t="shared" si="23"/>
         <v>16.006610399575045</v>
       </c>
     </row>
@@ -37810,7 +38090,7 @@
         <v>12388</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>25810</v>
       </c>
       <c r="G82" t="s">
@@ -37823,31 +38103,31 @@
         <v>79166</v>
       </c>
       <c r="J82" s="4">
+        <f t="shared" si="25"/>
+        <v>160786</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="19"/>
+        <v>0.30558745556892269</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="20"/>
+        <v>0.28204570105705667</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="21"/>
+        <v>0.28452903855539291</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="22"/>
+        <v>0.27597434288503103</v>
+      </c>
+      <c r="R82" s="7">
+        <f t="shared" si="23"/>
+        <v>16.444498897329083</v>
+      </c>
+      <c r="S82" s="7">
         <f t="shared" si="24"/>
-        <v>160786</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="18"/>
-        <v>0.30558745556892269</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="19"/>
-        <v>0.28204570105705667</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="20"/>
-        <v>0.28452903855539291</v>
-      </c>
-      <c r="P82">
-        <f t="shared" si="21"/>
-        <v>0.27597434288503103</v>
-      </c>
-      <c r="R82" s="7">
-        <f t="shared" si="22"/>
-        <v>16.444498897329083</v>
-      </c>
-      <c r="S82" s="7">
-        <f t="shared" si="23"/>
         <v>15.648131773741254</v>
       </c>
     </row>
@@ -37862,7 +38142,7 @@
         <v>12850</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>27581</v>
       </c>
       <c r="G83" t="s">
@@ -37875,31 +38155,31 @@
         <v>95300</v>
       </c>
       <c r="J83" s="4">
+        <f t="shared" si="25"/>
+        <v>216338</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="19"/>
+        <v>0.33539031500415739</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="20"/>
+        <v>0.29256435732831598</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="21"/>
+        <v>0.42194101652373983</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="22"/>
+        <v>0.33221780659555183</v>
+      </c>
+      <c r="R83" s="7">
+        <f t="shared" si="23"/>
+        <v>12.170558006576448</v>
+      </c>
+      <c r="S83" s="7">
         <f t="shared" si="24"/>
-        <v>216338</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="18"/>
-        <v>0.33539031500415739</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="19"/>
-        <v>0.29256435732831598</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="20"/>
-        <v>0.42194101652373983</v>
-      </c>
-      <c r="P83">
-        <f t="shared" si="21"/>
-        <v>0.33221780659555183</v>
-      </c>
-      <c r="R83" s="7">
-        <f t="shared" si="22"/>
-        <v>12.170558006576448</v>
-      </c>
-      <c r="S83" s="7">
-        <f t="shared" si="23"/>
         <v>13.483735571878281</v>
       </c>
     </row>
@@ -37914,7 +38194,7 @@
         <v>11257</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>23100</v>
       </c>
       <c r="G84" t="s">
@@ -37927,7 +38207,7 @@
         <v>103487</v>
       </c>
       <c r="J84" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>190443</v>
       </c>
     </row>
@@ -37944,7 +38224,7 @@
         <v>2104306</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4392196</v>
       </c>
       <c r="G85" t="s">
@@ -37959,7 +38239,7 @@
         <v>14204982</v>
       </c>
       <c r="J85" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>28686000</v>
       </c>
     </row>
@@ -38046,7 +38326,7 @@
         <v>475717</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" ref="E91:E109" si="25">SUM(C91:D91)</f>
+        <f t="shared" ref="E91:E109" si="26">SUM(C91:D91)</f>
         <v>947849</v>
       </c>
       <c r="G91" t="s">
@@ -38071,7 +38351,7 @@
         <v>-7.771125257727272</v>
       </c>
       <c r="N91" s="8">
-        <f t="shared" ref="N91:N107" si="26">C91/E$109*100</f>
+        <f t="shared" ref="N91:N107" si="27">C91/E$109*100</f>
         <v>8.6745741230794735</v>
       </c>
       <c r="O91" s="8">
@@ -38098,7 +38378,7 @@
         <v>407362</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>814940</v>
       </c>
       <c r="G92" s="15" t="s">
@@ -38111,31 +38391,31 @@
         <v>2832669</v>
       </c>
       <c r="J92" s="4">
-        <f t="shared" ref="J92:J109" si="27">SUM(H92:I92)</f>
+        <f t="shared" ref="J92:J109" si="28">SUM(H92:I92)</f>
         <v>5597716</v>
       </c>
       <c r="L92" s="4">
-        <f t="shared" ref="L92:L106" si="28">H92/J$109*100</f>
+        <f t="shared" ref="L92:L106" si="29">H92/J$109*100</f>
         <v>7.1614608997226812</v>
       </c>
       <c r="M92" s="4">
-        <f t="shared" ref="M92:M107" si="29">-(I92/J$109)*100</f>
+        <f t="shared" ref="M92:M107" si="30">-(I92/J$109)*100</f>
         <v>-7.3366016148573783</v>
       </c>
       <c r="N92" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.4885107807487845</v>
       </c>
       <c r="O92" s="8">
-        <f t="shared" ref="O92:O107" si="30">-(D92/E$109)*100</f>
+        <f t="shared" ref="O92:O107" si="31">-(D92/E$109)*100</f>
         <v>-7.4845421702530226</v>
       </c>
       <c r="Q92" s="7">
-        <f t="shared" ref="Q92:Q107" si="31">C92/H92*100</f>
+        <f t="shared" ref="Q92:Q107" si="32">C92/H92*100</f>
         <v>14.740364268672469</v>
       </c>
       <c r="R92" s="7">
-        <f t="shared" ref="R92:R107" si="32">D92/I92*100</f>
+        <f t="shared" ref="R92:R107" si="33">D92/I92*100</f>
         <v>14.380854240294225</v>
       </c>
     </row>
@@ -38150,7 +38430,7 @@
         <v>370855</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>736716</v>
       </c>
       <c r="G93" s="15" t="s">
@@ -38163,31 +38443,31 @@
         <v>2565313</v>
       </c>
       <c r="J93" s="4">
+        <f t="shared" si="28"/>
+        <v>5034855</v>
+      </c>
+      <c r="L93" s="4">
+        <f t="shared" si="29"/>
+        <v>6.3961041071717588</v>
+      </c>
+      <c r="M93" s="4">
+        <f t="shared" si="30"/>
+        <v>-6.6441506220510149</v>
+      </c>
+      <c r="N93" s="8">
         <f t="shared" si="27"/>
-        <v>5034855</v>
-      </c>
-      <c r="L93" s="4">
-        <f t="shared" si="28"/>
-        <v>6.3961041071717588</v>
-      </c>
-      <c r="M93" s="4">
-        <f t="shared" si="29"/>
-        <v>-6.6441506220510149</v>
-      </c>
-      <c r="N93" s="8">
-        <f t="shared" si="26"/>
         <v>6.7220361323612448</v>
       </c>
       <c r="O93" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-6.8137918768790033</v>
       </c>
       <c r="Q93" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>14.814933295323588</v>
       </c>
       <c r="R93" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>14.456520510362672</v>
       </c>
     </row>
@@ -38202,7 +38482,7 @@
         <v>316129</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>629797</v>
       </c>
       <c r="G94" t="s">
@@ -38215,31 +38495,31 @@
         <v>2123653</v>
       </c>
       <c r="J94" s="4">
+        <f t="shared" si="28"/>
+        <v>4169543</v>
+      </c>
+      <c r="L94" s="4">
+        <f t="shared" si="29"/>
+        <v>5.2988470865535504</v>
+      </c>
+      <c r="M94" s="4">
+        <f t="shared" si="30"/>
+        <v>-5.500252951967461</v>
+      </c>
+      <c r="N94" s="8">
         <f t="shared" si="27"/>
-        <v>4169543</v>
-      </c>
-      <c r="L94" s="4">
-        <f t="shared" si="28"/>
-        <v>5.2988470865535504</v>
-      </c>
-      <c r="M94" s="4">
-        <f t="shared" si="29"/>
-        <v>-5.500252951967461</v>
-      </c>
-      <c r="N94" s="8">
-        <f t="shared" si="26"/>
         <v>5.7630838749292401</v>
       </c>
       <c r="O94" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-5.8083003121054935</v>
       </c>
       <c r="Q94" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>15.331616069290138</v>
       </c>
       <c r="R94" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>14.886094856363069</v>
       </c>
     </row>
@@ -38254,7 +38534,7 @@
         <v>227933</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>522624</v>
       </c>
       <c r="G95" t="s">
@@ -38267,31 +38547,31 @@
         <v>1754105</v>
       </c>
       <c r="J95" s="4">
+        <f t="shared" si="28"/>
+        <v>3775103</v>
+      </c>
+      <c r="L95" s="4">
+        <f t="shared" si="29"/>
+        <v>5.2343769040518078</v>
+      </c>
+      <c r="M95" s="4">
+        <f t="shared" si="30"/>
+        <v>-4.5431250794319418</v>
+      </c>
+      <c r="N95" s="8">
         <f t="shared" si="27"/>
-        <v>3775103</v>
-      </c>
-      <c r="L95" s="4">
-        <f t="shared" si="28"/>
-        <v>5.2343769040518078</v>
-      </c>
-      <c r="M95" s="4">
-        <f t="shared" si="29"/>
-        <v>-4.5431250794319418</v>
-      </c>
-      <c r="N95" s="8">
-        <f t="shared" si="26"/>
         <v>5.4144157204011014</v>
       </c>
       <c r="O95" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-4.187857852456248</v>
       </c>
       <c r="Q95" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>14.581459259237267</v>
       </c>
       <c r="R95" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>12.994262031064274</v>
       </c>
     </row>
@@ -38306,7 +38586,7 @@
         <v>183083</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>398538</v>
       </c>
       <c r="G96" t="s">
@@ -38319,31 +38599,31 @@
         <v>1529116</v>
       </c>
       <c r="J96" s="4">
+        <f t="shared" si="28"/>
+        <v>3201226</v>
+      </c>
+      <c r="L96" s="4">
+        <f t="shared" si="29"/>
+        <v>4.3307583505941469</v>
+      </c>
+      <c r="M96" s="4">
+        <f t="shared" si="30"/>
+        <v>-3.9604044506803495</v>
+      </c>
+      <c r="N96" s="8">
         <f t="shared" si="27"/>
-        <v>3201226</v>
-      </c>
-      <c r="L96" s="4">
-        <f t="shared" si="28"/>
-        <v>4.3307583505941469</v>
-      </c>
-      <c r="M96" s="4">
-        <f t="shared" si="29"/>
-        <v>-3.9604044506803495</v>
-      </c>
-      <c r="N96" s="8">
-        <f t="shared" si="26"/>
         <v>3.9585971035390264</v>
       </c>
       <c r="O96" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-3.3638199786834173</v>
       </c>
       <c r="Q96" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12.885216881664482</v>
       </c>
       <c r="R96" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>11.973126957013072</v>
       </c>
     </row>
@@ -38358,7 +38638,7 @@
         <v>142868</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>296843</v>
       </c>
       <c r="G97" t="s">
@@ -38371,31 +38651,31 @@
         <v>1257035</v>
       </c>
       <c r="J97" s="4">
+        <f t="shared" si="28"/>
+        <v>2519506</v>
+      </c>
+      <c r="L97" s="4">
+        <f t="shared" si="29"/>
+        <v>3.2697949450891044</v>
+      </c>
+      <c r="M97" s="4">
+        <f t="shared" si="30"/>
+        <v>-3.2557157263811067</v>
+      </c>
+      <c r="N97" s="8">
         <f t="shared" si="27"/>
-        <v>2519506</v>
-      </c>
-      <c r="L97" s="4">
-        <f t="shared" si="28"/>
-        <v>3.2697949450891044</v>
-      </c>
-      <c r="M97" s="4">
-        <f t="shared" si="29"/>
-        <v>-3.2557157263811067</v>
-      </c>
-      <c r="N97" s="8">
-        <f t="shared" si="26"/>
         <v>2.829012967985991</v>
       </c>
       <c r="O97" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-2.6249418717988147</v>
       </c>
       <c r="Q97" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12.196319757047885</v>
       </c>
       <c r="R97" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>11.365475106102853</v>
       </c>
     </row>
@@ -38410,7 +38690,7 @@
         <v>106733</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>230142</v>
       </c>
       <c r="G98" t="s">
@@ -38423,31 +38703,31 @@
         <v>1004361</v>
       </c>
       <c r="J98" s="4">
+        <f t="shared" si="28"/>
+        <v>2008632</v>
+      </c>
+      <c r="L98" s="4">
+        <f t="shared" si="29"/>
+        <v>2.6010579564200524</v>
+      </c>
+      <c r="M98" s="4">
+        <f t="shared" si="30"/>
+        <v>-2.6012910560675362</v>
+      </c>
+      <c r="N98" s="8">
         <f t="shared" si="27"/>
-        <v>2008632</v>
-      </c>
-      <c r="L98" s="4">
-        <f t="shared" si="28"/>
-        <v>2.6010579564200524</v>
-      </c>
-      <c r="M98" s="4">
-        <f t="shared" si="29"/>
-        <v>-2.6012910560675362</v>
-      </c>
-      <c r="N98" s="8">
-        <f t="shared" si="26"/>
         <v>2.2674178364421702</v>
       </c>
       <c r="O98" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.9610264076119419</v>
       </c>
       <c r="Q98" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>12.28841617451863</v>
       </c>
       <c r="R98" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>10.626955845557523</v>
       </c>
     </row>
@@ -38462,7 +38742,7 @@
         <v>77883</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>173521</v>
       </c>
       <c r="G99" t="s">
@@ -38475,31 +38755,31 @@
         <v>743594</v>
       </c>
       <c r="J99" s="4">
+        <f t="shared" si="28"/>
+        <v>1476169</v>
+      </c>
+      <c r="L99" s="4">
+        <f t="shared" si="29"/>
+        <v>1.8973663806128225</v>
+      </c>
+      <c r="M99" s="4">
+        <f t="shared" si="30"/>
+        <v>-1.9259055474530404</v>
+      </c>
+      <c r="N99" s="8">
         <f t="shared" si="27"/>
-        <v>1476169</v>
-      </c>
-      <c r="L99" s="4">
-        <f t="shared" si="28"/>
-        <v>1.8973663806128225</v>
-      </c>
-      <c r="M99" s="4">
-        <f t="shared" si="29"/>
-        <v>-1.9259055474530404</v>
-      </c>
-      <c r="N99" s="8">
-        <f t="shared" si="26"/>
         <v>1.7571757897856417</v>
       </c>
       <c r="O99" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.4309596816733428</v>
       </c>
       <c r="Q99" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>13.055045558475243</v>
       </c>
       <c r="R99" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>10.47386073583165</v>
       </c>
     </row>
@@ -38514,7 +38794,7 @@
         <v>75090</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>166874</v>
       </c>
       <c r="G100" t="s">
@@ -38527,31 +38807,31 @@
         <v>635276</v>
       </c>
       <c r="J100" s="4">
+        <f t="shared" si="28"/>
+        <v>1272745</v>
+      </c>
+      <c r="L100" s="4">
+        <f t="shared" si="29"/>
+        <v>1.6510422131288611</v>
+      </c>
+      <c r="M100" s="4">
+        <f t="shared" si="30"/>
+        <v>-1.6453623517185156</v>
+      </c>
+      <c r="N100" s="8">
         <f t="shared" si="27"/>
-        <v>1272745</v>
-      </c>
-      <c r="L100" s="4">
-        <f t="shared" si="28"/>
-        <v>1.6510422131288611</v>
-      </c>
-      <c r="M100" s="4">
-        <f t="shared" si="29"/>
-        <v>-1.6453623517185156</v>
-      </c>
-      <c r="N100" s="8">
-        <f t="shared" si="26"/>
         <v>1.6863654895510714</v>
       </c>
       <c r="O100" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.3796433431795294</v>
       </c>
       <c r="Q100" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>14.39819034337356</v>
       </c>
       <c r="R100" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>11.820059312802625</v>
       </c>
     </row>
@@ -38566,7 +38846,7 @@
         <v>60986</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>135460</v>
       </c>
       <c r="G101" t="s">
@@ -38579,31 +38859,31 @@
         <v>478346</v>
       </c>
       <c r="J101" s="4">
+        <f t="shared" si="28"/>
+        <v>956206</v>
+      </c>
+      <c r="L101" s="4">
+        <f t="shared" si="29"/>
+        <v>1.2376555282935444</v>
+      </c>
+      <c r="M101" s="4">
+        <f t="shared" si="30"/>
+        <v>-1.2389142663899548</v>
+      </c>
+      <c r="N101" s="8">
         <f t="shared" si="27"/>
-        <v>956206</v>
-      </c>
-      <c r="L101" s="4">
-        <f t="shared" si="28"/>
-        <v>1.2376555282935444</v>
-      </c>
-      <c r="M101" s="4">
-        <f t="shared" si="29"/>
-        <v>-1.2389142663899548</v>
-      </c>
-      <c r="N101" s="8">
-        <f t="shared" si="26"/>
         <v>1.3683254539879115</v>
       </c>
       <c r="O101" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-1.120507776363654</v>
       </c>
       <c r="Q101" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>15.58489934290378</v>
       </c>
       <c r="R101" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>12.749348797732186</v>
       </c>
     </row>
@@ -38618,7 +38898,7 @@
         <v>48144</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>103349</v>
       </c>
       <c r="G102" t="s">
@@ -38631,31 +38911,31 @@
         <v>359466</v>
       </c>
       <c r="J102" s="4">
+        <f t="shared" si="28"/>
+        <v>711953</v>
+      </c>
+      <c r="L102" s="4">
+        <f t="shared" si="29"/>
+        <v>0.9129399493609146</v>
+      </c>
+      <c r="M102" s="4">
+        <f t="shared" si="30"/>
+        <v>-0.93101553202521081</v>
+      </c>
+      <c r="N102" s="8">
         <f t="shared" si="27"/>
-        <v>711953</v>
-      </c>
-      <c r="L102" s="4">
-        <f t="shared" si="28"/>
-        <v>0.9129399493609146</v>
-      </c>
-      <c r="M102" s="4">
-        <f t="shared" si="29"/>
-        <v>-0.93101553202521081</v>
-      </c>
-      <c r="N102" s="8">
-        <f t="shared" si="26"/>
         <v>1.0142923260117982</v>
       </c>
       <c r="O102" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-0.88455918383320375</v>
       </c>
       <c r="Q102" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>15.661570497635374</v>
       </c>
       <c r="R102" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13.393199913204587</v>
       </c>
     </row>
@@ -38670,7 +38950,7 @@
         <v>40141</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>86914</v>
       </c>
       <c r="G103" t="s">
@@ -38683,31 +38963,31 @@
         <v>295197</v>
       </c>
       <c r="J103" s="4">
+        <f t="shared" si="28"/>
+        <v>593778</v>
+      </c>
+      <c r="L103" s="4">
+        <f t="shared" si="29"/>
+        <v>0.77332362050268866</v>
+      </c>
+      <c r="M103" s="4">
+        <f t="shared" si="30"/>
+        <v>-0.76455907375731269</v>
+      </c>
+      <c r="N103" s="8">
         <f t="shared" si="27"/>
-        <v>593778</v>
-      </c>
-      <c r="L103" s="4">
-        <f t="shared" si="28"/>
-        <v>0.77332362050268866</v>
-      </c>
-      <c r="M103" s="4">
-        <f t="shared" si="29"/>
-        <v>-0.76455907375731269</v>
-      </c>
-      <c r="N103" s="8">
-        <f t="shared" si="26"/>
         <v>0.85936953110315795</v>
       </c>
       <c r="O103" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-0.7375184903258688</v>
       </c>
       <c r="Q103" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>15.665095903624144</v>
       </c>
       <c r="R103" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13.598037920439571</v>
       </c>
     </row>
@@ -38722,7 +39002,7 @@
         <v>25151</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>57943</v>
       </c>
       <c r="G104" t="s">
@@ -38735,31 +39015,31 @@
         <v>183151</v>
       </c>
       <c r="J104" s="4">
+        <f t="shared" si="28"/>
+        <v>390763</v>
+      </c>
+      <c r="L104" s="4">
+        <f t="shared" si="29"/>
+        <v>0.53771426681471435</v>
+      </c>
+      <c r="M104" s="4">
+        <f t="shared" si="30"/>
+        <v>-0.47436037262480851</v>
+      </c>
+      <c r="N104" s="8">
         <f t="shared" si="27"/>
-        <v>390763</v>
-      </c>
-      <c r="L104" s="4">
-        <f t="shared" si="28"/>
-        <v>0.53771426681471435</v>
-      </c>
-      <c r="M104" s="4">
-        <f t="shared" si="29"/>
-        <v>-0.47436037262480851</v>
-      </c>
-      <c r="N104" s="8">
-        <f t="shared" si="26"/>
         <v>0.60249386748625822</v>
       </c>
       <c r="O104" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-0.46210427119867287</v>
       </c>
       <c r="Q104" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>15.794848081999113</v>
       </c>
       <c r="R104" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>13.732384753564</v>
       </c>
     </row>
@@ -38774,7 +39054,7 @@
         <v>23013</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>52517</v>
       </c>
       <c r="G105" t="s">
@@ -38787,31 +39067,31 @@
         <v>160301</v>
       </c>
       <c r="J105" s="4">
+        <f t="shared" si="28"/>
+        <v>339301</v>
+      </c>
+      <c r="L105" s="4">
+        <f t="shared" si="29"/>
+        <v>0.46360929888365732</v>
+      </c>
+      <c r="M105" s="4">
+        <f t="shared" si="30"/>
+        <v>-0.41517896212485556</v>
+      </c>
+      <c r="N105" s="8">
         <f t="shared" si="27"/>
-        <v>339301</v>
-      </c>
-      <c r="L105" s="4">
-        <f t="shared" si="28"/>
-        <v>0.46360929888365732</v>
-      </c>
-      <c r="M105" s="4">
-        <f t="shared" si="29"/>
-        <v>-0.41517896212485556</v>
-      </c>
-      <c r="N105" s="8">
-        <f t="shared" si="26"/>
         <v>0.54208279660632364</v>
       </c>
       <c r="O105" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-0.42282237656932359</v>
       </c>
       <c r="Q105" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>16.482681564245809</v>
       </c>
       <c r="R105" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>14.356117553851815</v>
       </c>
     </row>
@@ -38826,7 +39106,7 @@
         <v>15594</v>
       </c>
       <c r="E106" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>36832</v>
       </c>
       <c r="G106" t="s">
@@ -38839,31 +39119,31 @@
         <v>99833</v>
       </c>
       <c r="J106" s="4">
+        <f t="shared" si="28"/>
+        <v>218508</v>
+      </c>
+      <c r="L106" s="4">
+        <f t="shared" si="29"/>
+        <v>0.30736778516769847</v>
+      </c>
+      <c r="M106" s="4">
+        <f t="shared" si="30"/>
+        <v>-0.25856707896900644</v>
+      </c>
+      <c r="N106" s="8">
         <f t="shared" si="27"/>
-        <v>218508</v>
-      </c>
-      <c r="L106" s="4">
-        <f t="shared" si="28"/>
-        <v>0.30736778516769847</v>
-      </c>
-      <c r="M106" s="4">
-        <f t="shared" si="29"/>
-        <v>-0.25856707896900644</v>
-      </c>
-      <c r="N106" s="8">
-        <f t="shared" si="26"/>
         <v>0.3902099523564635</v>
       </c>
       <c r="O106" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-0.28651162995793827</v>
       </c>
       <c r="Q106" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>17.895934274278492</v>
       </c>
       <c r="R106" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>15.620085542856572</v>
       </c>
     </row>
@@ -38878,7 +39158,7 @@
         <v>19734</v>
       </c>
       <c r="E107" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>49371</v>
       </c>
       <c r="G107" t="s">
@@ -38891,7 +39171,7 @@
         <v>159125</v>
       </c>
       <c r="J107" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>383701</v>
       </c>
       <c r="L107" s="4">
@@ -38899,23 +39179,23 @@
         <v>0.58165096036925268</v>
       </c>
       <c r="M107" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-0.41213312673107244</v>
       </c>
       <c r="N107" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.54452643177269555</v>
       </c>
       <c r="O107" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-0.36257666446004577</v>
       </c>
       <c r="Q107" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>13.196868766030208</v>
       </c>
       <c r="R107" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>12.401571091908876</v>
       </c>
     </row>
@@ -38930,7 +39210,7 @@
         <v>1318</v>
       </c>
       <c r="E108" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2481</v>
       </c>
       <c r="G108" t="s">
@@ -38943,7 +39223,7 @@
         <v>11478</v>
       </c>
       <c r="J108" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>21086</v>
       </c>
     </row>
@@ -38960,7 +39240,7 @@
         <v>2617734</v>
       </c>
       <c r="E109" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5442711</v>
       </c>
       <c r="G109" t="s">
@@ -38975,7 +39255,7 @@
         <v>19192458</v>
       </c>
       <c r="J109" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>38610097</v>
       </c>
     </row>
@@ -42311,6 +42591,170 @@
         <v>12.448317519648267</v>
       </c>
     </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B221" s="37" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C221" s="37" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D221" s="37" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E221" s="37" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B222" s="37">
+        <v>1979</v>
+      </c>
+      <c r="C222">
+        <f>SUM(H12:I13)/J$22*100</f>
+        <v>6.3804945306367493</v>
+      </c>
+      <c r="E222">
+        <f>SUM(O136:P137)/SUM(O128:P144)*100</f>
+        <v>6.2283021048104255</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B223" s="37">
+        <v>1989</v>
+      </c>
+      <c r="C223">
+        <f>SUM(H38:I39)/J48*100</f>
+        <v>6.093696050427269</v>
+      </c>
+      <c r="D223">
+        <f>SUM(C38:D39)/E48*100</f>
+        <v>5.8398499983747545</v>
+      </c>
+      <c r="E223">
+        <f>SUM(C156:D157)/SUM(C148:D164)*100</f>
+        <v>5.6277512085148489</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B224" s="37">
+        <v>1999</v>
+      </c>
+      <c r="C224">
+        <f>SUM(H75:I76)/J85*100</f>
+        <v>6.5252004462106949</v>
+      </c>
+      <c r="D224">
+        <f>SUM(C75:D76)/E85*100</f>
+        <v>6.4470028204570111</v>
+      </c>
+      <c r="E224">
+        <f>SUM(G156:H157)/SUM(G148:H164)*100</f>
+        <v>6.8439021382339202</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B225" s="37">
+        <v>2009</v>
+      </c>
+      <c r="C225">
+        <f>SUM(H99:I100)/J109*100</f>
+        <v>7.1196764929132392</v>
+      </c>
+      <c r="D225">
+        <f>SUM(C99:D100)/E109*100</f>
+        <v>6.2541443041895848</v>
+      </c>
+      <c r="E225">
+        <f>SUM(K156:L157)/SUM(K148:L164)*100</f>
+        <v>7.3947238165336548</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B226" s="37"/>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B227" s="37" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C227" s="37" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D227" s="37" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E227" s="37" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B228" s="37">
+        <v>1979</v>
+      </c>
+      <c r="C228" s="37">
+        <f>SUM(H14:I19)/J22*100</f>
+        <v>8.8436690884882676</v>
+      </c>
+      <c r="D228" s="37"/>
+      <c r="E228" s="37">
+        <f>SUM(O138:P144)/SUM(O128:P144)*100</f>
+        <v>8.7303056434156332</v>
+      </c>
+      <c r="F228" s="37"/>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B229" s="37">
+        <v>1989</v>
+      </c>
+      <c r="C229" s="37">
+        <f>SUM(H40:I46)/J48*100</f>
+        <v>8.6892726587972291</v>
+      </c>
+      <c r="D229" s="37">
+        <f>SUM(C40:D46)/E48*100</f>
+        <v>9.3887023182846985</v>
+      </c>
+      <c r="E229" s="37">
+        <f>SUM(C158:D164)/SUM(C148:D164)*100</f>
+        <v>7.7916762593924753</v>
+      </c>
+      <c r="F229" s="37"/>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B230" s="37">
+        <v>1999</v>
+      </c>
+      <c r="C230" s="37">
+        <f>SUM(H77:I83)/J85*100</f>
+        <v>8.6681029073415594</v>
+      </c>
+      <c r="D230" s="37">
+        <f>SUM(C77:D83)/E85*100</f>
+        <v>9.1320605911029471</v>
+      </c>
+      <c r="E230" s="37">
+        <f>SUM(G158:H164)/SUM(G148:H164)*100</f>
+        <v>7.0462387449949659</v>
+      </c>
+      <c r="F230" s="37"/>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B231" s="37">
+        <v>2009</v>
+      </c>
+      <c r="C231" s="37">
+        <f>SUM(H101:I107)/J109*100</f>
+        <v>9.3089898220146914</v>
+      </c>
+      <c r="D231" s="37">
+        <f>SUM(C101:D107)/E109*100</f>
+        <v>9.5979007520333148</v>
+      </c>
+      <c r="E231" s="37">
+        <f>SUM(K158:L164)/SUM(K148:L164)*100</f>
+        <v>7.546534336676511</v>
+      </c>
+      <c r="F231" s="37"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -42322,7 +42766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J203" sqref="J203"/>
     </sheetView>
   </sheetViews>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="1334">
   <si>
     <t>Metric</t>
   </si>
@@ -4051,6 +4051,9 @@
   </si>
   <si>
     <t>50+, UN Kenya</t>
+  </si>
+  <si>
+    <t>yanza popuation validataion, %N</t>
   </si>
 </sst>
 </file>
@@ -20395,6 +20398,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20992,6 +20996,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21098,6 +21103,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21695,6 +21701,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -32325,16 +32332,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>290511</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>173830</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>52385</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>126205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34882,7 +34889,7 @@
   <dimension ref="A1:Y231"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A196" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E229" sqref="E229"/>
+      <selection activeCell="H201" sqref="H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34892,7 +34899,7 @@
     <col min="5" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -42255,6 +42262,16 @@
       <c r="A196" t="s">
         <v>1297</v>
       </c>
+      <c r="H196" s="77" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I196" s="49"/>
+      <c r="J196" s="49"/>
+      <c r="K196" s="49"/>
+      <c r="L196" s="49"/>
+      <c r="M196" s="49"/>
+      <c r="N196" s="49"/>
+      <c r="O196" s="49"/>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
@@ -42271,6 +42288,30 @@
       </c>
       <c r="F197" s="37"/>
       <c r="G197" s="37"/>
+      <c r="H197" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="I197" s="37" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J197" s="76" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K197" s="76" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L197" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="M197" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="N197" s="76" t="s">
+        <v>1152</v>
+      </c>
+      <c r="O197" s="49" t="s">
+        <v>1245</v>
+      </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B198">
@@ -42286,6 +42327,32 @@
       </c>
       <c r="F198" s="8"/>
       <c r="G198" s="8"/>
+      <c r="H198" s="37">
+        <v>1990</v>
+      </c>
+      <c r="I198" s="6">
+        <v>0.35417126440124502</v>
+      </c>
+      <c r="J198" s="6">
+        <v>0.25551457275141598</v>
+      </c>
+      <c r="K198" s="6">
+        <v>0.14689455462850001</v>
+      </c>
+      <c r="L198" s="6">
+        <v>9.01258624494677E-2</v>
+      </c>
+      <c r="M198" s="6">
+        <v>5.83984999837475E-2</v>
+      </c>
+      <c r="N198" s="6">
+        <f>SUM(C40:D41)/E48</f>
+        <v>4.4009087689704664E-2</v>
+      </c>
+      <c r="O198" s="6">
+        <f>SUM(C44:D45)/E48</f>
+        <v>1.5014989327553161E-2</v>
+      </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B199">
@@ -42305,6 +42372,32 @@
       </c>
       <c r="F199" s="8"/>
       <c r="G199" s="8"/>
+      <c r="H199" s="37">
+        <v>2000</v>
+      </c>
+      <c r="I199" s="6">
+        <v>0.302247896041069</v>
+      </c>
+      <c r="J199" s="6">
+        <v>0.28193004137338101</v>
+      </c>
+      <c r="K199" s="6">
+        <v>0.157462690644953</v>
+      </c>
+      <c r="L199" s="6">
+        <v>9.7309409689367202E-2</v>
+      </c>
+      <c r="M199" s="6">
+        <v>6.4470028204570096E-2</v>
+      </c>
+      <c r="N199" s="6">
+        <f>SUM(C77:D78)/E85</f>
+        <v>4.031514076329927E-2</v>
+      </c>
+      <c r="O199" s="6">
+        <f>SUM(C79:D80)/E85</f>
+        <v>2.9362988354800196E-2</v>
+      </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B200">
@@ -42324,6 +42417,32 @@
       </c>
       <c r="F200" s="8"/>
       <c r="G200" s="8"/>
+      <c r="H200" s="37">
+        <v>2010</v>
+      </c>
+      <c r="I200" s="6">
+        <v>0.323880691074724</v>
+      </c>
+      <c r="J200" s="6">
+        <v>0.25107212196274997</v>
+      </c>
+      <c r="K200" s="6">
+        <v>0.16924690655079799</v>
+      </c>
+      <c r="L200" s="6">
+        <v>9.6823990838389204E-2</v>
+      </c>
+      <c r="M200" s="6">
+        <v>6.2541443041895795E-2</v>
+      </c>
+      <c r="N200" s="6">
+        <f>SUM(C101:D102)/E109</f>
+        <v>4.3876847401965673E-2</v>
+      </c>
+      <c r="O200" s="6">
+        <f>SUM(C103:D104)/E109</f>
+        <v>2.6614861601139579E-2</v>
+      </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B201">
@@ -51620,8 +51739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="F188" sqref="F188"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53399,7 +53518,10 @@
       <c r="H76" s="21">
         <v>2.343E-3</v>
       </c>
-      <c r="I76" s="41"/>
+      <c r="I76" s="41">
+        <f>E76+D76</f>
+        <v>1.0244E-2</v>
+      </c>
       <c r="K76" s="37" t="s">
         <v>137</v>
       </c>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="8100" tabRatio="835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="8100" tabRatio="835" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3156" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="1334">
   <si>
     <t>Metric</t>
   </si>
@@ -4781,7 +4781,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4898,6 +4898,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -34888,7 +34889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A196" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H201" sqref="H201"/>
     </sheetView>
   </sheetViews>
@@ -42885,8 +42886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J203" sqref="J203"/>
+    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44126,6 +44127,9 @@
       <c r="B60" t="s">
         <v>529</v>
       </c>
+      <c r="M60" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B61" s="21" t="s">
@@ -44158,6 +44162,36 @@
       <c r="K61" t="s">
         <v>1247</v>
       </c>
+      <c r="M61" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="N61" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="O61" s="37" t="s">
+        <v>1246</v>
+      </c>
+      <c r="P61" s="37" t="s">
+        <v>1247</v>
+      </c>
+      <c r="Q61" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="R61" s="37" t="s">
+        <v>1246</v>
+      </c>
+      <c r="S61" s="37" t="s">
+        <v>1247</v>
+      </c>
+      <c r="T61" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="U61" s="37" t="s">
+        <v>1246</v>
+      </c>
+      <c r="V61" s="37" t="s">
+        <v>1247</v>
+      </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B62" s="21" t="s">
@@ -44190,6 +44224,36 @@
       <c r="K62" s="8">
         <v>8.7236999999999991</v>
       </c>
+      <c r="M62" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="N62" s="7">
+        <v>2.7391000000000001</v>
+      </c>
+      <c r="O62" s="7">
+        <v>1.4563999999999999</v>
+      </c>
+      <c r="P62" s="7">
+        <v>4.0217000000000001</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>0.72650000000000003</v>
+      </c>
+      <c r="R62" s="7">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="S62" s="7">
+        <v>1.3823000000000001</v>
+      </c>
+      <c r="T62" s="8">
+        <v>1.7202</v>
+      </c>
+      <c r="U62" s="8">
+        <v>1.0098</v>
+      </c>
+      <c r="V62" s="8">
+        <v>2.4306000000000001</v>
+      </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B63" s="21" t="s">
@@ -44222,6 +44286,36 @@
       <c r="K63" s="8">
         <v>13.867800000000001</v>
       </c>
+      <c r="M63" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="N63" s="7">
+        <v>6.4053000000000004</v>
+      </c>
+      <c r="O63" s="7">
+        <v>4.3030999999999997</v>
+      </c>
+      <c r="P63" s="7">
+        <v>8.5074000000000005</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>1.4923999999999999</v>
+      </c>
+      <c r="R63" s="7">
+        <v>0.3841</v>
+      </c>
+      <c r="S63" s="7">
+        <v>2.6006999999999998</v>
+      </c>
+      <c r="T63" s="8">
+        <v>4.2165999999999997</v>
+      </c>
+      <c r="U63" s="8">
+        <v>2.9613</v>
+      </c>
+      <c r="V63" s="8">
+        <v>5.4720000000000004</v>
+      </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B64" s="21" t="s">
@@ -44254,8 +44348,38 @@
       <c r="K64" s="8">
         <v>31.781400000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M64" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="N64" s="7">
+        <v>10.4094</v>
+      </c>
+      <c r="O64" s="7">
+        <v>7.1454000000000004</v>
+      </c>
+      <c r="P64" s="7">
+        <v>13.673500000000001</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>6.5209999999999999</v>
+      </c>
+      <c r="R64" s="7">
+        <v>3.2902</v>
+      </c>
+      <c r="S64" s="7">
+        <v>9.7518999999999991</v>
+      </c>
+      <c r="T64" s="8">
+        <v>8.8091000000000008</v>
+      </c>
+      <c r="U64" s="8">
+        <v>6.2962999999999996</v>
+      </c>
+      <c r="V64" s="8">
+        <v>11.321999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B65" s="21" t="s">
         <v>140</v>
       </c>
@@ -44286,8 +44410,38 @@
       <c r="K65" s="8">
         <v>29.873699999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M65" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="N65" s="7">
+        <v>11.0425</v>
+      </c>
+      <c r="O65" s="7">
+        <v>7.4653999999999998</v>
+      </c>
+      <c r="P65" s="7">
+        <v>14.6195</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>6.8056999999999999</v>
+      </c>
+      <c r="R65" s="7">
+        <v>4.1223000000000001</v>
+      </c>
+      <c r="S65" s="7">
+        <v>9.4891000000000005</v>
+      </c>
+      <c r="T65" s="8">
+        <v>9.0631000000000004</v>
+      </c>
+      <c r="U65" s="8">
+        <v>6.5701999999999998</v>
+      </c>
+      <c r="V65" s="8">
+        <v>11.555899999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B66" s="21" t="s">
         <v>141</v>
       </c>
@@ -44318,8 +44472,38 @@
       <c r="K66" s="8">
         <v>31.8049</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M66" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="N66" s="7">
+        <v>8.7939000000000007</v>
+      </c>
+      <c r="O66" s="7">
+        <v>5.7251000000000003</v>
+      </c>
+      <c r="P66" s="7">
+        <v>11.8628</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>10.4316</v>
+      </c>
+      <c r="R66" s="7">
+        <v>6.2424999999999997</v>
+      </c>
+      <c r="S66" s="7">
+        <v>14.620699999999999</v>
+      </c>
+      <c r="T66" s="8">
+        <v>9.5152000000000001</v>
+      </c>
+      <c r="U66" s="8">
+        <v>6.9627999999999997</v>
+      </c>
+      <c r="V66" s="8">
+        <v>12.067600000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
         <v>142</v>
       </c>
@@ -44350,8 +44534,38 @@
       <c r="K67" s="8">
         <v>26.101800000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M67" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="N67" s="7">
+        <v>14.269500000000001</v>
+      </c>
+      <c r="O67" s="7">
+        <v>6.7178000000000004</v>
+      </c>
+      <c r="P67" s="7">
+        <v>21.821300000000001</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>5.6688000000000001</v>
+      </c>
+      <c r="R67" s="7">
+        <v>2.5625</v>
+      </c>
+      <c r="S67" s="7">
+        <v>8.7751000000000001</v>
+      </c>
+      <c r="T67" s="8">
+        <v>10.3165</v>
+      </c>
+      <c r="U67" s="8">
+        <v>5.8135000000000003</v>
+      </c>
+      <c r="V67" s="8">
+        <v>14.819599999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
         <v>143</v>
       </c>
@@ -44382,8 +44596,38 @@
       <c r="K68" s="8">
         <v>24.3047</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M68" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="N68" s="7">
+        <v>6.4074</v>
+      </c>
+      <c r="O68" s="7">
+        <v>3.5684999999999998</v>
+      </c>
+      <c r="P68" s="7">
+        <v>9.2462999999999997</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>4.2521000000000004</v>
+      </c>
+      <c r="R68" s="7">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="S68" s="7">
+        <v>7.6356999999999999</v>
+      </c>
+      <c r="T68" s="8">
+        <v>5.4607000000000001</v>
+      </c>
+      <c r="U68" s="8">
+        <v>3.2890999999999999</v>
+      </c>
+      <c r="V68" s="8">
+        <v>7.6322000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
         <v>392</v>
       </c>
@@ -44414,8 +44658,38 @@
       <c r="K69" s="8">
         <v>28.742100000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M69" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="N69" s="37" t="s">
+        <v>1248</v>
+      </c>
+      <c r="O69" s="37" t="s">
+        <v>1248</v>
+      </c>
+      <c r="P69" s="37" t="s">
+        <v>1248</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>9.1097999999999999</v>
+      </c>
+      <c r="R69" s="7">
+        <v>2.3006000000000002</v>
+      </c>
+      <c r="S69" s="7">
+        <v>15.9191</v>
+      </c>
+      <c r="T69" s="84">
+        <v>9.1097999999999999</v>
+      </c>
+      <c r="U69" s="8">
+        <v>2.3006000000000002</v>
+      </c>
+      <c r="V69" s="8">
+        <v>15.9191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
         <v>144</v>
       </c>
@@ -44446,21 +44720,51 @@
       <c r="K70" s="8">
         <v>17.399100000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M70" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="N70" s="8">
+        <v>7.9831000000000003</v>
+      </c>
+      <c r="O70" s="8">
+        <v>6.7652000000000001</v>
+      </c>
+      <c r="P70" s="8">
+        <v>9.2010000000000005</v>
+      </c>
+      <c r="Q70" s="8">
+        <v>4.5518000000000001</v>
+      </c>
+      <c r="R70" s="8">
+        <v>3.5501999999999998</v>
+      </c>
+      <c r="S70" s="8">
+        <v>5.5533999999999999</v>
+      </c>
+      <c r="T70" s="8">
+        <v>6.3609</v>
+      </c>
+      <c r="U70" s="8">
+        <v>5.4173999999999998</v>
+      </c>
+      <c r="V70">
+        <v>7.3044000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>483</v>
       </c>
@@ -44474,7 +44778,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B76" s="21" t="s">
         <v>473</v>
       </c>
@@ -44488,7 +44792,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
         <v>480</v>
       </c>
@@ -44502,7 +44806,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B78" s="21" t="s">
         <v>474</v>
       </c>
@@ -44516,7 +44820,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B79" s="21" t="s">
         <v>472</v>
       </c>
@@ -44530,7 +44834,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B80" s="21" t="s">
         <v>471</v>
       </c>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="1346">
   <si>
     <t>Metric</t>
   </si>
@@ -4054,6 +4054,42 @@
   </si>
   <si>
     <t>yanza popuation validataion, %N</t>
+  </si>
+  <si>
+    <t>Total - LCI</t>
+  </si>
+  <si>
+    <t>Total - UCI</t>
+  </si>
+  <si>
+    <t>15–19</t>
+  </si>
+  <si>
+    <t>20–24</t>
+  </si>
+  <si>
+    <t>25–29</t>
+  </si>
+  <si>
+    <t>30–34</t>
+  </si>
+  <si>
+    <t>35–39</t>
+  </si>
+  <si>
+    <t>40–44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45–49</t>
+  </si>
+  <si>
+    <t>50–54</t>
+  </si>
+  <si>
+    <t>55–59</t>
+  </si>
+  <si>
+    <t>60–64</t>
   </si>
 </sst>
 </file>
@@ -34136,16 +34172,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>594032</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>41583</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>92036</xdr:rowOff>
+      <xdr:colOff>389469</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -34162,8 +34198,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4251632" y="2581275"/>
-          <a:ext cx="5682943" cy="3835361"/>
+          <a:off x="5594658" y="2495550"/>
+          <a:ext cx="4615086" cy="3114675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -34174,16 +34210,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
+      <xdr:rowOff>47627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>84928</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>179891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -34200,8 +34236,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10039351" y="2628902"/>
-          <a:ext cx="5095874" cy="3780626"/>
+          <a:off x="9372601" y="2524127"/>
+          <a:ext cx="4543424" cy="3370764"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -34212,16 +34248,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>256148</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>142899</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>218048</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -34238,7 +34274,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5514974" y="6562725"/>
+          <a:off x="12792074" y="2628900"/>
           <a:ext cx="4561449" cy="3333774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -34500,16 +34536,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34526,6 +34562,82 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>383114</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496300" y="3867151"/>
+          <a:ext cx="5974289" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>412806</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10715625" y="5724526"/>
+          <a:ext cx="6223056" cy="2971799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -42884,10 +42996,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z212"/>
+  <dimension ref="A1:AD213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42895,12 +43007,12 @@
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>391</v>
       </c>
@@ -42915,529 +43027,631 @@
       <c r="Y2" s="21"/>
       <c r="Z2" s="21"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>222</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" t="s">
         <v>217</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" t="s">
         <v>144</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="N3" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="O3" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>1246</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
         <v>1247</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="R3" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S3" t="s">
         <v>1246</v>
       </c>
-      <c r="P3" t="s">
+      <c r="T3" t="s">
         <v>1247</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="U3" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="R3" t="s">
+      <c r="V3" t="s">
         <v>1246</v>
       </c>
-      <c r="S3" t="s">
+      <c r="W3" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>137</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
+        <v>1.6608000000000001</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.2827999999999999</v>
+      </c>
+      <c r="F4">
         <v>0.4</v>
       </c>
-      <c r="E4">
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="I4">
         <v>1.6</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="8">
+        <v>0.95489999999999997</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2.3138000000000001</v>
+      </c>
+      <c r="N4" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="8">
+      <c r="O4" s="8">
         <v>4.3395999999999999</v>
       </c>
-      <c r="L4" s="8">
+      <c r="P4" s="8">
         <v>0.63719999999999999</v>
       </c>
-      <c r="M4" s="8">
+      <c r="Q4" s="8">
         <v>8.0419999999999998</v>
       </c>
-      <c r="N4" s="8">
+      <c r="R4" s="8">
         <v>0.1419</v>
       </c>
-      <c r="O4" s="37">
+      <c r="S4" s="37">
         <v>0</v>
       </c>
-      <c r="P4" s="8">
+      <c r="T4" s="8">
         <v>0.43490000000000001</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="U4" s="8">
         <v>4.0270000000000001</v>
       </c>
-      <c r="R4" s="7">
+      <c r="V4" s="7">
         <v>0.75009999999999999</v>
       </c>
-      <c r="S4" s="7">
+      <c r="W4" s="7">
         <v>7.3038999999999996</v>
       </c>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>138</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
+        <v>6.4348000000000001</v>
+      </c>
+      <c r="E5" s="8">
+        <v>11.627800000000001</v>
+      </c>
+      <c r="F5">
         <v>2.4</v>
       </c>
-      <c r="E5">
+      <c r="G5" s="8">
+        <v>1.2017</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3.6107</v>
+      </c>
+      <c r="I5">
         <v>6</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="8">
+        <v>4.4225000000000003</v>
+      </c>
+      <c r="K5" s="8">
+        <v>7.5117000000000003</v>
+      </c>
+      <c r="N5" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="8">
+      <c r="O5" s="8">
         <v>29.970300000000002</v>
       </c>
-      <c r="L5" s="8">
+      <c r="P5" s="8">
         <v>19.9102</v>
       </c>
-      <c r="M5" s="8">
+      <c r="Q5" s="8">
         <v>40.0304</v>
       </c>
-      <c r="N5" s="8">
+      <c r="R5" s="8">
         <v>5.6208</v>
       </c>
-      <c r="O5" s="37">
+      <c r="S5" s="37">
         <v>0</v>
       </c>
-      <c r="P5" s="8">
+      <c r="T5" s="8">
         <v>11.2532</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="U5" s="8">
         <v>21.856100000000001</v>
       </c>
-      <c r="R5" s="7">
+      <c r="V5" s="7">
         <v>14.6593</v>
       </c>
-      <c r="S5" s="7">
+      <c r="W5" s="7">
         <v>29.052900000000001</v>
       </c>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>139</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>12.9</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
+        <v>9.6156000000000006</v>
+      </c>
+      <c r="E6" s="8">
+        <v>16.187200000000001</v>
+      </c>
+      <c r="F6">
         <v>7.3</v>
       </c>
-      <c r="E6">
+      <c r="G6" s="8">
+        <v>4.3966000000000003</v>
+      </c>
+      <c r="H6" s="8">
+        <v>10.2454</v>
+      </c>
+      <c r="I6">
         <v>10.4</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="8">
+        <v>7.9425999999999997</v>
+      </c>
+      <c r="K6" s="8">
+        <v>12.833500000000001</v>
+      </c>
+      <c r="N6" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="8">
+      <c r="O6" s="8">
         <v>21.8535</v>
       </c>
-      <c r="L6" s="8">
+      <c r="P6" s="8">
         <v>9.8117999999999999</v>
       </c>
-      <c r="M6" s="8">
+      <c r="Q6" s="8">
         <v>33.895200000000003</v>
       </c>
-      <c r="N6" s="8">
+      <c r="R6" s="8">
         <v>23.183499999999999</v>
       </c>
-      <c r="O6" s="8">
+      <c r="S6" s="8">
         <v>10.3553</v>
       </c>
-      <c r="P6" s="8">
+      <c r="T6" s="8">
         <v>36.011600000000001</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="U6" s="8">
         <v>18.897300000000001</v>
       </c>
-      <c r="R6" s="7">
+      <c r="V6" s="7">
         <v>12.1366</v>
       </c>
-      <c r="S6" s="7">
+      <c r="W6" s="7">
         <v>25.658000000000001</v>
       </c>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>140</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>11.7</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
+        <v>8.1616</v>
+      </c>
+      <c r="E7" s="8">
+        <v>15.2371</v>
+      </c>
+      <c r="F7">
         <v>6.6</v>
       </c>
-      <c r="E7">
+      <c r="G7" s="8">
+        <v>3.8715000000000002</v>
+      </c>
+      <c r="H7" s="8">
+        <v>9.3497000000000003</v>
+      </c>
+      <c r="I7">
         <v>9.4</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="8">
+        <v>6.9930000000000003</v>
+      </c>
+      <c r="K7" s="8">
+        <v>11.7536</v>
+      </c>
+      <c r="N7" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="8">
+      <c r="O7" s="8">
         <v>16.320799999999998</v>
       </c>
-      <c r="L7" s="8">
+      <c r="P7" s="8">
         <v>4.9405000000000001</v>
       </c>
-      <c r="M7" s="8">
+      <c r="Q7" s="8">
         <v>27.701000000000001</v>
       </c>
-      <c r="N7" s="8">
+      <c r="R7" s="8">
         <v>17.728400000000001</v>
       </c>
-      <c r="O7" s="8">
+      <c r="S7" s="8">
         <v>1.7278</v>
       </c>
-      <c r="P7" s="8">
+      <c r="T7" s="8">
         <v>33.729100000000003</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="U7" s="8">
         <v>11.5449</v>
       </c>
-      <c r="R7" s="7">
+      <c r="V7" s="7">
         <v>6.8776999999999999</v>
       </c>
-      <c r="S7" s="7">
+      <c r="W7" s="7">
         <v>16.2121</v>
       </c>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>141</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>11.8</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
+        <v>8.0726999999999993</v>
+      </c>
+      <c r="E8" s="8">
+        <v>15.4283</v>
+      </c>
+      <c r="F8">
         <v>8.4</v>
       </c>
-      <c r="E8">
+      <c r="G8" s="8">
+        <v>4.9302000000000001</v>
+      </c>
+      <c r="H8" s="8">
+        <v>11.888199999999999</v>
+      </c>
+      <c r="I8">
         <v>10.1</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="8">
+        <v>7.3860000000000001</v>
+      </c>
+      <c r="K8" s="8">
+        <v>12.894</v>
+      </c>
+      <c r="N8" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="K8" s="8">
+      <c r="O8" s="8">
         <v>17.982800000000001</v>
       </c>
-      <c r="L8" s="8">
+      <c r="P8" s="8">
         <v>6.2957000000000001</v>
       </c>
-      <c r="M8" s="8">
+      <c r="Q8" s="8">
         <v>29.67</v>
       </c>
-      <c r="N8" s="8">
+      <c r="R8" s="8">
         <v>19.689599999999999</v>
       </c>
-      <c r="O8" s="8">
+      <c r="S8" s="8">
         <v>2.7372000000000001</v>
       </c>
-      <c r="P8" s="8">
+      <c r="T8" s="8">
         <v>36.642099999999999</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="U8" s="8">
         <v>13.7293</v>
       </c>
-      <c r="R8" s="7">
+      <c r="V8" s="7">
         <v>6.1853999999999996</v>
       </c>
-      <c r="S8" s="7">
+      <c r="W8" s="7">
         <v>21.273299999999999</v>
       </c>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>142</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>9.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
+        <v>5.1764999999999999</v>
+      </c>
+      <c r="E9" s="8">
+        <v>13.7669</v>
+      </c>
+      <c r="F9">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E9">
+      <c r="G9" s="8">
+        <v>4.7293000000000003</v>
+      </c>
+      <c r="H9" s="8">
+        <v>12.793799999999999</v>
+      </c>
+      <c r="I9">
         <v>9.1</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="8">
+        <v>6.0197000000000003</v>
+      </c>
+      <c r="K9" s="8">
+        <v>12.234400000000001</v>
+      </c>
+      <c r="N9" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="K9" s="8">
+      <c r="O9" s="8">
         <v>33.171199999999999</v>
       </c>
-      <c r="L9" s="8">
+      <c r="P9" s="8">
         <v>15.0959</v>
       </c>
-      <c r="M9" s="8">
+      <c r="Q9" s="8">
         <v>51.246499999999997</v>
       </c>
-      <c r="N9" s="8">
+      <c r="R9" s="8">
         <v>24.622299999999999</v>
       </c>
-      <c r="O9" s="8">
+      <c r="S9" s="8">
         <v>7.0796999999999999</v>
       </c>
-      <c r="P9" s="8">
+      <c r="T9" s="8">
         <v>42.164999999999999</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="U9" s="8">
         <v>17.517399999999999</v>
       </c>
-      <c r="R9" s="7">
+      <c r="V9" s="7">
         <v>9.5665999999999993</v>
       </c>
-      <c r="S9" s="7">
+      <c r="W9" s="7">
         <v>25.4681</v>
       </c>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>143</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>3.9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="E10" s="8">
+        <v>6.8102999999999998</v>
+      </c>
+      <c r="F10">
         <v>5.2</v>
       </c>
-      <c r="E10">
+      <c r="G10" s="8">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="H10" s="8">
+        <v>9.1257000000000001</v>
+      </c>
+      <c r="I10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="8">
+        <v>2.1457999999999999</v>
+      </c>
+      <c r="K10" s="8">
+        <v>6.7401999999999997</v>
+      </c>
+      <c r="N10" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="K10" s="8">
+      <c r="O10" s="8">
         <v>15.8049</v>
       </c>
-      <c r="L10" s="8">
+      <c r="P10" s="8">
         <v>0</v>
       </c>
-      <c r="M10" s="8">
+      <c r="Q10" s="8">
         <v>33.246600000000001</v>
       </c>
-      <c r="N10" s="8">
+      <c r="R10" s="8">
         <v>18.665800000000001</v>
       </c>
-      <c r="O10" s="8">
+      <c r="S10" s="8">
         <v>3.1282999999999999</v>
       </c>
-      <c r="P10" s="8">
+      <c r="T10" s="8">
         <v>34.203200000000002</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="U10" s="8">
         <v>7.2714999999999996</v>
       </c>
-      <c r="R10" s="7">
+      <c r="V10" s="7">
         <v>2.6181000000000001</v>
       </c>
-      <c r="S10" s="7">
+      <c r="W10" s="7">
         <v>11.924899999999999</v>
       </c>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>392</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11">
         <v>5.7</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="G11" s="8">
+        <v>2.0832999999999999</v>
+      </c>
+      <c r="H11" s="8">
+        <v>9.2460000000000004</v>
+      </c>
+      <c r="N11" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="K11" t="s">
+      <c r="O11" t="s">
         <v>1248</v>
       </c>
-      <c r="L11" t="s">
+      <c r="P11" t="s">
         <v>1248</v>
       </c>
-      <c r="M11" t="s">
+      <c r="Q11" t="s">
         <v>1248</v>
       </c>
-      <c r="N11" s="8">
+      <c r="R11" s="8">
         <v>20.7746</v>
       </c>
-      <c r="O11" s="8">
+      <c r="S11" s="8">
         <v>4.2534999999999998</v>
       </c>
-      <c r="P11" s="8">
+      <c r="T11" s="8">
         <v>37.295699999999997</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="U11" s="8">
         <v>5.1565000000000003</v>
       </c>
-      <c r="R11" s="7">
+      <c r="V11" s="7">
         <v>0.3695</v>
       </c>
-      <c r="S11" s="7">
+      <c r="W11" s="7">
         <v>9.9436</v>
       </c>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>144</v>
       </c>
-      <c r="C12">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D12">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="8">
+        <v>8.6816999999999993</v>
+      </c>
+      <c r="D12" s="8">
+        <v>7.4393000000000002</v>
+      </c>
+      <c r="E12" s="8">
+        <v>9.9242000000000008</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4.6345999999999998</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.7299000000000002</v>
+      </c>
+      <c r="H12" s="8">
+        <v>5.5392000000000001</v>
+      </c>
+      <c r="I12">
         <v>6.7</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="7">
+        <v>5.7725999999999997</v>
+      </c>
+      <c r="K12" s="7">
+        <v>7.6139000000000001</v>
+      </c>
+      <c r="N12" t="s">
         <v>144</v>
       </c>
-      <c r="K12" s="8">
+      <c r="O12" s="8">
         <v>18.2517</v>
       </c>
-      <c r="L12" s="8">
+      <c r="P12" s="8">
         <v>13.379</v>
       </c>
-      <c r="M12" s="8">
+      <c r="Q12" s="8">
         <v>23.124400000000001</v>
       </c>
-      <c r="N12" s="8">
+      <c r="R12" s="8">
         <v>12.285500000000001</v>
       </c>
-      <c r="O12" s="8">
+      <c r="S12" s="8">
         <v>7.8247999999999998</v>
       </c>
-      <c r="P12" s="8">
+      <c r="T12" s="8">
         <v>16.746300000000002</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="U12" s="8">
         <v>15.355399999999999</v>
       </c>
-      <c r="R12" s="7">
+      <c r="V12" s="7">
         <v>11.407500000000001</v>
       </c>
-      <c r="S12" s="7">
+      <c r="W12" s="7">
         <v>19.3032</v>
       </c>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
       <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13">
-        <v>18.3</v>
-      </c>
-      <c r="D13">
-        <v>1.6</v>
-      </c>
-      <c r="E13">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D13" s="8">
+        <f>C12-D12</f>
+        <v>1.2423999999999991</v>
+      </c>
+      <c r="E13" s="8">
+        <f>E12-C12</f>
+        <v>1.2425000000000015</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13">
         <v>15.1</v>
       </c>
-      <c r="K13" t="s">
+      <c r="O13" t="s">
         <v>531</v>
       </c>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
@@ -43447,12 +43661,12 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
     </row>
-    <row r="15" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>28</v>
       </c>
@@ -43627,6 +43841,12 @@
       <c r="E28" s="19">
         <v>7.0999999999999994E-2</v>
       </c>
+      <c r="F28" s="19">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G28" s="19">
+        <v>7.9000000000000001E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
@@ -43640,6 +43860,14 @@
       </c>
       <c r="E29" s="19">
         <v>0.14899999999999999</v>
+      </c>
+      <c r="F29" s="18">
+        <f>0.072-F28</f>
+        <v>5.9999999999999915E-3</v>
+      </c>
+      <c r="G29" s="18">
+        <f>G28-0.072</f>
+        <v>7.0000000000000062E-3</v>
       </c>
     </row>
     <row r="30" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -43674,6 +43902,9 @@
       </c>
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
+      <c r="F32" t="s">
+        <v>153</v>
+      </c>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
       <c r="U32" s="21"/>
@@ -43695,6 +43926,36 @@
         <v>223</v>
       </c>
       <c r="E33" s="54"/>
+      <c r="F33" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="J33" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="K33" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="L33" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="M33" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="N33" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="O33" s="54" t="s">
+        <v>576</v>
+      </c>
       <c r="T33" s="21"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
@@ -43715,6 +43976,24 @@
         <v>0.02</v>
       </c>
       <c r="E34" s="54"/>
+      <c r="F34" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G34" s="37">
+        <v>1</v>
+      </c>
+      <c r="H34" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="40">
+        <v>1.6</v>
+      </c>
+      <c r="J34" s="40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M34">
+        <v>0.9</v>
+      </c>
       <c r="T34" s="21"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
@@ -43735,6 +44014,24 @@
         <v>2.93E-2</v>
       </c>
       <c r="E35" s="54"/>
+      <c r="F35" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G35" s="37">
+        <v>3.1</v>
+      </c>
+      <c r="H35" s="40">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I35" s="40">
+        <v>4</v>
+      </c>
+      <c r="J35" s="40">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M35">
+        <v>1.3</v>
+      </c>
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
@@ -43755,6 +44052,24 @@
         <v>0.21</v>
       </c>
       <c r="E36" s="54"/>
+      <c r="F36" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G36" s="37">
+        <v>6.3</v>
+      </c>
+      <c r="H36" s="40">
+        <v>4.8</v>
+      </c>
+      <c r="I36" s="40">
+        <v>7.7</v>
+      </c>
+      <c r="J36" s="40">
+        <v>7.9</v>
+      </c>
+      <c r="M36">
+        <v>4.3</v>
+      </c>
       <c r="T36" s="21"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
@@ -43775,6 +44090,24 @@
         <v>0.24</v>
       </c>
       <c r="E37" s="54"/>
+      <c r="F37" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G37" s="37">
+        <v>6.6</v>
+      </c>
+      <c r="H37" s="40">
+        <v>5.2</v>
+      </c>
+      <c r="I37" s="40">
+        <v>8</v>
+      </c>
+      <c r="J37" s="40">
+        <v>6.6</v>
+      </c>
+      <c r="M37">
+        <v>6.6</v>
+      </c>
       <c r="T37" s="21"/>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
@@ -43795,6 +44128,24 @@
         <v>0.2</v>
       </c>
       <c r="E38" s="54"/>
+      <c r="F38" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G38" s="37">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H38" s="40">
+        <v>6.7</v>
+      </c>
+      <c r="I38" s="40">
+        <v>10.7</v>
+      </c>
+      <c r="J38" s="40">
+        <v>12.3</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
       <c r="T38" s="21"/>
       <c r="U38" s="21"/>
       <c r="V38" s="21"/>
@@ -43815,6 +44166,24 @@
         <v>0.31</v>
       </c>
       <c r="E39" s="54"/>
+      <c r="F39" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G39" s="37">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H39" s="40">
+        <v>7.1</v>
+      </c>
+      <c r="I39" s="40">
+        <v>11.6</v>
+      </c>
+      <c r="J39" s="40">
+        <v>10.6</v>
+      </c>
+      <c r="M39">
+        <v>8.1</v>
+      </c>
       <c r="T39" s="21"/>
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
@@ -43835,6 +44204,24 @@
         <v>0.16</v>
       </c>
       <c r="E40" s="54"/>
+      <c r="F40" s="21" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G40" s="37">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H40" s="40">
+        <v>7.1</v>
+      </c>
+      <c r="I40" s="40">
+        <v>12.5</v>
+      </c>
+      <c r="J40" s="40">
+        <v>10.7</v>
+      </c>
+      <c r="M40" s="21">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="41" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
@@ -43848,6 +44235,24 @@
         <v>0.21</v>
       </c>
       <c r="E41" s="54"/>
+      <c r="F41" s="21" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G41" s="37">
+        <v>8.4</v>
+      </c>
+      <c r="H41" s="40">
+        <v>6.3</v>
+      </c>
+      <c r="I41" s="40">
+        <v>10.5</v>
+      </c>
+      <c r="J41" s="40">
+        <v>10</v>
+      </c>
+      <c r="M41" s="21">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="54"/>
@@ -43861,6 +44266,24 @@
         <v>0.12</v>
       </c>
       <c r="E42" s="54"/>
+      <c r="F42" s="21" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G42" s="37">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H42" s="40">
+        <v>2.4</v>
+      </c>
+      <c r="I42" s="40">
+        <v>6.4</v>
+      </c>
+      <c r="J42" s="40">
+        <v>5</v>
+      </c>
+      <c r="M42" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="54"/>
@@ -43874,6 +44297,24 @@
         <v>0.12</v>
       </c>
       <c r="E43" s="54"/>
+      <c r="F43" s="21" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G43" s="37">
+        <v>4</v>
+      </c>
+      <c r="H43" s="40">
+        <v>2</v>
+      </c>
+      <c r="I43" s="40">
+        <v>6.1</v>
+      </c>
+      <c r="J43" s="40">
+        <v>3</v>
+      </c>
+      <c r="M43" s="21">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="54"/>
@@ -43887,6 +44328,36 @@
         <v>5.11E-2</v>
       </c>
       <c r="E44" s="54"/>
+      <c r="F44" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44">
+        <v>5.6</v>
+      </c>
+      <c r="H44" s="40">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I44" s="40">
+        <v>6.3</v>
+      </c>
+      <c r="J44" s="40">
+        <v>6.9</v>
+      </c>
+      <c r="K44" s="40">
+        <v>6</v>
+      </c>
+      <c r="L44" s="40">
+        <v>7.7</v>
+      </c>
+      <c r="M44" s="40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N44" s="40">
+        <v>3.6</v>
+      </c>
+      <c r="O44" s="40">
+        <v>5.2</v>
+      </c>
       <c r="T44" s="21"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21"/>
@@ -43907,6 +44378,14 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="E45" s="54"/>
+      <c r="H45">
+        <f>G44-H44</f>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="I45">
+        <f>I44-G44</f>
+        <v>0.70000000000000018</v>
+      </c>
       <c r="T45" s="21"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
@@ -44747,8 +45226,26 @@
       <c r="U70" s="8">
         <v>5.4173999999999998</v>
       </c>
-      <c r="V70">
+      <c r="V70" s="8">
         <v>7.3044000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O71" s="8">
+        <f>N70-O70</f>
+        <v>1.2179000000000002</v>
+      </c>
+      <c r="P71" s="8">
+        <f>P70-N70</f>
+        <v>1.2179000000000002</v>
+      </c>
+      <c r="U71" s="8">
+        <f>T70-U70</f>
+        <v>0.94350000000000023</v>
+      </c>
+      <c r="V71" s="8">
+        <f>V70-T70</f>
+        <v>0.94350000000000023</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -45922,7 +46419,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>1011</v>
       </c>
@@ -45945,7 +46442,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>156</v>
       </c>
@@ -45968,7 +46465,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>157</v>
       </c>
@@ -45991,7 +46488,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>1012</v>
       </c>
@@ -46014,12 +46511,12 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>500</v>
       </c>
@@ -46035,8 +46532,26 @@
       <c r="G183" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I183" t="s">
+        <v>222</v>
+      </c>
+      <c r="J183" t="s">
+        <v>575</v>
+      </c>
+      <c r="K183" t="s">
+        <v>576</v>
+      </c>
+      <c r="L183" t="s">
+        <v>223</v>
+      </c>
+      <c r="M183" t="s">
+        <v>575</v>
+      </c>
+      <c r="N183" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>1990</v>
       </c>
@@ -46053,8 +46568,27 @@
         <f>E184-D184</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I184" s="40">
+        <v>5.9</v>
+      </c>
+      <c r="J184" s="40">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K184" s="40">
+        <v>7.1</v>
+      </c>
+      <c r="L184" s="40">
+        <v>5.3</v>
+      </c>
+      <c r="M184" s="40">
+        <v>4.2</v>
+      </c>
+      <c r="N184" s="40">
+        <v>6.3</v>
+      </c>
+      <c r="P184" s="37"/>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>1991</v>
       </c>
@@ -46072,8 +46606,28 @@
         <f t="shared" ref="G185:G212" si="0">E185-D185</f>
         <v>2.4000000000000004</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I185" s="40">
+        <v>7.6</v>
+      </c>
+      <c r="J185" s="40">
+        <v>6.4</v>
+      </c>
+      <c r="K185" s="40">
+        <v>9.1</v>
+      </c>
+      <c r="L185" s="40">
+        <v>6.4</v>
+      </c>
+      <c r="M185" s="40">
+        <v>5.2</v>
+      </c>
+      <c r="N185" s="40">
+        <v>7.8</v>
+      </c>
+      <c r="P185" s="37"/>
+      <c r="Q185" s="37"/>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>1992</v>
       </c>
@@ -46091,8 +46645,28 @@
         <f t="shared" si="0"/>
         <v>2.9000000000000004</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I186" s="40">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J186" s="40">
+        <v>7.8</v>
+      </c>
+      <c r="K186" s="40">
+        <v>11.1</v>
+      </c>
+      <c r="L186" s="40">
+        <v>7.5</v>
+      </c>
+      <c r="M186" s="40">
+        <v>6</v>
+      </c>
+      <c r="N186" s="40">
+        <v>9</v>
+      </c>
+      <c r="P186" s="37"/>
+      <c r="Q186" s="37"/>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B187" s="37">
         <v>1993</v>
       </c>
@@ -46110,8 +46684,28 @@
         <f t="shared" si="0"/>
         <v>3.3000000000000007</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I187" s="40">
+        <v>10.8</v>
+      </c>
+      <c r="J187" s="40">
+        <v>9</v>
+      </c>
+      <c r="K187" s="40">
+        <v>12.9</v>
+      </c>
+      <c r="L187" s="40">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M187" s="40">
+        <v>6.7</v>
+      </c>
+      <c r="N187" s="40">
+        <v>10.1</v>
+      </c>
+      <c r="P187" s="37"/>
+      <c r="Q187" s="37"/>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B188" s="37">
         <v>1994</v>
       </c>
@@ -46129,8 +46723,28 @@
         <f t="shared" si="0"/>
         <v>3.5999999999999996</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I188" s="40">
+        <v>11.9</v>
+      </c>
+      <c r="J188" s="40">
+        <v>9.9</v>
+      </c>
+      <c r="K188" s="40">
+        <v>14.2</v>
+      </c>
+      <c r="L188" s="40">
+        <v>8.9</v>
+      </c>
+      <c r="M188" s="40">
+        <v>7.2</v>
+      </c>
+      <c r="N188" s="40">
+        <v>10.7</v>
+      </c>
+      <c r="P188" s="37"/>
+      <c r="Q188" s="37"/>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B189" s="37">
         <v>1995</v>
       </c>
@@ -46148,8 +46762,28 @@
         <f t="shared" si="0"/>
         <v>3.6999999999999993</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I189" s="40">
+        <v>12.6</v>
+      </c>
+      <c r="J189" s="40">
+        <v>10.5</v>
+      </c>
+      <c r="K189" s="40">
+        <v>15</v>
+      </c>
+      <c r="L189" s="40">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M189" s="40">
+        <v>7.4</v>
+      </c>
+      <c r="N189" s="40">
+        <v>11.1</v>
+      </c>
+      <c r="P189" s="37"/>
+      <c r="Q189" s="37"/>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B190" s="37">
         <v>1996</v>
       </c>
@@ -46167,8 +46801,28 @@
         <f t="shared" si="0"/>
         <v>3.7999999999999989</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I190" s="40">
+        <v>12.9</v>
+      </c>
+      <c r="J190" s="40">
+        <v>10.7</v>
+      </c>
+      <c r="K190" s="40">
+        <v>15.4</v>
+      </c>
+      <c r="L190" s="40">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M190" s="40">
+        <v>7.4</v>
+      </c>
+      <c r="N190" s="40">
+        <v>11.1</v>
+      </c>
+      <c r="P190" s="37"/>
+      <c r="Q190" s="37"/>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B191" s="37">
         <v>1997</v>
       </c>
@@ -46186,8 +46840,28 @@
         <f t="shared" si="0"/>
         <v>3.7999999999999989</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I191" s="40">
+        <v>12.9</v>
+      </c>
+      <c r="J191" s="40">
+        <v>10.7</v>
+      </c>
+      <c r="K191" s="40">
+        <v>15.4</v>
+      </c>
+      <c r="L191" s="40">
+        <v>9</v>
+      </c>
+      <c r="M191" s="40">
+        <v>7.3</v>
+      </c>
+      <c r="N191" s="40">
+        <v>10.9</v>
+      </c>
+      <c r="P191" s="37"/>
+      <c r="Q191" s="37"/>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B192" s="37">
         <v>1998</v>
       </c>
@@ -46205,8 +46879,28 @@
         <f t="shared" si="0"/>
         <v>3.7000000000000011</v>
       </c>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I192" s="40">
+        <v>12.7</v>
+      </c>
+      <c r="J192" s="40">
+        <v>10.6</v>
+      </c>
+      <c r="K192" s="40">
+        <v>15.2</v>
+      </c>
+      <c r="L192" s="40">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M192" s="40">
+        <v>7</v>
+      </c>
+      <c r="N192" s="40">
+        <v>10.5</v>
+      </c>
+      <c r="P192" s="37"/>
+      <c r="Q192" s="37"/>
+    </row>
+    <row r="193" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B193" s="37">
         <v>1999</v>
       </c>
@@ -46224,8 +46918,28 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I193" s="40">
+        <v>12.3</v>
+      </c>
+      <c r="J193" s="40">
+        <v>10.3</v>
+      </c>
+      <c r="K193" s="40">
+        <v>14.7</v>
+      </c>
+      <c r="L193" s="40">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M193" s="40">
+        <v>6.7</v>
+      </c>
+      <c r="N193" s="40">
+        <v>10</v>
+      </c>
+      <c r="P193" s="37"/>
+      <c r="Q193" s="37"/>
+    </row>
+    <row r="194" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B194" s="37">
         <v>2000</v>
       </c>
@@ -46243,8 +46957,28 @@
         <f t="shared" si="0"/>
         <v>3.2999999999999989</v>
       </c>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I194" s="40">
+        <v>11.8</v>
+      </c>
+      <c r="J194" s="40">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K194" s="40">
+        <v>14.1</v>
+      </c>
+      <c r="L194" s="40">
+        <v>7.8</v>
+      </c>
+      <c r="M194" s="40">
+        <v>6.3</v>
+      </c>
+      <c r="N194" s="40">
+        <v>9.5</v>
+      </c>
+      <c r="P194" s="37"/>
+      <c r="Q194" s="37"/>
+    </row>
+    <row r="195" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B195" s="37">
         <v>2001</v>
       </c>
@@ -46262,8 +46996,28 @@
         <f t="shared" si="0"/>
         <v>3.1999999999999993</v>
       </c>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I195" s="40">
+        <v>11.2</v>
+      </c>
+      <c r="J195" s="40">
+        <v>9.4</v>
+      </c>
+      <c r="K195" s="40">
+        <v>13.5</v>
+      </c>
+      <c r="L195" s="40">
+        <v>7.3</v>
+      </c>
+      <c r="M195" s="40">
+        <v>5.9</v>
+      </c>
+      <c r="N195" s="40">
+        <v>8.9</v>
+      </c>
+      <c r="P195" s="37"/>
+      <c r="Q195" s="37"/>
+    </row>
+    <row r="196" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B196" s="37">
         <v>2002</v>
       </c>
@@ -46281,8 +47035,28 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I196" s="40">
+        <v>10.6</v>
+      </c>
+      <c r="J196" s="40">
+        <v>8.9</v>
+      </c>
+      <c r="K196" s="40">
+        <v>12.7</v>
+      </c>
+      <c r="L196" s="40">
+        <v>6.9</v>
+      </c>
+      <c r="M196" s="40">
+        <v>5.5</v>
+      </c>
+      <c r="N196" s="40">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P196" s="37"/>
+      <c r="Q196" s="37"/>
+    </row>
+    <row r="197" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B197" s="37">
         <v>2003</v>
       </c>
@@ -46300,8 +47074,28 @@
         <f t="shared" si="0"/>
         <v>2.8000000000000007</v>
       </c>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I197" s="40">
+        <v>10</v>
+      </c>
+      <c r="J197" s="40">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K197" s="40">
+        <v>12</v>
+      </c>
+      <c r="L197" s="40">
+        <v>6.4</v>
+      </c>
+      <c r="M197" s="40">
+        <v>5.2</v>
+      </c>
+      <c r="N197" s="40">
+        <v>7.7</v>
+      </c>
+      <c r="P197" s="37"/>
+      <c r="Q197" s="37"/>
+    </row>
+    <row r="198" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B198" s="37">
         <v>2004</v>
       </c>
@@ -46319,8 +47113,28 @@
         <f t="shared" si="0"/>
         <v>2.6999999999999993</v>
       </c>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I198" s="40">
+        <v>9.4</v>
+      </c>
+      <c r="J198" s="40">
+        <v>7.9</v>
+      </c>
+      <c r="K198" s="40">
+        <v>11.3</v>
+      </c>
+      <c r="L198" s="40">
+        <v>5.9</v>
+      </c>
+      <c r="M198" s="40">
+        <v>4.8</v>
+      </c>
+      <c r="N198" s="40">
+        <v>7.2</v>
+      </c>
+      <c r="P198" s="37"/>
+      <c r="Q198" s="37"/>
+    </row>
+    <row r="199" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B199" s="37">
         <v>2005</v>
       </c>
@@ -46338,8 +47152,28 @@
         <f t="shared" si="0"/>
         <v>2.4999999999999991</v>
       </c>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I199" s="40">
+        <v>8.9</v>
+      </c>
+      <c r="J199" s="40">
+        <v>7.4</v>
+      </c>
+      <c r="K199" s="40">
+        <v>10.7</v>
+      </c>
+      <c r="L199" s="40">
+        <v>5.6</v>
+      </c>
+      <c r="M199" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="N199" s="40">
+        <v>6.7</v>
+      </c>
+      <c r="P199" s="37"/>
+      <c r="Q199" s="37"/>
+    </row>
+    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B200" s="37">
         <v>2006</v>
       </c>
@@ -46357,8 +47191,28 @@
         <f t="shared" si="0"/>
         <v>2.2999999999999989</v>
       </c>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I200" s="40">
+        <v>8.5</v>
+      </c>
+      <c r="J200" s="40">
+        <v>7.1</v>
+      </c>
+      <c r="K200" s="40">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="L200" s="40">
+        <v>5.3</v>
+      </c>
+      <c r="M200" s="40">
+        <v>4.3</v>
+      </c>
+      <c r="N200" s="40">
+        <v>6.4</v>
+      </c>
+      <c r="P200" s="37"/>
+      <c r="Q200" s="37"/>
+    </row>
+    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B201" s="37">
         <v>2007</v>
       </c>
@@ -46376,8 +47230,28 @@
         <f t="shared" si="0"/>
         <v>2.3000000000000007</v>
       </c>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I201" s="40">
+        <v>8.1</v>
+      </c>
+      <c r="J201" s="40">
+        <v>6.8</v>
+      </c>
+      <c r="K201" s="40">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L201" s="40">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M201" s="40">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N201" s="40">
+        <v>6.1</v>
+      </c>
+      <c r="P201" s="37"/>
+      <c r="Q201" s="37"/>
+    </row>
+    <row r="202" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B202" s="37">
         <v>2008</v>
       </c>
@@ -46395,8 +47269,28 @@
         <f t="shared" si="0"/>
         <v>2.1999999999999993</v>
       </c>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I202" s="40">
+        <v>7.9</v>
+      </c>
+      <c r="J202" s="40">
+        <v>6.5</v>
+      </c>
+      <c r="K202" s="40">
+        <v>9.4</v>
+      </c>
+      <c r="L202" s="40">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M202" s="40">
+        <v>3.9</v>
+      </c>
+      <c r="N202" s="40">
+        <v>5.9</v>
+      </c>
+      <c r="P202" s="37"/>
+      <c r="Q202" s="37"/>
+    </row>
+    <row r="203" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B203" s="37">
         <v>2009</v>
       </c>
@@ -46414,8 +47308,28 @@
         <f t="shared" si="0"/>
         <v>2.0999999999999996</v>
       </c>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I203" s="40">
+        <v>7.6</v>
+      </c>
+      <c r="J203" s="40">
+        <v>6.3</v>
+      </c>
+      <c r="K203" s="40">
+        <v>9.1</v>
+      </c>
+      <c r="L203" s="40">
+        <v>4.7</v>
+      </c>
+      <c r="M203" s="40">
+        <v>3.8</v>
+      </c>
+      <c r="N203" s="40">
+        <v>5.7</v>
+      </c>
+      <c r="P203" s="37"/>
+      <c r="Q203" s="37"/>
+    </row>
+    <row r="204" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B204" s="37">
         <v>2010</v>
       </c>
@@ -46433,8 +47347,28 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I204" s="40">
+        <v>7.4</v>
+      </c>
+      <c r="J204" s="40">
+        <v>6.1</v>
+      </c>
+      <c r="K204" s="40">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L204" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="M204" s="40">
+        <v>3.7</v>
+      </c>
+      <c r="N204" s="40">
+        <v>5.5</v>
+      </c>
+      <c r="P204" s="37"/>
+      <c r="Q204" s="37"/>
+    </row>
+    <row r="205" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B205" s="37">
         <v>2011</v>
       </c>
@@ -46452,8 +47386,28 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I205" s="40">
+        <v>7.1</v>
+      </c>
+      <c r="J205" s="40">
+        <v>5.9</v>
+      </c>
+      <c r="K205" s="40">
+        <v>8.5</v>
+      </c>
+      <c r="L205" s="40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M205" s="40">
+        <v>3.6</v>
+      </c>
+      <c r="N205" s="40">
+        <v>5.3</v>
+      </c>
+      <c r="P205" s="37"/>
+      <c r="Q205" s="37"/>
+    </row>
+    <row r="206" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B206" s="37">
         <v>2012</v>
       </c>
@@ -46471,8 +47425,28 @@
         <f t="shared" si="0"/>
         <v>1.9000000000000004</v>
       </c>
-    </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I206" s="40">
+        <v>7</v>
+      </c>
+      <c r="J206" s="40">
+        <v>5.8</v>
+      </c>
+      <c r="K206" s="40">
+        <v>8.4</v>
+      </c>
+      <c r="L206" s="40">
+        <v>4.3</v>
+      </c>
+      <c r="M206" s="40">
+        <v>3.4</v>
+      </c>
+      <c r="N206" s="40">
+        <v>5.2</v>
+      </c>
+      <c r="P206" s="37"/>
+      <c r="Q206" s="37"/>
+    </row>
+    <row r="207" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B207" s="37">
         <v>2013</v>
       </c>
@@ -46490,8 +47464,28 @@
         <f t="shared" si="0"/>
         <v>1.8999999999999995</v>
       </c>
-    </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I207" s="40">
+        <v>6.9</v>
+      </c>
+      <c r="J207" s="40">
+        <v>5.7</v>
+      </c>
+      <c r="K207" s="40">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L207" s="40">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M207" s="40">
+        <v>3.3</v>
+      </c>
+      <c r="N207" s="40">
+        <v>5</v>
+      </c>
+      <c r="P207" s="37"/>
+      <c r="Q207" s="37"/>
+    </row>
+    <row r="208" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B208" s="37">
         <v>2014</v>
       </c>
@@ -46509,8 +47503,28 @@
         <f t="shared" si="0"/>
         <v>1.8000000000000007</v>
       </c>
-    </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I208" s="40">
+        <v>6.7</v>
+      </c>
+      <c r="J208" s="40">
+        <v>5.6</v>
+      </c>
+      <c r="K208" s="40">
+        <v>8.1</v>
+      </c>
+      <c r="L208" s="40">
+        <v>4</v>
+      </c>
+      <c r="M208" s="40">
+        <v>3.2</v>
+      </c>
+      <c r="N208" s="40">
+        <v>4.8</v>
+      </c>
+      <c r="P208" s="37"/>
+      <c r="Q208" s="37"/>
+    </row>
+    <row r="209" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B209" s="37">
         <v>2015</v>
       </c>
@@ -46528,8 +47542,28 @@
         <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
-    </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I209" s="40">
+        <v>6.6</v>
+      </c>
+      <c r="J209" s="40">
+        <v>5.5</v>
+      </c>
+      <c r="K209" s="40">
+        <v>7.9</v>
+      </c>
+      <c r="L209" s="40">
+        <v>3.8</v>
+      </c>
+      <c r="M209" s="40">
+        <v>3.1</v>
+      </c>
+      <c r="N209" s="40">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P209" s="37"/>
+      <c r="Q209" s="37"/>
+    </row>
+    <row r="210" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B210" s="37">
         <v>2016</v>
       </c>
@@ -46547,8 +47581,28 @@
         <f t="shared" si="0"/>
         <v>1.7000000000000002</v>
       </c>
-    </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I210" s="40">
+        <v>6.4</v>
+      </c>
+      <c r="J210" s="40">
+        <v>5.3</v>
+      </c>
+      <c r="K210" s="40">
+        <v>7.7</v>
+      </c>
+      <c r="L210" s="40">
+        <v>3.7</v>
+      </c>
+      <c r="M210" s="40">
+        <v>3</v>
+      </c>
+      <c r="N210" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="P210" s="37"/>
+      <c r="Q210" s="37"/>
+    </row>
+    <row r="211" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B211" s="37">
         <v>2017</v>
       </c>
@@ -46566,8 +47620,28 @@
         <f t="shared" si="0"/>
         <v>1.5999999999999996</v>
       </c>
-    </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I211" s="40">
+        <v>6.2</v>
+      </c>
+      <c r="J211" s="40">
+        <v>5.2</v>
+      </c>
+      <c r="K211" s="40">
+        <v>7.5</v>
+      </c>
+      <c r="L211" s="40">
+        <v>3.5</v>
+      </c>
+      <c r="M211" s="40">
+        <v>2.9</v>
+      </c>
+      <c r="N211" s="40">
+        <v>4.3</v>
+      </c>
+      <c r="P211" s="37"/>
+      <c r="Q211" s="37"/>
+    </row>
+    <row r="212" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B212" s="37">
         <v>2018</v>
       </c>
@@ -46584,6 +47658,32 @@
       <c r="G212" s="37">
         <f t="shared" si="0"/>
         <v>1.7000000000000002</v>
+      </c>
+      <c r="I212" s="40">
+        <v>6.1</v>
+      </c>
+      <c r="J212" s="40">
+        <v>5</v>
+      </c>
+      <c r="K212" s="40">
+        <v>7.2</v>
+      </c>
+      <c r="L212" s="40">
+        <v>3.4</v>
+      </c>
+      <c r="M212" s="40">
+        <v>2.8</v>
+      </c>
+      <c r="N212" s="40">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P212" s="37"/>
+      <c r="Q212" s="37"/>
+    </row>
+    <row r="213" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K213" s="37" t="str">
+        <f t="shared" ref="K185:K213" si="1">LEFT(L213,4)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="8100" tabRatio="835" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="4770" tabRatio="835" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -4930,11 +4930,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5054,7 +5054,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5862,7 +5861,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7385,7 +7383,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9336,7 +9333,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9439,7 +9435,6 @@
         <c:idx val="13"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9521,7 +9516,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9954,7 +9948,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10061,7 +10054,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10553,7 +10545,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10665,7 +10656,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11122,7 +11112,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11234,7 +11223,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12047,7 +12035,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12167,7 +12154,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12795,7 +12781,6 @@
         <c:idx val="2"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14067,7 +14052,6 @@
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14174,7 +14158,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14642,7 +14625,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14757,7 +14739,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15864,7 +15845,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15979,7 +15959,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17027,7 +17006,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17134,7 +17112,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18086,7 +18063,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18193,7 +18169,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18814,7 +18789,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20435,7 +20409,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21033,7 +21006,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21140,7 +21112,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21738,7 +21709,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -32370,15 +32340,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>52385</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>126205</xdr:rowOff>
+      <xdr:colOff>611979</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>230</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:rowOff>107157</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35001,8 +34971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y231"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H201" sqref="H201"/>
+    <sheetView topLeftCell="A166" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I178" sqref="I178:O184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37268,7 +37238,7 @@
         <v>21448774</v>
       </c>
       <c r="E55" s="37">
-        <f t="shared" ref="E55:E57" si="17">C55/D55</f>
+        <f>C55/D55</f>
         <v>0.1635133084995907</v>
       </c>
     </row>
@@ -37283,7 +37253,7 @@
         <v>28686607</v>
       </c>
       <c r="E56" s="37">
-        <f t="shared" si="17"/>
+        <f>C56/D56</f>
         <v>0.15310963753921822</v>
       </c>
     </row>
@@ -37291,14 +37261,14 @@
       <c r="B57">
         <v>2009</v>
       </c>
-      <c r="C57" s="83">
+      <c r="C57" s="82">
         <v>5442711</v>
       </c>
       <c r="D57">
         <v>38610097</v>
       </c>
       <c r="E57" s="37">
-        <f t="shared" si="17"/>
+        <f>C57/D57</f>
         <v>0.1409660017171156</v>
       </c>
     </row>
@@ -37431,7 +37401,7 @@
         <v>355120</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:E85" si="18">SUM(C67:D67)</f>
+        <f t="shared" ref="E67:E85" si="17">SUM(C67:D67)</f>
         <v>707582</v>
       </c>
       <c r="G67" t="s">
@@ -37447,7 +37417,7 @@
         <v>4534902</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L83" si="19">C67/E$85*100</f>
+        <f t="shared" ref="L67:L83" si="18">C67/E$85*100</f>
         <v>8.0247329581831046</v>
       </c>
       <c r="M67">
@@ -37482,7 +37452,7 @@
         <v>310927</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>619950</v>
       </c>
       <c r="G68" s="15" t="s">
@@ -37499,27 +37469,27 @@
       </c>
       <c r="K68" s="4"/>
       <c r="L68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7.0357288244877951</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68:M83" si="20">D68/E$85*100</f>
+        <f t="shared" ref="M68:M83" si="19">D68/E$85*100</f>
         <v>7.0790784382117735</v>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68:O83" si="21">H68/J$85*100</f>
+        <f t="shared" ref="O68:O83" si="20">H68/J$85*100</f>
         <v>6.8415115387296943</v>
       </c>
       <c r="P68">
-        <f t="shared" ref="P68:P83" si="22">I68/J$85*100</f>
+        <f t="shared" ref="P68:P83" si="21">I68/J$85*100</f>
         <v>6.9740640033465802</v>
       </c>
       <c r="R68" s="7">
-        <f t="shared" ref="R68:R83" si="23">C68/H68*100</f>
+        <f t="shared" ref="R68:R83" si="22">C68/H68*100</f>
         <v>15.745945593399627</v>
       </c>
       <c r="S68" s="7">
-        <f t="shared" ref="S68:S83" si="24">D68/I68*100</f>
+        <f t="shared" ref="S68:S83" si="23">D68/I68*100</f>
         <v>15.541842865568986</v>
       </c>
     </row>
@@ -37534,7 +37504,7 @@
         <v>344306</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>681321</v>
       </c>
       <c r="G69" s="15" t="s">
@@ -37551,27 +37521,27 @@
         <v>4038635</v>
       </c>
       <c r="L69">
+        <f t="shared" si="18"/>
+        <v>7.673041002723922</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="19"/>
-        <v>7.673041002723922</v>
-      </c>
-      <c r="M69">
+        <v>7.8390399699831246</v>
+      </c>
+      <c r="O69">
         <f t="shared" si="20"/>
-        <v>7.8390399699831246</v>
-      </c>
-      <c r="O69">
+        <v>6.9847835180924491</v>
+      </c>
+      <c r="P69">
         <f t="shared" si="21"/>
-        <v>6.9847835180924491</v>
-      </c>
-      <c r="P69">
+        <v>7.0939831276580909</v>
+      </c>
+      <c r="R69" s="7">
         <f t="shared" si="22"/>
-        <v>7.0939831276580909</v>
-      </c>
-      <c r="R69" s="7">
+        <v>16.820011429113297</v>
+      </c>
+      <c r="S69" s="7">
         <f t="shared" si="23"/>
-        <v>16.820011429113297</v>
-      </c>
-      <c r="S69" s="7">
-        <f t="shared" si="24"/>
         <v>16.919380043047106</v>
       </c>
     </row>
@@ -37586,7 +37556,7 @@
         <v>275864</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>556971</v>
       </c>
       <c r="G70" t="s">
@@ -37599,31 +37569,31 @@
         <v>1681984</v>
       </c>
       <c r="J70" s="4">
-        <f t="shared" ref="J70:J85" si="25">SUM(H70:I70)</f>
+        <f t="shared" ref="J70:J85" si="24">SUM(H70:I70)</f>
         <v>3403178</v>
       </c>
       <c r="L70">
+        <f t="shared" si="18"/>
+        <v>6.4001469879759467</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="19"/>
-        <v>6.4001469879759467</v>
-      </c>
-      <c r="M70">
+        <v>6.2807761766551398</v>
+      </c>
+      <c r="O70">
         <f t="shared" si="20"/>
-        <v>6.2807761766551398</v>
-      </c>
-      <c r="O70">
+        <v>6.0001185247158899</v>
+      </c>
+      <c r="P70">
         <f t="shared" si="21"/>
-        <v>6.0001185247158899</v>
-      </c>
-      <c r="P70">
+        <v>5.8634316391271</v>
+      </c>
+      <c r="R70" s="7">
         <f t="shared" si="22"/>
-        <v>5.8634316391271</v>
-      </c>
-      <c r="R70" s="7">
+        <v>16.332092721680418</v>
+      </c>
+      <c r="S70" s="7">
         <f t="shared" si="23"/>
-        <v>16.332092721680418</v>
-      </c>
-      <c r="S70" s="7">
-        <f t="shared" si="24"/>
         <v>16.401107263802746</v>
       </c>
     </row>
@@ -37638,7 +37608,7 @@
         <v>176491</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>401114</v>
       </c>
       <c r="G71" t="s">
@@ -37651,31 +37621,31 @@
         <v>1328529</v>
       </c>
       <c r="J71" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2832918</v>
       </c>
       <c r="L71">
+        <f t="shared" si="18"/>
+        <v>5.1141388043702971</v>
+      </c>
+      <c r="M71">
         <f t="shared" si="19"/>
-        <v>5.1141388043702971</v>
-      </c>
-      <c r="M71">
+        <v>4.0182860692009195</v>
+      </c>
+      <c r="O71">
         <f t="shared" si="20"/>
-        <v>4.0182860692009195</v>
-      </c>
-      <c r="O71">
+        <v>5.2443317297636485</v>
+      </c>
+      <c r="P71">
         <f t="shared" si="21"/>
-        <v>5.2443317297636485</v>
-      </c>
-      <c r="P71">
+        <v>4.6312800669316045</v>
+      </c>
+      <c r="R71" s="7">
         <f t="shared" si="22"/>
-        <v>4.6312800669316045</v>
-      </c>
-      <c r="R71" s="7">
+        <v>14.93117803972244</v>
+      </c>
+      <c r="S71" s="7">
         <f t="shared" si="23"/>
-        <v>14.93117803972244</v>
-      </c>
-      <c r="S71" s="7">
-        <f t="shared" si="24"/>
         <v>13.284693070305579</v>
       </c>
     </row>
@@ -37690,7 +37660,7 @@
         <v>127695</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>290493</v>
       </c>
       <c r="G72" t="s">
@@ -37703,31 +37673,31 @@
         <v>1094909</v>
       </c>
       <c r="J72" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2259503</v>
       </c>
       <c r="L72">
+        <f t="shared" si="18"/>
+        <v>3.706528579325695</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="19"/>
-        <v>3.706528579325695</v>
-      </c>
-      <c r="M72">
+        <v>2.9073156115983894</v>
+      </c>
+      <c r="O72">
         <f t="shared" si="20"/>
-        <v>2.9073156115983894</v>
-      </c>
-      <c r="O72">
+        <v>4.0597992051871996</v>
+      </c>
+      <c r="P72">
         <f t="shared" si="21"/>
-        <v>4.0597992051871996</v>
-      </c>
-      <c r="P72">
+        <v>3.8168758279300006</v>
+      </c>
+      <c r="R72" s="7">
         <f t="shared" si="22"/>
-        <v>3.8168758279300006</v>
-      </c>
-      <c r="R72" s="7">
+        <v>13.978948886908228</v>
+      </c>
+      <c r="S72" s="7">
         <f t="shared" si="23"/>
-        <v>13.978948886908228</v>
-      </c>
-      <c r="S72" s="7">
-        <f t="shared" si="24"/>
         <v>11.662613057340838</v>
       </c>
     </row>
@@ -37742,7 +37712,7 @@
         <v>100423</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>223560</v>
       </c>
       <c r="G73" t="s">
@@ -37755,31 +37725,31 @@
         <v>840692</v>
       </c>
       <c r="J73" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1685922</v>
       </c>
       <c r="L73">
+        <f t="shared" si="18"/>
+        <v>2.8035406434503378</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="19"/>
-        <v>2.8035406434503378</v>
-      </c>
-      <c r="M73">
+        <v>2.2863961444343559</v>
+      </c>
+      <c r="O73">
         <f t="shared" si="20"/>
-        <v>2.2863961444343559</v>
-      </c>
-      <c r="O73">
+        <v>2.946489576797044</v>
+      </c>
+      <c r="P73">
         <f t="shared" si="21"/>
-        <v>2.946489576797044</v>
-      </c>
-      <c r="P73">
+        <v>2.9306700132468801</v>
+      </c>
+      <c r="R73" s="7">
         <f t="shared" si="22"/>
-        <v>2.9306700132468801</v>
-      </c>
-      <c r="R73" s="7">
+        <v>14.56846065567952</v>
+      </c>
+      <c r="S73" s="7">
         <f t="shared" si="23"/>
-        <v>14.56846065567952</v>
-      </c>
-      <c r="S73" s="7">
-        <f t="shared" si="24"/>
         <v>11.945278413497453</v>
       </c>
     </row>
@@ -37794,7 +37764,7 @@
         <v>90340</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>203842</v>
       </c>
       <c r="G74" t="s">
@@ -37807,31 +37777,31 @@
         <v>695263</v>
       </c>
       <c r="J74" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1419012</v>
       </c>
       <c r="L74">
+        <f t="shared" si="18"/>
+        <v>2.5841742945897677</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="19"/>
-        <v>2.5841742945897677</v>
-      </c>
-      <c r="M74">
+        <v>2.0568298864622614</v>
+      </c>
+      <c r="O74">
         <f t="shared" si="20"/>
-        <v>2.0568298864622614</v>
-      </c>
-      <c r="O74">
+        <v>2.5230042529456878</v>
+      </c>
+      <c r="P74">
         <f t="shared" si="21"/>
-        <v>2.5230042529456878</v>
-      </c>
-      <c r="P74">
+        <v>2.4237014571568012</v>
+      </c>
+      <c r="R74" s="7">
         <f t="shared" si="22"/>
-        <v>2.4237014571568012</v>
-      </c>
-      <c r="R74" s="7">
+        <v>15.682508715037949</v>
+      </c>
+      <c r="S74" s="7">
         <f t="shared" si="23"/>
-        <v>15.682508715037949</v>
-      </c>
-      <c r="S74" s="7">
-        <f t="shared" si="24"/>
         <v>12.993644131788978</v>
       </c>
     </row>
@@ -37846,7 +37816,7 @@
         <v>70808</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>155000</v>
       </c>
       <c r="G75" t="s">
@@ -37859,31 +37829,31 @@
         <v>516502</v>
       </c>
       <c r="J75" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1033491</v>
       </c>
       <c r="L75">
+        <f t="shared" si="18"/>
+        <v>1.916854348030006</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="19"/>
-        <v>1.916854348030006</v>
-      </c>
-      <c r="M75">
+        <v>1.6121320633232215</v>
+      </c>
+      <c r="O75">
         <f t="shared" si="20"/>
-        <v>1.6121320633232215</v>
-      </c>
-      <c r="O75">
+        <v>1.8022345394966186</v>
+      </c>
+      <c r="P75">
         <f t="shared" si="21"/>
-        <v>1.8022345394966186</v>
-      </c>
-      <c r="P75">
+        <v>1.8005368472425576</v>
+      </c>
+      <c r="R75" s="7">
         <f t="shared" si="22"/>
-        <v>1.8005368472425576</v>
-      </c>
-      <c r="R75" s="7">
+        <v>16.285066026549888</v>
+      </c>
+      <c r="S75" s="7">
         <f t="shared" si="23"/>
-        <v>16.285066026549888</v>
-      </c>
-      <c r="S75" s="7">
-        <f t="shared" si="24"/>
         <v>13.709143430228732</v>
       </c>
     </row>
@@ -37898,7 +37868,7 @@
         <v>58367</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>128165</v>
       </c>
       <c r="G76" t="s">
@@ -37911,31 +37881,31 @@
         <v>419341</v>
       </c>
       <c r="J76" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>838328</v>
       </c>
       <c r="L76">
+        <f t="shared" si="18"/>
+        <v>1.5891367325137584</v>
+      </c>
+      <c r="M76">
         <f t="shared" si="19"/>
-        <v>1.5891367325137584</v>
-      </c>
-      <c r="M76">
+        <v>1.3288796765900246</v>
+      </c>
+      <c r="O76">
         <f t="shared" si="20"/>
-        <v>1.3288796765900246</v>
-      </c>
-      <c r="O76">
+        <v>1.4605975040089243</v>
+      </c>
+      <c r="P76">
         <f t="shared" si="21"/>
-        <v>1.4605975040089243</v>
-      </c>
-      <c r="P76">
+        <v>1.4618315554625949</v>
+      </c>
+      <c r="R76" s="7">
         <f t="shared" si="22"/>
-        <v>1.4618315554625949</v>
-      </c>
-      <c r="R76" s="7">
+        <v>16.658750748829913</v>
+      </c>
+      <c r="S76" s="7">
         <f t="shared" si="23"/>
-        <v>16.658750748829913</v>
-      </c>
-      <c r="S76" s="7">
-        <f t="shared" si="24"/>
         <v>13.918743933934435</v>
       </c>
     </row>
@@ -37950,7 +37920,7 @@
         <v>48982</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>103822</v>
       </c>
       <c r="G77" t="s">
@@ -37963,31 +37933,31 @@
         <v>344639</v>
       </c>
       <c r="J77" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>684806</v>
       </c>
       <c r="L77">
+        <f t="shared" si="18"/>
+        <v>1.2485781599910386</v>
+      </c>
+      <c r="M77">
         <f t="shared" si="19"/>
-        <v>1.2485781599910386</v>
-      </c>
-      <c r="M77">
+        <v>1.1152052412961533</v>
+      </c>
+      <c r="O77">
         <f t="shared" si="20"/>
-        <v>1.1152052412961533</v>
-      </c>
-      <c r="O77">
+        <v>1.1858293244091194</v>
+      </c>
+      <c r="P77">
         <f t="shared" si="21"/>
-        <v>1.1858293244091194</v>
-      </c>
-      <c r="P77">
+        <v>1.201418810569616</v>
+      </c>
+      <c r="R77" s="7">
         <f t="shared" si="22"/>
-        <v>1.201418810569616</v>
-      </c>
-      <c r="R77" s="7">
+        <v>16.121493266542611</v>
+      </c>
+      <c r="S77" s="7">
         <f t="shared" si="23"/>
-        <v>16.121493266542611</v>
-      </c>
-      <c r="S77" s="7">
-        <f t="shared" si="24"/>
         <v>14.212552845151013</v>
       </c>
     </row>
@@ -38002,7 +37972,7 @@
         <v>33143</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>73250</v>
       </c>
       <c r="G78" t="s">
@@ -38015,31 +37985,31 @@
         <v>223591</v>
       </c>
       <c r="J78" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>459916</v>
       </c>
       <c r="L78">
+        <f t="shared" si="18"/>
+        <v>0.91314230967834764</v>
+      </c>
+      <c r="M78">
         <f t="shared" si="19"/>
-        <v>0.91314230967834764</v>
-      </c>
-      <c r="M78">
+        <v>0.75458836536438723</v>
+      </c>
+      <c r="O78">
         <f t="shared" si="20"/>
-        <v>0.75458836536438723</v>
-      </c>
-      <c r="O78">
+        <v>0.82383392595691274</v>
+      </c>
+      <c r="P78">
         <f t="shared" si="21"/>
-        <v>0.82383392595691274</v>
-      </c>
-      <c r="P78">
+        <v>0.77944293383532037</v>
+      </c>
+      <c r="R78" s="7">
         <f t="shared" si="22"/>
-        <v>0.77944293383532037</v>
-      </c>
-      <c r="R78" s="7">
+        <v>16.97112027927642</v>
+      </c>
+      <c r="S78" s="7">
         <f t="shared" si="23"/>
-        <v>16.97112027927642</v>
-      </c>
-      <c r="S78" s="7">
-        <f t="shared" si="24"/>
         <v>14.823047439297646</v>
       </c>
     </row>
@@ -38054,7 +38024,7 @@
         <v>30966</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>70173</v>
       </c>
       <c r="G79" t="s">
@@ -38067,31 +38037,31 @@
         <v>194513</v>
       </c>
       <c r="J79" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>409228</v>
       </c>
       <c r="L79">
+        <f t="shared" si="18"/>
+        <v>0.89265142083823212</v>
+      </c>
+      <c r="M79">
         <f t="shared" si="19"/>
-        <v>0.89265142083823212</v>
-      </c>
-      <c r="M79">
+        <v>0.70502318202557446</v>
+      </c>
+      <c r="O79">
         <f t="shared" si="20"/>
-        <v>0.70502318202557446</v>
-      </c>
-      <c r="O79">
+        <v>0.7485010109461061</v>
+      </c>
+      <c r="P79">
         <f t="shared" si="21"/>
-        <v>0.7485010109461061</v>
-      </c>
-      <c r="P79">
+        <v>0.67807641358153803</v>
+      </c>
+      <c r="R79" s="7">
         <f t="shared" si="22"/>
-        <v>0.67807641358153803</v>
-      </c>
-      <c r="R79" s="7">
+        <v>18.260019095079524</v>
+      </c>
+      <c r="S79" s="7">
         <f t="shared" si="23"/>
-        <v>18.260019095079524</v>
-      </c>
-      <c r="S79" s="7">
-        <f t="shared" si="24"/>
         <v>15.919758576547583</v>
       </c>
     </row>
@@ -38106,7 +38076,7 @@
         <v>25395</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>58795</v>
       </c>
       <c r="G80" t="s">
@@ -38119,31 +38089,31 @@
         <v>140969</v>
       </c>
       <c r="J80" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>301333</v>
       </c>
       <c r="L80">
+        <f t="shared" si="18"/>
+        <v>0.76043965251095347</v>
+      </c>
+      <c r="M80">
         <f t="shared" si="19"/>
-        <v>0.76043965251095347</v>
-      </c>
-      <c r="M80">
+        <v>0.57818458010525942</v>
+      </c>
+      <c r="O80">
         <f t="shared" si="20"/>
-        <v>0.57818458010525942</v>
-      </c>
-      <c r="O80">
+        <v>0.55903228055497456</v>
+      </c>
+      <c r="P80">
         <f t="shared" si="21"/>
-        <v>0.55903228055497456</v>
-      </c>
-      <c r="P80">
+        <v>0.49142090218224921</v>
+      </c>
+      <c r="R80" s="7">
         <f t="shared" si="22"/>
-        <v>0.49142090218224921</v>
-      </c>
-      <c r="R80" s="7">
+        <v>20.827617170936119</v>
+      </c>
+      <c r="S80" s="7">
         <f t="shared" si="23"/>
-        <v>20.827617170936119</v>
-      </c>
-      <c r="S80" s="7">
-        <f t="shared" si="24"/>
         <v>18.014598954380041</v>
       </c>
     </row>
@@ -38158,7 +38128,7 @@
         <v>18984</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>41667</v>
       </c>
       <c r="G81" t="s">
@@ -38171,31 +38141,31 @@
         <v>118601</v>
       </c>
       <c r="J81" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>254125</v>
       </c>
       <c r="L81">
+        <f t="shared" si="18"/>
+        <v>0.51643870173371131</v>
+      </c>
+      <c r="M81">
         <f t="shared" si="19"/>
-        <v>0.51643870173371131</v>
-      </c>
-      <c r="M81">
+        <v>0.4322211486008366</v>
+      </c>
+      <c r="O81">
         <f t="shared" si="20"/>
-        <v>0.4322211486008366</v>
-      </c>
-      <c r="O81">
+        <v>0.47243951753468588</v>
+      </c>
+      <c r="P81">
         <f t="shared" si="21"/>
-        <v>0.47243951753468588</v>
-      </c>
-      <c r="P81">
+        <v>0.41344558321132258</v>
+      </c>
+      <c r="R81" s="7">
         <f t="shared" si="22"/>
-        <v>0.41344558321132258</v>
-      </c>
-      <c r="R81" s="7">
+        <v>16.737256869631949</v>
+      </c>
+      <c r="S81" s="7">
         <f t="shared" si="23"/>
-        <v>16.737256869631949</v>
-      </c>
-      <c r="S81" s="7">
-        <f t="shared" si="24"/>
         <v>16.006610399575045</v>
       </c>
     </row>
@@ -38210,7 +38180,7 @@
         <v>12388</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>25810</v>
       </c>
       <c r="G82" t="s">
@@ -38223,31 +38193,31 @@
         <v>79166</v>
       </c>
       <c r="J82" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>160786</v>
       </c>
       <c r="L82">
+        <f t="shared" si="18"/>
+        <v>0.30558745556892269</v>
+      </c>
+      <c r="M82">
         <f t="shared" si="19"/>
-        <v>0.30558745556892269</v>
-      </c>
-      <c r="M82">
+        <v>0.28204570105705667</v>
+      </c>
+      <c r="O82">
         <f t="shared" si="20"/>
-        <v>0.28204570105705667</v>
-      </c>
-      <c r="O82">
+        <v>0.28452903855539291</v>
+      </c>
+      <c r="P82">
         <f t="shared" si="21"/>
-        <v>0.28452903855539291</v>
-      </c>
-      <c r="P82">
+        <v>0.27597434288503103</v>
+      </c>
+      <c r="R82" s="7">
         <f t="shared" si="22"/>
-        <v>0.27597434288503103</v>
-      </c>
-      <c r="R82" s="7">
+        <v>16.444498897329083</v>
+      </c>
+      <c r="S82" s="7">
         <f t="shared" si="23"/>
-        <v>16.444498897329083</v>
-      </c>
-      <c r="S82" s="7">
-        <f t="shared" si="24"/>
         <v>15.648131773741254</v>
       </c>
     </row>
@@ -38262,7 +38232,7 @@
         <v>12850</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>27581</v>
       </c>
       <c r="G83" t="s">
@@ -38275,31 +38245,31 @@
         <v>95300</v>
       </c>
       <c r="J83" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>216338</v>
       </c>
       <c r="L83">
+        <f t="shared" si="18"/>
+        <v>0.33539031500415739</v>
+      </c>
+      <c r="M83">
         <f t="shared" si="19"/>
-        <v>0.33539031500415739</v>
-      </c>
-      <c r="M83">
+        <v>0.29256435732831598</v>
+      </c>
+      <c r="O83">
         <f t="shared" si="20"/>
-        <v>0.29256435732831598</v>
-      </c>
-      <c r="O83">
+        <v>0.42194101652373983</v>
+      </c>
+      <c r="P83">
         <f t="shared" si="21"/>
-        <v>0.42194101652373983</v>
-      </c>
-      <c r="P83">
+        <v>0.33221780659555183</v>
+      </c>
+      <c r="R83" s="7">
         <f t="shared" si="22"/>
-        <v>0.33221780659555183</v>
-      </c>
-      <c r="R83" s="7">
+        <v>12.170558006576448</v>
+      </c>
+      <c r="S83" s="7">
         <f t="shared" si="23"/>
-        <v>12.170558006576448</v>
-      </c>
-      <c r="S83" s="7">
-        <f t="shared" si="24"/>
         <v>13.483735571878281</v>
       </c>
     </row>
@@ -38314,7 +38284,7 @@
         <v>11257</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>23100</v>
       </c>
       <c r="G84" t="s">
@@ -38327,7 +38297,7 @@
         <v>103487</v>
       </c>
       <c r="J84" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>190443</v>
       </c>
     </row>
@@ -38344,7 +38314,7 @@
         <v>2104306</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>4392196</v>
       </c>
       <c r="G85" t="s">
@@ -38359,7 +38329,7 @@
         <v>14204982</v>
       </c>
       <c r="J85" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>28686000</v>
       </c>
     </row>
@@ -38446,7 +38416,7 @@
         <v>475717</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" ref="E91:E109" si="26">SUM(C91:D91)</f>
+        <f t="shared" ref="E91:E109" si="25">SUM(C91:D91)</f>
         <v>947849</v>
       </c>
       <c r="G91" t="s">
@@ -38471,7 +38441,7 @@
         <v>-7.771125257727272</v>
       </c>
       <c r="N91" s="8">
-        <f t="shared" ref="N91:N107" si="27">C91/E$109*100</f>
+        <f t="shared" ref="N91:N107" si="26">C91/E$109*100</f>
         <v>8.6745741230794735</v>
       </c>
       <c r="O91" s="8">
@@ -38498,7 +38468,7 @@
         <v>407362</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>814940</v>
       </c>
       <c r="G92" s="15" t="s">
@@ -38511,31 +38481,31 @@
         <v>2832669</v>
       </c>
       <c r="J92" s="4">
-        <f t="shared" ref="J92:J109" si="28">SUM(H92:I92)</f>
+        <f t="shared" ref="J92:J109" si="27">SUM(H92:I92)</f>
         <v>5597716</v>
       </c>
       <c r="L92" s="4">
-        <f t="shared" ref="L92:L106" si="29">H92/J$109*100</f>
+        <f t="shared" ref="L92:L106" si="28">H92/J$109*100</f>
         <v>7.1614608997226812</v>
       </c>
       <c r="M92" s="4">
-        <f t="shared" ref="M92:M107" si="30">-(I92/J$109)*100</f>
+        <f t="shared" ref="M92:M107" si="29">-(I92/J$109)*100</f>
         <v>-7.3366016148573783</v>
       </c>
       <c r="N92" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>7.4885107807487845</v>
       </c>
       <c r="O92" s="8">
-        <f t="shared" ref="O92:O107" si="31">-(D92/E$109)*100</f>
+        <f t="shared" ref="O92:O107" si="30">-(D92/E$109)*100</f>
         <v>-7.4845421702530226</v>
       </c>
       <c r="Q92" s="7">
-        <f t="shared" ref="Q92:Q107" si="32">C92/H92*100</f>
+        <f t="shared" ref="Q92:Q107" si="31">C92/H92*100</f>
         <v>14.740364268672469</v>
       </c>
       <c r="R92" s="7">
-        <f t="shared" ref="R92:R107" si="33">D92/I92*100</f>
+        <f t="shared" ref="R92:R107" si="32">D92/I92*100</f>
         <v>14.380854240294225</v>
       </c>
     </row>
@@ -38550,7 +38520,7 @@
         <v>370855</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>736716</v>
       </c>
       <c r="G93" s="15" t="s">
@@ -38563,31 +38533,31 @@
         <v>2565313</v>
       </c>
       <c r="J93" s="4">
+        <f t="shared" si="27"/>
+        <v>5034855</v>
+      </c>
+      <c r="L93" s="4">
         <f t="shared" si="28"/>
-        <v>5034855</v>
-      </c>
-      <c r="L93" s="4">
+        <v>6.3961041071717588</v>
+      </c>
+      <c r="M93" s="4">
         <f t="shared" si="29"/>
-        <v>6.3961041071717588</v>
-      </c>
-      <c r="M93" s="4">
+        <v>-6.6441506220510149</v>
+      </c>
+      <c r="N93" s="8">
+        <f t="shared" si="26"/>
+        <v>6.7220361323612448</v>
+      </c>
+      <c r="O93" s="8">
         <f t="shared" si="30"/>
-        <v>-6.6441506220510149</v>
-      </c>
-      <c r="N93" s="8">
-        <f t="shared" si="27"/>
-        <v>6.7220361323612448</v>
-      </c>
-      <c r="O93" s="8">
+        <v>-6.8137918768790033</v>
+      </c>
+      <c r="Q93" s="7">
         <f t="shared" si="31"/>
-        <v>-6.8137918768790033</v>
-      </c>
-      <c r="Q93" s="7">
+        <v>14.814933295323588</v>
+      </c>
+      <c r="R93" s="7">
         <f t="shared" si="32"/>
-        <v>14.814933295323588</v>
-      </c>
-      <c r="R93" s="7">
-        <f t="shared" si="33"/>
         <v>14.456520510362672</v>
       </c>
     </row>
@@ -38602,7 +38572,7 @@
         <v>316129</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>629797</v>
       </c>
       <c r="G94" t="s">
@@ -38615,31 +38585,31 @@
         <v>2123653</v>
       </c>
       <c r="J94" s="4">
+        <f t="shared" si="27"/>
+        <v>4169543</v>
+      </c>
+      <c r="L94" s="4">
         <f t="shared" si="28"/>
-        <v>4169543</v>
-      </c>
-      <c r="L94" s="4">
+        <v>5.2988470865535504</v>
+      </c>
+      <c r="M94" s="4">
         <f t="shared" si="29"/>
-        <v>5.2988470865535504</v>
-      </c>
-      <c r="M94" s="4">
+        <v>-5.500252951967461</v>
+      </c>
+      <c r="N94" s="8">
+        <f t="shared" si="26"/>
+        <v>5.7630838749292401</v>
+      </c>
+      <c r="O94" s="8">
         <f t="shared" si="30"/>
-        <v>-5.500252951967461</v>
-      </c>
-      <c r="N94" s="8">
-        <f t="shared" si="27"/>
-        <v>5.7630838749292401</v>
-      </c>
-      <c r="O94" s="8">
+        <v>-5.8083003121054935</v>
+      </c>
+      <c r="Q94" s="7">
         <f t="shared" si="31"/>
-        <v>-5.8083003121054935</v>
-      </c>
-      <c r="Q94" s="7">
+        <v>15.331616069290138</v>
+      </c>
+      <c r="R94" s="7">
         <f t="shared" si="32"/>
-        <v>15.331616069290138</v>
-      </c>
-      <c r="R94" s="7">
-        <f t="shared" si="33"/>
         <v>14.886094856363069</v>
       </c>
     </row>
@@ -38654,7 +38624,7 @@
         <v>227933</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>522624</v>
       </c>
       <c r="G95" t="s">
@@ -38667,31 +38637,31 @@
         <v>1754105</v>
       </c>
       <c r="J95" s="4">
+        <f t="shared" si="27"/>
+        <v>3775103</v>
+      </c>
+      <c r="L95" s="4">
         <f t="shared" si="28"/>
-        <v>3775103</v>
-      </c>
-      <c r="L95" s="4">
+        <v>5.2343769040518078</v>
+      </c>
+      <c r="M95" s="4">
         <f t="shared" si="29"/>
-        <v>5.2343769040518078</v>
-      </c>
-      <c r="M95" s="4">
+        <v>-4.5431250794319418</v>
+      </c>
+      <c r="N95" s="8">
+        <f t="shared" si="26"/>
+        <v>5.4144157204011014</v>
+      </c>
+      <c r="O95" s="8">
         <f t="shared" si="30"/>
-        <v>-4.5431250794319418</v>
-      </c>
-      <c r="N95" s="8">
-        <f t="shared" si="27"/>
-        <v>5.4144157204011014</v>
-      </c>
-      <c r="O95" s="8">
+        <v>-4.187857852456248</v>
+      </c>
+      <c r="Q95" s="7">
         <f t="shared" si="31"/>
-        <v>-4.187857852456248</v>
-      </c>
-      <c r="Q95" s="7">
+        <v>14.581459259237267</v>
+      </c>
+      <c r="R95" s="7">
         <f t="shared" si="32"/>
-        <v>14.581459259237267</v>
-      </c>
-      <c r="R95" s="7">
-        <f t="shared" si="33"/>
         <v>12.994262031064274</v>
       </c>
     </row>
@@ -38706,7 +38676,7 @@
         <v>183083</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>398538</v>
       </c>
       <c r="G96" t="s">
@@ -38719,31 +38689,31 @@
         <v>1529116</v>
       </c>
       <c r="J96" s="4">
+        <f t="shared" si="27"/>
+        <v>3201226</v>
+      </c>
+      <c r="L96" s="4">
         <f t="shared" si="28"/>
-        <v>3201226</v>
-      </c>
-      <c r="L96" s="4">
+        <v>4.3307583505941469</v>
+      </c>
+      <c r="M96" s="4">
         <f t="shared" si="29"/>
-        <v>4.3307583505941469</v>
-      </c>
-      <c r="M96" s="4">
+        <v>-3.9604044506803495</v>
+      </c>
+      <c r="N96" s="8">
+        <f t="shared" si="26"/>
+        <v>3.9585971035390264</v>
+      </c>
+      <c r="O96" s="8">
         <f t="shared" si="30"/>
-        <v>-3.9604044506803495</v>
-      </c>
-      <c r="N96" s="8">
-        <f t="shared" si="27"/>
-        <v>3.9585971035390264</v>
-      </c>
-      <c r="O96" s="8">
+        <v>-3.3638199786834173</v>
+      </c>
+      <c r="Q96" s="7">
         <f t="shared" si="31"/>
-        <v>-3.3638199786834173</v>
-      </c>
-      <c r="Q96" s="7">
+        <v>12.885216881664482</v>
+      </c>
+      <c r="R96" s="7">
         <f t="shared" si="32"/>
-        <v>12.885216881664482</v>
-      </c>
-      <c r="R96" s="7">
-        <f t="shared" si="33"/>
         <v>11.973126957013072</v>
       </c>
     </row>
@@ -38758,7 +38728,7 @@
         <v>142868</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>296843</v>
       </c>
       <c r="G97" t="s">
@@ -38771,31 +38741,31 @@
         <v>1257035</v>
       </c>
       <c r="J97" s="4">
+        <f t="shared" si="27"/>
+        <v>2519506</v>
+      </c>
+      <c r="L97" s="4">
         <f t="shared" si="28"/>
-        <v>2519506</v>
-      </c>
-      <c r="L97" s="4">
+        <v>3.2697949450891044</v>
+      </c>
+      <c r="M97" s="4">
         <f t="shared" si="29"/>
-        <v>3.2697949450891044</v>
-      </c>
-      <c r="M97" s="4">
+        <v>-3.2557157263811067</v>
+      </c>
+      <c r="N97" s="8">
+        <f t="shared" si="26"/>
+        <v>2.829012967985991</v>
+      </c>
+      <c r="O97" s="8">
         <f t="shared" si="30"/>
-        <v>-3.2557157263811067</v>
-      </c>
-      <c r="N97" s="8">
-        <f t="shared" si="27"/>
-        <v>2.829012967985991</v>
-      </c>
-      <c r="O97" s="8">
+        <v>-2.6249418717988147</v>
+      </c>
+      <c r="Q97" s="7">
         <f t="shared" si="31"/>
-        <v>-2.6249418717988147</v>
-      </c>
-      <c r="Q97" s="7">
+        <v>12.196319757047885</v>
+      </c>
+      <c r="R97" s="7">
         <f t="shared" si="32"/>
-        <v>12.196319757047885</v>
-      </c>
-      <c r="R97" s="7">
-        <f t="shared" si="33"/>
         <v>11.365475106102853</v>
       </c>
     </row>
@@ -38810,7 +38780,7 @@
         <v>106733</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>230142</v>
       </c>
       <c r="G98" t="s">
@@ -38823,31 +38793,31 @@
         <v>1004361</v>
       </c>
       <c r="J98" s="4">
+        <f t="shared" si="27"/>
+        <v>2008632</v>
+      </c>
+      <c r="L98" s="4">
         <f t="shared" si="28"/>
-        <v>2008632</v>
-      </c>
-      <c r="L98" s="4">
+        <v>2.6010579564200524</v>
+      </c>
+      <c r="M98" s="4">
         <f t="shared" si="29"/>
-        <v>2.6010579564200524</v>
-      </c>
-      <c r="M98" s="4">
+        <v>-2.6012910560675362</v>
+      </c>
+      <c r="N98" s="8">
+        <f t="shared" si="26"/>
+        <v>2.2674178364421702</v>
+      </c>
+      <c r="O98" s="8">
         <f t="shared" si="30"/>
-        <v>-2.6012910560675362</v>
-      </c>
-      <c r="N98" s="8">
-        <f t="shared" si="27"/>
-        <v>2.2674178364421702</v>
-      </c>
-      <c r="O98" s="8">
+        <v>-1.9610264076119419</v>
+      </c>
+      <c r="Q98" s="7">
         <f t="shared" si="31"/>
-        <v>-1.9610264076119419</v>
-      </c>
-      <c r="Q98" s="7">
+        <v>12.28841617451863</v>
+      </c>
+      <c r="R98" s="7">
         <f t="shared" si="32"/>
-        <v>12.28841617451863</v>
-      </c>
-      <c r="R98" s="7">
-        <f t="shared" si="33"/>
         <v>10.626955845557523</v>
       </c>
     </row>
@@ -38862,7 +38832,7 @@
         <v>77883</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>173521</v>
       </c>
       <c r="G99" t="s">
@@ -38875,31 +38845,31 @@
         <v>743594</v>
       </c>
       <c r="J99" s="4">
+        <f t="shared" si="27"/>
+        <v>1476169</v>
+      </c>
+      <c r="L99" s="4">
         <f t="shared" si="28"/>
-        <v>1476169</v>
-      </c>
-      <c r="L99" s="4">
+        <v>1.8973663806128225</v>
+      </c>
+      <c r="M99" s="4">
         <f t="shared" si="29"/>
-        <v>1.8973663806128225</v>
-      </c>
-      <c r="M99" s="4">
+        <v>-1.9259055474530404</v>
+      </c>
+      <c r="N99" s="8">
+        <f t="shared" si="26"/>
+        <v>1.7571757897856417</v>
+      </c>
+      <c r="O99" s="8">
         <f t="shared" si="30"/>
-        <v>-1.9259055474530404</v>
-      </c>
-      <c r="N99" s="8">
-        <f t="shared" si="27"/>
-        <v>1.7571757897856417</v>
-      </c>
-      <c r="O99" s="8">
+        <v>-1.4309596816733428</v>
+      </c>
+      <c r="Q99" s="7">
         <f t="shared" si="31"/>
-        <v>-1.4309596816733428</v>
-      </c>
-      <c r="Q99" s="7">
+        <v>13.055045558475243</v>
+      </c>
+      <c r="R99" s="7">
         <f t="shared" si="32"/>
-        <v>13.055045558475243</v>
-      </c>
-      <c r="R99" s="7">
-        <f t="shared" si="33"/>
         <v>10.47386073583165</v>
       </c>
     </row>
@@ -38914,7 +38884,7 @@
         <v>75090</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>166874</v>
       </c>
       <c r="G100" t="s">
@@ -38927,31 +38897,31 @@
         <v>635276</v>
       </c>
       <c r="J100" s="4">
+        <f t="shared" si="27"/>
+        <v>1272745</v>
+      </c>
+      <c r="L100" s="4">
         <f t="shared" si="28"/>
-        <v>1272745</v>
-      </c>
-      <c r="L100" s="4">
+        <v>1.6510422131288611</v>
+      </c>
+      <c r="M100" s="4">
         <f t="shared" si="29"/>
-        <v>1.6510422131288611</v>
-      </c>
-      <c r="M100" s="4">
+        <v>-1.6453623517185156</v>
+      </c>
+      <c r="N100" s="8">
+        <f t="shared" si="26"/>
+        <v>1.6863654895510714</v>
+      </c>
+      <c r="O100" s="8">
         <f t="shared" si="30"/>
-        <v>-1.6453623517185156</v>
-      </c>
-      <c r="N100" s="8">
-        <f t="shared" si="27"/>
-        <v>1.6863654895510714</v>
-      </c>
-      <c r="O100" s="8">
+        <v>-1.3796433431795294</v>
+      </c>
+      <c r="Q100" s="7">
         <f t="shared" si="31"/>
-        <v>-1.3796433431795294</v>
-      </c>
-      <c r="Q100" s="7">
+        <v>14.39819034337356</v>
+      </c>
+      <c r="R100" s="7">
         <f t="shared" si="32"/>
-        <v>14.39819034337356</v>
-      </c>
-      <c r="R100" s="7">
-        <f t="shared" si="33"/>
         <v>11.820059312802625</v>
       </c>
     </row>
@@ -38966,7 +38936,7 @@
         <v>60986</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>135460</v>
       </c>
       <c r="G101" t="s">
@@ -38979,31 +38949,31 @@
         <v>478346</v>
       </c>
       <c r="J101" s="4">
+        <f t="shared" si="27"/>
+        <v>956206</v>
+      </c>
+      <c r="L101" s="4">
         <f t="shared" si="28"/>
-        <v>956206</v>
-      </c>
-      <c r="L101" s="4">
+        <v>1.2376555282935444</v>
+      </c>
+      <c r="M101" s="4">
         <f t="shared" si="29"/>
-        <v>1.2376555282935444</v>
-      </c>
-      <c r="M101" s="4">
+        <v>-1.2389142663899548</v>
+      </c>
+      <c r="N101" s="8">
+        <f t="shared" si="26"/>
+        <v>1.3683254539879115</v>
+      </c>
+      <c r="O101" s="8">
         <f t="shared" si="30"/>
-        <v>-1.2389142663899548</v>
-      </c>
-      <c r="N101" s="8">
-        <f t="shared" si="27"/>
-        <v>1.3683254539879115</v>
-      </c>
-      <c r="O101" s="8">
+        <v>-1.120507776363654</v>
+      </c>
+      <c r="Q101" s="7">
         <f t="shared" si="31"/>
-        <v>-1.120507776363654</v>
-      </c>
-      <c r="Q101" s="7">
+        <v>15.58489934290378</v>
+      </c>
+      <c r="R101" s="7">
         <f t="shared" si="32"/>
-        <v>15.58489934290378</v>
-      </c>
-      <c r="R101" s="7">
-        <f t="shared" si="33"/>
         <v>12.749348797732186</v>
       </c>
     </row>
@@ -39018,7 +38988,7 @@
         <v>48144</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>103349</v>
       </c>
       <c r="G102" t="s">
@@ -39031,31 +39001,31 @@
         <v>359466</v>
       </c>
       <c r="J102" s="4">
+        <f t="shared" si="27"/>
+        <v>711953</v>
+      </c>
+      <c r="L102" s="4">
         <f t="shared" si="28"/>
-        <v>711953</v>
-      </c>
-      <c r="L102" s="4">
+        <v>0.9129399493609146</v>
+      </c>
+      <c r="M102" s="4">
         <f t="shared" si="29"/>
-        <v>0.9129399493609146</v>
-      </c>
-      <c r="M102" s="4">
+        <v>-0.93101553202521081</v>
+      </c>
+      <c r="N102" s="8">
+        <f t="shared" si="26"/>
+        <v>1.0142923260117982</v>
+      </c>
+      <c r="O102" s="8">
         <f t="shared" si="30"/>
-        <v>-0.93101553202521081</v>
-      </c>
-      <c r="N102" s="8">
-        <f t="shared" si="27"/>
-        <v>1.0142923260117982</v>
-      </c>
-      <c r="O102" s="8">
+        <v>-0.88455918383320375</v>
+      </c>
+      <c r="Q102" s="7">
         <f t="shared" si="31"/>
-        <v>-0.88455918383320375</v>
-      </c>
-      <c r="Q102" s="7">
+        <v>15.661570497635374</v>
+      </c>
+      <c r="R102" s="7">
         <f t="shared" si="32"/>
-        <v>15.661570497635374</v>
-      </c>
-      <c r="R102" s="7">
-        <f t="shared" si="33"/>
         <v>13.393199913204587</v>
       </c>
     </row>
@@ -39070,7 +39040,7 @@
         <v>40141</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>86914</v>
       </c>
       <c r="G103" t="s">
@@ -39083,31 +39053,31 @@
         <v>295197</v>
       </c>
       <c r="J103" s="4">
+        <f t="shared" si="27"/>
+        <v>593778</v>
+      </c>
+      <c r="L103" s="4">
         <f t="shared" si="28"/>
-        <v>593778</v>
-      </c>
-      <c r="L103" s="4">
+        <v>0.77332362050268866</v>
+      </c>
+      <c r="M103" s="4">
         <f t="shared" si="29"/>
-        <v>0.77332362050268866</v>
-      </c>
-      <c r="M103" s="4">
+        <v>-0.76455907375731269</v>
+      </c>
+      <c r="N103" s="8">
+        <f t="shared" si="26"/>
+        <v>0.85936953110315795</v>
+      </c>
+      <c r="O103" s="8">
         <f t="shared" si="30"/>
-        <v>-0.76455907375731269</v>
-      </c>
-      <c r="N103" s="8">
-        <f t="shared" si="27"/>
-        <v>0.85936953110315795</v>
-      </c>
-      <c r="O103" s="8">
+        <v>-0.7375184903258688</v>
+      </c>
+      <c r="Q103" s="7">
         <f t="shared" si="31"/>
-        <v>-0.7375184903258688</v>
-      </c>
-      <c r="Q103" s="7">
+        <v>15.665095903624144</v>
+      </c>
+      <c r="R103" s="7">
         <f t="shared" si="32"/>
-        <v>15.665095903624144</v>
-      </c>
-      <c r="R103" s="7">
-        <f t="shared" si="33"/>
         <v>13.598037920439571</v>
       </c>
     </row>
@@ -39122,7 +39092,7 @@
         <v>25151</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>57943</v>
       </c>
       <c r="G104" t="s">
@@ -39135,31 +39105,31 @@
         <v>183151</v>
       </c>
       <c r="J104" s="4">
+        <f t="shared" si="27"/>
+        <v>390763</v>
+      </c>
+      <c r="L104" s="4">
         <f t="shared" si="28"/>
-        <v>390763</v>
-      </c>
-      <c r="L104" s="4">
+        <v>0.53771426681471435</v>
+      </c>
+      <c r="M104" s="4">
         <f t="shared" si="29"/>
-        <v>0.53771426681471435</v>
-      </c>
-      <c r="M104" s="4">
+        <v>-0.47436037262480851</v>
+      </c>
+      <c r="N104" s="8">
+        <f t="shared" si="26"/>
+        <v>0.60249386748625822</v>
+      </c>
+      <c r="O104" s="8">
         <f t="shared" si="30"/>
-        <v>-0.47436037262480851</v>
-      </c>
-      <c r="N104" s="8">
-        <f t="shared" si="27"/>
-        <v>0.60249386748625822</v>
-      </c>
-      <c r="O104" s="8">
+        <v>-0.46210427119867287</v>
+      </c>
+      <c r="Q104" s="7">
         <f t="shared" si="31"/>
-        <v>-0.46210427119867287</v>
-      </c>
-      <c r="Q104" s="7">
+        <v>15.794848081999113</v>
+      </c>
+      <c r="R104" s="7">
         <f t="shared" si="32"/>
-        <v>15.794848081999113</v>
-      </c>
-      <c r="R104" s="7">
-        <f t="shared" si="33"/>
         <v>13.732384753564</v>
       </c>
     </row>
@@ -39174,7 +39144,7 @@
         <v>23013</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>52517</v>
       </c>
       <c r="G105" t="s">
@@ -39187,31 +39157,31 @@
         <v>160301</v>
       </c>
       <c r="J105" s="4">
+        <f t="shared" si="27"/>
+        <v>339301</v>
+      </c>
+      <c r="L105" s="4">
         <f t="shared" si="28"/>
-        <v>339301</v>
-      </c>
-      <c r="L105" s="4">
+        <v>0.46360929888365732</v>
+      </c>
+      <c r="M105" s="4">
         <f t="shared" si="29"/>
-        <v>0.46360929888365732</v>
-      </c>
-      <c r="M105" s="4">
+        <v>-0.41517896212485556</v>
+      </c>
+      <c r="N105" s="8">
+        <f t="shared" si="26"/>
+        <v>0.54208279660632364</v>
+      </c>
+      <c r="O105" s="8">
         <f t="shared" si="30"/>
-        <v>-0.41517896212485556</v>
-      </c>
-      <c r="N105" s="8">
-        <f t="shared" si="27"/>
-        <v>0.54208279660632364</v>
-      </c>
-      <c r="O105" s="8">
+        <v>-0.42282237656932359</v>
+      </c>
+      <c r="Q105" s="7">
         <f t="shared" si="31"/>
-        <v>-0.42282237656932359</v>
-      </c>
-      <c r="Q105" s="7">
+        <v>16.482681564245809</v>
+      </c>
+      <c r="R105" s="7">
         <f t="shared" si="32"/>
-        <v>16.482681564245809</v>
-      </c>
-      <c r="R105" s="7">
-        <f t="shared" si="33"/>
         <v>14.356117553851815</v>
       </c>
     </row>
@@ -39226,7 +39196,7 @@
         <v>15594</v>
       </c>
       <c r="E106" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>36832</v>
       </c>
       <c r="G106" t="s">
@@ -39239,31 +39209,31 @@
         <v>99833</v>
       </c>
       <c r="J106" s="4">
+        <f t="shared" si="27"/>
+        <v>218508</v>
+      </c>
+      <c r="L106" s="4">
         <f t="shared" si="28"/>
-        <v>218508</v>
-      </c>
-      <c r="L106" s="4">
+        <v>0.30736778516769847</v>
+      </c>
+      <c r="M106" s="4">
         <f t="shared" si="29"/>
-        <v>0.30736778516769847</v>
-      </c>
-      <c r="M106" s="4">
+        <v>-0.25856707896900644</v>
+      </c>
+      <c r="N106" s="8">
+        <f t="shared" si="26"/>
+        <v>0.3902099523564635</v>
+      </c>
+      <c r="O106" s="8">
         <f t="shared" si="30"/>
-        <v>-0.25856707896900644</v>
-      </c>
-      <c r="N106" s="8">
-        <f t="shared" si="27"/>
-        <v>0.3902099523564635</v>
-      </c>
-      <c r="O106" s="8">
+        <v>-0.28651162995793827</v>
+      </c>
+      <c r="Q106" s="7">
         <f t="shared" si="31"/>
-        <v>-0.28651162995793827</v>
-      </c>
-      <c r="Q106" s="7">
+        <v>17.895934274278492</v>
+      </c>
+      <c r="R106" s="7">
         <f t="shared" si="32"/>
-        <v>17.895934274278492</v>
-      </c>
-      <c r="R106" s="7">
-        <f t="shared" si="33"/>
         <v>15.620085542856572</v>
       </c>
     </row>
@@ -39278,7 +39248,7 @@
         <v>19734</v>
       </c>
       <c r="E107" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>49371</v>
       </c>
       <c r="G107" t="s">
@@ -39291,7 +39261,7 @@
         <v>159125</v>
       </c>
       <c r="J107" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>383701</v>
       </c>
       <c r="L107" s="4">
@@ -39299,23 +39269,23 @@
         <v>0.58165096036925268</v>
       </c>
       <c r="M107" s="4">
+        <f t="shared" si="29"/>
+        <v>-0.41213312673107244</v>
+      </c>
+      <c r="N107" s="8">
+        <f t="shared" si="26"/>
+        <v>0.54452643177269555</v>
+      </c>
+      <c r="O107" s="8">
         <f t="shared" si="30"/>
-        <v>-0.41213312673107244</v>
-      </c>
-      <c r="N107" s="8">
-        <f t="shared" si="27"/>
-        <v>0.54452643177269555</v>
-      </c>
-      <c r="O107" s="8">
+        <v>-0.36257666446004577</v>
+      </c>
+      <c r="Q107" s="7">
         <f t="shared" si="31"/>
-        <v>-0.36257666446004577</v>
-      </c>
-      <c r="Q107" s="7">
+        <v>13.196868766030208</v>
+      </c>
+      <c r="R107" s="7">
         <f t="shared" si="32"/>
-        <v>13.196868766030208</v>
-      </c>
-      <c r="R107" s="7">
-        <f t="shared" si="33"/>
         <v>12.401571091908876</v>
       </c>
     </row>
@@ -39330,7 +39300,7 @@
         <v>1318</v>
       </c>
       <c r="E108" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2481</v>
       </c>
       <c r="G108" t="s">
@@ -39343,7 +39313,7 @@
         <v>11478</v>
       </c>
       <c r="J108" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>21086</v>
       </c>
     </row>
@@ -39360,7 +39330,7 @@
         <v>2617734</v>
       </c>
       <c r="E109" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>5442711</v>
       </c>
       <c r="G109" t="s">
@@ -39375,7 +39345,7 @@
         <v>19192458</v>
       </c>
       <c r="J109" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>38610097</v>
       </c>
     </row>
@@ -42998,8 +42968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43016,7 +42986,7 @@
       <c r="B2" t="s">
         <v>391</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>158</v>
       </c>
       <c r="T2" s="21"/>
@@ -43204,6 +43174,10 @@
       <c r="W5" s="7">
         <v>29.052900000000001</v>
       </c>
+      <c r="X5" s="8">
+        <f>R12-S12</f>
+        <v>4.460700000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -43265,6 +43239,10 @@
       </c>
       <c r="W6" s="7">
         <v>25.658000000000001</v>
+      </c>
+      <c r="X6" s="8">
+        <f>T12-R12</f>
+        <v>4.4608000000000008</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -45158,7 +45136,7 @@
       <c r="S69" s="7">
         <v>15.9191</v>
       </c>
-      <c r="T69" s="84">
+      <c r="T69" s="83">
         <v>9.1097999999999999</v>
       </c>
       <c r="U69" s="8">
@@ -45231,6 +45209,18 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D71" s="8">
+        <f>C70-D70</f>
+        <v>4.1184000000000012</v>
+      </c>
+      <c r="E71" s="8">
+        <f>E70-C70</f>
+        <v>4.1184999999999992</v>
+      </c>
+      <c r="F71" s="8">
+        <f>F70-G70</f>
+        <v>3.4876000000000005</v>
+      </c>
       <c r="O71" s="8">
         <f>N70-O70</f>
         <v>1.2179000000000002</v>
@@ -47682,7 +47672,7 @@
     </row>
     <row r="213" spans="2:17" x14ac:dyDescent="0.25">
       <c r="K213" s="37" t="str">
-        <f t="shared" ref="K185:K213" si="1">LEFT(L213,4)</f>
+        <f>LEFT(L213,4)</f>
         <v/>
       </c>
     </row>
@@ -50134,11 +50124,11 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C34" s="82">
+      <c r="C34" s="84">
         <v>2015</v>
       </c>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
       <c r="F34" s="23">
         <v>2015</v>
       </c>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="4770" tabRatio="835" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" tabRatio="835" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <sheet name="DALY" sheetId="1" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3211" uniqueCount="1349">
   <si>
     <t>Metric</t>
   </si>
@@ -4090,6 +4089,15 @@
   </si>
   <si>
     <t>60–64</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>*HIV clinic</t>
+  </si>
+  <si>
+    <t>*family planning clinic</t>
   </si>
 </sst>
 </file>
@@ -12862,7 +12870,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13198,7 +13205,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18907,7 +18913,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20227,7 +20232,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20302,7 +20306,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -42968,7 +42971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
@@ -53133,8 +53136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56718,7 +56721,9 @@
       <c r="A168" s="74" t="s">
         <v>601</v>
       </c>
-      <c r="B168" s="74"/>
+      <c r="B168" s="74">
+        <v>1</v>
+      </c>
       <c r="C168" s="74"/>
       <c r="D168" s="74">
         <v>0</v>
@@ -56748,7 +56753,9 @@
       <c r="A169" s="74" t="s">
         <v>459</v>
       </c>
-      <c r="B169" s="74"/>
+      <c r="B169" s="74">
+        <v>2</v>
+      </c>
       <c r="C169" s="74"/>
       <c r="D169" s="74">
         <v>0</v>
@@ -56778,7 +56785,9 @@
       <c r="A170" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="B170" s="74"/>
+      <c r="B170" s="74">
+        <v>3</v>
+      </c>
       <c r="C170" s="74"/>
       <c r="D170" s="74">
         <f>0.8*M170</f>
@@ -56813,7 +56822,9 @@
       <c r="A171" s="74" t="s">
         <v>311</v>
       </c>
-      <c r="B171" s="74"/>
+      <c r="B171" s="74">
+        <v>4</v>
+      </c>
       <c r="C171" s="74"/>
       <c r="D171" s="74">
         <f t="shared" ref="D171:D183" si="0">0.8*M171</f>
@@ -56848,7 +56859,9 @@
       <c r="A172" s="74" t="s">
         <v>602</v>
       </c>
-      <c r="B172" s="74"/>
+      <c r="B172" s="74">
+        <v>5</v>
+      </c>
       <c r="C172" s="74"/>
       <c r="D172" s="74">
         <f t="shared" si="0"/>
@@ -56885,7 +56898,9 @@
       <c r="A173" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="B173" s="74"/>
+      <c r="B173" s="74">
+        <v>6</v>
+      </c>
       <c r="C173" s="74"/>
       <c r="D173" s="74">
         <f t="shared" si="0"/>
@@ -56920,7 +56935,9 @@
       <c r="A174" s="74" t="s">
         <v>314</v>
       </c>
-      <c r="B174" s="74"/>
+      <c r="B174" s="74">
+        <v>7</v>
+      </c>
       <c r="C174" s="74"/>
       <c r="D174" s="74">
         <f t="shared" si="0"/>
@@ -56957,7 +56974,9 @@
       <c r="A175" s="74" t="s">
         <v>315</v>
       </c>
-      <c r="B175" s="74"/>
+      <c r="B175" s="74">
+        <v>8</v>
+      </c>
       <c r="C175" s="74"/>
       <c r="D175" s="74">
         <f t="shared" si="0"/>
@@ -56994,7 +57013,9 @@
       <c r="A176" s="74" t="s">
         <v>316</v>
       </c>
-      <c r="B176" s="74"/>
+      <c r="B176" s="74">
+        <v>9</v>
+      </c>
       <c r="C176" s="74"/>
       <c r="D176" s="74">
         <f t="shared" si="0"/>
@@ -57031,7 +57052,9 @@
       <c r="A177" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="B177" s="74"/>
+      <c r="B177" s="74">
+        <v>10</v>
+      </c>
       <c r="C177" s="74"/>
       <c r="D177" s="74">
         <f t="shared" si="0"/>
@@ -57068,7 +57091,9 @@
       <c r="A178" s="74" t="s">
         <v>603</v>
       </c>
-      <c r="B178" s="74"/>
+      <c r="B178" s="74">
+        <v>11</v>
+      </c>
       <c r="C178" s="74"/>
       <c r="D178" s="74">
         <f t="shared" si="0"/>
@@ -57105,7 +57130,9 @@
       <c r="A179" s="74" t="s">
         <v>319</v>
       </c>
-      <c r="B179" s="74"/>
+      <c r="B179" s="74">
+        <v>12</v>
+      </c>
       <c r="C179" s="74"/>
       <c r="D179" s="74">
         <f t="shared" si="0"/>
@@ -57142,7 +57169,9 @@
       <c r="A180" s="74" t="s">
         <v>324</v>
       </c>
-      <c r="B180" s="74"/>
+      <c r="B180" s="74">
+        <v>13</v>
+      </c>
       <c r="C180" s="74"/>
       <c r="D180" s="74">
         <f t="shared" si="0"/>
@@ -57179,7 +57208,9 @@
       <c r="A181" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="B181" s="74"/>
+      <c r="B181" s="74">
+        <v>14</v>
+      </c>
       <c r="C181" s="74"/>
       <c r="D181" s="74">
         <f t="shared" si="0"/>
@@ -57216,7 +57247,9 @@
       <c r="A182" s="74" t="s">
         <v>463</v>
       </c>
-      <c r="B182" s="74"/>
+      <c r="B182" s="74">
+        <v>15</v>
+      </c>
       <c r="C182" s="74"/>
       <c r="D182" s="74">
         <f t="shared" si="0"/>
@@ -57253,7 +57286,9 @@
       <c r="A183" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="B183" s="74"/>
+      <c r="B183" s="74">
+        <v>16</v>
+      </c>
       <c r="C183" s="74"/>
       <c r="D183" s="74">
         <f t="shared" si="0"/>
@@ -57383,7 +57418,9 @@
       <c r="A188" s="74" t="s">
         <v>601</v>
       </c>
-      <c r="B188" s="74"/>
+      <c r="B188" s="74">
+        <v>1</v>
+      </c>
       <c r="C188" s="74"/>
       <c r="D188" s="75">
         <v>0</v>
@@ -57416,7 +57453,9 @@
       <c r="A189" s="74" t="s">
         <v>459</v>
       </c>
-      <c r="B189" s="74"/>
+      <c r="B189" s="74">
+        <v>2</v>
+      </c>
       <c r="C189" s="74"/>
       <c r="D189" s="75">
         <v>0</v>
@@ -57449,7 +57488,9 @@
       <c r="A190" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="B190" s="74"/>
+      <c r="B190" s="74">
+        <v>3</v>
+      </c>
       <c r="C190" s="74">
         <v>0.05</v>
       </c>
@@ -57489,7 +57530,9 @@
       <c r="A191" s="74" t="s">
         <v>311</v>
       </c>
-      <c r="B191" s="74"/>
+      <c r="B191" s="74">
+        <v>4</v>
+      </c>
       <c r="C191" s="74">
         <v>0.1</v>
       </c>
@@ -57530,7 +57573,7 @@
         <v>602</v>
       </c>
       <c r="B192" s="74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C192" s="74">
         <v>0.4</v>
@@ -57574,7 +57617,7 @@
         <v>139</v>
       </c>
       <c r="B193" s="74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" s="74"/>
       <c r="D193" s="75">
@@ -57614,7 +57657,7 @@
         <v>314</v>
       </c>
       <c r="B194" s="74">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C194" s="74">
         <v>0.70710678100000002</v>
@@ -57632,7 +57675,9 @@
         <v>31.768893464000001</v>
       </c>
       <c r="G194" s="72"/>
-      <c r="H194" s="72"/>
+      <c r="H194" s="72" t="s">
+        <v>1346</v>
+      </c>
       <c r="I194" s="72"/>
       <c r="J194" s="72" t="s">
         <v>314</v>
@@ -57658,7 +57703,7 @@
         <v>315</v>
       </c>
       <c r="B195" s="74">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C195" s="74">
         <v>0.5</v>
@@ -57702,7 +57747,7 @@
         <v>316</v>
       </c>
       <c r="B196" s="74">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C196" s="74">
         <v>0.35355339099999999</v>
@@ -57746,7 +57791,7 @@
         <v>317</v>
       </c>
       <c r="B197" s="74">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C197" s="74">
         <v>0.25</v>
@@ -57790,7 +57835,7 @@
         <v>603</v>
       </c>
       <c r="B198" s="74">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C198" s="74">
         <v>0.17677669500000001</v>
@@ -57834,7 +57879,7 @@
         <v>319</v>
       </c>
       <c r="B199" s="74">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C199" s="74">
         <v>0.125</v>
@@ -57878,7 +57923,7 @@
         <v>324</v>
       </c>
       <c r="B200" s="74">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C200" s="74">
         <v>8.8388348000000005E-2</v>
@@ -57922,7 +57967,7 @@
         <v>462</v>
       </c>
       <c r="B201" s="74">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C201" s="74">
         <v>6.25E-2</v>
@@ -57966,7 +58011,7 @@
         <v>463</v>
       </c>
       <c r="B202" s="74">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C202" s="74">
         <v>4.4194174000000003E-2</v>
@@ -58010,7 +58055,7 @@
         <v>464</v>
       </c>
       <c r="B203" s="74">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C203" s="74">
         <v>3.125E-2</v>
@@ -68076,8 +68121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R247"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="G249" sqref="G249"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68958,6 +69003,9 @@
       <c r="G71" t="s">
         <v>106</v>
       </c>
+      <c r="H71" t="s">
+        <v>1347</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -69568,6 +69616,9 @@
       </c>
       <c r="F130" s="13">
         <v>1</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1348</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Kenya_model_Feb20\HHCoM\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955AA464-D7BB-4873-A8C3-9BF208CCA9CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="4770" tabRatio="835" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -29,8 +30,7 @@
     <sheet name="MTCT" sheetId="14" r:id="rId15"/>
     <sheet name="DALY" sheetId="1" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3211" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="1350">
   <si>
     <t>Metric</t>
   </si>
@@ -3468,9 +3468,6 @@
     <t>%virally suppresion among all PLHIV</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: </t>
-  </si>
-  <si>
     <t>Source: population_validation_targets_kenya.xlsx</t>
   </si>
   <si>
@@ -4099,13 +4096,19 @@
   </si>
   <si>
     <t>*family planning clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapted risk distribution </t>
+  </si>
+  <si>
+    <t>0.971839 0.02640375 0.00175725</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="13">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -4118,6 +4121,7 @@
     <numFmt numFmtId="172" formatCode="##0.0;\-##0.0;0"/>
     <numFmt numFmtId="173" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
     <numFmt numFmtId="174" formatCode="##0.0000;\-##0.0000;0.000"/>
+    <numFmt numFmtId="175" formatCode="0.000000"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -4826,7 +4830,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4944,6 +4948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4974,11 +4979,11 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="54" builtinId="3"/>
-    <cellStyle name="Data" xfId="46"/>
-    <cellStyle name="Data 2" xfId="48"/>
+    <cellStyle name="Data" xfId="46" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Data 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header" xfId="45"/>
+    <cellStyle name="Header" xfId="45" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -4988,17 +4993,17 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="43"/>
-    <cellStyle name="Normal 2 2" xfId="47"/>
+    <cellStyle name="Normal 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Note 2" xfId="51"/>
-    <cellStyle name="Note 3" xfId="52"/>
-    <cellStyle name="Note 4" xfId="53"/>
+    <cellStyle name="Note 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Note 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Note 4" xfId="53" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="44"/>
-    <cellStyle name="Style 1" xfId="50"/>
-    <cellStyle name="Title 2" xfId="42"/>
+    <cellStyle name="Percent 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Style 1" xfId="50" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Title 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -12871,7 +12876,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13207,7 +13211,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -32174,7 +32177,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -32204,7 +32213,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -32234,7 +32249,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -32264,7 +32285,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -32296,7 +32323,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -32326,7 +32359,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -32358,7 +32397,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -32393,7 +32438,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -32431,7 +32482,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32560,7 +32617,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Baseline estimates of coverage of 90-90-90 targets in Nyanza region, Kenya AIDS Indicator Survey, 2012–2013*."/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Baseline estimates of coverage of 90-90-90 targets in Nyanza region, Kenya AIDS Indicator Survey, 2012–2013*.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -32615,7 +32678,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -32653,7 +32722,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="https://www.dovepress.com/cr_data/article_fulltext/s153000/153185/img/hiv-153185_T003.jpg"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="https://www.dovepress.com/cr_data/article_fulltext/s153000/153185/img/hiv-153185_T003.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -32708,7 +32783,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9219" name="AutoShape 3" descr="https://images.journals.lww.com/aidsonline/Original.00002030-201207310-00012.F3-12.jpeg"/>
+        <xdr:cNvPr id="9219" name="AutoShape 3" descr="https://images.journals.lww.com/aidsonline/Original.00002030-201207310-00012.F3-12.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003240000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -32750,7 +32831,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -32788,7 +32875,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32891,7 +32984,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="An external file that holds a picture, illustration, etc.&#10;Object name is peerj-06-4427-g002.jpg"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="An external file that holds a picture, illustration, etc.&#10;Object name is peerj-06-4427-g002.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -32951,7 +33050,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -32989,7 +33094,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -33030,7 +33141,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33101,7 +33212,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33169,7 +33280,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2049" name="AutoShape 1" descr="https://images.journals.lww.com/aidsonline/Original.00002030-200108004-00006.T2-6.jpeg"/>
+        <xdr:cNvPr id="2049" name="AutoShape 1" descr="https://images.journals.lww.com/aidsonline/Original.00002030-200108004-00006.T2-6.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -33211,7 +33328,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -33255,7 +33378,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -33293,7 +33422,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -33323,7 +33458,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -33355,7 +33496,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -33385,7 +33532,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -33417,7 +33570,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33527,7 +33686,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -33564,7 +33729,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33638,7 +33809,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33776,7 +33953,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -33814,7 +33997,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -33851,7 +34040,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -33881,7 +34076,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -33911,7 +34112,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -33946,7 +34153,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -33976,7 +34189,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -34006,7 +34225,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -34041,7 +34266,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="An external file that holds a picture, illustration, etc.&#10;Object name is 12879_2019_3982_Fig1_HTML.jpg"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="An external file that holds a picture, illustration, etc.&#10;Object name is 12879_2019_3982_Fig1_HTML.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -34101,7 +34332,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="image"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -34161,7 +34398,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34199,7 +34442,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34237,7 +34486,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34275,7 +34530,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Group 6"/>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -34288,7 +34549,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="Picture 4"/>
+          <xdr:cNvPr id="5" name="Picture 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -34311,7 +34578,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -34381,7 +34654,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34419,7 +34698,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34457,7 +34742,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34495,7 +34786,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -34525,7 +34822,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -34555,7 +34858,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34593,7 +34902,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34636,7 +34951,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34680,7 +35001,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34974,7 +35301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y231"/>
   <sheetViews>
     <sheetView topLeftCell="A133" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -41402,7 +41729,7 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B167" s="49"/>
       <c r="C167" s="49"/>
@@ -41411,7 +41738,7 @@
       <c r="F167" s="49"/>
       <c r="G167" s="77"/>
       <c r="H167" s="77" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I167" s="49"/>
       <c r="J167" s="49"/>
@@ -41440,10 +41767,10 @@
         <v>196</v>
       </c>
       <c r="I168" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J168" s="76" t="s">
         <v>1243</v>
-      </c>
-      <c r="J168" s="76" t="s">
-        <v>1244</v>
       </c>
       <c r="K168" s="76" t="s">
         <v>1011</v>
@@ -41455,10 +41782,10 @@
         <v>157</v>
       </c>
       <c r="N168" s="76" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O168" s="49" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="P168" s="37"/>
       <c r="Q168" s="16"/>
@@ -41764,7 +42091,7 @@
         <v>63.501959516313946</v>
       </c>
       <c r="H176" s="77" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="J176" s="37"/>
       <c r="K176" s="37"/>
@@ -41781,10 +42108,10 @@
         <v>196</v>
       </c>
       <c r="I177" s="37" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J177" s="76" t="s">
         <v>1243</v>
-      </c>
-      <c r="J177" s="76" t="s">
-        <v>1244</v>
       </c>
       <c r="K177" s="76" t="s">
         <v>1011</v>
@@ -41796,10 +42123,10 @@
         <v>157</v>
       </c>
       <c r="N177" s="76" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O177" s="49" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.25">
@@ -42080,7 +42407,7 @@
     </row>
     <row r="186" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H186" s="77" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I186" s="37"/>
       <c r="J186" s="37"/>
@@ -42095,10 +42422,10 @@
         <v>196</v>
       </c>
       <c r="I187" s="37" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J187" s="76" t="s">
         <v>1243</v>
-      </c>
-      <c r="J187" s="76" t="s">
-        <v>1244</v>
       </c>
       <c r="K187" s="76" t="s">
         <v>1011</v>
@@ -42110,10 +42437,10 @@
         <v>157</v>
       </c>
       <c r="N187" s="76" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O187" s="49" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="188" spans="2:15" x14ac:dyDescent="0.25">
@@ -42349,10 +42676,10 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H196" s="77" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I196" s="49"/>
       <c r="J196" s="49"/>
@@ -42367,13 +42694,13 @@
         <v>1072</v>
       </c>
       <c r="C197" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E197" t="s">
         <v>1298</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1299</v>
       </c>
       <c r="F197" s="37"/>
       <c r="G197" s="37"/>
@@ -42381,10 +42708,10 @@
         <v>196</v>
       </c>
       <c r="I197" s="37" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J197" s="76" t="s">
         <v>1243</v>
-      </c>
-      <c r="J197" s="76" t="s">
-        <v>1244</v>
       </c>
       <c r="K197" s="76" t="s">
         <v>1011</v>
@@ -42396,10 +42723,10 @@
         <v>157</v>
       </c>
       <c r="N197" s="76" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O197" s="49" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
@@ -42557,13 +42884,13 @@
         <v>1072</v>
       </c>
       <c r="C203" s="37" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D203" s="37" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E203" s="37" t="s">
         <v>1300</v>
-      </c>
-      <c r="D203" s="37" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E203" s="37" t="s">
-        <v>1301</v>
       </c>
       <c r="F203" s="37"/>
       <c r="G203" s="37"/>
@@ -42646,13 +42973,13 @@
         <v>1072</v>
       </c>
       <c r="C209" s="37" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D209" s="37" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E209" s="37" t="s">
         <v>1302</v>
-      </c>
-      <c r="D209" s="37" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E209" s="37" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.25">
@@ -42725,13 +43052,13 @@
         <v>1072</v>
       </c>
       <c r="C215" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E215" t="s">
         <v>1304</v>
-      </c>
-      <c r="D215" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.25">
@@ -42804,13 +43131,13 @@
         <v>1072</v>
       </c>
       <c r="C221" s="37" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D221" s="37" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E221" s="37" t="s">
         <v>1327</v>
-      </c>
-      <c r="D221" s="37" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E221" s="37" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.25">
@@ -42885,13 +43212,13 @@
         <v>1072</v>
       </c>
       <c r="C227" s="37" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D227" s="37" t="s">
         <v>1330</v>
       </c>
-      <c r="D227" s="37" t="s">
+      <c r="E227" s="37" t="s">
         <v>1331</v>
-      </c>
-      <c r="E227" s="37" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.25">
@@ -42971,10 +43298,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AD213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
@@ -43021,10 +43348,10 @@
         <v>144</v>
       </c>
       <c r="J3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K3" t="s">
         <v>1334</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1335</v>
       </c>
       <c r="N3" s="21" t="s">
         <v>80</v>
@@ -43033,28 +43360,28 @@
         <v>222</v>
       </c>
       <c r="P3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="Q3" t="s">
         <v>1246</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1247</v>
       </c>
       <c r="R3" s="21" t="s">
         <v>217</v>
       </c>
       <c r="S3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="T3" t="s">
         <v>1246</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1247</v>
       </c>
       <c r="U3" s="21" t="s">
         <v>144</v>
       </c>
       <c r="V3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="W3" t="s">
         <v>1246</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -43519,13 +43846,13 @@
         <v>392</v>
       </c>
       <c r="O11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="P11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="Q11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="R11" s="8">
         <v>20.7746</v>
@@ -43961,7 +44288,7 @@
       </c>
       <c r="E34" s="54"/>
       <c r="F34" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="G34" s="37">
         <v>1</v>
@@ -43999,7 +44326,7 @@
       </c>
       <c r="E35" s="54"/>
       <c r="F35" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="G35" s="37">
         <v>3.1</v>
@@ -44037,7 +44364,7 @@
       </c>
       <c r="E36" s="54"/>
       <c r="F36" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G36" s="37">
         <v>6.3</v>
@@ -44075,7 +44402,7 @@
       </c>
       <c r="E37" s="54"/>
       <c r="F37" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G37" s="37">
         <v>6.6</v>
@@ -44113,7 +44440,7 @@
       </c>
       <c r="E38" s="54"/>
       <c r="F38" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G38" s="37">
         <v>8.6999999999999993</v>
@@ -44151,7 +44478,7 @@
       </c>
       <c r="E39" s="54"/>
       <c r="F39" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G39" s="37">
         <v>9.3000000000000007</v>
@@ -44189,7 +44516,7 @@
       </c>
       <c r="E40" s="54"/>
       <c r="F40" s="21" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G40" s="37">
         <v>9.8000000000000007</v>
@@ -44220,7 +44547,7 @@
       </c>
       <c r="E41" s="54"/>
       <c r="F41" s="21" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G41" s="37">
         <v>8.4</v>
@@ -44251,7 +44578,7 @@
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="21" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G42" s="37">
         <v>4.4000000000000004</v>
@@ -44282,7 +44609,7 @@
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="21" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G43" s="37">
         <v>4</v>
@@ -44602,28 +44929,28 @@
         <v>222</v>
       </c>
       <c r="D61" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E61" t="s">
         <v>1246</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1247</v>
       </c>
       <c r="F61" s="21" t="s">
         <v>217</v>
       </c>
       <c r="G61" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H61" t="s">
         <v>1246</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1247</v>
       </c>
       <c r="I61" s="21" t="s">
         <v>144</v>
       </c>
       <c r="J61" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K61" t="s">
         <v>1246</v>
-      </c>
-      <c r="K61" t="s">
-        <v>1247</v>
       </c>
       <c r="M61" s="37" t="s">
         <v>80</v>
@@ -44632,28 +44959,28 @@
         <v>222</v>
       </c>
       <c r="O61" s="37" t="s">
+        <v>1245</v>
+      </c>
+      <c r="P61" s="37" t="s">
         <v>1246</v>
-      </c>
-      <c r="P61" s="37" t="s">
-        <v>1247</v>
       </c>
       <c r="Q61" s="37" t="s">
         <v>217</v>
       </c>
       <c r="R61" s="37" t="s">
+        <v>1245</v>
+      </c>
+      <c r="S61" s="37" t="s">
         <v>1246</v>
-      </c>
-      <c r="S61" s="37" t="s">
-        <v>1247</v>
       </c>
       <c r="T61" s="37" t="s">
         <v>144</v>
       </c>
       <c r="U61" s="37" t="s">
+        <v>1245</v>
+      </c>
+      <c r="V61" s="37" t="s">
         <v>1246</v>
-      </c>
-      <c r="V61" s="37" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
@@ -45095,13 +45422,13 @@
         <v>392</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D69" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E69" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F69" s="8">
         <v>15.9094</v>
@@ -45113,7 +45440,7 @@
         <v>28.742100000000001</v>
       </c>
       <c r="I69" s="31" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="J69" s="8">
         <v>3.0767000000000002</v>
@@ -45125,13 +45452,13 @@
         <v>392</v>
       </c>
       <c r="N69" s="37" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="O69" s="37" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="P69" s="37" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="Q69" s="7">
         <v>9.1097999999999999</v>
@@ -46509,7 +46836,7 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.25">
@@ -46526,7 +46853,7 @@
         <v>576</v>
       </c>
       <c r="G183" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I183" t="s">
         <v>222</v>
@@ -47690,7 +48017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -48968,7 +49295,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -49357,17 +49684,17 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -49378,19 +49705,19 @@
         <v>561</v>
       </c>
       <c r="D74" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E74" t="s">
         <v>1234</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>1235</v>
       </c>
-      <c r="F74" t="s">
+      <c r="I74" t="s">
         <v>1236</v>
       </c>
-      <c r="I74" t="s">
-        <v>1237</v>
-      </c>
       <c r="J74" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -49582,7 +49909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49694,7 +50021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Z194"/>
   <sheetViews>
     <sheetView topLeftCell="A172" workbookViewId="0">
@@ -49939,7 +50266,7 @@
     </row>
     <row r="25" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>1125</v>
@@ -49951,13 +50278,13 @@
         <v>1127</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>1125</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I25" s="37" t="s">
         <v>1127</v>
@@ -50936,7 +51263,7 @@
         <v>576</v>
       </c>
       <c r="J99" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -51605,7 +51932,7 @@
     <mergeCell ref="C34:E34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A155" r:id="rId1"/>
+    <hyperlink ref="A155" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -51614,7 +51941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -51680,7 +52007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A2:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52564,7 +52891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53136,11 +53463,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y256"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y293"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="D281" sqref="D281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54918,10 +55245,7 @@
       <c r="H76" s="21">
         <v>2.343E-3</v>
       </c>
-      <c r="I76" s="41">
-        <f>E76+D76</f>
-        <v>1.0244E-2</v>
-      </c>
+      <c r="I76" s="41"/>
       <c r="K76" s="37" t="s">
         <v>137</v>
       </c>
@@ -55794,7 +56118,7 @@
       </c>
       <c r="H92" s="41"/>
       <c r="K92" s="71" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
@@ -55839,7 +56163,7 @@
         <v>16.8</v>
       </c>
       <c r="K95" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
@@ -55859,7 +56183,7 @@
         <v>490</v>
       </c>
       <c r="M96" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="N96" t="s">
         <v>492</v>
@@ -57679,7 +58003,7 @@
       </c>
       <c r="G194" s="72"/>
       <c r="H194" s="72" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I194" s="72"/>
       <c r="J194" s="72" t="s">
@@ -58279,17 +58603,1021 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1138</v>
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B257" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C257" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D257" s="37"/>
+      <c r="E257" s="37"/>
+      <c r="F257" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G257" s="37"/>
+      <c r="H257" s="37"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B258" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C258" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="D258" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="E258" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="F258" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="G258" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="H258" s="37" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="C259" s="37">
+        <v>1</v>
+      </c>
+      <c r="D259" s="37">
+        <v>0</v>
+      </c>
+      <c r="E259" s="37">
+        <v>0</v>
+      </c>
+      <c r="F259" s="37">
+        <v>1</v>
+      </c>
+      <c r="G259" s="37">
+        <v>0</v>
+      </c>
+      <c r="H259" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2</v>
+      </c>
+      <c r="B260" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="C260" s="37">
+        <v>1</v>
+      </c>
+      <c r="D260" s="37">
+        <v>0</v>
+      </c>
+      <c r="E260" s="37">
+        <v>0</v>
+      </c>
+      <c r="F260" s="37">
+        <v>1</v>
+      </c>
+      <c r="G260" s="37">
+        <v>0</v>
+      </c>
+      <c r="H260" s="37">
+        <v>0</v>
+      </c>
+      <c r="J260" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>3</v>
+      </c>
+      <c r="B261" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C261" s="37">
+        <v>0.97183900000000001</v>
+      </c>
+      <c r="D261" s="37">
+        <v>2.6402999999999999E-2</v>
+      </c>
+      <c r="E261" s="37">
+        <f>1-(C261+D261)</f>
+        <v>1.7580000000000373E-3</v>
+      </c>
+      <c r="F261" s="37">
+        <v>0.97183900000000001</v>
+      </c>
+      <c r="G261" s="37">
+        <v>2.6402999999999999E-2</v>
+      </c>
+      <c r="H261" s="37">
+        <f>1-(F261+G261)</f>
+        <v>1.7580000000000373E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>4</v>
+      </c>
+      <c r="B262" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C262" s="37">
+        <v>0.87735600000000002</v>
+      </c>
+      <c r="D262" s="37">
+        <v>0.11361499999999999</v>
+      </c>
+      <c r="E262" s="37">
+        <f>1-(C262+D262)</f>
+        <v>9.0289999999999537E-3</v>
+      </c>
+      <c r="F262" s="37">
+        <v>0.87935600000000003</v>
+      </c>
+      <c r="G262" s="37">
+        <v>0.11615</v>
+      </c>
+      <c r="H262" s="37">
+        <f>1-(F262+G262)</f>
+        <v>4.493999999999998E-3</v>
+      </c>
+      <c r="J262">
+        <f>SUM(C262:E262)</f>
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <f>SUM(F262:H262)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>5</v>
+      </c>
+      <c r="B263" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C263" s="37">
+        <v>0.70302699999999996</v>
+      </c>
+      <c r="D263" s="37">
+        <v>0.26659899999999997</v>
+      </c>
+      <c r="E263" s="37">
+        <f t="shared" ref="E263:E274" si="6">1-(C263+D263)</f>
+        <v>3.0374000000000123E-2</v>
+      </c>
+      <c r="F263" s="37">
+        <v>0.73402699999999999</v>
+      </c>
+      <c r="G263" s="37">
+        <v>0.25359900000000002</v>
+      </c>
+      <c r="H263" s="37">
+        <f t="shared" ref="H263:H274" si="7">1-(F263+G263)</f>
+        <v>1.2373999999999996E-2</v>
+      </c>
+      <c r="J263" s="37">
+        <f t="shared" ref="J263:J274" si="8">SUM(C263:E263)</f>
+        <v>1</v>
+      </c>
+      <c r="K263" s="37">
+        <f t="shared" ref="K263:K274" si="9">SUM(F263:H263)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>6</v>
+      </c>
+      <c r="B264" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C264" s="37">
+        <v>0.72545599999999999</v>
+      </c>
+      <c r="D264" s="37">
+        <v>0.26419700000000002</v>
+      </c>
+      <c r="E264" s="37">
+        <f t="shared" si="6"/>
+        <v>1.0346999999999995E-2</v>
+      </c>
+      <c r="F264" s="37">
+        <v>0.731456</v>
+      </c>
+      <c r="G264" s="37">
+        <v>0.22519700000000001</v>
+      </c>
+      <c r="H264" s="37">
+        <f t="shared" si="7"/>
+        <v>4.3347000000000024E-2</v>
+      </c>
+      <c r="J264" s="37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K264" s="37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>7</v>
+      </c>
+      <c r="B265" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C265" s="37">
+        <v>0.73932100000000001</v>
+      </c>
+      <c r="D265" s="37">
+        <v>0.25078</v>
+      </c>
+      <c r="E265" s="85">
+        <f t="shared" si="6"/>
+        <v>9.8989999999999911E-3</v>
+      </c>
+      <c r="F265" s="37">
+        <v>0.731321</v>
+      </c>
+      <c r="G265" s="37">
+        <v>0.2505868</v>
+      </c>
+      <c r="H265" s="37">
+        <f t="shared" si="7"/>
+        <v>1.8092200000000003E-2</v>
+      </c>
+      <c r="J265" s="37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K265" s="37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>8</v>
+      </c>
+      <c r="B266" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C266" s="37">
+        <v>0.76990499999999995</v>
+      </c>
+      <c r="D266" s="37">
+        <v>0.22307099999999999</v>
+      </c>
+      <c r="E266" s="37">
+        <f t="shared" si="6"/>
+        <v>7.0240000000000302E-3</v>
+      </c>
+      <c r="F266" s="37">
+        <v>0.76510500000000004</v>
+      </c>
+      <c r="G266" s="37">
+        <v>0.22507099999999999</v>
+      </c>
+      <c r="H266" s="37">
+        <f t="shared" si="7"/>
+        <v>9.8239999999999439E-3</v>
+      </c>
+      <c r="J266" s="37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K266" s="37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>9</v>
+      </c>
+      <c r="B267" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C267" s="37">
+        <v>0.79022300000000001</v>
+      </c>
+      <c r="D267" s="37">
+        <v>0.20535</v>
+      </c>
+      <c r="E267" s="37">
+        <f t="shared" si="6"/>
+        <v>4.4269999999999587E-3</v>
+      </c>
+      <c r="F267" s="37">
+        <v>0.781223</v>
+      </c>
+      <c r="G267" s="37">
+        <v>0.21535000000000001</v>
+      </c>
+      <c r="H267" s="37">
+        <f t="shared" si="7"/>
+        <v>3.4269999999999579E-3</v>
+      </c>
+      <c r="J267" s="37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K267" s="37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>10</v>
+      </c>
+      <c r="B268" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C268" s="37">
+        <v>0.82640999999999998</v>
+      </c>
+      <c r="D268" s="37">
+        <v>0.16399</v>
+      </c>
+      <c r="E268" s="85">
+        <f t="shared" si="6"/>
+        <v>9.6000000000000529E-3</v>
+      </c>
+      <c r="F268" s="37">
+        <v>0.82640999999999998</v>
+      </c>
+      <c r="G268" s="37">
+        <v>0.16399</v>
+      </c>
+      <c r="H268" s="37">
+        <f t="shared" si="7"/>
+        <v>9.6000000000000529E-3</v>
+      </c>
+      <c r="J268" s="37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K268" s="37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" s="37">
+        <v>11</v>
+      </c>
+      <c r="B269" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="C269" s="37">
+        <v>0.87985000000000002</v>
+      </c>
+      <c r="D269" s="37">
+        <v>0.11162999999999999</v>
+      </c>
+      <c r="E269" s="37">
+        <f t="shared" si="6"/>
+        <v>8.519999999999972E-3</v>
+      </c>
+      <c r="F269" s="37">
+        <v>0.87985000000000002</v>
+      </c>
+      <c r="G269" s="37">
+        <v>0.11162999999999999</v>
+      </c>
+      <c r="H269" s="37">
+        <f t="shared" si="7"/>
+        <v>8.519999999999972E-3</v>
+      </c>
+      <c r="J269" s="37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K269" s="37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" s="37">
+        <v>12</v>
+      </c>
+      <c r="B270" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="C270" s="37">
+        <v>0.87985000000000002</v>
+      </c>
+      <c r="D270" s="37">
+        <v>0.11162999999999999</v>
+      </c>
+      <c r="E270" s="37">
+        <f t="shared" si="6"/>
+        <v>8.519999999999972E-3</v>
+      </c>
+      <c r="F270" s="37">
+        <v>0.87985000000000002</v>
+      </c>
+      <c r="G270" s="37">
+        <v>0.11162999999999999</v>
+      </c>
+      <c r="H270" s="37">
+        <f t="shared" si="7"/>
+        <v>8.519999999999972E-3</v>
+      </c>
+      <c r="J270" s="37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K270" s="37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" s="37">
+        <v>13</v>
+      </c>
+      <c r="B271" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C271" s="37">
+        <v>0.87985000000000002</v>
+      </c>
+      <c r="D271" s="37">
+        <v>0.11162999999999999</v>
+      </c>
+      <c r="E271" s="37">
+        <f t="shared" si="6"/>
+        <v>8.519999999999972E-3</v>
+      </c>
+      <c r="F271" s="37">
+        <v>0.87985000000000002</v>
+      </c>
+      <c r="G271" s="37">
+        <v>0.11162999999999999</v>
+      </c>
+      <c r="H271" s="37">
+        <f t="shared" si="7"/>
+        <v>8.519999999999972E-3</v>
+      </c>
+      <c r="J271" s="37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K271" s="37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272" s="37">
+        <v>14</v>
+      </c>
+      <c r="B272" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="C272" s="37">
+        <v>0.87985000000000002</v>
+      </c>
+      <c r="D272" s="37">
+        <v>0.11162999999999999</v>
+      </c>
+      <c r="E272" s="37">
+        <f t="shared" si="6"/>
+        <v>8.519999999999972E-3</v>
+      </c>
+      <c r="F272" s="37">
+        <v>0.87985000000000002</v>
+      </c>
+      <c r="G272" s="37">
+        <v>0.11162999999999999</v>
+      </c>
+      <c r="H272" s="37">
+        <f t="shared" si="7"/>
+        <v>8.519999999999972E-3</v>
+      </c>
+      <c r="J272" s="37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K272" s="37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" s="37">
+        <v>15</v>
+      </c>
+      <c r="B273" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="C273" s="37">
+        <v>0.87985000000000002</v>
+      </c>
+      <c r="D273" s="37">
+        <v>0.11162999999999999</v>
+      </c>
+      <c r="E273" s="37">
+        <f t="shared" si="6"/>
+        <v>8.519999999999972E-3</v>
+      </c>
+      <c r="F273" s="37">
+        <v>0.87985000000000002</v>
+      </c>
+      <c r="G273" s="37">
+        <v>0.11162999999999999</v>
+      </c>
+      <c r="H273" s="37">
+        <f t="shared" si="7"/>
+        <v>8.519999999999972E-3</v>
+      </c>
+      <c r="J273" s="37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K273" s="37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274" s="37">
+        <v>16</v>
+      </c>
+      <c r="B274" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="C274" s="37">
+        <v>0.87985000000000002</v>
+      </c>
+      <c r="D274" s="37">
+        <v>0.11162999999999999</v>
+      </c>
+      <c r="E274" s="37">
+        <f t="shared" si="6"/>
+        <v>8.519999999999972E-3</v>
+      </c>
+      <c r="F274" s="37">
+        <v>0.87985000000000002</v>
+      </c>
+      <c r="G274" s="37">
+        <v>0.11162999999999999</v>
+      </c>
+      <c r="H274" s="37">
+        <f t="shared" si="7"/>
+        <v>8.519999999999972E-3</v>
+      </c>
+      <c r="J274" s="37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K274" s="37">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B275" s="37"/>
+      <c r="C275" s="37"/>
+      <c r="D275" s="37"/>
+      <c r="E275" s="37"/>
+      <c r="F275" s="37"/>
+      <c r="G275" s="37"/>
+      <c r="H275" s="37"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B276" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C276" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="D276" s="37"/>
+      <c r="E276" s="37"/>
+      <c r="F276" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G276" s="37"/>
+      <c r="H276" s="37"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B277" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C277" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="D277" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="E277" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="F277" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="G277" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="H277" s="37" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B278" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="C278" s="29">
+        <v>1</v>
+      </c>
+      <c r="D278" s="37">
+        <v>0</v>
+      </c>
+      <c r="E278" s="37">
+        <v>0</v>
+      </c>
+      <c r="F278" s="37">
+        <v>1</v>
+      </c>
+      <c r="G278" s="37">
+        <v>0</v>
+      </c>
+      <c r="H278" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B279" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="C279" s="29">
+        <v>1</v>
+      </c>
+      <c r="D279" s="37">
+        <v>0</v>
+      </c>
+      <c r="E279" s="37">
+        <v>0</v>
+      </c>
+      <c r="F279" s="37">
+        <v>1</v>
+      </c>
+      <c r="G279" s="37">
+        <v>0</v>
+      </c>
+      <c r="H279" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B280" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C280" s="29">
+        <v>1</v>
+      </c>
+      <c r="D280" s="37">
+        <v>0</v>
+      </c>
+      <c r="E280" s="37">
+        <v>0</v>
+      </c>
+      <c r="F280" s="37">
+        <v>1</v>
+      </c>
+      <c r="G280" s="37">
+        <v>0</v>
+      </c>
+      <c r="H280" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B281" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C281" s="29">
+        <v>0.98975599999999997</v>
+      </c>
+      <c r="D281" s="37">
+        <v>1.0069E-2</v>
+      </c>
+      <c r="E281" s="37">
+        <v>1.7500000000000003E-4</v>
+      </c>
+      <c r="F281" s="37">
+        <v>0.96245199999999997</v>
+      </c>
+      <c r="G281" s="37">
+        <v>3.5205E-2</v>
+      </c>
+      <c r="H281" s="37">
+        <v>2.343E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B282" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C282" s="29">
+        <v>0.97952399999999995</v>
+      </c>
+      <c r="D282" s="37">
+        <v>2.0166E-2</v>
+      </c>
+      <c r="E282" s="37">
+        <v>3.1E-4</v>
+      </c>
+      <c r="F282" s="37">
+        <v>0.8334180000000001</v>
+      </c>
+      <c r="G282" s="37">
+        <v>0.157748</v>
+      </c>
+      <c r="H282" s="37">
+        <v>8.8339999999999998E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B283" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C283" s="29">
+        <v>0.98680599999999996</v>
+      </c>
+      <c r="D283" s="37">
+        <v>1.2837000000000001E-2</v>
+      </c>
+      <c r="E283" s="37">
+        <v>3.57E-4</v>
+      </c>
+      <c r="F283" s="37">
+        <v>0.825658</v>
+      </c>
+      <c r="G283" s="37">
+        <v>0.16295100000000001</v>
+      </c>
+      <c r="H283" s="37">
+        <v>1.1391E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B284" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C284" s="29">
+        <v>0.98374700000000004</v>
+      </c>
+      <c r="D284" s="37">
+        <v>1.6253E-2</v>
+      </c>
+      <c r="E284" s="20">
+        <v>4.6700000000000002E-4</v>
+      </c>
+      <c r="F284" s="37">
+        <v>0.84771699999999994</v>
+      </c>
+      <c r="G284" s="37">
+        <v>0.149064</v>
+      </c>
+      <c r="H284" s="37">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B285" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C285" s="29">
+        <v>0.98370900000000006</v>
+      </c>
+      <c r="D285" s="37">
+        <v>1.5713999999999999E-2</v>
+      </c>
+      <c r="E285" s="37">
+        <v>5.7700000000000004E-4</v>
+      </c>
+      <c r="F285" s="37">
+        <v>0.86167599999999989</v>
+      </c>
+      <c r="G285" s="37">
+        <v>0.13456400000000002</v>
+      </c>
+      <c r="H285" s="37">
+        <v>3.7599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B286" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C286" s="29">
+        <v>0.99171000000000009</v>
+      </c>
+      <c r="D286" s="37">
+        <v>7.8080000000000007E-3</v>
+      </c>
+      <c r="E286" s="37">
+        <v>4.8200000000000001E-4</v>
+      </c>
+      <c r="F286" s="37">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="G286" s="37">
+        <v>0.11090999999999999</v>
+      </c>
+      <c r="H286" s="37">
+        <v>3.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B287" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C287" s="29">
+        <v>0.99118399999999995</v>
+      </c>
+      <c r="D287" s="37">
+        <v>8.8160000000000009E-3</v>
+      </c>
+      <c r="E287" s="37">
+        <v>0</v>
+      </c>
+      <c r="F287" s="37">
+        <v>0.87293999999999994</v>
+      </c>
+      <c r="G287" s="37">
+        <v>0.126001</v>
+      </c>
+      <c r="H287" s="37">
+        <v>1.059E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B288" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="C288" s="29">
+        <v>0.99118399999999995</v>
+      </c>
+      <c r="D288" s="37">
+        <v>8.8160000000000009E-3</v>
+      </c>
+      <c r="E288" s="37">
+        <v>0</v>
+      </c>
+      <c r="F288" s="37">
+        <v>0.88538499999999998</v>
+      </c>
+      <c r="G288" s="37">
+        <v>0.10356299999999999</v>
+      </c>
+      <c r="H288" s="37">
+        <v>1.1051999999999999E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B289" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="C289" s="29">
+        <v>0.99118399999999995</v>
+      </c>
+      <c r="D289" s="37">
+        <v>8.8160000000000009E-3</v>
+      </c>
+      <c r="E289" s="37">
+        <v>0</v>
+      </c>
+      <c r="F289" s="37">
+        <v>0.88538499999999998</v>
+      </c>
+      <c r="G289" s="37">
+        <v>0.10356299999999999</v>
+      </c>
+      <c r="H289" s="37">
+        <v>1.1051999999999999E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B290" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C290" s="29">
+        <v>0.99118399999999995</v>
+      </c>
+      <c r="D290" s="37">
+        <v>8.8160000000000009E-3</v>
+      </c>
+      <c r="E290" s="37">
+        <v>0</v>
+      </c>
+      <c r="F290" s="37">
+        <v>0.88538499999999998</v>
+      </c>
+      <c r="G290" s="37">
+        <v>0.10356299999999999</v>
+      </c>
+      <c r="H290" s="37">
+        <v>1.1051999999999999E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B291" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="C291" s="29">
+        <v>0.99118399999999995</v>
+      </c>
+      <c r="D291" s="37">
+        <v>8.8160000000000009E-3</v>
+      </c>
+      <c r="E291" s="37">
+        <v>0</v>
+      </c>
+      <c r="F291" s="37">
+        <v>0.88538499999999998</v>
+      </c>
+      <c r="G291" s="37">
+        <v>0.10356299999999999</v>
+      </c>
+      <c r="H291" s="37">
+        <v>1.1051999999999999E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B292" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="C292" s="29">
+        <v>0.99118399999999995</v>
+      </c>
+      <c r="D292" s="37">
+        <v>8.8160000000000009E-3</v>
+      </c>
+      <c r="E292" s="37">
+        <v>0</v>
+      </c>
+      <c r="F292" s="37">
+        <v>0.88538499999999998</v>
+      </c>
+      <c r="G292" s="37">
+        <v>0.10356299999999999</v>
+      </c>
+      <c r="H292" s="37">
+        <v>1.1051999999999999E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B293" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="C293" s="29">
+        <v>0.99118399999999995</v>
+      </c>
+      <c r="D293" s="37">
+        <v>8.8160000000000009E-3</v>
+      </c>
+      <c r="E293" s="37">
+        <v>0</v>
+      </c>
+      <c r="F293" s="37">
+        <v>0.88538499999999998</v>
+      </c>
+      <c r="G293" s="37">
+        <v>0.10356299999999999</v>
+      </c>
+      <c r="H293" s="37">
+        <v>1.1051999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -58300,7 +59628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -58326,10 +59654,10 @@
         <v>158</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="O2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -58343,7 +59671,7 @@
         <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G3" t="s">
         <v>575</v>
@@ -58573,7 +59901,7 @@
         <v>59.412199999999999</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K9" s="7">
         <v>39.2258</v>
@@ -58628,15 +59956,15 @@
     <row r="12" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -58665,7 +59993,7 @@
         <v>576</v>
       </c>
       <c r="L15" s="37" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -58829,7 +60157,7 @@
         <v>80.099999999999994</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H21" s="7">
         <v>39.386299999999999</v>
@@ -58862,7 +60190,7 @@
     <row r="23" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -58890,7 +60218,7 @@
         <v>246</v>
       </c>
       <c r="G27" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H27" t="s">
         <v>575</v>
@@ -58922,22 +60250,22 @@
         <v>155</v>
       </c>
       <c r="G28" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H28" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I28" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="J28" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K28" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L28" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -58951,48 +60279,48 @@
         <v>91.2</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F30" s="37" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -59000,25 +60328,25 @@
         <v>418</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -59029,25 +60357,25 @@
         <v>2012</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="K32" s="37" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -59085,7 +60413,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -59099,7 +60427,7 @@
         <v>179</v>
       </c>
       <c r="J38" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -59334,7 +60662,7 @@
         <v>68</v>
       </c>
       <c r="J45" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K45" s="7">
         <v>60.636200000000002</v>
@@ -59391,17 +60719,17 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="37" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -59411,7 +60739,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -59594,7 +60922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL153"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
@@ -62874,7 +64202,7 @@
         <v>456</v>
       </c>
       <c r="J103" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="104" spans="2:32" x14ac:dyDescent="0.25">
@@ -63504,7 +64832,7 @@
         <v>7.4809999999999999</v>
       </c>
       <c r="K127" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
@@ -63515,7 +64843,7 @@
         <v>7.4809999999999999</v>
       </c>
       <c r="K128" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="129" spans="6:11" x14ac:dyDescent="0.25">
@@ -63526,7 +64854,7 @@
         <v>7.4809999999999999</v>
       </c>
       <c r="K129" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="130" spans="6:11" x14ac:dyDescent="0.25">
@@ -63540,7 +64868,7 @@
         <v>7.4809999999999999</v>
       </c>
       <c r="K130" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="131" spans="6:11" x14ac:dyDescent="0.25">
@@ -63554,7 +64882,7 @@
         <v>7.7850000000000001</v>
       </c>
       <c r="K131" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="132" spans="6:11" x14ac:dyDescent="0.25">
@@ -63568,7 +64896,7 @@
         <v>8.0650000000000013</v>
       </c>
       <c r="K132" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="133" spans="6:11" x14ac:dyDescent="0.25">
@@ -63582,7 +64910,7 @@
         <v>8.1100000000000012</v>
       </c>
       <c r="K133" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="134" spans="6:11" x14ac:dyDescent="0.25">
@@ -63596,7 +64924,7 @@
         <v>7.99</v>
       </c>
       <c r="K134" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="135" spans="6:11" x14ac:dyDescent="0.25">
@@ -63610,7 +64938,7 @@
         <v>7.64</v>
       </c>
       <c r="K135" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="136" spans="6:11" x14ac:dyDescent="0.25">
@@ -63624,7 +64952,7 @@
         <v>7.2160000000000002</v>
       </c>
       <c r="K136" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="137" spans="6:11" x14ac:dyDescent="0.25">
@@ -64216,7 +65544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AX132"/>
   <sheetViews>
     <sheetView topLeftCell="A92" workbookViewId="0">
@@ -65124,25 +66452,25 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D71" t="s">
         <v>1310</v>
       </c>
-      <c r="D71" t="s">
-        <v>1311</v>
-      </c>
       <c r="E71" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F71" t="s">
         <v>246</v>
       </c>
       <c r="G71" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H71" t="s">
         <v>1312</v>
       </c>
-      <c r="H71" t="s">
-        <v>1313</v>
-      </c>
       <c r="I71" s="37" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J71" s="37" t="s">
         <v>246</v>
@@ -65876,10 +67204,10 @@
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.25">
       <c r="U91" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AF91" t="s">
         <v>1229</v>
-      </c>
-      <c r="AF91" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="92" spans="1:50" x14ac:dyDescent="0.25">
@@ -65887,16 +67215,16 @@
         <v>1071</v>
       </c>
       <c r="R92" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="U92" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="V92">
         <v>0.5</v>
       </c>
       <c r="W92" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="X92">
         <v>0.4</v>
@@ -65908,23 +67236,23 @@
         <v>0.25</v>
       </c>
       <c r="AA92" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AB92">
         <v>0.15</v>
       </c>
       <c r="AC92" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AD92">
         <v>0.15</v>
       </c>
       <c r="AF92" s="37" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AG92" s="37"/>
       <c r="AH92" s="37" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AI92" s="37"/>
       <c r="AJ92" s="37">
@@ -65932,11 +67260,11 @@
       </c>
       <c r="AK92" s="37"/>
       <c r="AL92" s="37" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AM92" s="37"/>
       <c r="AN92" s="37" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AO92" s="37"/>
       <c r="AP92" s="37"/>
@@ -65990,7 +67318,7 @@
         <v>222</v>
       </c>
       <c r="R93" s="37" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="S93" s="37">
         <v>1.5</v>
@@ -66108,7 +67436,7 @@
         <v>2.6945755989701607E-2</v>
       </c>
       <c r="R94" s="37" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="S94" s="37">
         <v>1.4</v>
@@ -66317,7 +67645,7 @@
         <v>5.2077410999999999E-4</v>
       </c>
       <c r="R96" s="37" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="S96" s="37">
         <v>1.1499999999999999</v>
@@ -66423,7 +67751,7 @@
         <v>8.5921136E-4</v>
       </c>
       <c r="R97" s="37" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="S97" s="37">
         <v>1.1499999999999999</v>
@@ -68121,7 +69449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R247"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
@@ -69007,7 +70335,7 @@
         <v>106</v>
       </c>
       <c r="H71" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -69621,7 +70949,7 @@
         <v>1</v>
       </c>
       <c r="H130" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -70533,13 +71861,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="198" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="37" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -70569,12 +71897,12 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
@@ -70582,15 +71910,15 @@
         <v>74</v>
       </c>
       <c r="D210" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E210" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C211">
         <v>36</v>
@@ -70601,7 +71929,7 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C212">
         <v>67</v>
@@ -70612,7 +71940,7 @@
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C213">
         <v>51</v>
@@ -70623,7 +71951,7 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C214">
         <v>43</v>
@@ -70634,7 +71962,7 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C215">
         <v>52</v>
@@ -70682,35 +72010,35 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C222" s="66" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D222" s="66" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E222" s="66" t="s">
         <v>1181</v>
-      </c>
-      <c r="C222" s="66" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D222" s="66" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E222" s="66" t="s">
-        <v>1182</v>
       </c>
       <c r="F222" s="66" t="s">
         <v>576</v>
       </c>
       <c r="G222" s="67" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H222" s="67" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I222" s="67" t="s">
         <v>575</v>
@@ -70728,24 +72056,24 @@
         <v>576</v>
       </c>
       <c r="N222" s="69" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="O222" s="69" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P222" s="69" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B223" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C223" s="66" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D223" s="66">
         <v>22.2</v>
@@ -70757,7 +72085,7 @@
         <v>29.8</v>
       </c>
       <c r="G223" s="67" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H223" s="67">
         <v>76.900000000000006</v>
@@ -70781,21 +72109,21 @@
         <v>7.8</v>
       </c>
       <c r="O223" s="69" t="s">
+        <v>1206</v>
+      </c>
+      <c r="P223" s="69" t="s">
         <v>1207</v>
-      </c>
-      <c r="P223" s="69" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B224" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C224" s="66" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D224" s="66">
         <v>15.8</v>
@@ -70807,7 +72135,7 @@
         <v>17.7</v>
       </c>
       <c r="G224" s="67" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H224" s="67">
         <v>25.7</v>
@@ -70832,24 +72160,24 @@
         <v>7.7220077220077217</v>
       </c>
       <c r="O224" s="69" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="P224" s="69">
         <v>2009</v>
       </c>
       <c r="Q224" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B225" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C225" s="66" t="s">
         <v>1192</v>
-      </c>
-      <c r="C225" s="66" t="s">
-        <v>1193</v>
       </c>
       <c r="D225" s="66">
         <v>38.700000000000003</v>
@@ -70861,7 +72189,7 @@
         <v>41.8</v>
       </c>
       <c r="G225" s="67" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H225" s="67">
         <v>74.099999999999994</v>
@@ -70885,7 +72213,7 @@
         <v>30</v>
       </c>
       <c r="O225" s="69" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P225" s="69">
         <v>2006</v>
@@ -70893,15 +72221,15 @@
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="M227" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="M228" t="s">
         <v>559</v>
@@ -70921,7 +72249,7 @@
         <v>106</v>
       </c>
       <c r="E229" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F229" t="s">
         <v>575</v>
@@ -70936,10 +72264,10 @@
         <v>106</v>
       </c>
       <c r="K229" s="37" t="s">
+        <v>1203</v>
+      </c>
+      <c r="M229" t="s">
         <v>1204</v>
-      </c>
-      <c r="M229" t="s">
-        <v>1205</v>
       </c>
       <c r="N229" t="s">
         <v>575</v>
@@ -70948,7 +72276,7 @@
         <v>576</v>
       </c>
       <c r="P229" s="37" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q229" s="37" t="s">
         <v>575</v>
@@ -70959,7 +72287,7 @@
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C230">
         <v>9</v>
@@ -71241,7 +72569,7 @@
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C236">
         <v>54</v>
@@ -71288,7 +72616,7 @@
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I238" s="37" t="s">
         <v>559</v>
@@ -71491,7 +72819,7 @@
     </row>
     <row r="244" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C244">
         <v>189</v>
@@ -71533,7 +72861,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L38" r:id="rId1"/>
+    <hyperlink ref="L38" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -71542,7 +72870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -71940,12 +73268,12 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -71969,7 +73297,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C59" s="18">
         <v>0.13100000000000001</v>
@@ -71991,7 +73319,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C61" s="18">
         <v>0.27400000000000002</v>
@@ -72003,17 +73331,17 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -72026,7 +73354,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C67">
         <v>112</v>
@@ -72085,7 +73413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -72785,30 +74113,30 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="37" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E66" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F66" t="s">
         <v>188</v>
       </c>
       <c r="G66" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -72864,7 +74192,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C70">
         <v>1.2</v>
@@ -72898,7 +74226,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -72921,7 +74249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
@@ -73219,13 +74547,13 @@
         <v>150</v>
       </c>
       <c r="C45" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E45" t="s">
         <v>1165</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>1166</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -73543,12 +74871,12 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C79">
         <v>20.5</v>
@@ -73562,12 +74890,12 @@
         <v>32.5</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -73577,23 +74905,23 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C84">
         <v>34.5</v>
       </c>
       <c r="D84" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -73606,7 +74934,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C89">
         <v>42.7</v>
@@ -73614,13 +74942,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="37" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955AA464-D7BB-4873-A8C3-9BF208CCA9CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439A778B-5E26-4CE1-941E-87EC09E4DE75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4098,17 +4098,17 @@
     <t>*family planning clinic</t>
   </si>
   <si>
-    <t xml:space="preserve">Adapted risk distribution </t>
-  </si>
-  <si>
-    <t>0.971839 0.02640375 0.00175725</t>
+    <t xml:space="preserve">Adapted risk distribution: for Kenya model with HPV increasing HIV acquisition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapted partners distribution for Kenya Model with HPV increasing HIV acquisition </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="12">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -4121,7 +4121,6 @@
     <numFmt numFmtId="172" formatCode="##0.0;\-##0.0;0"/>
     <numFmt numFmtId="173" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
     <numFmt numFmtId="174" formatCode="##0.0000;\-##0.0000;0.000"/>
-    <numFmt numFmtId="175" formatCode="0.000000"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -4830,7 +4829,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4948,7 +4947,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="39" applyFont="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -53464,10 +53465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y293"/>
+  <dimension ref="A1:Y294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="D281" sqref="D281"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D193" sqref="D193:F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57116,15 +57117,15 @@
         <v>3</v>
       </c>
       <c r="C170" s="74"/>
-      <c r="D170" s="74">
+      <c r="D170" s="75">
         <f>0.8*M170</f>
         <v>2.4960000000000004</v>
       </c>
-      <c r="E170" s="74">
+      <c r="E170" s="75">
         <f>0.8*N170</f>
         <v>1.4976000000000003</v>
       </c>
-      <c r="F170" s="74">
+      <c r="F170" s="75">
         <f>0.8*O170</f>
         <v>0.89856000000000003</v>
       </c>
@@ -57153,15 +57154,15 @@
         <v>4</v>
       </c>
       <c r="C171" s="74"/>
-      <c r="D171" s="74">
+      <c r="D171" s="75">
         <f t="shared" ref="D171:D183" si="0">0.8*M171</f>
         <v>12.48</v>
       </c>
-      <c r="E171" s="74">
+      <c r="E171" s="75">
         <f t="shared" ref="E171:E183" si="1">0.8*N171</f>
         <v>7.4879999999999995</v>
       </c>
-      <c r="F171" s="74">
+      <c r="F171" s="75">
         <f t="shared" ref="F171:F183" si="2">0.8*O171</f>
         <v>4.4927999999999999</v>
       </c>
@@ -57190,15 +57191,15 @@
         <v>5</v>
       </c>
       <c r="C172" s="74"/>
-      <c r="D172" s="74">
+      <c r="D172" s="75">
         <f t="shared" si="0"/>
         <v>49.92</v>
       </c>
-      <c r="E172" s="74">
+      <c r="E172" s="75">
         <f t="shared" si="1"/>
         <v>29.951999999999998</v>
       </c>
-      <c r="F172" s="74">
+      <c r="F172" s="75">
         <f t="shared" si="2"/>
         <v>17.9712</v>
       </c>
@@ -57229,15 +57230,15 @@
         <v>6</v>
       </c>
       <c r="C173" s="74"/>
-      <c r="D173" s="74">
+      <c r="D173" s="75">
         <f t="shared" si="0"/>
         <v>124.80000000000001</v>
       </c>
-      <c r="E173" s="74">
+      <c r="E173" s="75">
         <f t="shared" si="1"/>
         <v>74.88</v>
       </c>
-      <c r="F173" s="74">
+      <c r="F173" s="75">
         <f t="shared" si="2"/>
         <v>44.927999999999997</v>
       </c>
@@ -57266,15 +57267,15 @@
         <v>7</v>
       </c>
       <c r="C174" s="74"/>
-      <c r="D174" s="74">
+      <c r="D174" s="75">
         <f t="shared" si="0"/>
         <v>88.24692632</v>
       </c>
-      <c r="E174" s="74">
+      <c r="E174" s="75">
         <f t="shared" si="1"/>
         <v>52.948155776</v>
       </c>
-      <c r="F174" s="74">
+      <c r="F174" s="75">
         <f t="shared" si="2"/>
         <v>31.768893464000001</v>
       </c>
@@ -57305,15 +57306,15 @@
         <v>8</v>
       </c>
       <c r="C175" s="74"/>
-      <c r="D175" s="74">
+      <c r="D175" s="75">
         <f t="shared" si="0"/>
         <v>62.400000000000006</v>
       </c>
-      <c r="E175" s="74">
+      <c r="E175" s="75">
         <f t="shared" si="1"/>
         <v>37.44</v>
       </c>
-      <c r="F175" s="74">
+      <c r="F175" s="75">
         <f t="shared" si="2"/>
         <v>22.463999999999999</v>
       </c>
@@ -57344,15 +57345,15 @@
         <v>9</v>
       </c>
       <c r="C176" s="74"/>
-      <c r="D176" s="74">
+      <c r="D176" s="75">
         <f t="shared" si="0"/>
         <v>44.123463143999999</v>
       </c>
-      <c r="E176" s="74">
+      <c r="E176" s="75">
         <f t="shared" si="1"/>
         <v>26.474077888</v>
       </c>
-      <c r="F176" s="74">
+      <c r="F176" s="75">
         <f t="shared" si="2"/>
         <v>15.884446736000001</v>
       </c>
@@ -57383,15 +57384,15 @@
         <v>10</v>
       </c>
       <c r="C177" s="74"/>
-      <c r="D177" s="74">
+      <c r="D177" s="75">
         <f t="shared" si="0"/>
         <v>31.200000000000003</v>
       </c>
-      <c r="E177" s="74">
+      <c r="E177" s="75">
         <f t="shared" si="1"/>
         <v>18.72</v>
       </c>
-      <c r="F177" s="74">
+      <c r="F177" s="75">
         <f t="shared" si="2"/>
         <v>11.231999999999999</v>
       </c>
@@ -57422,15 +57423,15 @@
         <v>11</v>
       </c>
       <c r="C178" s="74"/>
-      <c r="D178" s="74">
+      <c r="D178" s="75">
         <f t="shared" si="0"/>
         <v>22.061731576</v>
       </c>
-      <c r="E178" s="74">
+      <c r="E178" s="75">
         <f t="shared" si="1"/>
         <v>13.237038944</v>
       </c>
-      <c r="F178" s="74">
+      <c r="F178" s="75">
         <f t="shared" si="2"/>
         <v>7.9422233664000004</v>
       </c>
@@ -57461,15 +57462,15 @@
         <v>12</v>
       </c>
       <c r="C179" s="74"/>
-      <c r="D179" s="74">
+      <c r="D179" s="75">
         <f t="shared" si="0"/>
         <v>15.600000000000001</v>
       </c>
-      <c r="E179" s="74">
+      <c r="E179" s="75">
         <f t="shared" si="1"/>
         <v>9.36</v>
       </c>
-      <c r="F179" s="74">
+      <c r="F179" s="75">
         <f t="shared" si="2"/>
         <v>5.6159999999999997</v>
       </c>
@@ -57500,15 +57501,15 @@
         <v>13</v>
       </c>
       <c r="C180" s="74"/>
-      <c r="D180" s="74">
+      <c r="D180" s="75">
         <f t="shared" si="0"/>
         <v>11.030865784</v>
       </c>
-      <c r="E180" s="74">
+      <c r="E180" s="75">
         <f t="shared" si="1"/>
         <v>6.618519472</v>
       </c>
-      <c r="F180" s="74">
+      <c r="F180" s="75">
         <f t="shared" si="2"/>
         <v>3.9711116832000002</v>
       </c>
@@ -57539,15 +57540,15 @@
         <v>14</v>
       </c>
       <c r="C181" s="74"/>
-      <c r="D181" s="74">
+      <c r="D181" s="75">
         <f t="shared" si="0"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="E181" s="74">
+      <c r="E181" s="75">
         <f t="shared" si="1"/>
         <v>4.68</v>
       </c>
-      <c r="F181" s="74">
+      <c r="F181" s="75">
         <f t="shared" si="2"/>
         <v>2.8079999999999998</v>
       </c>
@@ -57578,15 +57579,15 @@
         <v>15</v>
       </c>
       <c r="C182" s="74"/>
-      <c r="D182" s="74">
+      <c r="D182" s="75">
         <f t="shared" si="0"/>
         <v>5.5154328935999999</v>
       </c>
-      <c r="E182" s="74">
+      <c r="E182" s="75">
         <f t="shared" si="1"/>
         <v>3.309259736</v>
       </c>
-      <c r="F182" s="74">
+      <c r="F182" s="75">
         <f t="shared" si="2"/>
         <v>1.9855558416000001</v>
       </c>
@@ -57617,15 +57618,15 @@
         <v>16</v>
       </c>
       <c r="C183" s="74"/>
-      <c r="D183" s="74">
+      <c r="D183" s="75">
         <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="E183" s="74">
+      <c r="E183" s="75">
         <f t="shared" si="1"/>
         <v>2.34</v>
       </c>
-      <c r="F183" s="74">
+      <c r="F183" s="75">
         <f t="shared" si="2"/>
         <v>1.4039999999999999</v>
       </c>
@@ -58612,13 +58613,13 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="A256" s="2" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B257" s="38" t="s">
-        <v>179</v>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B257" s="85" t="s">
+        <v>28</v>
       </c>
       <c r="C257" s="37" t="s">
         <v>222</v>
@@ -58631,7 +58632,7 @@
       <c r="G257" s="37"/>
       <c r="H257" s="37"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B258" s="37" t="s">
         <v>246</v>
       </c>
@@ -58654,7 +58655,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1</v>
       </c>
@@ -58680,7 +58681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2</v>
       </c>
@@ -58705,507 +58706,400 @@
       <c r="H260" s="37">
         <v>0</v>
       </c>
-      <c r="J260" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>3</v>
       </c>
       <c r="B261" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="C261" s="37">
+      <c r="C261" s="59">
         <v>0.97183900000000001</v>
       </c>
-      <c r="D261" s="37">
+      <c r="D261" s="59">
         <v>2.6402999999999999E-2</v>
       </c>
-      <c r="E261" s="37">
+      <c r="E261" s="59">
         <f>1-(C261+D261)</f>
         <v>1.7580000000000373E-3</v>
       </c>
-      <c r="F261" s="37">
+      <c r="F261" s="59">
         <v>0.97183900000000001</v>
       </c>
-      <c r="G261" s="37">
+      <c r="G261" s="59">
         <v>2.6402999999999999E-2</v>
       </c>
-      <c r="H261" s="37">
+      <c r="H261" s="59">
         <f>1-(F261+G261)</f>
         <v>1.7580000000000373E-3</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>4</v>
       </c>
       <c r="B262" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C262" s="37">
+      <c r="C262" s="59">
         <v>0.87735600000000002</v>
       </c>
-      <c r="D262" s="37">
+      <c r="D262" s="59">
         <v>0.11361499999999999</v>
       </c>
-      <c r="E262" s="37">
+      <c r="E262" s="59">
         <f>1-(C262+D262)</f>
         <v>9.0289999999999537E-3</v>
       </c>
-      <c r="F262" s="37">
+      <c r="F262" s="59">
         <v>0.87935600000000003</v>
       </c>
-      <c r="G262" s="37">
+      <c r="G262" s="59">
         <v>0.11615</v>
       </c>
-      <c r="H262" s="37">
+      <c r="H262" s="59">
         <f>1-(F262+G262)</f>
         <v>4.493999999999998E-3</v>
       </c>
-      <c r="J262">
-        <f>SUM(C262:E262)</f>
-        <v>1</v>
-      </c>
-      <c r="K262">
-        <f>SUM(F262:H262)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>5</v>
       </c>
       <c r="B263" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C263" s="37">
+      <c r="C263" s="59">
         <v>0.70302699999999996</v>
       </c>
-      <c r="D263" s="37">
+      <c r="D263" s="59">
         <v>0.26659899999999997</v>
       </c>
-      <c r="E263" s="37">
+      <c r="E263" s="59">
         <f t="shared" ref="E263:E274" si="6">1-(C263+D263)</f>
         <v>3.0374000000000123E-2</v>
       </c>
-      <c r="F263" s="37">
+      <c r="F263" s="59">
         <v>0.73402699999999999</v>
       </c>
-      <c r="G263" s="37">
+      <c r="G263" s="59">
         <v>0.25359900000000002</v>
       </c>
-      <c r="H263" s="37">
+      <c r="H263" s="59">
         <f t="shared" ref="H263:H274" si="7">1-(F263+G263)</f>
         <v>1.2373999999999996E-2</v>
       </c>
-      <c r="J263" s="37">
-        <f t="shared" ref="J263:J274" si="8">SUM(C263:E263)</f>
-        <v>1</v>
-      </c>
-      <c r="K263" s="37">
-        <f t="shared" ref="K263:K274" si="9">SUM(F263:H263)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>6</v>
       </c>
       <c r="B264" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C264" s="37">
+      <c r="C264" s="59">
         <v>0.72545599999999999</v>
       </c>
-      <c r="D264" s="37">
+      <c r="D264" s="59">
         <v>0.26419700000000002</v>
       </c>
-      <c r="E264" s="37">
+      <c r="E264" s="59">
         <f t="shared" si="6"/>
         <v>1.0346999999999995E-2</v>
       </c>
-      <c r="F264" s="37">
-        <v>0.731456</v>
-      </c>
-      <c r="G264" s="37">
+      <c r="F264" s="59">
+        <v>0.75145600000000001</v>
+      </c>
+      <c r="G264" s="59">
         <v>0.22519700000000001</v>
       </c>
-      <c r="H264" s="37">
+      <c r="H264" s="59">
         <f t="shared" si="7"/>
-        <v>4.3347000000000024E-2</v>
-      </c>
-      <c r="J264" s="37">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K264" s="37">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.3347000000000007E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>7</v>
       </c>
       <c r="B265" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C265" s="37">
+      <c r="C265" s="59">
         <v>0.73932100000000001</v>
       </c>
-      <c r="D265" s="37">
+      <c r="D265" s="59">
         <v>0.25078</v>
       </c>
-      <c r="E265" s="85">
+      <c r="E265" s="59">
         <f t="shared" si="6"/>
         <v>9.8989999999999911E-3</v>
       </c>
-      <c r="F265" s="37">
+      <c r="F265" s="59">
         <v>0.731321</v>
       </c>
-      <c r="G265" s="37">
+      <c r="G265" s="59">
         <v>0.2505868</v>
       </c>
-      <c r="H265" s="37">
+      <c r="H265" s="59">
         <f t="shared" si="7"/>
         <v>1.8092200000000003E-2</v>
       </c>
-      <c r="J265" s="37">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K265" s="37">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>8</v>
       </c>
       <c r="B266" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C266" s="37">
+      <c r="C266" s="59">
         <v>0.76990499999999995</v>
       </c>
-      <c r="D266" s="37">
+      <c r="D266" s="59">
         <v>0.22307099999999999</v>
       </c>
-      <c r="E266" s="37">
+      <c r="E266" s="59">
         <f t="shared" si="6"/>
         <v>7.0240000000000302E-3</v>
       </c>
-      <c r="F266" s="37">
+      <c r="F266" s="59">
         <v>0.76510500000000004</v>
       </c>
-      <c r="G266" s="37">
+      <c r="G266" s="59">
         <v>0.22507099999999999</v>
       </c>
-      <c r="H266" s="37">
+      <c r="H266" s="59">
         <f t="shared" si="7"/>
         <v>9.8239999999999439E-3</v>
       </c>
-      <c r="J266" s="37">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K266" s="37">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>9</v>
       </c>
       <c r="B267" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C267" s="37">
-        <v>0.79022300000000001</v>
-      </c>
-      <c r="D267" s="37">
-        <v>0.20535</v>
-      </c>
-      <c r="E267" s="37">
+      <c r="C267" s="59">
+        <v>0.781223</v>
+      </c>
+      <c r="D267" s="59">
+        <v>0.21535000000000001</v>
+      </c>
+      <c r="E267" s="59">
         <f t="shared" si="6"/>
-        <v>4.4269999999999587E-3</v>
-      </c>
-      <c r="F267" s="37">
+        <v>3.4269999999999579E-3</v>
+      </c>
+      <c r="F267" s="59">
         <v>0.781223</v>
       </c>
-      <c r="G267" s="37">
+      <c r="G267" s="59">
         <v>0.21535000000000001</v>
       </c>
-      <c r="H267" s="37">
+      <c r="H267" s="59">
         <f t="shared" si="7"/>
         <v>3.4269999999999579E-3</v>
       </c>
-      <c r="J267" s="37">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K267" s="37">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>10</v>
       </c>
       <c r="B268" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C268" s="37">
+      <c r="C268" s="59">
         <v>0.82640999999999998</v>
       </c>
-      <c r="D268" s="37">
+      <c r="D268" s="59">
         <v>0.16399</v>
       </c>
-      <c r="E268" s="85">
+      <c r="E268" s="59">
         <f t="shared" si="6"/>
         <v>9.6000000000000529E-3</v>
       </c>
-      <c r="F268" s="37">
+      <c r="F268" s="59">
         <v>0.82640999999999998</v>
       </c>
-      <c r="G268" s="37">
+      <c r="G268" s="59">
         <v>0.16399</v>
       </c>
-      <c r="H268" s="37">
+      <c r="H268" s="59">
         <f t="shared" si="7"/>
         <v>9.6000000000000529E-3</v>
       </c>
-      <c r="J268" s="37">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K268" s="37">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="37">
         <v>11</v>
       </c>
       <c r="B269" s="37" t="s">
         <v>392</v>
       </c>
-      <c r="C269" s="37">
+      <c r="C269" s="59">
         <v>0.87985000000000002</v>
       </c>
-      <c r="D269" s="37">
+      <c r="D269" s="59">
         <v>0.11162999999999999</v>
       </c>
-      <c r="E269" s="37">
+      <c r="E269" s="59">
         <f t="shared" si="6"/>
         <v>8.519999999999972E-3</v>
       </c>
-      <c r="F269" s="37">
+      <c r="F269" s="59">
         <v>0.87985000000000002</v>
       </c>
-      <c r="G269" s="37">
+      <c r="G269" s="59">
         <v>0.11162999999999999</v>
       </c>
-      <c r="H269" s="37">
+      <c r="H269" s="59">
         <f t="shared" si="7"/>
         <v>8.519999999999972E-3</v>
       </c>
-      <c r="J269" s="37">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K269" s="37">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="37">
         <v>12</v>
       </c>
       <c r="B270" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="C270" s="37">
+      <c r="C270" s="59">
         <v>0.87985000000000002</v>
       </c>
-      <c r="D270" s="37">
+      <c r="D270" s="59">
         <v>0.11162999999999999</v>
       </c>
-      <c r="E270" s="37">
+      <c r="E270" s="59">
         <f t="shared" si="6"/>
         <v>8.519999999999972E-3</v>
       </c>
-      <c r="F270" s="37">
+      <c r="F270" s="59">
         <v>0.87985000000000002</v>
       </c>
-      <c r="G270" s="37">
+      <c r="G270" s="59">
         <v>0.11162999999999999</v>
       </c>
-      <c r="H270" s="37">
+      <c r="H270" s="59">
         <f t="shared" si="7"/>
         <v>8.519999999999972E-3</v>
       </c>
-      <c r="J270" s="37">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K270" s="37">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="37">
         <v>13</v>
       </c>
       <c r="B271" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="C271" s="37">
+      <c r="C271" s="59">
         <v>0.87985000000000002</v>
       </c>
-      <c r="D271" s="37">
+      <c r="D271" s="59">
         <v>0.11162999999999999</v>
       </c>
-      <c r="E271" s="37">
+      <c r="E271" s="59">
         <f t="shared" si="6"/>
         <v>8.519999999999972E-3</v>
       </c>
-      <c r="F271" s="37">
+      <c r="F271" s="59">
         <v>0.87985000000000002</v>
       </c>
-      <c r="G271" s="37">
+      <c r="G271" s="59">
         <v>0.11162999999999999</v>
       </c>
-      <c r="H271" s="37">
+      <c r="H271" s="59">
         <f t="shared" si="7"/>
         <v>8.519999999999972E-3</v>
       </c>
-      <c r="J271" s="37">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K271" s="37">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="37">
         <v>14</v>
       </c>
       <c r="B272" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="C272" s="37">
+      <c r="C272" s="59">
         <v>0.87985000000000002</v>
       </c>
-      <c r="D272" s="37">
+      <c r="D272" s="59">
         <v>0.11162999999999999</v>
       </c>
-      <c r="E272" s="37">
+      <c r="E272" s="59">
         <f t="shared" si="6"/>
         <v>8.519999999999972E-3</v>
       </c>
-      <c r="F272" s="37">
+      <c r="F272" s="59">
         <v>0.87985000000000002</v>
       </c>
-      <c r="G272" s="37">
+      <c r="G272" s="59">
         <v>0.11162999999999999</v>
       </c>
-      <c r="H272" s="37">
+      <c r="H272" s="59">
         <f t="shared" si="7"/>
         <v>8.519999999999972E-3</v>
       </c>
-      <c r="J272" s="37">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K272" s="37">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="37">
         <v>15</v>
       </c>
       <c r="B273" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="C273" s="37">
+      <c r="C273" s="59">
         <v>0.87985000000000002</v>
       </c>
-      <c r="D273" s="37">
+      <c r="D273" s="59">
         <v>0.11162999999999999</v>
       </c>
-      <c r="E273" s="37">
+      <c r="E273" s="59">
         <f t="shared" si="6"/>
         <v>8.519999999999972E-3</v>
       </c>
-      <c r="F273" s="37">
+      <c r="F273" s="59">
         <v>0.87985000000000002</v>
       </c>
-      <c r="G273" s="37">
+      <c r="G273" s="59">
         <v>0.11162999999999999</v>
       </c>
-      <c r="H273" s="37">
+      <c r="H273" s="59">
         <f t="shared" si="7"/>
         <v>8.519999999999972E-3</v>
       </c>
-      <c r="J273" s="37">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K273" s="37">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="37">
         <v>16</v>
       </c>
       <c r="B274" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="C274" s="37">
+      <c r="C274" s="59">
         <v>0.87985000000000002</v>
       </c>
-      <c r="D274" s="37">
+      <c r="D274" s="59">
         <v>0.11162999999999999</v>
       </c>
-      <c r="E274" s="37">
+      <c r="E274" s="59">
         <f t="shared" si="6"/>
         <v>8.519999999999972E-3</v>
       </c>
-      <c r="F274" s="37">
+      <c r="F274" s="59">
         <v>0.87985000000000002</v>
       </c>
-      <c r="G274" s="37">
+      <c r="G274" s="59">
         <v>0.11162999999999999</v>
       </c>
-      <c r="H274" s="37">
+      <c r="H274" s="59">
         <f t="shared" si="7"/>
         <v>8.519999999999972E-3</v>
       </c>
-      <c r="J274" s="37">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K274" s="37">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B275" s="37"/>
       <c r="C275" s="37"/>
       <c r="D275" s="37"/>
@@ -59214,410 +59108,430 @@
       <c r="G275" s="37"/>
       <c r="H275" s="37"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B276" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C276" s="37" t="s">
-        <v>215</v>
-      </c>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B276" s="37"/>
+      <c r="C276" s="37"/>
       <c r="D276" s="37"/>
       <c r="E276" s="37"/>
-      <c r="F276" s="37" t="s">
-        <v>223</v>
-      </c>
+      <c r="F276" s="37"/>
       <c r="G276" s="37"/>
       <c r="H276" s="37"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B277" s="37" t="s">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B277" s="43" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C277" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D277" s="37"/>
+      <c r="E277" s="37"/>
+      <c r="F277" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G277" s="37"/>
+      <c r="H277" s="37"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B278" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="C277" s="37" t="s">
+      <c r="C278" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="D277" s="37" t="s">
+      <c r="D278" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="E277" s="37" t="s">
+      <c r="E278" s="37" t="s">
         <v>493</v>
       </c>
-      <c r="F277" s="37" t="s">
+      <c r="F278" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="G277" s="37" t="s">
+      <c r="G278" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="H277" s="37" t="s">
+      <c r="H278" s="37" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B278" s="37" t="s">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B279" s="37" t="s">
         <v>494</v>
       </c>
-      <c r="C278" s="29">
-        <v>1</v>
-      </c>
-      <c r="D278" s="37">
-        <v>0</v>
-      </c>
-      <c r="E278" s="37">
-        <v>0</v>
-      </c>
-      <c r="F278" s="37">
-        <v>1</v>
-      </c>
-      <c r="G278" s="37">
-        <v>0</v>
-      </c>
-      <c r="H278" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B279" s="22" t="s">
+      <c r="C279" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D279" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E279" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F279" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G279" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H279" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B280" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="C279" s="29">
-        <v>1</v>
-      </c>
-      <c r="D279" s="37">
-        <v>0</v>
-      </c>
-      <c r="E279" s="37">
-        <v>0</v>
-      </c>
-      <c r="F279" s="37">
-        <v>1</v>
-      </c>
-      <c r="G279" s="37">
-        <v>0</v>
-      </c>
-      <c r="H279" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B280" s="22" t="s">
+      <c r="C280" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D280" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E280" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F280" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G280" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H280" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B281" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="C280" s="29">
-        <v>1</v>
-      </c>
-      <c r="D280" s="37">
-        <v>0</v>
-      </c>
-      <c r="E280" s="37">
-        <v>0</v>
-      </c>
-      <c r="F280" s="37">
-        <v>1</v>
-      </c>
-      <c r="G280" s="37">
-        <v>0</v>
-      </c>
-      <c r="H280" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B281" s="37" t="s">
+      <c r="C281" s="86">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D281" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E281" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F281" s="86">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G281" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H281" s="7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B282" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C281" s="29">
-        <v>0.98975599999999997</v>
-      </c>
-      <c r="D281" s="37">
-        <v>1.0069E-2</v>
-      </c>
-      <c r="E281" s="37">
-        <v>1.7500000000000003E-4</v>
-      </c>
-      <c r="F281" s="37">
-        <v>0.96245199999999997</v>
-      </c>
-      <c r="G281" s="37">
-        <v>3.5205E-2</v>
-      </c>
-      <c r="H281" s="37">
-        <v>2.343E-3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B282" s="37" t="s">
+      <c r="C282" s="7">
+        <v>0.22517599999999999</v>
+      </c>
+      <c r="D282" s="7">
+        <v>2.1546289999999999</v>
+      </c>
+      <c r="E282" s="7">
+        <v>6.4129969999999998</v>
+      </c>
+      <c r="F282" s="7">
+        <v>0.22517599999999999</v>
+      </c>
+      <c r="G282" s="7">
+        <v>2.1546289999999999</v>
+      </c>
+      <c r="H282" s="7">
+        <v>6.4129969999999998</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B283" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C282" s="29">
-        <v>0.97952399999999995</v>
-      </c>
-      <c r="D282" s="37">
-        <v>2.0166E-2</v>
-      </c>
-      <c r="E282" s="37">
-        <v>3.1E-4</v>
-      </c>
-      <c r="F282" s="37">
-        <v>0.8334180000000001</v>
-      </c>
-      <c r="G282" s="37">
-        <v>0.157748</v>
-      </c>
-      <c r="H282" s="37">
-        <v>8.8339999999999998E-3</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B283" s="37" t="s">
+      <c r="C283" s="7">
+        <v>0.67400099999999996</v>
+      </c>
+      <c r="D283" s="7">
+        <v>2.173962</v>
+      </c>
+      <c r="E283" s="7">
+        <v>7.7805770000000001</v>
+      </c>
+      <c r="F283" s="7">
+        <v>0.67400099999999996</v>
+      </c>
+      <c r="G283" s="7">
+        <v>2.173962</v>
+      </c>
+      <c r="H283" s="7">
+        <v>7.7805770000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B284" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C283" s="29">
-        <v>0.98680599999999996</v>
-      </c>
-      <c r="D283" s="37">
-        <v>1.2837000000000001E-2</v>
-      </c>
-      <c r="E283" s="37">
-        <v>3.57E-4</v>
-      </c>
-      <c r="F283" s="37">
-        <v>0.825658</v>
-      </c>
-      <c r="G283" s="37">
-        <v>0.16295100000000001</v>
-      </c>
-      <c r="H283" s="37">
-        <v>1.1391E-2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B284" s="37" t="s">
+      <c r="C284" s="7">
+        <v>0.87036999999999998</v>
+      </c>
+      <c r="D284" s="7">
+        <v>2.105747</v>
+      </c>
+      <c r="E284" s="87">
+        <f>19.478731 * 0.6</f>
+        <v>11.687238599999999</v>
+      </c>
+      <c r="F284" s="7">
+        <v>0.87036999999999998</v>
+      </c>
+      <c r="G284" s="7">
+        <v>2.105747</v>
+      </c>
+      <c r="H284" s="87">
+        <f>19.478731 * 0.6</f>
+        <v>11.687238599999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B285" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C284" s="29">
-        <v>0.98374700000000004</v>
-      </c>
-      <c r="D284" s="37">
-        <v>1.6253E-2</v>
-      </c>
-      <c r="E284" s="20">
-        <v>4.6700000000000002E-4</v>
-      </c>
-      <c r="F284" s="37">
-        <v>0.84771699999999994</v>
-      </c>
-      <c r="G284" s="37">
-        <v>0.149064</v>
-      </c>
-      <c r="H284" s="37">
-        <v>3.2200000000000002E-3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B285" s="37" t="s">
+      <c r="C285" s="7">
+        <v>0.93245599999999995</v>
+      </c>
+      <c r="D285" s="7">
+        <v>2.1315270000000002</v>
+      </c>
+      <c r="E285" s="87">
+        <f>19.514182 * 0.6</f>
+        <v>11.7085092</v>
+      </c>
+      <c r="F285" s="7">
+        <v>0.93245599999999995</v>
+      </c>
+      <c r="G285" s="7">
+        <v>2.1315270000000002</v>
+      </c>
+      <c r="H285" s="87">
+        <f>19.514182 * 0.6</f>
+        <v>11.7085092</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B286" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C285" s="29">
-        <v>0.98370900000000006</v>
-      </c>
-      <c r="D285" s="37">
-        <v>1.5713999999999999E-2</v>
-      </c>
-      <c r="E285" s="37">
-        <v>5.7700000000000004E-4</v>
-      </c>
-      <c r="F285" s="37">
-        <v>0.86167599999999989</v>
-      </c>
-      <c r="G285" s="37">
-        <v>0.13456400000000002</v>
-      </c>
-      <c r="H285" s="37">
-        <v>3.7599999999999999E-3</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B286" s="37" t="s">
+      <c r="C286" s="7">
+        <v>0.93322700000000003</v>
+      </c>
+      <c r="D286" s="7">
+        <v>2.181549</v>
+      </c>
+      <c r="E286" s="7">
+        <v>9.6671910000000008</v>
+      </c>
+      <c r="F286" s="7">
+        <v>0.93322700000000003</v>
+      </c>
+      <c r="G286" s="7">
+        <v>2.181549</v>
+      </c>
+      <c r="H286" s="7">
+        <v>9.6671910000000008</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B287" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C286" s="29">
-        <v>0.99171000000000009</v>
-      </c>
-      <c r="D286" s="37">
-        <v>7.8080000000000007E-3</v>
-      </c>
-      <c r="E286" s="37">
-        <v>4.8200000000000001E-4</v>
-      </c>
-      <c r="F286" s="37">
-        <v>0.88590000000000002</v>
-      </c>
-      <c r="G286" s="37">
-        <v>0.11090999999999999</v>
-      </c>
-      <c r="H286" s="37">
-        <v>3.1900000000000001E-3</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B287" s="37" t="s">
+      <c r="C287" s="7">
+        <v>0.94899599999999995</v>
+      </c>
+      <c r="D287" s="7">
+        <v>2.0623269999999998</v>
+      </c>
+      <c r="E287" s="87">
+        <f xml:space="preserve"> 16.551753 * 0.5</f>
+        <v>8.2758765000000007</v>
+      </c>
+      <c r="F287" s="7">
+        <v>0.94899599999999995</v>
+      </c>
+      <c r="G287" s="7">
+        <v>2.0623269999999998</v>
+      </c>
+      <c r="H287" s="87">
+        <f xml:space="preserve"> 16.551753 * 0.5</f>
+        <v>8.2758765000000007</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B288" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C287" s="29">
-        <v>0.99118399999999995</v>
-      </c>
-      <c r="D287" s="37">
-        <v>8.8160000000000009E-3</v>
-      </c>
-      <c r="E287" s="37">
-        <v>0</v>
-      </c>
-      <c r="F287" s="37">
-        <v>0.87293999999999994</v>
-      </c>
-      <c r="G287" s="37">
-        <v>0.126001</v>
-      </c>
-      <c r="H287" s="37">
-        <v>1.059E-3</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B288" s="37" t="s">
-        <v>392</v>
-      </c>
-      <c r="C288" s="29">
-        <v>0.99118399999999995</v>
-      </c>
-      <c r="D288" s="37">
-        <v>8.8160000000000009E-3</v>
-      </c>
-      <c r="E288" s="37">
-        <v>0</v>
-      </c>
-      <c r="F288" s="37">
-        <v>0.88538499999999998</v>
-      </c>
-      <c r="G288" s="37">
-        <v>0.10356299999999999</v>
-      </c>
-      <c r="H288" s="37">
-        <v>1.1051999999999999E-2</v>
+      <c r="C288" s="7">
+        <v>0.93038500000000002</v>
+      </c>
+      <c r="D288" s="7">
+        <v>2.1220140000000001</v>
+      </c>
+      <c r="E288" s="87">
+        <f xml:space="preserve"> 24.516099 * 0.3</f>
+        <v>7.3548296999999998</v>
+      </c>
+      <c r="F288" s="7">
+        <v>0.93038500000000002</v>
+      </c>
+      <c r="G288" s="7">
+        <v>2.1220140000000001</v>
+      </c>
+      <c r="H288" s="87">
+        <f xml:space="preserve"> 24.516099 * 0.3</f>
+        <v>7.3548296999999998</v>
       </c>
     </row>
     <row r="289" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B289" s="37" t="s">
-        <v>461</v>
-      </c>
-      <c r="C289" s="29">
-        <v>0.99118399999999995</v>
-      </c>
-      <c r="D289" s="37">
-        <v>8.8160000000000009E-3</v>
-      </c>
-      <c r="E289" s="37">
-        <v>0</v>
-      </c>
-      <c r="F289" s="37">
-        <v>0.88538499999999998</v>
-      </c>
-      <c r="G289" s="37">
-        <v>0.10356299999999999</v>
-      </c>
-      <c r="H289" s="37">
-        <v>1.1051999999999999E-2</v>
+        <v>392</v>
+      </c>
+      <c r="C289" s="7">
+        <v>0.91735900000000004</v>
+      </c>
+      <c r="D289" s="7">
+        <v>2.1227469999999999</v>
+      </c>
+      <c r="E289" s="7">
+        <v>7.0254260000000004</v>
+      </c>
+      <c r="F289" s="7">
+        <v>0.91735900000000004</v>
+      </c>
+      <c r="G289" s="7">
+        <v>2.1227469999999999</v>
+      </c>
+      <c r="H289" s="7">
+        <v>7.0254260000000004</v>
       </c>
     </row>
     <row r="290" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B290" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="C290" s="29">
-        <v>0.99118399999999995</v>
-      </c>
-      <c r="D290" s="37">
-        <v>8.8160000000000009E-3</v>
-      </c>
-      <c r="E290" s="37">
-        <v>0</v>
-      </c>
-      <c r="F290" s="37">
-        <v>0.88538499999999998</v>
-      </c>
-      <c r="G290" s="37">
-        <v>0.10356299999999999</v>
-      </c>
-      <c r="H290" s="37">
-        <v>1.1051999999999999E-2</v>
+        <v>461</v>
+      </c>
+      <c r="C290" s="7">
+        <v>0.91735900000000004</v>
+      </c>
+      <c r="D290" s="7">
+        <v>2.1227469999999999</v>
+      </c>
+      <c r="E290" s="7">
+        <v>1</v>
+      </c>
+      <c r="F290" s="7">
+        <v>0.91735900000000004</v>
+      </c>
+      <c r="G290" s="7">
+        <v>2.1227469999999999</v>
+      </c>
+      <c r="H290" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="37" t="s">
-        <v>462</v>
-      </c>
-      <c r="C291" s="29">
-        <v>0.99118399999999995</v>
-      </c>
-      <c r="D291" s="37">
-        <v>8.8160000000000009E-3</v>
-      </c>
-      <c r="E291" s="37">
-        <v>0</v>
-      </c>
-      <c r="F291" s="37">
-        <v>0.88538499999999998</v>
-      </c>
-      <c r="G291" s="37">
-        <v>0.10356299999999999</v>
-      </c>
-      <c r="H291" s="37">
-        <v>1.1051999999999999E-2</v>
+        <v>324</v>
+      </c>
+      <c r="C291" s="7">
+        <v>0.91735900000000004</v>
+      </c>
+      <c r="D291" s="7">
+        <v>2.1227469999999999</v>
+      </c>
+      <c r="E291" s="7">
+        <v>1</v>
+      </c>
+      <c r="F291" s="7">
+        <v>0.91735900000000004</v>
+      </c>
+      <c r="G291" s="7">
+        <v>2.1227469999999999</v>
+      </c>
+      <c r="H291" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" s="37" t="s">
-        <v>463</v>
-      </c>
-      <c r="C292" s="29">
-        <v>0.99118399999999995</v>
-      </c>
-      <c r="D292" s="37">
-        <v>8.8160000000000009E-3</v>
-      </c>
-      <c r="E292" s="37">
-        <v>0</v>
-      </c>
-      <c r="F292" s="37">
-        <v>0.88538499999999998</v>
-      </c>
-      <c r="G292" s="37">
-        <v>0.10356299999999999</v>
-      </c>
-      <c r="H292" s="37">
-        <v>1.1051999999999999E-2</v>
+        <v>462</v>
+      </c>
+      <c r="C292" s="7">
+        <v>0.91735900000000004</v>
+      </c>
+      <c r="D292" s="7">
+        <v>2.1227469999999999</v>
+      </c>
+      <c r="E292" s="7">
+        <v>1</v>
+      </c>
+      <c r="F292" s="7">
+        <v>0.91735900000000004</v>
+      </c>
+      <c r="G292" s="7">
+        <v>2.1227469999999999</v>
+      </c>
+      <c r="H292" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="C293" s="7">
+        <v>0.91735900000000004</v>
+      </c>
+      <c r="D293" s="7">
+        <v>2.1227469999999999</v>
+      </c>
+      <c r="E293" s="7">
+        <v>1</v>
+      </c>
+      <c r="F293" s="7">
+        <v>0.91735900000000004</v>
+      </c>
+      <c r="G293" s="7">
+        <v>2.1227469999999999</v>
+      </c>
+      <c r="H293" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B294" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="C293" s="29">
-        <v>0.99118399999999995</v>
-      </c>
-      <c r="D293" s="37">
-        <v>8.8160000000000009E-3</v>
-      </c>
-      <c r="E293" s="37">
-        <v>0</v>
-      </c>
-      <c r="F293" s="37">
-        <v>0.88538499999999998</v>
-      </c>
-      <c r="G293" s="37">
-        <v>0.10356299999999999</v>
-      </c>
-      <c r="H293" s="37">
-        <v>1.1051999999999999E-2</v>
+      <c r="C294" s="7">
+        <v>0.91735900000000004</v>
+      </c>
+      <c r="D294" s="7">
+        <v>2.1227469999999999</v>
+      </c>
+      <c r="E294" s="7">
+        <v>1</v>
+      </c>
+      <c r="F294" s="7">
+        <v>0.91735900000000004</v>
+      </c>
+      <c r="G294" s="7">
+        <v>2.1227469999999999</v>
+      </c>
+      <c r="H294" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439A778B-5E26-4CE1-941E-87EC09E4DE75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D587688-4C12-4E46-99D0-61383D7559E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="12195" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -53467,8 +53467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="D193" sqref="D193:F193"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="F269" sqref="F269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58743,20 +58743,20 @@
         <v>137</v>
       </c>
       <c r="C262" s="59">
-        <v>0.87735600000000002</v>
+        <v>0.75735600000000003</v>
       </c>
       <c r="D262" s="59">
-        <v>0.11361499999999999</v>
+        <v>0.23361499999999999</v>
       </c>
       <c r="E262" s="59">
         <f>1-(C262+D262)</f>
         <v>9.0289999999999537E-3</v>
       </c>
       <c r="F262" s="59">
-        <v>0.87935600000000003</v>
+        <v>0.77935600000000005</v>
       </c>
       <c r="G262" s="59">
-        <v>0.11615</v>
+        <v>0.21615000000000001</v>
       </c>
       <c r="H262" s="59">
         <f>1-(F262+G262)</f>
@@ -58771,20 +58771,20 @@
         <v>138</v>
       </c>
       <c r="C263" s="59">
-        <v>0.70302699999999996</v>
+        <v>0.503027</v>
       </c>
       <c r="D263" s="59">
-        <v>0.26659899999999997</v>
+        <v>0.46659899999999999</v>
       </c>
       <c r="E263" s="59">
         <f t="shared" ref="E263:E274" si="6">1-(C263+D263)</f>
-        <v>3.0374000000000123E-2</v>
+        <v>3.0374000000000012E-2</v>
       </c>
       <c r="F263" s="59">
-        <v>0.73402699999999999</v>
+        <v>0.53402700000000003</v>
       </c>
       <c r="G263" s="59">
-        <v>0.25359900000000002</v>
+        <v>0.45359899999999997</v>
       </c>
       <c r="H263" s="59">
         <f t="shared" ref="H263:H274" si="7">1-(F263+G263)</f>
@@ -58799,20 +58799,20 @@
         <v>139</v>
       </c>
       <c r="C264" s="59">
-        <v>0.72545599999999999</v>
+        <v>0.52545600000000003</v>
       </c>
       <c r="D264" s="59">
-        <v>0.26419700000000002</v>
+        <v>0.46419700000000003</v>
       </c>
       <c r="E264" s="59">
         <f t="shared" si="6"/>
-        <v>1.0346999999999995E-2</v>
+        <v>1.0346999999999884E-2</v>
       </c>
       <c r="F264" s="59">
-        <v>0.75145600000000001</v>
+        <v>0.55145599999999995</v>
       </c>
       <c r="G264" s="59">
-        <v>0.22519700000000001</v>
+        <v>0.42519699999999999</v>
       </c>
       <c r="H264" s="59">
         <f t="shared" si="7"/>
@@ -58827,20 +58827,20 @@
         <v>140</v>
       </c>
       <c r="C265" s="59">
-        <v>0.73932100000000001</v>
+        <v>0.609321</v>
       </c>
       <c r="D265" s="59">
-        <v>0.25078</v>
+        <v>0.38078000000000001</v>
       </c>
       <c r="E265" s="59">
         <f t="shared" si="6"/>
         <v>9.8989999999999911E-3</v>
       </c>
       <c r="F265" s="59">
-        <v>0.731321</v>
+        <v>0.60132099999999999</v>
       </c>
       <c r="G265" s="59">
-        <v>0.2505868</v>
+        <v>0.3805868</v>
       </c>
       <c r="H265" s="59">
         <f t="shared" si="7"/>
@@ -58855,24 +58855,24 @@
         <v>141</v>
       </c>
       <c r="C266" s="59">
-        <v>0.76990499999999995</v>
+        <v>0.72990500000000003</v>
       </c>
       <c r="D266" s="59">
-        <v>0.22307099999999999</v>
+        <v>0.263071</v>
       </c>
       <c r="E266" s="59">
         <f t="shared" si="6"/>
-        <v>7.0240000000000302E-3</v>
+        <v>7.0239999999999192E-3</v>
       </c>
       <c r="F266" s="59">
-        <v>0.76510500000000004</v>
+        <v>0.70510499999999998</v>
       </c>
       <c r="G266" s="59">
-        <v>0.22507099999999999</v>
+        <v>0.28507100000000002</v>
       </c>
       <c r="H266" s="59">
         <f t="shared" si="7"/>
-        <v>9.8239999999999439E-3</v>
+        <v>9.8240000000000549E-3</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -58893,14 +58893,14 @@
         <v>3.4269999999999579E-3</v>
       </c>
       <c r="F267" s="59">
-        <v>0.781223</v>
+        <v>0.73122299999999996</v>
       </c>
       <c r="G267" s="59">
-        <v>0.21535000000000001</v>
+        <v>0.26534999999999997</v>
       </c>
       <c r="H267" s="59">
         <f t="shared" si="7"/>
-        <v>3.4269999999999579E-3</v>
+        <v>3.4270000000000689E-3</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -58921,10 +58921,10 @@
         <v>9.6000000000000529E-3</v>
       </c>
       <c r="F268" s="59">
-        <v>0.82640999999999998</v>
+        <v>0.80640999999999996</v>
       </c>
       <c r="G268" s="59">
-        <v>0.16399</v>
+        <v>0.18398999999999999</v>
       </c>
       <c r="H268" s="59">
         <f t="shared" si="7"/>
@@ -59255,7 +59255,7 @@
         <v>138</v>
       </c>
       <c r="C283" s="7">
-        <v>0.67400099999999996</v>
+        <v>0.87400100000000003</v>
       </c>
       <c r="D283" s="7">
         <v>2.173962</v>
@@ -59264,7 +59264,7 @@
         <v>7.7805770000000001</v>
       </c>
       <c r="F283" s="7">
-        <v>0.67400099999999996</v>
+        <v>0.87400100000000003</v>
       </c>
       <c r="G283" s="7">
         <v>2.173962</v>
@@ -59303,7 +59303,7 @@
         <v>140</v>
       </c>
       <c r="C285" s="7">
-        <v>0.93245599999999995</v>
+        <v>0.95</v>
       </c>
       <c r="D285" s="7">
         <v>2.1315270000000002</v>
@@ -59313,7 +59313,7 @@
         <v>11.7085092</v>
       </c>
       <c r="F285" s="7">
-        <v>0.93245599999999995</v>
+        <v>0.95</v>
       </c>
       <c r="G285" s="7">
         <v>2.1315270000000002</v>
@@ -59351,7 +59351,7 @@
         <v>142</v>
       </c>
       <c r="C287" s="7">
-        <v>0.94899599999999995</v>
+        <v>0.93</v>
       </c>
       <c r="D287" s="7">
         <v>2.0623269999999998</v>
@@ -59361,7 +59361,7 @@
         <v>8.2758765000000007</v>
       </c>
       <c r="F287" s="7">
-        <v>0.94899599999999995</v>
+        <v>0.93</v>
       </c>
       <c r="G287" s="7">
         <v>2.0623269999999998</v>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D587688-4C12-4E46-99D0-61383D7559E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235D0CA0-BE19-4822-9A77-5875087583A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="12195" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53467,8 +53467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="F269" sqref="F269"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58771,14 +58771,14 @@
         <v>138</v>
       </c>
       <c r="C263" s="59">
-        <v>0.503027</v>
+        <v>0.505027</v>
       </c>
       <c r="D263" s="59">
         <v>0.46659899999999999</v>
       </c>
       <c r="E263" s="59">
         <f t="shared" ref="E263:E274" si="6">1-(C263+D263)</f>
-        <v>3.0374000000000012E-2</v>
+        <v>2.837400000000001E-2</v>
       </c>
       <c r="F263" s="59">
         <v>0.53402700000000003</v>
@@ -58799,14 +58799,14 @@
         <v>139</v>
       </c>
       <c r="C264" s="59">
-        <v>0.52545600000000003</v>
+        <v>0.58545599999999998</v>
       </c>
       <c r="D264" s="59">
-        <v>0.46419700000000003</v>
+        <v>0.40419699999999997</v>
       </c>
       <c r="E264" s="59">
         <f t="shared" si="6"/>
-        <v>1.0346999999999884E-2</v>
+        <v>1.0347000000000106E-2</v>
       </c>
       <c r="F264" s="59">
         <v>0.55145599999999995</v>
@@ -58827,24 +58827,24 @@
         <v>140</v>
       </c>
       <c r="C265" s="59">
-        <v>0.609321</v>
+        <v>0.62932100000000002</v>
       </c>
       <c r="D265" s="59">
-        <v>0.38078000000000001</v>
+        <v>0.36077999999999999</v>
       </c>
       <c r="E265" s="59">
         <f t="shared" si="6"/>
         <v>9.8989999999999911E-3</v>
       </c>
       <c r="F265" s="59">
-        <v>0.60132099999999999</v>
+        <v>0.605321</v>
       </c>
       <c r="G265" s="59">
         <v>0.3805868</v>
       </c>
       <c r="H265" s="59">
         <f t="shared" si="7"/>
-        <v>1.8092200000000003E-2</v>
+        <v>1.4092199999999999E-2</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -58886,21 +58886,21 @@
         <v>0.781223</v>
       </c>
       <c r="D267" s="59">
-        <v>0.21535000000000001</v>
+        <v>0.21335000000000001</v>
       </c>
       <c r="E267" s="59">
         <f t="shared" si="6"/>
-        <v>3.4269999999999579E-3</v>
+        <v>5.4269999999999596E-3</v>
       </c>
       <c r="F267" s="59">
         <v>0.73122299999999996</v>
       </c>
       <c r="G267" s="59">
-        <v>0.26534999999999997</v>
+        <v>0.26235000000000003</v>
       </c>
       <c r="H267" s="59">
         <f t="shared" si="7"/>
-        <v>3.4270000000000689E-3</v>
+        <v>6.4269999999999605E-3</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -58914,21 +58914,21 @@
         <v>0.82640999999999998</v>
       </c>
       <c r="D268" s="59">
-        <v>0.16399</v>
+        <v>0.16899</v>
       </c>
       <c r="E268" s="59">
         <f t="shared" si="6"/>
-        <v>9.6000000000000529E-3</v>
+        <v>4.6000000000000485E-3</v>
       </c>
       <c r="F268" s="59">
         <v>0.80640999999999996</v>
       </c>
       <c r="G268" s="59">
-        <v>0.18398999999999999</v>
+        <v>0.18798999999999999</v>
       </c>
       <c r="H268" s="59">
         <f t="shared" si="7"/>
-        <v>9.6000000000000529E-3</v>
+        <v>5.6000000000000494E-3</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -58942,21 +58942,21 @@
         <v>0.87985000000000002</v>
       </c>
       <c r="D269" s="59">
-        <v>0.11162999999999999</v>
+        <v>0.11563</v>
       </c>
       <c r="E269" s="59">
         <f t="shared" si="6"/>
-        <v>8.519999999999972E-3</v>
+        <v>4.5199999999999685E-3</v>
       </c>
       <c r="F269" s="59">
         <v>0.87985000000000002</v>
       </c>
       <c r="G269" s="59">
-        <v>0.11162999999999999</v>
+        <v>0.11563</v>
       </c>
       <c r="H269" s="59">
         <f t="shared" si="7"/>
-        <v>8.519999999999972E-3</v>
+        <v>4.5199999999999685E-3</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -58970,21 +58970,21 @@
         <v>0.87985000000000002</v>
       </c>
       <c r="D270" s="59">
-        <v>0.11162999999999999</v>
+        <v>0.11563</v>
       </c>
       <c r="E270" s="59">
         <f t="shared" si="6"/>
-        <v>8.519999999999972E-3</v>
+        <v>4.5199999999999685E-3</v>
       </c>
       <c r="F270" s="59">
         <v>0.87985000000000002</v>
       </c>
       <c r="G270" s="59">
-        <v>0.11162999999999999</v>
+        <v>0.11563</v>
       </c>
       <c r="H270" s="59">
         <f t="shared" si="7"/>
-        <v>8.519999999999972E-3</v>
+        <v>4.5199999999999685E-3</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -58998,21 +58998,21 @@
         <v>0.87985000000000002</v>
       </c>
       <c r="D271" s="59">
-        <v>0.11162999999999999</v>
+        <v>0.11563</v>
       </c>
       <c r="E271" s="59">
         <f t="shared" si="6"/>
-        <v>8.519999999999972E-3</v>
+        <v>4.5199999999999685E-3</v>
       </c>
       <c r="F271" s="59">
         <v>0.87985000000000002</v>
       </c>
       <c r="G271" s="59">
-        <v>0.11162999999999999</v>
+        <v>0.11563</v>
       </c>
       <c r="H271" s="59">
         <f t="shared" si="7"/>
-        <v>8.519999999999972E-3</v>
+        <v>4.5199999999999685E-3</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -59026,21 +59026,21 @@
         <v>0.87985000000000002</v>
       </c>
       <c r="D272" s="59">
-        <v>0.11162999999999999</v>
+        <v>0.11563</v>
       </c>
       <c r="E272" s="59">
         <f t="shared" si="6"/>
-        <v>8.519999999999972E-3</v>
+        <v>4.5199999999999685E-3</v>
       </c>
       <c r="F272" s="59">
         <v>0.87985000000000002</v>
       </c>
       <c r="G272" s="59">
-        <v>0.11162999999999999</v>
+        <v>0.11563</v>
       </c>
       <c r="H272" s="59">
         <f t="shared" si="7"/>
-        <v>8.519999999999972E-3</v>
+        <v>4.5199999999999685E-3</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -59054,21 +59054,21 @@
         <v>0.87985000000000002</v>
       </c>
       <c r="D273" s="59">
-        <v>0.11162999999999999</v>
+        <v>0.11563</v>
       </c>
       <c r="E273" s="59">
         <f t="shared" si="6"/>
-        <v>8.519999999999972E-3</v>
+        <v>4.5199999999999685E-3</v>
       </c>
       <c r="F273" s="59">
         <v>0.87985000000000002</v>
       </c>
       <c r="G273" s="59">
-        <v>0.11162999999999999</v>
+        <v>0.11563</v>
       </c>
       <c r="H273" s="59">
         <f t="shared" si="7"/>
-        <v>8.519999999999972E-3</v>
+        <v>4.5199999999999685E-3</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
@@ -59082,21 +59082,21 @@
         <v>0.87985000000000002</v>
       </c>
       <c r="D274" s="59">
-        <v>0.11162999999999999</v>
+        <v>0.11563</v>
       </c>
       <c r="E274" s="59">
         <f t="shared" si="6"/>
-        <v>8.519999999999972E-3</v>
+        <v>4.5199999999999685E-3</v>
       </c>
       <c r="F274" s="59">
         <v>0.87985000000000002</v>
       </c>
       <c r="G274" s="59">
-        <v>0.11162999999999999</v>
+        <v>0.11563</v>
       </c>
       <c r="H274" s="59">
         <f t="shared" si="7"/>
-        <v>8.519999999999972E-3</v>
+        <v>4.5199999999999685E-3</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -59284,8 +59284,8 @@
         <v>2.105747</v>
       </c>
       <c r="E284" s="87">
-        <f>19.478731 * 0.6</f>
-        <v>11.687238599999999</v>
+        <f>19.478731 * 0.57</f>
+        <v>11.102876669999999</v>
       </c>
       <c r="F284" s="7">
         <v>0.87036999999999998</v>
@@ -59294,8 +59294,8 @@
         <v>2.105747</v>
       </c>
       <c r="H284" s="87">
-        <f>19.478731 * 0.6</f>
-        <v>11.687238599999999</v>
+        <f>19.478731 * 0.57</f>
+        <v>11.102876669999999</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -59309,8 +59309,8 @@
         <v>2.1315270000000002</v>
       </c>
       <c r="E285" s="87">
-        <f>19.514182 * 0.6</f>
-        <v>11.7085092</v>
+        <f>19.514182 * 0.52</f>
+        <v>10.147374640000001</v>
       </c>
       <c r="F285" s="7">
         <v>0.95</v>
@@ -59319,8 +59319,8 @@
         <v>2.1315270000000002</v>
       </c>
       <c r="H285" s="87">
-        <f>19.514182 * 0.6</f>
-        <v>11.7085092</v>
+        <f>19.514182 * 0.52</f>
+        <v>10.147374640000001</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -59379,7 +59379,7 @@
         <v>0.93038500000000002</v>
       </c>
       <c r="D288" s="7">
-        <v>2.1220140000000001</v>
+        <v>2.0623269999999998</v>
       </c>
       <c r="E288" s="87">
         <f xml:space="preserve"> 24.516099 * 0.3</f>
@@ -59389,7 +59389,7 @@
         <v>0.93038500000000002</v>
       </c>
       <c r="G288" s="7">
-        <v>2.1220140000000001</v>
+        <v>2.0623269999999998</v>
       </c>
       <c r="H288" s="87">
         <f xml:space="preserve"> 24.516099 * 0.3</f>
@@ -59404,7 +59404,7 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="D289" s="7">
-        <v>2.1227469999999999</v>
+        <v>2.0623269999999998</v>
       </c>
       <c r="E289" s="7">
         <v>7.0254260000000004</v>
@@ -59413,7 +59413,7 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="G289" s="7">
-        <v>2.1227469999999999</v>
+        <v>2.0623269999999998</v>
       </c>
       <c r="H289" s="7">
         <v>7.0254260000000004</v>
@@ -59427,7 +59427,7 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="D290" s="7">
-        <v>2.1227469999999999</v>
+        <v>2.0623269999999998</v>
       </c>
       <c r="E290" s="7">
         <v>1</v>
@@ -59436,7 +59436,7 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="G290" s="7">
-        <v>2.1227469999999999</v>
+        <v>2.0623269999999998</v>
       </c>
       <c r="H290" s="7">
         <v>1</v>
@@ -59450,7 +59450,7 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="D291" s="7">
-        <v>2.1227469999999999</v>
+        <v>2.0623269999999998</v>
       </c>
       <c r="E291" s="7">
         <v>1</v>
@@ -59459,7 +59459,7 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="G291" s="7">
-        <v>2.1227469999999999</v>
+        <v>2.0623269999999998</v>
       </c>
       <c r="H291" s="7">
         <v>1</v>
@@ -59473,7 +59473,7 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="D292" s="7">
-        <v>2.1227469999999999</v>
+        <v>2.0623269999999998</v>
       </c>
       <c r="E292" s="7">
         <v>1</v>
@@ -59482,7 +59482,7 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="G292" s="7">
-        <v>2.1227469999999999</v>
+        <v>2.0623269999999998</v>
       </c>
       <c r="H292" s="7">
         <v>1</v>
@@ -59496,7 +59496,7 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="D293" s="7">
-        <v>2.1227469999999999</v>
+        <v>2.0623269999999998</v>
       </c>
       <c r="E293" s="7">
         <v>1</v>
@@ -59505,7 +59505,7 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="G293" s="7">
-        <v>2.1227469999999999</v>
+        <v>2.0623269999999998</v>
       </c>
       <c r="H293" s="7">
         <v>1</v>
@@ -59519,7 +59519,7 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="D294" s="7">
-        <v>2.1227469999999999</v>
+        <v>2.0623269999999998</v>
       </c>
       <c r="E294" s="7">
         <v>1</v>
@@ -59528,7 +59528,7 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="G294" s="7">
-        <v>2.1227469999999999</v>
+        <v>2.0623269999999998</v>
       </c>
       <c r="H294" s="7">
         <v>1</v>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235D0CA0-BE19-4822-9A77-5875087583A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293019DF-7BD5-44EF-AD6D-A77F9CF62FB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="12195" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53468,7 +53468,7 @@
   <dimension ref="A1:Y294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="C264" sqref="C264"/>
+      <selection activeCell="I275" sqref="I275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58771,24 +58771,24 @@
         <v>138</v>
       </c>
       <c r="C263" s="59">
-        <v>0.505027</v>
+        <v>0.55502700000000005</v>
       </c>
       <c r="D263" s="59">
-        <v>0.46659899999999999</v>
+        <v>0.416599</v>
       </c>
       <c r="E263" s="59">
         <f t="shared" ref="E263:E274" si="6">1-(C263+D263)</f>
-        <v>2.837400000000001E-2</v>
+        <v>2.8373999999999899E-2</v>
       </c>
       <c r="F263" s="59">
-        <v>0.53402700000000003</v>
+        <v>0.54402700000000004</v>
       </c>
       <c r="G263" s="59">
-        <v>0.45359899999999997</v>
+        <v>0.44359900000000002</v>
       </c>
       <c r="H263" s="59">
         <f t="shared" ref="H263:H274" si="7">1-(F263+G263)</f>
-        <v>1.2373999999999996E-2</v>
+        <v>1.2373999999999885E-2</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -58809,10 +58809,10 @@
         <v>1.0347000000000106E-2</v>
       </c>
       <c r="F264" s="59">
-        <v>0.55145599999999995</v>
+        <v>0.57145599999999996</v>
       </c>
       <c r="G264" s="59">
-        <v>0.42519699999999999</v>
+        <v>0.40519699999999997</v>
       </c>
       <c r="H264" s="59">
         <f t="shared" si="7"/>
@@ -58827,24 +58827,24 @@
         <v>140</v>
       </c>
       <c r="C265" s="59">
-        <v>0.62932100000000002</v>
+        <v>0.65932100000000005</v>
       </c>
       <c r="D265" s="59">
-        <v>0.36077999999999999</v>
+        <v>0.33078000000000002</v>
       </c>
       <c r="E265" s="59">
         <f t="shared" si="6"/>
-        <v>9.8989999999999911E-3</v>
+        <v>9.8989999999998801E-3</v>
       </c>
       <c r="F265" s="59">
-        <v>0.605321</v>
+        <v>0.64532100000000003</v>
       </c>
       <c r="G265" s="59">
-        <v>0.3805868</v>
+        <v>0.34058680000000002</v>
       </c>
       <c r="H265" s="59">
         <f t="shared" si="7"/>
-        <v>1.4092199999999999E-2</v>
+        <v>1.4092199999999888E-2</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -58865,10 +58865,10 @@
         <v>7.0239999999999192E-3</v>
       </c>
       <c r="F266" s="59">
-        <v>0.70510499999999998</v>
+        <v>0.71510499999999999</v>
       </c>
       <c r="G266" s="59">
-        <v>0.28507100000000002</v>
+        <v>0.27507100000000001</v>
       </c>
       <c r="H266" s="59">
         <f t="shared" si="7"/>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293019DF-7BD5-44EF-AD6D-A77F9CF62FB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCA0D68-290D-4E64-AF36-4D1B3211C1F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="12195" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53467,8 +53467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="I275" sqref="I275"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="H283" sqref="H283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58771,24 +58771,24 @@
         <v>138</v>
       </c>
       <c r="C263" s="59">
-        <v>0.55502700000000005</v>
+        <v>0.59502699999999997</v>
       </c>
       <c r="D263" s="59">
-        <v>0.416599</v>
+        <v>0.37659900000000002</v>
       </c>
       <c r="E263" s="59">
         <f t="shared" ref="E263:E274" si="6">1-(C263+D263)</f>
-        <v>2.8373999999999899E-2</v>
+        <v>2.837400000000001E-2</v>
       </c>
       <c r="F263" s="59">
-        <v>0.54402700000000004</v>
+        <v>0.56402699999999995</v>
       </c>
       <c r="G263" s="59">
-        <v>0.44359900000000002</v>
+        <v>0.423599</v>
       </c>
       <c r="H263" s="59">
         <f t="shared" ref="H263:H274" si="7">1-(F263+G263)</f>
-        <v>1.2373999999999885E-2</v>
+        <v>1.2374000000000107E-2</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -58799,20 +58799,20 @@
         <v>139</v>
       </c>
       <c r="C264" s="59">
-        <v>0.58545599999999998</v>
+        <v>0.63545600000000002</v>
       </c>
       <c r="D264" s="59">
-        <v>0.40419699999999997</v>
+        <v>0.35419699999999998</v>
       </c>
       <c r="E264" s="59">
         <f t="shared" si="6"/>
-        <v>1.0347000000000106E-2</v>
+        <v>1.0346999999999995E-2</v>
       </c>
       <c r="F264" s="59">
-        <v>0.57145599999999996</v>
+        <v>0.611456</v>
       </c>
       <c r="G264" s="59">
-        <v>0.40519699999999997</v>
+        <v>0.36519699999999999</v>
       </c>
       <c r="H264" s="59">
         <f t="shared" si="7"/>
@@ -58827,20 +58827,20 @@
         <v>140</v>
       </c>
       <c r="C265" s="59">
-        <v>0.65932100000000005</v>
+        <v>0.68932099999999996</v>
       </c>
       <c r="D265" s="59">
-        <v>0.33078000000000002</v>
+        <v>0.30077999999999999</v>
       </c>
       <c r="E265" s="59">
         <f t="shared" si="6"/>
-        <v>9.8989999999998801E-3</v>
+        <v>9.8990000000001022E-3</v>
       </c>
       <c r="F265" s="59">
-        <v>0.64532100000000003</v>
+        <v>0.65532100000000004</v>
       </c>
       <c r="G265" s="59">
-        <v>0.34058680000000002</v>
+        <v>0.33058680000000001</v>
       </c>
       <c r="H265" s="59">
         <f t="shared" si="7"/>
@@ -59247,7 +59247,7 @@
         <v>2.1546289999999999</v>
       </c>
       <c r="H282" s="7">
-        <v>6.4129969999999998</v>
+        <v>5.4129969999999998</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -59258,7 +59258,7 @@
         <v>0.87400100000000003</v>
       </c>
       <c r="D283" s="7">
-        <v>2.173962</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="E283" s="7">
         <v>7.7805770000000001</v>
@@ -59281,7 +59281,7 @@
         <v>0.87036999999999998</v>
       </c>
       <c r="D284" s="7">
-        <v>2.105747</v>
+        <v>2.13</v>
       </c>
       <c r="E284" s="87">
         <f>19.478731 * 0.57</f>
@@ -59291,7 +59291,7 @@
         <v>0.87036999999999998</v>
       </c>
       <c r="G284" s="7">
-        <v>2.105747</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="H284" s="87">
         <f>19.478731 * 0.57</f>
@@ -59306,7 +59306,7 @@
         <v>0.95</v>
       </c>
       <c r="D285" s="7">
-        <v>2.1315270000000002</v>
+        <v>2.11</v>
       </c>
       <c r="E285" s="87">
         <f>19.514182 * 0.52</f>
@@ -59331,7 +59331,7 @@
         <v>0.93322700000000003</v>
       </c>
       <c r="D286" s="7">
-        <v>2.181549</v>
+        <v>2.08</v>
       </c>
       <c r="E286" s="7">
         <v>9.6671910000000008</v>
@@ -59340,7 +59340,7 @@
         <v>0.93322700000000003</v>
       </c>
       <c r="G286" s="7">
-        <v>2.181549</v>
+        <v>2.11</v>
       </c>
       <c r="H286" s="7">
         <v>9.6671910000000008</v>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCA0D68-290D-4E64-AF36-4D1B3211C1F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADE0460-AD27-48BD-BDBC-88932FEE6792}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="12195" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="9495" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -53467,8 +53467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="H283" sqref="H283"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="G287" sqref="G287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59238,7 +59238,7 @@
         <v>2.1546289999999999</v>
       </c>
       <c r="E282" s="7">
-        <v>6.4129969999999998</v>
+        <v>6.112997</v>
       </c>
       <c r="F282" s="7">
         <v>0.22517599999999999</v>
@@ -59255,22 +59255,22 @@
         <v>138</v>
       </c>
       <c r="C283" s="7">
-        <v>0.87400100000000003</v>
+        <v>0.85400100000000001</v>
       </c>
       <c r="D283" s="7">
-        <v>2.1800000000000002</v>
+        <v>2.15</v>
       </c>
       <c r="E283" s="7">
-        <v>7.7805770000000001</v>
+        <v>10.080577</v>
       </c>
       <c r="F283" s="7">
-        <v>0.87400100000000003</v>
+        <v>0.85400100000000001</v>
       </c>
       <c r="G283" s="7">
-        <v>2.173962</v>
+        <v>2.1539619999999999</v>
       </c>
       <c r="H283" s="7">
-        <v>7.7805770000000001</v>
+        <v>7.0805769999999999</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -59284,18 +59284,18 @@
         <v>2.13</v>
       </c>
       <c r="E284" s="87">
-        <f>19.478731 * 0.57</f>
-        <v>11.102876669999999</v>
+        <f>19.478731 * 0.51</f>
+        <v>9.9341528100000005</v>
       </c>
       <c r="F284" s="7">
         <v>0.87036999999999998</v>
       </c>
       <c r="G284" s="7">
-        <v>2.1800000000000002</v>
+        <v>2.13</v>
       </c>
       <c r="H284" s="87">
-        <f>19.478731 * 0.57</f>
-        <v>11.102876669999999</v>
+        <f>19.478731 * 0.52</f>
+        <v>10.128940120000001</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -59303,24 +59303,24 @@
         <v>140</v>
       </c>
       <c r="C285" s="7">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="D285" s="7">
         <v>2.11</v>
       </c>
       <c r="E285" s="87">
-        <f>19.514182 * 0.52</f>
-        <v>10.147374640000001</v>
+        <f>19.514182 * 0.5</f>
+        <v>9.7570910000000008</v>
       </c>
       <c r="F285" s="7">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="G285" s="7">
-        <v>2.1315270000000002</v>
+        <v>2.1115270000000002</v>
       </c>
       <c r="H285" s="87">
-        <f>19.514182 * 0.52</f>
-        <v>10.147374640000001</v>
+        <f>19.514182 * 0.5</f>
+        <v>9.7570910000000008</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -59340,7 +59340,7 @@
         <v>0.93322700000000003</v>
       </c>
       <c r="G286" s="7">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="H286" s="7">
         <v>9.6671910000000008</v>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADE0460-AD27-48BD-BDBC-88932FEE6792}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FC6F01-F33C-48E3-940B-27EF537D5E81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="9495" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4829,7 +4829,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4950,6 +4950,10 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="39" applyFont="1"/>
     <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -53467,7 +53471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
       <selection activeCell="G287" sqref="G287"/>
     </sheetView>
   </sheetViews>
@@ -58939,24 +58943,24 @@
         <v>392</v>
       </c>
       <c r="C269" s="59">
-        <v>0.87985000000000002</v>
+        <v>0.88085000000000002</v>
       </c>
       <c r="D269" s="59">
         <v>0.11563</v>
       </c>
       <c r="E269" s="59">
         <f t="shared" si="6"/>
-        <v>4.5199999999999685E-3</v>
+        <v>3.5199999999999676E-3</v>
       </c>
       <c r="F269" s="59">
-        <v>0.87985000000000002</v>
+        <v>0.88085000000000002</v>
       </c>
       <c r="G269" s="59">
         <v>0.11563</v>
       </c>
       <c r="H269" s="59">
         <f t="shared" si="7"/>
-        <v>4.5199999999999685E-3</v>
+        <v>3.5199999999999676E-3</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -58966,25 +58970,25 @@
       <c r="B270" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="C270" s="59">
-        <v>0.87985000000000002</v>
+      <c r="C270" s="91">
+        <v>0.88085000000000002</v>
       </c>
       <c r="D270" s="59">
         <v>0.11563</v>
       </c>
       <c r="E270" s="59">
         <f t="shared" si="6"/>
-        <v>4.5199999999999685E-3</v>
-      </c>
-      <c r="F270" s="59">
-        <v>0.87985000000000002</v>
+        <v>3.5199999999999676E-3</v>
+      </c>
+      <c r="F270" s="91">
+        <v>0.88085000000000002</v>
       </c>
       <c r="G270" s="59">
         <v>0.11563</v>
       </c>
       <c r="H270" s="59">
         <f t="shared" si="7"/>
-        <v>4.5199999999999685E-3</v>
+        <v>3.5199999999999676E-3</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -58994,25 +58998,25 @@
       <c r="B271" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="C271" s="59">
-        <v>0.87985000000000002</v>
+      <c r="C271" s="91">
+        <v>0.88085000000000002</v>
       </c>
       <c r="D271" s="59">
         <v>0.11563</v>
       </c>
       <c r="E271" s="59">
         <f t="shared" si="6"/>
-        <v>4.5199999999999685E-3</v>
-      </c>
-      <c r="F271" s="59">
-        <v>0.87985000000000002</v>
+        <v>3.5199999999999676E-3</v>
+      </c>
+      <c r="F271" s="91">
+        <v>0.88085000000000002</v>
       </c>
       <c r="G271" s="59">
         <v>0.11563</v>
       </c>
       <c r="H271" s="59">
         <f t="shared" si="7"/>
-        <v>4.5199999999999685E-3</v>
+        <v>3.5199999999999676E-3</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -59022,25 +59026,25 @@
       <c r="B272" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="C272" s="59">
-        <v>0.87985000000000002</v>
+      <c r="C272" s="91">
+        <v>0.88085000000000002</v>
       </c>
       <c r="D272" s="59">
         <v>0.11563</v>
       </c>
       <c r="E272" s="59">
         <f t="shared" si="6"/>
-        <v>4.5199999999999685E-3</v>
-      </c>
-      <c r="F272" s="59">
-        <v>0.87985000000000002</v>
+        <v>3.5199999999999676E-3</v>
+      </c>
+      <c r="F272" s="91">
+        <v>0.88085000000000002</v>
       </c>
       <c r="G272" s="59">
         <v>0.11563</v>
       </c>
       <c r="H272" s="59">
         <f t="shared" si="7"/>
-        <v>4.5199999999999685E-3</v>
+        <v>3.5199999999999676E-3</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -59050,25 +59054,25 @@
       <c r="B273" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="C273" s="59">
-        <v>0.87985000000000002</v>
+      <c r="C273" s="91">
+        <v>0.88085000000000002</v>
       </c>
       <c r="D273" s="59">
         <v>0.11563</v>
       </c>
       <c r="E273" s="59">
         <f t="shared" si="6"/>
-        <v>4.5199999999999685E-3</v>
-      </c>
-      <c r="F273" s="59">
-        <v>0.87985000000000002</v>
+        <v>3.5199999999999676E-3</v>
+      </c>
+      <c r="F273" s="91">
+        <v>0.88085000000000002</v>
       </c>
       <c r="G273" s="59">
         <v>0.11563</v>
       </c>
       <c r="H273" s="59">
         <f t="shared" si="7"/>
-        <v>4.5199999999999685E-3</v>
+        <v>3.5199999999999676E-3</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
@@ -59078,25 +59082,25 @@
       <c r="B274" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="C274" s="59">
-        <v>0.87985000000000002</v>
+      <c r="C274" s="91">
+        <v>0.88085000000000002</v>
       </c>
       <c r="D274" s="59">
         <v>0.11563</v>
       </c>
       <c r="E274" s="59">
         <f t="shared" si="6"/>
-        <v>4.5199999999999685E-3</v>
-      </c>
-      <c r="F274" s="59">
-        <v>0.87985000000000002</v>
+        <v>3.5199999999999676E-3</v>
+      </c>
+      <c r="F274" s="91">
+        <v>0.88085000000000002</v>
       </c>
       <c r="G274" s="59">
         <v>0.11563</v>
       </c>
       <c r="H274" s="59">
         <f t="shared" si="7"/>
-        <v>4.5199999999999685E-3</v>
+        <v>3.5199999999999676E-3</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -59162,10 +59166,10 @@
       <c r="B279" s="37" t="s">
         <v>494</v>
       </c>
-      <c r="C279" s="7">
+      <c r="C279" s="88">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D279" s="7">
+      <c r="D279" s="90">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E279" s="7">
@@ -59185,10 +59189,10 @@
       <c r="B280" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="C280" s="7">
+      <c r="C280" s="88">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D280" s="7">
+      <c r="D280" s="90">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E280" s="7">
@@ -59208,10 +59212,10 @@
       <c r="B281" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="C281" s="86">
+      <c r="C281" s="89">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D281" s="7">
+      <c r="D281" s="90">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E281" s="7">
@@ -59231,14 +59235,14 @@
       <c r="B282" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C282" s="7">
+      <c r="C282" s="88">
         <v>0.22517599999999999</v>
       </c>
-      <c r="D282" s="7">
+      <c r="D282" s="90">
         <v>2.1546289999999999</v>
       </c>
       <c r="E282" s="7">
-        <v>6.112997</v>
+        <v>6.4129969999999998</v>
       </c>
       <c r="F282" s="7">
         <v>0.22517599999999999</v>
@@ -59254,58 +59258,57 @@
       <c r="B283" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C283" s="7">
-        <v>0.85400100000000001</v>
-      </c>
-      <c r="D283" s="7">
-        <v>2.15</v>
+      <c r="C283" s="88">
+        <v>0.87400100000000003</v>
+      </c>
+      <c r="D283" s="90">
+        <v>2.38</v>
       </c>
       <c r="E283" s="7">
-        <v>10.080577</v>
+        <v>11.080577</v>
       </c>
       <c r="F283" s="7">
-        <v>0.85400100000000001</v>
+        <v>0.87400100000000003</v>
       </c>
       <c r="G283" s="7">
-        <v>2.1539619999999999</v>
+        <v>2.3839619999999999</v>
       </c>
       <c r="H283" s="7">
-        <v>7.0805769999999999</v>
+        <v>8.7805769999999992</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B284" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C284" s="7">
+      <c r="C284" s="88">
         <v>0.87036999999999998</v>
       </c>
-      <c r="D284" s="7">
-        <v>2.13</v>
+      <c r="D284" s="90">
+        <v>2.23</v>
       </c>
       <c r="E284" s="87">
-        <f>19.478731 * 0.51</f>
-        <v>9.9341528100000005</v>
+        <v>10.15</v>
       </c>
       <c r="F284" s="7">
         <v>0.87036999999999998</v>
       </c>
       <c r="G284" s="7">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="H284" s="87">
-        <f>19.478731 * 0.52</f>
-        <v>10.128940120000001</v>
+        <f>19.478731 * 0.57</f>
+        <v>11.102876669999999</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B285" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C285" s="7">
-        <v>0.93</v>
-      </c>
-      <c r="D285" s="7">
+      <c r="C285" s="88">
+        <v>0.95</v>
+      </c>
+      <c r="D285" s="90">
         <v>2.11</v>
       </c>
       <c r="E285" s="87">
@@ -59319,18 +59322,18 @@
         <v>2.1115270000000002</v>
       </c>
       <c r="H285" s="87">
-        <f>19.514182 * 0.5</f>
-        <v>9.7570910000000008</v>
+        <f>19.514182 * 0.52</f>
+        <v>10.147374640000001</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B286" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C286" s="7">
+      <c r="C286" s="88">
         <v>0.93322700000000003</v>
       </c>
-      <c r="D286" s="7">
+      <c r="D286" s="90">
         <v>2.08</v>
       </c>
       <c r="E286" s="7">
@@ -59350,10 +59353,10 @@
       <c r="B287" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C287" s="7">
+      <c r="C287" s="88">
         <v>0.93</v>
       </c>
-      <c r="D287" s="7">
+      <c r="D287" s="90">
         <v>2.0623269999999998</v>
       </c>
       <c r="E287" s="87">
@@ -59375,10 +59378,10 @@
       <c r="B288" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C288" s="7">
+      <c r="C288" s="88">
         <v>0.93038500000000002</v>
       </c>
-      <c r="D288" s="7">
+      <c r="D288" s="90">
         <v>2.0623269999999998</v>
       </c>
       <c r="E288" s="87">
@@ -59400,10 +59403,10 @@
       <c r="B289" s="37" t="s">
         <v>392</v>
       </c>
-      <c r="C289" s="7">
+      <c r="C289" s="88">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D289" s="7">
+      <c r="D289" s="90">
         <v>2.0623269999999998</v>
       </c>
       <c r="E289" s="7">
@@ -59423,14 +59426,14 @@
       <c r="B290" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="C290" s="7">
+      <c r="C290" s="88">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D290" s="7">
+      <c r="D290" s="90">
         <v>2.0623269999999998</v>
       </c>
       <c r="E290" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F290" s="7">
         <v>0.91735900000000004</v>
@@ -59439,21 +59442,21 @@
         <v>2.0623269999999998</v>
       </c>
       <c r="H290" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B291" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="C291" s="7">
+      <c r="C291" s="88">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D291" s="7">
+      <c r="D291" s="90">
         <v>2.0623269999999998</v>
       </c>
       <c r="E291" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F291" s="7">
         <v>0.91735900000000004</v>
@@ -59462,21 +59465,21 @@
         <v>2.0623269999999998</v>
       </c>
       <c r="H291" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B292" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="C292" s="7">
+      <c r="C292" s="88">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D292" s="7">
+      <c r="D292" s="90">
         <v>2.0623269999999998</v>
       </c>
       <c r="E292" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F292" s="7">
         <v>0.91735900000000004</v>
@@ -59485,21 +59488,21 @@
         <v>2.0623269999999998</v>
       </c>
       <c r="H292" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B293" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="C293" s="7">
+      <c r="C293" s="88">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D293" s="7">
+      <c r="D293" s="90">
         <v>2.0623269999999998</v>
       </c>
       <c r="E293" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F293" s="7">
         <v>0.91735900000000004</v>
@@ -59508,21 +59511,21 @@
         <v>2.0623269999999998</v>
       </c>
       <c r="H293" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B294" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="C294" s="7">
+      <c r="C294" s="88">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D294" s="7">
+      <c r="D294" s="90">
         <v>2.0623269999999998</v>
       </c>
       <c r="E294" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F294" s="7">
         <v>0.91735900000000004</v>
@@ -59531,7 +59534,7 @@
         <v>2.0623269999999998</v>
       </c>
       <c r="H294" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FC6F01-F33C-48E3-940B-27EF537D5E81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735EFE5E-96A1-4EEA-B8A7-317771CABB4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="9495" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="1349">
   <si>
     <t>Metric</t>
   </si>
@@ -4087,9 +4087,6 @@
   </si>
   <si>
     <t>60–64</t>
-  </si>
-  <si>
-    <t>=</t>
   </si>
   <si>
     <t>*HIV clinic</t>
@@ -4829,7 +4826,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4952,6 +4949,7 @@
     <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -53471,8 +53469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="G287" sqref="G287"/>
+    <sheetView tabSelected="1" topLeftCell="B165" workbookViewId="0">
+      <selection activeCell="H190" sqref="H190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57170,6 +57168,9 @@
         <f t="shared" ref="F171:F183" si="2">0.8*O171</f>
         <v>4.4927999999999999</v>
       </c>
+      <c r="G171" s="90"/>
+      <c r="H171" s="90"/>
+      <c r="I171" s="90"/>
       <c r="J171" s="37" t="s">
         <v>311</v>
       </c>
@@ -57204,9 +57205,12 @@
         <v>29.951999999999998</v>
       </c>
       <c r="F172" s="75">
-        <f t="shared" si="2"/>
-        <v>17.9712</v>
-      </c>
+        <f>0.9*O172</f>
+        <v>20.217600000000001</v>
+      </c>
+      <c r="G172" s="90"/>
+      <c r="H172" s="90"/>
+      <c r="I172" s="90"/>
       <c r="J172" s="37" t="s">
         <v>602</v>
       </c>
@@ -57869,16 +57873,16 @@
         <v>0.1</v>
       </c>
       <c r="D191" s="75">
-        <f t="shared" ref="D191:D203" si="3">0.8*M191</f>
-        <v>12.48</v>
+        <f>M191</f>
+        <v>15.6</v>
       </c>
       <c r="E191" s="75">
-        <f t="shared" ref="E191:E203" si="4">0.8*N191</f>
-        <v>7.4879999999999995</v>
+        <f>N191</f>
+        <v>9.36</v>
       </c>
       <c r="F191" s="75">
-        <f t="shared" ref="F191:F203" si="5">0.8*O191</f>
-        <v>4.4927999999999999</v>
+        <f>O191</f>
+        <v>5.6159999999999997</v>
       </c>
       <c r="G191" s="72"/>
       <c r="H191" s="72"/>
@@ -57911,16 +57915,16 @@
         <v>0.4</v>
       </c>
       <c r="D192" s="75">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D191:D203" si="3">0.8*M192</f>
         <v>49.92</v>
       </c>
       <c r="E192" s="75">
-        <f t="shared" si="4"/>
-        <v>29.951999999999998</v>
+        <f>0.9*N192</f>
+        <v>33.695999999999998</v>
       </c>
       <c r="F192" s="75">
-        <f t="shared" si="5"/>
-        <v>17.9712</v>
+        <f>0.9*O192</f>
+        <v>20.217600000000001</v>
       </c>
       <c r="G192" s="72"/>
       <c r="H192" s="72"/>
@@ -57957,11 +57961,11 @@
         <v>124.80000000000001</v>
       </c>
       <c r="E193" s="75">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E191:E203" si="4">0.8*N193</f>
         <v>74.88</v>
       </c>
       <c r="F193" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F191:F203" si="5">0.8*O193</f>
         <v>44.927999999999997</v>
       </c>
       <c r="G193" s="72"/>
@@ -58007,9 +58011,7 @@
         <v>31.768893464000001</v>
       </c>
       <c r="G194" s="72"/>
-      <c r="H194" s="72" t="s">
-        <v>1345</v>
-      </c>
+      <c r="H194" s="72"/>
       <c r="I194" s="72"/>
       <c r="J194" s="72" t="s">
         <v>314</v>
@@ -58618,7 +58620,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -58970,7 +58972,7 @@
       <c r="B270" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="C270" s="91">
+      <c r="C270" s="92">
         <v>0.88085000000000002</v>
       </c>
       <c r="D270" s="59">
@@ -58980,7 +58982,7 @@
         <f t="shared" si="6"/>
         <v>3.5199999999999676E-3</v>
       </c>
-      <c r="F270" s="91">
+      <c r="F270" s="92">
         <v>0.88085000000000002</v>
       </c>
       <c r="G270" s="59">
@@ -58998,7 +59000,7 @@
       <c r="B271" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="C271" s="91">
+      <c r="C271" s="92">
         <v>0.88085000000000002</v>
       </c>
       <c r="D271" s="59">
@@ -59008,7 +59010,7 @@
         <f t="shared" si="6"/>
         <v>3.5199999999999676E-3</v>
       </c>
-      <c r="F271" s="91">
+      <c r="F271" s="92">
         <v>0.88085000000000002</v>
       </c>
       <c r="G271" s="59">
@@ -59026,7 +59028,7 @@
       <c r="B272" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="C272" s="91">
+      <c r="C272" s="92">
         <v>0.88085000000000002</v>
       </c>
       <c r="D272" s="59">
@@ -59036,7 +59038,7 @@
         <f t="shared" si="6"/>
         <v>3.5199999999999676E-3</v>
       </c>
-      <c r="F272" s="91">
+      <c r="F272" s="92">
         <v>0.88085000000000002</v>
       </c>
       <c r="G272" s="59">
@@ -59054,7 +59056,7 @@
       <c r="B273" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="C273" s="91">
+      <c r="C273" s="92">
         <v>0.88085000000000002</v>
       </c>
       <c r="D273" s="59">
@@ -59064,7 +59066,7 @@
         <f t="shared" si="6"/>
         <v>3.5199999999999676E-3</v>
       </c>
-      <c r="F273" s="91">
+      <c r="F273" s="92">
         <v>0.88085000000000002</v>
       </c>
       <c r="G273" s="59">
@@ -59082,7 +59084,7 @@
       <c r="B274" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="C274" s="91">
+      <c r="C274" s="92">
         <v>0.88085000000000002</v>
       </c>
       <c r="D274" s="59">
@@ -59092,7 +59094,7 @@
         <f t="shared" si="6"/>
         <v>3.5199999999999676E-3</v>
       </c>
-      <c r="F274" s="91">
+      <c r="F274" s="92">
         <v>0.88085000000000002</v>
       </c>
       <c r="G274" s="59">
@@ -59114,7 +59116,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B276" s="37"/>
       <c r="C276" s="37"/>
@@ -59169,7 +59171,7 @@
       <c r="C279" s="88">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D279" s="90">
+      <c r="D279" s="91">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E279" s="7">
@@ -59192,7 +59194,7 @@
       <c r="C280" s="88">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D280" s="90">
+      <c r="D280" s="91">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E280" s="7">
@@ -59215,7 +59217,7 @@
       <c r="C281" s="89">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D281" s="90">
+      <c r="D281" s="91">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E281" s="7">
@@ -59238,8 +59240,8 @@
       <c r="C282" s="88">
         <v>0.22517599999999999</v>
       </c>
-      <c r="D282" s="90">
-        <v>2.1546289999999999</v>
+      <c r="D282" s="91">
+        <v>2.4546290000000002</v>
       </c>
       <c r="E282" s="7">
         <v>6.4129969999999998</v>
@@ -59247,8 +59249,8 @@
       <c r="F282" s="7">
         <v>0.22517599999999999</v>
       </c>
-      <c r="G282" s="7">
-        <v>2.1546289999999999</v>
+      <c r="G282" s="91">
+        <v>2.4546290000000002</v>
       </c>
       <c r="H282" s="7">
         <v>5.4129969999999998</v>
@@ -59261,8 +59263,8 @@
       <c r="C283" s="88">
         <v>0.87400100000000003</v>
       </c>
-      <c r="D283" s="90">
-        <v>2.38</v>
+      <c r="D283" s="91">
+        <v>2.58</v>
       </c>
       <c r="E283" s="7">
         <v>11.080577</v>
@@ -59270,11 +59272,11 @@
       <c r="F283" s="7">
         <v>0.87400100000000003</v>
       </c>
-      <c r="G283" s="7">
-        <v>2.3839619999999999</v>
+      <c r="G283" s="91">
+        <v>2.58</v>
       </c>
       <c r="H283" s="7">
-        <v>8.7805769999999992</v>
+        <v>9.7805769999999992</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -59284,8 +59286,8 @@
       <c r="C284" s="88">
         <v>0.87036999999999998</v>
       </c>
-      <c r="D284" s="90">
-        <v>2.23</v>
+      <c r="D284" s="91">
+        <v>2.33</v>
       </c>
       <c r="E284" s="87">
         <v>10.15</v>
@@ -59294,7 +59296,7 @@
         <v>0.87036999999999998</v>
       </c>
       <c r="G284" s="7">
-        <v>2.23</v>
+        <v>2.33</v>
       </c>
       <c r="H284" s="87">
         <f>19.478731 * 0.57</f>
@@ -59308,7 +59310,7 @@
       <c r="C285" s="88">
         <v>0.95</v>
       </c>
-      <c r="D285" s="90">
+      <c r="D285" s="91">
         <v>2.11</v>
       </c>
       <c r="E285" s="87">
@@ -59333,7 +59335,7 @@
       <c r="C286" s="88">
         <v>0.93322700000000003</v>
       </c>
-      <c r="D286" s="90">
+      <c r="D286" s="91">
         <v>2.08</v>
       </c>
       <c r="E286" s="7">
@@ -59356,7 +59358,7 @@
       <c r="C287" s="88">
         <v>0.93</v>
       </c>
-      <c r="D287" s="90">
+      <c r="D287" s="91">
         <v>2.0623269999999998</v>
       </c>
       <c r="E287" s="87">
@@ -59381,7 +59383,7 @@
       <c r="C288" s="88">
         <v>0.93038500000000002</v>
       </c>
-      <c r="D288" s="90">
+      <c r="D288" s="91">
         <v>2.0623269999999998</v>
       </c>
       <c r="E288" s="87">
@@ -59406,7 +59408,7 @@
       <c r="C289" s="88">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D289" s="90">
+      <c r="D289" s="91">
         <v>2.0623269999999998</v>
       </c>
       <c r="E289" s="7">
@@ -59429,7 +59431,7 @@
       <c r="C290" s="88">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D290" s="90">
+      <c r="D290" s="91">
         <v>2.0623269999999998</v>
       </c>
       <c r="E290" s="7">
@@ -59452,7 +59454,7 @@
       <c r="C291" s="88">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D291" s="90">
+      <c r="D291" s="91">
         <v>2.0623269999999998</v>
       </c>
       <c r="E291" s="7">
@@ -59475,7 +59477,7 @@
       <c r="C292" s="88">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D292" s="90">
+      <c r="D292" s="91">
         <v>2.0623269999999998</v>
       </c>
       <c r="E292" s="7">
@@ -59498,7 +59500,7 @@
       <c r="C293" s="88">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D293" s="90">
+      <c r="D293" s="91">
         <v>2.0623269999999998</v>
       </c>
       <c r="E293" s="7">
@@ -59521,7 +59523,7 @@
       <c r="C294" s="88">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D294" s="90">
+      <c r="D294" s="91">
         <v>2.0623269999999998</v>
       </c>
       <c r="E294" s="7">
@@ -70252,7 +70254,7 @@
         <v>106</v>
       </c>
       <c r="H71" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -70866,7 +70868,7 @@
         <v>1</v>
       </c>
       <c r="H130" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20361"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735EFE5E-96A1-4EEA-B8A7-317771CABB4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="9495" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="12270" tabRatio="835" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <sheet name="MTCT" sheetId="14" r:id="rId15"/>
     <sheet name="DALY" sheetId="1" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="1357">
   <si>
     <t>Metric</t>
   </si>
@@ -4100,11 +4099,35 @@
   <si>
     <t xml:space="preserve">Adapted partners distribution for Kenya Model with HPV increasing HIV acquisition </t>
   </si>
+  <si>
+    <t xml:space="preserve">Globocan 2012 from ICO report: Kenya; values obtained from figures with webplotdigitizer </t>
+  </si>
+  <si>
+    <t>Globocan 2012</t>
+  </si>
+  <si>
+    <t>Eldoret, 2012-2016</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>cases</t>
+  </si>
+  <si>
+    <t>N (2017)</t>
+  </si>
+  <si>
+    <t>rates</t>
+  </si>
+  <si>
+    <t>Globocan 2018 from ICO report: Kenya</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="12">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -4763,7 +4786,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -4825,6 +4848,7 @@
     <xf numFmtId="0" fontId="1" fillId="35" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4941,9 +4965,6 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="39" applyFont="1"/>
     <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -4952,8 +4973,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="56">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -4980,13 +5004,14 @@
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="CC" xfId="55"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="54" builtinId="3"/>
-    <cellStyle name="Data" xfId="46" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Data 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Data" xfId="46"/>
+    <cellStyle name="Data 2" xfId="48"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header" xfId="45" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Header" xfId="45"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -4996,17 +5021,17 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Normal 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 2" xfId="43"/>
+    <cellStyle name="Normal 2 2" xfId="47"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Note 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Note 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Note 4" xfId="53" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Note 2" xfId="51"/>
+    <cellStyle name="Note 3" xfId="52"/>
+    <cellStyle name="Note 4" xfId="53"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Style 1" xfId="50" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Title 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Percent 2" xfId="44"/>
+    <cellStyle name="Style 1" xfId="50"/>
+    <cellStyle name="Title 2" xfId="42"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -34322,13 +34347,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -35304,7 +35329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y231"/>
   <sheetViews>
     <sheetView topLeftCell="A133" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -43301,7 +43326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD213"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
@@ -48020,7 +48045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -49912,7 +49937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50024,7 +50049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z194"/>
   <sheetViews>
     <sheetView topLeftCell="A172" workbookViewId="0">
@@ -50460,11 +50485,11 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C34" s="84">
+      <c r="C34" s="92">
         <v>2015</v>
       </c>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
       <c r="F34" s="23">
         <v>2015</v>
       </c>
@@ -51935,7 +51960,7 @@
     <mergeCell ref="C34:E34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A155" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="A155" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -51944,7 +51969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52010,7 +52035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52894,7 +52919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53466,10 +53491,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B165" workbookViewId="0">
+    <sheetView topLeftCell="B165" workbookViewId="0">
       <selection activeCell="H190" sqref="H190"/>
     </sheetView>
   </sheetViews>
@@ -57168,9 +57193,9 @@
         <f t="shared" ref="F171:F183" si="2">0.8*O171</f>
         <v>4.4927999999999999</v>
       </c>
-      <c r="G171" s="90"/>
-      <c r="H171" s="90"/>
-      <c r="I171" s="90"/>
+      <c r="G171" s="89"/>
+      <c r="H171" s="89"/>
+      <c r="I171" s="89"/>
       <c r="J171" s="37" t="s">
         <v>311</v>
       </c>
@@ -57208,9 +57233,9 @@
         <f>0.9*O172</f>
         <v>20.217600000000001</v>
       </c>
-      <c r="G172" s="90"/>
-      <c r="H172" s="90"/>
-      <c r="I172" s="90"/>
+      <c r="G172" s="89"/>
+      <c r="H172" s="89"/>
+      <c r="I172" s="89"/>
       <c r="J172" s="37" t="s">
         <v>602</v>
       </c>
@@ -57915,7 +57940,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" s="75">
-        <f t="shared" ref="D191:D203" si="3">0.8*M192</f>
+        <f t="shared" ref="D192:D203" si="3">0.8*M192</f>
         <v>49.92</v>
       </c>
       <c r="E192" s="75">
@@ -57961,11 +57986,11 @@
         <v>124.80000000000001</v>
       </c>
       <c r="E193" s="75">
-        <f t="shared" ref="E191:E203" si="4">0.8*N193</f>
+        <f t="shared" ref="E193:E203" si="4">0.8*N193</f>
         <v>74.88</v>
       </c>
       <c r="F193" s="75">
-        <f t="shared" ref="F191:F203" si="5">0.8*O193</f>
+        <f t="shared" ref="F193:F203" si="5">0.8*O193</f>
         <v>44.927999999999997</v>
       </c>
       <c r="G193" s="72"/>
@@ -58624,7 +58649,7 @@
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B257" s="85" t="s">
+      <c r="B257" s="84" t="s">
         <v>28</v>
       </c>
       <c r="C257" s="37" t="s">
@@ -58972,7 +58997,7 @@
       <c r="B270" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="C270" s="92">
+      <c r="C270" s="91">
         <v>0.88085000000000002</v>
       </c>
       <c r="D270" s="59">
@@ -58982,7 +59007,7 @@
         <f t="shared" si="6"/>
         <v>3.5199999999999676E-3</v>
       </c>
-      <c r="F270" s="92">
+      <c r="F270" s="91">
         <v>0.88085000000000002</v>
       </c>
       <c r="G270" s="59">
@@ -59000,7 +59025,7 @@
       <c r="B271" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="C271" s="92">
+      <c r="C271" s="91">
         <v>0.88085000000000002</v>
       </c>
       <c r="D271" s="59">
@@ -59010,7 +59035,7 @@
         <f t="shared" si="6"/>
         <v>3.5199999999999676E-3</v>
       </c>
-      <c r="F271" s="92">
+      <c r="F271" s="91">
         <v>0.88085000000000002</v>
       </c>
       <c r="G271" s="59">
@@ -59028,7 +59053,7 @@
       <c r="B272" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="C272" s="92">
+      <c r="C272" s="91">
         <v>0.88085000000000002</v>
       </c>
       <c r="D272" s="59">
@@ -59038,7 +59063,7 @@
         <f t="shared" si="6"/>
         <v>3.5199999999999676E-3</v>
       </c>
-      <c r="F272" s="92">
+      <c r="F272" s="91">
         <v>0.88085000000000002</v>
       </c>
       <c r="G272" s="59">
@@ -59056,7 +59081,7 @@
       <c r="B273" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="C273" s="92">
+      <c r="C273" s="91">
         <v>0.88085000000000002</v>
       </c>
       <c r="D273" s="59">
@@ -59066,7 +59091,7 @@
         <f t="shared" si="6"/>
         <v>3.5199999999999676E-3</v>
       </c>
-      <c r="F273" s="92">
+      <c r="F273" s="91">
         <v>0.88085000000000002</v>
       </c>
       <c r="G273" s="59">
@@ -59084,7 +59109,7 @@
       <c r="B274" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="C274" s="92">
+      <c r="C274" s="91">
         <v>0.88085000000000002</v>
       </c>
       <c r="D274" s="59">
@@ -59094,7 +59119,7 @@
         <f t="shared" si="6"/>
         <v>3.5199999999999676E-3</v>
       </c>
-      <c r="F274" s="92">
+      <c r="F274" s="91">
         <v>0.88085000000000002</v>
       </c>
       <c r="G274" s="59">
@@ -59168,10 +59193,10 @@
       <c r="B279" s="37" t="s">
         <v>494</v>
       </c>
-      <c r="C279" s="88">
+      <c r="C279" s="87">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D279" s="91">
+      <c r="D279" s="90">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E279" s="7">
@@ -59191,10 +59216,10 @@
       <c r="B280" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="C280" s="88">
+      <c r="C280" s="87">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D280" s="91">
+      <c r="D280" s="90">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E280" s="7">
@@ -59214,16 +59239,16 @@
       <c r="B281" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="C281" s="89">
+      <c r="C281" s="88">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D281" s="91">
+      <c r="D281" s="90">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E281" s="7">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F281" s="86">
+      <c r="F281" s="85">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="G281" s="7">
@@ -59237,10 +59262,10 @@
       <c r="B282" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C282" s="88">
+      <c r="C282" s="87">
         <v>0.22517599999999999</v>
       </c>
-      <c r="D282" s="91">
+      <c r="D282" s="90">
         <v>2.4546290000000002</v>
       </c>
       <c r="E282" s="7">
@@ -59249,7 +59274,7 @@
       <c r="F282" s="7">
         <v>0.22517599999999999</v>
       </c>
-      <c r="G282" s="91">
+      <c r="G282" s="90">
         <v>2.4546290000000002</v>
       </c>
       <c r="H282" s="7">
@@ -59260,10 +59285,10 @@
       <c r="B283" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C283" s="88">
+      <c r="C283" s="87">
         <v>0.87400100000000003</v>
       </c>
-      <c r="D283" s="91">
+      <c r="D283" s="90">
         <v>2.58</v>
       </c>
       <c r="E283" s="7">
@@ -59272,7 +59297,7 @@
       <c r="F283" s="7">
         <v>0.87400100000000003</v>
       </c>
-      <c r="G283" s="91">
+      <c r="G283" s="90">
         <v>2.58</v>
       </c>
       <c r="H283" s="7">
@@ -59283,13 +59308,13 @@
       <c r="B284" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C284" s="88">
+      <c r="C284" s="87">
         <v>0.87036999999999998</v>
       </c>
-      <c r="D284" s="91">
+      <c r="D284" s="90">
         <v>2.33</v>
       </c>
-      <c r="E284" s="87">
+      <c r="E284" s="86">
         <v>10.15</v>
       </c>
       <c r="F284" s="7">
@@ -59298,7 +59323,7 @@
       <c r="G284" s="7">
         <v>2.33</v>
       </c>
-      <c r="H284" s="87">
+      <c r="H284" s="86">
         <f>19.478731 * 0.57</f>
         <v>11.102876669999999</v>
       </c>
@@ -59307,13 +59332,13 @@
       <c r="B285" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C285" s="88">
+      <c r="C285" s="87">
         <v>0.95</v>
       </c>
-      <c r="D285" s="91">
+      <c r="D285" s="90">
         <v>2.11</v>
       </c>
-      <c r="E285" s="87">
+      <c r="E285" s="86">
         <f>19.514182 * 0.5</f>
         <v>9.7570910000000008</v>
       </c>
@@ -59323,7 +59348,7 @@
       <c r="G285" s="7">
         <v>2.1115270000000002</v>
       </c>
-      <c r="H285" s="87">
+      <c r="H285" s="86">
         <f>19.514182 * 0.52</f>
         <v>10.147374640000001</v>
       </c>
@@ -59332,10 +59357,10 @@
       <c r="B286" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C286" s="88">
+      <c r="C286" s="87">
         <v>0.93322700000000003</v>
       </c>
-      <c r="D286" s="91">
+      <c r="D286" s="90">
         <v>2.08</v>
       </c>
       <c r="E286" s="7">
@@ -59355,13 +59380,13 @@
       <c r="B287" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C287" s="88">
+      <c r="C287" s="87">
         <v>0.93</v>
       </c>
-      <c r="D287" s="91">
+      <c r="D287" s="90">
         <v>2.0623269999999998</v>
       </c>
-      <c r="E287" s="87">
+      <c r="E287" s="86">
         <f xml:space="preserve"> 16.551753 * 0.5</f>
         <v>8.2758765000000007</v>
       </c>
@@ -59371,7 +59396,7 @@
       <c r="G287" s="7">
         <v>2.0623269999999998</v>
       </c>
-      <c r="H287" s="87">
+      <c r="H287" s="86">
         <f xml:space="preserve"> 16.551753 * 0.5</f>
         <v>8.2758765000000007</v>
       </c>
@@ -59380,13 +59405,13 @@
       <c r="B288" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C288" s="88">
+      <c r="C288" s="87">
         <v>0.93038500000000002</v>
       </c>
-      <c r="D288" s="91">
+      <c r="D288" s="90">
         <v>2.0623269999999998</v>
       </c>
-      <c r="E288" s="87">
+      <c r="E288" s="86">
         <f xml:space="preserve"> 24.516099 * 0.3</f>
         <v>7.3548296999999998</v>
       </c>
@@ -59396,7 +59421,7 @@
       <c r="G288" s="7">
         <v>2.0623269999999998</v>
       </c>
-      <c r="H288" s="87">
+      <c r="H288" s="86">
         <f xml:space="preserve"> 24.516099 * 0.3</f>
         <v>7.3548296999999998</v>
       </c>
@@ -59405,10 +59430,10 @@
       <c r="B289" s="37" t="s">
         <v>392</v>
       </c>
-      <c r="C289" s="88">
+      <c r="C289" s="87">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D289" s="91">
+      <c r="D289" s="90">
         <v>2.0623269999999998</v>
       </c>
       <c r="E289" s="7">
@@ -59428,10 +59453,10 @@
       <c r="B290" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="C290" s="88">
+      <c r="C290" s="87">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D290" s="91">
+      <c r="D290" s="90">
         <v>2.0623269999999998</v>
       </c>
       <c r="E290" s="7">
@@ -59451,10 +59476,10 @@
       <c r="B291" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="C291" s="88">
+      <c r="C291" s="87">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D291" s="91">
+      <c r="D291" s="90">
         <v>2.0623269999999998</v>
       </c>
       <c r="E291" s="7">
@@ -59474,10 +59499,10 @@
       <c r="B292" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="C292" s="88">
+      <c r="C292" s="87">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D292" s="91">
+      <c r="D292" s="90">
         <v>2.0623269999999998</v>
       </c>
       <c r="E292" s="7">
@@ -59497,10 +59522,10 @@
       <c r="B293" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="C293" s="88">
+      <c r="C293" s="87">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D293" s="91">
+      <c r="D293" s="90">
         <v>2.0623269999999998</v>
       </c>
       <c r="E293" s="7">
@@ -59520,10 +59545,10 @@
       <c r="B294" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="C294" s="88">
+      <c r="C294" s="87">
         <v>0.91735900000000004</v>
       </c>
-      <c r="D294" s="91">
+      <c r="D294" s="90">
         <v>2.0623269999999998</v>
       </c>
       <c r="E294" s="7">
@@ -59547,7 +59572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -60841,7 +60866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL153"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
@@ -65463,7 +65488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX132"/>
   <sheetViews>
     <sheetView topLeftCell="A92" workbookViewId="0">
@@ -69368,7 +69393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R247"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
@@ -72780,7 +72805,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L38" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="L38" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -72789,7 +72814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -73332,7 +73357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -74168,1111 +74193,1471 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="89"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>246</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>138</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1.67</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>139</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3.63</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>14.37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>41.72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>70.34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>74.19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
         <v>392</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>127.79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>148.35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>193.66</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>199.95</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>170.4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>617</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>134.78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="89"/>
+      <c r="D24" s="37">
         <v>46.1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>150</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="37" t="s">
         <v>617</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="37" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="44" spans="2:6" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="37" t="s">
         <v>150</v>
       </c>
       <c r="C45" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D45" t="s">
         <v>1164</v>
       </c>
       <c r="E45" t="s">
         <v>1165</v>
       </c>
       <c r="F45" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" s="37">
         <v>1</v>
       </c>
       <c r="E46" s="37">
         <v>2</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="8">
+        <v>0.71663276482550398</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="37" t="s">
         <v>138</v>
       </c>
       <c r="C47" s="37">
+        <v>1.67</v>
+      </c>
+      <c r="D47" s="37">
         <v>12</v>
       </c>
       <c r="E47" s="37">
         <v>3</v>
       </c>
-      <c r="F47" s="37">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="89">
+        <v>1</v>
+      </c>
+      <c r="G47" s="8">
+        <v>0.84806759505553897</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="37" t="s">
         <v>139</v>
       </c>
       <c r="C48" s="37">
+        <v>3.63</v>
+      </c>
+      <c r="D48" s="37">
         <v>34</v>
       </c>
       <c r="E48" s="37">
         <v>7</v>
       </c>
-      <c r="F48" s="37">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="89">
+        <v>7</v>
+      </c>
+      <c r="G48" s="8">
+        <v>7.9909247379126498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" s="37" t="s">
         <v>140</v>
       </c>
       <c r="C49" s="37">
+        <v>14.37</v>
+      </c>
+      <c r="D49" s="37">
         <v>86</v>
       </c>
       <c r="E49" s="37">
         <v>21</v>
       </c>
-      <c r="F49" s="37">
-        <v>14.37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="89">
+        <v>9</v>
+      </c>
+      <c r="G49" s="8">
+        <v>20.976373024565699</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="37" t="s">
         <v>141</v>
       </c>
       <c r="C50" s="37">
+        <v>41.72</v>
+      </c>
+      <c r="D50" s="37">
         <v>156</v>
       </c>
       <c r="E50" s="37">
         <v>27</v>
       </c>
-      <c r="F50" s="37">
-        <v>41.72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="89">
+        <v>24</v>
+      </c>
+      <c r="G50" s="8">
+        <v>40.716632764825398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" s="37" t="s">
         <v>142</v>
       </c>
       <c r="C51" s="37">
+        <v>70.34</v>
+      </c>
+      <c r="D51" s="37">
         <v>187</v>
       </c>
       <c r="E51" s="37">
         <v>35</v>
       </c>
-      <c r="F51" s="37">
-        <v>70.34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="89">
+        <v>28</v>
+      </c>
+      <c r="G51" s="8">
+        <v>62.664684712877403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="37" t="s">
         <v>143</v>
       </c>
       <c r="C52" s="37">
+        <v>74.19</v>
+      </c>
+      <c r="D52" s="37">
         <v>163</v>
       </c>
       <c r="E52" s="37">
         <v>36</v>
       </c>
-      <c r="F52" s="37">
-        <v>74.19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="89">
+        <v>31</v>
+      </c>
+      <c r="G52" s="8">
+        <v>83.052730402127906</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" s="37" t="s">
         <v>318</v>
       </c>
       <c r="C53" s="37">
+        <v>127.79</v>
+      </c>
+      <c r="D53" s="37">
         <v>144</v>
       </c>
       <c r="E53" s="37">
         <v>27</v>
       </c>
-      <c r="F53" s="37">
-        <v>127.79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="89">
+        <v>30</v>
+      </c>
+      <c r="G53" s="8">
+        <v>103.442340791738</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" s="37" t="s">
         <v>319</v>
       </c>
       <c r="C54" s="37">
+        <v>148.35</v>
+      </c>
+      <c r="D54" s="37">
         <v>120</v>
       </c>
       <c r="E54" s="37">
         <v>21</v>
       </c>
-      <c r="F54" s="37">
-        <v>148.35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="89">
+        <v>23</v>
+      </c>
+      <c r="G54" s="8">
+        <v>130.32389297449501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="37" t="s">
         <v>324</v>
       </c>
       <c r="C55" s="37">
+        <v>193.66</v>
+      </c>
+      <c r="D55" s="37">
         <v>90</v>
       </c>
       <c r="E55" s="37">
         <v>15</v>
       </c>
-      <c r="F55" s="37">
-        <v>193.66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="89">
+        <v>23</v>
+      </c>
+      <c r="G55" s="8">
+        <v>150.45376310436501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="37" t="s">
         <v>325</v>
       </c>
       <c r="C56" s="37">
+        <v>199.95</v>
+      </c>
+      <c r="D56" s="37">
         <v>57</v>
       </c>
       <c r="E56" s="37">
         <v>11</v>
       </c>
-      <c r="F56" s="37">
-        <v>199.95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="89">
+        <v>11</v>
+      </c>
+      <c r="G56" s="8">
+        <v>156.29791894852099</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" s="37" t="s">
         <v>326</v>
       </c>
       <c r="C57" s="37">
+        <v>170.4</v>
+      </c>
+      <c r="D57" s="37">
         <v>40</v>
       </c>
       <c r="E57" s="37">
         <v>9</v>
       </c>
-      <c r="F57" s="37">
-        <v>170.4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="89">
+        <v>15</v>
+      </c>
+      <c r="G57" s="8">
+        <v>150.71350336410501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" s="37" t="s">
         <v>617</v>
       </c>
       <c r="C58" s="37">
+        <v>134.78</v>
+      </c>
+      <c r="D58" s="37">
         <v>48</v>
       </c>
       <c r="E58" s="37">
         <v>15</v>
       </c>
-      <c r="F58" s="37">
-        <v>134.78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="89">
+        <v>10</v>
+      </c>
+      <c r="G58" s="8">
+        <v>133.18103583163801</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
         <v>982</v>
       </c>
-      <c r="C61" s="37"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="37"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="37" t="s">
+      <c r="D62" s="37" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="37">
+      <c r="D63" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="37">
+      <c r="D64" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="37">
+      <c r="D65" s="37">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="37">
+      <c r="D66" s="37">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="37">
+      <c r="D67" s="37">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C68" s="37">
+      <c r="D68" s="37">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="37">
+      <c r="D69" s="37">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="C70" s="37">
+      <c r="D70" s="37">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="C71" s="37">
+      <c r="D71" s="37">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="C72" s="37">
+      <c r="D72" s="37">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="C73" s="37">
+      <c r="D73" s="37">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" s="37" t="s">
         <v>326</v>
       </c>
-      <c r="C74" s="37">
+      <c r="D74" s="37">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" s="37" t="s">
         <v>617</v>
       </c>
-      <c r="C75" s="37">
+      <c r="D75" s="37">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>983</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>17.7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>1149</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>20.5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="37" t="s">
         <v>983</v>
       </c>
-      <c r="C80" s="37">
+      <c r="C80" s="89"/>
+      <c r="D80" s="37">
         <v>32.5</v>
       </c>
-      <c r="D80" s="37" t="s">
+      <c r="E80" s="37" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>1155</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>34.5</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>153</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>40.03</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>1155</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>42.7</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="90" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="89" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E91" s="89" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="C92" s="89" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E92" s="89" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F92" s="89" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G92" s="89" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" s="89">
+        <v>0.71663276482550398</v>
+      </c>
+      <c r="E93" s="89">
+        <f>F93/G93*100000</f>
+        <v>0.63559582937906656</v>
+      </c>
+      <c r="F93" s="89">
+        <v>16</v>
+      </c>
+      <c r="G93" s="89">
+        <v>2517323</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="89">
+        <v>0.84806759505553897</v>
+      </c>
+      <c r="E94" s="89">
+        <f>F94/G94*100000</f>
+        <v>0.83058777928514071</v>
+      </c>
+      <c r="F94" s="89">
+        <v>18</v>
+      </c>
+      <c r="G94" s="89">
+        <v>2167140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="89">
+        <v>7.9909247379126498</v>
+      </c>
+      <c r="E95" s="89">
+        <f>F95/G95*100000</f>
+        <v>6.2725603905452916</v>
+      </c>
+      <c r="F95" s="89">
+        <v>128</v>
+      </c>
+      <c r="G95" s="89">
+        <v>2040634</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="89">
+        <v>20.976373024565699</v>
+      </c>
+      <c r="E96" s="89">
+        <f>F96/G96*100000</f>
+        <v>19.988669466166733</v>
+      </c>
+      <c r="F96" s="89">
+        <v>368</v>
+      </c>
+      <c r="G96" s="89">
+        <v>1841043</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="89">
+        <v>40.716632764825398</v>
+      </c>
+      <c r="E97" s="89">
+        <f>F97/G97*100000</f>
+        <v>39.919341057452407</v>
+      </c>
+      <c r="F97" s="89">
+        <v>584</v>
+      </c>
+      <c r="G97" s="89">
+        <v>1462950</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" s="89">
+        <v>62.664684712877403</v>
+      </c>
+      <c r="E98" s="89">
+        <f>F98/G98*100000</f>
+        <v>66.140420334098252</v>
+      </c>
+      <c r="F98" s="89">
+        <v>705</v>
+      </c>
+      <c r="G98" s="89">
+        <v>1065914</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="89">
+        <v>83.052730402127906</v>
+      </c>
+      <c r="E99" s="89">
+        <f>F99/G99*100000</f>
+        <v>94.060183076372752</v>
+      </c>
+      <c r="F99" s="89">
+        <v>731</v>
+      </c>
+      <c r="G99" s="89">
+        <v>777162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="C100" s="89">
+        <v>103.442340791738</v>
+      </c>
+      <c r="E100" s="89">
+        <f>F100/G100*100000</f>
+        <v>108.74293170943889</v>
+      </c>
+      <c r="F100" s="89">
+        <v>690</v>
+      </c>
+      <c r="G100" s="89">
+        <v>634524</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="89" t="s">
+        <v>535</v>
+      </c>
+      <c r="C101" s="89">
+        <v>130.32389297449501</v>
+      </c>
+      <c r="E101" s="89">
+        <f>F101/G101*100000</f>
+        <v>113.39713957071859</v>
+      </c>
+      <c r="F101" s="89">
+        <v>627</v>
+      </c>
+      <c r="G101" s="89">
+        <v>552924</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="89" t="s">
+        <v>536</v>
+      </c>
+      <c r="C102" s="89">
+        <v>150.45376310436501</v>
+      </c>
+      <c r="E102" s="89">
+        <f>F102/G102*100000</f>
+        <v>116.57530568271869</v>
+      </c>
+      <c r="F102" s="89">
+        <v>534</v>
+      </c>
+      <c r="G102" s="89">
+        <v>458073</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="89" t="s">
+        <v>970</v>
+      </c>
+      <c r="C103" s="89">
+        <v>156.29791894852099</v>
+      </c>
+      <c r="E103" s="89">
+        <f>F103/G103*100000</f>
+        <v>119.76485861347034</v>
+      </c>
+      <c r="F103" s="89">
+        <v>393</v>
+      </c>
+      <c r="G103" s="89">
+        <v>328143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="89" t="s">
+        <v>971</v>
+      </c>
+      <c r="C104" s="89">
+        <v>150.71350336410501</v>
+      </c>
+      <c r="E104" s="89">
+        <f>F104/G104*100000</f>
+        <v>118.2033096926714</v>
+      </c>
+      <c r="F104" s="89">
+        <v>235</v>
+      </c>
+      <c r="G104" s="89">
+        <v>198810</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="89" t="s">
+        <v>972</v>
+      </c>
+      <c r="C105" s="89">
+        <v>133.18103583163801</v>
+      </c>
+      <c r="E105" s="89">
+        <f>F105/G105*100000</f>
+        <v>98.125437696454469</v>
+      </c>
+      <c r="F105" s="89">
+        <v>241</v>
+      </c>
+      <c r="G105" s="89">
+        <v>245604</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F106" s="49"/>
+    </row>
+    <row r="107" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F107" s="49"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F108" s="49"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="37" t="s">
+    <row r="110" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="37" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+      <c r="C110" s="89"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>196</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D111" t="s">
         <v>983</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E111" t="s">
         <v>575</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F111" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="37">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="37">
         <v>1990</v>
       </c>
-      <c r="C94" s="7">
+      <c r="D112" s="7">
         <v>28.338813232900002</v>
       </c>
-      <c r="D94" s="7">
+      <c r="E112" s="7">
         <v>21.276665213499999</v>
       </c>
-      <c r="E94" s="7">
+      <c r="F112" s="7">
         <v>41.360422550899997</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="37">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="37">
         <v>1991</v>
       </c>
-      <c r="C95" s="7">
+      <c r="D113" s="7">
         <v>28.303151654499999</v>
       </c>
-      <c r="D95" s="7">
+      <c r="E113" s="7">
         <v>21.133259883600001</v>
       </c>
-      <c r="E95" s="7">
+      <c r="F113" s="7">
         <v>41.167278088899998</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="37">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="37">
         <v>1992</v>
       </c>
-      <c r="C96" s="7">
+      <c r="D114" s="7">
         <v>28.447787672799901</v>
       </c>
-      <c r="D96" s="7">
+      <c r="E114" s="7">
         <v>21.237622752899998</v>
       </c>
-      <c r="E96" s="7">
+      <c r="F114" s="7">
         <v>40.733955608599999</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="37">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="37">
         <v>1993</v>
       </c>
-      <c r="C97" s="7">
+      <c r="D115" s="7">
         <v>28.539902023900002</v>
       </c>
-      <c r="D97" s="7">
+      <c r="E115" s="7">
         <v>21.389100855100001</v>
       </c>
-      <c r="E97" s="7">
+      <c r="F115" s="7">
         <v>40.093134169000002</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="37">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="37">
         <v>1994</v>
       </c>
-      <c r="C98" s="7">
+      <c r="D116" s="7">
         <v>28.833530465700001</v>
       </c>
-      <c r="D98" s="7">
+      <c r="E116" s="7">
         <v>21.673385832699999</v>
       </c>
-      <c r="E98" s="7">
+      <c r="F116" s="7">
         <v>39.983408626500001</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="37">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="37">
         <v>1995</v>
       </c>
-      <c r="C99" s="7">
+      <c r="D117" s="7">
         <v>29.006265056099998</v>
       </c>
-      <c r="D99" s="7">
+      <c r="E117" s="7">
         <v>21.666471276599999</v>
       </c>
-      <c r="E99" s="7">
+      <c r="F117" s="7">
         <v>39.748551009899998</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="37">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="37">
         <v>1996</v>
       </c>
-      <c r="C100" s="7">
+      <c r="D118" s="7">
         <v>28.898526654499999</v>
       </c>
-      <c r="D100" s="7">
+      <c r="E118" s="7">
         <v>21.504440627699999</v>
       </c>
-      <c r="E100" s="7">
+      <c r="F118" s="7">
         <v>39.2770851394</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="37">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="37">
         <v>1997</v>
       </c>
-      <c r="C101" s="7">
+      <c r="D119" s="7">
         <v>28.917683059200002</v>
       </c>
-      <c r="D101" s="7">
+      <c r="E119" s="7">
         <v>21.329770536599899</v>
       </c>
-      <c r="E101" s="7">
+      <c r="F119" s="7">
         <v>38.349158094499998</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="37">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="37">
         <v>1998</v>
       </c>
-      <c r="C102" s="7">
+      <c r="D120" s="7">
         <v>28.701604157599999</v>
       </c>
-      <c r="D102" s="7">
+      <c r="E120" s="7">
         <v>21.150636450899999</v>
       </c>
-      <c r="E102" s="7">
+      <c r="F120" s="7">
         <v>37.665881924600001</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="37">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="37">
         <v>1999</v>
       </c>
-      <c r="C103" s="7">
+      <c r="D121" s="7">
         <v>28.140231608499999</v>
       </c>
-      <c r="D103" s="7">
+      <c r="E121" s="7">
         <v>20.793554782800001</v>
       </c>
-      <c r="E103" s="7">
+      <c r="F121" s="7">
         <v>36.709925723700003</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="37">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="37">
         <v>2000</v>
       </c>
-      <c r="C104" s="7">
+      <c r="D122" s="7">
         <v>27.915229186800001</v>
       </c>
-      <c r="D104" s="7">
+      <c r="E122" s="7">
         <v>20.6421701728</v>
       </c>
-      <c r="E104" s="7">
+      <c r="F122" s="7">
         <v>36.016692345199999</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="37">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="37">
         <v>2001</v>
       </c>
-      <c r="C105" s="7">
+      <c r="D123" s="7">
         <v>27.138465622399998</v>
       </c>
-      <c r="D105" s="7">
+      <c r="E123" s="7">
         <v>20.043401829</v>
       </c>
-      <c r="E105" s="7">
+      <c r="F123" s="7">
         <v>35.032161703999897</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="37">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="37">
         <v>2002</v>
       </c>
-      <c r="C106" s="7">
+      <c r="D124" s="7">
         <v>27.275688477199999</v>
       </c>
-      <c r="D106" s="7">
+      <c r="E124" s="7">
         <v>20.1400895433</v>
       </c>
-      <c r="E106" s="7">
+      <c r="F124" s="7">
         <v>34.865266673999997</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="37">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="37">
         <v>2003</v>
       </c>
-      <c r="C107" s="7">
+      <c r="D125" s="7">
         <v>27.2604573345</v>
       </c>
-      <c r="D107" s="7">
+      <c r="E125" s="7">
         <v>20.089997906699999</v>
       </c>
-      <c r="E107" s="7">
+      <c r="F125" s="7">
         <v>34.8595821304</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="37">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="37">
         <v>2004</v>
       </c>
-      <c r="C108" s="7">
+      <c r="D126" s="7">
         <v>26.898510988799998</v>
       </c>
-      <c r="D108" s="7">
+      <c r="E126" s="7">
         <v>19.9464354853</v>
       </c>
-      <c r="E108" s="7">
+      <c r="F126" s="7">
         <v>34.495731603700001</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="37">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="37">
         <v>2005</v>
       </c>
-      <c r="C109" s="7">
+      <c r="D127" s="7">
         <v>26.582299990300001</v>
       </c>
-      <c r="D109" s="7">
+      <c r="E127" s="7">
         <v>19.8050744612</v>
       </c>
-      <c r="E109" s="7">
+      <c r="F127" s="7">
         <v>34.222333133799999</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="37">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="37">
         <v>2006</v>
       </c>
-      <c r="C110" s="7">
+      <c r="D128" s="7">
         <v>26.2751149825</v>
       </c>
-      <c r="D110" s="7">
+      <c r="E128" s="7">
         <v>19.9042216028</v>
       </c>
-      <c r="E110" s="7">
+      <c r="F128" s="7">
         <v>34.209887229099998</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="37">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="37">
         <v>2007</v>
       </c>
-      <c r="C111" s="7">
+      <c r="D129" s="7">
         <v>25.866781</v>
       </c>
-      <c r="D111" s="7">
+      <c r="E129" s="7">
         <v>19.765902835399999</v>
       </c>
-      <c r="E111" s="7">
+      <c r="F129" s="7">
         <v>33.889520089399902</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="37">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="37">
         <v>2008</v>
       </c>
-      <c r="C112" s="7">
+      <c r="D130" s="7">
         <v>25.691514176199998</v>
       </c>
-      <c r="D112" s="7">
+      <c r="E130" s="7">
         <v>19.735012033</v>
       </c>
-      <c r="E112" s="7">
+      <c r="F130" s="7">
         <v>34.008916111700003</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="37">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="37">
         <v>2009</v>
       </c>
-      <c r="C113" s="7">
+      <c r="D131" s="7">
         <v>25.687978447999999</v>
       </c>
-      <c r="D113" s="7">
+      <c r="E131" s="7">
         <v>19.868306862000001</v>
       </c>
-      <c r="E113" s="7">
+      <c r="F131" s="7">
         <v>34.397729296400001</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="37">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="37">
         <v>2010</v>
       </c>
-      <c r="C114" s="7">
+      <c r="D132" s="7">
         <v>26.099900655700001</v>
       </c>
-      <c r="D114" s="7">
+      <c r="E132" s="7">
         <v>20.2750490146</v>
       </c>
-      <c r="E114" s="7">
+      <c r="F132" s="7">
         <v>35.243636504100003</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="37">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="37">
         <v>2011</v>
       </c>
-      <c r="C115" s="7">
+      <c r="D133" s="7">
         <v>25.540528392500001</v>
       </c>
-      <c r="D115" s="7">
+      <c r="E133" s="7">
         <v>19.888811054799898</v>
       </c>
-      <c r="E115" s="7">
+      <c r="F133" s="7">
         <v>34.796040185999999</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="37">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="37">
         <v>2012</v>
       </c>
-      <c r="C116" s="7">
+      <c r="D134" s="7">
         <v>24.9825020454</v>
       </c>
-      <c r="D116" s="7">
+      <c r="E134" s="7">
         <v>19.615601563799999</v>
       </c>
-      <c r="E116" s="7">
+      <c r="F134" s="7">
         <v>34.4442311281</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="37">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="37">
         <v>2013</v>
       </c>
-      <c r="C117" s="7">
+      <c r="D135" s="7">
         <v>24.3360357442</v>
       </c>
-      <c r="D117" s="7">
+      <c r="E135" s="7">
         <v>19.4112045376</v>
       </c>
-      <c r="E117" s="7">
+      <c r="F135" s="7">
         <v>33.847582881599998</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="37">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="37">
         <v>2014</v>
       </c>
-      <c r="C118" s="7">
+      <c r="D136" s="7">
         <v>23.757156975200001</v>
       </c>
-      <c r="D118" s="7">
+      <c r="E136" s="7">
         <v>19.227403319</v>
       </c>
-      <c r="E118" s="7">
+      <c r="F136" s="7">
         <v>33.274325525400002</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="37">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="37">
         <v>2015</v>
       </c>
-      <c r="C119" s="7">
+      <c r="D137" s="7">
         <v>23.399590103599898</v>
       </c>
-      <c r="D119" s="7">
+      <c r="E137" s="7">
         <v>19.098798935400001</v>
       </c>
-      <c r="E119" s="7">
+      <c r="F137" s="7">
         <v>32.8570936172</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="37">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="37">
         <v>2016</v>
       </c>
-      <c r="C120" s="7">
+      <c r="D138" s="7">
         <v>23.112929259200001</v>
       </c>
-      <c r="D120" s="7">
+      <c r="E138" s="7">
         <v>18.868621451599999</v>
       </c>
-      <c r="E120" s="7">
+      <c r="F138" s="7">
         <v>32.499574923200001</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="37">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="37">
         <v>2017</v>
       </c>
-      <c r="C121" s="7">
+      <c r="D139" s="7">
         <v>22.7223344244</v>
       </c>
-      <c r="D121" s="7">
+      <c r="E139" s="7">
         <v>18.550079151999999</v>
       </c>
-      <c r="E121" s="7">
+      <c r="F139" s="7">
         <v>31.902820736399999</v>
       </c>
     </row>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="12270" tabRatio="835" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9570" tabRatio="835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -12904,6 +12904,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13239,6 +13240,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -35332,7 +35334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y231"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A151" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M170" sqref="M170"/>
     </sheetView>
   </sheetViews>
@@ -43329,8 +43331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD213"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="I142" sqref="I142"/>
+    <sheetView topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53494,8 +53496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y294"/>
   <sheetViews>
-    <sheetView topLeftCell="B165" workbookViewId="0">
-      <selection activeCell="H190" sqref="H190"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="D282" sqref="D282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59240,10 +59242,10 @@
         <v>338</v>
       </c>
       <c r="C281" s="88">
-        <v>3.4000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D281" s="90">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="E281" s="7">
         <v>1.0000000000000001E-5</v>
@@ -59263,7 +59265,7 @@
         <v>137</v>
       </c>
       <c r="C282" s="87">
-        <v>0.22517599999999999</v>
+        <v>0.5</v>
       </c>
       <c r="D282" s="90">
         <v>2.4546290000000002</v>
@@ -74196,7 +74198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -53496,8 +53496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="D282" sqref="D282"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="G291" sqref="G291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58870,14 +58870,14 @@
         <v>9.8990000000001022E-3</v>
       </c>
       <c r="F265" s="59">
-        <v>0.65532100000000004</v>
+        <v>0.65632100000000004</v>
       </c>
       <c r="G265" s="59">
         <v>0.33058680000000001</v>
       </c>
       <c r="H265" s="59">
         <f t="shared" si="7"/>
-        <v>1.4092199999999888E-2</v>
+        <v>1.3092199999999998E-2</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -58898,14 +58898,14 @@
         <v>7.0239999999999192E-3</v>
       </c>
       <c r="F266" s="59">
-        <v>0.71510499999999999</v>
+        <v>0.71710499999999999</v>
       </c>
       <c r="G266" s="59">
         <v>0.27507100000000001</v>
       </c>
       <c r="H266" s="59">
         <f t="shared" si="7"/>
-        <v>9.8240000000000549E-3</v>
+        <v>7.8240000000000531E-3</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -58926,14 +58926,14 @@
         <v>5.4269999999999596E-3</v>
       </c>
       <c r="F267" s="59">
-        <v>0.73122299999999996</v>
+        <v>0.73212299999999997</v>
       </c>
       <c r="G267" s="59">
         <v>0.26235000000000003</v>
       </c>
       <c r="H267" s="59">
         <f t="shared" si="7"/>
-        <v>6.4269999999999605E-3</v>
+        <v>5.5270000000000596E-3</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -58954,14 +58954,14 @@
         <v>4.6000000000000485E-3</v>
       </c>
       <c r="F268" s="59">
-        <v>0.80640999999999996</v>
+        <v>0.80681000000000003</v>
       </c>
       <c r="G268" s="59">
         <v>0.18798999999999999</v>
       </c>
       <c r="H268" s="59">
         <f t="shared" si="7"/>
-        <v>5.6000000000000494E-3</v>
+        <v>5.1999999999999824E-3</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -58972,20 +58972,20 @@
         <v>392</v>
       </c>
       <c r="C269" s="59">
-        <v>0.88085000000000002</v>
+        <v>0.89085000000000003</v>
       </c>
       <c r="D269" s="59">
-        <v>0.11563</v>
+        <v>0.10563</v>
       </c>
       <c r="E269" s="59">
         <f t="shared" si="6"/>
         <v>3.5199999999999676E-3</v>
       </c>
       <c r="F269" s="59">
-        <v>0.88085000000000002</v>
+        <v>0.89085000000000003</v>
       </c>
       <c r="G269" s="59">
-        <v>0.11563</v>
+        <v>0.10563</v>
       </c>
       <c r="H269" s="59">
         <f t="shared" si="7"/>
@@ -59000,20 +59000,20 @@
         <v>461</v>
       </c>
       <c r="C270" s="91">
-        <v>0.88085000000000002</v>
-      </c>
-      <c r="D270" s="59">
-        <v>0.11563</v>
+        <v>0.89085000000000003</v>
+      </c>
+      <c r="D270" s="91">
+        <v>0.10563</v>
       </c>
       <c r="E270" s="59">
         <f t="shared" si="6"/>
         <v>3.5199999999999676E-3</v>
       </c>
       <c r="F270" s="91">
-        <v>0.88085000000000002</v>
-      </c>
-      <c r="G270" s="59">
-        <v>0.11563</v>
+        <v>0.89085000000000003</v>
+      </c>
+      <c r="G270" s="91">
+        <v>0.10563</v>
       </c>
       <c r="H270" s="59">
         <f t="shared" si="7"/>
@@ -59028,20 +59028,20 @@
         <v>324</v>
       </c>
       <c r="C271" s="91">
-        <v>0.88085000000000002</v>
-      </c>
-      <c r="D271" s="59">
-        <v>0.11563</v>
+        <v>0.89085000000000003</v>
+      </c>
+      <c r="D271" s="91">
+        <v>0.10563</v>
       </c>
       <c r="E271" s="59">
         <f t="shared" si="6"/>
         <v>3.5199999999999676E-3</v>
       </c>
       <c r="F271" s="91">
-        <v>0.88085000000000002</v>
-      </c>
-      <c r="G271" s="59">
-        <v>0.11563</v>
+        <v>0.89085000000000003</v>
+      </c>
+      <c r="G271" s="91">
+        <v>0.10563</v>
       </c>
       <c r="H271" s="59">
         <f t="shared" si="7"/>
@@ -59056,20 +59056,20 @@
         <v>462</v>
       </c>
       <c r="C272" s="91">
-        <v>0.88085000000000002</v>
-      </c>
-      <c r="D272" s="59">
-        <v>0.11563</v>
+        <v>0.89085000000000003</v>
+      </c>
+      <c r="D272" s="91">
+        <v>0.10563</v>
       </c>
       <c r="E272" s="59">
         <f t="shared" si="6"/>
         <v>3.5199999999999676E-3</v>
       </c>
       <c r="F272" s="91">
-        <v>0.88085000000000002</v>
-      </c>
-      <c r="G272" s="59">
-        <v>0.11563</v>
+        <v>0.89085000000000003</v>
+      </c>
+      <c r="G272" s="91">
+        <v>0.10563</v>
       </c>
       <c r="H272" s="59">
         <f t="shared" si="7"/>
@@ -59084,20 +59084,20 @@
         <v>463</v>
       </c>
       <c r="C273" s="91">
-        <v>0.88085000000000002</v>
-      </c>
-      <c r="D273" s="59">
-        <v>0.11563</v>
+        <v>0.89085000000000003</v>
+      </c>
+      <c r="D273" s="91">
+        <v>0.10563</v>
       </c>
       <c r="E273" s="59">
         <f t="shared" si="6"/>
         <v>3.5199999999999676E-3</v>
       </c>
       <c r="F273" s="91">
-        <v>0.88085000000000002</v>
-      </c>
-      <c r="G273" s="59">
-        <v>0.11563</v>
+        <v>0.89085000000000003</v>
+      </c>
+      <c r="G273" s="91">
+        <v>0.10563</v>
       </c>
       <c r="H273" s="59">
         <f t="shared" si="7"/>
@@ -59112,20 +59112,20 @@
         <v>464</v>
       </c>
       <c r="C274" s="91">
-        <v>0.88085000000000002</v>
-      </c>
-      <c r="D274" s="59">
-        <v>0.11563</v>
+        <v>0.89085000000000003</v>
+      </c>
+      <c r="D274" s="91">
+        <v>0.10563</v>
       </c>
       <c r="E274" s="59">
         <f t="shared" si="6"/>
         <v>3.5199999999999676E-3</v>
       </c>
       <c r="F274" s="91">
-        <v>0.88085000000000002</v>
-      </c>
-      <c r="G274" s="59">
-        <v>0.11563</v>
+        <v>0.89085000000000003</v>
+      </c>
+      <c r="G274" s="91">
+        <v>0.10563</v>
       </c>
       <c r="H274" s="59">
         <f t="shared" si="7"/>
@@ -59411,7 +59411,7 @@
         <v>0.93038500000000002</v>
       </c>
       <c r="D288" s="90">
-        <v>2.0623269999999998</v>
+        <v>2</v>
       </c>
       <c r="E288" s="86">
         <f xml:space="preserve"> 24.516099 * 0.3</f>
@@ -59421,7 +59421,7 @@
         <v>0.93038500000000002</v>
       </c>
       <c r="G288" s="7">
-        <v>2.0623269999999998</v>
+        <v>2</v>
       </c>
       <c r="H288" s="86">
         <f xml:space="preserve"> 24.516099 * 0.3</f>
@@ -59436,7 +59436,7 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="D289" s="90">
-        <v>2.0623269999999998</v>
+        <v>1.9</v>
       </c>
       <c r="E289" s="7">
         <v>7.0254260000000004</v>
@@ -59445,7 +59445,7 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="G289" s="7">
-        <v>2.0623269999999998</v>
+        <v>1.9</v>
       </c>
       <c r="H289" s="7">
         <v>7.0254260000000004</v>
@@ -59459,19 +59459,19 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="D290" s="90">
-        <v>2.0623269999999998</v>
+        <v>1.85</v>
       </c>
       <c r="E290" s="7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F290" s="7">
         <v>0.91735900000000004</v>
       </c>
-      <c r="G290" s="7">
-        <v>2.0623269999999998</v>
+      <c r="G290" s="90">
+        <v>1.85</v>
       </c>
       <c r="H290" s="7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="291" spans="2:8" x14ac:dyDescent="0.25">
@@ -59482,19 +59482,19 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="D291" s="90">
-        <v>2.0623269999999998</v>
-      </c>
-      <c r="E291" s="7">
-        <v>3</v>
+        <v>1.8</v>
+      </c>
+      <c r="E291" s="90">
+        <v>2.5</v>
       </c>
       <c r="F291" s="7">
         <v>0.91735900000000004</v>
       </c>
-      <c r="G291" s="7">
-        <v>2.0623269999999998</v>
-      </c>
-      <c r="H291" s="7">
-        <v>3</v>
+      <c r="G291" s="90">
+        <v>1.8</v>
+      </c>
+      <c r="H291" s="90">
+        <v>2.5</v>
       </c>
     </row>
     <row r="292" spans="2:8" x14ac:dyDescent="0.25">
@@ -59505,19 +59505,19 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="D292" s="90">
-        <v>2.0623269999999998</v>
-      </c>
-      <c r="E292" s="7">
-        <v>3</v>
+        <v>1.8</v>
+      </c>
+      <c r="E292" s="90">
+        <v>2.5</v>
       </c>
       <c r="F292" s="7">
         <v>0.91735900000000004</v>
       </c>
-      <c r="G292" s="7">
-        <v>2.0623269999999998</v>
-      </c>
-      <c r="H292" s="7">
-        <v>3</v>
+      <c r="G292" s="90">
+        <v>1.8</v>
+      </c>
+      <c r="H292" s="90">
+        <v>2.5</v>
       </c>
     </row>
     <row r="293" spans="2:8" x14ac:dyDescent="0.25">
@@ -59528,19 +59528,19 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="D293" s="90">
-        <v>2.0623269999999998</v>
-      </c>
-      <c r="E293" s="7">
-        <v>3</v>
+        <v>1.8</v>
+      </c>
+      <c r="E293" s="90">
+        <v>2.5</v>
       </c>
       <c r="F293" s="7">
         <v>0.91735900000000004</v>
       </c>
-      <c r="G293" s="7">
-        <v>2.0623269999999998</v>
-      </c>
-      <c r="H293" s="7">
-        <v>3</v>
+      <c r="G293" s="90">
+        <v>1.8</v>
+      </c>
+      <c r="H293" s="90">
+        <v>2.5</v>
       </c>
     </row>
     <row r="294" spans="2:8" x14ac:dyDescent="0.25">
@@ -59551,19 +59551,19 @@
         <v>0.91735900000000004</v>
       </c>
       <c r="D294" s="90">
-        <v>2.0623269999999998</v>
-      </c>
-      <c r="E294" s="7">
-        <v>3</v>
+        <v>1.8</v>
+      </c>
+      <c r="E294" s="90">
+        <v>2.5</v>
       </c>
       <c r="F294" s="7">
         <v>0.91735900000000004</v>
       </c>
-      <c r="G294" s="7">
-        <v>2.0623269999999998</v>
-      </c>
-      <c r="H294" s="7">
-        <v>3</v>
+      <c r="G294" s="90">
+        <v>1.8</v>
+      </c>
+      <c r="H294" s="90">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -35334,8 +35334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y231"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M170" sqref="M170"/>
+    <sheetView topLeftCell="A156" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53496,8 +53496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="G291" sqref="G291"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="I267" sqref="I267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59242,7 +59242,7 @@
         <v>338</v>
       </c>
       <c r="C281" s="88">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="D281" s="90">
         <v>0.01</v>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Kenya_model_Feb20\HHCoM\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_Feb20\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" tabRatio="835" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="4770" tabRatio="835" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3211" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="1351">
   <si>
     <t>Metric</t>
   </si>
@@ -4098,6 +4098,12 @@
   </si>
   <si>
     <t>*family planning clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Globocan 2012 from ICO report: Kenya; values obtained from figures with webplotdigitizer </t>
+  </si>
+  <si>
+    <t>Globocan 2012</t>
   </si>
 </sst>
 </file>
@@ -12870,6 +12876,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13205,6 +13212,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -34974,8 +34982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y231"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I178" sqref="I178:O184"/>
+    <sheetView topLeftCell="A133" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M170" sqref="M170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34983,9 +34991,9 @@
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -41471,31 +41479,31 @@
       <c r="H169">
         <v>1990</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="6">
         <f>SUM(C$148:D$149)/SUM($C$148:$D$163)</f>
         <v>0.35549337624979127</v>
       </c>
-      <c r="J169" s="37">
+      <c r="J169" s="6">
         <f>SUM(C$150:D$151)/SUM($C$148:$D$163)</f>
         <v>0.2487095769816785</v>
       </c>
-      <c r="K169" s="37">
+      <c r="K169" s="6">
         <f>SUM(C$152:D$153)/SUM($C$148:$D$163)</f>
         <v>0.16036853215010419</v>
       </c>
-      <c r="L169" s="37">
+      <c r="L169" s="6">
         <f>SUM(C$154:D$155)/SUM($C$148:$D$163)</f>
         <v>0.10367995328041812</v>
       </c>
-      <c r="M169" s="37">
+      <c r="M169" s="6">
         <f>SUM(C$156:D$157)/SUM($C$148:$D$163)</f>
         <v>5.6436483847615897E-2</v>
       </c>
-      <c r="N169" s="37">
+      <c r="N169" s="6">
         <f>SUM(C$158:D$159)/SUM($C$148:$D$163)</f>
         <v>3.896677223603634E-2</v>
       </c>
-      <c r="O169" s="37">
+      <c r="O169" s="6">
         <f>SUM(C$160:D$163)/SUM($C$148:$D$163)</f>
         <v>3.6345305254355149E-2</v>
       </c>
@@ -41517,31 +41525,31 @@
       <c r="H170">
         <v>1995</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="6">
         <f>SUM(E148:F149)/SUM($E$148:$F$163)</f>
         <v>0.329724598997091</v>
       </c>
-      <c r="J170" s="37">
+      <c r="J170" s="6">
         <f>SUM(E150:F151)/SUM($E$148:$F$163)</f>
         <v>0.25572087374171532</v>
       </c>
-      <c r="K170" s="37">
+      <c r="K170" s="6">
         <f>SUM(E152:F153)/SUM($E$148:$F$163)</f>
         <v>0.17060427628122893</v>
       </c>
-      <c r="L170" s="37">
+      <c r="L170" s="6">
         <f>SUM(E154:F155)/SUM($E$148:$F$163)</f>
         <v>0.10858198757068795</v>
       </c>
-      <c r="M170" s="37">
+      <c r="M170" s="6">
         <f>SUM(E156:F157)/SUM($E$148:$F$163)</f>
         <v>6.5205652654415941E-2</v>
       </c>
-      <c r="N170" s="37">
+      <c r="N170" s="6">
         <f>SUM(E158:F159)/SUM($E$148:$F$163)</f>
         <v>3.4783877060073805E-2</v>
       </c>
-      <c r="O170" s="37">
+      <c r="O170" s="6">
         <f>SUM(E160:F163)/SUM($E$148:$F$163)</f>
         <v>3.5378733694786835E-2</v>
       </c>
@@ -41559,31 +41567,31 @@
       <c r="H171">
         <v>2000</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="6">
         <f>SUM(G148:H149)/SUM($G$148:$H$163)</f>
         <v>0.31791370276114633</v>
       </c>
-      <c r="J171" s="37">
+      <c r="J171" s="6">
         <f>SUM(G150:H151)/SUM($G$148:$H$163)</f>
         <v>0.2550967008423784</v>
       </c>
-      <c r="K171" s="37">
+      <c r="K171" s="6">
         <f>SUM(G152:H153)/SUM($G$148:$H$163)</f>
         <v>0.17860301741785722</v>
       </c>
-      <c r="L171" s="37">
+      <c r="L171" s="6">
         <f>SUM(G154:H155)/SUM($G$148:$H$163)</f>
         <v>0.11147734029810565</v>
       </c>
-      <c r="M171" s="37">
+      <c r="M171" s="6">
         <f>SUM(G156:H157)/SUM($G$148:$H$163)</f>
         <v>6.8597356533520656E-2</v>
       </c>
-      <c r="N171" s="37">
+      <c r="N171" s="6">
         <f>SUM(G158:H159)/SUM($G$148:$H$163)</f>
         <v>3.5690977363141703E-2</v>
       </c>
-      <c r="O171" s="37">
+      <c r="O171" s="6">
         <f>SUM(G$160:H$163)/SUM($G$148:$H$163)</f>
         <v>3.2620904783850206E-2</v>
       </c>
@@ -41601,31 +41609,31 @@
       <c r="H172">
         <v>2005</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="6">
         <f>SUM(I148:J149)/SUM($I$148:$J$163)</f>
         <v>0.31717005556362726</v>
       </c>
-      <c r="J172" s="37">
+      <c r="J172" s="6">
         <f>SUM(I150:J151)/SUM($I$148:$J$163)</f>
         <v>0.24080056277770526</v>
       </c>
-      <c r="K172" s="37">
+      <c r="K172" s="6">
         <f>SUM(I152:J153)/SUM($I$148:$J$163)</f>
         <v>0.185498404943294</v>
       </c>
-      <c r="L172" s="37">
+      <c r="L172" s="6">
         <f>SUM(I154:J155)/SUM($I$148:$J$163)</f>
         <v>0.11701056357393393</v>
       </c>
-      <c r="M172" s="37">
+      <c r="M172" s="6">
         <f>SUM(I156:J157)/SUM($I$148:$J$163)</f>
         <v>6.9963874202437451E-2</v>
       </c>
-      <c r="N172" s="37">
+      <c r="N172" s="6">
         <f>SUM(I158:J159)/SUM($I$148:$J$163)</f>
         <v>4.0111619767156471E-2</v>
       </c>
-      <c r="O172" s="37">
+      <c r="O172" s="6">
         <f>SUM(I160:J163)/SUM($I$148:$J$163)</f>
         <v>2.9444919171845576E-2</v>
       </c>
@@ -41643,31 +41651,31 @@
       <c r="H173">
         <v>2010</v>
       </c>
-      <c r="I173">
+      <c r="I173" s="6">
         <f>SUM(K148:L149)/SUM(K148:L163)</f>
         <v>0.30836194815624002</v>
       </c>
-      <c r="J173" s="37">
+      <c r="J173" s="6">
         <f>SUM(K150:L151)/SUM(K148:L163)</f>
         <v>0.23369136293850706</v>
       </c>
-      <c r="K173" s="37">
+      <c r="K173" s="6">
         <f>SUM(K152:L153)/SUM(K148:L163)</f>
         <v>0.18557385199250581</v>
       </c>
-      <c r="L173" s="37">
+      <c r="L173" s="6">
         <f>SUM(K154:L155)/SUM(K148:L163)</f>
         <v>0.12474426428389926</v>
       </c>
-      <c r="M173" s="37">
+      <c r="M173" s="6">
         <f>SUM(K156:L157)/SUM(K148:L163)</f>
         <v>7.4102333959600239E-2</v>
       </c>
-      <c r="N173" s="37">
+      <c r="N173" s="6">
         <f>SUM(K158:L159)/SUM(K148:L163)</f>
         <v>4.3525843368171176E-2</v>
       </c>
-      <c r="O173" s="37">
+      <c r="O173" s="6">
         <f>SUM(K160:L163)/SUM(K148:L163)</f>
         <v>3.0000395301076618E-2</v>
       </c>
@@ -41685,31 +41693,31 @@
       <c r="H174" s="16">
         <v>2015</v>
       </c>
-      <c r="I174">
+      <c r="I174" s="6">
         <f>SUM(M148:N149)/SUM($M$148:$N$163)</f>
         <v>0.28891821483642321</v>
       </c>
-      <c r="J174" s="37">
+      <c r="J174" s="6">
         <f>SUM(M150:N151)/SUM($M$148:$N$163)</f>
         <v>0.23718746949260416</v>
       </c>
-      <c r="K174" s="37">
+      <c r="K174" s="6">
         <f>SUM(M152:N153)/SUM($M$148:$N$163)</f>
         <v>0.17828937166347358</v>
       </c>
-      <c r="L174" s="37">
+      <c r="L174" s="6">
         <f>SUM(M154:N155)/SUM($M$148:$N$163)</f>
         <v>0.13331999164158853</v>
       </c>
-      <c r="M174" s="37">
+      <c r="M174" s="6">
         <f>SUM(M156:N157)/SUM($M$148:$N$163)</f>
         <v>8.1694197496718149E-2</v>
       </c>
-      <c r="N174" s="37">
+      <c r="N174" s="6">
         <f>SUM(M158:N159)/SUM($M$148:$N$163)</f>
         <v>4.6954659763098365E-2</v>
       </c>
-      <c r="O174" s="37">
+      <c r="O174" s="6">
         <f>SUM(M160:N163)/SUM($M$148:$N$163)</f>
         <v>3.3636095106093979E-2</v>
       </c>
@@ -41724,31 +41732,31 @@
       <c r="H175">
         <v>2020</v>
       </c>
-      <c r="I175">
+      <c r="I175" s="6">
         <f>SUM(O148:P149)/SUM($O$148:$P$163)</f>
         <v>0.26132180153505447</v>
       </c>
-      <c r="J175" s="37">
+      <c r="J175" s="6">
         <f>SUM(O150:P151)/SUM($O$148:$P$163)</f>
         <v>0.23769507469573828</v>
       </c>
-      <c r="K175" s="37">
+      <c r="K175" s="6">
         <f>SUM(O152:P153)/SUM($O$148:$P$163)</f>
         <v>0.17890745452917378</v>
       </c>
-      <c r="L175" s="37">
+      <c r="L175" s="6">
         <f>SUM(O154:P155)/SUM($O$148:$P$163)</f>
         <v>0.13929816949373025</v>
       </c>
-      <c r="M175" s="37">
+      <c r="M175" s="6">
         <f>SUM(O156:P157)/SUM($O$148:$P$163)</f>
         <v>9.1428627157405837E-2</v>
       </c>
-      <c r="N175" s="37">
+      <c r="N175" s="6">
         <f>SUM(O158:P159)/SUM($O$148:$P$163)</f>
         <v>5.231696438411218E-2</v>
       </c>
-      <c r="O175" s="37">
+      <c r="O175" s="6">
         <f>SUM(O160:P163)/SUM($O$148:$P$163)</f>
         <v>3.9031908204785269E-2</v>
       </c>
@@ -42971,8 +42979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD213"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68121,7 +68129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
@@ -71543,7 +71551,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72919,13 +72927,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -73216,27 +73227,33 @@
         <v>150</v>
       </c>
       <c r="C45" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D45" t="s">
         <v>1165</v>
       </c>
       <c r="E45" t="s">
         <v>1166</v>
       </c>
       <c r="F45" t="s">
-        <v>1167</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" s="37">
         <v>1</v>
       </c>
       <c r="E46" s="37">
         <v>2</v>
       </c>
-      <c r="F46">
-        <v>0</v>
+      <c r="F46" s="8">
+        <v>0.71663276499999995</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -73244,13 +73261,16 @@
         <v>138</v>
       </c>
       <c r="C47" s="37">
+        <v>1.67</v>
+      </c>
+      <c r="D47" s="37">
         <v>12</v>
       </c>
       <c r="E47" s="37">
         <v>3</v>
       </c>
-      <c r="F47" s="37">
-        <v>1.67</v>
+      <c r="F47" s="8">
+        <v>0.84806759499999995</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -73258,13 +73278,16 @@
         <v>139</v>
       </c>
       <c r="C48" s="37">
+        <v>3.63</v>
+      </c>
+      <c r="D48" s="37">
         <v>34</v>
       </c>
       <c r="E48" s="37">
         <v>7</v>
       </c>
-      <c r="F48" s="37">
-        <v>3.63</v>
+      <c r="F48" s="8">
+        <v>7.9909247380000004</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -73272,13 +73295,16 @@
         <v>140</v>
       </c>
       <c r="C49" s="37">
+        <v>14.37</v>
+      </c>
+      <c r="D49" s="37">
         <v>86</v>
       </c>
       <c r="E49" s="37">
         <v>21</v>
       </c>
-      <c r="F49" s="37">
-        <v>14.37</v>
+      <c r="F49" s="8">
+        <v>20.97637302</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -73286,13 +73312,16 @@
         <v>141</v>
       </c>
       <c r="C50" s="37">
+        <v>41.72</v>
+      </c>
+      <c r="D50" s="37">
         <v>156</v>
       </c>
       <c r="E50" s="37">
         <v>27</v>
       </c>
-      <c r="F50" s="37">
-        <v>41.72</v>
+      <c r="F50" s="8">
+        <v>40.716632760000003</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -73300,13 +73329,16 @@
         <v>142</v>
       </c>
       <c r="C51" s="37">
+        <v>70.34</v>
+      </c>
+      <c r="D51" s="37">
         <v>187</v>
       </c>
       <c r="E51" s="37">
         <v>35</v>
       </c>
-      <c r="F51" s="37">
-        <v>70.34</v>
+      <c r="F51" s="8">
+        <v>62.664684710000003</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -73314,13 +73346,16 @@
         <v>143</v>
       </c>
       <c r="C52" s="37">
+        <v>74.19</v>
+      </c>
+      <c r="D52" s="37">
         <v>163</v>
       </c>
       <c r="E52" s="37">
         <v>36</v>
       </c>
-      <c r="F52" s="37">
-        <v>74.19</v>
+      <c r="F52" s="8">
+        <v>83.052730400000002</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -73328,13 +73363,16 @@
         <v>318</v>
       </c>
       <c r="C53" s="37">
+        <v>127.79</v>
+      </c>
+      <c r="D53" s="37">
         <v>144</v>
       </c>
       <c r="E53" s="37">
         <v>27</v>
       </c>
-      <c r="F53" s="37">
-        <v>127.79</v>
+      <c r="F53" s="8">
+        <v>103.4423408</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -73342,13 +73380,16 @@
         <v>319</v>
       </c>
       <c r="C54" s="37">
+        <v>148.35</v>
+      </c>
+      <c r="D54" s="37">
         <v>120</v>
       </c>
       <c r="E54" s="37">
         <v>21</v>
       </c>
-      <c r="F54" s="37">
-        <v>148.35</v>
+      <c r="F54" s="8">
+        <v>130.323893</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -73356,13 +73397,16 @@
         <v>324</v>
       </c>
       <c r="C55" s="37">
+        <v>193.66</v>
+      </c>
+      <c r="D55" s="37">
         <v>90</v>
       </c>
       <c r="E55" s="37">
         <v>15</v>
       </c>
-      <c r="F55" s="37">
-        <v>193.66</v>
+      <c r="F55" s="8">
+        <v>150.4537631</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -73370,13 +73414,16 @@
         <v>325</v>
       </c>
       <c r="C56" s="37">
+        <v>199.95</v>
+      </c>
+      <c r="D56" s="37">
         <v>57</v>
       </c>
       <c r="E56" s="37">
         <v>11</v>
       </c>
-      <c r="F56" s="37">
-        <v>199.95</v>
+      <c r="F56" s="8">
+        <v>156.29791890000001</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -73384,13 +73431,16 @@
         <v>326</v>
       </c>
       <c r="C57" s="37">
+        <v>170.4</v>
+      </c>
+      <c r="D57" s="37">
         <v>40</v>
       </c>
       <c r="E57" s="37">
         <v>9</v>
       </c>
-      <c r="F57" s="37">
-        <v>170.4</v>
+      <c r="F57" s="8">
+        <v>150.71350340000001</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -73398,13 +73448,16 @@
         <v>617</v>
       </c>
       <c r="C58" s="37">
+        <v>134.78</v>
+      </c>
+      <c r="D58" s="37">
         <v>48</v>
       </c>
       <c r="E58" s="37">
         <v>15</v>
       </c>
-      <c r="F58" s="37">
-        <v>134.78</v>
+      <c r="F58" s="8">
+        <v>133.18103579999999</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -73562,17 +73615,17 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>1156</v>
       </c>
@@ -73583,17 +73636,17 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>153</v>
       </c>
@@ -73601,7 +73654,7 @@
         <v>40.03</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>1156</v>
       </c>
@@ -73609,420 +73662,789 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="37"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="37"/>
+      <c r="B91" s="37" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
+    </row>
+    <row r="92" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="37">
+        <v>0.71663276499999995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="37"/>
+      <c r="B93" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="37">
+        <v>0.84806759499999995</v>
+      </c>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="37"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37"/>
+      <c r="S93" s="37"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="37"/>
+      <c r="B94" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" s="37">
+        <v>7.9909247380000004</v>
+      </c>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="37"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="37"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="37"/>
+      <c r="B95" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" s="37">
+        <v>20.97637302</v>
+      </c>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="37"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="37"/>
+      <c r="R95" s="37"/>
+      <c r="S95" s="37"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="37"/>
+      <c r="B96" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="37">
+        <v>40.716632760000003</v>
+      </c>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="37"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="37"/>
+      <c r="B97" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="37">
+        <v>62.664684710000003</v>
+      </c>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="37"/>
+      <c r="N97" s="37"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37"/>
+      <c r="S97" s="37"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="37"/>
+      <c r="B98" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="37">
+        <v>83.052730400000002</v>
+      </c>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="37"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="37"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37"/>
+      <c r="S98" s="37"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="37"/>
+      <c r="B99" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="C99" s="37">
+        <v>103.4423408</v>
+      </c>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="37"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="37"/>
+      <c r="N99" s="37"/>
+      <c r="O99" s="37"/>
+      <c r="P99" s="37"/>
+      <c r="Q99" s="37"/>
+      <c r="R99" s="37"/>
+      <c r="S99" s="37"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="37"/>
+      <c r="B100" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="C100" s="37">
+        <v>130.323893</v>
+      </c>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="37"/>
+      <c r="O100" s="37"/>
+      <c r="P100" s="37"/>
+      <c r="Q100" s="37"/>
+      <c r="R100" s="37"/>
+      <c r="S100" s="37"/>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="37"/>
+      <c r="B101" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="C101" s="37">
+        <v>150.4537631</v>
+      </c>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="37"/>
+      <c r="L101" s="37"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="37"/>
+      <c r="O101" s="37"/>
+      <c r="P101" s="37"/>
+      <c r="Q101" s="37"/>
+      <c r="R101" s="37"/>
+      <c r="S101" s="37"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="37"/>
+      <c r="B102" s="37" t="s">
+        <v>970</v>
+      </c>
+      <c r="C102" s="37">
+        <v>156.29791890000001</v>
+      </c>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="37"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="37"/>
+      <c r="Q102" s="37"/>
+      <c r="R102" s="37"/>
+      <c r="S102" s="37"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="37"/>
+      <c r="B103" s="37" t="s">
+        <v>971</v>
+      </c>
+      <c r="C103" s="37">
+        <v>150.71350340000001</v>
+      </c>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="37"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="37"/>
+      <c r="N103" s="37"/>
+      <c r="O103" s="37"/>
+      <c r="P103" s="37"/>
+      <c r="Q103" s="37"/>
+      <c r="R103" s="37"/>
+      <c r="S103" s="37"/>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="37"/>
+      <c r="B104" s="37" t="s">
+        <v>972</v>
+      </c>
+      <c r="C104" s="37">
+        <v>133.18103579999999</v>
+      </c>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37"/>
+      <c r="K104" s="37"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="37"/>
+      <c r="N104" s="37"/>
+      <c r="O104" s="37"/>
+      <c r="P104" s="37"/>
+      <c r="Q104" s="37"/>
+      <c r="R104" s="37"/>
+      <c r="S104" s="37"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="37" t="s">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="37" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="37"/>
+      <c r="L107" s="37"/>
+      <c r="M107" s="37"/>
+      <c r="N107" s="37"/>
+      <c r="O107" s="37"/>
+      <c r="P107" s="37"/>
+      <c r="Q107" s="37"/>
+      <c r="R107" s="37"/>
+      <c r="S107" s="37"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>196</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C108" t="s">
         <v>983</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D108" t="s">
         <v>575</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E108" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="37">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B109" s="37">
         <v>1990</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C109" s="7">
         <v>28.338813232900002</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D109" s="7">
         <v>21.276665213499999</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E109" s="7">
         <v>41.360422550899997</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="37">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B110" s="37">
         <v>1991</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C110" s="7">
         <v>28.303151654499999</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D110" s="7">
         <v>21.133259883600001</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E110" s="7">
         <v>41.167278088899998</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="37">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B111" s="37">
         <v>1992</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C111" s="7">
         <v>28.447787672799901</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D111" s="7">
         <v>21.237622752899998</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E111" s="7">
         <v>40.733955608599999</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="37">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B112" s="37">
         <v>1993</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C112" s="7">
         <v>28.539902023900002</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D112" s="7">
         <v>21.389100855100001</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E112" s="7">
         <v>40.093134169000002</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="37">
-        <v>1994</v>
-      </c>
-      <c r="C98" s="7">
-        <v>28.833530465700001</v>
-      </c>
-      <c r="D98" s="7">
-        <v>21.673385832699999</v>
-      </c>
-      <c r="E98" s="7">
-        <v>39.983408626500001</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="37">
-        <v>1995</v>
-      </c>
-      <c r="C99" s="7">
-        <v>29.006265056099998</v>
-      </c>
-      <c r="D99" s="7">
-        <v>21.666471276599999</v>
-      </c>
-      <c r="E99" s="7">
-        <v>39.748551009899998</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="37">
-        <v>1996</v>
-      </c>
-      <c r="C100" s="7">
-        <v>28.898526654499999</v>
-      </c>
-      <c r="D100" s="7">
-        <v>21.504440627699999</v>
-      </c>
-      <c r="E100" s="7">
-        <v>39.2770851394</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="37">
-        <v>1997</v>
-      </c>
-      <c r="C101" s="7">
-        <v>28.917683059200002</v>
-      </c>
-      <c r="D101" s="7">
-        <v>21.329770536599899</v>
-      </c>
-      <c r="E101" s="7">
-        <v>38.349158094499998</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="37">
-        <v>1998</v>
-      </c>
-      <c r="C102" s="7">
-        <v>28.701604157599999</v>
-      </c>
-      <c r="D102" s="7">
-        <v>21.150636450899999</v>
-      </c>
-      <c r="E102" s="7">
-        <v>37.665881924600001</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="37">
-        <v>1999</v>
-      </c>
-      <c r="C103" s="7">
-        <v>28.140231608499999</v>
-      </c>
-      <c r="D103" s="7">
-        <v>20.793554782800001</v>
-      </c>
-      <c r="E103" s="7">
-        <v>36.709925723700003</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="37">
-        <v>2000</v>
-      </c>
-      <c r="C104" s="7">
-        <v>27.915229186800001</v>
-      </c>
-      <c r="D104" s="7">
-        <v>20.6421701728</v>
-      </c>
-      <c r="E104" s="7">
-        <v>36.016692345199999</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="37">
-        <v>2001</v>
-      </c>
-      <c r="C105" s="7">
-        <v>27.138465622399998</v>
-      </c>
-      <c r="D105" s="7">
-        <v>20.043401829</v>
-      </c>
-      <c r="E105" s="7">
-        <v>35.032161703999897</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="37">
-        <v>2002</v>
-      </c>
-      <c r="C106" s="7">
-        <v>27.275688477199999</v>
-      </c>
-      <c r="D106" s="7">
-        <v>20.1400895433</v>
-      </c>
-      <c r="E106" s="7">
-        <v>34.865266673999997</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="37">
-        <v>2003</v>
-      </c>
-      <c r="C107" s="7">
-        <v>27.2604573345</v>
-      </c>
-      <c r="D107" s="7">
-        <v>20.089997906699999</v>
-      </c>
-      <c r="E107" s="7">
-        <v>34.8595821304</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="37">
-        <v>2004</v>
-      </c>
-      <c r="C108" s="7">
-        <v>26.898510988799998</v>
-      </c>
-      <c r="D108" s="7">
-        <v>19.9464354853</v>
-      </c>
-      <c r="E108" s="7">
-        <v>34.495731603700001</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="37">
-        <v>2005</v>
-      </c>
-      <c r="C109" s="7">
-        <v>26.582299990300001</v>
-      </c>
-      <c r="D109" s="7">
-        <v>19.8050744612</v>
-      </c>
-      <c r="E109" s="7">
-        <v>34.222333133799999</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="37">
-        <v>2006</v>
-      </c>
-      <c r="C110" s="7">
-        <v>26.2751149825</v>
-      </c>
-      <c r="D110" s="7">
-        <v>19.9042216028</v>
-      </c>
-      <c r="E110" s="7">
-        <v>34.209887229099998</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="37">
-        <v>2007</v>
-      </c>
-      <c r="C111" s="7">
-        <v>25.866781</v>
-      </c>
-      <c r="D111" s="7">
-        <v>19.765902835399999</v>
-      </c>
-      <c r="E111" s="7">
-        <v>33.889520089399902</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="37">
-        <v>2008</v>
-      </c>
-      <c r="C112" s="7">
-        <v>25.691514176199998</v>
-      </c>
-      <c r="D112" s="7">
-        <v>19.735012033</v>
-      </c>
-      <c r="E112" s="7">
-        <v>34.008916111700003</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="37">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="C113" s="7">
-        <v>25.687978447999999</v>
+        <v>28.833530465700001</v>
       </c>
       <c r="D113" s="7">
-        <v>19.868306862000001</v>
+        <v>21.673385832699999</v>
       </c>
       <c r="E113" s="7">
-        <v>34.397729296400001</v>
+        <v>39.983408626500001</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="37">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="C114" s="7">
-        <v>26.099900655700001</v>
+        <v>29.006265056099998</v>
       </c>
       <c r="D114" s="7">
-        <v>20.2750490146</v>
+        <v>21.666471276599999</v>
       </c>
       <c r="E114" s="7">
-        <v>35.243636504100003</v>
+        <v>39.748551009899998</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="37">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="C115" s="7">
-        <v>25.540528392500001</v>
+        <v>28.898526654499999</v>
       </c>
       <c r="D115" s="7">
-        <v>19.888811054799898</v>
+        <v>21.504440627699999</v>
       </c>
       <c r="E115" s="7">
-        <v>34.796040185999999</v>
+        <v>39.2770851394</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="37">
-        <v>2012</v>
+        <v>1997</v>
       </c>
       <c r="C116" s="7">
-        <v>24.9825020454</v>
+        <v>28.917683059200002</v>
       </c>
       <c r="D116" s="7">
-        <v>19.615601563799999</v>
+        <v>21.329770536599899</v>
       </c>
       <c r="E116" s="7">
-        <v>34.4442311281</v>
+        <v>38.349158094499998</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="37">
-        <v>2013</v>
+        <v>1998</v>
       </c>
       <c r="C117" s="7">
-        <v>24.3360357442</v>
+        <v>28.701604157599999</v>
       </c>
       <c r="D117" s="7">
-        <v>19.4112045376</v>
+        <v>21.150636450899999</v>
       </c>
       <c r="E117" s="7">
-        <v>33.847582881599998</v>
+        <v>37.665881924600001</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="37">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="C118" s="7">
-        <v>23.757156975200001</v>
+        <v>28.140231608499999</v>
       </c>
       <c r="D118" s="7">
-        <v>19.227403319</v>
+        <v>20.793554782800001</v>
       </c>
       <c r="E118" s="7">
-        <v>33.274325525400002</v>
+        <v>36.709925723700003</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="37">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C119" s="7">
-        <v>23.399590103599898</v>
+        <v>27.915229186800001</v>
       </c>
       <c r="D119" s="7">
-        <v>19.098798935400001</v>
+        <v>20.6421701728</v>
       </c>
       <c r="E119" s="7">
-        <v>32.8570936172</v>
+        <v>36.016692345199999</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="37">
-        <v>2016</v>
+        <v>2001</v>
       </c>
       <c r="C120" s="7">
-        <v>23.112929259200001</v>
+        <v>27.138465622399998</v>
       </c>
       <c r="D120" s="7">
-        <v>18.868621451599999</v>
+        <v>20.043401829</v>
       </c>
       <c r="E120" s="7">
-        <v>32.499574923200001</v>
+        <v>35.032161703999897</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="37">
+        <v>2002</v>
+      </c>
+      <c r="C121" s="7">
+        <v>27.275688477199999</v>
+      </c>
+      <c r="D121" s="7">
+        <v>20.1400895433</v>
+      </c>
+      <c r="E121" s="7">
+        <v>34.865266673999997</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="37">
+        <v>2003</v>
+      </c>
+      <c r="C122" s="7">
+        <v>27.2604573345</v>
+      </c>
+      <c r="D122" s="7">
+        <v>20.089997906699999</v>
+      </c>
+      <c r="E122" s="7">
+        <v>34.8595821304</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="37">
+        <v>2004</v>
+      </c>
+      <c r="C123" s="7">
+        <v>26.898510988799998</v>
+      </c>
+      <c r="D123" s="7">
+        <v>19.9464354853</v>
+      </c>
+      <c r="E123" s="7">
+        <v>34.495731603700001</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="37">
+        <v>2005</v>
+      </c>
+      <c r="C124" s="7">
+        <v>26.582299990300001</v>
+      </c>
+      <c r="D124" s="7">
+        <v>19.8050744612</v>
+      </c>
+      <c r="E124" s="7">
+        <v>34.222333133799999</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="37">
+        <v>2006</v>
+      </c>
+      <c r="C125" s="7">
+        <v>26.2751149825</v>
+      </c>
+      <c r="D125" s="7">
+        <v>19.9042216028</v>
+      </c>
+      <c r="E125" s="7">
+        <v>34.209887229099998</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="37">
+        <v>2007</v>
+      </c>
+      <c r="C126" s="7">
+        <v>25.866781</v>
+      </c>
+      <c r="D126" s="7">
+        <v>19.765902835399999</v>
+      </c>
+      <c r="E126" s="7">
+        <v>33.889520089399902</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="37">
+        <v>2008</v>
+      </c>
+      <c r="C127" s="7">
+        <v>25.691514176199998</v>
+      </c>
+      <c r="D127" s="7">
+        <v>19.735012033</v>
+      </c>
+      <c r="E127" s="7">
+        <v>34.008916111700003</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="37">
+        <v>2009</v>
+      </c>
+      <c r="C128" s="7">
+        <v>25.687978447999999</v>
+      </c>
+      <c r="D128" s="7">
+        <v>19.868306862000001</v>
+      </c>
+      <c r="E128" s="7">
+        <v>34.397729296400001</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="37">
+        <v>2010</v>
+      </c>
+      <c r="C129" s="7">
+        <v>26.099900655700001</v>
+      </c>
+      <c r="D129" s="7">
+        <v>20.2750490146</v>
+      </c>
+      <c r="E129" s="7">
+        <v>35.243636504100003</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="37">
+        <v>2011</v>
+      </c>
+      <c r="C130" s="7">
+        <v>25.540528392500001</v>
+      </c>
+      <c r="D130" s="7">
+        <v>19.888811054799898</v>
+      </c>
+      <c r="E130" s="7">
+        <v>34.796040185999999</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="37">
+        <v>2012</v>
+      </c>
+      <c r="C131" s="7">
+        <v>24.9825020454</v>
+      </c>
+      <c r="D131" s="7">
+        <v>19.615601563799999</v>
+      </c>
+      <c r="E131" s="7">
+        <v>34.4442311281</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="37">
+        <v>2013</v>
+      </c>
+      <c r="C132" s="7">
+        <v>24.3360357442</v>
+      </c>
+      <c r="D132" s="7">
+        <v>19.4112045376</v>
+      </c>
+      <c r="E132" s="7">
+        <v>33.847582881599998</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="37">
+        <v>2014</v>
+      </c>
+      <c r="C133" s="7">
+        <v>23.757156975200001</v>
+      </c>
+      <c r="D133" s="7">
+        <v>19.227403319</v>
+      </c>
+      <c r="E133" s="7">
+        <v>33.274325525400002</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="37">
+        <v>2015</v>
+      </c>
+      <c r="C134" s="7">
+        <v>23.399590103599898</v>
+      </c>
+      <c r="D134" s="7">
+        <v>19.098798935400001</v>
+      </c>
+      <c r="E134" s="7">
+        <v>32.8570936172</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="37">
+        <v>2016</v>
+      </c>
+      <c r="C135" s="7">
+        <v>23.112929259200001</v>
+      </c>
+      <c r="D135" s="7">
+        <v>18.868621451599999</v>
+      </c>
+      <c r="E135" s="7">
+        <v>32.499574923200001</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="37">
         <v>2017</v>
       </c>
-      <c r="C121" s="7">
+      <c r="C136" s="7">
         <v>22.7223344244</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D136" s="7">
         <v>18.550079151999999</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E136" s="7">
         <v>31.902820736399999</v>
       </c>
     </row>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20363"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F73865-B08E-478B-AFD6-16FA1B37C8C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9570" tabRatio="835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12255" windowHeight="9495" tabRatio="835" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -27,9 +28,10 @@
     <sheet name="ART" sheetId="12" r:id="rId13"/>
     <sheet name="CD4" sheetId="13" r:id="rId14"/>
     <sheet name="MTCT" sheetId="14" r:id="rId15"/>
-    <sheet name="DALY" sheetId="1" r:id="rId16"/>
+    <sheet name="ASR_pops" sheetId="17" r:id="rId16"/>
+    <sheet name="DALY" sheetId="1" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3285" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3464" uniqueCount="1406">
   <si>
     <t>Metric</t>
   </si>
@@ -4109,9 +4111,6 @@
     <t>Eldoret, 2012-2016</t>
   </si>
   <si>
-    <t>rate</t>
-  </si>
-  <si>
     <t>cases</t>
   </si>
   <si>
@@ -4122,13 +4121,163 @@
   </si>
   <si>
     <t>Globocan 2018 from ICO report: Kenya</t>
+  </si>
+  <si>
+    <t>Age group, yrs</t>
+  </si>
+  <si>
+    <t> 15–24</t>
+  </si>
+  <si>
+    <t>78.7 (75.4 to 81.9)</t>
+  </si>
+  <si>
+    <t>88.1 (86.1 to 90.2)</t>
+  </si>
+  <si>
+    <t>87.4 (85.5 to 89.3)</t>
+  </si>
+  <si>
+    <t>93.4 (91.8 to 95.0)</t>
+  </si>
+  <si>
+    <t>88.2 (85.9 to 90.5)</t>
+  </si>
+  <si>
+    <t>93.0 (90.8 to 95.1)</t>
+  </si>
+  <si>
+    <t>88.5 (86.4 to 90.7)</t>
+  </si>
+  <si>
+    <t>90.7 (88.0 to 93.4)</t>
+  </si>
+  <si>
+    <t>90.5 (87.8 to 93.2)</t>
+  </si>
+  <si>
+    <t>92.4 (89.6 to 95.2)</t>
+  </si>
+  <si>
+    <t>Unweighted,N</t>
+  </si>
+  <si>
+    <t>Weighted % (95% CI)</t>
+  </si>
+  <si>
+    <t>Unweighted, n</t>
+  </si>
+  <si>
+    <t>Unweighted, N</t>
+  </si>
+  <si>
+    <t>Kenya with recoded age</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>LCL</t>
+  </si>
+  <si>
+    <t>UCL</t>
+  </si>
+  <si>
+    <t>RowPercent</t>
+  </si>
+  <si>
+    <t>RowStdErr</t>
+  </si>
+  <si>
+    <t>RowLowerCL</t>
+  </si>
+  <si>
+    <t>RowUpperCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not different by sex </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KenPHIA 2018 </t>
+  </si>
+  <si>
+    <t>Total 15-49</t>
+  </si>
+  <si>
+    <t>Total 15-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both </t>
+  </si>
+  <si>
+    <t>Model N 2012</t>
+  </si>
+  <si>
+    <t>ICO N 2012</t>
+  </si>
+  <si>
+    <t>ICO rate</t>
+  </si>
+  <si>
+    <t>All ages</t>
+  </si>
+  <si>
+    <t>80-84</t>
+  </si>
+  <si>
+    <t>Age distribution of the world standard population</t>
+  </si>
+  <si>
+    <t>Source: IARC: https://www-dep.iarc.fr/WHOdb/glossary.htm</t>
+  </si>
+  <si>
+    <t>GLOBOCAN 2012 standard pop, based on Segi, 1960 and Doll 1966</t>
+  </si>
+  <si>
+    <t>Pop size</t>
+  </si>
+  <si>
+    <t>Age-specific % (0-79)</t>
+  </si>
+  <si>
+    <t>Segi (“world”) standard</t>
+  </si>
+  <si>
+    <t>Scandinavian (“European”) standard</t>
+  </si>
+  <si>
+    <t>WHO World Standard*</t>
+  </si>
+  <si>
+    <t>Source: WHO: https://www.who.int/healthinfo/paper31.pdf?ua=1</t>
+  </si>
+  <si>
+    <t>WHO 85+ group includes ages 85-100+</t>
+  </si>
+  <si>
+    <t>Source: UNDESA World Population Prospect</t>
+  </si>
+  <si>
+    <t>Female pop</t>
+  </si>
+  <si>
+    <t>2015 World Pop</t>
+  </si>
+  <si>
+    <t>2012 Model Pop</t>
+  </si>
+  <si>
+    <t>Segi Standard Pop</t>
+  </si>
+  <si>
+    <t>WHO Standard Pop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="13">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -4141,6 +4290,7 @@
     <numFmt numFmtId="172" formatCode="##0.0;\-##0.0;0"/>
     <numFmt numFmtId="173" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
     <numFmt numFmtId="174" formatCode="##0.0000;\-##0.0000;0.000"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -4383,7 +4533,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4590,6 +4740,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4850,7 +5006,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4976,6 +5132,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5004,14 +5163,14 @@
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="CC" xfId="55"/>
+    <cellStyle name="CC" xfId="55" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="54" builtinId="3"/>
-    <cellStyle name="Data" xfId="46"/>
-    <cellStyle name="Data 2" xfId="48"/>
+    <cellStyle name="Data" xfId="46" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Data 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header" xfId="45"/>
+    <cellStyle name="Header" xfId="45" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -5021,26 +5180,38 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="43"/>
-    <cellStyle name="Normal 2 2" xfId="47"/>
+    <cellStyle name="Normal 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Note 2" xfId="51"/>
-    <cellStyle name="Note 3" xfId="52"/>
-    <cellStyle name="Note 4" xfId="53"/>
+    <cellStyle name="Note 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Note 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Note 4" xfId="53" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="44"/>
-    <cellStyle name="Style 1" xfId="50"/>
-    <cellStyle name="Title 2" xfId="42"/>
+    <cellStyle name="Percent 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Style 1" xfId="50" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Title 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF938B"/>
+      <color rgb="FFFFCCCC"/>
       <color rgb="FFC59EE2"/>
-      <color rgb="FFFF938B"/>
       <color rgb="FFB07AD8"/>
       <color rgb="FF79ADDD"/>
     </mruColors>
@@ -12904,7 +13075,682 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2012 Women population by age </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CC prevalence'!$I$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICO N 2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CC prevalence'!$H$93:$H$105</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>15-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70-74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75-79</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CC prevalence'!$I$93:$I$105</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2930371.1790394317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2594132.8413284374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989757.1960054927</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1568431.2994181782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1151863.4232572478</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>831409.27363979234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>668250.15542870131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>578099.83361065108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>491084.16376515932</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>372207.37351151911</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>241845.83041345538</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>167868.16997331922</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220001.29235396438</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6939-4E42-86FE-C2A459B210B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CC prevalence'!$K$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Model N 2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CC prevalence'!$H$93:$H$105</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>15-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70-74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75-79</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CC prevalence'!$K$93:$K$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3003700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2588500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2123200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1668200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1266800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>949300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>711700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>532700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>405200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>308400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>228700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>159300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6939-4E42-86FE-C2A459B210B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="183225392"/>
+        <c:axId val="214199792"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CC prevalence'!$C$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICO rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'CC prevalence'!$C$93:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.71663276482550398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84806759505553897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9909247379126498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.976373024565699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.716632764825398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.664684712877403</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.052730402127906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103.442340791738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130.32389297449501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150.45376310436501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>156.29791894852099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150.71350336410501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>133.18103583163801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-6939-4E42-86FE-C2A459B210B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="189471632"/>
+        <c:axId val="66551264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="183225392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214199792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214199792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="183225392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="66551264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="189471632"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="189471632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66551264"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13240,7 +14086,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13307,7 +14152,580 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Nyanza 2009 Population</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Population!$N$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="79ADDD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Population!$B$91:$B$107</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0 - 4 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 - 9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 - 14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 - 19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20 - 24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 - 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30 - 34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35 - 39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40 - 44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45 - 49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50 - 54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55 - 59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60 - 64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65 - 69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70 -74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75 -79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Population!$N$91:$N$107</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>8.6745741230794735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4885107807487845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7220361323612448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7630838749292401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4144157204011014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9585971035390264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.829012967985991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2674178364421702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7571757897856417</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6863654895510714</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3683254539879115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0142923260117982</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85936953110315795</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.60249386748625822</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54208279660632364</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3902099523564635</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54452643177269555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40C2-4914-AEB2-6DF708D92F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Population!$O$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Male </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Population!$B$91:$B$107</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0 - 4 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 - 9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 - 14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 - 19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20 - 24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 - 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30 - 34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35 - 39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40 - 44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45 - 49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50 - 54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55 - 59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60 - 64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65 - 69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70 -74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75 -79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Population!$O$91:$O$107</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>-8.7404420333910799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.4845421702530226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.8137918768790033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.8083003121054935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.187857852456248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.3638199786834173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.6249418717988147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.9610264076119419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.4309596816733428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.3796433431795294</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.120507776363654</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.88455918383320375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.7375184903258688</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.46210427119867287</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.42282237656932359</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.28651162995793827</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.36257666446004577</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-40C2-4914-AEB2-6DF708D92F3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="100"/>
+        <c:axId val="726613896"/>
+        <c:axId val="726620456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="726613896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726620456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="726620456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0;[Black]0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726613896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14160,7 +15578,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14195,8 +15613,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Nyanza 2009 Population</a:t>
+              <a:t>Standard populations</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -14232,156 +15655,153 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Population!$N$90</c:f>
+              <c:f>ASR_pops!$I$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Female</c:v>
+                  <c:v>2012 Model Pop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="79ADDD"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Population!$B$91:$B$107</c:f>
+              <c:f>ASR_pops!$B$50:$B$65</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0 - 4 </c:v>
+                  <c:v>0-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5 - 9</c:v>
+                  <c:v>5-9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10 - 14</c:v>
+                  <c:v>10-14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15 - 19</c:v>
+                  <c:v>15-19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20 - 24</c:v>
+                  <c:v>20-24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25 - 29</c:v>
+                  <c:v>25-29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30 - 34</c:v>
+                  <c:v>30-34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35 - 39</c:v>
+                  <c:v>35-39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40 - 44</c:v>
+                  <c:v>40-44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45 - 49</c:v>
+                  <c:v>45-49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50 - 54</c:v>
+                  <c:v>50-54</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55 - 59</c:v>
+                  <c:v>55-59</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60 - 64</c:v>
+                  <c:v>60-64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65 - 69</c:v>
+                  <c:v>65-69</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70 -74</c:v>
+                  <c:v>70-74</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75 -79</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80+</c:v>
+                  <c:v>75-79</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Population!$N$91:$N$107</c:f>
+              <c:f>ASR_pops!$I$50:$I$65</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>8.6745741230794735</c:v>
+                  <c:v>0.16406160234237874</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4885107807487845</c:v>
+                  <c:v>0.14671167583887032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7220361323612448</c:v>
+                  <c:v>0.13272555102558312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7630838749292401</c:v>
+                  <c:v>0.11900884731351503</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4144157204011014</c:v>
+                  <c:v>0.10255831183907636</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9585971035390264</c:v>
+                  <c:v>8.4122776780655564E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.829012967985991</c:v>
+                  <c:v>6.6095335449081388E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2674178364421702</c:v>
+                  <c:v>5.0191566327116841E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7571757897856417</c:v>
+                  <c:v>3.7611978145194201E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6863654895510714</c:v>
+                  <c:v>2.8198087902596349E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3683254539879115</c:v>
+                  <c:v>2.110597362050453E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0142923260117982</c:v>
+                  <c:v>1.6054327972645836E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.85936953110315795</c:v>
+                  <c:v>1.2219039355291153E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.60249386748625822</c:v>
+                  <c:v>9.0612655660022266E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.54208279660632364</c:v>
+                  <c:v>6.3115855035599244E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3902099523564635</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.54452643177269555</c:v>
+                  <c:v>3.9620750179283895E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-40C2-4914-AEB2-6DF708D92F3C}"/>
+              <c16:uniqueId val="{00000000-C18A-40B8-A8C2-7FFE3B7CE219}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14390,150 +15810,383 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Population!$O$90</c:f>
+              <c:f>ASR_pops!$D$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Male </c:v>
+                  <c:v>2015 World Pop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Population!$B$91:$B$107</c:f>
+              <c:f>ASR_pops!$B$50:$B$65</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0 - 4 </c:v>
+                  <c:v>0-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5 - 9</c:v>
+                  <c:v>5-9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10 - 14</c:v>
+                  <c:v>10-14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15 - 19</c:v>
+                  <c:v>15-19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20 - 24</c:v>
+                  <c:v>20-24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25 - 29</c:v>
+                  <c:v>25-29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30 - 34</c:v>
+                  <c:v>30-34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35 - 39</c:v>
+                  <c:v>35-39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40 - 44</c:v>
+                  <c:v>40-44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45 - 49</c:v>
+                  <c:v>45-49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50 - 54</c:v>
+                  <c:v>50-54</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55 - 59</c:v>
+                  <c:v>55-59</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60 - 64</c:v>
+                  <c:v>60-64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65 - 69</c:v>
+                  <c:v>65-69</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70 -74</c:v>
+                  <c:v>70-74</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75 -79</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80+</c:v>
+                  <c:v>75-79</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Population!$O$91:$O$107</c:f>
+              <c:f>ASR_pops!$D$50:$D$65</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-8.7404420333910799</c:v>
+                  <c:v>9.0557960774821922E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.4845421702530226</c:v>
+                  <c:v>8.6913354499054463E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.8137918768790033</c:v>
+                  <c:v>8.295730478674708E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.8083003121054935</c:v>
+                  <c:v>8.1202373338245634E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.187857852456248</c:v>
+                  <c:v>8.0950407166888894E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.3638199786834173</c:v>
+                  <c:v>8.3131684416392682E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.6249418717988147</c:v>
+                  <c:v>7.5514801062826986E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.9610264076119419</c:v>
+                  <c:v>6.8948041932416826E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.4309596816733428</c:v>
+                  <c:v>6.7381802909517091E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.3796433431795294</c:v>
+                  <c:v>6.3499259101506E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.120507776363654</c:v>
+                  <c:v>5.6155852145702664E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.88455918383320375</c:v>
+                  <c:v>4.8099072226790975E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.7375184903258688</c:v>
+                  <c:v>4.2040118122827298E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.46210427119867287</c:v>
+                  <c:v>3.1627755574000257E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.42282237656932359</c:v>
+                  <c:v>2.3010187100979806E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.28651162995793827</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.36257666446004577</c:v>
+                  <c:v>1.8010024841281516E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-40C2-4914-AEB2-6DF708D92F3C}"/>
+              <c16:uniqueId val="{00000001-C18A-40B8-A8C2-7FFE3B7CE219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ASR_pops!$J$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Segi Standard Pop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ASR_pops!$B$50:$B$65</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20-24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70-74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75-79</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ASR_pops!$J$50:$J$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C18A-40B8-A8C2-7FFE3B7CE219}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ASR_pops!$K$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WHO Standard Pop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ASR_pops!$K$50:$K$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.8599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6899999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4700000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2200000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9299999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1500000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.59E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7200000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.52E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C18A-40B8-A8C2-7FFE3B7CE219}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14545,22 +16198,21 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:overlap val="100"/>
-        <c:axId val="726613896"/>
-        <c:axId val="726620456"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="221338880"/>
+        <c:axId val="177753712"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="726613896"/>
+        <c:axId val="221338880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -14594,7 +16246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726620456"/>
+        <c:crossAx val="177753712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14602,12 +16254,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="726620456"/>
+        <c:axId val="177753712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -14622,7 +16274,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0;[Black]0" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14653,7 +16305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="726613896"/>
+        <c:crossAx val="221338880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14698,6 +16350,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -22255,6 +23914,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -27180,7 +28919,7 @@
 </file>
 
 <file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -27288,11 +29027,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -27303,11 +29037,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -27339,9 +29068,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -27397,22 +29123,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -27517,8 +29244,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -27650,19 +29377,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -28361,6 +30089,1038 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -32634,16 +35394,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>180046</xdr:rowOff>
+      <xdr:rowOff>56221</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -32673,7 +35433,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6353175" y="2724151"/>
+          <a:off x="9020175" y="2600326"/>
           <a:ext cx="5076825" cy="2980395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -33058,6 +35818,47 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F075B0-EBDF-4F16-A618-B70A986AB982}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -33826,16 +36627,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -33850,7 +36651,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8067675" y="5143500"/>
+          <a:off x="8229600" y="5743575"/>
           <a:ext cx="4857750" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -33961,6 +36762,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>322769</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B07745-F71B-456F-97EA-42FEC5E34CDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13906500" y="4276725"/>
+          <a:ext cx="8647619" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -34355,8 +37200,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -34406,6 +37251,42 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3781F9-211F-4C9D-B169-E39A7708D2DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -35331,7 +38212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y231"/>
   <sheetViews>
     <sheetView topLeftCell="A156" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -43328,11 +46209,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD213"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AD231"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="Q70" sqref="Q70"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47877,7 +50758,7 @@
       <c r="P208" s="37"/>
       <c r="Q208" s="37"/>
     </row>
-    <row r="209" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B209" s="37">
         <v>2015</v>
       </c>
@@ -47916,7 +50797,7 @@
       <c r="P209" s="37"/>
       <c r="Q209" s="37"/>
     </row>
-    <row r="210" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B210" s="37">
         <v>2016</v>
       </c>
@@ -47955,7 +50836,7 @@
       <c r="P210" s="37"/>
       <c r="Q210" s="37"/>
     </row>
-    <row r="211" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B211" s="37">
         <v>2017</v>
       </c>
@@ -47994,7 +50875,7 @@
       <c r="P211" s="37"/>
       <c r="Q211" s="37"/>
     </row>
-    <row r="212" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B212" s="37">
         <v>2018</v>
       </c>
@@ -48033,10 +50914,301 @@
       <c r="P212" s="37"/>
       <c r="Q212" s="37"/>
     </row>
-    <row r="213" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K213" s="37" t="str">
         <f>LEFT(L213,4)</f>
         <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>222</v>
+      </c>
+      <c r="F215" t="s">
+        <v>223</v>
+      </c>
+      <c r="I215" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>246</v>
+      </c>
+      <c r="C216" t="s">
+        <v>107</v>
+      </c>
+      <c r="D216" t="s">
+        <v>575</v>
+      </c>
+      <c r="E216" t="s">
+        <v>576</v>
+      </c>
+      <c r="F216" t="s">
+        <v>429</v>
+      </c>
+      <c r="G216" t="s">
+        <v>575</v>
+      </c>
+      <c r="H216" t="s">
+        <v>576</v>
+      </c>
+      <c r="I216" t="s">
+        <v>107</v>
+      </c>
+      <c r="J216" t="s">
+        <v>575</v>
+      </c>
+      <c r="K216" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B217" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="C217">
+        <v>0.2</v>
+      </c>
+      <c r="F217">
+        <v>0.6</v>
+      </c>
+      <c r="I217">
+        <v>0.4</v>
+      </c>
+      <c r="J217">
+        <v>0.1</v>
+      </c>
+      <c r="K217">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B218" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="C218">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F218">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B219" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C219">
+        <v>0.8</v>
+      </c>
+      <c r="F219">
+        <v>1.3</v>
+      </c>
+      <c r="I219">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J219">
+        <v>0.5</v>
+      </c>
+      <c r="K219">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B220" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C220">
+        <v>1.2</v>
+      </c>
+      <c r="F220">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B221" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="C221">
+        <v>3.4</v>
+      </c>
+      <c r="F221">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B222" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C222">
+        <v>6</v>
+      </c>
+      <c r="F222">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B223" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C223">
+        <v>9.5</v>
+      </c>
+      <c r="F223">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B224" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="C224">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F224">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B225" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="C225">
+        <v>11.9</v>
+      </c>
+      <c r="D225">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E225">
+        <v>14.1</v>
+      </c>
+      <c r="F225">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B226" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="C226">
+        <v>10.6</v>
+      </c>
+      <c r="F226">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G226">
+        <v>5.8</v>
+      </c>
+      <c r="H226">
+        <v>10.7</v>
+      </c>
+      <c r="I226">
+        <v>9.4</v>
+      </c>
+      <c r="J226">
+        <v>7.8</v>
+      </c>
+      <c r="K226">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>392</v>
+      </c>
+      <c r="C227">
+        <v>11.7</v>
+      </c>
+      <c r="D227">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E227">
+        <v>14.5</v>
+      </c>
+      <c r="F227">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>535</v>
+      </c>
+      <c r="C228">
+        <v>9</v>
+      </c>
+      <c r="F228">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>536</v>
+      </c>
+      <c r="C229">
+        <v>6.2</v>
+      </c>
+      <c r="F229">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C230">
+        <v>6.2</v>
+      </c>
+      <c r="D230">
+        <v>5.7</v>
+      </c>
+      <c r="E230">
+        <v>6.8</v>
+      </c>
+      <c r="F230">
+        <v>2.7</v>
+      </c>
+      <c r="G230">
+        <v>2.4</v>
+      </c>
+      <c r="H230">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C231">
+        <v>6.6</v>
+      </c>
+      <c r="D231">
+        <v>6</v>
+      </c>
+      <c r="E231">
+        <v>7.1</v>
+      </c>
+      <c r="F231">
+        <v>3.1</v>
+      </c>
+      <c r="G231">
+        <v>2.7</v>
+      </c>
+      <c r="H231">
+        <v>3.5</v>
+      </c>
+      <c r="I231">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J231">
+        <v>4.5</v>
+      </c>
+      <c r="K231">
+        <v>5.3</v>
       </c>
     </row>
   </sheetData>
@@ -48047,7 +51219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -49939,7 +53111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50051,11 +53223,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Z194"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50092,6 +53264,9 @@
       <c r="C3" s="12">
         <v>0.40600000000000003</v>
       </c>
+      <c r="D3" s="37" t="s">
+        <v>1380</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="K3" s="4"/>
@@ -51962,7 +55137,7 @@
     <mergeCell ref="C34:E34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A155" r:id="rId1"/>
+    <hyperlink ref="A155" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -51971,7 +55146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52037,7 +55212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A2:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52921,7 +56096,1106 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6160CC-1592-4EBE-8D2B-9E29D7D5A7E6}">
+  <dimension ref="A1:K65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50:K65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C5">
+        <v>12000</v>
+      </c>
+      <c r="D5" s="41">
+        <f>C5/SUM(C$5:C$20)</f>
+        <v>0.12121212121212122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="41">
+        <f>C6/SUM(C$5:C$20)</f>
+        <v>0.10101010101010101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7">
+        <v>9000</v>
+      </c>
+      <c r="D7" s="41">
+        <f>C7/SUM(C$5:C$20)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8">
+        <v>9000</v>
+      </c>
+      <c r="D8" s="41">
+        <f>C8/SUM(C$5:C$20)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9">
+        <v>8000</v>
+      </c>
+      <c r="D9" s="41">
+        <f>C9/SUM(C$5:C$20)</f>
+        <v>8.0808080808080815E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10">
+        <v>8000</v>
+      </c>
+      <c r="D10" s="41">
+        <f>C10/SUM(C$5:C$20)</f>
+        <v>8.0808080808080815E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11">
+        <v>6000</v>
+      </c>
+      <c r="D11" s="41">
+        <f>C11/SUM(C$5:C$20)</f>
+        <v>6.0606060606060608E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12">
+        <v>6000</v>
+      </c>
+      <c r="D12" s="41">
+        <f>C12/SUM(C$5:C$20)</f>
+        <v>6.0606060606060608E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13">
+        <v>6000</v>
+      </c>
+      <c r="D13" s="41">
+        <f>C13/SUM(C$5:C$20)</f>
+        <v>6.0606060606060608E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14">
+        <v>6000</v>
+      </c>
+      <c r="D14" s="41">
+        <f>C14/SUM(C$5:C$20)</f>
+        <v>6.0606060606060608E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C15">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="41">
+        <f>C15/SUM(C$5:C$20)</f>
+        <v>5.0505050505050504E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>535</v>
+      </c>
+      <c r="C16">
+        <v>4000</v>
+      </c>
+      <c r="D16" s="41">
+        <f>C16/SUM(C$5:C$20)</f>
+        <v>4.0404040404040407E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>536</v>
+      </c>
+      <c r="C17">
+        <v>4000</v>
+      </c>
+      <c r="D17" s="41">
+        <f>C17/SUM(C$5:C$20)</f>
+        <v>4.0404040404040407E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>970</v>
+      </c>
+      <c r="C18">
+        <v>3000</v>
+      </c>
+      <c r="D18" s="41">
+        <f>C18/SUM(C$5:C$20)</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>971</v>
+      </c>
+      <c r="C19">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="41">
+        <f>C19/SUM(C$5:C$20)</f>
+        <v>2.0202020202020204E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>972</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="41">
+        <f>C20/SUM(C$5:C$20)</f>
+        <v>1.0101010101010102E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21" s="95"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>397</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22" s="95"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23">
+        <v>100000</v>
+      </c>
+      <c r="D23" s="41">
+        <f>SUM(D5:D20)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>494</v>
+      </c>
+      <c r="C28" s="8">
+        <v>12</v>
+      </c>
+      <c r="D28" s="8">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="C29" s="8">
+        <v>10</v>
+      </c>
+      <c r="D29" s="8">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C30" s="8">
+        <v>9</v>
+      </c>
+      <c r="D30" s="8">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="8">
+        <v>9</v>
+      </c>
+      <c r="D31" s="8">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="8">
+        <v>8</v>
+      </c>
+      <c r="D32" s="8">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="8">
+        <v>8</v>
+      </c>
+      <c r="D33" s="8">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="8">
+        <v>6</v>
+      </c>
+      <c r="D34" s="8">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="8">
+        <v>6</v>
+      </c>
+      <c r="D35" s="8">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="8">
+        <v>6</v>
+      </c>
+      <c r="D36" s="8">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="8">
+        <v>6</v>
+      </c>
+      <c r="D37" s="8">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>392</v>
+      </c>
+      <c r="C38" s="8">
+        <v>5</v>
+      </c>
+      <c r="D38" s="8">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>535</v>
+      </c>
+      <c r="C39" s="8">
+        <v>4</v>
+      </c>
+      <c r="D39" s="8">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>536</v>
+      </c>
+      <c r="C40" s="8">
+        <v>4</v>
+      </c>
+      <c r="D40" s="8">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>970</v>
+      </c>
+      <c r="C41" s="8">
+        <v>3</v>
+      </c>
+      <c r="D41" s="8">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>971</v>
+      </c>
+      <c r="C42" s="8">
+        <v>2</v>
+      </c>
+      <c r="D42" s="8">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>972</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>397</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0.63</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="8">
+        <v>100</v>
+      </c>
+      <c r="D46" s="8">
+        <v>100</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J49" s="89" t="s">
+        <v>1404</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="89" t="s">
+        <v>494</v>
+      </c>
+      <c r="C50" s="49">
+        <v>324426.47899999999</v>
+      </c>
+      <c r="D50" s="41">
+        <f>C50/SUM(C$50:C$65)</f>
+        <v>9.0557960774821922E-2</v>
+      </c>
+      <c r="G50">
+        <v>4.1407999999999996</v>
+      </c>
+      <c r="H50">
+        <f>G50*1000000</f>
+        <v>4140799.9999999995</v>
+      </c>
+      <c r="I50">
+        <v>0.16406160234237874</v>
+      </c>
+      <c r="J50" s="6">
+        <f>C28/100</f>
+        <v>0.12</v>
+      </c>
+      <c r="K50">
+        <f>E28/100</f>
+        <v>8.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="C51" s="49">
+        <v>311369.57299999997</v>
+      </c>
+      <c r="D51" s="41">
+        <f t="shared" ref="D51:D65" si="0">C51/SUM(C$50:C$65)</f>
+        <v>8.6913354499054463E-2</v>
+      </c>
+      <c r="G51">
+        <v>3.7029000000000001</v>
+      </c>
+      <c r="H51" s="89">
+        <f t="shared" ref="H51:H65" si="1">G51*1000000</f>
+        <v>3702900</v>
+      </c>
+      <c r="I51" s="89">
+        <v>0.14671167583887032</v>
+      </c>
+      <c r="J51" s="6">
+        <f t="shared" ref="J51:J65" si="2">C29/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="K51" s="89">
+        <f t="shared" ref="K51:K65" si="3">E29/100</f>
+        <v>8.6899999999999991E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C52" s="49">
+        <v>297196.91200000001</v>
+      </c>
+      <c r="D52" s="41">
+        <f t="shared" si="0"/>
+        <v>8.295730478674708E-2</v>
+      </c>
+      <c r="G52">
+        <v>3.3498999999999999</v>
+      </c>
+      <c r="H52" s="89">
+        <f t="shared" si="1"/>
+        <v>3349900</v>
+      </c>
+      <c r="I52" s="89">
+        <v>0.13272555102558312</v>
+      </c>
+      <c r="J52" s="6">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="K52" s="89">
+        <f t="shared" si="3"/>
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="49">
+        <v>290909.82</v>
+      </c>
+      <c r="D53" s="41">
+        <f t="shared" si="0"/>
+        <v>8.1202373338245634E-2</v>
+      </c>
+      <c r="F53" s="89">
+        <v>3003700</v>
+      </c>
+      <c r="G53">
+        <v>3.0036999999999998</v>
+      </c>
+      <c r="H53" s="89">
+        <f t="shared" si="1"/>
+        <v>3003700</v>
+      </c>
+      <c r="I53" s="89">
+        <v>0.11900884731351503</v>
+      </c>
+      <c r="J53" s="6">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="K53" s="89">
+        <f t="shared" si="3"/>
+        <v>8.4700000000000011E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="49">
+        <v>290007.14399999997</v>
+      </c>
+      <c r="D54" s="41">
+        <f t="shared" si="0"/>
+        <v>8.0950407166888894E-2</v>
+      </c>
+      <c r="F54" s="89">
+        <v>2588500</v>
+      </c>
+      <c r="G54">
+        <v>2.5884999999999998</v>
+      </c>
+      <c r="H54" s="89">
+        <f t="shared" si="1"/>
+        <v>2588500</v>
+      </c>
+      <c r="I54" s="89">
+        <v>0.10255831183907636</v>
+      </c>
+      <c r="J54" s="6">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="K54" s="89">
+        <f t="shared" si="3"/>
+        <v>8.2200000000000009E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="49">
+        <v>297821.63199999998</v>
+      </c>
+      <c r="D55" s="41">
+        <f t="shared" si="0"/>
+        <v>8.3131684416392682E-2</v>
+      </c>
+      <c r="F55" s="89">
+        <v>2123200</v>
+      </c>
+      <c r="G55">
+        <v>2.1232000000000002</v>
+      </c>
+      <c r="H55" s="89">
+        <f t="shared" si="1"/>
+        <v>2123200</v>
+      </c>
+      <c r="I55" s="89">
+        <v>8.4122776780655564E-2</v>
+      </c>
+      <c r="J55" s="6">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="K55" s="89">
+        <f t="shared" si="3"/>
+        <v>7.9299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="49">
+        <v>270533.93</v>
+      </c>
+      <c r="D56" s="41">
+        <f t="shared" si="0"/>
+        <v>7.5514801062826986E-2</v>
+      </c>
+      <c r="F56" s="89">
+        <v>1668200</v>
+      </c>
+      <c r="G56">
+        <v>1.6681999999999999</v>
+      </c>
+      <c r="H56" s="89">
+        <f t="shared" si="1"/>
+        <v>1668200</v>
+      </c>
+      <c r="I56" s="89">
+        <v>6.6095335449081388E-2</v>
+      </c>
+      <c r="J56" s="6">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="K56" s="89">
+        <f t="shared" si="3"/>
+        <v>7.6100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="49">
+        <v>247008.32800000001</v>
+      </c>
+      <c r="D57" s="41">
+        <f t="shared" si="0"/>
+        <v>6.8948041932416826E-2</v>
+      </c>
+      <c r="F57" s="89">
+        <v>1266800</v>
+      </c>
+      <c r="G57">
+        <v>1.2667999999999999</v>
+      </c>
+      <c r="H57" s="89">
+        <f t="shared" si="1"/>
+        <v>1266800</v>
+      </c>
+      <c r="I57" s="89">
+        <v>5.0191566327116841E-2</v>
+      </c>
+      <c r="J57" s="6">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="K57" s="89">
+        <f t="shared" si="3"/>
+        <v>7.1500000000000008E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="49">
+        <v>241397.23199999999</v>
+      </c>
+      <c r="D58" s="41">
+        <f t="shared" si="0"/>
+        <v>6.7381802909517091E-2</v>
+      </c>
+      <c r="F58" s="89">
+        <v>949300</v>
+      </c>
+      <c r="G58">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="H58" s="89">
+        <f t="shared" si="1"/>
+        <v>949300</v>
+      </c>
+      <c r="I58" s="89">
+        <v>3.7611978145194201E-2</v>
+      </c>
+      <c r="J58" s="6">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="K58" s="89">
+        <f t="shared" si="3"/>
+        <v>6.59E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="49">
+        <v>227487.908</v>
+      </c>
+      <c r="D59" s="41">
+        <f t="shared" si="0"/>
+        <v>6.3499259101506E-2</v>
+      </c>
+      <c r="F59" s="89">
+        <v>711700</v>
+      </c>
+      <c r="G59">
+        <v>0.7117</v>
+      </c>
+      <c r="H59" s="89">
+        <f t="shared" si="1"/>
+        <v>711700</v>
+      </c>
+      <c r="I59" s="89">
+        <v>2.8198087902596349E-2</v>
+      </c>
+      <c r="J59" s="6">
+        <f t="shared" si="2"/>
+        <v>0.06</v>
+      </c>
+      <c r="K59" s="89">
+        <f t="shared" si="3"/>
+        <v>6.0400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="C60" s="49">
+        <v>201179.943</v>
+      </c>
+      <c r="D60" s="41">
+        <f t="shared" si="0"/>
+        <v>5.6155852145702664E-2</v>
+      </c>
+      <c r="F60" s="89">
+        <v>532700</v>
+      </c>
+      <c r="G60">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="H60" s="89">
+        <f t="shared" si="1"/>
+        <v>532700</v>
+      </c>
+      <c r="I60" s="89">
+        <v>2.110597362050453E-2</v>
+      </c>
+      <c r="J60" s="6">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="K60" s="89">
+        <f t="shared" si="3"/>
+        <v>5.3699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="89" t="s">
+        <v>535</v>
+      </c>
+      <c r="C61" s="49">
+        <v>172316.299</v>
+      </c>
+      <c r="D61" s="41">
+        <f t="shared" si="0"/>
+        <v>4.8099072226790975E-2</v>
+      </c>
+      <c r="F61" s="89">
+        <v>405200</v>
+      </c>
+      <c r="G61">
+        <v>0.4052</v>
+      </c>
+      <c r="H61" s="89">
+        <f t="shared" si="1"/>
+        <v>405200</v>
+      </c>
+      <c r="I61" s="89">
+        <v>1.6054327972645836E-2</v>
+      </c>
+      <c r="J61" s="6">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="K61" s="89">
+        <f t="shared" si="3"/>
+        <v>4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="89" t="s">
+        <v>536</v>
+      </c>
+      <c r="C62" s="49">
+        <v>150609.92300000001</v>
+      </c>
+      <c r="D62" s="41">
+        <f t="shared" si="0"/>
+        <v>4.2040118122827298E-2</v>
+      </c>
+      <c r="F62" s="89">
+        <v>308400</v>
+      </c>
+      <c r="G62">
+        <v>0.30840000000000001</v>
+      </c>
+      <c r="H62" s="89">
+        <f t="shared" si="1"/>
+        <v>308400</v>
+      </c>
+      <c r="I62" s="89">
+        <v>1.2219039355291153E-2</v>
+      </c>
+      <c r="J62" s="6">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="K62" s="89">
+        <f t="shared" si="3"/>
+        <v>3.7200000000000004E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="89" t="s">
+        <v>970</v>
+      </c>
+      <c r="C63" s="49">
+        <v>113307.337</v>
+      </c>
+      <c r="D63" s="41">
+        <f t="shared" si="0"/>
+        <v>3.1627755574000257E-2</v>
+      </c>
+      <c r="F63" s="89">
+        <v>228700</v>
+      </c>
+      <c r="G63">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="H63" s="89">
+        <f t="shared" si="1"/>
+        <v>228700</v>
+      </c>
+      <c r="I63" s="89">
+        <v>9.0612655660022266E-3</v>
+      </c>
+      <c r="J63" s="6">
+        <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+      <c r="K63" s="89">
+        <f t="shared" si="3"/>
+        <v>2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="89" t="s">
+        <v>971</v>
+      </c>
+      <c r="C64" s="49">
+        <v>82434.652000000002</v>
+      </c>
+      <c r="D64" s="41">
+        <f t="shared" si="0"/>
+        <v>2.3010187100979806E-2</v>
+      </c>
+      <c r="F64" s="89">
+        <v>159300</v>
+      </c>
+      <c r="G64">
+        <v>0.1593</v>
+      </c>
+      <c r="H64" s="89">
+        <f t="shared" si="1"/>
+        <v>159300</v>
+      </c>
+      <c r="I64" s="89">
+        <v>6.3115855035599244E-3</v>
+      </c>
+      <c r="J64" s="6">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="K64" s="89">
+        <f t="shared" si="3"/>
+        <v>2.2099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="89" t="s">
+        <v>972</v>
+      </c>
+      <c r="C65" s="49">
+        <v>64521.428</v>
+      </c>
+      <c r="D65" s="41">
+        <f t="shared" si="0"/>
+        <v>1.8010024841281516E-2</v>
+      </c>
+      <c r="F65" s="89">
+        <v>100000</v>
+      </c>
+      <c r="G65">
+        <v>0.1</v>
+      </c>
+      <c r="H65" s="89">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="I65" s="89">
+        <v>3.9620750179283895E-3</v>
+      </c>
+      <c r="J65" s="6">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="K65" s="89">
+        <f t="shared" si="3"/>
+        <v>1.52E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53493,11 +57767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="I267" sqref="I267"/>
+    <sheetView topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59311,7 +63585,7 @@
         <v>139</v>
       </c>
       <c r="C284" s="87">
-        <v>0.87036999999999998</v>
+        <v>0.90037</v>
       </c>
       <c r="D284" s="90">
         <v>2.33</v>
@@ -59574,11 +63848,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="H30" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40:Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59912,6 +64186,9 @@
       <c r="G14" s="37" t="s">
         <v>1292</v>
       </c>
+      <c r="N14" s="37" t="s">
+        <v>1372</v>
+      </c>
     </row>
     <row r="15" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
@@ -59941,6 +64218,21 @@
       <c r="L15" s="37" t="s">
         <v>1294</v>
       </c>
+      <c r="N15" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="P15" s="37" t="s">
+        <v>1373</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>1374</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>1375</v>
+      </c>
     </row>
     <row r="16" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
@@ -59970,8 +64262,23 @@
       <c r="L16" s="7">
         <v>37.1738</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" s="37">
+        <v>75.773700000000005</v>
+      </c>
+      <c r="P16" s="37">
+        <v>3.0091000000000001</v>
+      </c>
+      <c r="Q16" s="37">
+        <v>69.857200000000006</v>
+      </c>
+      <c r="R16" s="37">
+        <v>81.690200000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
         <v>138</v>
       </c>
@@ -59999,8 +64306,23 @@
       <c r="L17" s="7">
         <v>46.828499999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="O17" s="37">
+        <v>88.591200000000001</v>
+      </c>
+      <c r="P17" s="37">
+        <v>1.8574999999999999</v>
+      </c>
+      <c r="Q17" s="37">
+        <v>84.938900000000004</v>
+      </c>
+      <c r="R17" s="37">
+        <v>92.243499999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
         <v>139</v>
       </c>
@@ -60028,8 +64350,23 @@
       <c r="L18" s="7">
         <v>39.555999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="O18" s="37">
+        <v>85.132099999999994</v>
+      </c>
+      <c r="P18" s="37">
+        <v>2.5583</v>
+      </c>
+      <c r="Q18" s="37">
+        <v>80.101799999999997</v>
+      </c>
+      <c r="R18" s="37">
+        <v>90.162400000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
         <v>140</v>
       </c>
@@ -60058,8 +64395,23 @@
         <f>H19-20</f>
         <v>35.9163</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" s="37">
+        <v>89.497699999999995</v>
+      </c>
+      <c r="P19" s="37">
+        <v>1.8373999999999999</v>
+      </c>
+      <c r="Q19" s="37">
+        <v>85.885099999999994</v>
+      </c>
+      <c r="R19" s="37">
+        <v>93.110399999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
         <v>141</v>
       </c>
@@ -60088,8 +64440,23 @@
         <f>H20-20</f>
         <v>40.321199999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" s="37">
+        <v>91.931600000000003</v>
+      </c>
+      <c r="P20" s="37">
+        <v>1.6116999999999999</v>
+      </c>
+      <c r="Q20" s="37">
+        <v>88.762600000000006</v>
+      </c>
+      <c r="R20" s="37">
+        <v>95.1006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="s">
         <v>142</v>
       </c>
@@ -60118,8 +64485,23 @@
         <f>H21-20</f>
         <v>19.386299999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="37" t="s">
+        <v>1293</v>
+      </c>
+      <c r="O21" s="37">
+        <v>89.096400000000003</v>
+      </c>
+      <c r="P21" s="37">
+        <v>2.7677</v>
+      </c>
+      <c r="Q21" s="37">
+        <v>83.654399999999995</v>
+      </c>
+      <c r="R21" s="37">
+        <v>94.538399999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="s">
         <v>143</v>
       </c>
@@ -60133,13 +64515,13 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>417</v>
       </c>
@@ -60152,8 +64534,14 @@
       <c r="J26">
         <v>2012</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>2007</v>
+      </c>
+      <c r="Q26">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>2007</v>
       </c>
@@ -60181,8 +64569,29 @@
       <c r="L27" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="89" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N27" s="89" t="s">
+        <v>1370</v>
+      </c>
+      <c r="O27" s="89" t="s">
+        <v>1368</v>
+      </c>
+      <c r="P27" s="89" t="s">
+        <v>1369</v>
+      </c>
+      <c r="Q27" s="89" t="s">
+        <v>1370</v>
+      </c>
+      <c r="R27" s="89" t="s">
+        <v>1371</v>
+      </c>
+      <c r="S27" s="89" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" s="81" t="s">
         <v>158</v>
       </c>
@@ -60213,8 +64622,29 @@
       <c r="L28" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="89" t="s">
+        <v>1357</v>
+      </c>
+      <c r="N28" s="89">
+        <v>2008</v>
+      </c>
+      <c r="O28" s="89">
+        <v>2513</v>
+      </c>
+      <c r="P28" s="89" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Q28" s="89">
+        <v>1690</v>
+      </c>
+      <c r="R28" s="89">
+        <v>1911</v>
+      </c>
+      <c r="S28" s="89" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -60245,8 +64675,29 @@
       <c r="L29" s="37" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="89" t="s">
+        <v>1256</v>
+      </c>
+      <c r="N29" s="89">
+        <v>1654</v>
+      </c>
+      <c r="O29" s="89">
+        <v>1881</v>
+      </c>
+      <c r="P29" s="89" t="s">
+        <v>1360</v>
+      </c>
+      <c r="Q29" s="89">
+        <v>1435</v>
+      </c>
+      <c r="R29" s="89">
+        <v>1538</v>
+      </c>
+      <c r="S29" s="89" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F30" s="37" t="s">
         <v>1257</v>
       </c>
@@ -60268,8 +64719,29 @@
       <c r="L30" s="37" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="89" t="s">
+        <v>1257</v>
+      </c>
+      <c r="N30" s="89">
+        <v>1249</v>
+      </c>
+      <c r="O30" s="89">
+        <v>1410</v>
+      </c>
+      <c r="P30" s="89" t="s">
+        <v>1362</v>
+      </c>
+      <c r="Q30" s="89">
+        <v>994</v>
+      </c>
+      <c r="R30" s="89">
+        <v>1070</v>
+      </c>
+      <c r="S30" s="89" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>418</v>
       </c>
@@ -60294,8 +64766,29 @@
       <c r="L31" s="37" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="89" t="s">
+        <v>1258</v>
+      </c>
+      <c r="N31" s="89">
+        <v>953</v>
+      </c>
+      <c r="O31" s="89">
+        <v>1078</v>
+      </c>
+      <c r="P31" s="89" t="s">
+        <v>1364</v>
+      </c>
+      <c r="Q31" s="89">
+        <v>657</v>
+      </c>
+      <c r="R31" s="89">
+        <v>725</v>
+      </c>
+      <c r="S31" s="89" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>2007</v>
       </c>
@@ -60323,8 +64816,29 @@
       <c r="L32" s="37" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M32" s="89" t="s">
+        <v>1259</v>
+      </c>
+      <c r="N32" s="89">
+        <v>722</v>
+      </c>
+      <c r="O32" s="89">
+        <v>796</v>
+      </c>
+      <c r="P32" s="89" t="s">
+        <v>1366</v>
+      </c>
+      <c r="Q32" s="89">
+        <v>453</v>
+      </c>
+      <c r="R32" s="89">
+        <v>494</v>
+      </c>
+      <c r="S32" s="89" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>419</v>
       </c>
@@ -60335,7 +64849,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>420</v>
       </c>
@@ -60346,7 +64860,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>144</v>
       </c>
@@ -60357,12 +64871,12 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>230</v>
       </c>
@@ -60375,8 +64889,11 @@
       <c r="J38" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>80</v>
       </c>
@@ -60407,8 +64924,23 @@
       <c r="M39" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>1376</v>
+      </c>
+      <c r="R39" t="s">
+        <v>1377</v>
+      </c>
+      <c r="S39" t="s">
+        <v>1378</v>
+      </c>
+      <c r="T39" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>155</v>
       </c>
@@ -60443,8 +64975,23 @@
         <f>K40-9.5</f>
         <v>71.541499999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q40">
+        <v>81.041499999999999</v>
+      </c>
+      <c r="R40">
+        <v>2.4975999999999998</v>
+      </c>
+      <c r="S40">
+        <v>76.115799999999993</v>
+      </c>
+      <c r="T40">
+        <v>85.967299999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>137</v>
       </c>
@@ -60479,8 +65026,23 @@
         <f>K41-9.5</f>
         <v>72.739800000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q41">
+        <v>82.239800000000002</v>
+      </c>
+      <c r="R41">
+        <v>2.6730999999999998</v>
+      </c>
+      <c r="S41">
+        <v>76.9679</v>
+      </c>
+      <c r="T41">
+        <v>87.511799999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>138</v>
       </c>
@@ -60515,8 +65077,23 @@
         <f>K42-20</f>
         <v>50.877099999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q42">
+        <v>70.877099999999999</v>
+      </c>
+      <c r="R42">
+        <v>3.7351999999999999</v>
+      </c>
+      <c r="S42">
+        <v>63.5105</v>
+      </c>
+      <c r="T42">
+        <v>78.243700000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>139</v>
       </c>
@@ -60551,8 +65128,23 @@
         <f>K43-20</f>
         <v>43.777799999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q43">
+        <v>63.777799999999999</v>
+      </c>
+      <c r="R43">
+        <v>2.8611</v>
+      </c>
+      <c r="S43">
+        <v>58.135199999999998</v>
+      </c>
+      <c r="T43">
+        <v>69.420400000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>156</v>
       </c>
@@ -60587,8 +65179,23 @@
         <f>K44-20</f>
         <v>41.665799999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q44">
+        <v>61.665799999999997</v>
+      </c>
+      <c r="R44">
+        <v>4.1342999999999996</v>
+      </c>
+      <c r="S44">
+        <v>53.512</v>
+      </c>
+      <c r="T44">
+        <v>69.819500000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>157</v>
       </c>
@@ -60623,8 +65230,23 @@
         <f>K45-20</f>
         <v>40.636200000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45" s="89" t="s">
+        <v>1293</v>
+      </c>
+      <c r="Q45">
+        <v>60.636200000000002</v>
+      </c>
+      <c r="R45">
+        <v>6.3712999999999997</v>
+      </c>
+      <c r="S45">
+        <v>48.070700000000002</v>
+      </c>
+      <c r="T45">
+        <v>73.201800000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>144</v>
       </c>
@@ -60644,7 +65266,7 @@
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>158</v>
       </c>
@@ -60652,7 +65274,7 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
         <v>699</v>
@@ -60868,7 +65490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL153"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
@@ -65490,7 +70112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AX132"/>
   <sheetViews>
     <sheetView topLeftCell="A92" workbookViewId="0">
@@ -69395,11 +74017,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R247"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="H131" sqref="H131"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72807,7 +77429,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L38" r:id="rId1"/>
+    <hyperlink ref="L38" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -72816,7 +77438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -73359,7 +77981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -74195,17 +78817,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+    <sheetView topLeftCell="F81" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93:K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.140625" style="89"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -74929,17 +79554,17 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>1155</v>
       </c>
@@ -74950,17 +79575,17 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>153</v>
       </c>
@@ -74968,7 +79593,7 @@
         <v>40.03</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>1155</v>
       </c>
@@ -74976,41 +79601,59 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="89" t="s">
         <v>1349</v>
       </c>
       <c r="E91" s="89" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="89" t="s">
         <v>246</v>
       </c>
       <c r="C92" s="89" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D92" s="89" t="s">
         <v>1352</v>
       </c>
       <c r="E92" s="89" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F92" s="89" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G92" s="89" t="s">
         <v>1353</v>
       </c>
-      <c r="G92" s="89" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I92" s="89" t="s">
+        <v>1386</v>
+      </c>
+      <c r="K92" s="89" t="s">
+        <v>1385</v>
+      </c>
+      <c r="N92" s="89" t="s">
+        <v>1388</v>
+      </c>
+      <c r="O92" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="89" t="s">
         <v>137</v>
       </c>
       <c r="C93" s="89">
         <v>0.71663276482550398</v>
       </c>
+      <c r="D93" s="89">
+        <v>21</v>
+      </c>
       <c r="E93" s="89">
-        <f>F93/G93*100000</f>
+        <f t="shared" ref="E93:E105" si="0">F93/G93*100000</f>
         <v>0.63559582937906656</v>
       </c>
       <c r="F93" s="89">
@@ -75019,16 +79662,44 @@
       <c r="G93" s="89">
         <v>2517323</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H93" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I93" s="16">
+        <f>D93/(C93/100000)</f>
+        <v>2930371.1790394317</v>
+      </c>
+      <c r="K93" s="89">
+        <v>3003700</v>
+      </c>
+      <c r="L93" s="16">
+        <f>K93-I93</f>
+        <v>73328.820960568264</v>
+      </c>
+      <c r="N93" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="O93" s="4">
+        <v>8474</v>
+      </c>
+      <c r="P93" s="93">
+        <f>(O93/2)*100000</f>
+        <v>423700000</v>
+      </c>
+      <c r="Q93" s="94"/>
+    </row>
+    <row r="94" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="89" t="s">
         <v>138</v>
       </c>
       <c r="C94" s="89">
         <v>0.84806759505553897</v>
       </c>
+      <c r="D94" s="89">
+        <v>22</v>
+      </c>
       <c r="E94" s="89">
-        <f>F94/G94*100000</f>
+        <f t="shared" si="0"/>
         <v>0.83058777928514071</v>
       </c>
       <c r="F94" s="89">
@@ -75037,16 +79708,43 @@
       <c r="G94" s="89">
         <v>2167140</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="I94" s="16">
+        <f t="shared" ref="I94:I105" si="1">D94/(C94/100000)</f>
+        <v>2594132.8413284374</v>
+      </c>
+      <c r="K94" s="89">
+        <v>2588500</v>
+      </c>
+      <c r="L94" s="16">
+        <f t="shared" ref="L94:L105" si="2">K94-I94</f>
+        <v>-5632.8413284374401</v>
+      </c>
+      <c r="N94" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="O94" s="4">
+        <v>8222</v>
+      </c>
+      <c r="P94" s="93">
+        <f t="shared" ref="P94:P105" si="3">(O94/2)*100000</f>
+        <v>411100000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="89" t="s">
         <v>139</v>
       </c>
       <c r="C95" s="89">
         <v>7.9909247379126498</v>
       </c>
+      <c r="D95" s="89">
+        <v>159</v>
+      </c>
       <c r="E95" s="89">
-        <f>F95/G95*100000</f>
+        <f t="shared" si="0"/>
         <v>6.2725603905452916</v>
       </c>
       <c r="F95" s="89">
@@ -75055,16 +79753,43 @@
       <c r="G95" s="89">
         <v>2040634</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="I95" s="16">
+        <f t="shared" si="1"/>
+        <v>1989757.1960054927</v>
+      </c>
+      <c r="K95" s="89">
+        <v>2123200</v>
+      </c>
+      <c r="L95" s="16">
+        <f t="shared" si="2"/>
+        <v>133442.8039945073</v>
+      </c>
+      <c r="N95" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="O95" s="4">
+        <v>7928</v>
+      </c>
+      <c r="P95" s="93">
+        <f t="shared" si="3"/>
+        <v>396400000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="89" t="s">
         <v>140</v>
       </c>
       <c r="C96" s="89">
         <v>20.976373024565699</v>
       </c>
+      <c r="D96" s="89">
+        <v>329</v>
+      </c>
       <c r="E96" s="89">
-        <f>F96/G96*100000</f>
+        <f t="shared" si="0"/>
         <v>19.988669466166733</v>
       </c>
       <c r="F96" s="89">
@@ -75073,16 +79798,43 @@
       <c r="G96" s="89">
         <v>1841043</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H96" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="I96" s="16">
+        <f t="shared" si="1"/>
+        <v>1568431.2994181782</v>
+      </c>
+      <c r="K96" s="89">
+        <v>1668200</v>
+      </c>
+      <c r="L96" s="16">
+        <f t="shared" si="2"/>
+        <v>99768.700581821846</v>
+      </c>
+      <c r="N96" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="O96" s="4">
+        <v>7605</v>
+      </c>
+      <c r="P96" s="93">
+        <f t="shared" si="3"/>
+        <v>380250000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="89" t="s">
         <v>141</v>
       </c>
       <c r="C97" s="89">
         <v>40.716632764825398</v>
       </c>
+      <c r="D97" s="89">
+        <v>469</v>
+      </c>
       <c r="E97" s="89">
-        <f>F97/G97*100000</f>
+        <f t="shared" si="0"/>
         <v>39.919341057452407</v>
       </c>
       <c r="F97" s="89">
@@ -75091,16 +79843,43 @@
       <c r="G97" s="89">
         <v>1462950</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H97" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="I97" s="16">
+        <f t="shared" si="1"/>
+        <v>1151863.4232572478</v>
+      </c>
+      <c r="K97" s="89">
+        <v>1266800</v>
+      </c>
+      <c r="L97" s="16">
+        <f t="shared" si="2"/>
+        <v>114936.57674275222</v>
+      </c>
+      <c r="N97" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="O97" s="4">
+        <v>7145</v>
+      </c>
+      <c r="P97" s="93">
+        <f t="shared" si="3"/>
+        <v>357250000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="89" t="s">
         <v>142</v>
       </c>
       <c r="C98" s="89">
         <v>62.664684712877403</v>
       </c>
+      <c r="D98" s="89">
+        <v>521</v>
+      </c>
       <c r="E98" s="89">
-        <f>F98/G98*100000</f>
+        <f t="shared" si="0"/>
         <v>66.140420334098252</v>
       </c>
       <c r="F98" s="89">
@@ -75109,16 +79888,43 @@
       <c r="G98" s="89">
         <v>1065914</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H98" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="I98" s="16">
+        <f t="shared" si="1"/>
+        <v>831409.27363979234</v>
+      </c>
+      <c r="K98" s="89">
+        <v>949300</v>
+      </c>
+      <c r="L98" s="16">
+        <f t="shared" si="2"/>
+        <v>117890.72636020766</v>
+      </c>
+      <c r="N98" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="O98" s="4">
+        <v>6590</v>
+      </c>
+      <c r="P98" s="93">
+        <f t="shared" si="3"/>
+        <v>329500000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="89" t="s">
         <v>143</v>
       </c>
       <c r="C99" s="89">
         <v>83.052730402127906</v>
       </c>
+      <c r="D99" s="89">
+        <v>555</v>
+      </c>
       <c r="E99" s="89">
-        <f>F99/G99*100000</f>
+        <f t="shared" si="0"/>
         <v>94.060183076372752</v>
       </c>
       <c r="F99" s="89">
@@ -75127,16 +79933,43 @@
       <c r="G99" s="89">
         <v>777162</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H99" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="I99" s="16">
+        <f t="shared" si="1"/>
+        <v>668250.15542870131</v>
+      </c>
+      <c r="K99" s="89">
+        <v>711700</v>
+      </c>
+      <c r="L99" s="16">
+        <f t="shared" si="2"/>
+        <v>43449.844571298687</v>
+      </c>
+      <c r="N99" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="O99" s="4">
+        <v>6038</v>
+      </c>
+      <c r="P99" s="93">
+        <f t="shared" si="3"/>
+        <v>301900000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="89" t="s">
         <v>392</v>
       </c>
       <c r="C100" s="89">
         <v>103.442340791738</v>
       </c>
+      <c r="D100" s="89">
+        <v>598</v>
+      </c>
       <c r="E100" s="89">
-        <f>F100/G100*100000</f>
+        <f t="shared" si="0"/>
         <v>108.74293170943889</v>
       </c>
       <c r="F100" s="89">
@@ -75145,16 +79978,43 @@
       <c r="G100" s="89">
         <v>634524</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="I100" s="16">
+        <f t="shared" si="1"/>
+        <v>578099.83361065108</v>
+      </c>
+      <c r="K100" s="89">
+        <v>532700</v>
+      </c>
+      <c r="L100" s="16">
+        <f t="shared" si="2"/>
+        <v>-45399.833610651083</v>
+      </c>
+      <c r="N100" s="89" t="s">
+        <v>392</v>
+      </c>
+      <c r="O100" s="4">
+        <v>5371</v>
+      </c>
+      <c r="P100" s="93">
+        <f t="shared" si="3"/>
+        <v>268550000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="89" t="s">
         <v>535</v>
       </c>
       <c r="C101" s="89">
         <v>130.32389297449501</v>
       </c>
+      <c r="D101" s="89">
+        <v>640</v>
+      </c>
       <c r="E101" s="89">
-        <f>F101/G101*100000</f>
+        <f t="shared" si="0"/>
         <v>113.39713957071859</v>
       </c>
       <c r="F101" s="89">
@@ -75163,16 +80023,43 @@
       <c r="G101" s="89">
         <v>552924</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H101" s="89" t="s">
+        <v>535</v>
+      </c>
+      <c r="I101" s="16">
+        <f t="shared" si="1"/>
+        <v>491084.16376515932</v>
+      </c>
+      <c r="K101" s="89">
+        <v>405200</v>
+      </c>
+      <c r="L101" s="16">
+        <f t="shared" si="2"/>
+        <v>-85884.163765159319</v>
+      </c>
+      <c r="N101" s="89" t="s">
+        <v>535</v>
+      </c>
+      <c r="O101" s="4">
+        <v>4547</v>
+      </c>
+      <c r="P101" s="93">
+        <f t="shared" si="3"/>
+        <v>227350000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="89" t="s">
         <v>536</v>
       </c>
       <c r="C102" s="89">
         <v>150.45376310436501</v>
       </c>
+      <c r="D102" s="89">
+        <v>560</v>
+      </c>
       <c r="E102" s="89">
-        <f>F102/G102*100000</f>
+        <f t="shared" si="0"/>
         <v>116.57530568271869</v>
       </c>
       <c r="F102" s="89">
@@ -75181,16 +80068,43 @@
       <c r="G102" s="89">
         <v>458073</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H102" s="89" t="s">
+        <v>536</v>
+      </c>
+      <c r="I102" s="16">
+        <f t="shared" si="1"/>
+        <v>372207.37351151911</v>
+      </c>
+      <c r="K102" s="89">
+        <v>308400</v>
+      </c>
+      <c r="L102" s="16">
+        <f t="shared" si="2"/>
+        <v>-63807.373511519108</v>
+      </c>
+      <c r="N102" s="89" t="s">
+        <v>536</v>
+      </c>
+      <c r="O102" s="4">
+        <v>3723</v>
+      </c>
+      <c r="P102" s="93">
+        <f t="shared" si="3"/>
+        <v>186150000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="89" t="s">
         <v>970</v>
       </c>
       <c r="C103" s="89">
         <v>156.29791894852099</v>
       </c>
+      <c r="D103" s="89">
+        <v>378</v>
+      </c>
       <c r="E103" s="89">
-        <f>F103/G103*100000</f>
+        <f t="shared" si="0"/>
         <v>119.76485861347034</v>
       </c>
       <c r="F103" s="89">
@@ -75199,16 +80113,43 @@
       <c r="G103" s="89">
         <v>328143</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H103" s="89" t="s">
+        <v>970</v>
+      </c>
+      <c r="I103" s="16">
+        <f t="shared" si="1"/>
+        <v>241845.83041345538</v>
+      </c>
+      <c r="K103" s="89">
+        <v>228700</v>
+      </c>
+      <c r="L103" s="16">
+        <f t="shared" si="2"/>
+        <v>-13145.830413455376</v>
+      </c>
+      <c r="N103" s="89" t="s">
+        <v>970</v>
+      </c>
+      <c r="O103" s="4">
+        <v>2955</v>
+      </c>
+      <c r="P103" s="93">
+        <f t="shared" si="3"/>
+        <v>147750000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="89" t="s">
         <v>971</v>
       </c>
       <c r="C104" s="89">
         <v>150.71350336410501</v>
       </c>
+      <c r="D104" s="89">
+        <v>253</v>
+      </c>
       <c r="E104" s="89">
-        <f>F104/G104*100000</f>
+        <f t="shared" si="0"/>
         <v>118.2033096926714</v>
       </c>
       <c r="F104" s="89">
@@ -75217,16 +80158,43 @@
       <c r="G104" s="89">
         <v>198810</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H104" s="89" t="s">
+        <v>971</v>
+      </c>
+      <c r="I104" s="16">
+        <f t="shared" si="1"/>
+        <v>167868.16997331922</v>
+      </c>
+      <c r="K104" s="89">
+        <v>159300</v>
+      </c>
+      <c r="L104" s="16">
+        <f t="shared" si="2"/>
+        <v>-8568.1699733192218</v>
+      </c>
+      <c r="N104" t="s">
+        <v>971</v>
+      </c>
+      <c r="O104" s="4">
+        <v>2210</v>
+      </c>
+      <c r="P104" s="93">
+        <f t="shared" si="3"/>
+        <v>110500000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="89" t="s">
         <v>972</v>
       </c>
       <c r="C105" s="89">
         <v>133.18103583163801</v>
       </c>
+      <c r="D105" s="89">
+        <v>293</v>
+      </c>
       <c r="E105" s="89">
-        <f>F105/G105*100000</f>
+        <f t="shared" si="0"/>
         <v>98.125437696454469</v>
       </c>
       <c r="F105" s="89">
@@ -75235,29 +80203,61 @@
       <c r="G105" s="89">
         <v>245604</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H105" s="89" t="s">
+        <v>972</v>
+      </c>
+      <c r="I105" s="16">
+        <f t="shared" si="1"/>
+        <v>220001.29235396438</v>
+      </c>
+      <c r="K105" s="89">
+        <v>100000</v>
+      </c>
+      <c r="L105" s="16">
+        <f t="shared" si="2"/>
+        <v>-120001.29235396438</v>
+      </c>
+      <c r="M105" s="89">
+        <f>D105/K105*100000</f>
+        <v>293</v>
+      </c>
+      <c r="N105" t="s">
+        <v>972</v>
+      </c>
+      <c r="O105" s="4">
+        <v>1515</v>
+      </c>
+      <c r="P105" s="93">
+        <f t="shared" si="3"/>
+        <v>75750000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F106" s="49"/>
-    </row>
-    <row r="107" spans="1:7" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N106" s="37"/>
+      <c r="O106" s="37"/>
+    </row>
+    <row r="107" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F107" s="49"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N107"/>
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F108" s="49"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="37" t="s">
         <v>1168</v>
       </c>
       <c r="C110" s="89"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>196</v>
       </c>
@@ -75271,7 +80271,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B112" s="37">
         <v>1990</v>
       </c>
@@ -75664,6 +80664,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L93:L105">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20363"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_Feb20\HHCoM\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\udrive.uw.edu\udrive\Kenya_model_Feb20\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDF8645-CC3A-4C46-BEF4-79D132674587}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="4770" tabRatio="835" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9090" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -21,15 +22,17 @@
     <sheet name="CIN prevalence" sheetId="15" r:id="rId7"/>
     <sheet name="Screening" sheetId="2" r:id="rId8"/>
     <sheet name="CC prevalence" sheetId="3" r:id="rId9"/>
-    <sheet name="HIV prevalence" sheetId="11" r:id="rId10"/>
-    <sheet name="HIV mortality" sheetId="16" r:id="rId11"/>
-    <sheet name="HIV testing " sheetId="6" r:id="rId12"/>
-    <sheet name="ART" sheetId="12" r:id="rId13"/>
-    <sheet name="CD4" sheetId="13" r:id="rId14"/>
-    <sheet name="MTCT" sheetId="14" r:id="rId15"/>
-    <sheet name="DALY" sheetId="1" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId10"/>
+    <sheet name="HIV prevalence" sheetId="11" r:id="rId11"/>
+    <sheet name="HIV mortality" sheetId="16" r:id="rId12"/>
+    <sheet name="HIV testing " sheetId="6" r:id="rId13"/>
+    <sheet name="ART" sheetId="12" r:id="rId14"/>
+    <sheet name="CD4" sheetId="13" r:id="rId15"/>
+    <sheet name="MTCT" sheetId="14" r:id="rId16"/>
+    <sheet name="DALY" sheetId="1" r:id="rId17"/>
+    <sheet name="Param bounds" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="1351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="1372">
   <si>
     <t>Metric</t>
   </si>
@@ -3467,9 +3470,6 @@
     <t>%virally suppresion among all PLHIV</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: </t>
-  </si>
-  <si>
     <t>Source: population_validation_targets_kenya.xlsx</t>
   </si>
   <si>
@@ -4104,12 +4104,78 @@
   </si>
   <si>
     <t>Globocan 2012</t>
+  </si>
+  <si>
+    <t>Eldoret, 2012-2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Params for calibration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UB </t>
+  </si>
+  <si>
+    <t>ParamsAll num</t>
+  </si>
+  <si>
+    <t>partnersM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sources for bounds </t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-14, high risk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-19, high risk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-24, high risk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-29, high risk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-44, high risk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45+, high risk </t>
+  </si>
+  <si>
+    <t>partnersF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: DHS 2014 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condom use </t>
+  </si>
+  <si>
+    <t>LCL</t>
+  </si>
+  <si>
+    <t>UCL</t>
+  </si>
+  <si>
+    <t>condUse</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHS 2014; based on self-reported condom use at all sex acts with the most recent sex partner in the past 12 months. LB = LCL of estimates from women, UB = UCL of estimates from men </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -4768,7 +4834,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -4830,8 +4896,9 @@
     <xf numFmtId="0" fontId="1" fillId="35" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4946,11 +5013,13 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="54" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="56">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -4977,13 +5046,14 @@
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="CC" xfId="55" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="54" builtinId="3"/>
-    <cellStyle name="Data" xfId="46"/>
-    <cellStyle name="Data 2" xfId="48"/>
+    <cellStyle name="Data" xfId="46" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Data 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header" xfId="45"/>
+    <cellStyle name="Header" xfId="45" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -4993,17 +5063,17 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="43"/>
-    <cellStyle name="Normal 2 2" xfId="47"/>
+    <cellStyle name="Normal 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 2 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Note 2" xfId="51"/>
-    <cellStyle name="Note 3" xfId="52"/>
-    <cellStyle name="Note 4" xfId="53"/>
+    <cellStyle name="Note 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Note 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Note 4" xfId="53" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="44"/>
-    <cellStyle name="Style 1" xfId="50"/>
-    <cellStyle name="Title 2" xfId="42"/>
+    <cellStyle name="Percent 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Style 1" xfId="50" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Title 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -12876,7 +12946,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13212,7 +13281,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -32179,7 +32247,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -32209,7 +32283,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -32239,7 +32319,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -32269,7 +32355,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -32301,7 +32393,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -32331,7 +32429,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -32363,7 +32467,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -32398,7 +32508,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -32436,7 +32552,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32565,7 +32687,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Baseline estimates of coverage of 90-90-90 targets in Nyanza region, Kenya AIDS Indicator Survey, 2012–2013*."/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Baseline estimates of coverage of 90-90-90 targets in Nyanza region, Kenya AIDS Indicator Survey, 2012–2013*.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -32620,7 +32748,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -32658,7 +32792,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="https://www.dovepress.com/cr_data/article_fulltext/s153000/153185/img/hiv-153185_T003.jpg"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="https://www.dovepress.com/cr_data/article_fulltext/s153000/153185/img/hiv-153185_T003.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -32713,7 +32853,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9219" name="AutoShape 3" descr="https://images.journals.lww.com/aidsonline/Original.00002030-201207310-00012.F3-12.jpeg"/>
+        <xdr:cNvPr id="9219" name="AutoShape 3" descr="https://images.journals.lww.com/aidsonline/Original.00002030-201207310-00012.F3-12.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003240000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -32755,7 +32901,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -32793,7 +32945,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32896,7 +33054,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="An external file that holds a picture, illustration, etc.&#10;Object name is peerj-06-4427-g002.jpg"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="An external file that holds a picture, illustration, etc.&#10;Object name is peerj-06-4427-g002.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -32956,7 +33120,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -32994,7 +33164,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -33035,7 +33211,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33106,7 +33282,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33174,7 +33350,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2049" name="AutoShape 1" descr="https://images.journals.lww.com/aidsonline/Original.00002030-200108004-00006.T2-6.jpeg"/>
+        <xdr:cNvPr id="2049" name="AutoShape 1" descr="https://images.journals.lww.com/aidsonline/Original.00002030-200108004-00006.T2-6.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -33216,7 +33398,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -33260,7 +33448,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -33298,7 +33492,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -33328,7 +33528,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -33360,7 +33566,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -33390,7 +33602,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -33422,7 +33640,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33532,7 +33756,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -33569,7 +33799,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33643,7 +33879,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33781,7 +34023,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -33819,7 +34067,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -33856,7 +34110,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -33886,7 +34146,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -33916,7 +34182,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -33951,7 +34223,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -33981,7 +34259,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -34011,7 +34295,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -34046,7 +34336,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="An external file that holds a picture, illustration, etc.&#10;Object name is 12879_2019_3982_Fig1_HTML.jpg"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="An external file that holds a picture, illustration, etc.&#10;Object name is 12879_2019_3982_Fig1_HTML.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -34106,7 +34402,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="image"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -34166,7 +34468,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34204,7 +34512,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34242,7 +34556,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34280,7 +34600,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Group 6"/>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -34293,7 +34619,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="Picture 4"/>
+          <xdr:cNvPr id="5" name="Picture 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -34316,7 +34648,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -34386,7 +34724,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34424,7 +34768,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34462,7 +34812,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34500,7 +34856,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -34530,7 +34892,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -34560,7 +34928,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34598,7 +34972,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34641,7 +35021,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34685,7 +35071,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -34979,7 +35371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y231"/>
   <sheetViews>
     <sheetView topLeftCell="A133" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -41407,7 +41799,7 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B167" s="49"/>
       <c r="C167" s="49"/>
@@ -41416,7 +41808,7 @@
       <c r="F167" s="49"/>
       <c r="G167" s="77"/>
       <c r="H167" s="77" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I167" s="49"/>
       <c r="J167" s="49"/>
@@ -41445,10 +41837,10 @@
         <v>196</v>
       </c>
       <c r="I168" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J168" s="76" t="s">
         <v>1243</v>
-      </c>
-      <c r="J168" s="76" t="s">
-        <v>1244</v>
       </c>
       <c r="K168" s="76" t="s">
         <v>1011</v>
@@ -41460,10 +41852,10 @@
         <v>157</v>
       </c>
       <c r="N168" s="76" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O168" s="49" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="P168" s="37"/>
       <c r="Q168" s="16"/>
@@ -41769,7 +42161,7 @@
         <v>63.501959516313946</v>
       </c>
       <c r="H176" s="77" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="J176" s="37"/>
       <c r="K176" s="37"/>
@@ -41786,10 +42178,10 @@
         <v>196</v>
       </c>
       <c r="I177" s="37" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J177" s="76" t="s">
         <v>1243</v>
-      </c>
-      <c r="J177" s="76" t="s">
-        <v>1244</v>
       </c>
       <c r="K177" s="76" t="s">
         <v>1011</v>
@@ -41801,10 +42193,10 @@
         <v>157</v>
       </c>
       <c r="N177" s="76" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O177" s="49" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.25">
@@ -42085,7 +42477,7 @@
     </row>
     <row r="186" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H186" s="77" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I186" s="37"/>
       <c r="J186" s="37"/>
@@ -42100,10 +42492,10 @@
         <v>196</v>
       </c>
       <c r="I187" s="37" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J187" s="76" t="s">
         <v>1243</v>
-      </c>
-      <c r="J187" s="76" t="s">
-        <v>1244</v>
       </c>
       <c r="K187" s="76" t="s">
         <v>1011</v>
@@ -42115,10 +42507,10 @@
         <v>157</v>
       </c>
       <c r="N187" s="76" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O187" s="49" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="188" spans="2:15" x14ac:dyDescent="0.25">
@@ -42354,10 +42746,10 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H196" s="77" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I196" s="49"/>
       <c r="J196" s="49"/>
@@ -42372,13 +42764,13 @@
         <v>1072</v>
       </c>
       <c r="C197" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E197" t="s">
         <v>1298</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1299</v>
       </c>
       <c r="F197" s="37"/>
       <c r="G197" s="37"/>
@@ -42386,10 +42778,10 @@
         <v>196</v>
       </c>
       <c r="I197" s="37" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J197" s="76" t="s">
         <v>1243</v>
-      </c>
-      <c r="J197" s="76" t="s">
-        <v>1244</v>
       </c>
       <c r="K197" s="76" t="s">
         <v>1011</v>
@@ -42401,10 +42793,10 @@
         <v>157</v>
       </c>
       <c r="N197" s="76" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O197" s="49" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
@@ -42562,13 +42954,13 @@
         <v>1072</v>
       </c>
       <c r="C203" s="37" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D203" s="37" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E203" s="37" t="s">
         <v>1300</v>
-      </c>
-      <c r="D203" s="37" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E203" s="37" t="s">
-        <v>1301</v>
       </c>
       <c r="F203" s="37"/>
       <c r="G203" s="37"/>
@@ -42651,13 +43043,13 @@
         <v>1072</v>
       </c>
       <c r="C209" s="37" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D209" s="37" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E209" s="37" t="s">
         <v>1302</v>
-      </c>
-      <c r="D209" s="37" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E209" s="37" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.25">
@@ -42730,13 +43122,13 @@
         <v>1072</v>
       </c>
       <c r="C215" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E215" t="s">
         <v>1304</v>
-      </c>
-      <c r="D215" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.25">
@@ -42809,13 +43201,13 @@
         <v>1072</v>
       </c>
       <c r="C221" s="37" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D221" s="37" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E221" s="37" t="s">
         <v>1327</v>
-      </c>
-      <c r="D221" s="37" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E221" s="37" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.25">
@@ -42890,13 +43282,13 @@
         <v>1072</v>
       </c>
       <c r="C227" s="37" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D227" s="37" t="s">
         <v>1330</v>
       </c>
-      <c r="D227" s="37" t="s">
+      <c r="E227" s="37" t="s">
         <v>1331</v>
-      </c>
-      <c r="E227" s="37" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.25">
@@ -42976,7 +43368,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E836CD1-F16D-4F6D-B065-35D50B596CED}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AD213"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
@@ -43026,10 +43430,10 @@
         <v>144</v>
       </c>
       <c r="J3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K3" t="s">
         <v>1334</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1335</v>
       </c>
       <c r="N3" s="21" t="s">
         <v>80</v>
@@ -43038,28 +43442,28 @@
         <v>222</v>
       </c>
       <c r="P3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="Q3" t="s">
         <v>1246</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1247</v>
       </c>
       <c r="R3" s="21" t="s">
         <v>217</v>
       </c>
       <c r="S3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="T3" t="s">
         <v>1246</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1247</v>
       </c>
       <c r="U3" s="21" t="s">
         <v>144</v>
       </c>
       <c r="V3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="W3" t="s">
         <v>1246</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -43524,13 +43928,13 @@
         <v>392</v>
       </c>
       <c r="O11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="P11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="Q11" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="R11" s="8">
         <v>20.7746</v>
@@ -43966,7 +44370,7 @@
       </c>
       <c r="E34" s="54"/>
       <c r="F34" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="G34" s="37">
         <v>1</v>
@@ -44004,7 +44408,7 @@
       </c>
       <c r="E35" s="54"/>
       <c r="F35" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="G35" s="37">
         <v>3.1</v>
@@ -44042,7 +44446,7 @@
       </c>
       <c r="E36" s="54"/>
       <c r="F36" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G36" s="37">
         <v>6.3</v>
@@ -44080,7 +44484,7 @@
       </c>
       <c r="E37" s="54"/>
       <c r="F37" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G37" s="37">
         <v>6.6</v>
@@ -44118,7 +44522,7 @@
       </c>
       <c r="E38" s="54"/>
       <c r="F38" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G38" s="37">
         <v>8.6999999999999993</v>
@@ -44156,7 +44560,7 @@
       </c>
       <c r="E39" s="54"/>
       <c r="F39" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G39" s="37">
         <v>9.3000000000000007</v>
@@ -44194,7 +44598,7 @@
       </c>
       <c r="E40" s="54"/>
       <c r="F40" s="21" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G40" s="37">
         <v>9.8000000000000007</v>
@@ -44225,7 +44629,7 @@
       </c>
       <c r="E41" s="54"/>
       <c r="F41" s="21" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G41" s="37">
         <v>8.4</v>
@@ -44256,7 +44660,7 @@
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="21" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G42" s="37">
         <v>4.4000000000000004</v>
@@ -44287,7 +44691,7 @@
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="21" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G43" s="37">
         <v>4</v>
@@ -44607,28 +45011,28 @@
         <v>222</v>
       </c>
       <c r="D61" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E61" t="s">
         <v>1246</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1247</v>
       </c>
       <c r="F61" s="21" t="s">
         <v>217</v>
       </c>
       <c r="G61" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H61" t="s">
         <v>1246</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1247</v>
       </c>
       <c r="I61" s="21" t="s">
         <v>144</v>
       </c>
       <c r="J61" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K61" t="s">
         <v>1246</v>
-      </c>
-      <c r="K61" t="s">
-        <v>1247</v>
       </c>
       <c r="M61" s="37" t="s">
         <v>80</v>
@@ -44637,28 +45041,28 @@
         <v>222</v>
       </c>
       <c r="O61" s="37" t="s">
+        <v>1245</v>
+      </c>
+      <c r="P61" s="37" t="s">
         <v>1246</v>
-      </c>
-      <c r="P61" s="37" t="s">
-        <v>1247</v>
       </c>
       <c r="Q61" s="37" t="s">
         <v>217</v>
       </c>
       <c r="R61" s="37" t="s">
+        <v>1245</v>
+      </c>
+      <c r="S61" s="37" t="s">
         <v>1246</v>
-      </c>
-      <c r="S61" s="37" t="s">
-        <v>1247</v>
       </c>
       <c r="T61" s="37" t="s">
         <v>144</v>
       </c>
       <c r="U61" s="37" t="s">
+        <v>1245</v>
+      </c>
+      <c r="V61" s="37" t="s">
         <v>1246</v>
-      </c>
-      <c r="V61" s="37" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
@@ -45100,13 +45504,13 @@
         <v>392</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D69" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E69" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F69" s="8">
         <v>15.9094</v>
@@ -45118,7 +45522,7 @@
         <v>28.742100000000001</v>
       </c>
       <c r="I69" s="31" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="J69" s="8">
         <v>3.0767000000000002</v>
@@ -45130,13 +45534,13 @@
         <v>392</v>
       </c>
       <c r="N69" s="37" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="O69" s="37" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="P69" s="37" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="Q69" s="7">
         <v>9.1097999999999999</v>
@@ -46514,7 +46918,7 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.25">
@@ -46531,7 +46935,7 @@
         <v>576</v>
       </c>
       <c r="G183" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I183" t="s">
         <v>222</v>
@@ -47694,8 +48098,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -48973,7 +49377,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -49362,17 +49766,17 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -49383,19 +49787,19 @@
         <v>561</v>
       </c>
       <c r="D74" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E74" t="s">
         <v>1234</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>1235</v>
       </c>
-      <c r="F74" t="s">
+      <c r="I74" t="s">
         <v>1236</v>
       </c>
-      <c r="I74" t="s">
-        <v>1237</v>
-      </c>
       <c r="J74" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -49586,8 +49990,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49698,8 +50102,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Z194"/>
   <sheetViews>
     <sheetView topLeftCell="A172" workbookViewId="0">
@@ -49944,7 +50348,7 @@
     </row>
     <row r="25" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>1125</v>
@@ -49956,13 +50360,13 @@
         <v>1127</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>1125</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I25" s="37" t="s">
         <v>1127</v>
@@ -50135,11 +50539,11 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C34" s="84">
+      <c r="C34" s="86">
         <v>2015</v>
       </c>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
       <c r="F34" s="23">
         <v>2015</v>
       </c>
@@ -50941,7 +51345,7 @@
         <v>576</v>
       </c>
       <c r="J99" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -51610,7 +52014,7 @@
     <mergeCell ref="C34:E34"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A155" r:id="rId1"/>
+    <hyperlink ref="A155" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -51618,8 +52022,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -51684,8 +52088,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A2:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -52568,8 +52972,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53140,12 +53544,121 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E3F8A6-BB0F-4F7C-B697-F36F790CC179}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="84"/>
+    <col min="3" max="3" width="9.140625" style="84"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="84" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="84" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="84" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="84" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="84" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y256"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y259"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="S103" sqref="S102:S103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54931,7 +55444,7 @@
         <v>137</v>
       </c>
       <c r="L76" s="37">
-        <v>0.22517599999999999</v>
+        <v>0.425176</v>
       </c>
       <c r="M76" s="37">
         <v>2.1546289999999999</v>
@@ -55799,7 +56312,7 @@
       </c>
       <c r="H92" s="41"/>
       <c r="K92" s="71" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
@@ -55844,7 +56357,7 @@
         <v>16.8</v>
       </c>
       <c r="K95" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
@@ -55864,7 +56377,7 @@
         <v>490</v>
       </c>
       <c r="M96" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="N96" t="s">
         <v>492</v>
@@ -57684,7 +58197,7 @@
       </c>
       <c r="G194" s="72"/>
       <c r="H194" s="72" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I194" s="72"/>
       <c r="J194" s="72" t="s">
@@ -58284,17 +58797,56 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>1138</v>
+      <c r="A256" s="2" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B258" s="6">
+        <v>11.364000000000001</v>
+      </c>
+      <c r="C258" s="6">
+        <v>10.2683</v>
+      </c>
+      <c r="D258" s="6">
+        <v>12.4597</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B259" s="6">
+        <v>23.3659</v>
+      </c>
+      <c r="C259" s="6">
+        <v>21.858599999999999</v>
+      </c>
+      <c r="D259" s="6">
+        <v>24.873200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -58305,7 +58857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -58331,10 +58883,10 @@
         <v>158</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="O2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -58348,7 +58900,7 @@
         <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G3" t="s">
         <v>575</v>
@@ -58578,7 +59130,7 @@
         <v>59.412199999999999</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K9" s="7">
         <v>39.2258</v>
@@ -58633,15 +59185,15 @@
     <row r="12" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -58670,7 +59222,7 @@
         <v>576</v>
       </c>
       <c r="L15" s="37" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -58834,7 +59386,7 @@
         <v>80.099999999999994</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H21" s="7">
         <v>39.386299999999999</v>
@@ -58867,7 +59419,7 @@
     <row r="23" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -58895,7 +59447,7 @@
         <v>246</v>
       </c>
       <c r="G27" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="H27" t="s">
         <v>575</v>
@@ -58927,22 +59479,22 @@
         <v>155</v>
       </c>
       <c r="G28" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H28" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I28" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="J28" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K28" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L28" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -58956,48 +59508,48 @@
         <v>91.2</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F30" s="37" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="J30" s="37" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -59005,25 +59557,25 @@
         <v>418</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="J31" s="37" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -59034,25 +59586,25 @@
         <v>2012</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="K32" s="37" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -59090,7 +59642,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -59104,7 +59656,7 @@
         <v>179</v>
       </c>
       <c r="J38" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -59339,7 +59891,7 @@
         <v>68</v>
       </c>
       <c r="J45" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K45" s="7">
         <v>60.636200000000002</v>
@@ -59396,17 +59948,17 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="37" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -59416,7 +59968,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -59599,7 +60151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL153"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
@@ -62879,7 +63431,7 @@
         <v>456</v>
       </c>
       <c r="J103" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="104" spans="2:32" x14ac:dyDescent="0.25">
@@ -63509,7 +64061,7 @@
         <v>7.4809999999999999</v>
       </c>
       <c r="K127" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
@@ -63520,7 +64072,7 @@
         <v>7.4809999999999999</v>
       </c>
       <c r="K128" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="129" spans="6:11" x14ac:dyDescent="0.25">
@@ -63531,7 +64083,7 @@
         <v>7.4809999999999999</v>
       </c>
       <c r="K129" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="130" spans="6:11" x14ac:dyDescent="0.25">
@@ -63545,7 +64097,7 @@
         <v>7.4809999999999999</v>
       </c>
       <c r="K130" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="131" spans="6:11" x14ac:dyDescent="0.25">
@@ -63559,7 +64111,7 @@
         <v>7.7850000000000001</v>
       </c>
       <c r="K131" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="132" spans="6:11" x14ac:dyDescent="0.25">
@@ -63573,7 +64125,7 @@
         <v>8.0650000000000013</v>
       </c>
       <c r="K132" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="133" spans="6:11" x14ac:dyDescent="0.25">
@@ -63587,7 +64139,7 @@
         <v>8.1100000000000012</v>
       </c>
       <c r="K133" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="134" spans="6:11" x14ac:dyDescent="0.25">
@@ -63601,7 +64153,7 @@
         <v>7.99</v>
       </c>
       <c r="K134" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="135" spans="6:11" x14ac:dyDescent="0.25">
@@ -63615,7 +64167,7 @@
         <v>7.64</v>
       </c>
       <c r="K135" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="136" spans="6:11" x14ac:dyDescent="0.25">
@@ -63629,7 +64181,7 @@
         <v>7.2160000000000002</v>
       </c>
       <c r="K136" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="137" spans="6:11" x14ac:dyDescent="0.25">
@@ -64221,7 +64773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AX132"/>
   <sheetViews>
     <sheetView topLeftCell="A92" workbookViewId="0">
@@ -65129,25 +65681,25 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D71" t="s">
         <v>1310</v>
       </c>
-      <c r="D71" t="s">
-        <v>1311</v>
-      </c>
       <c r="E71" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F71" t="s">
         <v>246</v>
       </c>
       <c r="G71" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H71" t="s">
         <v>1312</v>
       </c>
-      <c r="H71" t="s">
-        <v>1313</v>
-      </c>
       <c r="I71" s="37" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J71" s="37" t="s">
         <v>246</v>
@@ -65881,10 +66433,10 @@
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.25">
       <c r="U91" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AF91" t="s">
         <v>1229</v>
-      </c>
-      <c r="AF91" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="92" spans="1:50" x14ac:dyDescent="0.25">
@@ -65892,16 +66444,16 @@
         <v>1071</v>
       </c>
       <c r="R92" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="U92" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="V92">
         <v>0.5</v>
       </c>
       <c r="W92" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="X92">
         <v>0.4</v>
@@ -65913,23 +66465,23 @@
         <v>0.25</v>
       </c>
       <c r="AA92" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AB92">
         <v>0.15</v>
       </c>
       <c r="AC92" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AD92">
         <v>0.15</v>
       </c>
       <c r="AF92" s="37" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AG92" s="37"/>
       <c r="AH92" s="37" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AI92" s="37"/>
       <c r="AJ92" s="37">
@@ -65937,11 +66489,11 @@
       </c>
       <c r="AK92" s="37"/>
       <c r="AL92" s="37" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AM92" s="37"/>
       <c r="AN92" s="37" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AO92" s="37"/>
       <c r="AP92" s="37"/>
@@ -65995,7 +66547,7 @@
         <v>222</v>
       </c>
       <c r="R93" s="37" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="S93" s="37">
         <v>1.5</v>
@@ -66113,7 +66665,7 @@
         <v>2.6945755989701607E-2</v>
       </c>
       <c r="R94" s="37" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="S94" s="37">
         <v>1.4</v>
@@ -66322,7 +66874,7 @@
         <v>5.2077410999999999E-4</v>
       </c>
       <c r="R96" s="37" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="S96" s="37">
         <v>1.1499999999999999</v>
@@ -66428,7 +66980,7 @@
         <v>8.5921136E-4</v>
       </c>
       <c r="R97" s="37" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="S97" s="37">
         <v>1.1499999999999999</v>
@@ -68126,7 +68678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R247"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
@@ -69012,7 +69564,7 @@
         <v>106</v>
       </c>
       <c r="H71" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -69626,7 +70178,7 @@
         <v>1</v>
       </c>
       <c r="H130" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -70538,13 +71090,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="198" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="37" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -70574,12 +71126,12 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.25">
@@ -70587,15 +71139,15 @@
         <v>74</v>
       </c>
       <c r="D210" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E210" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C211">
         <v>36</v>
@@ -70606,7 +71158,7 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C212">
         <v>67</v>
@@ -70617,7 +71169,7 @@
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C213">
         <v>51</v>
@@ -70628,7 +71180,7 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C214">
         <v>43</v>
@@ -70639,7 +71191,7 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C215">
         <v>52</v>
@@ -70687,35 +71239,35 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C222" s="66" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D222" s="66" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E222" s="66" t="s">
         <v>1181</v>
-      </c>
-      <c r="C222" s="66" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D222" s="66" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E222" s="66" t="s">
-        <v>1182</v>
       </c>
       <c r="F222" s="66" t="s">
         <v>576</v>
       </c>
       <c r="G222" s="67" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H222" s="67" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I222" s="67" t="s">
         <v>575</v>
@@ -70733,24 +71285,24 @@
         <v>576</v>
       </c>
       <c r="N222" s="69" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="O222" s="69" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="P222" s="69" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B223" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C223" s="66" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D223" s="66">
         <v>22.2</v>
@@ -70762,7 +71314,7 @@
         <v>29.8</v>
       </c>
       <c r="G223" s="67" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H223" s="67">
         <v>76.900000000000006</v>
@@ -70786,21 +71338,21 @@
         <v>7.8</v>
       </c>
       <c r="O223" s="69" t="s">
+        <v>1206</v>
+      </c>
+      <c r="P223" s="69" t="s">
         <v>1207</v>
-      </c>
-      <c r="P223" s="69" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B224" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C224" s="66" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D224" s="66">
         <v>15.8</v>
@@ -70812,7 +71364,7 @@
         <v>17.7</v>
       </c>
       <c r="G224" s="67" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H224" s="67">
         <v>25.7</v>
@@ -70837,24 +71389,24 @@
         <v>7.7220077220077217</v>
       </c>
       <c r="O224" s="69" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="P224" s="69">
         <v>2009</v>
       </c>
       <c r="Q224" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B225" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C225" s="66" t="s">
         <v>1192</v>
-      </c>
-      <c r="C225" s="66" t="s">
-        <v>1193</v>
       </c>
       <c r="D225" s="66">
         <v>38.700000000000003</v>
@@ -70866,7 +71418,7 @@
         <v>41.8</v>
       </c>
       <c r="G225" s="67" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H225" s="67">
         <v>74.099999999999994</v>
@@ -70890,7 +71442,7 @@
         <v>30</v>
       </c>
       <c r="O225" s="69" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="P225" s="69">
         <v>2006</v>
@@ -70898,15 +71450,15 @@
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="M227" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="M228" t="s">
         <v>559</v>
@@ -70926,7 +71478,7 @@
         <v>106</v>
       </c>
       <c r="E229" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F229" t="s">
         <v>575</v>
@@ -70941,10 +71493,10 @@
         <v>106</v>
       </c>
       <c r="K229" s="37" t="s">
+        <v>1203</v>
+      </c>
+      <c r="M229" t="s">
         <v>1204</v>
-      </c>
-      <c r="M229" t="s">
-        <v>1205</v>
       </c>
       <c r="N229" t="s">
         <v>575</v>
@@ -70953,7 +71505,7 @@
         <v>576</v>
       </c>
       <c r="P229" s="37" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q229" s="37" t="s">
         <v>575</v>
@@ -70964,7 +71516,7 @@
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C230">
         <v>9</v>
@@ -71246,7 +71798,7 @@
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C236">
         <v>54</v>
@@ -71293,7 +71845,7 @@
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="I238" s="37" t="s">
         <v>559</v>
@@ -71496,7 +72048,7 @@
     </row>
     <row r="244" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C244">
         <v>189</v>
@@ -71538,7 +72090,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L38" r:id="rId1"/>
+    <hyperlink ref="L38" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -71547,7 +72099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -71945,12 +72497,12 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -71974,7 +72526,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C59" s="18">
         <v>0.13100000000000001</v>
@@ -71996,7 +72548,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C61" s="18">
         <v>0.27400000000000002</v>
@@ -72008,17 +72560,17 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -72031,7 +72583,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C67">
         <v>112</v>
@@ -72090,7 +72642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -72790,30 +73342,30 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="37" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E66" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F66" t="s">
         <v>188</v>
       </c>
       <c r="G66" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -72869,7 +73421,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C70">
         <v>1.2</v>
@@ -72903,7 +73455,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -72926,11 +73478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46:F58"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73140,7 +73692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="37" t="s">
         <v>141</v>
       </c>
@@ -73148,7 +73700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="37" t="s">
         <v>142</v>
       </c>
@@ -73156,7 +73708,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="37" t="s">
         <v>143</v>
       </c>
@@ -73164,7 +73716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="37" t="s">
         <v>318</v>
       </c>
@@ -73172,7 +73724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="37" t="s">
         <v>319</v>
       </c>
@@ -73180,7 +73732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="37" t="s">
         <v>324</v>
       </c>
@@ -73188,7 +73740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="37" t="s">
         <v>325</v>
       </c>
@@ -73196,7 +73748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="37" t="s">
         <v>326</v>
       </c>
@@ -73204,7 +73756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="37" t="s">
         <v>617</v>
       </c>
@@ -73212,266 +73764,313 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="37" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="44" spans="2:6" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="37" t="s">
+    <row r="44" spans="2:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="84"/>
+      <c r="C44" s="84" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="37" t="s">
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="C45" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45" s="84" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D45" s="84" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E45" s="84" t="s">
         <v>1165</v>
       </c>
-      <c r="E45" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="F45" s="84" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="37" t="s">
+      <c r="G45" s="84" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="84">
         <v>0</v>
       </c>
-      <c r="D46" s="37">
+      <c r="D46" s="84">
         <v>1</v>
       </c>
-      <c r="E46" s="37">
+      <c r="E46" s="84">
         <v>2</v>
       </c>
-      <c r="F46" s="8">
-        <v>0.71663276499999995</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="37" t="s">
+      <c r="F46" s="84">
+        <v>0</v>
+      </c>
+      <c r="G46" s="85">
+        <v>0.71663276482550398</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="84">
         <v>1.67</v>
       </c>
-      <c r="D47" s="37">
+      <c r="D47" s="84">
         <v>12</v>
       </c>
-      <c r="E47" s="37">
+      <c r="E47" s="84">
         <v>3</v>
       </c>
-      <c r="F47" s="8">
-        <v>0.84806759499999995</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="37" t="s">
+      <c r="F47" s="84">
+        <v>1</v>
+      </c>
+      <c r="G47" s="85">
+        <v>0.84806759505553897</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="84">
         <v>3.63</v>
       </c>
-      <c r="D48" s="37">
+      <c r="D48" s="84">
         <v>34</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="84">
         <v>7</v>
       </c>
-      <c r="F48" s="8">
-        <v>7.9909247380000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="37" t="s">
+      <c r="F48" s="84">
+        <v>7</v>
+      </c>
+      <c r="G48" s="85">
+        <v>7.9909247379126498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="84">
         <v>14.37</v>
       </c>
-      <c r="D49" s="37">
+      <c r="D49" s="84">
         <v>86</v>
       </c>
-      <c r="E49" s="37">
+      <c r="E49" s="84">
         <v>21</v>
       </c>
-      <c r="F49" s="8">
-        <v>20.97637302</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="37" t="s">
+      <c r="F49" s="84">
+        <v>9</v>
+      </c>
+      <c r="G49" s="85">
+        <v>20.976373024565699</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="84">
         <v>41.72</v>
       </c>
-      <c r="D50" s="37">
+      <c r="D50" s="84">
         <v>156</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E50" s="84">
         <v>27</v>
       </c>
-      <c r="F50" s="8">
-        <v>40.716632760000003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="37" t="s">
+      <c r="F50" s="84">
+        <v>24</v>
+      </c>
+      <c r="G50" s="85">
+        <v>40.716632764825398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="84">
         <v>70.34</v>
       </c>
-      <c r="D51" s="37">
+      <c r="D51" s="84">
         <v>187</v>
       </c>
-      <c r="E51" s="37">
+      <c r="E51" s="84">
         <v>35</v>
       </c>
-      <c r="F51" s="8">
-        <v>62.664684710000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="37" t="s">
+      <c r="F51" s="84">
+        <v>28</v>
+      </c>
+      <c r="G51" s="85">
+        <v>62.664684712877403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="84">
         <v>74.19</v>
       </c>
-      <c r="D52" s="37">
+      <c r="D52" s="84">
         <v>163</v>
       </c>
-      <c r="E52" s="37">
+      <c r="E52" s="84">
         <v>36</v>
       </c>
-      <c r="F52" s="8">
-        <v>83.052730400000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="37" t="s">
+      <c r="F52" s="84">
+        <v>31</v>
+      </c>
+      <c r="G52" s="85">
+        <v>83.052730402127906</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="84" t="s">
         <v>318</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="84">
         <v>127.79</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="84">
         <v>144</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="84">
         <v>27</v>
       </c>
-      <c r="F53" s="8">
-        <v>103.4423408</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="37" t="s">
+      <c r="F53" s="84">
+        <v>30</v>
+      </c>
+      <c r="G53" s="85">
+        <v>103.442340791738</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="84" t="s">
         <v>319</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="84">
         <v>148.35</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="84">
         <v>120</v>
       </c>
-      <c r="E54" s="37">
+      <c r="E54" s="84">
         <v>21</v>
       </c>
-      <c r="F54" s="8">
-        <v>130.323893</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="37" t="s">
+      <c r="F54" s="84">
+        <v>23</v>
+      </c>
+      <c r="G54" s="85">
+        <v>130.32389297449501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="84" t="s">
         <v>324</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="84">
         <v>193.66</v>
       </c>
-      <c r="D55" s="37">
+      <c r="D55" s="84">
         <v>90</v>
       </c>
-      <c r="E55" s="37">
+      <c r="E55" s="84">
         <v>15</v>
       </c>
-      <c r="F55" s="8">
-        <v>150.4537631</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="37" t="s">
+      <c r="F55" s="84">
+        <v>23</v>
+      </c>
+      <c r="G55" s="85">
+        <v>150.45376310436501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="84" t="s">
         <v>325</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="84">
         <v>199.95</v>
       </c>
-      <c r="D56" s="37">
+      <c r="D56" s="84">
         <v>57</v>
       </c>
-      <c r="E56" s="37">
+      <c r="E56" s="84">
         <v>11</v>
       </c>
-      <c r="F56" s="8">
-        <v>156.29791890000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="37" t="s">
+      <c r="F56" s="84">
+        <v>11</v>
+      </c>
+      <c r="G56" s="85">
+        <v>156.29791894852099</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="84" t="s">
         <v>326</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C57" s="84">
         <v>170.4</v>
       </c>
-      <c r="D57" s="37">
+      <c r="D57" s="84">
         <v>40</v>
       </c>
-      <c r="E57" s="37">
+      <c r="E57" s="84">
         <v>9</v>
       </c>
-      <c r="F57" s="8">
-        <v>150.71350340000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="37" t="s">
+      <c r="F57" s="84">
+        <v>15</v>
+      </c>
+      <c r="G57" s="85">
+        <v>150.71350336410501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="84" t="s">
         <v>617</v>
       </c>
-      <c r="C58" s="37">
+      <c r="C58" s="84">
         <v>134.78</v>
       </c>
-      <c r="D58" s="37">
+      <c r="D58" s="84">
         <v>48</v>
       </c>
-      <c r="E58" s="37">
+      <c r="E58" s="84">
         <v>15</v>
       </c>
-      <c r="F58" s="8">
-        <v>133.18103579999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="84">
+        <v>10</v>
+      </c>
+      <c r="G58" s="85">
+        <v>133.18103583163801</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="37" t="s">
         <v>982</v>
       </c>
       <c r="C61" s="37"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" s="37" t="s">
         <v>150</v>
       </c>
@@ -73479,7 +74078,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="37" t="s">
         <v>137</v>
       </c>
@@ -73487,7 +74086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="37" t="s">
         <v>138</v>
       </c>
@@ -73593,12 +74192,12 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C79">
         <v>20.5</v>
@@ -73612,12 +74211,12 @@
         <v>32.5</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
@@ -73627,23 +74226,23 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C84">
         <v>34.5</v>
       </c>
       <c r="D84" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
@@ -73656,7 +74255,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C89">
         <v>42.7</v>
@@ -73686,7 +74285,7 @@
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="37"/>
       <c r="B91" s="37" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
@@ -74016,13 +74615,13 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="37" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>

--- a/Config/Kenya_parameters_Feb20.xlsx
+++ b/Config/Kenya_parameters_Feb20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20364"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\udrive.uw.edu\udrive\Kenya_model_Feb20\HHCoM\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Kenya_model_Feb20\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDF8645-CC3A-4C46-BEF4-79D132674587}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0181CD94-3D53-435E-A05C-EBEB0FE691BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9090" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9090" tabRatio="835" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -22,15 +22,14 @@
     <sheet name="CIN prevalence" sheetId="15" r:id="rId7"/>
     <sheet name="Screening" sheetId="2" r:id="rId8"/>
     <sheet name="CC prevalence" sheetId="3" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId10"/>
-    <sheet name="HIV prevalence" sheetId="11" r:id="rId11"/>
-    <sheet name="HIV mortality" sheetId="16" r:id="rId12"/>
-    <sheet name="HIV testing " sheetId="6" r:id="rId13"/>
-    <sheet name="ART" sheetId="12" r:id="rId14"/>
-    <sheet name="CD4" sheetId="13" r:id="rId15"/>
-    <sheet name="MTCT" sheetId="14" r:id="rId16"/>
-    <sheet name="DALY" sheetId="1" r:id="rId17"/>
-    <sheet name="Param bounds" sheetId="18" r:id="rId18"/>
+    <sheet name="HIV prevalence" sheetId="11" r:id="rId10"/>
+    <sheet name="HIV mortality" sheetId="16" r:id="rId11"/>
+    <sheet name="HIV testing " sheetId="6" r:id="rId12"/>
+    <sheet name="ART" sheetId="12" r:id="rId13"/>
+    <sheet name="CD4" sheetId="13" r:id="rId14"/>
+    <sheet name="MTCT" sheetId="14" r:id="rId15"/>
+    <sheet name="DALY" sheetId="1" r:id="rId16"/>
+    <sheet name="Param bounds" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4028,9 +4027,6 @@
     <t xml:space="preserve">   0.017928495000000   0.017928495000000   0.017928495000000   0.010398527100000   0.010398527100000   0.007350682950000                   0</t>
   </si>
   <si>
-    <t xml:space="preserve">AIDSinfo, UNAIDS (2020). Kenya national HIV prevalence </t>
-  </si>
-  <si>
     <t xml:space="preserve">CI </t>
   </si>
   <si>
@@ -4170,6 +4166,9 @@
   </si>
   <si>
     <t xml:space="preserve">DHS 2014; based on self-reported condom use at all sex acts with the most recent sex partner in the past 12 months. LB = LCL of estimates from women, UB = UCL of estimates from men </t>
+  </si>
+  <si>
+    <t>AIDSinfo, UNAIDS (Accessed Sept 2020). Kenya national HIV prevalence for adults 15-49</t>
   </si>
 </sst>
 </file>
@@ -4431,7 +4430,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4641,6 +4640,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEADCF4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F0FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -4834,7 +4845,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -4897,6 +4908,8 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="8" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5019,7 +5032,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="56">
+  <cellStyles count="58">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -5044,6 +5057,8 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Attrib" xfId="56" xr:uid="{0543D8AF-602F-4BF7-BF71-89790593D592}"/>
+    <cellStyle name="Attrib 2" xfId="57" xr:uid="{F6F347C5-2D37-4C1C-BD4F-17CEC36F83F3}"/>
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="CC" xfId="55" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
@@ -13395,67 +13410,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>4.7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3000000000000007</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.1</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.4</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.9</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.5</c:v>
+                  <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.2</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.6</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.2</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4.9000000000000004</c:v>
@@ -13470,16 +13485,16 @@
                   <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13523,91 +13538,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.7999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.7999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.7000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.2999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.8000000000000007</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.6999999999999993</c:v>
+                  <c:v>1.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4999999999999991</c:v>
+                  <c:v>1.7999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.2999999999999989</c:v>
+                  <c:v>1.7000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3000000000000007</c:v>
+                  <c:v>1.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1999999999999993</c:v>
+                  <c:v>1.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0999999999999996</c:v>
+                  <c:v>1.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.9000000000000004</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.8999999999999995</c:v>
+                  <c:v>1.3999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.8000000000000007</c:v>
+                  <c:v>1.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.7999999999999998</c:v>
+                  <c:v>1.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7000000000000002</c:v>
+                  <c:v>1.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5999999999999996</c:v>
+                  <c:v>1.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7000000000000002</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13673,91 +13688,91 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="29"/>
                       <c:pt idx="0">
+                        <c:v>5.2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>6.7</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>8.4</c:v>
-                      </c:pt>
                       <c:pt idx="2">
-                        <c:v>10</c:v>
+                        <c:v>8.1999999999999993</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>11.4</c:v>
+                        <c:v>9.5</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>12.4</c:v>
+                        <c:v>10.5</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>13</c:v>
+                        <c:v>11.1</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>13.2</c:v>
+                        <c:v>11.3</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>13.1</c:v>
+                        <c:v>11.3</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>12.8</c:v>
+                        <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>12.3</c:v>
+                        <c:v>10.6</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>11.7</c:v>
+                        <c:v>10.199999999999999</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>11.1</c:v>
+                        <c:v>9.6</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>10.5</c:v>
+                        <c:v>9.1</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>9.8000000000000007</c:v>
+                        <c:v>8.5</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>9.1999999999999993</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>8.6999999999999993</c:v>
+                        <c:v>7.6</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>8.1999999999999993</c:v>
+                        <c:v>7.3</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>7.9</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>7.6</c:v>
+                        <c:v>6.8</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>7.3</c:v>
+                        <c:v>6.7</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>7.1</c:v>
+                        <c:v>6.5</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>6.9</c:v>
+                        <c:v>6.4</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>6.7</c:v>
+                        <c:v>6.3</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>6.6</c:v>
+                        <c:v>6.1</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>6.4</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>6.2</c:v>
+                        <c:v>5.9</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>6</c:v>
+                        <c:v>5.7</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>5.8</c:v>
+                        <c:v>5.5</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>5.7</c:v>
+                        <c:v>5.3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13904,88 +13919,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>5.6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.8</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.6</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.5</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.4</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.2</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4.7</c:v>
@@ -42749,7 +42764,7 @@
         <v>1296</v>
       </c>
       <c r="H196" s="77" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I196" s="49"/>
       <c r="J196" s="49"/>
@@ -43201,13 +43216,13 @@
         <v>1072</v>
       </c>
       <c r="C221" s="37" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D221" s="37" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E221" s="37" t="s">
         <v>1326</v>
-      </c>
-      <c r="D221" s="37" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E221" s="37" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.25">
@@ -43282,13 +43297,13 @@
         <v>1072</v>
       </c>
       <c r="C227" s="37" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D227" s="37" t="s">
         <v>1329</v>
       </c>
-      <c r="D227" s="37" t="s">
+      <c r="E227" s="37" t="s">
         <v>1330</v>
-      </c>
-      <c r="E227" s="37" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.25">
@@ -43368,23 +43383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E836CD1-F16D-4F6D-B065-35D50B596CED}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AD243"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AD213"/>
-  <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="I142" sqref="I142"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43430,10 +43433,10 @@
         <v>144</v>
       </c>
       <c r="J3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K3" t="s">
         <v>1333</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1334</v>
       </c>
       <c r="N3" s="21" t="s">
         <v>80</v>
@@ -44370,7 +44373,7 @@
       </c>
       <c r="E34" s="54"/>
       <c r="F34" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="G34" s="37">
         <v>1</v>
@@ -44408,7 +44411,7 @@
       </c>
       <c r="E35" s="54"/>
       <c r="F35" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="G35" s="37">
         <v>3.1</v>
@@ -44446,7 +44449,7 @@
       </c>
       <c r="E36" s="54"/>
       <c r="F36" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="G36" s="37">
         <v>6.3</v>
@@ -44484,7 +44487,7 @@
       </c>
       <c r="E37" s="54"/>
       <c r="F37" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G37" s="37">
         <v>6.6</v>
@@ -44522,7 +44525,7 @@
       </c>
       <c r="E38" s="54"/>
       <c r="F38" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G38" s="37">
         <v>8.6999999999999993</v>
@@ -44560,7 +44563,7 @@
       </c>
       <c r="E39" s="54"/>
       <c r="F39" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G39" s="37">
         <v>9.3000000000000007</v>
@@ -44598,7 +44601,7 @@
       </c>
       <c r="E40" s="54"/>
       <c r="F40" s="21" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G40" s="37">
         <v>9.8000000000000007</v>
@@ -44629,7 +44632,7 @@
       </c>
       <c r="E41" s="54"/>
       <c r="F41" s="21" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G41" s="37">
         <v>8.4</v>
@@ -44660,7 +44663,7 @@
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="21" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G42" s="37">
         <v>4.4000000000000004</v>
@@ -44691,7 +44694,7 @@
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="21" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G43" s="37">
         <v>4</v>
@@ -46824,7 +46827,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>1011</v>
       </c>
@@ -46847,7 +46850,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>156</v>
       </c>
@@ -46870,7 +46873,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>157</v>
       </c>
@@ -46893,7 +46896,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>1012</v>
       </c>
@@ -46916,12 +46919,12 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>500</v>
       </c>
@@ -46935,7 +46938,7 @@
         <v>576</v>
       </c>
       <c r="G183" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I183" t="s">
         <v>222</v>
@@ -46956,1097 +46959,1097 @@
         <v>576</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>1990</v>
       </c>
       <c r="C184" s="40">
-        <v>5.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D184" s="40">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="E184" s="40">
-        <v>6.7</v>
+        <v>5.2</v>
       </c>
       <c r="G184" s="37">
         <f>E184-D184</f>
-        <v>2</v>
-      </c>
-      <c r="I184" s="40">
-        <v>5.9</v>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="I184">
+        <v>5.3</v>
       </c>
       <c r="J184" s="40">
-        <v>4.9000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K184" s="40">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="L184" s="40">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="M184" s="40">
-        <v>4.2</v>
-      </c>
-      <c r="N184" s="40">
-        <v>6.3</v>
-      </c>
-      <c r="P184" s="37"/>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.2</v>
+      </c>
+      <c r="N184">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O184" s="37"/>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>1991</v>
       </c>
       <c r="C185" s="40">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="D185" s="40">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="E185" s="40">
-        <v>8.4</v>
+        <v>6.7</v>
       </c>
       <c r="F185" s="37"/>
       <c r="G185" s="37">
-        <f t="shared" ref="G185:G212" si="0">E185-D185</f>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="I185" s="40">
-        <v>7.6</v>
+        <f t="shared" ref="G185:G213" si="0">E185-D185</f>
+        <v>1.5</v>
+      </c>
+      <c r="I185">
+        <v>6.9</v>
       </c>
       <c r="J185" s="40">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="K185" s="40">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="L185" s="40">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="M185" s="40">
-        <v>5.2</v>
-      </c>
-      <c r="N185" s="40">
-        <v>7.8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N185">
+        <v>5.6</v>
+      </c>
+      <c r="O185" s="37"/>
       <c r="P185" s="37"/>
-      <c r="Q185" s="37"/>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>1992</v>
       </c>
       <c r="C186" s="40">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="D186" s="40">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="E186" s="40">
-        <v>10</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F186" s="37"/>
       <c r="G186" s="37">
         <f t="shared" si="0"/>
-        <v>2.9000000000000004</v>
-      </c>
-      <c r="I186" s="40">
-        <v>9.3000000000000007</v>
+        <v>1.8999999999999995</v>
+      </c>
+      <c r="I186">
+        <v>8.5</v>
       </c>
       <c r="J186" s="40">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="K186" s="40">
-        <v>11.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L186" s="40">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="M186" s="40">
-        <v>6</v>
-      </c>
-      <c r="N186" s="40">
-        <v>9</v>
-      </c>
+        <v>4.8</v>
+      </c>
+      <c r="N186">
+        <v>6.7</v>
+      </c>
+      <c r="O186" s="37"/>
       <c r="P186" s="37"/>
-      <c r="Q186" s="37"/>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B187" s="37">
         <v>1993</v>
       </c>
       <c r="C187" s="40">
-        <v>9.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D187" s="40">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="E187" s="40">
-        <v>11.4</v>
+        <v>9.5</v>
       </c>
       <c r="F187" s="37"/>
       <c r="G187" s="37">
         <f t="shared" si="0"/>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="I187" s="40">
-        <v>10.8</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I187">
+        <v>10</v>
       </c>
       <c r="J187" s="40">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="K187" s="40">
-        <v>12.9</v>
+        <v>11.5</v>
       </c>
       <c r="L187" s="40">
-        <v>8.3000000000000007</v>
+        <v>6.6</v>
       </c>
       <c r="M187" s="40">
-        <v>6.7</v>
-      </c>
-      <c r="N187" s="40">
-        <v>10.1</v>
-      </c>
+        <v>5.5</v>
+      </c>
+      <c r="N187">
+        <v>7.6</v>
+      </c>
+      <c r="O187" s="37"/>
       <c r="P187" s="37"/>
-      <c r="Q187" s="37"/>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B188" s="37">
         <v>1994</v>
       </c>
       <c r="C188" s="40">
-        <v>10.4</v>
+        <v>9.1</v>
       </c>
       <c r="D188" s="40">
-        <v>8.8000000000000007</v>
+        <v>8</v>
       </c>
       <c r="E188" s="40">
-        <v>12.4</v>
+        <v>10.5</v>
       </c>
       <c r="F188" s="37"/>
       <c r="G188" s="37">
         <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="I188" s="40">
-        <v>11.9</v>
+        <v>2.5</v>
+      </c>
+      <c r="I188">
+        <v>11</v>
       </c>
       <c r="J188" s="40">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="K188" s="40">
-        <v>14.2</v>
+        <v>12.7</v>
       </c>
       <c r="L188" s="40">
-        <v>8.9</v>
+        <v>7.2</v>
       </c>
       <c r="M188" s="40">
-        <v>7.2</v>
-      </c>
-      <c r="N188" s="40">
-        <v>10.7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N188">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O188" s="37"/>
       <c r="P188" s="37"/>
-      <c r="Q188" s="37"/>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B189" s="37">
         <v>1995</v>
       </c>
       <c r="C189" s="40">
-        <v>10.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="D189" s="40">
-        <v>9.3000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="E189" s="40">
-        <v>13</v>
+        <v>11.1</v>
       </c>
       <c r="F189" s="37"/>
       <c r="G189" s="37">
         <f t="shared" si="0"/>
-        <v>3.6999999999999993</v>
-      </c>
-      <c r="I189" s="40">
-        <v>12.6</v>
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="I189">
+        <v>11.7</v>
       </c>
       <c r="J189" s="40">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="K189" s="40">
-        <v>15</v>
+        <v>13.6</v>
       </c>
       <c r="L189" s="40">
-        <v>9.1999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="M189" s="40">
-        <v>7.4</v>
-      </c>
-      <c r="N189" s="40">
-        <v>11.1</v>
-      </c>
+        <v>6.2</v>
+      </c>
+      <c r="N189">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="O189" s="37"/>
       <c r="P189" s="37"/>
-      <c r="Q189" s="37"/>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B190" s="37">
         <v>1996</v>
       </c>
       <c r="C190" s="40">
-        <v>11</v>
+        <v>9.9</v>
       </c>
       <c r="D190" s="40">
-        <v>9.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E190" s="40">
-        <v>13.2</v>
+        <v>11.3</v>
       </c>
       <c r="F190" s="37"/>
       <c r="G190" s="37">
         <f t="shared" si="0"/>
-        <v>3.7999999999999989</v>
-      </c>
-      <c r="I190" s="40">
-        <v>12.9</v>
+        <v>2.6000000000000014</v>
+      </c>
+      <c r="I190">
+        <v>12</v>
       </c>
       <c r="J190" s="40">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
       <c r="K190" s="40">
-        <v>15.4</v>
+        <v>13.9</v>
       </c>
       <c r="L190" s="40">
-        <v>9.1999999999999993</v>
+        <v>7.7</v>
       </c>
       <c r="M190" s="40">
-        <v>7.4</v>
-      </c>
-      <c r="N190" s="40">
-        <v>11.1</v>
-      </c>
+        <v>6.3</v>
+      </c>
+      <c r="N190">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O190" s="37"/>
       <c r="P190" s="37"/>
-      <c r="Q190" s="37"/>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B191" s="37">
         <v>1997</v>
       </c>
       <c r="C191" s="40">
-        <v>11</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D191" s="40">
-        <v>9.3000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="E191" s="40">
-        <v>13.1</v>
+        <v>11.3</v>
       </c>
       <c r="F191" s="37"/>
       <c r="G191" s="37">
         <f t="shared" si="0"/>
-        <v>3.7999999999999989</v>
-      </c>
-      <c r="I191" s="40">
-        <v>12.9</v>
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="I191">
+        <v>12.1</v>
       </c>
       <c r="J191" s="40">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
       <c r="K191" s="40">
-        <v>15.4</v>
+        <v>13.9</v>
       </c>
       <c r="L191" s="40">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="M191" s="40">
-        <v>7.3</v>
-      </c>
-      <c r="N191" s="40">
-        <v>10.9</v>
-      </c>
+        <v>6.3</v>
+      </c>
+      <c r="N191">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O191" s="37"/>
       <c r="P191" s="37"/>
-      <c r="Q191" s="37"/>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B192" s="37">
         <v>1998</v>
       </c>
       <c r="C192" s="40">
-        <v>10.7</v>
+        <v>9.6</v>
       </c>
       <c r="D192" s="40">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="E192" s="40">
-        <v>12.8</v>
+        <v>11</v>
       </c>
       <c r="F192" s="37"/>
       <c r="G192" s="37">
         <f t="shared" si="0"/>
-        <v>3.7000000000000011</v>
-      </c>
-      <c r="I192" s="40">
-        <v>12.7</v>
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="I192">
+        <v>11.8</v>
       </c>
       <c r="J192" s="40">
-        <v>10.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="K192" s="40">
-        <v>15.2</v>
+        <v>13.7</v>
       </c>
       <c r="L192" s="40">
-        <v>8.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="M192" s="40">
-        <v>7</v>
-      </c>
-      <c r="N192" s="40">
-        <v>10.5</v>
-      </c>
+        <v>6.1</v>
+      </c>
+      <c r="N192">
+        <v>8.5</v>
+      </c>
+      <c r="O192" s="37"/>
       <c r="P192" s="37"/>
-      <c r="Q192" s="37"/>
-    </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B193" s="37">
         <v>1999</v>
       </c>
       <c r="C193" s="40">
-        <v>10.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D193" s="40">
-        <v>8.8000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E193" s="40">
-        <v>12.3</v>
+        <v>10.6</v>
       </c>
       <c r="F193" s="37"/>
       <c r="G193" s="37">
         <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="I193" s="40">
-        <v>12.3</v>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="I193">
+        <v>11.5</v>
       </c>
       <c r="J193" s="40">
-        <v>10.3</v>
+        <v>9.9</v>
       </c>
       <c r="K193" s="40">
-        <v>14.7</v>
+        <v>13.3</v>
       </c>
       <c r="L193" s="40">
-        <v>8.3000000000000007</v>
+        <v>7.1</v>
       </c>
       <c r="M193" s="40">
-        <v>6.7</v>
-      </c>
-      <c r="N193" s="40">
-        <v>10</v>
-      </c>
+        <v>5.8</v>
+      </c>
+      <c r="N193">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O193" s="37"/>
       <c r="P193" s="37"/>
-      <c r="Q193" s="37"/>
-    </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B194" s="37">
         <v>2000</v>
       </c>
       <c r="C194" s="40">
-        <v>9.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="D194" s="40">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="E194" s="40">
-        <v>11.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F194" s="37"/>
       <c r="G194" s="37">
         <f t="shared" si="0"/>
-        <v>3.2999999999999989</v>
-      </c>
-      <c r="I194" s="40">
-        <v>11.8</v>
+        <v>2.3999999999999995</v>
+      </c>
+      <c r="I194">
+        <v>11</v>
       </c>
       <c r="J194" s="40">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="K194" s="40">
-        <v>14.1</v>
+        <v>12.7</v>
       </c>
       <c r="L194" s="40">
+        <v>6.7</v>
+      </c>
+      <c r="M194" s="40">
+        <v>5.5</v>
+      </c>
+      <c r="N194">
         <v>7.8</v>
       </c>
-      <c r="M194" s="40">
-        <v>6.3</v>
-      </c>
-      <c r="N194" s="40">
-        <v>9.5</v>
-      </c>
+      <c r="O194" s="37"/>
       <c r="P194" s="37"/>
-      <c r="Q194" s="37"/>
-    </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B195" s="37">
         <v>2001</v>
       </c>
       <c r="C195" s="40">
-        <v>9.3000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="D195" s="40">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="E195" s="40">
-        <v>11.1</v>
+        <v>9.6</v>
       </c>
       <c r="F195" s="37"/>
       <c r="G195" s="37">
         <f t="shared" si="0"/>
-        <v>3.1999999999999993</v>
-      </c>
-      <c r="I195" s="40">
-        <v>11.2</v>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="I195">
+        <v>10.5</v>
       </c>
       <c r="J195" s="40">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="K195" s="40">
-        <v>13.5</v>
+        <v>12.1</v>
       </c>
       <c r="L195" s="40">
+        <v>6.3</v>
+      </c>
+      <c r="M195" s="40">
+        <v>5.2</v>
+      </c>
+      <c r="N195">
         <v>7.3</v>
       </c>
-      <c r="M195" s="40">
-        <v>5.9</v>
-      </c>
-      <c r="N195" s="40">
-        <v>8.9</v>
-      </c>
+      <c r="O195" s="37"/>
       <c r="P195" s="37"/>
-      <c r="Q195" s="37"/>
-    </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B196" s="37">
         <v>2002</v>
       </c>
       <c r="C196" s="40">
-        <v>8.8000000000000007</v>
+        <v>7.9</v>
       </c>
       <c r="D196" s="40">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="E196" s="40">
-        <v>10.5</v>
+        <v>9.1</v>
       </c>
       <c r="F196" s="37"/>
       <c r="G196" s="37">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I196" s="40">
-        <v>10.6</v>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="I196">
+        <v>9.9</v>
       </c>
       <c r="J196" s="40">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="K196" s="40">
-        <v>12.7</v>
+        <v>11.4</v>
       </c>
       <c r="L196" s="40">
-        <v>6.9</v>
+        <v>5.9</v>
       </c>
       <c r="M196" s="40">
-        <v>5.5</v>
-      </c>
-      <c r="N196" s="40">
-        <v>8.3000000000000007</v>
-      </c>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N196">
+        <v>6.8</v>
+      </c>
+      <c r="O196" s="37"/>
       <c r="P196" s="37"/>
-      <c r="Q196" s="37"/>
-    </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B197" s="37">
         <v>2003</v>
       </c>
       <c r="C197" s="40">
-        <v>8.1999999999999993</v>
+        <v>7.5</v>
       </c>
       <c r="D197" s="40">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="E197" s="40">
-        <v>9.8000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="F197" s="37"/>
       <c r="G197" s="37">
         <f t="shared" si="0"/>
-        <v>2.8000000000000007</v>
-      </c>
-      <c r="I197" s="40">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="I197">
+        <v>9.3000000000000007</v>
       </c>
       <c r="J197" s="40">
-        <v>8.3000000000000007</v>
+        <v>8</v>
       </c>
       <c r="K197" s="40">
-        <v>12</v>
+        <v>10.8</v>
       </c>
       <c r="L197" s="40">
+        <v>5.5</v>
+      </c>
+      <c r="M197" s="40">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N197">
         <v>6.4</v>
       </c>
-      <c r="M197" s="40">
-        <v>5.2</v>
-      </c>
-      <c r="N197" s="40">
-        <v>7.7</v>
-      </c>
+      <c r="O197" s="37"/>
       <c r="P197" s="37"/>
-      <c r="Q197" s="37"/>
-    </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B198" s="37">
         <v>2004</v>
       </c>
       <c r="C198" s="40">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="D198" s="40">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="E198" s="40">
-        <v>9.1999999999999993</v>
+        <v>8</v>
       </c>
       <c r="F198" s="37"/>
       <c r="G198" s="37">
         <f t="shared" si="0"/>
-        <v>2.6999999999999993</v>
-      </c>
-      <c r="I198" s="40">
-        <v>9.4</v>
+        <v>1.9000000000000004</v>
+      </c>
+      <c r="I198">
+        <v>8.8000000000000007</v>
       </c>
       <c r="J198" s="40">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="K198" s="40">
-        <v>11.3</v>
+        <v>10.1</v>
       </c>
       <c r="L198" s="40">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="M198" s="40">
-        <v>4.8</v>
-      </c>
-      <c r="N198" s="40">
-        <v>7.2</v>
-      </c>
+        <v>4.3</v>
+      </c>
+      <c r="N198">
+        <v>6</v>
+      </c>
+      <c r="O198" s="37"/>
       <c r="P198" s="37"/>
-      <c r="Q198" s="37"/>
-    </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B199" s="37">
         <v>2005</v>
       </c>
       <c r="C199" s="40">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="D199" s="40">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="E199" s="40">
-        <v>8.6999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="F199" s="37"/>
       <c r="G199" s="37">
         <f t="shared" si="0"/>
-        <v>2.4999999999999991</v>
-      </c>
-      <c r="I199" s="40">
-        <v>8.9</v>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="I199">
+        <v>8.3000000000000007</v>
       </c>
       <c r="J199" s="40">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K199" s="40">
-        <v>10.7</v>
+        <v>9.6</v>
       </c>
       <c r="L199" s="40">
-        <v>5.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M199" s="40">
-        <v>4.5</v>
-      </c>
-      <c r="N199" s="40">
-        <v>6.7</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N199">
+        <v>5.7</v>
+      </c>
+      <c r="O199" s="37"/>
       <c r="P199" s="37"/>
-      <c r="Q199" s="37"/>
-    </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B200" s="37">
         <v>2006</v>
       </c>
       <c r="C200" s="40">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="D200" s="40">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="E200" s="40">
-        <v>8.1999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="F200" s="37"/>
       <c r="G200" s="37">
         <f t="shared" si="0"/>
-        <v>2.2999999999999989</v>
-      </c>
-      <c r="I200" s="40">
-        <v>8.5</v>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="I200">
+        <v>8</v>
       </c>
       <c r="J200" s="40">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="K200" s="40">
-        <v>10.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="L200" s="40">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="M200" s="40">
-        <v>4.3</v>
-      </c>
-      <c r="N200" s="40">
-        <v>6.4</v>
-      </c>
+        <v>3.9</v>
+      </c>
+      <c r="N200">
+        <v>5.4</v>
+      </c>
+      <c r="O200" s="37"/>
       <c r="P200" s="37"/>
-      <c r="Q200" s="37"/>
-    </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B201" s="37">
         <v>2007</v>
       </c>
       <c r="C201" s="40">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="D201" s="40">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="E201" s="40">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="F201" s="37"/>
       <c r="G201" s="37">
         <f t="shared" si="0"/>
-        <v>2.3000000000000007</v>
-      </c>
-      <c r="I201" s="40">
-        <v>8.1</v>
+        <v>1.5999999999999996</v>
+      </c>
+      <c r="I201">
+        <v>7.7</v>
       </c>
       <c r="J201" s="40">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="K201" s="40">
-        <v>9.8000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="L201" s="40">
-        <v>5.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="M201" s="40">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N201" s="40">
-        <v>6.1</v>
-      </c>
+        <v>3.7</v>
+      </c>
+      <c r="N201">
+        <v>5.2</v>
+      </c>
+      <c r="O201" s="37"/>
       <c r="P201" s="37"/>
-      <c r="Q201" s="37"/>
-    </row>
-    <row r="202" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B202" s="37">
         <v>2008</v>
       </c>
       <c r="C202" s="40">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="D202" s="40">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="E202" s="40">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="F202" s="37"/>
       <c r="G202" s="37">
         <f t="shared" si="0"/>
-        <v>2.1999999999999993</v>
-      </c>
-      <c r="I202" s="40">
-        <v>7.9</v>
+        <v>1.5999999999999996</v>
+      </c>
+      <c r="I202">
+        <v>7.5</v>
       </c>
       <c r="J202" s="40">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="K202" s="40">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="L202" s="40">
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M202" s="40">
-        <v>3.9</v>
-      </c>
-      <c r="N202" s="40">
-        <v>5.9</v>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="N202">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O202" s="37"/>
       <c r="P202" s="37"/>
-      <c r="Q202" s="37"/>
-    </row>
-    <row r="203" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B203" s="37">
         <v>2009</v>
       </c>
       <c r="C203" s="40">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="D203" s="40">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E203" s="40">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="F203" s="37"/>
       <c r="G203" s="37">
         <f t="shared" si="0"/>
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="I203" s="40">
-        <v>7.6</v>
+        <v>1.6000000000000005</v>
+      </c>
+      <c r="I203">
+        <v>7.3</v>
       </c>
       <c r="J203" s="40">
         <v>6.3</v>
       </c>
       <c r="K203" s="40">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="L203" s="40">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="M203" s="40">
-        <v>3.8</v>
-      </c>
-      <c r="N203" s="40">
-        <v>5.7</v>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="N203">
+        <v>5</v>
+      </c>
+      <c r="O203" s="37"/>
       <c r="P203" s="37"/>
-      <c r="Q203" s="37"/>
-    </row>
-    <row r="204" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B204" s="37">
         <v>2010</v>
       </c>
       <c r="C204" s="40">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="D204" s="40">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="E204" s="40">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="F204" s="37"/>
       <c r="G204" s="37">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I204" s="40">
-        <v>7.4</v>
+        <v>1.5</v>
+      </c>
+      <c r="I204">
+        <v>7.2</v>
       </c>
       <c r="J204" s="40">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="K204" s="40">
-        <v>8.8000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L204" s="40">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M204" s="40">
-        <v>3.7</v>
-      </c>
-      <c r="N204" s="40">
-        <v>5.5</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="N204">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O204" s="37"/>
       <c r="P204" s="37"/>
-      <c r="Q204" s="37"/>
-    </row>
-    <row r="205" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B205" s="37">
         <v>2011</v>
       </c>
       <c r="C205" s="40">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="D205" s="40">
         <v>4.9000000000000004</v>
       </c>
       <c r="E205" s="40">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="F205" s="37"/>
       <c r="G205" s="37">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I205" s="40">
-        <v>7.1</v>
+        <v>1.5</v>
+      </c>
+      <c r="I205">
+        <v>7</v>
       </c>
       <c r="J205" s="40">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K205" s="40">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="L205" s="40">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M205" s="40">
-        <v>3.6</v>
-      </c>
-      <c r="N205" s="40">
-        <v>5.3</v>
-      </c>
+        <v>3.4</v>
+      </c>
+      <c r="N205">
+        <v>4.8</v>
+      </c>
+      <c r="O205" s="37"/>
       <c r="P205" s="37"/>
-      <c r="Q205" s="37"/>
-    </row>
-    <row r="206" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B206" s="37">
         <v>2012</v>
       </c>
       <c r="C206" s="40">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="D206" s="40">
         <v>4.8</v>
       </c>
       <c r="E206" s="40">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="F206" s="37"/>
       <c r="G206" s="37">
         <f t="shared" si="0"/>
-        <v>1.9000000000000004</v>
-      </c>
-      <c r="I206" s="40">
-        <v>7</v>
+        <v>1.5</v>
+      </c>
+      <c r="I206">
+        <v>6.9</v>
       </c>
       <c r="J206" s="40">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K206" s="40">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="L206" s="40">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="M206" s="40">
-        <v>3.4</v>
-      </c>
-      <c r="N206" s="40">
-        <v>5.2</v>
-      </c>
+        <v>3.3</v>
+      </c>
+      <c r="N206">
+        <v>4.7</v>
+      </c>
+      <c r="O206" s="37"/>
       <c r="P206" s="37"/>
-      <c r="Q206" s="37"/>
-    </row>
-    <row r="207" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B207" s="37">
         <v>2013</v>
       </c>
       <c r="C207" s="40">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="D207" s="40">
         <v>4.7</v>
       </c>
       <c r="E207" s="40">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="F207" s="37"/>
       <c r="G207" s="37">
         <f t="shared" si="0"/>
-        <v>1.8999999999999995</v>
-      </c>
-      <c r="I207" s="40">
-        <v>6.9</v>
+        <v>1.3999999999999995</v>
+      </c>
+      <c r="I207">
+        <v>6.8</v>
       </c>
       <c r="J207" s="40">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K207" s="40">
-        <v>8.1999999999999993</v>
+        <v>7.8</v>
       </c>
       <c r="L207" s="40">
-        <v>4.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="M207" s="40">
-        <v>3.3</v>
-      </c>
-      <c r="N207" s="40">
-        <v>5</v>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="N207">
+        <v>4.5</v>
+      </c>
+      <c r="O207" s="37"/>
       <c r="P207" s="37"/>
-      <c r="Q207" s="37"/>
-    </row>
-    <row r="208" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B208" s="37">
         <v>2014</v>
       </c>
       <c r="C208" s="40">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="D208" s="40">
         <v>4.5999999999999996</v>
       </c>
       <c r="E208" s="40">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="F208" s="37"/>
       <c r="G208" s="37">
         <f t="shared" si="0"/>
-        <v>1.8000000000000007</v>
-      </c>
-      <c r="I208" s="40">
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="I208">
         <v>6.7</v>
       </c>
       <c r="J208" s="40">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K208" s="40">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="L208" s="40">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M208" s="40">
-        <v>3.2</v>
-      </c>
-      <c r="N208" s="40">
-        <v>4.8</v>
-      </c>
+        <v>3.1</v>
+      </c>
+      <c r="N208">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O208" s="37"/>
       <c r="P208" s="37"/>
-      <c r="Q208" s="37"/>
-    </row>
-    <row r="209" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B209" s="37">
         <v>2015</v>
       </c>
       <c r="C209" s="40">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D209" s="40">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E209" s="40">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="F209" s="37"/>
       <c r="G209" s="37">
         <f t="shared" si="0"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="I209" s="40">
-        <v>6.6</v>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="I209">
+        <v>6.5</v>
       </c>
       <c r="J209" s="40">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K209" s="40">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="L209" s="40">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M209" s="40">
-        <v>3.1</v>
-      </c>
-      <c r="N209" s="40">
-        <v>4.5999999999999996</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N209">
+        <v>4.3</v>
+      </c>
+      <c r="O209" s="37"/>
       <c r="P209" s="37"/>
-      <c r="Q209" s="37"/>
-    </row>
-    <row r="210" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B210" s="37">
         <v>2016</v>
       </c>
       <c r="C210" s="40">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="D210" s="40">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E210" s="40">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="F210" s="37"/>
       <c r="G210" s="37">
         <f t="shared" si="0"/>
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="I210" s="40">
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="I210">
         <v>6.4</v>
       </c>
       <c r="J210" s="40">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K210" s="40">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="L210" s="40">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M210" s="40">
-        <v>3</v>
-      </c>
-      <c r="N210" s="40">
-        <v>4.5</v>
-      </c>
+        <v>2.9</v>
+      </c>
+      <c r="N210">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O210" s="37"/>
       <c r="P210" s="37"/>
-      <c r="Q210" s="37"/>
-    </row>
-    <row r="211" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B211" s="37">
         <v>2017</v>
       </c>
       <c r="C211" s="40">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="D211" s="40">
         <v>4.2</v>
       </c>
       <c r="E211" s="40">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="F211" s="37"/>
       <c r="G211" s="37">
         <f t="shared" si="0"/>
-        <v>1.5999999999999996</v>
-      </c>
-      <c r="I211" s="40">
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="I211">
         <v>6.2</v>
       </c>
       <c r="J211" s="40">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K211" s="40">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="L211" s="40">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M211" s="40">
-        <v>2.9</v>
-      </c>
-      <c r="N211" s="40">
-        <v>4.3</v>
-      </c>
+        <v>2.8</v>
+      </c>
+      <c r="N211">
+        <v>4</v>
+      </c>
+      <c r="O211" s="37"/>
       <c r="P211" s="37"/>
-      <c r="Q211" s="37"/>
-    </row>
-    <row r="212" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B212" s="37">
         <v>2018</v>
       </c>
@@ -48054,42 +48057,162 @@
         <v>4.7</v>
       </c>
       <c r="D212" s="40">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E212" s="40">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="F212" s="37"/>
       <c r="G212" s="37">
         <f t="shared" si="0"/>
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="I212" s="40">
-        <v>6.1</v>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="I212">
+        <v>6</v>
       </c>
       <c r="J212" s="40">
+        <v>5.2</v>
+      </c>
+      <c r="K212" s="40">
+        <v>7</v>
+      </c>
+      <c r="L212" s="40">
+        <v>3.3</v>
+      </c>
+      <c r="M212" s="40">
+        <v>2.7</v>
+      </c>
+      <c r="N212">
+        <v>3.8</v>
+      </c>
+      <c r="O212" s="37"/>
+      <c r="P212" s="37"/>
+    </row>
+    <row r="213" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>2019</v>
+      </c>
+      <c r="C213" s="40">
+        <v>4.5</v>
+      </c>
+      <c r="D213" s="40">
+        <v>4</v>
+      </c>
+      <c r="E213" s="40">
+        <v>5.2</v>
+      </c>
+      <c r="G213" s="84">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="I213">
+        <v>5.8</v>
+      </c>
+      <c r="J213">
         <v>5</v>
       </c>
-      <c r="K212" s="40">
-        <v>7.2</v>
-      </c>
-      <c r="L212" s="40">
-        <v>3.4</v>
-      </c>
-      <c r="M212" s="40">
-        <v>2.8</v>
-      </c>
-      <c r="N212" s="40">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P212" s="37"/>
-      <c r="Q212" s="37"/>
-    </row>
-    <row r="213" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K213" s="37" t="str">
-        <f>LEFT(L213,4)</f>
-        <v/>
-      </c>
+      <c r="K213" s="37">
+        <v>6.7</v>
+      </c>
+      <c r="L213">
+        <v>3.2</v>
+      </c>
+      <c r="M213">
+        <v>2.6</v>
+      </c>
+      <c r="N213">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="214" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C214" s="84"/>
+    </row>
+    <row r="215" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C215" s="84"/>
+    </row>
+    <row r="216" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C216" s="84"/>
+    </row>
+    <row r="217" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C217" s="84"/>
+    </row>
+    <row r="218" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C218" s="84"/>
+    </row>
+    <row r="219" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C219" s="84"/>
+    </row>
+    <row r="220" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C220" s="84"/>
+    </row>
+    <row r="221" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C221" s="84"/>
+    </row>
+    <row r="222" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C222" s="84"/>
+    </row>
+    <row r="223" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C223" s="84"/>
+    </row>
+    <row r="224" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C224" s="84"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" s="84"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" s="84"/>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C227" s="84"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228" s="84"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229" s="84"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C230" s="84"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C231" s="84"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232" s="84"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C233" s="84"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234" s="84"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C235" s="84"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C236" s="84"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C237" s="84"/>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238" s="84"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C239" s="84"/>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240" s="84"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" s="84"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" s="84"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48098,7 +48221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:R81"/>
   <sheetViews>
@@ -49990,7 +50113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -50102,7 +50225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Z194"/>
   <sheetViews>
@@ -52022,7 +52145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -52088,7 +52211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A2:H90"/>
   <sheetViews>
@@ -52972,7 +53095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -53544,7 +53667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E3F8A6-BB0F-4F7C-B697-F36F790CC179}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -53560,60 +53683,60 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1351</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1352</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1353</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="84" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="84" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="84" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="84" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="84" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C8"/>
     </row>
@@ -53632,10 +53755,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C14" s="84" t="s">
         <v>1369</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>1370</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -53644,7 +53767,7 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
   </sheetData>
@@ -53657,7 +53780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="S103" sqref="S102:S103"/>
     </sheetView>
   </sheetViews>
@@ -58197,7 +58320,7 @@
       </c>
       <c r="G194" s="72"/>
       <c r="H194" s="72" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I194" s="72"/>
       <c r="J194" s="72" t="s">
@@ -58807,18 +58930,18 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C257" t="s">
         <v>1366</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
         <v>1367</v>
-      </c>
-      <c r="D257" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -69564,7 +69687,7 @@
         <v>106</v>
       </c>
       <c r="H71" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -70178,7 +70301,7 @@
         <v>1</v>
       </c>
       <c r="H130" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -73793,10 +73916,10 @@
         <v>1165</v>
       </c>
       <c r="F45" s="84" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G45" s="84" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -74285,7 +74408,7 @@
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="37"/>
       <c r="B91" s="37" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
